--- a/02Data/jieba_pkuseg.xlsx
+++ b/02Data/jieba_pkuseg.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[('面对', 'v'), ('暴雨', 'n'), ('收好', 'v'), ('这份', 'mq'), ('避险', 'v'), ('生存', 'v'), ('指南', 'n'), ('蜀黍', 'n'), ('姿势', 'n'), ('近日来', 'l'), ('小时', 'n'), ('暴雨', 'n'), ('记录', 'n'), ('刷新', 'v'), ('接连不断', 'l'), ('罕见', 'a'), ('暴雨', 'n'), ('袭击', 'v'), ('多个', 'm'), ('城市', 'ns'), ('熟悉', 'v'), ('交通工具', 'l'), ('变得', 'v'), ('不再', 'd'), ('安全', 'an'), ('远离', 'v'), ('看不见', 'v'), ('危险', 'an'), ('面对', 'v'), ('暴雨', 'n'), ('避险', 'v'), ('脱困', 'v'), ('视频', 'n'), ('收下', 'v'), ('这份', 'mq'), ('生存', 'v'), ('指南', 'n'), ('小央', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('面对', 'v'), ('暴雨', 'n'), ('收好', 'v'), ('避险', 'v'), ('生存', 'v'), ('指南', 'n'), ('蜀黍', 'n'), ('姿势', 'n'), ('近日来', 'l'), ('小时', 'n'), ('暴雨', 'n'), ('记录', 'n'), ('刷新', 'v'), ('接连不断', 'l'), ('罕见', 'a'), ('暴雨', 'n'), ('袭击', 'v'), ('熟悉', 'v'), ('交通工具', 'l'), ('变得', 'v'), ('安全', 'an'), ('远离', 'v'), ('看不见', 'v'), ('危险', 'an'), ('面对', 'v'), ('暴雨', 'n'), ('避险', 'v'), ('脱困', 'v'), ('视频', 'n'), ('收下', 'v'), ('生存', 'v'), ('指南', 'n'), ('小央', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('省内', 's'), ('高速', 'd'), ('通行', 'j'), ('情况', 'n'), ('收费站', 'n'), ('临时', 'b'), ('抢修', 'v'), ('施工', 'vn'), ('高速', 'd'), ('新乡', 'ns'), ('东站', 'n'), ('北口', 'ns'), ('禁止', 'v'), ('路面', 'n'), ('通行', 'j'), ('条件', 'n'), ('受限', 'v'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'ns'), ('高速', 'd'), ('互通', 'n'), ('处以', 'v'), ('东至', 'ns'), ('尉氏', 'nr'), ('北站', 'ns'), ('主线', 'n'), ('禁止', 'v'), ('以上', 'f'), ('客车', 'n'), ('货车', 'n'), ('通行', 'j'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'd'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('地磅', 'n'), ('故障', 'n'), ('商登', 'nr'), ('高速', 'd'), ('超化', 'v'), ('寺站', 'n'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速公路', 'n'), ('正常', 'd'), ('通行', 'j'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('中原', 'ns'), ('高速', 'd'), ('交警', 'j')]</t>
+          <t>[('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('通行', 'j'), ('情况', 'n'), ('收费站', 'n'), ('临时', 'b'), ('抢修', 'v'), ('施工', 'vn'), ('东站', 'n'), ('禁止', 'v'), ('路面', 'n'), ('通行', 'j'), ('条件', 'n'), ('受限', 'v'), ('商登', 'nr'), ('互通', 'n'), ('处以', 'v'), ('尉氏', 'nr'), ('主线', 'n'), ('禁止', 'v'), ('客车', 'n'), ('货车', 'n'), ('通行', 'j'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('地磅', 'n'), ('故障', 'n'), ('商登', 'nr'), ('超化', 'v'), ('寺站', 'n'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('提前', 'v'), ('绕行', 'v'), ('高速公路', 'n'), ('通行', 'j'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('交警', 'j')]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), (',:', 'n'), ('目前', 't'), ('省内', 's'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('收费站', 'n'), ('临时', 'd'), ('抢修', 'v'), ('施工', 'v'), ('菏宝', 'ns'), ('高速', 'b'), ('新乡', 'ns'), ('东站', 'ns'), ('北口', 'ns'), ('禁止', 'v'), ('上下站', 'j'), ('路面', 'n'), ('通行', 'vn'), ('条件', 'n'), ('受限', 'n'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'nr'), ('高速', 'd'), ('互通', 'v'), ('处以', 'v'), ('东至', 'ns'), ('尉氏', 'nz'), ('北站', 'j'), ('主线', 'n'), ('禁止座', 'n'), ('以上', 'f'), ('客车', 'n'), ('货车', 'n'), ('通行', 'v'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('地磅', 'n'), ('故障', 'n'), ('商登', 'nr'), ('高速', 'd'), ('超化', 'v'), ('寺站', 'n'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('您行', 'r'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), (',:', 'n'), ('目前', 't'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('收费站', 'n'), ('抢修', 'v'), ('施工', 'v'), ('高速', 'b'), ('禁止', 'v'), ('上下站', 'j'), ('路面', 'n'), ('通行', 'vn'), ('条件', 'n'), ('受限', 'n'), ('商登', 'nr'), ('安罗', 'nr'), ('互通', 'v'), ('处以', 'v'), ('北站', 'j'), ('主线', 'n'), ('禁止座', 'n'), ('客车', 'n'), ('货车', 'n'), ('通行', 'v'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('地磅', 'n'), ('故障', 'n'), ('商登', 'nr'), ('超化', 'v'), ('寺站', 'n'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('提前', 'v'), ('绕行', 'v'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('高速', 'b'), ('交警', 'n')]</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('大暴雨', 'i'), ('灾害', 'n'), ('今天', 't'), ('回来', 'v'), ('看到', 'v'), ('交通事故', 'n'), ('大叔', 'n'), ('满身', 'v'), ('血淋淋', 'z'), ('坐在', 'v'), ('前几日', 'i'), ('杭州', 'ns'), ('电瓶车', 'n'), ('自燃', 'v'), ('起来', 'v'), ('心惊肉跳', 'i')]</t>
+          <t>[('大暴雨', 'i'), ('灾害', 'n'), ('今天', 't'), ('回来', 'v'), ('看到', 'v'), ('交通事故', 'n'), ('大叔', 'n'), ('满身', 'v'), ('血淋淋', 'z'), ('坐在', 'v'), ('前几日', 'i'), ('电瓶车', 'n'), ('自燃', 'v'), ('起来', 'v'), ('心惊肉跳', 'i')]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('大暴雨', 'n'), ('灾害', 'n'), ('今天', 't'), ('回来', 'v'), ('看到', 'v'), ('交通', 'n'), ('事故', 'n'), ('大叔', 'n'), ('满身', 'n'), ('血淋', 'n'), ('淋坐', 'v'), ('几日', 'r'), ('杭州', 'ns'), ('电瓶车', 'n'), ('自燃', 'v'), ('起来', 'v'), ('心惊肉跳', 'i')]</t>
+          <t>[('大暴雨', 'n'), ('灾害', 'n'), ('今天', 't'), ('回来', 'v'), ('看到', 'v'), ('交通', 'n'), ('事故', 'n'), ('大叔', 'n'), ('满身', 'n'), ('血淋', 'n'), ('淋坐', 'v'), ('电瓶车', 'n'), ('自燃', 'v'), ('起来', 'v'), ('心惊肉跳', 'i')]</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频频', 'd'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[('湖南', 'ns'), ('暴雨', 'n'), ('收费站', 'n'), ('管制', 'vn'), ('今日', 't'), ('晚间', 't'), ('湖南', 'ns'), ('部分', 'n'), ('地区', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('中国', 'ns'), ('交通广播', 'l'), ('派出', 'v'), ('四路', 'm'), ('记者', 'n'), ('分别', 'd'), ('驻点', 'n'), ('湖南', 'ns'), ('高速', 'd'), ('路网', 'n'), ('运行', 'v'), ('监测中心', 'n'), ('长沙', 'ns'), ('城区', 'n'), ('交通', 'n'), ('主干线', 'n'), ('听众', 'n'), ('进行', 'v'), ('雨天', 't'), ('实时', 'd'), ('报道', 'v'), ('截至', 'v'), ('部分', 'n'), ('收费站', 'n'), ('管制', 'vn'), ('当中', 's'), ('长沙', 'ns'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('情况', 'n'), ('广大', 'a'), ('驾驶员', 'n'), ('朋友', 'n'), ('注意', 'v'), ('降低', 'v'), ('车速', 'n'), ('控制', 'v'), ('距离', 'n'), ('打开', 'v'), ('车灯', 'n'), ('谨防', 'v'), ('意外', 'a'), ('具体', 'a'), ('路况', 'n'), ('信息', 'n'), ('如图所示', 'i'), ('湖南', 'ns'), ('高速', 'd'), ('长沙', 'ns'), ('身边', 's')]</t>
+          <t>[('暴雨', 'n'), ('收费站', 'n'), ('管制', 'vn'), ('今日', 't'), ('晚间', 't'), ('部分', 'n'), ('地区', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('交通广播', 'l'), ('派出', 'v'), ('记者', 'n'), ('驻点', 'n'), ('路网', 'n'), ('运行', 'v'), ('监测中心', 'n'), ('城区', 'n'), ('交通', 'n'), ('主干线', 'n'), ('听众', 'n'), ('进行', 'v'), ('雨天', 't'), ('报道', 'v'), ('截至', 'v'), ('部分', 'n'), ('收费站', 'n'), ('管制', 'vn'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('情况', 'n'), ('广大', 'a'), ('驾驶员', 'n'), ('朋友', 'n'), ('注意', 'v'), ('降低', 'v'), ('车速', 'n'), ('控制', 'v'), ('距离', 'n'), ('打开', 'v'), ('车灯', 'n'), ('谨防', 'v'), ('意外', 'a'), ('具体', 'a'), ('路况', 'n'), ('信息', 'n'), ('如图所示', 'i')]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[('湖南', 'ns'), ('暴雨', 'n'), ('收费站', 'n'), ('管制', 'v'), ('今日', 't'), ('晚间', 't'), ('湖南', 'ns'), ('部分', 'n'), ('地区', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('中国', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('派出', 'v'), ('记者', 'n'), ('分别', 'd'), ('驻点', 'v'), ('湖南', 'ns'), ('高速路', 'ns'), ('运行', 'vn'), ('监测', 'vn'), ('中心', 'n'), ('长沙', 'ns'), ('城区', 'n'), ('交通', 'n'), ('主干线', 'n'), ('听众', 'n'), ('进行', 'vx'), ('雨天', 'n'), ('实时', 'd'), ('报道', 'v'), ('截至', 'v'), ('部分', 'n'), ('收费站', 'n'), ('管制', 'v'), ('当中', 'f'), ('长沙', 'ns'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('情况', 'n'), ('广大', 'a'), ('驾驶员', 'n'), ('朋友', 'n'), ('注意', 'v'), ('降低', 'v'), ('车速', 'n'), ('控制', 'vn'), ('距离', 'n'), ('打开', 'v'), ('车灯', 'n'), ('谨防', 'v'), ('意外', 'a'), ('具体', 'a'), ('路况', 'n'), ('信息', 'n'), ('如图', 'v'), ('湖南', 'ns'), ('高速', 'd'), ('长沙', 'ns'), ('身边', 's')]</t>
+          <t>[('暴雨', 'n'), ('收费站', 'n'), ('管制', 'v'), ('今日', 't'), ('晚间', 't'), ('部分', 'n'), ('地区', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('交通', 'n'), ('广播', 'vn'), ('派出', 'v'), ('记者', 'n'), ('驻点', 'v'), ('运行', 'vn'), ('监测', 'vn'), ('中心', 'n'), ('城区', 'n'), ('交通', 'n'), ('主干线', 'n'), ('听众', 'n'), ('进行', 'vx'), ('雨天', 'n'), ('报道', 'v'), ('截至', 'v'), ('部分', 'n'), ('收费站', 'n'), ('管制', 'v'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('情况', 'n'), ('广大', 'a'), ('驾驶员', 'n'), ('朋友', 'n'), ('注意', 'v'), ('降低', 'v'), ('车速', 'n'), ('控制', 'vn'), ('距离', 'n'), ('打开', 'v'), ('车灯', 'n'), ('谨防', 'v'), ('意外', 'a'), ('具体', 'a'), ('路况', 'n'), ('信息', 'n'), ('如图', 'v')]</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[('群众', 'n'), ('办实事', 'n'), ('头顶', 'n'), ('暴雨', 'n'), ('脚踏', 'v'), ('积水', 'n'), ('疏导', 'v'), ('交通', 'n'), ('帮助', 'v'), ('受困', 'v'), ('车辆', 'n'), ('化身', 'n'), ('平安', 'a'), ('护航', 'v'), ('平安', 'a'), ('晋城', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('群众', 'n'), ('办实事', 'n'), ('头顶', 'n'), ('暴雨', 'n'), ('脚踏', 'v'), ('积水', 'n'), ('疏导', 'v'), ('交通', 'n'), ('帮助', 'v'), ('受困', 'v'), ('车辆', 'n'), ('化身', 'n'), ('平安', 'a'), ('护航', 'v'), ('平安', 'a'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[('群众', 'n'), ('实事', 'n'), ('头顶', 'n'), ('暴雨', 'n'), ('脚踏', 'n'), ('积水', 'n'), ('疏导', 'v'), ('交通', 'n'), ('帮助', 'v'), ('受困', 'v'), ('车辆', 'n'), ('化身', 'v'), ('平安', 'ad'), ('护航', 'v'), ('平安', 'nz'), ('晋城', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('群众', 'n'), ('实事', 'n'), ('头顶', 'n'), ('暴雨', 'n'), ('脚踏', 'n'), ('积水', 'n'), ('疏导', 'v'), ('交通', 'n'), ('帮助', 'v'), ('受困', 'v'), ('车辆', 'n'), ('化身', 'v'), ('平安', 'ad'), ('护航', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -826,47 +826,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>【雨中，你们坚守的样子真帅！】早上点，正值出行早高峰，一场突袭的暴雨倾注了这座城市，为确保雨天辖区道路安全畅通，避免因大雨造成的交通事故，冒雨在辖区各个主要路段执勤，有的甚至来不及换上雨衣，淋着雨指挥车辆，疏导交通，全力保障恶劣天气下市民出行畅通，成为大雨中最美丽的风景线。@四川公安@四川交警@四川长安网南充公安的微博视频</t>
+          <t>【雨中，你们坚守的样子真帅！】早上点，正值出行早高峰，一场突袭的暴雨倾注了这座城市，为确保雨天辖区道路安全畅通，避免因大雨造成的交通事故，全体民辅警，冒雨在辖区各个主要路段执勤，有的甚至来不及换上雨衣，淋着雨指挥车辆，疏导交通，全力保障恶劣天气下市民出行畅通，成为大雨中最美丽的风景线。</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['【', '雨中', '，', '你们', '坚守', '的', '样子', '真帅', '！', '】', '早上', '点', '，', '正值', '出行', '早', '高峰', '，', '一场', '突袭', '的', '暴雨', '倾注', '了', '这座', '城市', '，', '为', '确保', '雨天', '辖区', '道路', '安全', '畅通', '，', '避免', '因', '大雨', '造成', '的', '交通事故', '，', '冒雨', '在', '辖区', '各个', '主要', '路段', '执勤', '，', '有', '的', '甚至', '来不及', '换上', '雨衣', '，', '淋着', '雨', '指挥', '车辆', '，', '疏导', '交通', '，', '全力', '保障', '恶劣', '天气', '下', '市民', '出行', '畅通', '，', '成为', '大雨', '中', '最', '美丽', '的', '风景线', '。', '@', '四川', '公安', '@', '四川', '交警', '@', '四川', '长安', '网', '南充', '公安', '的', '微博', '视频']</t>
+          <t>['【', '雨中', '，', '你们', '坚守', '的', '样子', '真帅', '！', '】', '早上', '点', '，', '正值', '出行', '早', '高峰', '，', '一场', '突袭', '的', '暴雨', '倾注', '了', '这座', '城市', '，', '为', '确保', '雨天', '辖区', '道路', '安全', '畅通', '，', '避免', '因', '大雨', '造成', '的', '交通事故', '，', '全体', '民辅警', '，', '冒雨', '在', '辖区', '各个', '主要', '路段', '执勤', '，', '有', '的', '甚至', '来不及', '换上', '雨衣', '，', '淋着', '雨', '指挥', '车辆', '，', '疏导', '交通', '，', '全力', '保障', '恶劣', '天气', '下', '市民', '出行', '畅通', '，', '成为', '大雨', '中', '最', '美丽', '的', '风景线', '。']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['【', '雨', '中', '，', '你们', '坚守', '的', '样子', '真帅', '！', '】', '早上', '点', '，', '正值', '出行', '早高峰', '，', '一', '场', '突袭', '的', '暴雨', '倾注', '了', '这', '座', '城市', '，', '为', '确保', '雨天', '辖区', '道路', '安全', '畅通', '，', '避免', '因', '大雨', '造成', '的', '交通', '事故', '，', '冒雨', '在', '辖区', '各个', '主要', '路段', '执勤', '，', '有的', '甚至', '来不及', '换上', '雨衣', '，', '淋', '着', '雨', '指挥', '车辆', '，', '疏导', '交通', '，', '全力', '保障', '恶劣', '天气', '下', '市民', '出行', '畅通', '，', '成为', '大雨', '中', '最', '美丽', '的', '风景线', '。', '@', '四川', '公安', '@', '四川', '交警', '@', '四川', '长安网', '南充', '公安', '的', '微博', '视频']</t>
+          <t>['【', '雨', '中', '，', '你们', '坚守', '的', '样子', '真帅', '！', '】', '早上', '点', '，', '正值', '出行', '早高峰', '，', '一', '场', '突袭', '的', '暴雨', '倾注', '了', '这', '座', '城市', '，', '为', '确保', '雨天', '辖区', '道路', '安全', '畅通', '，', '避免', '因', '大雨', '造成', '的', '交通', '事故', '，', '全', '体民', '辅警', '，', '冒雨', '在', '辖区', '各个', '主要', '路段', '执勤', '，', '有的', '甚至', '来不及', '换上', '雨衣', '，', '淋', '着', '雨', '指挥', '车辆', '，', '疏导', '交通', '，', '全力', '保障', '恶劣', '天气', '下', '市民', '出行', '畅通', '，', '成为', '大雨', '中', '最', '美丽', '的', '风景线', '。']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['雨中', '坚守', '样子', '真帅', '早上', '正值', '出行', '高峰', '一场', '突袭', '暴雨', '倾注', '这座', '城市', '确保', '雨天', '辖区', '道路', '安全', '畅通', '避免', '大雨', '造成', '交通事故', '冒雨', '辖区', '主要', '路段', '执勤', '来不及', '换上', '雨衣', '淋着', '指挥', '车辆', '疏导', '交通', '全力', '保障', '恶劣', '天气', '市民', '出行', '畅通', '成为', '大雨', '美丽', '风景线', '四川', '公安', '四川', '交警', '四川', '长安', '南充', '公安', '微博', '视频']</t>
+          <t>['雨中', '坚守', '样子', '真帅', '早上', '正值', '出行', '高峰', '一场', '突袭', '暴雨', '倾注', '这座', '城市', '确保', '雨天', '辖区', '道路', '安全', '畅通', '避免', '大雨', '造成', '交通事故', '全体', '民辅警', '冒雨', '辖区', '主要', '路段', '执勤', '来不及', '换上', '雨衣', '淋着', '指挥', '车辆', '疏导', '交通', '全力', '保障', '恶劣', '天气', '市民', '出行', '畅通', '成为', '大雨', '美丽', '风景线']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['坚守', '样子', '真帅', '早上', '正值', '出行', '早高峰', '突袭', '暴雨', '倾注', '城市', '确保', '雨天', '辖区', '道路', '安全', '畅通', '避免', '大雨', '造成', '交通', '事故', '冒雨', '辖区', '主要', '路段', '执勤', '来不及', '换上', '雨衣', '指挥', '车辆', '疏导', '交通', '全力', '保障', '恶劣', '天气', '市民', '出行', '畅通', '成为', '大雨', '美丽', '风景线', '四川', '公安', '四川', '交警', '四川', '长安网', '南充', '公安', '微博', '视频']</t>
+          <t>['坚守', '样子', '真帅', '早上', '正值', '出行', '早高峰', '突袭', '暴雨', '倾注', '城市', '确保', '雨天', '辖区', '道路', '安全', '畅通', '避免', '大雨', '造成', '交通', '事故', '体民', '辅警', '冒雨', '辖区', '主要', '路段', '执勤', '来不及', '换上', '雨衣', '指挥', '车辆', '疏导', '交通', '全力', '保障', '恶劣', '天气', '市民', '出行', '畅通', '成为', '大雨', '美丽', '风景线']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('雨', 'n'), ('中', 'f'), ('，', 'x'), ('你们', 'r'), ('坚守', 'v'), ('的', 'uj'), ('样子', 'n'), ('真帅', 'n'), ('！', 'x'), ('】', 'x'), ('早上', 't'), ('点', 'm'), ('，', 'x'), ('正值', 'n'), ('出行', 'v'), ('早', 'a'), ('高峰', 'nr'), ('，', 'x'), ('一场', 'm'), ('突袭', 'vn'), ('的', 'uj'), ('暴雨', 'n'), ('倾注', 'v'), ('了', 'ul'), ('这', 'r'), ('座', 'q'), ('城市', 'ns'), ('，', 'x'), ('为', 'p'), ('确保', 'v'), ('雨天', 't'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('，', 'x'), ('避免', 'v'), ('因', 'p'), ('大雨', 'n'), ('造成', 'v'), ('的', 'uj'), ('交通事故', 'n'), ('，', 'x'), ('冒雨', 'v'), ('在', 'p'), ('辖区', 'n'), ('各个', 'r'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'vn'), ('，', 'x'), ('有', 'v'), ('的', 'uj'), ('甚至', 'd'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('，', 'x'), ('淋', 'v'), ('着', 'uz'), ('雨', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('，', 'x'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('全力', 'n'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('，', 'x'), ('成为', 'v'), ('大雨', 'n'), ('中', 'f'), ('最', 'd'), ('美丽', 'ns'), ('的', 'uj'), ('风景线', 'n'), ('。', 'x'), ('@', 'x'), ('四川', 'ns'), ('公安', 'n'), ('@', 'x'), ('四川', 'ns'), ('交警', 'j'), ('@', 'x'), ('四川', 'ns'), ('长安', 'ns'), ('网', 'n'), ('南充', 'ns'), ('公安', 'n'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'x'), ('雨', 'n'), ('中', 'f'), ('，', 'x'), ('你们', 'r'), ('坚守', 'v'), ('的', 'uj'), ('样子', 'n'), ('真帅', 'n'), ('！', 'x'), ('】', 'x'), ('早上', 't'), ('点', 'm'), ('，', 'x'), ('正值', 'n'), ('出行', 'v'), ('早', 'a'), ('高峰', 'nr'), ('，', 'x'), ('一场', 'm'), ('突袭', 'vn'), ('的', 'uj'), ('暴雨', 'n'), ('倾注', 'v'), ('了', 'ul'), ('这', 'r'), ('座', 'q'), ('城市', 'ns'), ('，', 'x'), ('为', 'p'), ('确保', 'v'), ('雨天', 't'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('，', 'x'), ('避免', 'v'), ('因', 'p'), ('大雨', 'n'), ('造成', 'v'), ('的', 'uj'), ('交通事故', 'n'), ('，', 'x'), ('全体', 'n'), ('民辅', 'n'), ('警', 'n'), ('，', 'x'), ('冒雨', 'v'), ('在', 'p'), ('辖区', 'n'), ('各个', 'r'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'vn'), ('，', 'x'), ('有', 'v'), ('的', 'uj'), ('甚至', 'd'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('，', 'x'), ('淋', 'v'), ('着', 'uz'), ('雨', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('，', 'x'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('全力', 'n'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('，', 'x'), ('成为', 'v'), ('大雨', 'n'), ('中', 'f'), ('最', 'd'), ('美丽', 'ns'), ('的', 'uj'), ('风景线', 'n'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[('【', 'v'), ('雨', 'n'), ('中', 'f'), ('，', 'w'), ('你们', 'r'), ('坚守', 'v'), ('的', 'u'), ('样子', 'n'), ('真帅', 'n'), ('！', 'w'), ('】', 'v'), ('早上', 't'), ('点', 'n'), ('，', 'w'), ('正值', 'v'), ('出行', 'v'), ('早高峰', 'n'), ('，', 'w'), ('一', 'm'), ('场', 'q'), ('突袭', 'v'), ('的', 'u'), ('暴雨', 'n'), ('倾注', 'v'), ('了', 'u'), ('这', 'r'), ('座', 'q'), ('城市', 'n'), ('，', 'w'), ('为', 'v'), ('确保', 'v'), ('雨天', 'n'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('，', 'w'), ('避免', 'v'), ('因', 'p'), ('大雨', 'n'), ('造成', 'v'), ('的', 'u'), ('交通', 'n'), ('事故', 'n'), ('，', 'w'), ('冒雨', 'v'), ('在', 'p'), ('辖区', 'n'), ('各个', 'r'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'v'), ('，', 'w'), ('有的', 'r'), ('甚至', 'd'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('，', 'w'), ('淋', 'v'), ('着', 'u'), ('雨', 'n'), ('指挥', 'vn'), ('车辆', 'n'), ('，', 'w'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('全力', 'd'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('，', 'w'), ('成为', 'v'), ('大雨', 'n'), ('中', 'f'), ('最', 'd'), ('美丽', 'a'), ('的', 'u'), ('风景线', 'n'), ('。', 'w'), ('@', 'v'), ('四川', 'ns'), ('公安', 'n'), ('@', 'v'), ('四川', 'ns'), ('交警', 'n'), ('@', 'v'), ('四川', 'ns'), ('长安网', 'ns'), ('南充', 'ns'), ('公安', 'n'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'v'), ('雨', 'n'), ('中', 'f'), ('，', 'w'), ('你们', 'r'), ('坚守', 'v'), ('的', 'u'), ('样子', 'n'), ('真帅', 'n'), ('！', 'w'), ('】', 'v'), ('早上', 't'), ('点', 'n'), ('，', 'w'), ('正值', 'v'), ('出行', 'v'), ('早高峰', 'n'), ('，', 'w'), ('一', 'm'), ('场', 'q'), ('突袭', 'v'), ('的', 'u'), ('暴雨', 'n'), ('倾注', 'v'), ('了', 'u'), ('这', 'r'), ('座', 'q'), ('城市', 'n'), ('，', 'w'), ('为', 'v'), ('确保', 'v'), ('雨天', 'n'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('，', 'w'), ('避免', 'v'), ('因', 'p'), ('大雨', 'n'), ('造成', 'v'), ('的', 'u'), ('交通', 'n'), ('事故', 'n'), ('，', 'w'), ('全', 'a'), ('体民', 'n'), ('辅警', 'n'), ('，', 'w'), ('冒雨', 'v'), ('在', 'p'), ('辖区', 'n'), ('各个', 'r'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'v'), ('，', 'w'), ('有的', 'r'), ('甚至', 'd'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('，', 'w'), ('淋', 'v'), ('着', 'u'), ('雨', 'n'), ('指挥', 'vn'), ('车辆', 'n'), ('，', 'w'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('全力', 'd'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('，', 'w'), ('成为', 'v'), ('大雨', 'n'), ('中', 'f'), ('最', 'd'), ('美丽', 'a'), ('的', 'u'), ('风景线', 'n'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[('坚守', 'v'), ('样子', 'n'), ('真帅', 'n'), ('早上', 't'), ('正值', 'n'), ('出行', 'v'), ('高峰', 'nr'), ('一场', 'm'), ('突袭', 'vn'), ('暴雨', 'n'), ('倾注', 'v'), ('城市', 'ns'), ('确保', 'v'), ('雨天', 't'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('避免', 'v'), ('大雨', 'n'), ('造成', 'v'), ('交通事故', 'n'), ('冒雨', 'v'), ('辖区', 'n'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'vn'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('全力', 'n'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('成为', 'v'), ('大雨', 'n'), ('美丽', 'ns'), ('风景线', 'n'), ('四川', 'ns'), ('公安', 'n'), ('四川', 'ns'), ('交警', 'j'), ('四川', 'ns'), ('长安', 'ns'), ('南充', 'ns'), ('公安', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('坚守', 'v'), ('样子', 'n'), ('真帅', 'n'), ('早上', 't'), ('正值', 'n'), ('出行', 'v'), ('高峰', 'nr'), ('突袭', 'vn'), ('暴雨', 'n'), ('倾注', 'v'), ('确保', 'v'), ('雨天', 't'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('避免', 'v'), ('大雨', 'n'), ('造成', 'v'), ('交通事故', 'n'), ('全体', 'n'), ('民辅', 'n'), ('冒雨', 'v'), ('辖区', 'n'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'vn'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('全力', 'n'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('成为', 'v'), ('大雨', 'n'), ('风景线', 'n')]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[('坚守', 'v'), ('样子', 'n'), ('真帅', 'n'), ('早上', 't'), ('正值', 'v'), ('出行', 'v'), ('早高峰', 'n'), ('突袭', 'v'), ('暴雨', 'n'), ('倾注', 'v'), ('城市', 'n'), ('确保', 'v'), ('雨天', 'n'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('避免', 'v'), ('大雨', 'n'), ('造成', 'v'), ('交通', 'n'), ('事故', 'n'), ('冒雨', 'v'), ('辖区', 'n'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'v'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('指挥', 'vn'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('全力', 'd'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('成为', 'v'), ('大雨', 'n'), ('美丽', 'a'), ('风景线', 'n'), ('四川', 'ns'), ('公安', 'n'), ('四川', 'ns'), ('交警', 'n'), ('四川', 'ns'), ('长安网', 'ns'), ('南充', 'ns'), ('公安', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('坚守', 'v'), ('样子', 'n'), ('真帅', 'n'), ('早上', 't'), ('正值', 'v'), ('出行', 'v'), ('早高峰', 'n'), ('突袭', 'v'), ('暴雨', 'n'), ('倾注', 'v'), ('城市', 'n'), ('确保', 'v'), ('雨天', 'n'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('避免', 'v'), ('大雨', 'n'), ('造成', 'v'), ('交通', 'n'), ('事故', 'n'), ('体民', 'n'), ('辅警', 'n'), ('冒雨', 'v'), ('辖区', 'n'), ('主要', 'b'), ('路段', 'n'), ('执勤', 'v'), ('来不及', 'v'), ('换上', 'v'), ('雨衣', 'n'), ('指挥', 'vn'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('保障', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('市民', 'n'), ('出行', 'v'), ('畅通', 'a'), ('成为', 'v'), ('大雨', 'n'), ('美丽', 'a'), ('风景线', 'n')]</t>
         </is>
       </c>
     </row>
@@ -881,47 +881,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>发布了头条文章：《【交管前沿（）】暴雨期间，救助出行群众于危急之中》交管前沿（）】暴雨期间，救助出行群众于危急之中</t>
+          <t>发布了头条文章：《【交管前沿（）】暴雨期间，救助出行群众于危急之中》</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['发布', '了', '头条', '文章', '：', '《', '【', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中', '》', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中']</t>
+          <t>['发布', '了', '头条', '文章', '：', '《', '【', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中', '》']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['发布', '了', '头条', '文章', '：', '《', '【', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中', '》', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中']</t>
+          <t>['发布', '了', '头条', '文章', '：', '《', '【', '交管', '前沿', '（', '）', '】', '暴雨', '期间', '，', '救助', '出行', '群众', '于', '危急', '之中', '》']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['发布', '头条', '文章', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中']</t>
+          <t>['发布', '头条', '文章', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['发布', '头条', '文章', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中']</t>
+          <t>['发布', '头条', '文章', '交管', '前沿', '暴雨', '期间', '救助', '出行', '群众', '危急', '之中']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[('发布', 'v'), ('了', 'ul'), ('头条', 'n'), ('文章', 'n'), ('：', 'x'), ('《', 'x'), ('【', 'x'), ('交管', 'n'), ('前沿', 's'), ('（', 'x'), ('）', 'x'), ('】', 'x'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'x'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'r'), ('》', 'x'), ('交管', 'n'), ('前沿', 's'), ('（', 'x'), ('）', 'x'), ('】', 'x'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'x'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'r')]</t>
+          <t>[('发布', 'v'), ('了', 'ul'), ('头条', 'n'), ('文章', 'n'), ('：', 'x'), ('《', 'x'), ('【', 'x'), ('交管', 'n'), ('前沿', 's'), ('（', 'x'), ('）', 'x'), ('】', 'x'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'x'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'r'), ('》', 'x')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[('发布', 'v'), ('了', 'u'), ('头条', 'n'), ('文章', 'n'), ('：', 'w'), ('《', 'w'), ('【', 'v'), ('交管', 'j'), ('前沿', 's'), ('（', 'w'), ('）', 'w'), ('】', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'w'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'f'), ('》', 'w'), ('交管', 'v'), ('前沿', 's'), ('（', 'w'), ('）', 'w'), ('】', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'w'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'f')]</t>
+          <t>[('发布', 'v'), ('了', 'u'), ('头条', 'n'), ('文章', 'n'), ('：', 'w'), ('《', 'w'), ('【', 'v'), ('交管', 'j'), ('前沿', 's'), ('（', 'w'), ('）', 'w'), ('】', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('，', 'w'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('于', 'p'), ('危急', 'a'), ('之中', 'f'), ('》', 'w')]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[('发布', 'v'), ('头条', 'n'), ('文章', 'n'), ('交管', 'n'), ('前沿', 's'), ('暴雨', 'n'), ('期间', 'f'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a'), ('之中', 'r'), ('交管', 'n'), ('前沿', 's'), ('暴雨', 'n'), ('期间', 'f'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a'), ('之中', 'r')]</t>
+          <t>[('发布', 'v'), ('头条', 'n'), ('文章', 'n'), ('交管', 'n'), ('暴雨', 'n'), ('救助', 'vn'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a')]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[('发布', 'v'), ('头条', 'n'), ('文章', 'n'), ('交管', 'j'), ('前沿', 's'), ('暴雨', 'n'), ('期间', 'f'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a'), ('之中', 'f'), ('交管', 'v'), ('前沿', 's'), ('暴雨', 'n'), ('期间', 'f'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a'), ('之中', 'f')]</t>
+          <t>[('发布', 'v'), ('头条', 'n'), ('文章', 'n'), ('交管', 'j'), ('暴雨', 'n'), ('救助', 'v'), ('出行', 'v'), ('群众', 'n'), ('危急', 'a')]</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[('珠海', 'ns'), ('交通', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('金湾', 'ns'), ('线路', 'n'), ('停运', 'v'), ('台风', 'ns'), ('狮子山', 'ns'), ('影响', 'vn'), ('双层', 'n'), ('巴士', 'ns'), ('观光', 'n'), ('线路', 'n'), ('情侣', 'n'), ('路南', 's'), ('北线', 'n'), ('金湾', 'ns'), ('观光', 'n'), ('暂停', 'd'), ('运营', 'vn'), ('恢复', 'v'), ('运营', 'vn'), ('时间', 'n'), ('另行通知', 'i'), ('高栏', 'n'), ('电厂', 'n'), ('南路', 'ns'), ('粤裕丰', 'nz'), ('钢铁厂', 'n'), ('门口', 's'), ('路段', 'n'), ('水浸', 'n'), ('即时', 'c'), ('线路', 'n'), ('临时', 'b'), ('总站', 'n'), ('调整', 'vn'), ('裕丰', 'nz'), ('钢铁厂', 'n'), ('米处', 'n'), ('掉头', 'v'), ('往返', 'v'), ('同途', 'b'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'j'), ('条件', 'n'), ('恢复原', 'n'), ('运行', 'v')]</t>
+          <t>[('交通', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('线路', 'n'), ('停运', 'v'), ('影响', 'vn'), ('双层', 'n'), ('观光', 'n'), ('线路', 'n'), ('情侣', 'n'), ('北线', 'n'), ('观光', 'n'), ('运营', 'vn'), ('恢复', 'v'), ('运营', 'vn'), ('时间', 'n'), ('另行通知', 'i'), ('高栏', 'n'), ('电厂', 'n'), ('钢铁厂', 'n'), ('路段', 'n'), ('水浸', 'n'), ('线路', 'n'), ('临时', 'b'), ('总站', 'n'), ('调整', 'vn'), ('钢铁厂', 'n'), ('米处', 'n'), ('掉头', 'v'), ('往返', 'v'), ('同途', 'b'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'j'), ('条件', 'n'), ('恢复原', 'n'), ('运行', 'v')]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[('珠海', 'ns'), ('交通', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('金湾', 'ns'), ('线路', 'n'), ('停运', 'v'), ('台风', 'n'), ('狮子山', 'ns'), ('影响', 'vn'), ('双层', 'b'), ('巴士', 'n'), ('观光', 'vn'), ('线路', 'n'), ('情侣', 'n'), ('路南', 'nr'), ('北线', 'n'), ('金湾', 'ns'), ('观光线', 'n'), ('暂停', 'v'), ('运营', 'v'), ('恢复', 'v'), ('运营', 'vn'), ('时间', 'n'), ('另行', 'd'), ('通知', 'v'), ('高栏', 'n'), ('港电', 'n'), ('厂南', 'ns'), ('路粤', 'ns'), ('裕丰', 'nz'), ('钢铁', 'n'), ('厂门口', 'ns'), ('路段', 'n'), ('水浸', 'n'), ('即时', 'd'), ('线路', 'n'), ('临时', 'd'), ('总站', 'n'), ('调整', 'v'), ('粤裕', 'nz'), ('丰钢', 'n'), ('铁厂', 'n'), ('前米处', 'n'), ('掉头', 'v'), ('往返', 'v'), ('同途', 'n'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'vn'), ('条件', 'n'), ('恢复', 'v'), ('原线', 'n'), ('运行', 'v')]</t>
+          <t>[('交通', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('线路', 'n'), ('停运', 'v'), ('台风', 'n'), ('影响', 'vn'), ('双层', 'b'), ('巴士', 'n'), ('观光', 'vn'), ('线路', 'n'), ('情侣', 'n'), ('路南', 'nr'), ('北线', 'n'), ('观光线', 'n'), ('暂停', 'v'), ('运营', 'v'), ('恢复', 'v'), ('运营', 'vn'), ('时间', 'n'), ('通知', 'v'), ('高栏', 'n'), ('港电', 'n'), ('钢铁', 'n'), ('路段', 'n'), ('水浸', 'n'), ('线路', 'n'), ('总站', 'n'), ('调整', 'v'), ('丰钢', 'n'), ('铁厂', 'n'), ('前米处', 'n'), ('掉头', 'v'), ('往返', 'v'), ('同途', 'n'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'vn'), ('条件', 'n'), ('恢复', 'v'), ('原线', 'n'), ('运行', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[('辽宁', 'ns'), ('天气', 'n'), ('我省', 'r'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('雷雨大风', 'nr'), ('短时', 'b'), ('强降水', 'n'), ('影响', 'vn'), ('摘要', 'v'), ('预计', 'vn'), ('我省', 'r'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('强降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('西部', 'f'), ('北部', 'f'), ('地区', 'n'), ('最大', 'a'), ('瞬时', 't'), ('风力', 'n'), ('局部', 'n'), ('可达级', 'l'), ('以上', 'f'), ('西部', 'f'), ('个别', 'n'), ('乡镇', 'n'), ('街道', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('西部', 'f'), ('东南部', 'f'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('北部', 'f'), ('地区', 'n'), ('夜间', 't'), ('注意', 'v'), ('防范', 'v'), ('强对流', 'n'), ('天气', 'n'), ('带来', 'v'), ('不利', 'a'), ('影响', 'vn'), ('气象条件', 'n'), ('分析', 'vn'), ('蒙古', 'ns'), ('中部', 'f'), ('高空槽', 'n'), ('东移', 'n'), ('过程', 'n'), ('加深', 'v'), ('高空', 'n'), ('冷涡', 'n'), ('低层', 'n'), ('偏南', 'f'), ('急流', 'n'), ('建立', 'v'), ('辽宁', 'ns'), ('输送', 'v'), ('暖湿', 'a'), ('空气', 'n'), ('整层', 'b'), ('大气', 'n'), ('降水量', 'n'), ('水汽', 'n'), ('条件', 'n'), ('充足', 'a'), ('有利于', 'v'), ('出现', 'v'), ('短时', 'b'), ('强降水', 'n'), ('西部', 'f'), ('北部', 'f'), ('地区', 'n'), ('稳定', 'a'), ('能量', 'n'), ('充分', 'ad'), ('积累', 'v'), ('对流', 'n'), ('有效', 'a'), ('逐渐', 'd'), ('增强', 'v'), ('配合', 'v'), ('较强', 'a'), ('垂直', 'v'), ('切变', 'v'), ('有利于', 'v'), ('对流', 'n'), ('系统', 'n'), ('发展', 'vn'), ('出现', 'v'), ('大风', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('入海', 'ns'), ('气旋', 'n'), ('影响', 'vn'), ('白天', 't'), ('夜间', 't'), ('我省', 'r'), ('海区', 'n'), ('出现', 'v'), ('大风', 'n'), ('天气', 'n'), ('强对流', 'n'), ('天气预报', 'n'), ('我省', 'r'), ('大部分', 'm'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'vn'), ('锦州', 'ns'), ('阜新', 'ns'), ('铁岭', 'nr'), ('朝阳', 'ns'), ('盘锦', 'nr'), ('葫芦岛', 'ns'), ('地区', 'n'), ('辽中', 'ns'), ('康平', 'nr'), ('法库', 'n'), ('新民', 'n'), ('台安', 'ns'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('强降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('最大', 'a'), ('瞬时', 't'), ('风力', 'n'), ('局部', 'n'), ('可达级', 'l'), ('以上', 'f'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('丹东', 'ns'), ('地区', 'n'), ('大连市', 'ns'), ('旅顺', 'nz'), ('金普', 'nr'), ('新区', 'ns'), ('普兰店', 'nz'), ('长海', 'ns'), ('庄河', 'nr'), ('岫岩', 'ns'), ('雷电', 'n'), ('短时', 'b'), ('强降水', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('地区', 'n'), ('雷电', 'n'), ('西部', 'f'), ('东南部', 'f'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('北部', 'f'), ('地区', 'n'), ('夜间', 't'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('东风', 'n'), ('东北风', 'nr'), ('阵风', 'n'), ('影响', 'vn'), ('建议', 'n'), ('强对流', 'n'), ('天气', 'n'), ('突发性', 'n'), ('局地', 'n'), ('提醒', 'v'), ('公众', 'n'), ('相关', 'v'), ('部门', 'n'), ('关注', 'v'), ('气象部门', 'n'), ('滚动', 'v'), ('更新', 'd'), ('发布', 'v'), ('预报', 'vn'), ('预警', 'vn'), ('信息', 'n'), ('组织', 'v'), ('做好', 'v'), ('防范', 'v'), ('应对', 'v'), ('工作', 'vn'), ('建议', 'n'), ('我省', 'r'), ('出现', 'v'), ('强降雨', 'nr'), ('预计', 'vn'), ('西部', 'f'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('降雨', 'n'), ('叠加', 'v'), ('作用', 'v'), ('影响', 'vn'), ('发生', 'v'), ('山洪', 'nr'), ('滑坡', 'ns'), ('泥石流', 'n'), ('中小', 'j'), ('河流', 'n'), ('洪水', 'nr'), ('可能性', 'n'), ('增大', 'v'), ('做好', 'v'), ('流域', 'n'), ('水库', 'n'), ('小城镇', 'nr'), ('防汛', 'vn'), ('重点', 'n'), ('人群', 'n'), ('避险', 'v'), ('转移', 'v'), ('工作', 'vn'), ('加强', 'v'), ('地质灾害', 'n'), ('隐患', 'n'), ('山区', 'ns'), ('城镇', 'ns'), ('学校', 'n'), ('医院', 'n'), ('重要', 'a'), ('工程', 'n'), ('设施', 'n'), ('煤矿', 'n'), ('尾矿库', 'n'), ('监测', 'vn'), ('防范', 'v'), ('雷电', 'n'), ('天气', 'n'), ('发生', 'v'), ('尽量避免', 'l'), ('户外活动', 'n'), ('室外', 's'), ('人员', 'n'), ('不要', 'df'), ('树下', 's'), ('电杆', 'n'), ('塔吊', 'n'), ('避雨', 'v'), ('防范', 'v'), ('雷电', 'n'), ('可能', 'v'), ('造成', 'v'), ('人员伤亡', 'n'), ('设备', 'vn'), ('损失', 'n'), ('关注', 'v'), ('航空运输', 'j'), ('影响', 'vn'), ('加强', 'v'), ('国省', 'nt'), ('干道', 'v'), ('区县', 'n'), ('乡镇', 'n'), ('道路', 'n'), ('过河', 'n'), ('桥梁', 'n'), ('隧道', 'n'), ('涵洞', 'n'), ('城市', 'ns'), ('低洼', 'a'), ('路段', 'n'), ('管控', 'vn'), ('防范', 'v'), ('短时', 'b'), ('强降水', 'n'), ('造成', 'v'), ('城市', 'ns'), ('内涝', 'n'), ('交通', 'n'), ('出行', 'v'), ('影响', 'vn'), ('瞬时', 't'), ('风力', 'n'), ('较大', 'a'), ('注意', 'v'), ('防范', 'v'), ('可能', 'v'), ('造成', 'v'), ('搭建', 'v'), ('倒塌', 'v'), ('高空作业', 'n'), ('水域', 'n'), ('作业', 'n'), ('设施', 'n'), ('农业', 'n'), ('海上', 's'), ('航运', 'n'), ('影响', 'vn'), ('检查', 'vn'), ('加固', 'v'), ('塔吊', 'n'), ('脚手架', 'n'), ('户外', 's'), ('广告牌', 'n'), ('公众', 'n'), ('外出', 'v'), ('不要', 'df'), ('广告牌', 'n'), ('临时', 'b'), ('搭建', 'v'), ('下面', 'f'), ('停留', 'v'), ('防止', 'v'), ('大风', 'n'), ('引发', 'v'), ('倒塌', 'v'), ('坠物', 'n'), ('触电', 'v'), ('事件', 'n'), ('海上', 's'), ('航运', 'n'), ('需注意', 'n'), ('安全', 'an'), ('妥善', 'v'), ('保护', 'v'), ('冰雹', 'n'), ('袭击', 'v'), ('汽车', 'n'), ('室外', 's'), ('物品', 'n'), ('设备', 'vn'), ('防范', 'v'), ('冰雹', 'n'), ('农作物', 'n'), ('果蔬', 'n'), ('农业', 'n'), ('设施', 'n'), ('造成', 'v'), ('不利', 'a'), ('影响', 'vn'), ('提前', 'v'), ('驱赶', 'v'), ('家禽', 'n'), ('牲畜', 'n'), ('进入', 'v'), ('顶棚', 'n'), ('场所', 'n'), ('土壤', 'n'), ('饱和', 'a'), ('地区', 'n'), ('提前', 'v'), ('疏通', 'v'), ('沟渠', 'n'), ('及时', 'c'), ('排除', 'v'), ('田间', 'n'), ('积水', 'n'), ('防范', 'v'), ('强降雨', 'nr'), ('引发', 'v'), ('农田', 'n'), ('渍涝', 'n'), ('辽宁', 'ns'), ('辽宁', 'ns'), ('暴雨', 'n'), ('辽宁', 'ns'), ('身边', 's'), ('辽宁', 'ns'), ('生活', 'vn'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n')]</t>
+          <t>[('天气', 'n'), ('地区', 'n'), ('出现', 'v'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('雷雨大风', 'nr'), ('短时', 'b'), ('强降水', 'n'), ('影响', 'vn'), ('摘要', 'v'), ('预计', 'vn'), ('地区', 'n'), ('出现', 'v'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('强降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('地区', 'n'), ('最大', 'a'), ('瞬时', 't'), ('风力', 'n'), ('局部', 'n'), ('可达级', 'l'), ('个别', 'n'), ('乡镇', 'n'), ('街道', 'n'), ('降雨量', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('地区', 'n'), ('夜间', 't'), ('注意', 'v'), ('防范', 'v'), ('强对流', 'n'), ('天气', 'n'), ('带来', 'v'), ('不利', 'a'), ('影响', 'vn'), ('气象条件', 'n'), ('分析', 'vn'), ('高空槽', 'n'), ('东移', 'n'), ('过程', 'n'), ('加深', 'v'), ('高空', 'n'), ('冷涡', 'n'), ('低层', 'n'), ('急流', 'n'), ('建立', 'v'), ('输送', 'v'), ('暖湿', 'a'), ('空气', 'n'), ('整层', 'b'), ('大气', 'n'), ('降水量', 'n'), ('水汽', 'n'), ('条件', 'n'), ('充足', 'a'), ('有利于', 'v'), ('出现', 'v'), ('短时', 'b'), ('强降水', 'n'), ('地区', 'n'), ('稳定', 'a'), ('能量', 'n'), ('充分', 'ad'), ('积累', 'v'), ('对流', 'n'), ('有效', 'a'), ('增强', 'v'), ('配合', 'v'), ('较强', 'a'), ('垂直', 'v'), ('切变', 'v'), ('有利于', 'v'), ('对流', 'n'), ('系统', 'n'), ('发展', 'vn'), ('出现', 'v'), ('大风', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('气旋', 'n'), ('影响', 'vn'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('出现', 'v'), ('大风', 'n'), ('天气', 'n'), ('强对流', 'n'), ('天气预报', 'n'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'vn'), ('铁岭', 'nr'), ('盘锦', 'nr'), ('地区', 'n'), ('康平', 'nr'), ('法库', 'n'), ('新民', 'n'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('强降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('最大', 'a'), ('瞬时', 't'), ('风力', 'n'), ('局部', 'n'), ('可达级', 'l'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('金普', 'nr'), ('庄河', 'nr'), ('雷电', 'n'), ('短时', 'b'), ('强降水', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('雷电', 'n'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('地区', 'n'), ('夜间', 't'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('东风', 'n'), ('东北风', 'nr'), ('阵风', 'n'), ('影响', 'vn'), ('建议', 'n'), ('强对流', 'n'), ('天气', 'n'), ('突发性', 'n'), ('局地', 'n'), ('提醒', 'v'), ('公众', 'n'), ('相关', 'v'), ('部门', 'n'), ('关注', 'v'), ('气象部门', 'n'), ('滚动', 'v'), ('发布', 'v'), ('预报', 'vn'), ('预警', 'vn'), ('信息', 'n'), ('组织', 'v'), ('做好', 'v'), ('防范', 'v'), ('应对', 'v'), ('工作', 'vn'), ('建议', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('预计', 'vn'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('降雨', 'n'), ('叠加', 'v'), ('作用', 'v'), ('影响', 'vn'), ('发生', 'v'), ('山洪', 'nr'), ('泥石流', 'n'), ('中小', 'j'), ('河流', 'n'), ('洪水', 'nr'), ('可能性', 'n'), ('增大', 'v'), ('做好', 'v'), ('流域', 'n'), ('水库', 'n'), ('小城镇', 'nr'), ('防汛', 'vn'), ('重点', 'n'), ('人群', 'n'), ('避险', 'v'), ('转移', 'v'), ('工作', 'vn'), ('加强', 'v'), ('地质灾害', 'n'), ('隐患', 'n'), ('学校', 'n'), ('医院', 'n'), ('重要', 'a'), ('工程', 'n'), ('设施', 'n'), ('煤矿', 'n'), ('尾矿库', 'n'), ('监测', 'vn'), ('防范', 'v'), ('雷电', 'n'), ('天气', 'n'), ('发生', 'v'), ('尽量避免', 'l'), ('户外活动', 'n'), ('人员', 'n'), ('电杆', 'n'), ('塔吊', 'n'), ('避雨', 'v'), ('防范', 'v'), ('雷电', 'n'), ('可能', 'v'), ('造成', 'v'), ('人员伤亡', 'n'), ('设备', 'vn'), ('损失', 'n'), ('关注', 'v'), ('航空运输', 'j'), ('影响', 'vn'), ('加强', 'v'), ('干道', 'v'), ('区县', 'n'), ('乡镇', 'n'), ('道路', 'n'), ('过河', 'n'), ('桥梁', 'n'), ('隧道', 'n'), ('涵洞', 'n'), ('低洼', 'a'), ('路段', 'n'), ('管控', 'vn'), ('防范', 'v'), ('短时', 'b'), ('强降水', 'n'), ('造成', 'v'), ('内涝', 'n'), ('交通', 'n'), ('出行', 'v'), ('影响', 'vn'), ('瞬时', 't'), ('风力', 'n'), ('较大', 'a'), ('注意', 'v'), ('防范', 'v'), ('可能', 'v'), ('造成', 'v'), ('搭建', 'v'), ('倒塌', 'v'), ('高空作业', 'n'), ('水域', 'n'), ('作业', 'n'), ('设施', 'n'), ('农业', 'n'), ('航运', 'n'), ('影响', 'vn'), ('检查', 'vn'), ('加固', 'v'), ('塔吊', 'n'), ('脚手架', 'n'), ('广告牌', 'n'), ('公众', 'n'), ('外出', 'v'), ('广告牌', 'n'), ('临时', 'b'), ('搭建', 'v'), ('停留', 'v'), ('防止', 'v'), ('大风', 'n'), ('引发', 'v'), ('倒塌', 'v'), ('坠物', 'n'), ('触电', 'v'), ('事件', 'n'), ('航运', 'n'), ('需注意', 'n'), ('安全', 'an'), ('妥善', 'v'), ('保护', 'v'), ('冰雹', 'n'), ('袭击', 'v'), ('汽车', 'n'), ('物品', 'n'), ('设备', 'vn'), ('防范', 'v'), ('冰雹', 'n'), ('农作物', 'n'), ('果蔬', 'n'), ('农业', 'n'), ('设施', 'n'), ('造成', 'v'), ('不利', 'a'), ('影响', 'vn'), ('提前', 'v'), ('驱赶', 'v'), ('家禽', 'n'), ('牲畜', 'n'), ('进入', 'v'), ('顶棚', 'n'), ('场所', 'n'), ('土壤', 'n'), ('饱和', 'a'), ('地区', 'n'), ('提前', 'v'), ('疏通', 'v'), ('沟渠', 'n'), ('排除', 'v'), ('田间', 'n'), ('积水', 'n'), ('防范', 'v'), ('强降雨', 'nr'), ('引发', 'v'), ('农田', 'n'), ('渍涝', 'n'), ('暴雨', 'n'), ('生活', 'vn'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n')]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[('辽宁', 'ns'), ('天气', 'n'), ('我省', 'r'), ('大部分', 'm'), ('地区区', 'n'), ('出现', 'v'), ('强对流', 'n'), ('天气', 'n'), ('⛈️', 'v'), ('注意', 'v'), ('防范', 'v'), ('雷雨', 'n'), ('大风', 'n'), ('🌪️', 'v'), ('短时', 'b'), ('降水', 'n'), ('影响', 'vn'), ('🌬️', 'vn'), ('摘要', 'n'), ('预计', 'v'), ('我省', 'r'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('西部', 'f'), ('北部', 'f'), ('地区', 'n'), ('瞬时', 't'), ('风力', 'n'), ('~级', 'v'), ('局部', 'n'), ('达级', 'b'), ('以上', 'f'), ('西部', 'f'), ('个别', 'a'), ('乡镇', 'n'), ('街道', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('西部', 'f'), ('东南部', 'f'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('北部', 'f'), ('地区', 'n'), ('夜间', 't'), ('注意', 'v'), ('防范', 'v'), ('强对流', 'l'), ('天气', 'n'), ('带来', 'v'), ('不利', 'a'), ('影响', 'vn'), ('气象', 'n'), ('条件', 'n'), ('分析', 'v'), ('蒙古', 'ns'), ('中部', 'f'), ('高空槽', 'n'), ('东移', 'v'), ('过程', 'n'), ('加深', 'v'), ('高空', 's'), ('冷涡', 'n'), ('低层', 'n'), ('偏南', 'ns'), ('急流', 'n'), ('建立', 'v'), ('辽宁', 'ns'), ('输送', 'v'), ('暖湿', 'b'), ('空气', 'n'), ('整层', 'v'), ('大气', 'n'), ('降水量', 'n'), ('水汽', 'n'), ('条件', 'n'), ('充足', 'a'), ('有利于', 'v'), ('出现', 'v'), ('短时', 'n'), ('降水', 'n'), ('西部', 'f'), ('北部', 'f'), ('地区', 'n'), ('稳定', 'a'), ('能量', 'n'), ('充分', 'ad'), ('积累', 'v'), ('流有', 'v'), ('效位', 'n'), ('逐渐', 'd'), ('增强', 'v'), ('/,', 'n'), ('配合', 'v'), ('垂直', 'vn'), ('风切', 'ad'), ('有利于', 'v'), ('深对流', 'b'), ('系统', 'n'), ('发展', 'vn'), ('出现', 'v'), ('大风', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('受入', 'v'), ('海气旋', 'n'), ('影响', 'vn'), ('白天', 't'), ('夜间', 't'), ('我省', 'r'), ('海区', 'n'), ('出现', 'v'), ('大风', 'n'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预报', 'v'), ('我省', 'r'), ('大部分', 'm'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'v'), ('锦州', 'ns'), ('阜新', 'ns'), ('铁岭', 'ns'), ('朝阳', 'ns'), ('盘锦', 'n'), ('葫芦岛', 'ns'), ('地区', 'n'), ('辽中', 'ns'), ('康平', 'nr'), ('法库', 'n'), ('新民', 'n'), ('台安', 'ns'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('瞬时', 't'), ('风力', 'n'), ('~级', 'v'), ('局部', 'n'), ('达级', 'b'), ('以上', 'f'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('丹东', 'ns'), ('地区', 'n'), ('大连', 'ns'), ('市区', 's'), ('旅顺', 'ns'), ('金普', 'nz'), ('新区', 'n'), ('普兰店', 'ns'), ('长海', 'ns'), ('庄河', 'ns'), ('岫岩', 'n'), ('雷电', 'n'), ('短时', 'b'), ('降水', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('地区', 'n'), ('雷电', 'n'), ('西部', 'f'), ('东南部', 'f'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('北部', 'f'), ('地区', 'n'), ('夜间', 't'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('偏东', 'f'), ('风转', 'v'), ('东北', 's'), ('风~级', 'n'), ('阵风', 'n'), ('影响', 'vn'), ('建议', 'v'), ('强对流', 'n'), ('天气', 'n'), ('突发性', 'n'), ('局地性', 'n'), ('提醒', 'v'), ('公众', 'n'), ('相关', 'vn'), ('部门', 'n'), ('关注', 'v'), ('气象', 'n'), ('部门', 'n'), ('滚动', 'vd'), ('更新', 'v'), ('发布', 'v'), ('预报', 'vn'), ('预警', 'vn'), ('信息', 'n'), ('组织', 'v'), ('做好', 'v'), ('防范', 'v'), ('应对', 'vn'), ('工作', 'vn'), ('建议', 'v'), ('我省', 'r'), ('出现', 'v'), ('降雨', 'vn'), ('预计', 'v'), ('西部', 'f'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('降雨', 'vn'), ('叠加', 'vn'), ('作用', 'n'), ('影响', 'vn'), ('发生', 'v'), ('山洪', 'n'), ('滑坡', 'v'), ('泥石流', 'n'), ('中小', 'b'), ('河流', 'n'), ('洪水', 'n'), ('可能性', 'n'), ('增大', 'v'), ('做好', 'v'), ('流域', 'n'), ('小水库', 'n'), ('小城镇', 'ns'), ('防汛', 'vn'), ('重点', 'n'), ('人群', 'n'), ('避险', 'v'), ('转移', 'vn'), ('工作', 'vn'), ('加强', 'v'), ('地质', 'n'), ('灾害', 'n'), ('隐患点', 'n'), ('山区', 'n'), ('城镇', 'n'), ('学校', 'n'), ('医院', 'n'), ('重要', 'a'), ('工程', 'n'), ('设施', 'n'), ('煤矿山', 'n'), ('尾矿库', 'n'), ('监测', 'vn'), ('防范', 'vn'), ('当有', 'v'), ('雷电', 'n'), ('天气', 'n'), ('发生', 'v'), ('尽量', 'd'), ('避免', 'v'), ('户外', 's'), ('活动', 'vn'), ('室外', 's'), ('人员', 'n'), ('不要', 'd'), ('树下', 'n'), ('电杆', 'n'), ('塔吊', 'n'), ('避雨', 'i'), ('防范', 'v'), ('雷电', 'n'), ('可能', 'v'), ('造成', 'v'), ('人员', 'n'), ('伤亡', 'vn'), ('设备', 'n'), ('损失', 'n'), ('关注', 'v'), ('航空', 'n'), ('运输', 'vn'), ('影响', 'vn'), ('加强', 'v'), ('国省', 'n'), ('干道', 'n'), ('区县', 'ns'), ('乡镇', 'n'), ('道路', 'n'), ('过河', 'ns'), ('桥梁', 'n'), ('隧道', 'n'), ('涵洞', 'n'), ('城市', 'n'), ('低洼', 'a'), ('路段', 'n'), ('管控', 'v'), ('防范', 'v'), ('短时', 'b'), ('降水', 'n'), ('造成', 'v'), ('城市', 'n'), ('内涝', 'n'), ('交通', 'n'), ('出行', 'v'), ('影响', 'vn'), ('瞬时', 't'), ('风力', 'n'), ('注意', 'v'), ('防范', 'v'), ('可能', 'v'), ('造成', 'v'), ('搭建物', 'n'), ('倒塌', 'vn'), ('高空', 's'), ('作业', 'v'), ('水域', 'n'), ('作业', 'v'), ('设施', 'n'), ('农业', 'n'), ('海上', 's'), ('航运', 'n'), ('影响', 'vn'), ('检查', 'v'), ('加固', 'v'), ('塔吊', 'n'), ('脚手架', 'n'), ('户外', 's'), ('广告牌', 'n'), ('公众', 'n'), ('外出', 'v'), ('不要', 'd'), ('广告牌', 'n'), ('临时', 'b'), ('搭建物', 'n'), ('下面', 'f'), ('停留', 'v'), ('防止', 'v'), ('大风', 'n'), ('引发', 'v'), ('倒塌', 'vn'), ('坠物', 'n'), ('触电', 'vn'), ('事件', 'n'), ('海上', 's'), ('航运', 'n'), ('注意', 'v'), ('安全', 'an'), ('妥善', 'ad'), ('保护', 'v'), ('冰雹', 'n'), ('袭击', 'vn'), ('汽车', 'n'), ('室外', 's'), ('物品', 'n'), ('设备', 'n'), ('防范', 'v'), ('冰雹', 'n'), ('农作物', 'n'), ('果蔬', 'n'), ('农业', 'n'), ('设施', 'n'), ('造成', 'v'), ('不利', 'a'), ('影响', 'vn'), ('提前', 'v'), ('驱赶', 'v'), ('家禽', 'n'), ('牲畜', 'n'), ('进入', 'v'), ('顶棚', 'n'), ('场所', 'n'), ('土壤', 'n'), ('饱和', 'a'), ('地区', 'n'), ('提前', 'v'), ('疏通', 'v'), ('沟渠', 'n'), ('及时', 'ad'), ('排除', 'v'), ('田间', 's'), ('积水', 'n'), ('防范', 'v'), ('降雨', 'vn'), ('引发', 'v'), ('农田', 'n'), ('渍涝', 'v'), ('辽宁', 'ns'), ('辽宁', 'ns'), ('暴雨', 'n'), ('辽宁', 'ns'), ('身边', 's'), ('辽宁', 'ns'), ('生活', 'vn'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n')]</t>
+          <t>[('天气', 'n'), ('地区区', 'n'), ('出现', 'v'), ('强对流', 'n'), ('天气', 'n'), ('⛈️', 'v'), ('注意', 'v'), ('防范', 'v'), ('雷雨', 'n'), ('大风', 'n'), ('🌪️', 'v'), ('短时', 'b'), ('降水', 'n'), ('影响', 'vn'), ('🌬️', 'vn'), ('摘要', 'n'), ('预计', 'v'), ('地区', 'n'), ('出现', 'v'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('地区', 'n'), ('瞬时', 't'), ('风力', 'n'), ('~级', 'v'), ('局部', 'n'), ('达级', 'b'), ('个别', 'a'), ('乡镇', 'n'), ('街道', 'n'), ('降雨量', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('地区', 'n'), ('夜间', 't'), ('注意', 'v'), ('防范', 'v'), ('强对流', 'l'), ('天气', 'n'), ('带来', 'v'), ('不利', 'a'), ('影响', 'vn'), ('气象', 'n'), ('条件', 'n'), ('分析', 'v'), ('高空槽', 'n'), ('东移', 'v'), ('过程', 'n'), ('加深', 'v'), ('冷涡', 'n'), ('低层', 'n'), ('急流', 'n'), ('建立', 'v'), ('输送', 'v'), ('暖湿', 'b'), ('空气', 'n'), ('整层', 'v'), ('大气', 'n'), ('降水量', 'n'), ('水汽', 'n'), ('条件', 'n'), ('充足', 'a'), ('有利于', 'v'), ('出现', 'v'), ('短时', 'n'), ('降水', 'n'), ('地区', 'n'), ('稳定', 'a'), ('能量', 'n'), ('充分', 'ad'), ('积累', 'v'), ('流有', 'v'), ('效位', 'n'), ('增强', 'v'), ('/,', 'n'), ('配合', 'v'), ('垂直', 'vn'), ('风切', 'ad'), ('有利于', 'v'), ('深对流', 'b'), ('系统', 'n'), ('发展', 'vn'), ('出现', 'v'), ('大风', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('受入', 'v'), ('海气旋', 'n'), ('影响', 'vn'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('出现', 'v'), ('大风', 'n'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预报', 'v'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'v'), ('盘锦', 'n'), ('地区', 'n'), ('康平', 'nr'), ('法库', 'n'), ('新民', 'n'), ('雷电', 'n'), ('大风', 'n'), ('短时', 'b'), ('降水', 'n'), ('冰雹', 'n'), ('强对流', 'n'), ('天气', 'n'), ('瞬时', 't'), ('风力', 'n'), ('~级', 'v'), ('局部', 'n'), ('达级', 'b'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('新区', 'n'), ('岫岩', 'n'), ('雷电', 'n'), ('短时', 'b'), ('降水', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('地区', 'n'), ('雷电', 'n'), ('地区', 'n'), ('强对流', 'n'), ('天气', 'n'), ('主要', 'b'), ('影响', 'vn'), ('时段', 'n'), ('中午', 't'), ('夜间', 't'), ('地区', 'n'), ('夜间', 't'), ('白天', 't'), ('夜间', 't'), ('海区', 'n'), ('风转', 'v'), ('风~级', 'n'), ('阵风', 'n'), ('影响', 'vn'), ('建议', 'v'), ('强对流', 'n'), ('天气', 'n'), ('突发性', 'n'), ('局地性', 'n'), ('提醒', 'v'), ('公众', 'n'), ('相关', 'vn'), ('部门', 'n'), ('关注', 'v'), ('气象', 'n'), ('部门', 'n'), ('滚动', 'vd'), ('更新', 'v'), ('发布', 'v'), ('预报', 'vn'), ('预警', 'vn'), ('信息', 'n'), ('组织', 'v'), ('做好', 'v'), ('防范', 'v'), ('应对', 'vn'), ('工作', 'vn'), ('建议', 'v'), ('出现', 'v'), ('降雨', 'vn'), ('预计', 'v'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('降雨', 'vn'), ('叠加', 'vn'), ('作用', 'n'), ('影响', 'vn'), ('发生', 'v'), ('山洪', 'n'), ('滑坡', 'v'), ('泥石流', 'n'), ('中小', 'b'), ('河流', 'n'), ('洪水', 'n'), ('可能性', 'n'), ('增大', 'v'), ('做好', 'v'), ('流域', 'n'), ('小水库', 'n'), ('防汛', 'vn'), ('重点', 'n'), ('人群', 'n'), ('避险', 'v'), ('转移', 'vn'), ('工作', 'vn'), ('加强', 'v'), ('地质', 'n'), ('灾害', 'n'), ('隐患点', 'n'), ('山区', 'n'), ('城镇', 'n'), ('学校', 'n'), ('医院', 'n'), ('重要', 'a'), ('工程', 'n'), ('设施', 'n'), ('煤矿山', 'n'), ('尾矿库', 'n'), ('监测', 'vn'), ('防范', 'vn'), ('当有', 'v'), ('雷电', 'n'), ('天气', 'n'), ('发生', 'v'), ('避免', 'v'), ('活动', 'vn'), ('人员', 'n'), ('树下', 'n'), ('电杆', 'n'), ('塔吊', 'n'), ('避雨', 'i'), ('防范', 'v'), ('雷电', 'n'), ('可能', 'v'), ('造成', 'v'), ('人员', 'n'), ('伤亡', 'vn'), ('设备', 'n'), ('损失', 'n'), ('关注', 'v'), ('航空', 'n'), ('运输', 'vn'), ('影响', 'vn'), ('加强', 'v'), ('国省', 'n'), ('干道', 'n'), ('乡镇', 'n'), ('道路', 'n'), ('桥梁', 'n'), ('隧道', 'n'), ('涵洞', 'n'), ('城市', 'n'), ('低洼', 'a'), ('路段', 'n'), ('管控', 'v'), ('防范', 'v'), ('短时', 'b'), ('降水', 'n'), ('造成', 'v'), ('城市', 'n'), ('内涝', 'n'), ('交通', 'n'), ('出行', 'v'), ('影响', 'vn'), ('瞬时', 't'), ('风力', 'n'), ('注意', 'v'), ('防范', 'v'), ('可能', 'v'), ('造成', 'v'), ('搭建物', 'n'), ('倒塌', 'vn'), ('作业', 'v'), ('水域', 'n'), ('作业', 'v'), ('设施', 'n'), ('农业', 'n'), ('航运', 'n'), ('影响', 'vn'), ('检查', 'v'), ('加固', 'v'), ('塔吊', 'n'), ('脚手架', 'n'), ('广告牌', 'n'), ('公众', 'n'), ('外出', 'v'), ('广告牌', 'n'), ('临时', 'b'), ('搭建物', 'n'), ('停留', 'v'), ('防止', 'v'), ('大风', 'n'), ('引发', 'v'), ('倒塌', 'vn'), ('坠物', 'n'), ('触电', 'vn'), ('事件', 'n'), ('航运', 'n'), ('注意', 'v'), ('安全', 'an'), ('妥善', 'ad'), ('保护', 'v'), ('冰雹', 'n'), ('袭击', 'vn'), ('汽车', 'n'), ('物品', 'n'), ('设备', 'n'), ('防范', 'v'), ('冰雹', 'n'), ('农作物', 'n'), ('果蔬', 'n'), ('农业', 'n'), ('设施', 'n'), ('造成', 'v'), ('不利', 'a'), ('影响', 'vn'), ('提前', 'v'), ('驱赶', 'v'), ('家禽', 'n'), ('牲畜', 'n'), ('进入', 'v'), ('顶棚', 'n'), ('场所', 'n'), ('土壤', 'n'), ('饱和', 'a'), ('地区', 'n'), ('提前', 'v'), ('疏通', 'v'), ('沟渠', 'n'), ('及时', 'ad'), ('排除', 'v'), ('积水', 'n'), ('防范', 'v'), ('降雨', 'vn'), ('引发', 'v'), ('农田', 'n'), ('渍涝', 'v'), ('暴雨', 'n'), ('生活', 'vn'), ('天气', 'n'), ('强对流', 'n'), ('天气', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1046,47 +1046,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>【黔西南州交警走进校园，上好暑假前交通安全“最后一课”】#暑期交通安全#暑期来临，学生假期出游需求旺盛，客货运持续高位运行，且暑期暴雨等恶劣天气增多，交通安全风险升高，为切实提升中小学生暑期道路交通安全意识，有效预防和减少道路交通事故发生，，兴义市公安局交警大队的民警同志走进铭烨小学，以主题班会的方式开展暑期道路交通安全及校园周边交通组织调整宣讲活动。活动现场，民警通过播放安全教育警示片，结合学校周边实际交通路况以及暑期出游的安全问题，以循序渐进的方式向同学们讲解交通安全知识，提醒同学们外出时要时刻注意交通安全，遵守交通法规，过马路时一定要走斑马线，不可在道路上追逐、打闹、嬉戏。同时还特别要求未满岁的未成年人不可骑自行车上路，乘坐两轮摩托车时要佩戴头盔，乘坐四轮汽车时要系好安全带。活动结束之后，同学们表示会谨遵交警叔叔的教导，认真遵守交通规则，安全出行，同时回到家会转告自己的家人，在暑期出行时一定恪守交规，文明出行，提高安全意识。@兴义市交警大队@黔西南州交警支队@公安部交通管理局</t>
+          <t>【黔西南州交警走进校园，上好暑假前交通安全“最后一课”】#暑期交通安全#暑期来临，学生假期出游需求旺盛，客货运持续高位运行，且暑期暴雨等恶劣天气增多，交通安全风险升高，为切实提升中小学生暑期道路交通安全意识，有效预防和减少道路交通事故发生，，兴义市公安局交警大队的民警同志走进铭烨小学，以主题班会的方式开展暑期道路交通安全及校园周边交通组织调整宣讲活动。活动现场，民警通过播放安全教育警示片，结合学校周边实际交通路况以及暑期出游的安全问题，以循序渐进的方式向同学们讲解交通安全知识，提醒同学们外出时要时刻注意交通安全，遵守交通法规，过马路时一定要走斑马线，不可在道路上追逐、打闹、嬉戏。同时还特别要求未满岁的未成年人不可骑自行车上路，乘坐两轮摩托车时要佩戴头盔，乘坐四轮汽车时要系好安全带。活动结束之后，同学们表示会谨遵交警叔叔的教导，认真遵守交通规则，安全出行，同时回到家会转告自己的家人，在暑期出行时一定恪守交规，文明出行，提高安全意识。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['【', '黔西南州', '交警', '走进', '校园', '，', '上', '好', '暑假', '前', '交通安全', '“', '最后', '一课', '”', '】', '#', '暑期', '交通安全', '#', '暑期', '来临', '，', '学生', '假期', '出游', '需求', '旺盛', '，', '客货运', '持续', '高位', '运行', '，', '且', '暑期', '暴雨', '等', '恶劣', '天气', '增多', '，', '交通安全', '风险', '升高', '，', '为', '切实', '提升', '中小学生', '暑期', '道路交通', '安全意识', '，', '有效', '预防', '和', '减少', '道路', '交通事故', '发生', '，', '，', '兴义市', '公安局', '交警大队', '的', '民警', '同志', '走进', '铭烨', '小学', '，', '以', '主题', '班会', '的', '方式', '开展', '暑期', '道路交通', '安全', '及', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '。', '活动', '现场', '，', '民警', '通过', '播放', '安全', '教育', '警示', '片', '，', '结合', '学校', '周边', '实际', '交通', '路况', '以及', '暑期', '出游', '的', '安全', '问题', '，', '以', '循序渐进', '的', '方式', '向', '同学', '们', '讲解', '交通安全', '知识', '，', '提醒', '同学', '们', '外出', '时要', '时刻', '注意', '交通安全', '，', '遵守', '交通法规', '，', '过', '马路', '时', '一定', '要', '走', '斑马线', '，', '不可', '在', '道路', '上', '追逐', '、', '打闹', '、', '嬉戏', '。', '同时', '还', '特别', '要求', '未', '满岁', '的', '未成年人', '不可', '骑', '自行车', '上路', '，', '乘坐', '两轮', '摩托车', '时要', '佩戴', '头盔', '，', '乘坐', '四轮', '汽车', '时要', '系好', '安全带', '。', '活动', '结束', '之后', '，', '同学', '们', '表示', '会谨', '遵', '交警', '叔叔', '的', '教导', '，', '认真', '遵守', '交通规则', '，', '安全', '出行', '，', '同时', '回到', '家会', '转告', '自己', '的', '家人', '，', '在', '暑期', '出行', '时', '一定', '恪守', '交规', '，', '文明', '出行', '，', '提高', '安全意识', '。', '@', '兴义市', '交警大队', '@', '黔西南州', '交警支队', '@', '公安部', '交通', '管理局']</t>
+          <t>['【', '黔西南州', '交警', '走进', '校园', '，', '上', '好', '暑假', '前', '交通安全', '“', '最后', '一课', '”', '】', '#', '暑期', '交通安全', '#', '暑期', '来临', '，', '学生', '假期', '出游', '需求', '旺盛', '，', '客货运', '持续', '高位', '运行', '，', '且', '暑期', '暴雨', '等', '恶劣', '天气', '增多', '，', '交通安全', '风险', '升高', '，', '为', '切实', '提升', '中小学生', '暑期', '道路交通', '安全意识', '，', '有效', '预防', '和', '减少', '道路', '交通事故', '发生', '，', '，', '兴义市', '公安局', '交警大队', '的', '民警', '同志', '走进', '铭烨', '小学', '，', '以', '主题', '班会', '的', '方式', '开展', '暑期', '道路交通', '安全', '及', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '。', '活动', '现场', '，', '民警', '通过', '播放', '安全', '教育', '警示', '片', '，', '结合', '学校', '周边', '实际', '交通', '路况', '以及', '暑期', '出游', '的', '安全', '问题', '，', '以', '循序渐进', '的', '方式', '向', '同学', '们', '讲解', '交通安全', '知识', '，', '提醒', '同学', '们', '外出', '时要', '时刻', '注意', '交通安全', '，', '遵守', '交通法规', '，', '过', '马路', '时', '一定', '要', '走', '斑马线', '，', '不可', '在', '道路', '上', '追逐', '、', '打闹', '、', '嬉戏', '。', '同时', '还', '特别', '要求', '未', '满岁', '的', '未成年人', '不可', '骑', '自行车', '上路', '，', '乘坐', '两轮', '摩托车', '时要', '佩戴', '头盔', '，', '乘坐', '四轮', '汽车', '时要', '系好', '安全带', '。', '活动', '结束', '之后', '，', '同学', '们', '表示', '会谨', '遵', '交警', '叔叔', '的', '教导', '，', '认真', '遵守', '交通规则', '，', '安全', '出行', '，', '同时', '回到', '家会', '转告', '自己', '的', '家人', '，', '在', '暑期', '出行', '时', '一定', '恪守', '交规', '，', '文明', '出行', '，', '提高', '安全意识', '。']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['【', '黔西南州', '交警', '走进', '校园', '，', '上好', '暑假', '前', '交通', '安全', '“', '最后', '一', '课', '”', '】', '#', '暑期', '交通', '安全', '#', '暑期', '来临', '，', '学生', '假期', '出游', '需求', '旺盛', '，', '客货', '运', '持续', '高位', '运行', '，', '且', '暑期', '暴雨', '等', '恶劣', '天气', '增多', '，', '交通', '安全', '风险', '升高', '，', '为', '切实', '提升', '中小学生', '暑期', '道路', '交通', '安全', '意识', '，', '有效', '预防', '和', '减少', '道路', '交通', '事故', '发生', '，，', '兴义市', '公安局', '交警', '大队', '的', '民警', '同志', '走进', '铭烨', '小学', '，', '以', '主题', '班会', '的', '方式', '开展', '暑期', '道路', '交通', '安全', '及', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '。', '活动', '现场', '，', '民警', '通过', '播放', '安全', '教育', '警示片', '，', '结合', '学校', '周边', '实际', '交通', '路况', '以及', '暑期', '出游', '的', '安全', '问题', '，', '以', '循序渐进', '的', '方式', '向', '同学们', '讲解', '交通', '安全', '知识', '，', '提醒', '同学们', '外出', '时', '要', '时刻', '注意', '交通', '安全', '，', '遵守', '交通', '法规', '，', '过', '马路', '时', '一定', '要', '走斑', '马线', '，', '不可', '在', '道路', '上', '追逐', '、', '打闹', '、', '嬉戏', '。', '同时', '还', '特别', '要求', '未', '满', '岁', '的', '未成年人', '不可', '骑', '自行车', '上路', '，', '乘坐', '两', '轮', '摩托车', '时', '要', '佩戴', '头盔', '，', '乘坐', '四轮', '汽车', '时', '要', '系', '好', '安全带', '。', '活动', '结束', '之后', '，', '同学们', '表示', '会', '谨遵', '交警', '叔叔', '的', '教导', '，', '认真', '遵守', '交通', '规则', '，', '安全', '出行', '，', '同时', '回到', '家会', '转告', '自己', '的', '家人', '，', '在', '暑期', '出行', '时', '一定', '恪守', '交规', '，', '文明', '出行', '，', '提高', '安全', '意识', '。', '@', '兴义市', '交警', '大队', '@', '黔西南州', '交警', '支队', '@', '公安部', '交通', '管理局']</t>
+          <t>['【', '黔西南州', '交警', '走进', '校园', '，', '上好', '暑假', '前', '交通', '安全', '“', '最后', '一', '课', '”', '】', '#', '暑期', '交通', '安全', '#', '暑期', '来临', '，', '学生', '假期', '出游', '需求', '旺盛', '，', '客货', '运', '持续', '高位', '运行', '，', '且', '暑期', '暴雨', '等', '恶劣', '天气', '增多', '，', '交通', '安全', '风险', '升高', '，', '为', '切实', '提升', '中小学生', '暑期', '道路', '交通', '安全', '意识', '，', '有效', '预防', '和', '减少', '道路', '交通', '事故', '发生', '，，', '兴义市', '公安局', '交警', '大队', '的', '民警', '同志', '走进', '铭烨', '小学', '，', '以', '主题', '班会', '的', '方式', '开展', '暑期', '道路', '交通', '安全', '及', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '。', '活动', '现场', '，', '民警', '通过', '播放', '安全', '教育', '警示片', '，', '结合', '学校', '周边', '实际', '交通', '路况', '以及', '暑期', '出游', '的', '安全', '问题', '，', '以', '循序渐进', '的', '方式', '向', '同学们', '讲解', '交通', '安全', '知识', '，', '提醒', '同学们', '外出', '时', '要', '时刻', '注意', '交通', '安全', '，', '遵守', '交通', '法规', '，', '过', '马路', '时', '一定', '要', '走斑', '马线', '，', '不可', '在', '道路', '上', '追逐', '、', '打闹', '、', '嬉戏', '。', '同时', '还', '特别', '要求', '未', '满', '岁', '的', '未成年人', '不可', '骑', '自行车', '上路', '，', '乘坐', '两', '轮', '摩托车', '时', '要', '佩戴', '头盔', '，', '乘坐', '四轮', '汽车', '时', '要', '系', '好', '安全带', '。', '活动', '结束', '之后', '，', '同学们', '表示', '会', '谨遵', '交警', '叔叔', '的', '教导', '，', '认真', '遵守', '交通', '规则', '，', '安全', '出行', '，', '同时', '回到', '家会', '转告', '自己', '的', '家人', '，', '在', '暑期', '出行', '时', '一定', '恪守', '交规', '，', '文明', '出行', '，', '提高', '安全', '意识', '。']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['黔西南州', '交警', '走进', '校园', '暑假', '交通安全', '最后', '一课', '暑期', '交通安全', '暑期', '来临', '学生', '假期', '出游', '需求', '旺盛', '客货运', '持续', '高位', '运行', '暑期', '暴雨', '恶劣', '天气', '增多', '交通安全', '风险', '升高', '切实', '提升', '中小学生', '暑期', '道路交通', '安全意识', '有效', '预防', '减少', '道路', '交通事故', '发生', '兴义市', '公安局', '交警大队', '民警', '同志', '走进', '铭烨', '小学', '主题', '班会', '方式', '开展', '暑期', '道路交通', '安全', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '活动', '现场', '民警', '播放', '安全', '教育', '警示', '结合', '学校', '周边', '实际', '交通', '路况', '暑期', '出游', '安全', '问题', '循序渐进', '方式', '同学', '讲解', '交通安全', '知识', '提醒', '同学', '外出', '时要', '时刻', '注意', '交通安全', '遵守', '交通法规', '马路', '一定', '斑马线', '不可', '道路', '追逐', '打闹', '嬉戏', '特别', '要求', '满岁', '未成年人', '不可', '自行车', '上路', '乘坐', '两轮', '摩托车', '时要', '佩戴', '头盔', '乘坐', '四轮', '汽车', '时要', '系好', '安全带', '活动', '结束', '之后', '同学', '表示', '会谨', '交警', '叔叔', '教导', '认真', '遵守', '交通规则', '安全', '出行', '回到', '家会', '转告', '家人', '暑期', '出行', '一定', '恪守', '交规', '文明', '出行', '提高', '安全意识', '兴义市', '交警大队', '黔西南州', '交警支队', '公安部', '交通', '管理局']</t>
+          <t>['黔西南州', '交警', '走进', '校园', '暑假', '交通安全', '最后', '一课', '暑期', '交通安全', '暑期', '来临', '学生', '假期', '出游', '需求', '旺盛', '客货运', '持续', '高位', '运行', '暑期', '暴雨', '恶劣', '天气', '增多', '交通安全', '风险', '升高', '切实', '提升', '中小学生', '暑期', '道路交通', '安全意识', '有效', '预防', '减少', '道路', '交通事故', '发生', '兴义市', '公安局', '交警大队', '民警', '同志', '走进', '铭烨', '小学', '主题', '班会', '方式', '开展', '暑期', '道路交通', '安全', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '活动', '现场', '民警', '播放', '安全', '教育', '警示', '结合', '学校', '周边', '实际', '交通', '路况', '暑期', '出游', '安全', '问题', '循序渐进', '方式', '同学', '讲解', '交通安全', '知识', '提醒', '同学', '外出', '时要', '时刻', '注意', '交通安全', '遵守', '交通法规', '马路', '一定', '斑马线', '不可', '道路', '追逐', '打闹', '嬉戏', '特别', '要求', '满岁', '未成年人', '不可', '自行车', '上路', '乘坐', '两轮', '摩托车', '时要', '佩戴', '头盔', '乘坐', '四轮', '汽车', '时要', '系好', '安全带', '活动', '结束', '之后', '同学', '表示', '会谨', '交警', '叔叔', '教导', '认真', '遵守', '交通规则', '安全', '出行', '回到', '家会', '转告', '家人', '暑期', '出行', '一定', '恪守', '交规', '文明', '出行', '提高', '安全意识']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['黔西南州', '交警', '走进', '校园', '上好', '暑假', '交通', '安全', '最后', '暑期', '交通', '安全', '暑期', '来临', '学生', '假期', '出游', '需求', '旺盛', '客货', '持续', '高位', '运行', '暑期', '暴雨', '恶劣', '天气', '增多', '交通', '安全', '风险', '升高', '切实', '提升', '中小学生', '暑期', '道路', '交通', '安全', '意识', '有效', '预防', '减少', '道路', '交通', '事故', '发生', '，，', '兴义市', '公安局', '交警', '大队', '民警', '同志', '走进', '铭烨', '小学', '主题', '班会', '方式', '开展', '暑期', '道路', '交通', '安全', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '活动', '现场', '民警', '播放', '安全', '教育', '警示片', '结合', '学校', '周边', '实际', '交通', '路况', '暑期', '出游', '安全', '问题', '循序渐进', '方式', '同学们', '讲解', '交通', '安全', '知识', '提醒', '同学们', '外出', '时刻', '注意', '交通', '安全', '遵守', '交通', '法规', '马路', '一定', '走斑', '马线', '不可', '道路', '追逐', '打闹', '嬉戏', '特别', '要求', '未成年人', '不可', '自行车', '上路', '乘坐', '摩托车', '佩戴', '头盔', '乘坐', '四轮', '汽车', '安全带', '活动', '结束', '之后', '同学们', '表示', '谨遵', '交警', '叔叔', '教导', '认真', '遵守', '交通', '规则', '安全', '出行', '回到', '家会', '转告', '家人', '暑期', '出行', '一定', '恪守', '交规', '文明', '出行', '提高', '安全', '意识', '兴义市', '交警', '大队', '黔西南州', '交警', '支队', '公安部', '交通', '管理局']</t>
+          <t>['黔西南州', '交警', '走进', '校园', '上好', '暑假', '交通', '安全', '最后', '暑期', '交通', '安全', '暑期', '来临', '学生', '假期', '出游', '需求', '旺盛', '客货', '持续', '高位', '运行', '暑期', '暴雨', '恶劣', '天气', '增多', '交通', '安全', '风险', '升高', '切实', '提升', '中小学生', '暑期', '道路', '交通', '安全', '意识', '有效', '预防', '减少', '道路', '交通', '事故', '发生', '，，', '兴义市', '公安局', '交警', '大队', '民警', '同志', '走进', '铭烨', '小学', '主题', '班会', '方式', '开展', '暑期', '道路', '交通', '安全', '校园', '周边', '交通', '组织', '调整', '宣讲', '活动', '活动', '现场', '民警', '播放', '安全', '教育', '警示片', '结合', '学校', '周边', '实际', '交通', '路况', '暑期', '出游', '安全', '问题', '循序渐进', '方式', '同学们', '讲解', '交通', '安全', '知识', '提醒', '同学们', '外出', '时刻', '注意', '交通', '安全', '遵守', '交通', '法规', '马路', '一定', '走斑', '马线', '不可', '道路', '追逐', '打闹', '嬉戏', '特别', '要求', '未成年人', '不可', '自行车', '上路', '乘坐', '摩托车', '佩戴', '头盔', '乘坐', '四轮', '汽车', '安全带', '活动', '结束', '之后', '同学们', '表示', '谨遵', '交警', '叔叔', '教导', '认真', '遵守', '交通', '规则', '安全', '出行', '回到', '家会', '转告', '家人', '暑期', '出行', '一定', '恪守', '交规', '文明', '出行', '提高', '安全', '意识']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('黔西南州', 'ns'), ('交警', 'j'), ('走进', 'v'), ('校园', 'n'), ('，', 'x'), ('上', 'f'), ('好', 'a'), ('暑假', 't'), ('前', 'f'), ('交通安全', 'l'), ('“', 'x'), ('最后', 'f'), ('一', 'm'), ('课', 'n'), ('”', 'x'), ('】', 'x'), ('#', 'x'), ('暑期', 't'), ('交通安全', 'l'), ('#', 'x'), ('暑期', 't'), ('来临', 'v'), ('，', 'x'), ('学生', 'n'), ('假期', 't'), ('出游', 'vn'), ('需求', 'v'), ('旺盛', 'a'), ('，', 'x'), ('客货运', 'n'), ('持续', 'vd'), ('高位', 'n'), ('运行', 'v'), ('，', 'x'), ('且', 'zg'), ('暑期', 't'), ('暴雨', 'n'), ('等', 'u'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('，', 'x'), ('交通安全', 'l'), ('风险', 'n'), ('升高', 'v'), ('，', 'x'), ('为', 'p'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'j'), ('暑期', 't'), ('道路交通', 'nz'), ('安全意识', 'i'), ('，', 'x'), ('有效', 'a'), ('预防', 'v'), ('和', 'c'), ('减少', 'v'), ('道路', 'n'), ('交通事故', 'n'), ('发生', 'v'), ('，', 'x'), ('，', 'x'), ('兴义市', 'ns'), ('公安局', 'nt'), ('交警大队', 'nt'), ('的', 'uj'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭', 'ng'), ('烨', 'nr'), ('小学', 'n'), ('，', 'x'), ('以', 'p'), ('主题', 'n'), ('班会', 'n'), ('的', 'uj'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路交通', 'nz'), ('安全', 'an'), ('及', 'c'), ('校园', 'n'), ('周边', 'f'), ('交通', 'n'), ('组织', 'v'), ('调整', 'vn'), ('宣讲', 'v'), ('活动', 'vn'), ('。', 'x'), ('活动', 'vn'), ('现场', 'n'), ('，', 'x'), ('民警', 'n'), ('通过', 'p'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示', 'v'), ('片', 'q'), ('，', 'x'), ('结合', 'v'), ('学校', 'n'), ('周边', 'f'), ('实际', 'n'), ('交通', 'n'), ('路况', 'n'), ('以及', 'c'), ('暑期', 't'), ('出游', 'vn'), ('的', 'uj'), ('安全', 'an'), ('问题', 'n'), ('，', 'x'), ('以', 'p'), ('循序渐进', 'i'), ('的', 'uj'), ('方式', 'n'), ('向', 'p'), ('同学', 'n'), ('们', 'k'), ('讲解', 'v'), ('交通安全', 'l'), ('知识', 'v'), ('，', 'x'), ('提醒', 'v'), ('同学', 'n'), ('们', 'k'), ('外出', 'v'), ('时', 'ng'), ('要', 'v'), ('时刻', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('，', 'x'), ('遵守', 'v'), ('交通法规', 'n'), ('，', 'x'), ('过', 'ug'), ('马路', 'n'), ('时', 'n'), ('一定', 'd'), ('要', 'v'), ('走', 'v'), ('斑马线', 'n'), ('，', 'x'), ('不可', 'v'), ('在', 'p'), ('道路', 'n'), ('上', 'f'), ('追逐', 'v'), ('、', 'x'), ('打闹', 'v'), ('、', 'x'), ('嬉戏', 'v'), ('。', 'x'), ('同时', 'c'), ('还', 'd'), ('特别', 'd'), ('要求', 'v'), ('未', 'd'), ('满岁', 'n'), ('的', 'uj'), ('未成年人', 'l'), ('不可', 'v'), ('骑', 'v'), ('自行车', 'n'), ('上路', 'ns'), ('，', 'x'), ('乘坐', 'v'), ('两轮', 'm'), ('摩托车', 'nz'), ('时', 'ng'), ('要', 'v'), ('佩戴', 'v'), ('头盔', 'n'), ('，', 'x'), ('乘坐', 'v'), ('四轮', 'm'), ('汽车', 'n'), ('时', 'ng'), ('要', 'v'), ('系', 'v'), ('好', 'a'), ('安全带', 'nr'), ('。', 'x'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('，', 'x'), ('同学', 'n'), ('们', 'k'), ('表示', 'v'), ('会', 'v'), ('谨', 'd'), ('遵', 'v'), ('交警', 'j'), ('叔叔', 'n'), ('的', 'uj'), ('教导', 'n'), ('，', 'x'), ('认真', 'ad'), ('遵守', 'v'), ('交通规则', 'n'), ('，', 'x'), ('安全', 'an'), ('出行', 'v'), ('，', 'x'), ('同时', 'c'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('自己', 'r'), ('的', 'uj'), ('家人', 'n'), ('，', 'x'), ('在', 'p'), ('暑期', 't'), ('出行', 'v'), ('时', 'n'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('，', 'x'), ('文明', 'nr'), ('出行', 'v'), ('，', 'x'), ('提高', 'v'), ('安全意识', 'i'), ('。', 'x'), ('@', 'x'), ('兴义市', 'ns'), ('交警大队', 'nt'), ('@', 'x'), ('黔西南州', 'ns'), ('交警支队', 'n'), ('@', 'x'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n')]</t>
+          <t>[('【', 'x'), ('黔西南州', 'ns'), ('交警', 'j'), ('走进', 'v'), ('校园', 'n'), ('，', 'x'), ('上', 'f'), ('好', 'a'), ('暑假', 't'), ('前', 'f'), ('交通安全', 'l'), ('“', 'x'), ('最后', 'f'), ('一', 'm'), ('课', 'n'), ('”', 'x'), ('】', 'x'), ('#', 'x'), ('暑期', 't'), ('交通安全', 'l'), ('#', 'x'), ('暑期', 't'), ('来临', 'v'), ('，', 'x'), ('学生', 'n'), ('假期', 't'), ('出游', 'vn'), ('需求', 'v'), ('旺盛', 'a'), ('，', 'x'), ('客货运', 'n'), ('持续', 'vd'), ('高位', 'n'), ('运行', 'v'), ('，', 'x'), ('且', 'zg'), ('暑期', 't'), ('暴雨', 'n'), ('等', 'u'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('，', 'x'), ('交通安全', 'l'), ('风险', 'n'), ('升高', 'v'), ('，', 'x'), ('为', 'p'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'j'), ('暑期', 't'), ('道路交通', 'nz'), ('安全意识', 'i'), ('，', 'x'), ('有效', 'a'), ('预防', 'v'), ('和', 'c'), ('减少', 'v'), ('道路', 'n'), ('交通事故', 'n'), ('发生', 'v'), ('，', 'x'), ('，', 'x'), ('兴义市', 'ns'), ('公安局', 'nt'), ('交警大队', 'nt'), ('的', 'uj'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭', 'ng'), ('烨', 'nr'), ('小学', 'n'), ('，', 'x'), ('以', 'p'), ('主题', 'n'), ('班会', 'n'), ('的', 'uj'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路交通', 'nz'), ('安全', 'an'), ('及', 'c'), ('校园', 'n'), ('周边', 'f'), ('交通', 'n'), ('组织', 'v'), ('调整', 'vn'), ('宣讲', 'v'), ('活动', 'vn'), ('。', 'x'), ('活动', 'vn'), ('现场', 'n'), ('，', 'x'), ('民警', 'n'), ('通过', 'p'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示', 'v'), ('片', 'q'), ('，', 'x'), ('结合', 'v'), ('学校', 'n'), ('周边', 'f'), ('实际', 'n'), ('交通', 'n'), ('路况', 'n'), ('以及', 'c'), ('暑期', 't'), ('出游', 'vn'), ('的', 'uj'), ('安全', 'an'), ('问题', 'n'), ('，', 'x'), ('以', 'p'), ('循序渐进', 'i'), ('的', 'uj'), ('方式', 'n'), ('向', 'p'), ('同学', 'n'), ('们', 'k'), ('讲解', 'v'), ('交通安全', 'l'), ('知识', 'v'), ('，', 'x'), ('提醒', 'v'), ('同学', 'n'), ('们', 'k'), ('外出', 'v'), ('时', 'ng'), ('要', 'v'), ('时刻', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('，', 'x'), ('遵守', 'v'), ('交通法规', 'n'), ('，', 'x'), ('过', 'ug'), ('马路', 'n'), ('时', 'n'), ('一定', 'd'), ('要', 'v'), ('走', 'v'), ('斑马线', 'n'), ('，', 'x'), ('不可', 'v'), ('在', 'p'), ('道路', 'n'), ('上', 'f'), ('追逐', 'v'), ('、', 'x'), ('打闹', 'v'), ('、', 'x'), ('嬉戏', 'v'), ('。', 'x'), ('同时', 'c'), ('还', 'd'), ('特别', 'd'), ('要求', 'v'), ('未', 'd'), ('满岁', 'n'), ('的', 'uj'), ('未成年人', 'l'), ('不可', 'v'), ('骑', 'v'), ('自行车', 'n'), ('上路', 'ns'), ('，', 'x'), ('乘坐', 'v'), ('两轮', 'm'), ('摩托车', 'nz'), ('时', 'ng'), ('要', 'v'), ('佩戴', 'v'), ('头盔', 'n'), ('，', 'x'), ('乘坐', 'v'), ('四轮', 'm'), ('汽车', 'n'), ('时', 'ng'), ('要', 'v'), ('系', 'v'), ('好', 'a'), ('安全带', 'nr'), ('。', 'x'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('，', 'x'), ('同学', 'n'), ('们', 'k'), ('表示', 'v'), ('会', 'v'), ('谨', 'd'), ('遵', 'v'), ('交警', 'j'), ('叔叔', 'n'), ('的', 'uj'), ('教导', 'n'), ('，', 'x'), ('认真', 'ad'), ('遵守', 'v'), ('交通规则', 'n'), ('，', 'x'), ('安全', 'an'), ('出行', 'v'), ('，', 'x'), ('同时', 'c'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('自己', 'r'), ('的', 'uj'), ('家人', 'n'), ('，', 'x'), ('在', 'p'), ('暑期', 't'), ('出行', 'v'), ('时', 'n'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('，', 'x'), ('文明', 'nr'), ('出行', 'v'), ('，', 'x'), ('提高', 'v'), ('安全意识', 'i'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[('【', 'v'), ('黔西南州', 'ns'), ('交警', 'n'), ('走进', 'v'), ('校园', 'n'), ('，', 'w'), ('上好', 'v'), ('暑假', 't'), ('前', 'f'), ('交通', 'n'), ('安全', 'an'), ('“', 'w'), ('最后', 'f'), ('一', 'm'), ('课', 'n'), ('”', 'w'), ('】', 'n'), ('#', 'v'), ('暑期', 't'), ('交通', 'n'), ('安全', 'an'), ('#', 'n'), ('暑期', 't'), ('来临', 'v'), ('，', 'w'), ('学生', 'n'), ('假期', 't'), ('出游', 'v'), ('需求', 'n'), ('旺盛', 'a'), ('，', 'w'), ('客货', 'j'), ('运', 'v'), ('持续', 'v'), ('高位', 'n'), ('运行', 'v'), ('，', 'w'), ('且', 'c'), ('暑期', 't'), ('暴雨', 'n'), ('等', 'u'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('，', 'w'), ('交通', 'n'), ('安全', 'an'), ('风险', 'n'), ('升高', 'v'), ('，', 'w'), ('为', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'n'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('意识', 'n'), ('，', 'w'), ('有效', 'ad'), ('预防', 'v'), ('和', 'c'), ('减少', 'v'), ('道路', 'n'), ('交通', 'n'), ('事故', 'n'), ('发生', 'v'), ('，，', 'w'), ('兴义市', 'ns'), ('公安局', 'n'), ('交警', 'n'), ('大队', 'n'), ('的', 'u'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭烨', 'v'), ('小学', 'n'), ('，', 'w'), ('以', 'p'), ('主题', 'n'), ('班会', 'n'), ('的', 'u'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('及', 'c'), ('校园', 'n'), ('周边', 'n'), ('交通', 'n'), ('组织', 'n'), ('调整', 'vn'), ('宣讲', 'vn'), ('活动', 'vn'), ('。', 'w'), ('活动', 'vn'), ('现场', 's'), ('，', 'w'), ('民警', 'n'), ('通过', 'p'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示片', 'n'), ('，', 'w'), ('结合', 'v'), ('学校', 'n'), ('周边', 'n'), ('实际', 'a'), ('交通', 'n'), ('路况', 'n'), ('以及', 'c'), ('暑期', 't'), ('出游', 'v'), ('的', 'u'), ('安全', 'an'), ('问题', 'n'), ('，', 'w'), ('以', 'p'), ('循序渐进', 'i'), ('的', 'u'), ('方式', 'n'), ('向', 'p'), ('同学们', 'n'), ('讲解', 'v'), ('交通', 'n'), ('安全', 'an'), ('知识', 'n'), ('，', 'w'), ('提醒', 'v'), ('同学们', 'n'), ('外出', 'v'), ('时', 'n'), ('要', 'v'), ('时刻', 'd'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('，', 'w'), ('遵守', 'v'), ('交通', 'n'), ('法规', 'n'), ('，', 'w'), ('过', 'v'), ('马路', 'n'), ('时', 'n'), ('一定', 'd'), ('要', 'v'), ('走斑', 'v'), ('马线', 'n'), ('，', 'w'), ('不可', 'v'), ('在', 'p'), ('道路', 'n'), ('上', 'v'), ('追逐', 'v'), ('、', 'w'), ('打闹', 'v'), ('、', 'w'), ('嬉戏', 'v'), ('。', 'w'), ('同时', 'c'), ('还', 'd'), ('特别', 'd'), ('要求', 'v'), ('未', 'd'), ('满', 'a'), ('岁', 'q'), ('的', 'u'), ('未成年人', 'n'), ('不可', 'v'), ('骑', 'v'), ('自行车', 'n'), ('上路', 'v'), ('，', 'w'), ('乘坐', 'v'), ('两', 'm'), ('轮', 'q'), ('摩托车', 'n'), ('时', 'n'), ('要', 'v'), ('佩戴', 'v'), ('头盔', 'n'), ('，', 'w'), ('乘坐', 'v'), ('四轮', 'j'), ('汽车', 'n'), ('时', 'n'), ('要', 'v'), ('系', 'n'), ('好', 'a'), ('安全带', 'n'), ('。', 'w'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('，', 'w'), ('同学们', 'n'), ('表示', 'v'), ('会', 'v'), ('谨遵', 'v'), ('交警', 'n'), ('叔叔', 'n'), ('的', 'u'), ('教导', 'vn'), ('，', 'w'), ('认真', 'ad'), ('遵守', 'v'), ('交通', 'n'), ('规则', 'n'), ('，', 'w'), ('安全', 'ad'), ('出行', 'v'), ('，', 'w'), ('同时', 'c'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('自己', 'r'), ('的', 'u'), ('家人', 'n'), ('，', 'w'), ('在', 'p'), ('暑期', 't'), ('出行', 'v'), ('时', 'n'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('，', 'w'), ('文明', 'ad'), ('出行', 'v'), ('，', 'w'), ('提高', 'v'), ('安全', 'a'), ('意识', 'n'), ('。', 'w'), ('@', 'v'), ('兴义市', 'ns'), ('交警', 'n'), ('大队', 'n'), ('@', 'v'), ('黔西南州', 'ns'), ('交警', 'n'), ('支队', 'n'), ('@', 'v'), ('公安部', 'nt'), ('交通', 'n'), ('管理局', 'n')]</t>
+          <t>[('【', 'v'), ('黔西南州', 'ns'), ('交警', 'n'), ('走进', 'v'), ('校园', 'n'), ('，', 'w'), ('上好', 'v'), ('暑假', 't'), ('前', 'f'), ('交通', 'n'), ('安全', 'an'), ('“', 'w'), ('最后', 'f'), ('一', 'm'), ('课', 'n'), ('”', 'w'), ('】', 'n'), ('#', 'v'), ('暑期', 't'), ('交通', 'n'), ('安全', 'an'), ('#', 'n'), ('暑期', 't'), ('来临', 'v'), ('，', 'w'), ('学生', 'n'), ('假期', 't'), ('出游', 'v'), ('需求', 'n'), ('旺盛', 'a'), ('，', 'w'), ('客货', 'j'), ('运', 'v'), ('持续', 'v'), ('高位', 'n'), ('运行', 'v'), ('，', 'w'), ('且', 'c'), ('暑期', 't'), ('暴雨', 'n'), ('等', 'u'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('，', 'w'), ('交通', 'n'), ('安全', 'an'), ('风险', 'n'), ('升高', 'v'), ('，', 'w'), ('为', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'n'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('意识', 'n'), ('，', 'w'), ('有效', 'ad'), ('预防', 'v'), ('和', 'c'), ('减少', 'v'), ('道路', 'n'), ('交通', 'n'), ('事故', 'n'), ('发生', 'v'), ('，，', 'w'), ('兴义市', 'ns'), ('公安局', 'n'), ('交警', 'n'), ('大队', 'n'), ('的', 'u'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭烨', 'v'), ('小学', 'n'), ('，', 'w'), ('以', 'p'), ('主题', 'n'), ('班会', 'n'), ('的', 'u'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('及', 'c'), ('校园', 'n'), ('周边', 'n'), ('交通', 'n'), ('组织', 'n'), ('调整', 'vn'), ('宣讲', 'vn'), ('活动', 'vn'), ('。', 'w'), ('活动', 'vn'), ('现场', 's'), ('，', 'w'), ('民警', 'n'), ('通过', 'p'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示片', 'n'), ('，', 'w'), ('结合', 'v'), ('学校', 'n'), ('周边', 'n'), ('实际', 'a'), ('交通', 'n'), ('路况', 'n'), ('以及', 'c'), ('暑期', 't'), ('出游', 'v'), ('的', 'u'), ('安全', 'an'), ('问题', 'n'), ('，', 'w'), ('以', 'p'), ('循序渐进', 'i'), ('的', 'u'), ('方式', 'n'), ('向', 'p'), ('同学们', 'n'), ('讲解', 'v'), ('交通', 'n'), ('安全', 'an'), ('知识', 'n'), ('，', 'w'), ('提醒', 'v'), ('同学们', 'n'), ('外出', 'v'), ('时', 'n'), ('要', 'v'), ('时刻', 'd'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('，', 'w'), ('遵守', 'v'), ('交通', 'n'), ('法规', 'n'), ('，', 'w'), ('过', 'v'), ('马路', 'n'), ('时', 'n'), ('一定', 'd'), ('要', 'v'), ('走斑', 'v'), ('马线', 'n'), ('，', 'w'), ('不可', 'v'), ('在', 'p'), ('道路', 'n'), ('上', 'v'), ('追逐', 'v'), ('、', 'w'), ('打闹', 'v'), ('、', 'w'), ('嬉戏', 'v'), ('。', 'w'), ('同时', 'c'), ('还', 'd'), ('特别', 'd'), ('要求', 'v'), ('未', 'd'), ('满', 'a'), ('岁', 'q'), ('的', 'u'), ('未成年人', 'n'), ('不可', 'v'), ('骑', 'v'), ('自行车', 'n'), ('上路', 'v'), ('，', 'w'), ('乘坐', 'v'), ('两', 'm'), ('轮', 'q'), ('摩托车', 'n'), ('时', 'n'), ('要', 'v'), ('佩戴', 'v'), ('头盔', 'n'), ('，', 'w'), ('乘坐', 'v'), ('四轮', 'j'), ('汽车', 'n'), ('时', 'n'), ('要', 'v'), ('系', 'n'), ('好', 'a'), ('安全带', 'n'), ('。', 'w'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('，', 'w'), ('同学们', 'n'), ('表示', 'v'), ('会', 'v'), ('谨遵', 'v'), ('交警', 'n'), ('叔叔', 'n'), ('的', 'u'), ('教导', 'vn'), ('，', 'w'), ('认真', 'ad'), ('遵守', 'v'), ('交通', 'n'), ('规则', 'n'), ('，', 'w'), ('安全', 'ad'), ('出行', 'v'), ('，', 'w'), ('同时', 'c'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('自己', 'r'), ('的', 'u'), ('家人', 'n'), ('，', 'w'), ('在', 'p'), ('暑期', 't'), ('出行', 'v'), ('时', 'n'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('，', 'w'), ('文明', 'ad'), ('出行', 'v'), ('，', 'w'), ('提高', 'v'), ('安全', 'a'), ('意识', 'n'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[('黔西南州', 'ns'), ('交警', 'j'), ('走进', 'v'), ('校园', 'n'), ('暑假', 't'), ('交通安全', 'l'), ('最后', 'f'), ('暑期', 't'), ('交通安全', 'l'), ('暑期', 't'), ('来临', 'v'), ('学生', 'n'), ('假期', 't'), ('出游', 'vn'), ('需求', 'v'), ('旺盛', 'a'), ('客货运', 'n'), ('持续', 'vd'), ('高位', 'n'), ('运行', 'v'), ('暑期', 't'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('交通安全', 'l'), ('风险', 'n'), ('升高', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'j'), ('暑期', 't'), ('道路交通', 'nz'), ('安全意识', 'i'), ('有效', 'a'), ('预防', 'v'), ('减少', 'v'), ('道路', 'n'), ('交通事故', 'n'), ('发生', 'v'), ('兴义市', 'ns'), ('公安局', 'nt'), ('交警大队', 'nt'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('小学', 'n'), ('主题', 'n'), ('班会', 'n'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路交通', 'nz'), ('安全', 'an'), ('校园', 'n'), ('周边', 'f'), ('交通', 'n'), ('组织', 'v'), ('调整', 'vn'), ('宣讲', 'v'), ('活动', 'vn'), ('活动', 'vn'), ('现场', 'n'), ('民警', 'n'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示', 'v'), ('结合', 'v'), ('学校', 'n'), ('周边', 'f'), ('实际', 'n'), ('交通', 'n'), ('路况', 'n'), ('暑期', 't'), ('出游', 'vn'), ('安全', 'an'), ('问题', 'n'), ('循序渐进', 'i'), ('方式', 'n'), ('同学', 'n'), ('讲解', 'v'), ('交通安全', 'l'), ('知识', 'v'), ('提醒', 'v'), ('同学', 'n'), ('外出', 'v'), ('时刻', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('遵守', 'v'), ('交通法规', 'n'), ('马路', 'n'), ('一定', 'd'), ('斑马线', 'n'), ('不可', 'v'), ('道路', 'n'), ('追逐', 'v'), ('打闹', 'v'), ('嬉戏', 'v'), ('特别', 'd'), ('要求', 'v'), ('满岁', 'n'), ('未成年人', 'l'), ('不可', 'v'), ('自行车', 'n'), ('上路', 'ns'), ('乘坐', 'v'), ('两轮', 'm'), ('摩托车', 'nz'), ('佩戴', 'v'), ('头盔', 'n'), ('乘坐', 'v'), ('四轮', 'm'), ('汽车', 'n'), ('安全带', 'nr'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('同学', 'n'), ('表示', 'v'), ('交警', 'j'), ('叔叔', 'n'), ('教导', 'n'), ('认真', 'ad'), ('遵守', 'v'), ('交通规则', 'n'), ('安全', 'an'), ('出行', 'v'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('家人', 'n'), ('暑期', 't'), ('出行', 'v'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('文明', 'nr'), ('出行', 'v'), ('提高', 'v'), ('安全意识', 'i'), ('兴义市', 'ns'), ('交警大队', 'nt'), ('黔西南州', 'ns'), ('交警支队', 'n'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n')]</t>
+          <t>[('交警', 'j'), ('走进', 'v'), ('校园', 'n'), ('暑假', 't'), ('交通安全', 'l'), ('暑期', 't'), ('交通安全', 'l'), ('暑期', 't'), ('来临', 'v'), ('学生', 'n'), ('假期', 't'), ('出游', 'vn'), ('需求', 'v'), ('旺盛', 'a'), ('客货运', 'n'), ('持续', 'vd'), ('高位', 'n'), ('运行', 'v'), ('暑期', 't'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('交通安全', 'l'), ('风险', 'n'), ('升高', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'j'), ('暑期', 't'), ('安全意识', 'i'), ('有效', 'a'), ('预防', 'v'), ('减少', 'v'), ('道路', 'n'), ('交通事故', 'n'), ('发生', 'v'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('小学', 'n'), ('主题', 'n'), ('班会', 'n'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('安全', 'an'), ('校园', 'n'), ('交通', 'n'), ('组织', 'v'), ('调整', 'vn'), ('宣讲', 'v'), ('活动', 'vn'), ('活动', 'vn'), ('现场', 'n'), ('民警', 'n'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示', 'v'), ('结合', 'v'), ('学校', 'n'), ('实际', 'n'), ('交通', 'n'), ('路况', 'n'), ('暑期', 't'), ('出游', 'vn'), ('安全', 'an'), ('问题', 'n'), ('循序渐进', 'i'), ('方式', 'n'), ('同学', 'n'), ('讲解', 'v'), ('交通安全', 'l'), ('知识', 'v'), ('提醒', 'v'), ('同学', 'n'), ('外出', 'v'), ('时刻', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('遵守', 'v'), ('交通法规', 'n'), ('马路', 'n'), ('斑马线', 'n'), ('不可', 'v'), ('道路', 'n'), ('追逐', 'v'), ('打闹', 'v'), ('嬉戏', 'v'), ('要求', 'v'), ('满岁', 'n'), ('未成年人', 'l'), ('不可', 'v'), ('自行车', 'n'), ('乘坐', 'v'), ('佩戴', 'v'), ('头盔', 'n'), ('乘坐', 'v'), ('汽车', 'n'), ('安全带', 'nr'), ('活动', 'vn'), ('结束', 'v'), ('同学', 'n'), ('表示', 'v'), ('交警', 'j'), ('叔叔', 'n'), ('教导', 'n'), ('认真', 'ad'), ('遵守', 'v'), ('交通规则', 'n'), ('安全', 'an'), ('出行', 'v'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('家人', 'n'), ('暑期', 't'), ('出行', 'v'), ('恪守', 'v'), ('交规', 'n'), ('文明', 'nr'), ('出行', 'v'), ('提高', 'v'), ('安全意识', 'i')]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[('黔西南州', 'ns'), ('交警', 'n'), ('走进', 'v'), ('校园', 'n'), ('上好', 'v'), ('暑假', 't'), ('交通', 'n'), ('安全', 'an'), ('最后', 'f'), ('暑期', 't'), ('交通', 'n'), ('安全', 'an'), ('暑期', 't'), ('来临', 'v'), ('学生', 'n'), ('假期', 't'), ('出游', 'v'), ('需求', 'n'), ('旺盛', 'a'), ('客货', 'j'), ('持续', 'v'), ('高位', 'n'), ('运行', 'v'), ('暑期', 't'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('交通', 'n'), ('安全', 'an'), ('风险', 'n'), ('升高', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'n'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('意识', 'n'), ('有效', 'ad'), ('预防', 'v'), ('减少', 'v'), ('道路', 'n'), ('交通', 'n'), ('事故', 'n'), ('发生', 'v'), ('，，', 'w'), ('兴义市', 'ns'), ('公安局', 'n'), ('交警', 'n'), ('大队', 'n'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭烨', 'v'), ('小学', 'n'), ('主题', 'n'), ('班会', 'n'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('校园', 'n'), ('周边', 'n'), ('交通', 'n'), ('组织', 'n'), ('调整', 'vn'), ('宣讲', 'vn'), ('活动', 'vn'), ('活动', 'vn'), ('现场', 's'), ('民警', 'n'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示片', 'n'), ('结合', 'v'), ('学校', 'n'), ('周边', 'n'), ('实际', 'a'), ('交通', 'n'), ('路况', 'n'), ('暑期', 't'), ('出游', 'v'), ('安全', 'an'), ('问题', 'n'), ('循序渐进', 'i'), ('方式', 'n'), ('同学们', 'n'), ('讲解', 'v'), ('交通', 'n'), ('安全', 'an'), ('知识', 'n'), ('提醒', 'v'), ('同学们', 'n'), ('外出', 'v'), ('时刻', 'd'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('遵守', 'v'), ('交通', 'n'), ('法规', 'n'), ('马路', 'n'), ('一定', 'd'), ('走斑', 'v'), ('马线', 'n'), ('不可', 'v'), ('道路', 'n'), ('追逐', 'v'), ('打闹', 'v'), ('嬉戏', 'v'), ('特别', 'd'), ('要求', 'v'), ('未成年人', 'n'), ('不可', 'v'), ('自行车', 'n'), ('上路', 'v'), ('乘坐', 'v'), ('摩托车', 'n'), ('佩戴', 'v'), ('头盔', 'n'), ('乘坐', 'v'), ('四轮', 'j'), ('汽车', 'n'), ('安全带', 'n'), ('活动', 'vn'), ('结束', 'v'), ('之后', 'f'), ('同学们', 'n'), ('表示', 'v'), ('谨遵', 'v'), ('交警', 'n'), ('叔叔', 'n'), ('教导', 'vn'), ('认真', 'ad'), ('遵守', 'v'), ('交通', 'n'), ('规则', 'n'), ('安全', 'ad'), ('出行', 'v'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('家人', 'n'), ('暑期', 't'), ('出行', 'v'), ('一定', 'd'), ('恪守', 'v'), ('交规', 'n'), ('文明', 'ad'), ('出行', 'v'), ('提高', 'v'), ('安全', 'a'), ('意识', 'n'), ('兴义市', 'ns'), ('交警', 'n'), ('大队', 'n'), ('黔西南州', 'ns'), ('交警', 'n'), ('支队', 'n'), ('公安部', 'nt'), ('交通', 'n'), ('管理局', 'n')]</t>
+          <t>[('交警', 'n'), ('走进', 'v'), ('校园', 'n'), ('上好', 'v'), ('暑假', 't'), ('交通', 'n'), ('安全', 'an'), ('暑期', 't'), ('交通', 'n'), ('安全', 'an'), ('暑期', 't'), ('来临', 'v'), ('学生', 'n'), ('假期', 't'), ('出游', 'v'), ('需求', 'n'), ('旺盛', 'a'), ('客货', 'j'), ('持续', 'v'), ('高位', 'n'), ('运行', 'v'), ('暑期', 't'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('增多', 'v'), ('交通', 'n'), ('安全', 'an'), ('风险', 'n'), ('升高', 'v'), ('切实', 'ad'), ('提升', 'v'), ('中小学生', 'n'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('意识', 'n'), ('有效', 'ad'), ('预防', 'v'), ('减少', 'v'), ('道路', 'n'), ('交通', 'n'), ('事故', 'n'), ('发生', 'v'), ('，，', 'w'), ('公安局', 'n'), ('交警', 'n'), ('大队', 'n'), ('民警', 'n'), ('同志', 'n'), ('走进', 'v'), ('铭烨', 'v'), ('小学', 'n'), ('主题', 'n'), ('班会', 'n'), ('方式', 'n'), ('开展', 'v'), ('暑期', 't'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('校园', 'n'), ('周边', 'n'), ('交通', 'n'), ('组织', 'n'), ('调整', 'vn'), ('宣讲', 'vn'), ('活动', 'vn'), ('活动', 'vn'), ('民警', 'n'), ('播放', 'v'), ('安全', 'an'), ('教育', 'vn'), ('警示片', 'n'), ('结合', 'v'), ('学校', 'n'), ('周边', 'n'), ('实际', 'a'), ('交通', 'n'), ('路况', 'n'), ('暑期', 't'), ('出游', 'v'), ('安全', 'an'), ('问题', 'n'), ('循序渐进', 'i'), ('方式', 'n'), ('同学们', 'n'), ('讲解', 'v'), ('交通', 'n'), ('安全', 'an'), ('知识', 'n'), ('提醒', 'v'), ('同学们', 'n'), ('外出', 'v'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('遵守', 'v'), ('交通', 'n'), ('法规', 'n'), ('马路', 'n'), ('走斑', 'v'), ('马线', 'n'), ('不可', 'v'), ('道路', 'n'), ('追逐', 'v'), ('打闹', 'v'), ('嬉戏', 'v'), ('要求', 'v'), ('未成年人', 'n'), ('不可', 'v'), ('自行车', 'n'), ('上路', 'v'), ('乘坐', 'v'), ('摩托车', 'n'), ('佩戴', 'v'), ('头盔', 'n'), ('乘坐', 'v'), ('四轮', 'j'), ('汽车', 'n'), ('安全带', 'n'), ('活动', 'vn'), ('结束', 'v'), ('同学们', 'n'), ('表示', 'v'), ('谨遵', 'v'), ('交警', 'n'), ('叔叔', 'n'), ('教导', 'vn'), ('认真', 'ad'), ('遵守', 'v'), ('交通', 'n'), ('规则', 'n'), ('安全', 'ad'), ('出行', 'v'), ('回到', 'v'), ('家会', 'n'), ('转告', 'v'), ('家人', 'n'), ('暑期', 't'), ('出行', 'v'), ('恪守', 'v'), ('交规', 'n'), ('文明', 'ad'), ('出行', 'v'), ('提高', 'v'), ('安全', 'a'), ('意识', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[('我市', 'r'), ('企业家', 'n'), ('代表', 'n'), ('交警', 'j'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('温暖', 'an'), ('开封', 'v'), ('我市', 'r'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('一分', 'm'), ('工商联', 'j'), ('鼓楼区', 'n'), ('政协', 'j'), ('企业家', 'n'), ('代表', 'n'), ('来到', 'v'), ('交警', 'j'), ('大队', 'n'), ('参加', 'v'), ('抗洪抢险', 'l'), ('高温', 'n'), ('天气', 'n'), ('始终', 'd'), ('坚守岗位', 'n'), ('交警', 'j'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('我市', 'r'), ('遭遇', 'n'), ('罕见', 'a'), ('大暴雨', 'i'), ('恶劣', 'a'), ('天气', 'n'), ('城市', 'ns'), ('内涝', 'n'), ('严重', 'a'), ('辖区', 'n'), ('多条', 'm'), ('主干道', 'n'), ('主要', 'b'), ('路口', 's'), ('积水', 'n'), ('严重', 'a'), ('雨情', 'n'), ('警情', 'n'), ('交警', 'j'), ('大队', 'n'), ('闻警而动', 'l'), ('暴雨', 'n'), ('期间', 'f'), ('大队', 'n'), ('交警', 'j'), ('小时', 'n'), ('在位', 'v'), ('全力以赴', 'i'), ('做好', 'v'), ('暴雨', 'n'), ('全市', 'n'), ('交通安全', 'l'), ('保障', 'v'), ('工作', 'vn'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('畅通', 'a'), ('强降雨', 'nr'), ('期间', 'f'), ('交警', 'j'), ('大队', 'n'), ('重点', 'n'), ('警力', 'n'), ('布置', 'n'), ('城区', 'n'), ('西郊', 's'), ('商场', 'n'), ('包公', 'nr'), ('湖南路', 'ns'), ('解放', 'v'), ('大道', 'n'), ('卧龙', 'ns'), ('水漫', 'n'), ('路段', 'n'), ('指挥', 'v'), ('疏导', 'v'), ('漫水', 'n'), ('路段', 'n'), ('车辆', 'n'), ('车主', 'n'), ('驶离', 'v'), ('危险', 'an'), ('区域', 'n'), ('安排', 'v'), ('警力', 'n'), ('彻夜', 'd'), ('涉水', 'v'), ('区域', 'n'), ('维持', 'v'), ('交通秩序', 'nz'), ('提醒', 'v'), ('过往', 't'), ('车辆', 'n'), ('尽量', 'd'), ('避开', 'v'), ('涉水', 'v'), ('区域', 'n'), ('选择', 'v'), ('绕行', 'v'), ('确保安全', 'ns'), ('暴雨', 'n'), ('开封', 'v'), ('开封', 'v'), ('一定', 'd'), ('暴雨', 'n'), ('过后', 't'), ('交警', 'j'), ('大队', 'n'), ('全力', 'n'), ('投入', 'v'), ('城市', 'ns'), ('文明', 'nr'), ('交通', 'n'), ('创建', 'v'), ('工作', 'vn'), ('连日来', 'l'), ('大队', 'n'), ('交警', 'j'), ('逐步', 'd'), ('恢复', 'v'), ('高温', 'n'), ('天气', 'n'), ('坚守', 'v'), ('辖区', 'n'), ('大街小巷', 'i'), ('全力', 'n'), ('保障', 'v'), ('辖区', 'n'), ('道路交通', 'nz'), ('安全', 'an'), ('有序', 'n'), ('交警', 'j'), ('大队', 'n'), ('全体', 'n'), ('交警', 'j'), ('防汛', 'vn'), ('救灾', 'vn'), ('维护', 'v'), ('城市交通', 'nt'), ('安全', 'an'), ('有序', 'n'), ('工作', 'vn'), ('方面', 'n'), ('付出', 'v'), ('努力', 'ad'), ('得到', 'v'), ('广大', 'a'), ('市民', 'n'), ('认可', 'v'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('一分', 'm'), ('工商联', 'j'), ('鼓楼区', 'n'), ('政协', 'j'), ('企业家', 'n'), ('自发', 'v'), ('组织', 'v'), ('起来', 'v'), ('购买', 'v'), ('消毒液', 'n'), ('口罩', 'n'), ('纯净水', 'n'), ('水果', 'n'), ('绿豆', 'n'), ('价值', 'n'), ('万元', 'm'), ('防暑', 'v'), ('抗疫', 'vn'), ('物资', 'n'), ('来到', 'v'), ('交警', 'j'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('一分', 'm'), ('秘书长', 'n'), ('许龙', 'nr'), ('表示', 'v'), ('一分', 'm'), ('青年', 't'), ('企业家', 'n'), ('郭圣宇', 'nr'), ('张彬', 'nrfg'), ('胡栋栋', 'nr'), ('张龙', 'nr'), ('立言', 'n'), ('我省', 'r'), ('我市', 'r'), ('遭遇', 'n'), ('洪水', 'nr'), ('灾害', 'n'), ('始终', 'd'), ('关注', 'v'), ('灾情', 'n'), ('已经', 'd'), ('自发', 'v'), ('组织', 'v'), ('多次', 'm'), ('前往', 't'), ('尉氏', 'nr'), ('新乡', 'ns'), ('鹤壁', 'ns'), ('捐献', 'v'), ('救灾物资', 'l'), ('这次', 'r'), ('交警', 'j'), ('大队', 'n'), ('交警', 'j'), ('开展', 'v'), ('慰问', 'v'), ('我市', 'r'), ('交警', 'j'), ('开封', 'v'), ('遭受', 'v'), ('暴雨', 'n'), ('袭击', 'v'), ('坚守岗位', 'n'), ('全力', 'n'), ('保障', 'v'), ('群众', 'n'), ('通行', 'j'), ('安全', 'an'), ('付出', 'v'), ('努力', 'ad'), ('表示感谢', 'i'), ('感谢', 'v'), ('交警', 'j'), ('全市', 'n'), ('群众', 'n'), ('付出', 'v'), ('群众', 'n'), ('平安', 'a'), ('交警', 'j'), ('献爱心', 'nrt'), ('共同', 'd'), ('助力', 'n'), ('开封', 'v'), ('文明城市', 'ns'), ('建设', 'vn'), ('新台阶', 'n'), ('青年', 't'), ('企业家', 'n'), ('张彬', 'nrfg'), ('动情', 'n'), ('开封', 'v'), ('身边', 's'), ('好人', 'n'), ('媒体', 'n'), ('记者', 'n'), ('王淳', 'nr')]</t>
+          <t>[('企业家', 'n'), ('代表', 'n'), ('交警', 'j'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('温暖', 'an'), ('开封', 'v'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('工商联', 'j'), ('鼓楼区', 'n'), ('政协', 'j'), ('企业家', 'n'), ('代表', 'n'), ('来到', 'v'), ('交警', 'j'), ('大队', 'n'), ('参加', 'v'), ('抗洪抢险', 'l'), ('高温', 'n'), ('天气', 'n'), ('坚守岗位', 'n'), ('交警', 'j'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('遭遇', 'n'), ('罕见', 'a'), ('大暴雨', 'i'), ('恶劣', 'a'), ('天气', 'n'), ('内涝', 'n'), ('严重', 'a'), ('辖区', 'n'), ('主干道', 'n'), ('主要', 'b'), ('积水', 'n'), ('严重', 'a'), ('雨情', 'n'), ('警情', 'n'), ('交警', 'j'), ('大队', 'n'), ('闻警而动', 'l'), ('暴雨', 'n'), ('大队', 'n'), ('交警', 'j'), ('小时', 'n'), ('在位', 'v'), ('全力以赴', 'i'), ('做好', 'v'), ('暴雨', 'n'), ('全市', 'n'), ('交通安全', 'l'), ('保障', 'v'), ('工作', 'vn'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('畅通', 'a'), ('强降雨', 'nr'), ('交警', 'j'), ('大队', 'n'), ('重点', 'n'), ('警力', 'n'), ('布置', 'n'), ('城区', 'n'), ('商场', 'n'), ('包公', 'nr'), ('解放', 'v'), ('大道', 'n'), ('水漫', 'n'), ('路段', 'n'), ('指挥', 'v'), ('疏导', 'v'), ('漫水', 'n'), ('路段', 'n'), ('车辆', 'n'), ('车主', 'n'), ('驶离', 'v'), ('危险', 'an'), ('区域', 'n'), ('安排', 'v'), ('警力', 'n'), ('涉水', 'v'), ('区域', 'n'), ('维持', 'v'), ('提醒', 'v'), ('过往', 't'), ('车辆', 'n'), ('避开', 'v'), ('涉水', 'v'), ('区域', 'n'), ('选择', 'v'), ('绕行', 'v'), ('暴雨', 'n'), ('开封', 'v'), ('开封', 'v'), ('暴雨', 'n'), ('过后', 't'), ('交警', 'j'), ('大队', 'n'), ('全力', 'n'), ('投入', 'v'), ('文明', 'nr'), ('交通', 'n'), ('创建', 'v'), ('工作', 'vn'), ('连日来', 'l'), ('大队', 'n'), ('交警', 'j'), ('恢复', 'v'), ('高温', 'n'), ('天气', 'n'), ('坚守', 'v'), ('辖区', 'n'), ('大街小巷', 'i'), ('全力', 'n'), ('保障', 'v'), ('辖区', 'n'), ('安全', 'an'), ('有序', 'n'), ('交警', 'j'), ('大队', 'n'), ('全体', 'n'), ('交警', 'j'), ('防汛', 'vn'), ('救灾', 'vn'), ('维护', 'v'), ('安全', 'an'), ('有序', 'n'), ('工作', 'vn'), ('方面', 'n'), ('付出', 'v'), ('努力', 'ad'), ('得到', 'v'), ('广大', 'a'), ('市民', 'n'), ('认可', 'v'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('工商联', 'j'), ('鼓楼区', 'n'), ('政协', 'j'), ('企业家', 'n'), ('自发', 'v'), ('组织', 'v'), ('起来', 'v'), ('购买', 'v'), ('消毒液', 'n'), ('口罩', 'n'), ('纯净水', 'n'), ('水果', 'n'), ('绿豆', 'n'), ('价值', 'n'), ('防暑', 'v'), ('抗疫', 'vn'), ('物资', 'n'), ('来到', 'v'), ('交警', 'j'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'v'), ('活动', 'vn'), ('青年', 't'), ('企业家', 'n'), ('协会', 'n'), ('秘书长', 'n'), ('许龙', 'nr'), ('表示', 'v'), ('青年', 't'), ('企业家', 'n'), ('郭圣宇', 'nr'), ('胡栋栋', 'nr'), ('张龙', 'nr'), ('立言', 'n'), ('遭遇', 'n'), ('洪水', 'nr'), ('灾害', 'n'), ('关注', 'v'), ('灾情', 'n'), ('自发', 'v'), ('组织', 'v'), ('前往', 't'), ('尉氏', 'nr'), ('捐献', 'v'), ('救灾物资', 'l'), ('交警', 'j'), ('大队', 'n'), ('交警', 'j'), ('开展', 'v'), ('慰问', 'v'), ('交警', 'j'), ('开封', 'v'), ('遭受', 'v'), ('暴雨', 'n'), ('袭击', 'v'), ('坚守岗位', 'n'), ('全力', 'n'), ('保障', 'v'), ('群众', 'n'), ('通行', 'j'), ('安全', 'an'), ('付出', 'v'), ('努力', 'ad'), ('表示感谢', 'i'), ('感谢', 'v'), ('交警', 'j'), ('全市', 'n'), ('群众', 'n'), ('付出', 'v'), ('群众', 'n'), ('平安', 'a'), ('交警', 'j'), ('献爱心', 'nrt'), ('助力', 'n'), ('开封', 'v'), ('建设', 'vn'), ('新台阶', 'n'), ('青年', 't'), ('企业家', 'n'), ('动情', 'n'), ('开封', 'v'), ('好人', 'n'), ('媒体', 'n'), ('记者', 'n'), ('王淳', 'nr')]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[('企业家', 'n'), ('代表', 'v'), ('交警', 'n'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('温暖', 'v'), ('开封', 'ns'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('工商联', 'j'), ('鼓楼区', 'ns'), ('政协', 'j'), ('企业家', 'n'), ('代表们', 'n'), ('来到', 'v'), ('交警', 'n'), ('大队', 'n'), ('参加', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('高温', 'n'), ('天气', 'n'), ('始终', 'd'), ('坚守', 'v'), ('岗位', 'n'), ('交警们', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('遭遇', 'v'), ('罕见', 'a'), ('特大', 'b'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('城市', 'n'), ('内涝', 'n'), ('严重', 'a'), ('辖区', 'n'), ('主干道', 'n'), ('主要', 'b'), ('路口', 'n'), ('积水', 'n'), ('严重', 'a'), ('雨情', 'n'), ('警情', 'n'), ('交警', 'n'), ('大队', 'n'), ('闻警', 'v'), ('而动', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('大队', 'n'), ('交警', 'n'), ('小时', 'n'), ('在岗', 'v'), ('在位', 'v'), ('全力以赴', 'i'), ('做好', 'v'), ('暴雨', 'n'), ('全市', 'n'), ('交通', 'n'), ('安全', 'an'), ('保障', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('畅通', 'a'), ('降雨', 'vn'), ('期间', 'f'), ('交警', 'n'), ('大队', 'n'), ('重点', 'd'), ('警力', 'n'), ('布置', 'v'), ('城区', 'n'), ('西郊', 's'), ('商场岗', 'n'), ('包公', 'nr'), ('湖南路', 'n'), ('解放', 'vn'), ('大道', 'n'), ('卧龙街', 'ns'), ('水漫路', 'n'), ('路段', 'n'), ('指挥', 'v'), ('疏导', 'v'), ('漫水', 'vn'), ('路段', 'n'), ('车辆', 'n'), ('车主', 'n'), ('驶离', 'v'), ('危险', 'a'), ('区域', 'n'), ('安排', 'v'), ('警力', 'n'), ('彻夜', 'd'), ('涉水', 'vn'), ('区域', 'n'), ('维持', 'v'), ('交通', 'n'), ('秩序', 'n'), ('提醒', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('尽量', 'd'), ('避开', 'v'), ('涉水', 'v'), ('区域', 'n'), ('选择', 'v'), ('绕行', 'v'), ('确保', 'v'), ('安全', 'an'), ('暴雨', 'n'), ('开封', 'ns'), ('开封', 'ns'), ('一定', 'd'), ('暴雨', 'n'), ('过后', 't'), ('交警', 'n'), ('大队', 'n'), ('全力', 'd'), ('投入', 'v'), ('城市', 'n'), ('文明', 'a'), ('交通', 'n'), ('创建', 'vn'), ('工作', 'vn'), ('连日来', 'l'), ('大队', 'n'), ('交警们', 'n'), ('逐步', 'd'), ('恢复', 'v'), ('高温', 'n'), ('天气', 'n'), ('坚守', 'v'), ('辖区', 'n'), ('大街小巷', 'i'), ('全力', 'd'), ('保障', 'v'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('有序', 'a'), ('交警', 'n'), ('大队', 'n'), ('全体', 'n'), ('交警', 'n'), ('防汛', 'v'), ('救灾', 'v'), ('维护', 'v'), ('城市', 'n'), ('交通', 'n'), ('安全', 'a'), ('有序', 'a'), ('工作', 'vn'), ('方面', 'n'), ('付出', 'v'), ('努力', 'an'), ('得到', 'v'), ('广大', 'a'), ('市民', 'n'), ('认可', 'vn'), ('，，', 'w'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('工商联', 'j'), ('鼓楼区', 'ns'), ('政协', 'j'), ('企业家们', 'n'), ('自发', 'd'), ('组织', 'v'), ('起来', 'v'), ('购买', 'v'), ('消毒液', 'n'), ('口罩', 'n'), ('净水', 'n'), ('水果', 'n'), ('绿豆', 'n'), ('价值', 'n'), ('万元', 'n'), ('防暑', 'vn'), ('抗疫', 'vn'), ('物资', 'n'), ('来到', 'v'), ('交警', 'n'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('副秘书长', 'n'), ('许龙', 'nr'), ('表示', 'v'), ('一分会', 'i'), ('青年', 'n'), ('企业家', 'n'), ('郭圣宇', 'nr'), ('张彬', 'nr'), ('胡栋栋', 'nr'), ('张龙', 'nr'), ('孙立言', 'nr'), ('我省', 'r'), ('遭遇', 'v'), ('洪水', 'n'), ('灾害', 'n'), ('始终', 'd'), ('关注', 'v'), ('灾情', 'n'), ('已经', 'd'), ('自发', 'd'), ('组织', 'v'), ('多次', 'd'), ('前往', 'v'), ('尉氏', 'nr'), ('新乡', 'ns'), ('鹤壁', 'ns'), ('捐献', 'v'), ('救灾', 'vn'), ('物资', 'n'), ('这次', 'r'), ('交警', 'n'), ('大队', 'n'), ('交警', 'n'), ('开展', 'v'), ('慰问', 'v'), ('交警', 'n'), ('开封', 'ns'), ('遭受', 'v'), ('暴雨', 'n'), ('袭击', 'vn'), ('坚守', 'v'), ('岗位', 'n'), ('全力', 'd'), ('保障', 'v'), ('群众', 'n'), ('通行', 'v'), ('安全', 'an'), ('付出', 'v'), ('努力', 'an'), ('表示', 'v'), ('感谢', 'v'), ('感谢', 'v'), ('交警们', 'n'), ('全市', 'n'), ('群众', 'n'), ('付出', 'vn'), ('群众', 'n'), ('平安', 'an'), ('交警', 'n'), ('爱心', 'n'), ('共同', 'd'), ('助力', 'v'), ('开封', 'ns'), ('文明', 'a'), ('城市', 'n'), ('建设', 'vn'), ('台阶', 'n'), ('青年', 'n'), ('企业家', 'n'), ('张彬', 'nr'), ('动情', 'v'), ('开封', 'ns'), ('身边', 's'), ('好人', 'n'), ('媒体', 'n'), ('记者', 'n'), ('王淳', 'nr')]</t>
+          <t>[('企业家', 'n'), ('代表', 'v'), ('交警', 'n'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('温暖', 'v'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('工商联', 'j'), ('政协', 'j'), ('企业家', 'n'), ('代表们', 'n'), ('来到', 'v'), ('交警', 'n'), ('大队', 'n'), ('参加', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('高温', 'n'), ('天气', 'n'), ('坚守', 'v'), ('岗位', 'n'), ('交警们', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('遭遇', 'v'), ('罕见', 'a'), ('特大', 'b'), ('暴雨', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('城市', 'n'), ('内涝', 'n'), ('严重', 'a'), ('辖区', 'n'), ('主干道', 'n'), ('主要', 'b'), ('路口', 'n'), ('积水', 'n'), ('严重', 'a'), ('雨情', 'n'), ('警情', 'n'), ('交警', 'n'), ('大队', 'n'), ('闻警', 'v'), ('而动', 'v'), ('暴雨', 'n'), ('大队', 'n'), ('交警', 'n'), ('小时', 'n'), ('在岗', 'v'), ('在位', 'v'), ('全力以赴', 'i'), ('做好', 'v'), ('暴雨', 'n'), ('全市', 'n'), ('交通', 'n'), ('安全', 'an'), ('保障', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('畅通', 'a'), ('降雨', 'vn'), ('交警', 'n'), ('大队', 'n'), ('警力', 'n'), ('布置', 'v'), ('城区', 'n'), ('商场岗', 'n'), ('包公', 'nr'), ('湖南路', 'n'), ('解放', 'vn'), ('大道', 'n'), ('水漫路', 'n'), ('路段', 'n'), ('指挥', 'v'), ('疏导', 'v'), ('漫水', 'vn'), ('路段', 'n'), ('车辆', 'n'), ('车主', 'n'), ('驶离', 'v'), ('危险', 'a'), ('区域', 'n'), ('安排', 'v'), ('警力', 'n'), ('涉水', 'vn'), ('区域', 'n'), ('维持', 'v'), ('交通', 'n'), ('秩序', 'n'), ('提醒', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('避开', 'v'), ('涉水', 'v'), ('区域', 'n'), ('选择', 'v'), ('绕行', 'v'), ('确保', 'v'), ('安全', 'an'), ('暴雨', 'n'), ('暴雨', 'n'), ('过后', 't'), ('交警', 'n'), ('大队', 'n'), ('投入', 'v'), ('城市', 'n'), ('文明', 'a'), ('交通', 'n'), ('创建', 'vn'), ('工作', 'vn'), ('连日来', 'l'), ('大队', 'n'), ('交警们', 'n'), ('恢复', 'v'), ('高温', 'n'), ('天气', 'n'), ('坚守', 'v'), ('辖区', 'n'), ('大街小巷', 'i'), ('保障', 'v'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('有序', 'a'), ('交警', 'n'), ('大队', 'n'), ('全体', 'n'), ('交警', 'n'), ('防汛', 'v'), ('救灾', 'v'), ('维护', 'v'), ('城市', 'n'), ('交通', 'n'), ('安全', 'a'), ('有序', 'a'), ('工作', 'vn'), ('方面', 'n'), ('付出', 'v'), ('努力', 'an'), ('得到', 'v'), ('广大', 'a'), ('市民', 'n'), ('认可', 'vn'), ('，，', 'w'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('工商联', 'j'), ('政协', 'j'), ('企业家们', 'n'), ('组织', 'v'), ('起来', 'v'), ('购买', 'v'), ('消毒液', 'n'), ('口罩', 'n'), ('净水', 'n'), ('水果', 'n'), ('绿豆', 'n'), ('价值', 'n'), ('万元', 'n'), ('防暑', 'vn'), ('抗疫', 'vn'), ('物资', 'n'), ('来到', 'v'), ('交警', 'n'), ('大队', 'n'), ('开展', 'v'), ('慰问', 'vn'), ('活动', 'vn'), ('青年', 'n'), ('企业家', 'n'), ('协会', 'n'), ('分会', 'n'), ('副秘书长', 'n'), ('许龙', 'nr'), ('表示', 'v'), ('一分会', 'i'), ('青年', 'n'), ('企业家', 'n'), ('郭圣宇', 'nr'), ('张彬', 'nr'), ('胡栋栋', 'nr'), ('张龙', 'nr'), ('孙立言', 'nr'), ('遭遇', 'v'), ('洪水', 'n'), ('灾害', 'n'), ('关注', 'v'), ('灾情', 'n'), ('组织', 'v'), ('前往', 'v'), ('尉氏', 'nr'), ('捐献', 'v'), ('救灾', 'vn'), ('物资', 'n'), ('交警', 'n'), ('大队', 'n'), ('交警', 'n'), ('开展', 'v'), ('慰问', 'v'), ('交警', 'n'), ('遭受', 'v'), ('暴雨', 'n'), ('袭击', 'vn'), ('坚守', 'v'), ('岗位', 'n'), ('保障', 'v'), ('群众', 'n'), ('通行', 'v'), ('安全', 'an'), ('付出', 'v'), ('努力', 'an'), ('表示', 'v'), ('感谢', 'v'), ('感谢', 'v'), ('交警们', 'n'), ('全市', 'n'), ('群众', 'n'), ('付出', 'vn'), ('群众', 'n'), ('平安', 'an'), ('交警', 'n'), ('爱心', 'n'), ('助力', 'v'), ('文明', 'a'), ('城市', 'n'), ('建设', 'vn'), ('台阶', 'n'), ('青年', 'n'), ('企业家', 'n'), ('张彬', 'nr'), ('动情', 'v'), ('好人', 'n'), ('媒体', 'n'), ('记者', 'n'), ('王淳', 'nr')]</t>
         </is>
       </c>
     </row>
@@ -1156,47 +1156,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>首报：截至，受暴雨天气影响，应交警要求，沪昆高速梨温段玉山、广丰、上饶东站入口往南昌方向封闭。@江西高速@江西交通</t>
+          <t>首报：截至，受暴雨天气影响，应交警要求，沪昆高速梨温段玉山、广丰、上饶东站入口往南昌方向封闭。</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['首报', '：', '截至', '，', '受', '暴雨', '天气', '影响', '，', '应', '交警', '要求', '，', '沪', '昆', '高速', '梨', '温段', '玉山', '、', '广丰', '、', '上饶', '东站', '入口', '往', '南昌', '方向', '封闭', '。', '@', '江西', '高速', '@', '江西', '交通']</t>
+          <t>['首报', '：', '截至', '，', '受', '暴雨', '天气', '影响', '，', '应', '交警', '要求', '，', '沪', '昆', '高速', '梨', '温段', '玉山', '、', '广丰', '、', '上饶', '东站', '入口', '往', '南昌', '方向', '封闭', '。']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['首报', '：', '截至', '，', '受', '暴雨', '天气', '影响', '，', '应', '交警', '要求', '，', '沪昆', '高速', '梨温', '段', '玉山', '、', '广丰', '、', '上饶', '东站', '入口', '往', '南昌', '方向', '封闭', '。', '@', '江西', '高速', '@', '江西', '交通']</t>
+          <t>['首报', '：', '截至', '，', '受', '暴雨', '天气', '影响', '，', '应', '交警', '要求', '，', '沪昆', '高速', '梨温', '段', '玉山', '、', '广丰', '、', '上饶', '东站', '入口', '往', '南昌', '方向', '封闭', '。']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['首报', '截至', '暴雨', '天气', '影响', '交警', '要求', '高速', '温段', '玉山', '广丰', '上饶', '东站', '入口', '南昌', '方向', '封闭', '江西', '高速', '江西', '交通']</t>
+          <t>['首报', '截至', '暴雨', '天气', '影响', '交警', '要求', '高速', '温段', '玉山', '广丰', '上饶', '东站', '入口', '南昌', '方向', '封闭']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['首报', '截至', '暴雨', '天气', '影响', '交警', '要求', '沪昆', '高速', '梨温', '玉山', '广丰', '上饶', '东站', '入口', '南昌', '方向', '封闭', '江西', '高速', '江西', '交通']</t>
+          <t>['首报', '截至', '暴雨', '天气', '影响', '交警', '要求', '沪昆', '高速', '梨温', '玉山', '广丰', '上饶', '东站', '入口', '南昌', '方向', '封闭']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[('首报', 'n'), ('：', 'x'), ('截至', 'v'), ('，', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('应', 'v'), ('交警', 'j'), ('要求', 'v'), ('，', 'x'), ('沪', 'j'), ('昆', 'j'), ('高速', 'd'), ('梨', 'n'), ('温段', 'n'), ('玉山', 'ns'), ('、', 'x'), ('广丰', 'ns'), ('、', 'x'), ('上饶', 'ns'), ('东站', 'n'), ('入口', 'ns'), ('往', 'zg'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('。', 'x'), ('@', 'x'), ('江西', 'ns'), ('高速', 'd'), ('@', 'x'), ('江西', 'ns'), ('交通', 'n')]</t>
+          <t>[('首报', 'n'), ('：', 'x'), ('截至', 'v'), ('，', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('应', 'v'), ('交警', 'j'), ('要求', 'v'), ('，', 'x'), ('沪', 'j'), ('昆', 'j'), ('高速', 'd'), ('梨', 'n'), ('温段', 'n'), ('玉山', 'ns'), ('、', 'x'), ('广丰', 'ns'), ('、', 'x'), ('上饶', 'ns'), ('东站', 'n'), ('入口', 'ns'), ('往', 'zg'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[('首报', 'n'), ('：', 'w'), ('截至', 'v'), ('，', 'w'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('应', 'v'), ('交警', 'n'), ('要求', 'v'), ('，', 'w'), ('沪昆', 'j'), ('高速', 'b'), ('梨温', 'n'), ('段', 'n'), ('玉山', 'ns'), ('、', 'w'), ('广丰', 'ns'), ('、', 'w'), ('上饶', 'ns'), ('东站', 'ns'), ('入口', 'n'), ('往', 'p'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('。', 'w'), ('@', 'v'), ('江西', 'ns'), ('高速', 'd'), ('@', 'v'), ('江西', 'ns'), ('交通', 'n')]</t>
+          <t>[('首报', 'n'), ('：', 'w'), ('截至', 'v'), ('，', 'w'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('应', 'v'), ('交警', 'n'), ('要求', 'v'), ('，', 'w'), ('沪昆', 'j'), ('高速', 'b'), ('梨温', 'n'), ('段', 'n'), ('玉山', 'ns'), ('、', 'w'), ('广丰', 'ns'), ('、', 'w'), ('上饶', 'ns'), ('东站', 'ns'), ('入口', 'n'), ('往', 'p'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[('首报', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('交警', 'j'), ('要求', 'v'), ('高速', 'd'), ('温段', 'n'), ('玉山', 'ns'), ('广丰', 'ns'), ('上饶', 'ns'), ('东站', 'n'), ('入口', 'ns'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('江西', 'ns'), ('高速', 'd'), ('江西', 'ns'), ('交通', 'n')]</t>
+          <t>[('首报', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('交警', 'j'), ('要求', 'v'), ('温段', 'n'), ('东站', 'n'), ('方向', 'n'), ('封闭', 'v')]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[('首报', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('交警', 'n'), ('要求', 'v'), ('沪昆', 'j'), ('高速', 'b'), ('梨温', 'n'), ('玉山', 'ns'), ('广丰', 'ns'), ('上饶', 'ns'), ('东站', 'ns'), ('入口', 'n'), ('南昌', 'ns'), ('方向', 'n'), ('封闭', 'v'), ('江西', 'ns'), ('高速', 'd'), ('江西', 'ns'), ('交通', 'n')]</t>
+          <t>[('首报', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('交警', 'n'), ('要求', 'v'), ('沪昆', 'j'), ('高速', 'b'), ('梨温', 'n'), ('入口', 'n'), ('方向', 'n'), ('封闭', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('抢修', 'v'), ('高速', 'd'), ('新乡', 'ns'), ('东站', 'n'), ('北口', 'ns'), ('禁止', 'v'), ('路面', 'n'), ('通行', 'j'), ('条件', 'n'), ('受限', 'v'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'ns'), ('高速', 'd'), ('互通', 'n'), ('处以', 'v'), ('东至', 'ns'), ('尉氏', 'nr'), ('北站', 'ns'), ('主线', 'n'), ('禁止', 'v'), ('以上', 'f'), ('客车', 'n'), ('货车', 'n'), ('通行', 'j'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'd'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('七座', 'm'), ('七座', 'm'), ('以上', 'f'), ('车辆', 'n'), ('货车', 'n'), ('上站', 'n'), ('路段', 'n'), ('连霍', 'nr'), ('高速', 'd'), ('荥阳', 'ns'), ('港澳', 'j'), ('高速', 'd'), ('原阳', 'n'), ('安阳', 'ns'), ('北站', 'ns'), ('焦桐', 'nr'), ('高速', 'd'), ('焦作', 'n'), ('西南', 'ns'), ('温县', 'ns'), ('大峪', 'ns'), ('汝州', 'ns'), ('站台', 'n'), ('高速', 'd'), ('浚县', 'ns'), ('西站', 'ns'), ('浚县', 'ns'), ('东站', 'n'), ('高速', 'd'), ('邵原', 'nr'), ('长垣', 'ns'), ('北站', 'ns'), ('高速', 'd'), ('济源', 'ns'), ('寄料', 'n'), ('西站', 'ns'), ('大广', 'nz'), ('高速', 'd'), ('滑县', 'ns'), ('封丘', 'nr'), ('高速', 'd'), ('焦作', 'n'), ('西站', 'ns'), ('平原', 'ns'), ('新区', 'ns'), ('东站', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('嘉应观', 'nr'), ('云台山', 'ns'), ('宁洛', 'ns'), ('高速', 'd'), ('叶县', 'ns'), ('北站', 'ns'), ('温泉', 'nr'), ('郑栾', 'nr'), ('高速', 'd'), ('郏县', 'ns'), ('山西站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('杨庄', 'nr'), ('集站', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('上站', 'n'), ('路段', 'n'), ('商登', 'nr'), ('高速', 'd'), ('古城', 'ns'), ('县衙', 'n'), ('杞县', 'ns'), ('南站', 'ns'), ('郑少', 'nr'), ('高速', 'd'), ('全线', 'n'), ('盐洛', 'ns'), ('高速', 'd'), ('鄢陵', 'nr'), ('南站', 'ns'), ('焦桐', 'nr'), ('高速', 'd'), ('巩义', 'nr'), ('南站', 'ns'), ('白坪', 'nr'), ('宁洛', 'ns'), ('高速', 'd'), ('谭庄', 'nr'), ('纸店', 'n'), ('郑栾', 'nr'), ('高速', 'd'), ('禹州', 'ns'), ('南站', 'ns'), ('侯寨', 'nr'), ('兰南', 'ns'), ('高速', 'd'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('襄城', 'ns'), ('舞钢', 'n'), ('南站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('红泥', 'n'), ('集站', 'n'), ('安罗', 'ns'), ('高速', 'd'), ('官渡', 'nr'), ('鄢陵', 'nr'), ('绕城', 'ns'), ('高速', 'd'), ('莲花', 'n'), ('街站', 'n'), ('东三环', 'nr'), ('南站', 'ns'), ('港澳', 'j'), ('高速', 'd'), ('郑州', 'ns'), ('新区', 'ns'), ('许昌', 'nr'), ('东区', 'ns'), ('高速', 'd'), ('巩义', 'nr'), ('兰考', 'nr'), ('郑民', 'ns'), ('高速', 'd'), ('郑庵', 'nr'), ('杞县', 'ns'), ('机场', 'n'), ('高速', 'd'), ('全线', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('广武', 'nr'), ('高速', 'd'), ('杜良', 'nr'), ('通许', 'd'), ('东站', 'n'), ('日兰', 'ns'), ('高速', 'd'), ('全线', 'n'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('中原', 'ns'), ('高速', 'd'), ('交警', 'j')]</t>
+          <t>[('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('抢修', 'v'), ('东站', 'n'), ('禁止', 'v'), ('路面', 'n'), ('通行', 'j'), ('条件', 'n'), ('受限', 'v'), ('商登', 'nr'), ('互通', 'n'), ('处以', 'v'), ('尉氏', 'nr'), ('主线', 'n'), ('禁止', 'v'), ('客车', 'n'), ('货车', 'n'), ('通行', 'j'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('仅限', 'v'), ('小型', 'b'), ('车辆', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('货车', 'n'), ('上站', 'n'), ('路段', 'n'), ('连霍', 'nr'), ('港澳', 'j'), ('原阳', 'n'), ('焦桐', 'nr'), ('焦作', 'n'), ('站台', 'n'), ('东站', 'n'), ('邵原', 'nr'), ('寄料', 'n'), ('封丘', 'nr'), ('焦作', 'n'), ('东站', 'n'), ('郑云', 'nr'), ('嘉应观', 'nr'), ('温泉', 'nr'), ('郑栾', 'nr'), ('杨庄', 'nr'), ('集站', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('上站', 'n'), ('路段', 'n'), ('商登', 'nr'), ('县衙', 'n'), ('郑少', 'nr'), ('全线', 'n'), ('鄢陵', 'nr'), ('焦桐', 'nr'), ('巩义', 'nr'), ('白坪', 'nr'), ('谭庄', 'nr'), ('纸店', 'n'), ('郑栾', 'nr'), ('侯寨', 'nr'), ('全线', 'n'), ('许广', 'nr'), ('舞钢', 'n'), ('红泥', 'n'), ('集站', 'n'), ('官渡', 'nr'), ('鄢陵', 'nr'), ('莲花', 'n'), ('街站', 'n'), ('东三环', 'nr'), ('港澳', 'j'), ('许昌', 'nr'), ('巩义', 'nr'), ('兰考', 'nr'), ('郑庵', 'nr'), ('机场', 'n'), ('全线', 'n'), ('郑云', 'nr'), ('广武', 'nr'), ('杜良', 'nr'), ('东站', 'n'), ('全线', 'n'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('交警', 'j')]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('抢修', 'v'), ('菏宝', 'ns'), ('高速', 'b'), ('新乡', 'ns'), ('东站', 'ns'), ('北口', 'ns'), ('禁止', 'v'), ('上下站', 'j'), ('路面', 'n'), ('通行', 'vn'), ('条件', 'n'), ('受限', 'n'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'nr'), ('高速', 'd'), ('互通', 'v'), ('处以', 'v'), ('东至', 'ns'), ('尉氏', 'nz'), ('北站', 'j'), ('主线', 'n'), ('禁止座', 'n'), ('以上', 'f'), ('客车', 'n'), ('货车', 'n'), ('通行', 'v'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('降雨', 'v'), ('禁止', 'v'), ('以上', 'f'), ('车辆', 'n'), ('货车', 'n'), ('路段', 'n'), ('连霍', 'd'), ('高速', 'd'), ('荥阳站', 'n'), ('豫灵站', 'ns'), ('京港', 'ns'), ('高速', 'b'), ('原阳站', 'n'), ('安阳', 'ns'), ('北站', 'ns'), ('焦桐', 'n'), ('高速', 'b'), ('焦作', 'ns'), ('西南站', 'ns'), ('—温县站', 'n'), ('大峪站', 'ns'), ('汝州', 'ns'), ('东站', 'ns'), ('台辉', 'nz'), ('高速', 'b'), ('浚县', 'ns'), ('西站', 'ns'), ('浚县', 'ns'), ('东站', 'ns'), ('菏宝', 'ns'), ('高速', 'b'), ('邵原站', 'ns'), ('--长', 'n'), ('垣北站', 'j'), ('二广', 'j'), ('高速', 'b'), ('济源北', 'ns'), ('寄料站', 'n'), ('—下', 'v'), ('汤西站', 'j'), ('大广高速', 'n'), ('滑县站', 'n'), ('封丘站', 'j'), ('晋新', 'j'), ('高速', 'b'), ('焦作', 'ns'), ('西站', 'ns'), ('平原', 'n'), ('新区', 'n'), ('东站', 'ns'), ('郑云', 'nr'), ('高速', 'b'), ('嘉应', 'ns'), ('观站', 'ns'), ('云台', 'ns'), ('山站', 'n'), ('宁洛', 'ns'), ('高速', 'b'), ('叶县', 'ns'), ('北站', 'ns'), ('温泉站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('郏县', 'ns'), ('站—', 'v'), ('尧山', 'ns'), ('西站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('杨庄站', 'ns'), ('尹集站', 'nr'), ('降雨', 'v'), ('禁止', 'v'), ('上站', 'n'), ('路段', 'n'), ('商登', 'nr'), ('高速', 'd'), ('古城县', 'ns'), ('衙站', 'n'), ('杞县', 'ns'), ('南站', 'ns'), ('郑少', 'nr'), ('高速', 'd'), ('全线', 'n'), ('盐洛', 'ns'), ('高速', 'b'), ('君召站', 'ns'), ('鄢陵', 'ns'), ('南站', 'ns'), ('焦桐', 'n'), ('高速', 'b'), ('巩义', 'ns'), ('南站', 'ns'), ('白坪站', 'ns'), ('宁洛', 'ns'), ('高速', 'b'), ('谭庄站', 'nr'), ('纸店站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('禹州', 'ns'), ('南站', 'ns'), ('—侯', 'n'), ('寨站', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('襄城站', 'ns'), ('舞钢', 'n'), ('南站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('红泥湾站', 'ns'), ('尹集站', 'ns'), ('安罗', 'ns'), ('高速', 'b'), ('官渡站', 'n'), ('鄢陵', 'ns'), ('彭店站', 'ns'), ('绕城', 'ns'), ('高速', 'b'), ('莲花街', 'ns'), ('站—', 'v'), ('东三环', 'ns'), ('南站', 'ns'), ('京港', 'ns'), ('高速', 'b'), ('郑州', 'ns'), ('新区站', 'n'), ('许昌', 'ns'), ('东区站', 'ns'), ('连霍', 'd'), ('高速', 'd'), ('巩义站', 'ns'), ('兰考站', 'n'), ('郑民', 'nr'), ('高速', 'b'), ('郑庵站', 'ns'), ('杞县', 'ns'), ('机场', 'n'), ('高速', 'b'), ('全线', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('广武站', 'ns'), ('大广高速', 'n'), ('杜良站', 'ns'), ('通许', 'v'), ('东站', 'ns'), ('日兰', 'ns'), ('高速', 'b'), ('全线', 'n'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('您行', 'r'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('抢修', 'v'), ('高速', 'b'), ('禁止', 'v'), ('上下站', 'j'), ('路面', 'n'), ('通行', 'vn'), ('条件', 'n'), ('受限', 'n'), ('商登', 'nr'), ('安罗', 'nr'), ('互通', 'v'), ('处以', 'v'), ('北站', 'j'), ('主线', 'n'), ('禁止座', 'n'), ('客车', 'n'), ('货车', 'n'), ('通行', 'v'), ('地方', 'n'), ('道路', 'n'), ('积水', 'n'), ('损毁', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('小型', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('降雨', 'v'), ('禁止', 'v'), ('车辆', 'n'), ('货车', 'n'), ('路段', 'n'), ('荥阳站', 'n'), ('高速', 'b'), ('原阳站', 'n'), ('焦桐', 'n'), ('高速', 'b'), ('—温县站', 'n'), ('高速', 'b'), ('高速', 'b'), ('--长', 'n'), ('垣北站', 'j'), ('二广', 'j'), ('高速', 'b'), ('寄料站', 'n'), ('—下', 'v'), ('汤西站', 'j'), ('大广高速', 'n'), ('滑县站', 'n'), ('封丘站', 'j'), ('晋新', 'j'), ('高速', 'b'), ('平原', 'n'), ('新区', 'n'), ('郑云', 'nr'), ('高速', 'b'), ('山站', 'n'), ('高速', 'b'), ('温泉站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('站—', 'v'), ('高速', 'b'), ('尹集站', 'nr'), ('降雨', 'v'), ('禁止', 'v'), ('上站', 'n'), ('路段', 'n'), ('商登', 'nr'), ('衙站', 'n'), ('郑少', 'nr'), ('全线', 'n'), ('高速', 'b'), ('焦桐', 'n'), ('高速', 'b'), ('高速', 'b'), ('谭庄站', 'nr'), ('纸店站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('—侯', 'n'), ('寨站', 'n'), ('高速', 'b'), ('全线', 'n'), ('许广', 'nr'), ('舞钢', 'n'), ('高速', 'b'), ('高速', 'b'), ('官渡站', 'n'), ('高速', 'b'), ('站—', 'v'), ('高速', 'b'), ('新区站', 'n'), ('兰考站', 'n'), ('郑民', 'nr'), ('高速', 'b'), ('机场', 'n'), ('高速', 'b'), ('全线', 'n'), ('郑云', 'nr'), ('大广高速', 'n'), ('通许', 'v'), ('高速', 'b'), ('全线', 'n'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('高速', 'b'), ('交警', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('高速', 'd'), ('长韶娄', 'nr'), ('岳麓', 'nr'), ('金凤', 'nr'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('长韶娄', 'nr'), ('岳麓', 'nr'), ('金凤', 'nr'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j')]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('长芷', 'n'), ('高速', 'd'), ('长韶', 'v'), ('娄段', 'n'), ('岳麓', 'nr'), ('金凤', 'nr'), ('道林', 'nz'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('至均', 'd'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('长芷', 'n'), ('长韶', 'v'), ('娄段', 'n'), ('岳麓', 'nr'), ('金凤', 'nr'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('高速', 'd'), ('常张', 'a'), ('常德', 'nr'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('常张', 'a'), ('常德', 'nr'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('长张', 'nr'), ('高速', 'd'), ('常张', 'a'), ('段常', 'a'), ('德南', 'ns'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('长张', 'nr'), ('常张', 'a'), ('段常', 'a'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1376,47 +1376,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>#郑州地铁号线被困原因#‼️⚠️⚠️郑州市中原区道路塌方统计：紧急扩散‼️出行绕道⚠️⚠️#河南暴雨互助#@河南交通广播@河南共青团</t>
+          <t>#郑州地铁号线被困原因#‼️⚠️⚠️郑州市中原区道路塌方统计：紧急扩散‼️出行绕道⚠️⚠️#河南暴雨互助#</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['#', '郑州', '地铁', '号线', '被困', '原因', '#', '‼', '️', '⚠', '️', '⚠', '️', '郑州市', '中原区', '道路', '塌方', '统计', '：', '紧急', '扩散', '‼', '️', '出行', '绕道', '⚠', '️', '⚠', '️', '#', '河南', '暴雨', '互助', '#', '@', '河南', '交通广播', '@', '河南', '共青团']</t>
+          <t>['#', '郑州', '地铁', '号线', '被困', '原因', '#', '‼', '️', '⚠', '️', '⚠', '️', '郑州市', '中原区', '道路', '塌方', '统计', '：', '紧急', '扩散', '‼', '️', '出行', '绕道', '⚠', '️', '⚠', '️', '#', '河南', '暴雨', '互助', '#']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['#', '郑州', '地铁', '号线', '被困', '原因', '#', '‼️', '⚠️', '⚠️', '郑州市', '中原区', '道路', '塌方', '统计', '：', '紧急', '扩散', '‼️', '出行', '绕道', '⚠️', '⚠️', '#', '河南', '暴雨', '互助', '#', '@', '河南', '交通', '广播', '@', '河南', '共青团']</t>
+          <t>['#', '郑州', '地铁', '号线', '被困', '原因', '#', '‼️', '⚠️', '⚠️', '郑州市', '中原区', '道路', '塌方', '统计', '：', '紧急', '扩散', '‼️', '出行', '绕道', '⚠️', '⚠️', '#', '河南', '暴雨', '互助', '#']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['郑州', '地铁', '号线', '被困', '原因', '郑州市', '中原区', '道路', '塌方', '统计', '紧急', '扩散', '出行', '绕道', '暴雨', '互助', '交通广播', '共青团']</t>
+          <t>['郑州', '地铁', '号线', '被困', '原因', '郑州市', '中原区', '道路', '塌方', '统计', '紧急', '扩散', '出行', '绕道', '暴雨', '互助']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['郑州', '地铁', '号线', '被困', '原因', '‼️', '郑州市', '中原区', '道路', '塌方', '统计', '紧急', '扩散', '‼️', '出行', '绕道', '暴雨', '互助', '交通', '广播', '共青团']</t>
+          <t>['郑州', '地铁', '号线', '被困', '原因', '‼️', '郑州市', '中原区', '道路', '塌方', '统计', '紧急', '扩散', '‼️', '出行', '绕道', '暴雨', '互助']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'a'), ('原因', 'n'), ('#', 'x'), ('‼', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'n'), ('统计', 'v'), ('：', 'x'), ('紧急', 'a'), ('扩散', 'v'), ('‼', 'x'), ('️', 'x'), ('出行', 'v'), ('绕道', 'v'), ('⚠', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'x'), ('@', 'x'), ('河南', 'ns'), ('交通广播', 'l'), ('@', 'x'), ('河南', 'ns'), ('共青团', 'nt')]</t>
+          <t>[('#', 'x'), ('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'a'), ('原因', 'n'), ('#', 'x'), ('‼', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'n'), ('统计', 'v'), ('：', 'x'), ('紧急', 'a'), ('扩散', 'v'), ('‼', 'x'), ('️', 'x'), ('出行', 'v'), ('绕道', 'v'), ('⚠', 'x'), ('️', 'x'), ('⚠', 'x'), ('️', 'x'), ('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'x')]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'vn'), ('原因', 'n'), ('#', 'v'), ('‼️', 'n'), ('⚠️', 'v'), ('⚠️', 'v'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'v'), ('统计', 'v'), ('：', 'w'), ('紧急', 'ad'), ('扩散', 'v'), ('‼️', 'v'), ('出行', 'v'), ('绕道', 'v'), ('⚠️', 'v'), ('⚠️', 'n'), ('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'vn'), ('#', 'n'), ('@', 'v'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('@', 'n'), ('河南', 'ns'), ('共青团', 'n')]</t>
+          <t>[('#', 'v'), ('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'vn'), ('原因', 'n'), ('#', 'v'), ('‼️', 'n'), ('⚠️', 'v'), ('⚠️', 'v'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'v'), ('统计', 'v'), ('：', 'w'), ('紧急', 'ad'), ('扩散', 'v'), ('‼️', 'v'), ('出行', 'v'), ('绕道', 'v'), ('⚠️', 'v'), ('⚠️', 'n'), ('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'vn'), ('#', 'n')]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'a'), ('原因', 'n'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'n'), ('统计', 'v'), ('紧急', 'a'), ('扩散', 'v'), ('出行', 'v'), ('绕道', 'v'), ('暴雨', 'n'), ('互助', 'v'), ('交通广播', 'l'), ('共青团', 'nt')]</t>
+          <t>[('地铁', 'n'), ('号线', 'n'), ('被困', 'a'), ('原因', 'n'), ('道路', 'n'), ('塌方', 'n'), ('统计', 'v'), ('紧急', 'a'), ('扩散', 'v'), ('出行', 'v'), ('绕道', 'v'), ('暴雨', 'n'), ('互助', 'v')]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('地铁', 'n'), ('号线', 'n'), ('被困', 'vn'), ('原因', 'n'), ('‼️', 'n'), ('郑州市', 'ns'), ('中原区', 'ns'), ('道路', 'n'), ('塌方', 'v'), ('统计', 'v'), ('紧急', 'ad'), ('扩散', 'v'), ('‼️', 'v'), ('出行', 'v'), ('绕道', 'v'), ('暴雨', 'n'), ('互助', 'vn'), ('交通', 'n'), ('广播', 'vn'), ('共青团', 'n')]</t>
+          <t>[('地铁', 'n'), ('号线', 'n'), ('被困', 'vn'), ('原因', 'n'), ('‼️', 'n'), ('道路', 'n'), ('塌方', 'v'), ('统计', 'v'), ('紧急', 'ad'), ('扩散', 'v'), ('‼️', 'v'), ('出行', 'v'), ('绕道', 'v'), ('暴雨', 'n'), ('互助', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -1431,47 +1431,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【#郑州暴雨夜公交车上的暖心对话#】晚点，郑州持续降雨，路面积水不下。在解放路坚守岗位的郑州公交路车长李滨不断收容着回不到家的行人在车厢内过夜，而自己选择默默坚守......#位河南暴雨亲历者讲述#@河南交通广播河南交通广播的微博视频@新华网</t>
+          <t>【#郑州暴雨夜公交车上的暖心对话#】晚点，郑州持续降雨，路面积水不下。在解放路坚守岗位的郑州公交路车长李滨不断收容着回不到家的行人在车厢内过夜，而自己选择默默坚守......#位河南暴雨亲历者讲述#</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['【', '#', '郑州', '暴雨', '夜', '公交车', '上', '的', '暖', '心', '对话', '#', '】', '晚点', '，', '郑州', '持续', '降雨', '，', '路', '面积', '水', '不下', '。', '在', '解放路', '坚守岗位', '的', '郑州', '公交', '路', '车长', '李滨', '不断', '收容', '着', '回', '不到', '家', '的', '行人', '在', '车厢', '内', '过夜', '，', '而', '自己', '选择', '默默', '坚守', '......#', '位', '河南', '暴雨', '亲历者', '讲述', '#', '@', '河南', '交通广播', '河南', '交通广播', '的', '微博', '视频', '@', '新华网']</t>
+          <t>['【', '#', '郑州', '暴雨', '夜', '公交车', '上', '的', '暖', '心', '对话', '#', '】', '晚点', '，', '郑州', '持续', '降雨', '，', '路', '面积', '水', '不下', '。', '在', '解放路', '坚守岗位', '的', '郑州', '公交', '路', '车长', '李滨', '不断', '收容', '着', '回', '不到', '家', '的', '行人', '在', '车厢', '内', '过夜', '，', '而', '自己', '选择', '默默', '坚守', '......#', '位', '河南', '暴雨', '亲历者', '讲述', '#']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['【', '#', '郑州', '暴雨', '夜', '公交车', '上', '的', '暖心', '对话', '#', '】', '晚点', '，', '郑州', '持续', '降雨', '，', '路面', '积水', '不', '下', '。', '在', '解放路', '坚守', '岗位', '的', '郑州', '公交路', '车长', '李滨', '不断', '收容', '着', '回', '不', '到家', '的', '行人', '在', '车厢', '内', '过夜', '，', '而', '自己', '选择', '默默', '坚守', '......', '#', '位', '河南', '暴雨', '亲历者', '讲述', '#', '@', '河南', '交通', '广播', '河南', '交通', '广播', '的', '微博', '视频', '@', '新华网']</t>
+          <t>['【', '#', '郑州', '暴雨', '夜', '公交车', '上', '的', '暖心', '对话', '#', '】', '晚点', '，', '郑州', '持续', '降雨', '，', '路面', '积水', '不', '下', '。', '在', '解放路', '坚守', '岗位', '的', '郑州', '公交路', '车长', '李滨', '不断', '收容', '着', '回', '不', '到家', '的', '行人', '在', '车厢', '内', '过夜', '，', '而', '自己', '选择', '默默', '坚守', '......', '#', '位', '河南', '暴雨', '亲历者', '讲述', '#']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['郑州', '暴雨', '公交车', '对话', '晚点', '郑州', '持续', '降雨', '面积', '不下', '解放路', '坚守岗位', '郑州', '公交', '车长', '李滨', '不断', '收容', '不到', '行人', '车厢', '过夜', '选择', '默默', '坚守', '......#', '暴雨', '亲历者', '讲述', '交通广播', '交通广播', '微博', '视频', '新华网']</t>
+          <t>['郑州', '暴雨', '公交车', '对话', '晚点', '郑州', '持续', '降雨', '面积', '不下', '解放路', '坚守岗位', '郑州', '公交', '车长', '李滨', '不断', '收容', '不到', '行人', '车厢', '过夜', '选择', '默默', '坚守', '......#', '暴雨', '亲历者', '讲述']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['郑州', '暴雨', '公交车', '暖心', '对话', '晚点', '郑州', '持续', '降雨', '路面', '积水', '解放路', '坚守', '岗位', '郑州', '公交路', '车长', '李滨', '不断', '收容', '到家', '行人', '车厢', '过夜', '选择', '默默', '坚守', '暴雨', '亲历者', '讲述', '交通', '广播', '交通', '广播', '微博', '视频', '新华网']</t>
+          <t>['郑州', '暴雨', '公交车', '暖心', '对话', '晚点', '郑州', '持续', '降雨', '路面', '积水', '解放路', '坚守', '岗位', '郑州', '公交路', '车长', '李滨', '不断', '收容', '到家', '行人', '车厢', '过夜', '选择', '默默', '坚守', '暴雨', '亲历者', '讲述']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('#', 'x'), ('郑州', 'ns'), ('暴雨', 'n'), ('夜', 't'), ('公交车', 'n'), ('上', 'f'), ('的', 'uj'), ('暖心', 'n'), ('对话', 'n'), ('#', 'x'), ('】', 'x'), ('晚点', 'n'), ('，', 'x'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'n'), ('，', 'x'), ('路', 'n'), ('面积', 'n'), ('水', 'n'), ('不下', 'v'), ('。', 'x'), ('在', 'p'), ('解放路', 'nz'), ('坚守岗位', 'n'), ('的', 'uj'), ('郑州', 'ns'), ('公交', 'n'), ('路', 'n'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'n'), ('着回', 'v'), ('不到', 'v'), ('家', 'm'), ('的', 'uj'), ('行人', 'n'), ('在', 'p'), ('车厢', 'n'), ('内', 'n'), ('过夜', 't'), ('，', 'x'), ('而', 'c'), ('自己', 'r'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('......', 'm'), ('#', 'x'), ('位', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('#', 'x'), ('@', 'x'), ('河南', 'ns'), ('交通广播', 'l'), ('河南', 'ns'), ('交通广播', 'l'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n'), ('@', 'x'), ('新华网', 'nz')]</t>
+          <t>[('【', 'x'), ('#', 'x'), ('郑州', 'ns'), ('暴雨', 'n'), ('夜', 't'), ('公交车', 'n'), ('上', 'f'), ('的', 'uj'), ('暖心', 'n'), ('对话', 'n'), ('#', 'x'), ('】', 'x'), ('晚点', 'n'), ('，', 'x'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'n'), ('，', 'x'), ('路', 'n'), ('面积', 'n'), ('水', 'n'), ('不下', 'v'), ('。', 'x'), ('在', 'p'), ('解放路', 'nz'), ('坚守岗位', 'n'), ('的', 'uj'), ('郑州', 'ns'), ('公交', 'n'), ('路', 'n'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'n'), ('着回', 'v'), ('不到', 'v'), ('家', 'm'), ('的', 'uj'), ('行人', 'n'), ('在', 'p'), ('车厢', 'n'), ('内', 'n'), ('过夜', 't'), ('，', 'x'), ('而', 'c'), ('自己', 'r'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('......', 'm'), ('#', 'x'), ('位', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('#', 'x')]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[('【', 'n'), ('#', 'v'), ('郑州', 'ns'), ('暴雨', 'n'), ('夜', 't'), ('公交车', 'n'), ('上', 'v'), ('的', 'u'), ('暖心', 'n'), ('对话', 'vn'), ('#', 'n'), ('】', 'v'), ('晚点', 'n'), ('，', 'w'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'v'), ('，', 'w'), ('路面', 'n'), ('积水', 'n'), ('不', 'd'), ('下', 'v'), ('。', 'w'), ('在', 'p'), ('解放路', 'ns'), ('坚守', 'v'), ('岗位', 'n'), ('的', 'u'), ('郑州', 'ns'), ('公交路', 'b'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'v'), ('着', 'u'), ('回', 'v'), ('不', 'd'), ('到家', 'v'), ('的', 'u'), ('行人', 'n'), ('在', 'p'), ('车厢', 'n'), ('内', 'f'), ('过夜', 'v'), ('，', 'w'), ('而', 'c'), ('自己', 'r'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('......', 'n'), ('#', 'v'), ('位', 'n'), ('河南', 'ns'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('#', 'n'), ('@', 'v'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('的', 'u'), ('微博', 'a'), ('视频', 'n'), ('@', 'v'), ('新华网', 'n')]</t>
+          <t>[('【', 'n'), ('#', 'v'), ('郑州', 'ns'), ('暴雨', 'n'), ('夜', 't'), ('公交车', 'n'), ('上', 'v'), ('的', 'u'), ('暖心', 'n'), ('对话', 'vn'), ('#', 'n'), ('】', 'v'), ('晚点', 'n'), ('，', 'w'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'v'), ('，', 'w'), ('路面', 'n'), ('积水', 'n'), ('不', 'd'), ('下', 'v'), ('。', 'w'), ('在', 'p'), ('解放路', 'ns'), ('坚守', 'v'), ('岗位', 'n'), ('的', 'u'), ('郑州', 'ns'), ('公交路', 'b'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'v'), ('着', 'u'), ('回', 'v'), ('不', 'd'), ('到家', 'v'), ('的', 'u'), ('行人', 'n'), ('在', 'p'), ('车厢', 'n'), ('内', 'f'), ('过夜', 'v'), ('，', 'w'), ('而', 'c'), ('自己', 'r'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('......', 'n'), ('#', 'v'), ('位', 'n'), ('河南', 'ns'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('#', 'n')]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('暴雨', 'n'), ('公交车', 'n'), ('暖心', 'n'), ('对话', 'n'), ('晚点', 'n'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'n'), ('面积', 'n'), ('不下', 'v'), ('解放路', 'nz'), ('坚守岗位', 'n'), ('郑州', 'ns'), ('公交', 'n'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'n'), ('着回', 'v'), ('不到', 'v'), ('行人', 'n'), ('车厢', 'n'), ('过夜', 't'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('交通广播', 'l'), ('交通广播', 'l'), ('微博', 'a'), ('视频', 'n'), ('新华网', 'nz')]</t>
+          <t>[('暴雨', 'n'), ('公交车', 'n'), ('暖心', 'n'), ('对话', 'n'), ('晚点', 'n'), ('持续', 'vd'), ('降雨', 'n'), ('面积', 'n'), ('不下', 'v'), ('坚守岗位', 'n'), ('公交', 'n'), ('车长', 'n'), ('李滨', 'nr'), ('收容', 'n'), ('着回', 'v'), ('不到', 'v'), ('行人', 'n'), ('车厢', 'n'), ('过夜', 't'), ('选择', 'v'), ('坚守', 'v'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v')]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('暴雨', 'n'), ('公交车', 'n'), ('暖心', 'n'), ('对话', 'vn'), ('晚点', 'n'), ('郑州', 'ns'), ('持续', 'vd'), ('降雨', 'v'), ('路面', 'n'), ('积水', 'n'), ('解放路', 'ns'), ('坚守', 'v'), ('岗位', 'n'), ('郑州', 'ns'), ('公交路', 'b'), ('车长', 'n'), ('李滨', 'nr'), ('不断', 'd'), ('收容', 'v'), ('到家', 'v'), ('行人', 'n'), ('车厢', 'n'), ('过夜', 'v'), ('选择', 'v'), ('默默', 'd'), ('坚守', 'v'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v'), ('交通', 'n'), ('广播', 'vn'), ('交通', 'n'), ('广播', 'vn'), ('微博', 'a'), ('视频', 'n'), ('新华网', 'n')]</t>
+          <t>[('暴雨', 'n'), ('公交车', 'n'), ('暖心', 'n'), ('对话', 'vn'), ('晚点', 'n'), ('持续', 'vd'), ('降雨', 'v'), ('路面', 'n'), ('积水', 'n'), ('坚守', 'v'), ('岗位', 'n'), ('公交路', 'b'), ('车长', 'n'), ('李滨', 'nr'), ('收容', 'v'), ('到家', 'v'), ('行人', 'n'), ('车厢', 'n'), ('过夜', 'v'), ('选择', 'v'), ('坚守', 'v'), ('暴雨', 'n'), ('亲历者', 'n'), ('讲述', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[('天津', 'ns'), ('应对', 'v'), ('极端', 'n'), ('降雨', 'n'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('天津市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('第一', 'm'), ('时间', 'n'), ('升级', 'vn'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道交通', 'n'), ('项目', 'n'), ('安全', 'an'), ('度汛', 'n'), ('截至', 'v'), ('天津', 'ns'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('开行', 'v'), ('列车', 'n'), ('运行图', 'n'), ('兑现', 'v'), ('率为', 'v'), ('列车', 'n'), ('正点率', 'n'), ('全线', 'n'), ('客运量', 'n'), ('万人次', 'm'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防死守', 'i'), ('严格', 'ad'), ('落实', 'a'), ('责任', 'n'), ('地铁线', 'n'), ('利用', 'n'), ('控制中心', 'l'), ('智能化', 'nr'), ('信息', 'n'), ('平台', 'n'), ('进行', 'v'), ('防汛', 'vn'), ('联合', 'v'), ('指挥', 'v'), ('信息', 'n'), ('统计', 'v'), ('影像', 'vn'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'v'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('实时', 'd'), ('呈现出', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'v'), ('快速', 'd'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('快速', 'd'), ('响应', 'v'), ('增配', 'v'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'a'), ('乘客', 'n'), ('地铁', 'n'), ('全线', 'n'), ('配备', 'v'), ('余把', 'm'), ('爱心', 'n'), ('万个', 'm'), ('伞套', 'n'), ('乘客', 'n'), ('借用', 'v'), ('天津市', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('升级', 'vn'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('台风', 'ns'), ('烟花', 'n'), ('影响', 'vn'), ('天津市', 'ns'), ('白天', 't'), ('白天', 't'), ('强降雨', 'nr'), ('过程', 'n'), ('累积', 'v'), ('降雨量', 'n'), ('毫米', 'q'), ('局部', 'n'), ('毫米', 'q'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('对此', 'd'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('落实', 'a'), ('小时', 'n'), ('值班', 'v'), ('领导', 'n'), ('带班', 'v'), ('制度', 'n'), ('加强', 'v'), ('值守', 'v'), ('提升', 'v'), ('应急', 'vn'), ('处置', 'v'), ('能力', 'n'), ('地铁', 'n'), ('运营', 'vn'), ('线路', 'n'), ('应对', 'v'), ('极端', 'n'), ('强降雨', 'nr'), ('轨道交通', 'n'), ('运营', 'vn'), ('应急', 'vn'), ('机制', 'n'), ('针对', 'p'), ('车站', 'n'), ('线网', 'n'), ('不同', 'a'), ('点位', 'n'), ('积水', 'n'), ('倒灌', 'v'), ('情况', 'n'), ('明确', 'ad'), ('应急', 'vn'), ('响应', 'v'), ('标准', 'n'), ('达到', 'v'), ('触发', 'v'), ('条件', 'n'), ('轨道交通', 'n'), ('防汛', 'vn'), ('工作组', 'n'), ('立即', 'd'), ('组织', 'v'), ('相应', 'v'), ('点位', 'n'), ('全线', 'n'), ('进行', 'v'), ('封站', 'n'), ('跳停', 'v'), ('线路', 'n'), ('停运', 'v'), ('全线', 'n'), ('停运', 'v'), ('运营', 'vn'), ('调整', 'vn'), ('全力', 'n'), ('确保', 'v'), ('人民', 'n'), ('群众', 'n'), ('生命财产', 'l'), ('安全', 'an'), ('目前', 't'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('建立', 'v'), ('共人', 'n'), ('防汛', 'vn'), ('抢险', 'v'), ('救援', 'vn'), ('队伍', 'n'), ('储备', 'vn'), ('万袋', 'm'), ('沙袋', 'n'), ('水泵', 'n'), ('套挡', 'v'), ('水板', 'n'), ('彩条', 'n'), ('应急', 'vn'), ('救援车辆', 'n'), ('防汛', 'vn'), ('工作', 'vn'), ('形式', 'n'), ('进行', 'v'), ('动态', 'n'), ('管理', 'vn'), ('确保', 'v'), ('满足', 'v'), ('现场', 'n'), ('防汛', 'vn'), ('需求', 'v')]</t>
+          <t>[('应对', 'v'), ('极端', 'n'), ('降雨', 'n'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('轨道交通', 'n'), ('集团', 'n'), ('时间', 'n'), ('升级', 'vn'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道交通', 'n'), ('项目', 'n'), ('安全', 'an'), ('度汛', 'n'), ('截至', 'v'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('开行', 'v'), ('列车', 'n'), ('运行图', 'n'), ('兑现', 'v'), ('率为', 'v'), ('列车', 'n'), ('正点率', 'n'), ('全线', 'n'), ('客运量', 'n'), ('轨道交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防死守', 'i'), ('严格', 'ad'), ('落实', 'a'), ('责任', 'n'), ('地铁线', 'n'), ('利用', 'n'), ('控制中心', 'l'), ('智能化', 'nr'), ('信息', 'n'), ('平台', 'n'), ('进行', 'v'), ('防汛', 'vn'), ('联合', 'v'), ('指挥', 'v'), ('信息', 'n'), ('统计', 'v'), ('影像', 'vn'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'v'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('呈现出', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'v'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('响应', 'v'), ('增配', 'v'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'a'), ('乘客', 'n'), ('地铁', 'n'), ('全线', 'n'), ('配备', 'v'), ('爱心', 'n'), ('伞套', 'n'), ('乘客', 'n'), ('借用', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('升级', 'vn'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('烟花', 'n'), ('影响', 'vn'), ('白天', 't'), ('白天', 't'), ('强降雨', 'nr'), ('过程', 'n'), ('累积', 'v'), ('降雨量', 'n'), ('局部', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('轨道交通', 'n'), ('集团', 'n'), ('落实', 'a'), ('小时', 'n'), ('值班', 'v'), ('领导', 'n'), ('带班', 'v'), ('制度', 'n'), ('加强', 'v'), ('值守', 'v'), ('提升', 'v'), ('应急', 'vn'), ('处置', 'v'), ('能力', 'n'), ('地铁', 'n'), ('运营', 'vn'), ('线路', 'n'), ('应对', 'v'), ('极端', 'n'), ('强降雨', 'nr'), ('轨道交通', 'n'), ('运营', 'vn'), ('应急', 'vn'), ('机制', 'n'), ('车站', 'n'), ('线网', 'n'), ('不同', 'a'), ('点位', 'n'), ('积水', 'n'), ('倒灌', 'v'), ('情况', 'n'), ('明确', 'ad'), ('应急', 'vn'), ('响应', 'v'), ('标准', 'n'), ('达到', 'v'), ('触发', 'v'), ('条件', 'n'), ('轨道交通', 'n'), ('防汛', 'vn'), ('工作组', 'n'), ('组织', 'v'), ('相应', 'v'), ('点位', 'n'), ('全线', 'n'), ('进行', 'v'), ('封站', 'n'), ('跳停', 'v'), ('线路', 'n'), ('停运', 'v'), ('全线', 'n'), ('停运', 'v'), ('运营', 'vn'), ('调整', 'vn'), ('全力', 'n'), ('确保', 'v'), ('人民', 'n'), ('群众', 'n'), ('生命财产', 'l'), ('安全', 'an'), ('目前', 't'), ('轨道交通', 'n'), ('集团', 'n'), ('建立', 'v'), ('共人', 'n'), ('防汛', 'vn'), ('抢险', 'v'), ('救援', 'vn'), ('队伍', 'n'), ('储备', 'vn'), ('沙袋', 'n'), ('水泵', 'n'), ('套挡', 'v'), ('水板', 'n'), ('彩条', 'n'), ('应急', 'vn'), ('救援车辆', 'n'), ('防汛', 'vn'), ('工作', 'vn'), ('形式', 'n'), ('进行', 'v'), ('动态', 'n'), ('管理', 'vn'), ('确保', 'v'), ('满足', 'v'), ('现场', 'n'), ('防汛', 'vn'), ('需求', 'v')]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[('天津', 'ns'), ('应对', 'v'), ('极端', 'ad'), ('降雨', 'v'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('天津市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'n'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('第一', 'm'), ('时间', 'n'), ('升级', 'v'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道', 'n'), ('交通', 'n'), ('项目', 'n'), ('安全', 'ad'), ('度汛', 'v'), ('截至', 'v'), ('天津', 'ns'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('网共', 'j'), ('开行', 'v'), ('列车', 'n'), ('列次', 'n'), ('运行图', 'n'), ('兑现率', 'n'), ('为%', 'v'), ('列车', 'n'), ('正点', 'n'), ('率%', 'v'), ('全线网', 'n'), ('客运量', 'n'), ('人次', 'q'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防', 'v'), ('死守', 'v'), ('严格', 'ad'), ('落实', 'v'), ('责任', 'n'), ('地铁', 'n'), ('线网', 'n'), ('利用', 'v'), ('控制', 'vn'), ('中心', 'n'), ('智能化', 'v'), ('信息', 'n'), ('平台', 'n'), ('进行', 'vx'), ('防汛', 'vn'), ('联合', 'vn'), ('指挥', 'vn'), ('信息', 'n'), ('统计', 'vn'), ('影像', 'n'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'vn'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('实时', 'd'), ('呈现', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'vn'), ('快速', 'b'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('快速', 'd'), ('响应', 'v'), ('增配', 'vn'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'v'), ('乘客', 'n'), ('地铁', 'n'), ('全线网', 'n'), ('配备', 'v'), ('了余', 'u'), ('爱心伞', 'n'), ('套供', 'v'), ('乘客', 'n'), ('借用', 'v'), ('天津市', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('升级', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('台风', 'n'), ('烟花', 'n'), ('影响', 'vn'), ('天津市', 'ns'), ('白天', 't'), ('白天', 't'), ('降雨', 'vn'), ('过程', 'n'), ('累积', 'v'), ('降雨量', 'n'), ('毫米', 'q'), ('局部', 'n'), ('毫米', 'q'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('对此', 'l'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('落实', 'v'), ('小时', 'n'), ('值班', 'vn'), ('领导', 'vn'), ('带班', 'vn'), ('制度', 'n'), ('加强', 'v'), ('值守', 'vn'), ('提升', 'vn'), ('应急', 'vn'), ('处置', 'vn'), ('能力', 'n'), ('地铁', 'n'), ('运营', 'vn'), ('线路', 'n'), ('应对', 'v'), ('极端', 'ad'), ('强降雨', 'a'), ('轨道', 'n'), ('交通', 'n'), ('运营', 'vn'), ('应急', 'vn'), ('机制', 'n'), ('针对', 'p'), ('车站', 'n'), ('线网', 'n'), ('不同', 'vn'), ('点位', 'n'), ('积水', 'n'), ('倒灌', 'v'), ('情况', 'n'), ('明确', 'a'), ('应急', 'vn'), ('响应', 'vn'), ('标准', 'n'), ('达到', 'v'), ('触发', 'vn'), ('条件', 'n'), ('轨道', 'n'), ('交通', 'n'), ('防汛', 'vn'), ('工作组', 'n'), ('立即', 'd'), ('组织', 'v'), ('相应', 'vd'), ('点位', 'v'), ('全线网', 'n'), ('进行', 'vx'), ('封站', 'n'), ('跳停', 'vn'), ('线路', 'n'), ('停运', 'v'), ('全线网', 'n'), ('停运', 'v'), ('运营', 'v'), ('调整', 'v'), ('全力', 'd'), ('确保', 'v'), ('人民', 'n'), ('群众', 'n'), ('生命', 'n'), ('财产', 'n'), ('安全', 'an'), ('目前', 't'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('建立', 'v'), ('防汛', 'vn'), ('抢险', 'vn'), ('救援', 'vn'), ('队伍', 'n'), ('储备', 'v'), ('万袋', 'n'), ('沙袋', 'n'), ('台水泵', 'n'), ('套挡', 'v'), ('水板', 'n'), ('卷彩', 'n'), ('条布', 'n'), ('应急', 'vn'), ('救援', 'vn'), ('车辆', 'n'), ('防汛', 'vn'), ('工作', 'vn'), ('形式', 'n'), ('进行', 'vx'), ('动态', 'n'), ('管理', 'vn'), ('确保', 'v'), ('满足', 'vn'), ('现场', 's'), ('防汛', 'vn'), ('需求', 'n')]</t>
+          <t>[('应对', 'v'), ('极端', 'ad'), ('降雨', 'v'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'n'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('时间', 'n'), ('升级', 'v'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道', 'n'), ('交通', 'n'), ('项目', 'n'), ('安全', 'ad'), ('度汛', 'v'), ('截至', 'v'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('网共', 'j'), ('开行', 'v'), ('列车', 'n'), ('列次', 'n'), ('运行图', 'n'), ('兑现率', 'n'), ('为%', 'v'), ('列车', 'n'), ('正点', 'n'), ('率%', 'v'), ('全线网', 'n'), ('客运量', 'n'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防', 'v'), ('死守', 'v'), ('严格', 'ad'), ('落实', 'v'), ('责任', 'n'), ('地铁', 'n'), ('线网', 'n'), ('利用', 'v'), ('控制', 'vn'), ('中心', 'n'), ('智能化', 'v'), ('信息', 'n'), ('平台', 'n'), ('进行', 'vx'), ('防汛', 'vn'), ('联合', 'vn'), ('指挥', 'vn'), ('信息', 'n'), ('统计', 'vn'), ('影像', 'n'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'vn'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('呈现', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'vn'), ('快速', 'b'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('响应', 'v'), ('增配', 'vn'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'v'), ('乘客', 'n'), ('地铁', 'n'), ('全线网', 'n'), ('配备', 'v'), ('了余', 'u'), ('爱心伞', 'n'), ('套供', 'v'), ('乘客', 'n'), ('借用', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('升级', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('台风', 'n'), ('烟花', 'n'), ('影响', 'vn'), ('白天', 't'), ('白天', 't'), ('降雨', 'vn'), ('过程', 'n'), ('累积', 'v'), ('降雨量', 'n'), ('局部', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('对此', 'l'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('落实', 'v'), ('小时', 'n'), ('值班', 'vn'), ('领导', 'vn'), ('带班', 'vn'), ('制度', 'n'), ('加强', 'v'), ('值守', 'vn'), ('提升', 'vn'), ('应急', 'vn'), ('处置', 'vn'), ('能力', 'n'), ('地铁', 'n'), ('运营', 'vn'), ('线路', 'n'), ('应对', 'v'), ('极端', 'ad'), ('强降雨', 'a'), ('轨道', 'n'), ('交通', 'n'), ('运营', 'vn'), ('应急', 'vn'), ('机制', 'n'), ('车站', 'n'), ('线网', 'n'), ('不同', 'vn'), ('点位', 'n'), ('积水', 'n'), ('倒灌', 'v'), ('情况', 'n'), ('明确', 'a'), ('应急', 'vn'), ('响应', 'vn'), ('标准', 'n'), ('达到', 'v'), ('触发', 'vn'), ('条件', 'n'), ('轨道', 'n'), ('交通', 'n'), ('防汛', 'vn'), ('工作组', 'n'), ('组织', 'v'), ('相应', 'vd'), ('点位', 'v'), ('全线网', 'n'), ('进行', 'vx'), ('封站', 'n'), ('跳停', 'vn'), ('线路', 'n'), ('停运', 'v'), ('全线网', 'n'), ('停运', 'v'), ('运营', 'v'), ('调整', 'v'), ('确保', 'v'), ('人民', 'n'), ('群众', 'n'), ('生命', 'n'), ('财产', 'n'), ('安全', 'an'), ('目前', 't'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('建立', 'v'), ('防汛', 'vn'), ('抢险', 'vn'), ('救援', 'vn'), ('队伍', 'n'), ('储备', 'v'), ('万袋', 'n'), ('沙袋', 'n'), ('台水泵', 'n'), ('套挡', 'v'), ('水板', 'n'), ('卷彩', 'n'), ('条布', 'n'), ('应急', 'vn'), ('救援', 'vn'), ('车辆', 'n'), ('防汛', 'vn'), ('工作', 'vn'), ('形式', 'n'), ('进行', 'vx'), ('动态', 'n'), ('管理', 'vn'), ('确保', 'v'), ('满足', 'vn'), ('防汛', 'vn'), ('需求', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[('小虹', 'nr'), ('新闻', 'n'), ('甘肃', 'ns'), ('少年', 'm'), ('郑州', 'ns'), ('见到', 'v'), ('消防员', 'n'), ('拥抱', 'v'), ('痛哭', 'v'), ('上午', 't'), ('左右', 'm'), ('郑州', 'ns'), ('中原', 'ns'), ('科技', 'n'), ('学院', 'n'), ('一名', 'm'), ('少年', 'm'), ('见到', 'v'), ('正在', 't'), ('展开', 'v'), ('救援', 'vn'), ('安徽', 'ns'), ('消防员', 'n'), ('突然', 'ad'), ('消防员', 'n'), ('大哭', 'v'), ('少年', 'm'), ('甘肃', 'ns'), ('江苏', 'ns'), ('路过', 'v'), ('此处', 'r'), ('避雨', 'v'), ('现在', 't'), ('打算', 'v'), ('西安', 'ns'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('已经', 'd'), ('郑州', 'ns'), ('消防员', 'n'), ('少年', 'm'), ('拿来', 'v'), ('鞋子', 'n'), ('食物', 'n'), ('协调', 'v'), ('车辆', 'n'), ('少年', 'm'), ('送到', 'v'), ('高铁', 'n'), ('应急', 'vn'), ('管理部', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('小虹', 'nr'), ('新闻', 'n'), ('见到', 'v'), ('消防员', 'n'), ('拥抱', 'v'), ('痛哭', 'v'), ('上午', 't'), ('科技', 'n'), ('学院', 'n'), ('见到', 'v'), ('正在', 't'), ('展开', 'v'), ('救援', 'vn'), ('消防员', 'n'), ('突然', 'ad'), ('消防员', 'n'), ('大哭', 'v'), ('路过', 'v'), ('避雨', 'v'), ('现在', 't'), ('打算', 'v'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('消防员', 'n'), ('拿来', 'v'), ('鞋子', 'n'), ('食物', 'n'), ('协调', 'v'), ('车辆', 'n'), ('送到', 'v'), ('高铁', 'n'), ('应急', 'vn'), ('管理部', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[('小虹', 'nr'), ('新闻', 'n'), ('甘肃', 'ns'), ('少年', 'n'), ('郑州', 'ns'), ('天见', 'n'), ('消防员', 'n'), ('拥抱', 'v'), ('痛哭', 'v'), ('午点', 'n'), ('左右', 'm'), ('郑州', 'ns'), ('中原', 'ns'), ('科技', 'n'), ('学院', 'n'), ('少年', 'n'), ('见到', 'v'), ('正在', 'd'), ('展开', 'v'), ('救援', 'vn'), ('安徽', 'ns'), ('消防员', 'n'), ('突然', 'ad'), ('消防员', 'n'), ('大哭', 'i'), ('少年', 'n'), ('甘肃人', 'n'), ('江苏', 'ns'), ('路过', 'v'), ('此处', 'r'), ('避雨', 'i'), ('现在', 't'), ('打算', 'v'), ('西安', 'ns'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('已经', 'd'), ('郑州', 'ns'), ('消防员', 'n'), ('少年', 'n'), ('拿来', 'v'), ('鞋子', 'n'), ('食物', 'n'), ('协调', 'v'), ('车辆', 'n'), ('少年', 'n'), ('送到', 'v'), ('高铁站', 'n'), ('应急', 'v'), ('管理部', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('小虹', 'nr'), ('新闻', 'n'), ('少年', 'n'), ('天见', 'n'), ('消防员', 'n'), ('拥抱', 'v'), ('痛哭', 'v'), ('午点', 'n'), ('科技', 'n'), ('学院', 'n'), ('少年', 'n'), ('见到', 'v'), ('展开', 'v'), ('救援', 'vn'), ('消防员', 'n'), ('突然', 'ad'), ('消防员', 'n'), ('大哭', 'i'), ('少年', 'n'), ('甘肃人', 'n'), ('路过', 'v'), ('避雨', 'i'), ('现在', 't'), ('打算', 'v'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('消防员', 'n'), ('少年', 'n'), ('拿来', 'v'), ('鞋子', 'n'), ('食物', 'n'), ('协调', 'v'), ('车辆', 'n'), ('少年', 'n'), ('送到', 'v'), ('高铁站', 'n'), ('应急', 'v'), ('管理部', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('转移', 'v'), ('群众', 'n'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('被淹', 'n'), ('平安', 'a'), ('法治', 'n'), ('陕西', 'ns'), ('安康', 'nr'), ('暴雨', 'n'), ('影响', 'vn'), ('镇坪县', 'ns'), ('公安局', 'nt'), ('交通管理', 'n'), ('大队', 'n'), ('城关', 'ns'), ('中队', 'n'), ('所有', 'b'), ('民辅', 'n'), ('凌晨', 't'), ('紧急', 'a'), ('转移', 'v'), ('受困', 'v'), ('群众', 'n'), ('转移', 'v'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('被淹', 'n'), ('一楼', 'n'), ('办公', 'n'), ('桌椅', 'n'), ('电脑', 'n'), ('损毁', 'v'), ('中队', 'n'), ('民警', 'n'), ('凌晨', 't'), ('听到', 'v'), ('防汛', 'vn'), ('警报', 'n'), ('所有人', 'n'), ('出动', 'v'), ('早上', 't'), ('转移', 'v'), ('群众', 'n'), ('回到', 'v'), ('单位', 'n'), ('被淹', 'n'), ('群众', 'n'), ('安全', 'an'), ('第一位', 'm'), ('没什么', 'l'), ('白鹿', 'nr'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('转移', 'v'), ('群众', 'n'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('被淹', 'n'), ('平安', 'a'), ('法治', 'n'), ('安康', 'nr'), ('暴雨', 'n'), ('影响', 'vn'), ('交通管理', 'n'), ('大队', 'n'), ('中队', 'n'), ('所有', 'b'), ('民辅', 'n'), ('凌晨', 't'), ('紧急', 'a'), ('转移', 'v'), ('受困', 'v'), ('群众', 'n'), ('转移', 'v'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('被淹', 'n'), ('一楼', 'n'), ('办公', 'n'), ('桌椅', 'n'), ('电脑', 'n'), ('损毁', 'v'), ('中队', 'n'), ('民警', 'n'), ('凌晨', 't'), ('听到', 'v'), ('防汛', 'vn'), ('警报', 'n'), ('所有人', 'n'), ('出动', 'v'), ('早上', 't'), ('转移', 'v'), ('群众', 'n'), ('回到', 'v'), ('单位', 'n'), ('被淹', 'n'), ('群众', 'n'), ('安全', 'an'), ('没什么', 'l'), ('白鹿', 'nr'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[('交警', 'n'), ('转移', 'v'), ('群众', 'n'), ('归来', 'v'), ('发现', 'vn'), ('单位', 'n'), ('淹#', 'v'), ('平安', 'a'), ('法治', 'n'), ('陕西', 'ns'), ('安康', 'ns'), ('暴雨', 'n'), ('影响', 'vn'), ('镇坪县', 'ns'), ('公安局', 'n'), ('交通', 'n'), ('管理', 'vn'), ('大队', 'n'), ('城关', 'ns'), ('中队', 'n'), ('所有', 'b'), ('辅警', 'v'), ('凌晨', 't'), ('紧急', 'ad'), ('转移', 'v'), ('受困', 'v'), ('群众', 'n'), ('待转', 'v'), ('移完', 'v'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('一楼', 'i'), ('办公', 'vn'), ('桌椅', 'n'), ('电脑', 'n'), ('损毁', 'v'), ('中队', 'n'), ('民警', 'n'), ('凌晨', 't'), ('听到', 'v'), ('防汛', 'vn'), ('警报', 'n'), ('所有人', 'n'), ('出动', 'v'), ('早上', 't'), ('点多', 'v'), ('转移', 'v'), ('群众', 'n'), ('回到', 'v'), ('单位', 'n'), ('淹但', 'v'), ('群众', 'n'), ('安全', 'an'), ('第一', 'm'), ('白鹿', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'n'), ('转移', 'v'), ('群众', 'n'), ('归来', 'v'), ('发现', 'vn'), ('单位', 'n'), ('淹#', 'v'), ('平安', 'a'), ('法治', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('公安局', 'n'), ('交通', 'n'), ('管理', 'vn'), ('大队', 'n'), ('中队', 'n'), ('所有', 'b'), ('辅警', 'v'), ('凌晨', 't'), ('紧急', 'ad'), ('转移', 'v'), ('受困', 'v'), ('群众', 'n'), ('待转', 'v'), ('移完', 'v'), ('归来', 'v'), ('发现', 'v'), ('单位', 'n'), ('一楼', 'i'), ('办公', 'vn'), ('桌椅', 'n'), ('电脑', 'n'), ('损毁', 'v'), ('中队', 'n'), ('民警', 'n'), ('凌晨', 't'), ('听到', 'v'), ('防汛', 'vn'), ('警报', 'n'), ('所有人', 'n'), ('出动', 'v'), ('早上', 't'), ('点多', 'v'), ('转移', 'v'), ('群众', 'n'), ('回到', 'v'), ('单位', 'n'), ('淹但', 'v'), ('群众', 'n'), ('安全', 'an'), ('白鹿', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[('忍住', 'v'), ('寒假', 'n'), ('没法', 'v'), ('留校', 'v'), ('不到', 'v'), ('地方', 'n'), ('加工', 'vn'), ('千方百计', 'i'), ('爷爷', 'n'), ('奶奶', 'n'), ('终于', 'd'), ('企业', 'n'), ('愿意', 'v'), ('提供', 'v'), ('加工', 'vn'), ('场地', 's'), ('大伙', 'n'), ('疫情', 'n'), ('压力', 'n'), ('留校', 'v'), ('干活', 'a'), ('老师', 'n'), ('遇到', 'v'), ('大暴雨', 'i'), ('交通', 'n'), ('全部', 'n'), ('中断', 'ns'), ('沟通', 'v'), ('办法', 'n'), ('解决', 'v'), ('一大', 'a'), ('最后', 'f'), ('黑车', 'n'), ('关系', 'n'), ('解决', 'v'), ('问题', 'n'), ('直到', 'v'), ('问题', 'n'), ('解决', 'v'), ('消息', 'n'), ('老师', 'n'), ('赛季', 't'), ('今年', 't'), ('不用', 'v'), ('担心', 'v'), ('经费', 'vn'), ('问题', 'n'), ('最后', 'f'), ('经费', 'vn'), ('头疼', 'a'), ('老师', 'n'), ('同学', 'n'), ('比赛', 'vn'), ('几千', 'm'), ('几千', 'm'), ('垫钱', 'v'), ('连续', 'a'), ('通宵', 'n'), ('学习', 'v'), ('下降', 'v'), ('觉得', 'v')]</t>
+          <t>[('忍住', 'v'), ('寒假', 'n'), ('没法', 'v'), ('留校', 'v'), ('不到', 'v'), ('地方', 'n'), ('加工', 'vn'), ('千方百计', 'i'), ('爷爷', 'n'), ('奶奶', 'n'), ('企业', 'n'), ('愿意', 'v'), ('提供', 'v'), ('加工', 'vn'), ('大伙', 'n'), ('疫情', 'n'), ('压力', 'n'), ('留校', 'v'), ('干活', 'a'), ('老师', 'n'), ('遇到', 'v'), ('大暴雨', 'i'), ('交通', 'n'), ('全部', 'n'), ('沟通', 'v'), ('办法', 'n'), ('解决', 'v'), ('一大', 'a'), ('黑车', 'n'), ('关系', 'n'), ('解决', 'v'), ('问题', 'n'), ('直到', 'v'), ('问题', 'n'), ('解决', 'v'), ('消息', 'n'), ('老师', 'n'), ('赛季', 't'), ('今年', 't'), ('不用', 'v'), ('担心', 'v'), ('经费', 'vn'), ('问题', 'n'), ('经费', 'vn'), ('头疼', 'a'), ('老师', 'n'), ('同学', 'n'), ('比赛', 'vn'), ('垫钱', 'v'), ('连续', 'a'), ('通宵', 'n'), ('学习', 'v'), ('下降', 'v'), ('觉得', 'v')]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[('想怼', 'v'), ('忍住', 'v'), ('寒假', 't'), ('没法', 'v'), ('留校', 'v'), ('地方', 'n'), ('加工', 'v'), ('千方百计', 'i'), ('求爷爷告奶奶', 'v'), ('终于', 'd'), ('企业', 'n'), ('愿意', 'v'), ('提供', 'v'), ('加工', 'vn'), ('场地', 'n'), ('大伙', 'r'), ('疫情', 'n'), ('压力', 'n'), ('留校', 'v'), ('干活', 'v'), ('老师', 'n'), ('遇到', 'v'), ('大暴雨', 'n'), ('交通', 'n'), ('全部', 'd'), ('中断', 'v'), ('沟通', 'v'), ('办法', 'n'), ('解决', 'v'), ('彦博', 'nr'), ('一大', 'j'), ('最后', 'f'), ('黑车', 'n'), ('关系', 'n'), ('解决', 'v'), ('问题', 'n'), ('直到', 'v'), ('问题', 'n'), ('解决', 'v'), ('消息', 'n'), ('老师', 'n'), ('赛季', 'n'), ('初您', 'nr'), ('今年', 't'), ('不用', 'd'), ('担心', 'v'), ('经费', 'n'), ('问题', 'n'), ('最后', 'f'), ('经费', 'n'), ('头疼', 'a'), ('老师', 'n'), ('同学', 'n'), ('比赛', 'vn'), ('几千几千', 'm'), ('垫钱', 'n'), ('连续', 'a'), ('通宵', 'n'), ('学习', 'v'), ('下降', 'v'), ('觉得', 'v')]</t>
+          <t>[('想怼', 'v'), ('忍住', 'v'), ('寒假', 't'), ('没法', 'v'), ('留校', 'v'), ('地方', 'n'), ('加工', 'v'), ('千方百计', 'i'), ('求爷爷告奶奶', 'v'), ('企业', 'n'), ('愿意', 'v'), ('提供', 'v'), ('加工', 'vn'), ('场地', 'n'), ('疫情', 'n'), ('压力', 'n'), ('留校', 'v'), ('干活', 'v'), ('老师', 'n'), ('遇到', 'v'), ('大暴雨', 'n'), ('交通', 'n'), ('中断', 'v'), ('沟通', 'v'), ('办法', 'n'), ('解决', 'v'), ('彦博', 'nr'), ('一大', 'j'), ('黑车', 'n'), ('关系', 'n'), ('解决', 'v'), ('问题', 'n'), ('直到', 'v'), ('问题', 'n'), ('解决', 'v'), ('消息', 'n'), ('老师', 'n'), ('赛季', 'n'), ('初您', 'nr'), ('今年', 't'), ('担心', 'v'), ('经费', 'n'), ('问题', 'n'), ('经费', 'n'), ('头疼', 'a'), ('老师', 'n'), ('同学', 'n'), ('比赛', 'vn'), ('垫钱', 'n'), ('连续', 'a'), ('通宵', 'n'), ('学习', 'v'), ('下降', 'v'), ('觉得', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1706,47 +1706,47 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>#积水路段提醒##暴雨中的河南公安力量#、金桥宾馆门前地下隧道积水严重，无法通行；、金水路南阳路向北米路东塌陷大坑；、黄河路郑纺机地下道积水严重，无法通行。@平安郑州@河南交警@河南交通广播@郑州交通广播</t>
+          <t>#积水路段提醒##暴雨中的河南公安力量#、金桥宾馆门前地下隧道积水严重，无法通行；、金水路南阳路向北米路东塌陷大坑；、黄河路郑纺机地下道积水严重，无法通行。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['#', '积水', '路段', '提醒', '##', '暴雨', '中', '的', '河南', '公安', '力量', '#', '、', '金桥', '宾馆', '门前', '地下隧道', '积水', '严重', '，', '无法', '通行', '；', '、', '金水路', '南阳', '路向', '北米', '路东', '塌陷', '大坑', '；', '、', '黄河路', '郑', '纺机', '地下道', '积水', '严重', '，', '无法', '通行', '。', '@', '平安', '郑州', '@', '河南', '交警', '@', '河南', '交通广播', '@', '郑州', '交通广播']</t>
+          <t>['#', '积水', '路段', '提醒', '##', '暴雨', '中', '的', '河南', '公安', '力量', '#', '、', '金桥', '宾馆', '门前', '地下隧道', '积水', '严重', '，', '无法', '通行', '；', '、', '金水路', '南阳', '路向', '北米', '路东', '塌陷', '大坑', '；', '、', '黄河路', '郑', '纺机', '地下道', '积水', '严重', '，', '无法', '通行', '。']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['#', '积水', '路段', '提醒', '#', '#', '暴雨', '中', '的', '河南', '公安', '力量', '#', '、', '金桥', '宾馆', '门前', '地下', '隧道', '积水', '严重', '，', '无法', '通行', '；', '、', '金水路', '南阳路', '向', '北米路', '东塌', '陷', '大', '坑', '；', '、', '黄河路', '郑纺机', '地下道', '积水', '严重', '，', '无法', '通行', '。', '@', '平安', '郑州', '@', '河南', '交警', '@', '河南', '交通', '广播', '@', '郑州', '交通', '广播']</t>
+          <t>['#', '积水', '路段', '提醒', '#', '#', '暴雨', '中', '的', '河南', '公安', '力量', '#', '、', '金桥', '宾馆', '门前', '地下', '隧道', '积水', '严重', '，', '无法', '通行', '；', '、', '金水路', '南阳路', '向', '北米路', '东塌', '陷', '大', '坑', '；', '、', '黄河路', '郑纺机', '地下道', '积水', '严重', '，', '无法', '通行', '。']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['积水', '路段', '提醒', '暴雨', '公安', '力量', '金桥', '宾馆', '门前', '地下隧道', '积水', '严重', '无法', '通行', '金水路', '南阳', '路向', '北米', '路东', '塌陷', '大坑', '黄河路', '纺机', '地下道', '积水', '严重', '无法', '通行', '平安', '郑州', '交警', '交通广播', '郑州', '交通广播']</t>
+          <t>['积水', '路段', '提醒', '暴雨', '公安', '力量', '金桥', '宾馆', '门前', '地下隧道', '积水', '严重', '无法', '通行', '金水路', '南阳', '路向', '北米', '路东', '塌陷', '大坑', '黄河路', '纺机', '地下道', '积水', '严重', '无法', '通行']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['积水', '路段', '提醒', '暴雨', '公安', '力量', '金桥', '宾馆', '门前', '地下', '隧道', '积水', '严重', '无法', '通行', '金水路', '南阳路', '北米路', '东塌', '黄河路', '郑纺机', '地下道', '积水', '严重', '无法', '通行', '平安', '郑州', '交警', '交通', '广播', '郑州', '交通', '广播']</t>
+          <t>['积水', '路段', '提醒', '暴雨', '公安', '力量', '金桥', '宾馆', '门前', '地下', '隧道', '积水', '严重', '无法', '通行', '金水路', '南阳路', '北米路', '东塌', '黄河路', '郑纺机', '地下道', '积水', '严重', '无法', '通行']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('##', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('河南', 'ns'), ('公安', 'n'), ('力量', 'n'), ('#', 'x'), ('、', 'x'), ('金桥', 'nr'), ('宾馆', 'n'), ('门前', 's'), ('地下隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('无法', 'n'), ('通行', 'j'), ('；', 'x'), ('、', 'x'), ('金水路', 'n'), ('南阳', 'ns'), ('路向', 'n'), ('北米路东', 'ns'), ('塌陷', 'v'), ('大坑', 'n'), ('；', 'x'), ('、', 'x'), ('黄河路', 'ns'), ('郑', 'ns'), ('纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('无法', 'n'), ('通行', 'j'), ('。', 'x'), ('@', 'x'), ('平安', 'a'), ('郑州', 'ns'), ('@', 'x'), ('河南', 'ns'), ('交警', 'j'), ('@', 'x'), ('河南', 'ns'), ('交通广播', 'l'), ('@', 'x'), ('郑州', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('#', 'x'), ('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('##', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('河南', 'ns'), ('公安', 'n'), ('力量', 'n'), ('#', 'x'), ('、', 'x'), ('金桥', 'nr'), ('宾馆', 'n'), ('门前', 's'), ('地下隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('无法', 'n'), ('通行', 'j'), ('；', 'x'), ('、', 'x'), ('金水路', 'n'), ('南阳', 'ns'), ('路向', 'n'), ('北米路东', 'ns'), ('塌陷', 'v'), ('大坑', 'n'), ('；', 'x'), ('、', 'x'), ('黄河路', 'ns'), ('郑', 'ns'), ('纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('无法', 'n'), ('通行', 'j'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('#', 'v'), ('#', 'v'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('河南', 'ns'), ('公安', 'n'), ('力量', 'n'), ('#', 'v'), ('、', 'w'), ('金桥', 'nz'), ('宾馆', 'n'), ('门前', 's'), ('地下', 's'), ('隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('无法', 'v'), ('通行', 'v'), ('；', 'w'), ('、', 'w'), ('金水路', 'ns'), ('南阳路', 'ns'), ('向', 'p'), ('北米路', 'ns'), ('东塌', 'ns'), ('陷', 'v'), ('大', 'a'), ('坑', 'n'), ('；', 'w'), ('、', 'w'), ('黄河路', 'ns'), ('郑纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('无法', 'v'), ('通行', 'v'), ('。', 'w'), ('@', 'n'), ('平安', 'a'), ('郑州', 'ns'), ('@', 'v'), ('河南', 'ns'), ('交警', 'n'), ('@', 'v'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('@', 'n'), ('郑州', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('#', 'v'), ('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('#', 'v'), ('#', 'v'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('河南', 'ns'), ('公安', 'n'), ('力量', 'n'), ('#', 'v'), ('、', 'w'), ('金桥', 'nz'), ('宾馆', 'n'), ('门前', 's'), ('地下', 's'), ('隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('无法', 'v'), ('通行', 'v'), ('；', 'w'), ('、', 'w'), ('金水路', 'ns'), ('南阳路', 'ns'), ('向', 'p'), ('北米路', 'ns'), ('东塌', 'ns'), ('陷', 'v'), ('大', 'a'), ('坑', 'n'), ('；', 'w'), ('、', 'w'), ('黄河路', 'ns'), ('郑纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('无法', 'v'), ('通行', 'v'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('暴雨', 'n'), ('公安', 'n'), ('力量', 'n'), ('金桥', 'nr'), ('宾馆', 'n'), ('门前', 's'), ('地下隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'n'), ('通行', 'j'), ('金水路', 'n'), ('南阳', 'ns'), ('路向', 'n'), ('北米路东', 'ns'), ('塌陷', 'v'), ('大坑', 'n'), ('黄河路', 'ns'), ('纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'n'), ('通行', 'j'), ('平安', 'a'), ('郑州', 'ns'), ('交警', 'j'), ('交通广播', 'l'), ('郑州', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('暴雨', 'n'), ('公安', 'n'), ('力量', 'n'), ('金桥', 'nr'), ('宾馆', 'n'), ('地下隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'n'), ('通行', 'j'), ('金水路', 'n'), ('路向', 'n'), ('塌陷', 'v'), ('大坑', 'n'), ('纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'n'), ('通行', 'j')]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('暴雨', 'n'), ('公安', 'n'), ('力量', 'n'), ('金桥', 'nz'), ('宾馆', 'n'), ('门前', 's'), ('地下', 's'), ('隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'v'), ('通行', 'v'), ('金水路', 'ns'), ('南阳路', 'ns'), ('北米路', 'ns'), ('东塌', 'ns'), ('黄河路', 'ns'), ('郑纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'v'), ('通行', 'v'), ('平安', 'a'), ('郑州', 'ns'), ('交警', 'n'), ('交通', 'n'), ('广播', 'vn'), ('郑州', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('积水', 'n'), ('路段', 'n'), ('提醒', 'v'), ('暴雨', 'n'), ('公安', 'n'), ('力量', 'n'), ('宾馆', 'n'), ('隧道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'v'), ('通行', 'v'), ('郑纺机', 'n'), ('地下道', 'n'), ('积水', 'n'), ('严重', 'a'), ('无法', 'v'), ('通行', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[('防范', 'v'), ('云南昆明', 'ns'), ('持续', 'vd'), ('小时', 'n'), ('暴雨', 'n'), ('上午', 't'), ('暴雨', 'n'), ('影响', 'vn'), ('云南昆明', 'ns'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('交通', 'n'), ('中断', 'ns'), ('高峰', 'nr'), ('出现', 'v'), ('严重', 'a'), ('拥堵', 'v'), ('昆明市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('过去', 't'), ('小时', 'n'), ('昆明', 'ns'), ('主城', 'n'), ('五华区', 'ns'), ('盘龙区', 'ns'), ('北部', 'f'), ('出现', 'v'), ('大到暴雨', 'l'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('五华区', 'ns'), ('盘龙区', 'ns'), ('官渡区', 'n'), ('降雨', 'n'), ('持续', 'vd'), ('出现', 'v'), ('暴雨', 'n'), ('京报', 'nz'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('防范', 'v'), ('持续', 'vd'), ('小时', 'n'), ('暴雨', 'n'), ('上午', 't'), ('暴雨', 'n'), ('影响', 'vn'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('交通', 'n'), ('高峰', 'nr'), ('出现', 'v'), ('严重', 'a'), ('拥堵', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('过去', 't'), ('小时', 'n'), ('主城', 'n'), ('出现', 'v'), ('大到暴雨', 'l'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('官渡区', 'n'), ('降雨', 'n'), ('持续', 'vd'), ('出现', 'v'), ('暴雨', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[('防范', 'v'), ('云南', 'ns'), ('昆明', 'ns'), ('多区', 'ns'), ('持续', 'vn'), ('小时', 'n'), ('暴雨', 'n'), ('上午', 't'), ('暴雨', 'n'), ('影响', 'vn'), ('云南', 'ns'), ('昆明', 'ns'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('交通', 'n'), ('中断', 'v'), ('早高峰', 'n'), ('出现', 'v'), ('严重', 'ad'), ('拥堵', 'v'), ('昆明市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('过去', 't'), ('小时', 'n'), ('昆明', 'ns'), ('主城', 'ns'), ('五华区', 'ns'), ('盘龙区', 'n'), ('北部', 'f'), ('出现', 'v'), ('大到暴雨', 'l'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('五华区', 'ns'), ('盘龙区', 'n'), ('官渡区', 'ns'), ('降雨', 'v'), ('持续', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('新京报', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('防范', 'v'), ('持续', 'vn'), ('小时', 'n'), ('暴雨', 'n'), ('上午', 't'), ('暴雨', 'n'), ('影响', 'vn'), ('城区', 'n'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('交通', 'n'), ('中断', 'v'), ('早高峰', 'n'), ('出现', 'v'), ('严重', 'ad'), ('拥堵', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('过去', 't'), ('小时', 'n'), ('盘龙区', 'n'), ('出现', 'v'), ('大到暴雨', 'l'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('盘龙区', 'n'), ('降雨', 'v'), ('持续', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('新京报', 'n'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1816,47 +1816,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>#实时路况信息#游仙区绵梓路魏城段现目前暴雨骤至，能见度低，请过往车辆保持车距，注意行车安全。整秩序、保平安#</t>
+          <t>#实时路况信息#游仙区绵梓路魏城段现目前暴雨骤至，能见度低，请过往车辆保持车距，注意行车安全。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['#', '实时', '路况', '信息', '#', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '，', '能见度', '低', '，', '请', '过往', '车辆', '保持', '车距', '，', '注意', '行车', '安全', '。', '整', '秩序', '、', '保平安', '#']</t>
+          <t>['#', '实时', '路况', '信息', '#', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '，', '能见度', '低', '，', '请', '过往', '车辆', '保持', '车距', '，', '注意', '行车', '安全', '。']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['#', '实时', '路况', '信息', '#', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '，', '能见度', '低', '，', '请', '过往', '车辆', '保持', '车距', '，', '注意', '行车', '安全', '。', '整', '秩序', '、', '保平安', '#']</t>
+          <t>['#', '实时', '路况', '信息', '#', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '，', '能见度', '低', '，', '请', '过往', '车辆', '保持', '车距', '，', '注意', '行车', '安全', '。']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['实时', '路况', '信息', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '能见度', '过往', '车辆', '保持', '车距', '注意', '行车', '安全', '秩序', '保平安']</t>
+          <t>['实时', '路况', '信息', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '能见度', '过往', '车辆', '保持', '车距', '注意', '行车', '安全']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['实时', '路况', '信息', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '能见度', '过往', '车辆', '保持', '车距', '注意', '行车', '安全', '秩序', '保平安']</t>
+          <t>['实时', '路况', '信息', '游仙区', '绵梓路', '魏城', '段现', '目前', '暴雨', '骤至', '能见度', '过往', '车辆', '保持', '车距', '注意', '行车', '安全']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('实时', 'd'), ('路况', 'n'), ('信息', 'n'), ('#', 'x'), ('游仙区', 'n'), ('绵梓', 'ns'), ('路', 'n'), ('魏', 'nr'), ('城段', 'n'), ('现', 't'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'd'), ('，', 'x'), ('能见度', 'n'), ('低', 'a'), ('，', 'x'), ('请', 'v'), ('过往', 't'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('，', 'x'), ('注意', 'v'), ('行车', 'n'), ('安全', 'an'), ('。', 'x'), ('整', 'v'), ('秩序', 'n'), ('、', 'x'), ('保平安', 'ns'), ('#', 'x')]</t>
+          <t>[('#', 'x'), ('实时', 'd'), ('路况', 'n'), ('信息', 'n'), ('#', 'x'), ('游仙区', 'n'), ('绵梓', 'ns'), ('路', 'n'), ('魏', 'nr'), ('城段', 'n'), ('现', 't'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'd'), ('，', 'x'), ('能见度', 'n'), ('低', 'a'), ('，', 'x'), ('请', 'v'), ('过往', 't'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('，', 'x'), ('注意', 'v'), ('行车', 'n'), ('安全', 'an'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('实时', 'n'), ('路况', 'n'), ('信息', 'n'), ('#', 'vn'), ('游仙区', 'n'), ('绵梓路', 'n'), ('魏城', 'nr'), ('段现', 'nr'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'v'), ('，', 'w'), ('能见度', 'n'), ('低', 'a'), ('，', 'w'), ('请', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('，', 'w'), ('注意', 'v'), ('行车', 'v'), ('安全', 'a'), ('。', 'w'), ('整', 'v'), ('秩序', 'n'), ('、', 'w'), ('保平安', 'nz'), ('#', 'n')]</t>
+          <t>[('#', 'v'), ('实时', 'n'), ('路况', 'n'), ('信息', 'n'), ('#', 'vn'), ('游仙区', 'n'), ('绵梓路', 'n'), ('魏城', 'nr'), ('段现', 'nr'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'v'), ('，', 'w'), ('能见度', 'n'), ('低', 'a'), ('，', 'w'), ('请', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('，', 'w'), ('注意', 'v'), ('行车', 'v'), ('安全', 'a'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[('实时', 'd'), ('路况', 'n'), ('信息', 'n'), ('游仙区', 'n'), ('绵梓', 'ns'), ('城段', 'n'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'd'), ('能见度', 'n'), ('过往', 't'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('注意', 'v'), ('行车', 'n'), ('安全', 'an'), ('秩序', 'n'), ('保平安', 'ns')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('游仙区', 'n'), ('城段', 'n'), ('目前', 't'), ('暴雨', 'n'), ('能见度', 'n'), ('过往', 't'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('注意', 'v'), ('行车', 'n'), ('安全', 'an')]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[('实时', 'n'), ('路况', 'n'), ('信息', 'n'), ('游仙区', 'n'), ('绵梓路', 'n'), ('魏城', 'nr'), ('段现', 'nr'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'v'), ('能见度', 'n'), ('过往', 'vn'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('注意', 'v'), ('行车', 'v'), ('安全', 'a'), ('秩序', 'n'), ('保平安', 'nz')]</t>
+          <t>[('实时', 'n'), ('路况', 'n'), ('信息', 'n'), ('游仙区', 'n'), ('绵梓路', 'n'), ('魏城', 'nr'), ('段现', 'nr'), ('目前', 't'), ('暴雨', 'n'), ('骤至', 'v'), ('能见度', 'n'), ('过往', 'vn'), ('车辆', 'n'), ('保持', 'v'), ('车距', 'n'), ('注意', 'v'), ('行车', 'v'), ('安全', 'a')]</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('高速', 'd'), ('岳望', 'nr'), ('湘阴', 'ns'), ('湘阴', 'ns'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('岳望', 'nr'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('高速', 'd'), ('岳望', 'v'), ('段湘', 'nr'), ('阴东', 'nr'), ('湘阴', 'ns'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('岳望', 'v'), ('段湘', 'nr'), ('阴东', 'nr'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[('江西', 'ns'), ('预警', 'vn'), ('江西省', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('我省', 'r'), ('西北部', 'f'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大雨', 'n'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('宜春', 'ns'), ('南昌', 'ns'), ('萍乡', 'ns'), ('新余', 'b'), ('四市', 'ns'), ('抚州', 'ns'), ('九江', 'ns'), ('西部', 'f'), ('吉安市', 'ns'), ('北部', 'f'), ('部分', 'n'), ('地区', 'n'), ('累积', 'v'), ('雨量', 'n'), ('毫米', 'q'), ('以上', 'f'), ('局地', 'n'), ('伴有', 'v'), ('短时', 'b'), ('强降水', 'n'), ('雷电', 'n'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('强降雨', 'nr'), ('可能', 'v'), ('引发', 'v'), ('城乡', 'n'), ('内涝', 'n'), ('山洪', 'nr'), ('泥石流', 'n'), ('地质灾害', 'n'), ('防御', 'v'), ('指南', 'n'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('职责', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('交通管理', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('强降雨', 'nr'), ('路段', 'n'), ('采取', 'v'), ('交通管制', 'n'), ('措施', 'n'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('室外', 's'), ('电源', 'n'), ('暂停', 'd'), ('空旷', 'nr'), ('地方', 'n'), ('户外', 's'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('城市', 'ns'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('必要', 'd'), ('排涝', 'v'), ('措施', 'n')]</t>
+          <t>[('预警', 'vn'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大雨', 'n'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('新余', 'b'), ('部分', 'n'), ('地区', 'n'), ('累积', 'v'), ('雨量', 'n'), ('局地', 'n'), ('伴有', 'v'), ('短时', 'b'), ('强降水', 'n'), ('雷电', 'n'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('强降雨', 'nr'), ('可能', 'v'), ('引发', 'v'), ('城乡', 'n'), ('内涝', 'n'), ('山洪', 'nr'), ('泥石流', 'n'), ('地质灾害', 'n'), ('防御', 'v'), ('指南', 'n'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('职责', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('交通管理', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('强降雨', 'nr'), ('路段', 'n'), ('采取', 'v'), ('交通管制', 'n'), ('措施', 'n'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('电源', 'n'), ('空旷', 'nr'), ('地方', 'n'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('排涝', 'v'), ('措施', 'n')]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[('江西', 'ns'), ('预警', 'v'), ('江西省', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('我省', 'r'), ('西北部', 'f'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大雨', 'n'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('宜春', 'ns'), ('南昌', 'ns'), ('萍乡', 'ns'), ('新余四', 'ns'), ('抚州', 'ns'), ('九江', 'ns'), ('西部', 'f'), ('吉安市', 'ns'), ('北部', 'f'), ('部分', 'n'), ('地区', 'n'), ('累积', 'v'), ('雨量', 'n'), ('毫米', 'q'), ('以上', 'f'), ('局地', 'n'), ('伴有', 'v'), ('短时', 'b'), ('降水', 'n'), ('雷电', 'n'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('降雨', 'vn'), ('可能', 'v'), ('引发', 'v'), ('城乡', 'n'), ('内涝', 'vn'), ('山洪', 'n'), ('泥石流', 'n'), ('地质', 'n'), ('灾害', 'n'), ('防御', 'vn'), ('指南', 'n'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('职责', 'n'), ('做好', 'v'), ('防暴雨', 'vn'), ('工作', 'vn'), ('交通', 'n'), ('管理', 'vn'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('降雨', 'vn'), ('路段', 'n'), ('采取', 'v'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('室外', 's'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('户外', 's'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
+          <t>[('预警', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大雨', 'n'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('部分', 'n'), ('地区', 'n'), ('累积', 'v'), ('雨量', 'n'), ('局地', 'n'), ('伴有', 'v'), ('短时', 'b'), ('降水', 'n'), ('雷电', 'n'), ('强对流', 'n'), ('天气', 'n'), ('注意', 'v'), ('防范', 'v'), ('降雨', 'vn'), ('可能', 'v'), ('引发', 'v'), ('城乡', 'n'), ('内涝', 'vn'), ('山洪', 'n'), ('泥石流', 'n'), ('地质', 'n'), ('灾害', 'n'), ('防御', 'vn'), ('指南', 'n'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('职责', 'n'), ('做好', 'v'), ('防暴雨', 'vn'), ('工作', 'vn'), ('交通', 'n'), ('管理', 'vn'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('降雨', 'vn'), ('路段', 'n'), ('采取', 'v'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>#雅安##路况信息#截至点，因暴雨雅安汽车客运站、西门车站、名山车站暂停发班，雨城区所有农短暂时停运；芦山至飞仙，双石，太平暂时停班，芦山到雅安班线停班；宝兴至雅安班线暂停发班；荥经至雅安班线暂停发班，所有班线待雨势减小后恢复。@四川交通@四川路网@雅安同城会@中国交通频道·四川@生态雅安@雅安日报-北纬网</t>
+          <t>#雅安##路况信息#截至点，因暴雨雅安汽车客运站、西门车站、名山车站暂停发班，雨城区所有农短暂时停运；芦山至飞仙，双石，太平暂时停班，芦山到雅安班线停班；宝兴至雅安班线暂停发班；荥经至雅安班线暂停发班，所有班线待雨势减小后恢复。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['#', '雅安', '##', '路况', '信息', '#', '截至', '点', '，', '因', '暴雨', '雅安', '汽车', '客运站', '、', '西门', '车站', '、', '名山', '车站', '暂停', '发班', '，', '雨城区', '所有', '农', '短暂', '时', '停运', '；', '芦山', '至', '飞仙', '，', '双石', '，', '太平', '暂时', '停班', '，', '芦山', '到', '雅安', '班线', '停班', '；', '宝兴', '至', '雅安', '班线', '暂停', '发班', '；', '荥经', '至', '雅安', '班线', '暂停', '发班', '，', '所有', '班线', '待', '雨势', '减小', '后', '恢复', '。', '@', '四川', '交通', '@', '四川', '路网', '@', '雅安', '同城会', '@', '中国', '交通', '频道', '·', '四川', '@', '生态', '雅安', '@', '雅安', '日报', '-', '北纬', '网']</t>
+          <t>['#', '雅安', '##', '路况', '信息', '#', '截至', '点', '，', '因', '暴雨', '雅安', '汽车', '客运站', '、', '西门', '车站', '、', '名山', '车站', '暂停', '发班', '，', '雨城区', '所有', '农', '短暂', '时', '停运', '；', '芦山', '至', '飞仙', '，', '双石', '，', '太平', '暂时', '停班', '，', '芦山', '到', '雅安', '班线', '停班', '；', '宝兴', '至', '雅安', '班线', '暂停', '发班', '；', '荥经', '至', '雅安', '班线', '暂停', '发班', '，', '所有', '班线', '待', '雨势', '减小', '后', '恢复', '。']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['#', '雅安', '#', '#', '路况', '信息', '#', '截至点', '，', '因', '暴雨', '雅安', '汽车', '客运站', '、', '西门', '车站', '、', '名山', '车站', '暂停', '发班', '，', '雨城区', '所有', '农短', '暂时', '停运', '；', '芦山', '至', '飞仙', '，', '双石', '，', '太平', '暂时', '停班', '，', '芦山', '到', '雅安', '班线', '停班', '；', '宝兴', '至', '雅安', '班线', '暂停', '发班', '；', '荥经', '至', '雅安', '班线', '暂停', '发班', '，', '所有', '班线待', '雨势', '减小', '后', '恢复', '。', '@', '四川', '交通', '@', '四川', '路网', '@', '雅安同城', '会', '@', '中国', '交通', '频道', '·', '四川', '@', '生态', '雅安', '@', '雅安', '日报', '-', '北纬网']</t>
+          <t>['#', '雅安', '#', '#', '路况', '信息', '#', '截至点', '，', '因', '暴雨', '雅安', '汽车', '客运站', '、', '西门', '车站', '、', '名山', '车站', '暂停', '发班', '，', '雨城区', '所有', '农短', '暂时', '停运', '；', '芦山', '至', '飞仙', '，', '双石', '，', '太平', '暂时', '停班', '，', '芦山', '到', '雅安', '班线', '停班', '；', '宝兴', '至', '雅安', '班线', '暂停', '发班', '；', '荥经', '至', '雅安', '班线', '暂停', '发班', '，', '所有', '班线待', '雨势', '减小', '后', '恢复', '。']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['雅安', '路况', '信息', '截至', '暴雨', '雅安', '汽车', '客运站', '西门', '车站', '名山', '车站', '暂停', '发班', '雨城区', '所有', '短暂', '停运', '芦山', '飞仙', '双石', '太平', '暂时', '停班', '芦山', '雅安', '班线', '停班', '宝兴', '雅安', '班线', '暂停', '发班', '荥经', '雅安', '班线', '暂停', '发班', '所有', '班线', '雨势', '减小', '恢复', '四川', '交通', '四川', '路网', '雅安', '同城会', '中国', '交通', '频道', '四川', '生态', '雅安', '雅安', '日报', '北纬']</t>
+          <t>['雅安', '路况', '信息', '截至', '暴雨', '雅安', '汽车', '客运站', '西门', '车站', '名山', '车站', '暂停', '发班', '雨城区', '所有', '短暂', '停运', '芦山', '飞仙', '双石', '太平', '暂时', '停班', '芦山', '雅安', '班线', '停班', '宝兴', '雅安', '班线', '暂停', '发班', '荥经', '雅安', '班线', '暂停', '发班', '所有', '班线', '雨势', '减小', '恢复']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['雅安', '路况', '信息', '截至点', '暴雨', '雅安', '汽车', '客运站', '西门', '车站', '名山', '车站', '暂停', '发班', '雨城区', '所有', '农短', '暂时', '停运', '芦山', '飞仙', '双石', '太平', '暂时', '停班', '芦山', '雅安', '班线', '停班', '宝兴', '雅安', '班线', '暂停', '发班', '荥经', '雅安', '班线', '暂停', '发班', '所有', '班线待', '雨势', '减小', '恢复', '四川', '交通', '四川', '路网', '雅安同城', '中国', '交通', '频道', '四川', '生态', '雅安', '雅安', '日报', '北纬网']</t>
+          <t>['雅安', '路况', '信息', '截至点', '暴雨', '雅安', '汽车', '客运站', '西门', '车站', '名山', '车站', '暂停', '发班', '雨城区', '所有', '农短', '暂时', '停运', '芦山', '飞仙', '双石', '太平', '暂时', '停班', '芦山', '雅安', '班线', '停班', '宝兴', '雅安', '班线', '暂停', '发班', '荥经', '雅安', '班线', '暂停', '发班', '所有', '班线待', '雨势', '减小', '恢复']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('雅安', 'ns'), ('##', 'x'), ('路况', 'n'), ('信息', 'n'), ('#', 'x'), ('截至', 'v'), ('点', 'm'), ('，', 'x'), ('因', 'p'), ('暴雨', 'n'), ('雅安', 'ns'), ('汽车', 'n'), ('客运站', 'n'), ('、', 'x'), ('西门', 'ns'), ('车站', 'n'), ('、', 'x'), ('名山', 'n'), ('车站', 'n'), ('暂停', 'd'), ('发班', 'v'), ('，', 'x'), ('雨城区', 'ns'), ('所有', 'b'), ('农', 'zg'), ('短暂', 'a'), ('时', 'n'), ('停运', 'v'), ('；', 'x'), ('芦山', 'nr'), ('至', 'p'), ('飞仙', 'n'), ('，', 'x'), ('双石', 'n'), ('，', 'x'), ('太平', 'ns'), ('暂时', 'd'), ('停班', 'v'), ('，', 'x'), ('芦山', 'nr'), ('到', 'v'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('；', 'x'), ('宝兴', 'nr'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('；', 'x'), ('荥经', 'ns'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('，', 'x'), ('所有', 'b'), ('班线', 'n'), ('待', 'v'), ('雨势', 'n'), ('减小', 'v'), ('后', 'f'), ('恢复', 'v'), ('。', 'x'), ('@', 'x'), ('四川', 'ns'), ('交通', 'n'), ('@', 'x'), ('四川', 'ns'), ('路网', 'n'), ('@', 'x'), ('雅安', 'ns'), ('同城会', 'j'), ('@', 'x'), ('中国', 'ns'), ('交通', 'n'), ('频道', 'n'), ('·', 'x'), ('四川', 'ns'), ('@', 'x'), ('生态', 'n'), ('雅安', 'ns'), ('@', 'x'), ('雅安', 'ns'), ('日报', 'n'), ('-', 'x'), ('北纬', 'b'), ('网', 'n')]</t>
+          <t>[('#', 'x'), ('雅安', 'ns'), ('##', 'x'), ('路况', 'n'), ('信息', 'n'), ('#', 'x'), ('截至', 'v'), ('点', 'm'), ('，', 'x'), ('因', 'p'), ('暴雨', 'n'), ('雅安', 'ns'), ('汽车', 'n'), ('客运站', 'n'), ('、', 'x'), ('西门', 'ns'), ('车站', 'n'), ('、', 'x'), ('名山', 'n'), ('车站', 'n'), ('暂停', 'd'), ('发班', 'v'), ('，', 'x'), ('雨城区', 'ns'), ('所有', 'b'), ('农', 'zg'), ('短暂', 'a'), ('时', 'n'), ('停运', 'v'), ('；', 'x'), ('芦山', 'nr'), ('至', 'p'), ('飞仙', 'n'), ('，', 'x'), ('双石', 'n'), ('，', 'x'), ('太平', 'ns'), ('暂时', 'd'), ('停班', 'v'), ('，', 'x'), ('芦山', 'nr'), ('到', 'v'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('；', 'x'), ('宝兴', 'nr'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('；', 'x'), ('荥经', 'ns'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('，', 'x'), ('所有', 'b'), ('班线', 'n'), ('待', 'v'), ('雨势', 'n'), ('减小', 'v'), ('后', 'f'), ('恢复', 'v'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('雅安', 'ns'), ('#', 'n'), ('#', 'v'), ('路况', 'n'), ('信息', 'n'), ('#', 'n'), ('截至点', 'v'), ('，', 'w'), ('因', 'p'), ('暴雨', 'n'), ('雅安', 'nz'), ('汽车', 'n'), ('客运站', 'n'), ('、', 'w'), ('西门', 'ns'), ('车站', 'n'), ('、', 'w'), ('名山', 'ns'), ('车站', 'n'), ('暂停', 'v'), ('发班', 'v'), ('，', 'w'), ('雨城区', 'ns'), ('所有', 'b'), ('农短', 'n'), ('暂时', 'd'), ('停运', 'v'), ('；', 'w'), ('芦山', 'ns'), ('至', 'v'), ('飞仙', 'n'), ('，', 'w'), ('双石', 'n'), ('，', 'w'), ('太平', 'nz'), ('暂时', 'd'), ('停班', 'v'), ('，', 'w'), ('芦山', 'ns'), ('到', 'v'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('；', 'w'), ('宝兴', 'ns'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('；', 'w'), ('荥经', 'v'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('，', 'w'), ('所有', 'b'), ('班线待', 'vn'), ('雨势', 'n'), ('减小', 'v'), ('后', 'f'), ('恢复', 'v'), ('。', 'w'), ('@', 'v'), ('四川', 'ns'), ('交通', 'n'), ('@', 'v'), ('四川', 'ns'), ('路网', 'n'), ('@', 'v'), ('雅安同城', 'ns'), ('会', 'v'), ('@', 'v'), ('中国', 'ns'), ('交通', 'n'), ('频道', 'n'), ('·', 'w'), ('四川', 'ns'), ('@', 'n'), ('生态', 'n'), ('雅安', 'ns'), ('@', 'v'), ('雅安', 'ns'), ('日报', 'n'), ('-', 'v'), ('北纬网', 'n')]</t>
+          <t>[('#', 'v'), ('雅安', 'ns'), ('#', 'n'), ('#', 'v'), ('路况', 'n'), ('信息', 'n'), ('#', 'n'), ('截至点', 'v'), ('，', 'w'), ('因', 'p'), ('暴雨', 'n'), ('雅安', 'nz'), ('汽车', 'n'), ('客运站', 'n'), ('、', 'w'), ('西门', 'ns'), ('车站', 'n'), ('、', 'w'), ('名山', 'ns'), ('车站', 'n'), ('暂停', 'v'), ('发班', 'v'), ('，', 'w'), ('雨城区', 'ns'), ('所有', 'b'), ('农短', 'n'), ('暂时', 'd'), ('停运', 'v'), ('；', 'w'), ('芦山', 'ns'), ('至', 'v'), ('飞仙', 'n'), ('，', 'w'), ('双石', 'n'), ('，', 'w'), ('太平', 'nz'), ('暂时', 'd'), ('停班', 'v'), ('，', 'w'), ('芦山', 'ns'), ('到', 'v'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('；', 'w'), ('宝兴', 'ns'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('；', 'w'), ('荥经', 'v'), ('至', 'p'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('，', 'w'), ('所有', 'b'), ('班线待', 'vn'), ('雨势', 'n'), ('减小', 'v'), ('后', 'f'), ('恢复', 'v'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[('雅安', 'ns'), ('路况', 'n'), ('信息', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('雅安', 'ns'), ('汽车', 'n'), ('客运站', 'n'), ('西门', 'ns'), ('车站', 'n'), ('名山', 'n'), ('车站', 'n'), ('暂停', 'd'), ('发班', 'v'), ('雨城区', 'ns'), ('所有', 'b'), ('短暂', 'a'), ('停运', 'v'), ('芦山', 'nr'), ('飞仙', 'n'), ('双石', 'n'), ('太平', 'ns'), ('暂时', 'd'), ('停班', 'v'), ('芦山', 'nr'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('宝兴', 'nr'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('荥经', 'ns'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'd'), ('发班', 'v'), ('所有', 'b'), ('班线', 'n'), ('雨势', 'n'), ('减小', 'v'), ('恢复', 'v'), ('四川', 'ns'), ('交通', 'n'), ('四川', 'ns'), ('路网', 'n'), ('雅安', 'ns'), ('同城会', 'j'), ('中国', 'ns'), ('交通', 'n'), ('频道', 'n'), ('四川', 'ns'), ('生态', 'n'), ('雅安', 'ns'), ('雅安', 'ns'), ('日报', 'n'), ('北纬', 'b')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('截至', 'v'), ('暴雨', 'n'), ('汽车', 'n'), ('客运站', 'n'), ('车站', 'n'), ('名山', 'n'), ('车站', 'n'), ('发班', 'v'), ('所有', 'b'), ('短暂', 'a'), ('停运', 'v'), ('芦山', 'nr'), ('飞仙', 'n'), ('双石', 'n'), ('停班', 'v'), ('芦山', 'nr'), ('班线', 'n'), ('停班', 'v'), ('宝兴', 'nr'), ('班线', 'n'), ('发班', 'v'), ('班线', 'n'), ('发班', 'v'), ('所有', 'b'), ('班线', 'n'), ('雨势', 'n'), ('减小', 'v'), ('恢复', 'v')]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[('雅安', 'ns'), ('路况', 'n'), ('信息', 'n'), ('截至点', 'v'), ('暴雨', 'n'), ('雅安', 'nz'), ('汽车', 'n'), ('客运站', 'n'), ('西门', 'ns'), ('车站', 'n'), ('名山', 'ns'), ('车站', 'n'), ('暂停', 'v'), ('发班', 'v'), ('雨城区', 'ns'), ('所有', 'b'), ('农短', 'n'), ('暂时', 'd'), ('停运', 'v'), ('芦山', 'ns'), ('飞仙', 'n'), ('双石', 'n'), ('太平', 'nz'), ('暂时', 'd'), ('停班', 'v'), ('芦山', 'ns'), ('雅安', 'ns'), ('班线', 'n'), ('停班', 'v'), ('宝兴', 'ns'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('荥经', 'v'), ('雅安', 'ns'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('所有', 'b'), ('班线待', 'vn'), ('雨势', 'n'), ('减小', 'v'), ('恢复', 'v'), ('四川', 'ns'), ('交通', 'n'), ('四川', 'ns'), ('路网', 'n'), ('雅安同城', 'ns'), ('中国', 'ns'), ('交通', 'n'), ('频道', 'n'), ('四川', 'ns'), ('生态', 'n'), ('雅安', 'ns'), ('雅安', 'ns'), ('日报', 'n'), ('北纬网', 'n')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('截至点', 'v'), ('暴雨', 'n'), ('汽车', 'n'), ('客运站', 'n'), ('车站', 'n'), ('车站', 'n'), ('暂停', 'v'), ('发班', 'v'), ('所有', 'b'), ('农短', 'n'), ('停运', 'v'), ('飞仙', 'n'), ('双石', 'n'), ('停班', 'v'), ('班线', 'n'), ('停班', 'v'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('荥经', 'v'), ('班线', 'n'), ('暂停', 'v'), ('发班', 'v'), ('所有', 'b'), ('班线待', 'vn'), ('雨势', 'n'), ('减小', 'v'), ('恢复', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2036,47 +2036,47 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>#抗洪抢险#【致敬！暴雨中的藏蓝身影】，强降雨突袭安州，辖区千佛、高川等地发生山体滑坡，道路中断。危难之际，迅速出动，奔赴抗洪抢险最前沿。劝返车辆、疏导交通、抢修道路……哪里有需要，哪里就有他们忙碌的身影。#我为群众办实事#@四川长安网@四川公安@平安绵阳平安安州-的微博视频</t>
+          <t>#抗洪抢险#【致敬！暴雨中的藏蓝身影】，强降雨突袭安州，辖区千佛、高川等地发生山体滑坡，道路中断。危难之际，</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['#', '抗洪抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，', '迅速', '出动', '，', '奔赴', '抗洪抢险', '最前沿', '。', '劝返', '车辆', '、', '疏导', '交通', '、', '抢修', '道路', '…', '…', '哪里', '有', '需要', '，', '哪里', '就', '有', '他们', '忙碌', '的', '身影', '。', '#', '我', '为', '群众', '办实事', '#', '@', '四川', '长安', '网', '@', '四川', '公安', '@', '平安', '绵阳', '平安', '安州', '-', '的', '微博', '视频']</t>
+          <t>['#', '抗洪抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['#', '抗洪', '抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强', '降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，', '迅速', '出动', '，', '奔赴', '抗洪', '抢险', '最前沿', '。', '劝返', '车辆', '、', '疏导', '交通', '、', '抢修', '道路', '……', '哪里', '有', '需要', '，', '哪里', '就', '有', '他们', '忙碌', '的', '身影', '。', '#', '我', '为', '群众', '办', '实事', '#', '@', '四川', '长安网', '@', '四川', '公安', '@', '平安', '绵阳', '平安', '安州', '-', '的', '微博', '视频']</t>
+          <t>['#', '抗洪', '抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强', '降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['抗洪抢险', '致敬', '暴雨', '藏蓝', '身影', '强降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际', '迅速', '出动', '奔赴', '抗洪抢险', '最前沿', '劝返', '车辆', '疏导', '交通', '抢修', '道路', '需要', '忙碌', '身影', '群众', '办实事', '四川', '长安', '四川', '公安', '平安', '绵阳', '平安', '安州', '微博', '视频']</t>
+          <t>['抗洪抢险', '致敬', '暴雨', '藏蓝', '身影', '强降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['抗洪', '抢险', '致敬', '暴雨', '藏蓝', '身影', '降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际', '迅速', '出动', '奔赴', '抗洪', '抢险', '最前沿', '劝返', '车辆', '疏导', '交通', '抢修', '道路', '需要', '忙碌', '身影', '群众', '实事', '四川', '长安网', '四川', '公安', '平安', '绵阳', '平安', '安州', '微博', '视频']</t>
+          <t>['抗洪', '抢险', '致敬', '暴雨', '藏蓝', '身影', '降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('抗洪抢险', 'l'), ('#', 'x'), ('【', 'x'), ('致敬', 'v'), ('！', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('藏蓝', 'nz'), ('身影', 'n'), ('】', 'x'), ('，', 'x'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('，', 'x'), ('辖区', 'n'), ('千', 'm'), ('佛', 'n'), ('、', 'x'), ('高川', 'nr'), ('等', 'u'), ('地', 'uv'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('，', 'x'), ('道路', 'n'), ('中断', 'ns'), ('。', 'x'), ('危难', 'an'), ('之际', 'f'), ('，', 'x'), ('迅速', 'ad'), ('出动', 'v'), ('，', 'x'), ('奔赴', 'v'), ('抗洪抢险', 'l'), ('最前沿', 's'), ('。', 'x'), ('劝返', 'v'), ('车辆', 'n'), ('、', 'x'), ('疏导', 'v'), ('交通', 'n'), ('、', 'x'), ('抢修', 'v'), ('道路', 'n'), ('…', 'x'), ('…', 'x'), ('哪里', 'r'), ('有', 'v'), ('需要', 'v'), ('，', 'x'), ('哪里', 'r'), ('就', 'd'), ('有', 'v'), ('他们', 'r'), ('忙碌', 'a'), ('的', 'uj'), ('身影', 'n'), ('。', 'x'), ('#', 'x'), ('我', 'r'), ('为', 'p'), ('群众', 'n'), ('办实事', 'n'), ('#', 'x'), ('@', 'x'), ('四川', 'ns'), ('长安', 'ns'), ('网', 'n'), ('@', 'x'), ('四川', 'ns'), ('公安', 'n'), ('@', 'x'), ('平安', 'a'), ('绵阳', 'ns'), ('平安', 'a'), ('安州', 'ns'), ('-', 'x'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('抗洪抢险', 'l'), ('#', 'x'), ('【', 'x'), ('致敬', 'v'), ('！', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('藏蓝', 'nz'), ('身影', 'n'), ('】', 'x'), ('，', 'x'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('，', 'x'), ('辖区', 'n'), ('千', 'm'), ('佛', 'n'), ('、', 'x'), ('高川', 'nr'), ('等', 'u'), ('地', 'uv'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('，', 'x'), ('道路', 'n'), ('中断', 'ns'), ('。', 'x'), ('危难', 'an'), ('之际', 'f'), ('，', 'x')]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('#', 'v'), ('【', 'v'), ('致敬', 'v'), ('！', 'w'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('藏蓝', 'b'), ('身影', 'n'), ('】', 'v'), ('，', 'w'), ('强', 'a'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('，', 'w'), ('辖区', 'n'), ('千佛', 'n'), ('、', 'w'), ('高川', 'ns'), ('等', 'u'), ('地', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('，', 'w'), ('道路', 'n'), ('中断', 'v'), ('。', 'w'), ('危难', 'n'), ('之际', 'f'), ('，', 'w'), ('迅速', 'ad'), ('出动', 'v'), ('，', 'w'), ('奔赴', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('最前沿', 's'), ('。', 'w'), ('劝返', 'v'), ('车辆', 'n'), ('、', 'w'), ('疏导', 'v'), ('交通', 'n'), ('、', 'w'), ('抢修', 'vn'), ('道路', 'n'), ('……', 'w'), ('哪里', 'r'), ('有', 'v'), ('需要', 'n'), ('，', 'w'), ('哪里', 'r'), ('就', 'd'), ('有', 'v'), ('他们', 'r'), ('忙碌', 'a'), ('的', 'u'), ('身影', 'n'), ('。', 'w'), ('#', 'v'), ('我', 'r'), ('为', 'v'), ('群众', 'n'), ('办', 'v'), ('实事', 'n'), ('#', 'v'), ('@', 'v'), ('四川', 'ns'), ('长安网', 'n'), ('@', 'v'), ('四川', 'ns'), ('公安', 'n'), ('@', 'v'), ('平安', 'nz'), ('绵阳', 'ns'), ('平安', 'nz'), ('安州', 'ns'), ('-', 'v'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('#', 'v'), ('【', 'v'), ('致敬', 'v'), ('！', 'w'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('藏蓝', 'b'), ('身影', 'n'), ('】', 'v'), ('，', 'w'), ('强', 'a'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('，', 'w'), ('辖区', 'n'), ('千佛', 'n'), ('、', 'w'), ('高川', 'ns'), ('等', 'u'), ('地', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('，', 'w'), ('道路', 'n'), ('中断', 'v'), ('。', 'w'), ('危难', 'n'), ('之际', 'f'), ('，', 'w')]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[('抗洪抢险', 'l'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'nz'), ('身影', 'n'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('辖区', 'n'), ('高川', 'nr'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('道路', 'n'), ('中断', 'ns'), ('危难', 'an'), ('之际', 'f'), ('迅速', 'ad'), ('出动', 'v'), ('奔赴', 'v'), ('抗洪抢险', 'l'), ('最前沿', 's'), ('劝返', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('抢修', 'v'), ('道路', 'n'), ('需要', 'v'), ('忙碌', 'a'), ('身影', 'n'), ('群众', 'n'), ('办实事', 'n'), ('四川', 'ns'), ('长安', 'ns'), ('四川', 'ns'), ('公安', 'n'), ('平安', 'a'), ('绵阳', 'ns'), ('平安', 'a'), ('安州', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('抗洪抢险', 'l'), ('致敬', 'v'), ('暴雨', 'n'), ('身影', 'n'), ('强降雨', 'nr'), ('突袭', 'vn'), ('辖区', 'n'), ('高川', 'nr'), ('发生', 'v'), ('山体', 'n'), ('道路', 'n'), ('危难', 'an')]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[('抗洪', 'v'), ('抢险', 'v'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'b'), ('身影', 'n'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('辖区', 'n'), ('千佛', 'n'), ('高川', 'ns'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('道路', 'n'), ('中断', 'v'), ('危难', 'n'), ('之际', 'f'), ('迅速', 'ad'), ('出动', 'v'), ('奔赴', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('最前沿', 's'), ('劝返', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('抢修', 'vn'), ('道路', 'n'), ('需要', 'n'), ('忙碌', 'a'), ('身影', 'n'), ('群众', 'n'), ('实事', 'n'), ('四川', 'ns'), ('长安网', 'n'), ('四川', 'ns'), ('公安', 'n'), ('平安', 'nz'), ('绵阳', 'ns'), ('平安', 'nz'), ('安州', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('抗洪', 'v'), ('抢险', 'v'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'b'), ('身影', 'n'), ('降雨', 'vn'), ('突袭', 'v'), ('辖区', 'n'), ('千佛', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('道路', 'n'), ('中断', 'v'), ('危难', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【#河南市民将车停满高架交警不处罚#】据，河南洛阳将迎来新一轮的强降雨，市民未雨绸缪，纷纷把车开出地下车库，停到地势较高的地方。涧西区某高架两侧停满了车，高架秒变停车场，私家车排起百米长龙。据悉，路面上的违停车辆如果不影响城市交通可不予处罚。沸点拍客的微博视频</t>
+          <t>【#河南市民将车停满高架交警不处罚#】据</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['【', '#', '河南', '市民', '将车', '停满', '高架', '交警', '不', '处罚', '#', '】', '据', '，', '河南', '洛阳', '将', '迎来', '新一轮', '的', '强降雨', '，', '市民', '未雨绸缪', '，', '纷纷', '把', '车', '开出', '地下', '车库', '，', '停', '到', '地势', '较', '高', '的', '地方', '。', '涧西区', '某', '高架', '两侧', '停满', '了', '车', '，', '高架', '秒', '变', '停车场', '，', '私家车', '排', '起', '百米', '长龙', '。', '据悉', '，', '路面', '上', '的', '违停', '车辆', '如果', '不', '影响', '城市交通', '可', '不予', '处罚', '。', '沸点', '拍客', '的', '微博', '视频']</t>
+          <t>['【', '#', '河南', '市民', '将车', '停满', '高架', '交警', '不', '处罚', '#', '】', '据']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['【', '#', '河南', '市民', '将', '车', '停满', '高架', '交警', '不', '处罚', '#', '】', '据', '，', '河南', '洛阳', '将', '迎来', '新', '一', '轮', '的', '强', '降雨', '，', '市民', '未雨绸缪', '，', '纷纷', '把', '车', '开出', '地下', '车库', '，', '停到', '地势', '较', '高', '的', '地方', '。', '涧西区', '某', '高架', '两侧', '停满', '了', '车', '，', '高架', '秒变', '停车场', '，', '私家车', '排起', '百', '米', '长龙', '。', '据悉', '，', '路面', '上', '的', '违停', '车辆', '如果', '不', '影响', '城市', '交通', '可不', '予', '处罚', '。', '沸点', '拍客', '的', '微博', '视频']</t>
+          <t>['【', '#', '河南', '市民', '将', '车', '停满', '高架', '交警', '不', '处罚', '#', '】', '据']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['市民', '将车', '停满', '高架', '交警', '处罚', '洛阳', '迎来', '新一轮', '强降雨', '市民', '未雨绸缪', '纷纷', '开出', '地下', '车库', '地势', '地方', '涧西区', '高架', '两侧', '停满', '高架', '停车场', '私家车', '百米', '长龙', '据悉', '路面', '违停', '车辆', '影响', '城市交通', '不予', '处罚', '沸点', '拍客', '微博', '视频']</t>
+          <t>['市民', '将车', '停满', '高架', '交警', '处罚']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['市民', '停满', '高架', '交警', '处罚', '洛阳', '迎来', '降雨', '市民', '未雨绸缪', '纷纷', '开出', '地下', '车库', '停到', '地势', '地方', '涧西区', '高架', '两侧', '停满', '高架', '秒变', '停车场', '私家车', '排起', '长龙', '据悉', '路面', '违停', '车辆', '影响', '城市', '交通', '可不', '处罚', '沸点', '拍客', '微博', '视频']</t>
+          <t>['市民', '停满', '高架', '交警', '处罚']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('#', 'x'), ('河南', 'ns'), ('市民', 'n'), ('将车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'j'), ('不', 'd'), ('处罚', 'v'), ('#', 'x'), ('】', 'x'), ('据', 'p'), ('，', 'x'), ('河南', 'ns'), ('洛阳', 'ns'), ('将', 'd'), ('迎来', 'v'), ('新一轮', 'nz'), ('的', 'uj'), ('强降雨', 'nr'), ('，', 'x'), ('市民', 'n'), ('未雨绸缪', 'i'), ('，', 'x'), ('纷纷', 'd'), ('把', 'p'), ('车', 'n'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('，', 'x'), ('停', 'v'), ('到', 'v'), ('地势', 'n'), ('较高', 'a'), ('的', 'uj'), ('地方', 'n'), ('。', 'x'), ('涧西区', 'ns'), ('某', 'r'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('了', 'ul'), ('车', 'n'), ('，', 'x'), ('高架', 'n'), ('秒', 'm'), ('变', 'v'), ('停车场', 'n'), ('，', 'x'), ('私家车', 'n'), ('排', 'v'), ('起', 'v'), ('百米', 'm'), ('长龙', 'ns'), ('。', 'x'), ('据悉', 'v'), ('，', 'x'), ('路面', 'n'), ('上', 'f'), ('的', 'uj'), ('违停', 'v'), ('车辆', 'n'), ('如果', 'c'), ('不', 'd'), ('影响', 'vn'), ('城市交通', 'nt'), ('可', 'v'), ('不予', 'v'), ('处罚', 'v'), ('。', 'x'), ('沸点', 'n'), ('拍客', 'v'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'x'), ('#', 'x'), ('河南', 'ns'), ('市民', 'n'), ('将车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'j'), ('不', 'd'), ('处罚', 'v'), ('#', 'x'), ('】', 'x'), ('据', 'p')]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[('【', 'nr'), ('#', 'v'), ('河南', 'ns'), ('市民', 'n'), ('将', 'p'), ('车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'n'), ('不', 'd'), ('处罚', 'v'), ('#', 'n'), ('】', 'v'), ('据', 'p'), ('，', 'w'), ('河南', 'ns'), ('洛阳', 'ns'), ('将', 'd'), ('迎来', 'v'), ('新', 'a'), ('一', 'm'), ('轮', 'q'), ('的', 'u'), ('强', 'a'), ('降雨', 'vn'), ('，', 'w'), ('市民', 'n'), ('未雨绸缪', 'i'), ('，', 'w'), ('纷纷', 'd'), ('把', 'p'), ('车', 'n'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('，', 'w'), ('停到', 'v'), ('地势', 'n'), ('较', 'd'), ('高', 'a'), ('的', 'u'), ('地方', 'n'), ('。', 'w'), ('涧西区', 'n'), ('某', 'r'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('了', 'u'), ('车', 'n'), ('，', 'w'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('，', 'w'), ('私家车', 'n'), ('排起', 'v'), ('百', 'm'), ('米', 'q'), ('长龙', 'n'), ('。', 'w'), ('据悉', 'v'), ('，', 'w'), ('路面', 'n'), ('上', 'v'), ('的', 'u'), ('违停', 'vn'), ('车辆', 'n'), ('如果', 'c'), ('不', 'd'), ('影响', 'v'), ('城市', 'n'), ('交通', 'n'), ('可不', 'd'), ('予', 'v'), ('处罚', 'vn'), ('。', 'w'), ('沸点', 'n'), ('拍客', 'v'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'nr'), ('#', 'v'), ('河南', 'ns'), ('市民', 'n'), ('将', 'p'), ('车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'n'), ('不', 'd'), ('处罚', 'v'), ('#', 'n'), ('】', 'n'), ('据', 'p')]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[('市民', 'n'), ('将车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'j'), ('处罚', 'v'), ('洛阳', 'ns'), ('迎来', 'v'), ('新一轮', 'nz'), ('强降雨', 'nr'), ('市民', 'n'), ('未雨绸缪', 'i'), ('纷纷', 'd'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('地势', 'n'), ('较高', 'a'), ('地方', 'n'), ('涧西区', 'ns'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('高架', 'n'), ('停车场', 'n'), ('私家车', 'n'), ('百米', 'm'), ('长龙', 'ns'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'v'), ('车辆', 'n'), ('影响', 'vn'), ('城市交通', 'nt'), ('不予', 'v'), ('处罚', 'v'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('市民', 'n'), ('将车', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'j'), ('处罚', 'v')]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[('市民', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'n'), ('处罚', 'v'), ('洛阳', 'ns'), ('迎来', 'v'), ('降雨', 'vn'), ('市民', 'n'), ('未雨绸缪', 'i'), ('纷纷', 'd'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('停到', 'v'), ('地势', 'n'), ('地方', 'n'), ('涧西区', 'n'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('私家车', 'n'), ('排起', 'v'), ('长龙', 'n'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'vn'), ('车辆', 'n'), ('影响', 'v'), ('城市', 'n'), ('交通', 'n'), ('可不', 'd'), ('处罚', 'vn'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('市民', 'n'), ('停满', 'v'), ('高架', 'n'), ('交警', 'n'), ('处罚', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[('来不及', 'v'), ('转移', 'v'), ('高处', 'd'), ('尽快', 'd'), ('寻找', 'v'), ('身边', 's'), ('漂浮物', 'n'), ('固守', 'a'), ('待援', 'v'), ('不要', 'df'), ('盲目', 'n'), ('逃生', 'v'), ('不要', 'df'), ('驾驶', 'v'), ('车辆', 'n'), ('慌乱', 'a'), ('出行', 'v'), ('尽快', 'd'), ('离开', 'v'), ('公共交通', 'nt'), ('设施', 'n'), ('撤离', 'v'), ('集体行动', 'n'), ('拉紧', 'v'), ('远离', 'v'), ('电闸', 'n'), ('配电箱', 'nz'), ('桥梁', 'n'), ('远离', 'v'), ('低洼', 'a'), ('区域', 'n'), ('下坡', 'ns'), ('道路', 'n'), ('不要', 'df'), ('光脚', 'n'), ('拖鞋', 'n'), ('行动', 'vn'), ('瓶装水', 'n'), ('煮熟', 'v'), ('自来水', 'l'), ('高热量', 'n'), ('食物', 'n'), ('保存', 'v'), ('体力', 'n'), ('服从', 'v'), ('指挥', 'v'), ('相信', 'v'), ('国家', 'n'), ('政府', 'n'), ('暴雨', 'n')]</t>
+          <t>[('来不及', 'v'), ('转移', 'v'), ('寻找', 'v'), ('漂浮物', 'n'), ('固守', 'a'), ('待援', 'v'), ('盲目', 'n'), ('逃生', 'v'), ('驾驶', 'v'), ('车辆', 'n'), ('慌乱', 'a'), ('出行', 'v'), ('离开', 'v'), ('设施', 'n'), ('撤离', 'v'), ('集体行动', 'n'), ('拉紧', 'v'), ('远离', 'v'), ('电闸', 'n'), ('桥梁', 'n'), ('远离', 'v'), ('低洼', 'a'), ('区域', 'n'), ('道路', 'n'), ('光脚', 'n'), ('拖鞋', 'n'), ('行动', 'vn'), ('瓶装水', 'n'), ('煮熟', 'v'), ('自来水', 'l'), ('高热量', 'n'), ('食物', 'n'), ('保存', 'v'), ('体力', 'n'), ('服从', 'v'), ('指挥', 'v'), ('相信', 'v'), ('国家', 'n'), ('政府', 'n'), ('暴雨', 'n')]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[('来不及', 'v'), ('转移', 'v'), ('高处', 'n'), ('尽快', 'd'), ('寻找', 'v'), ('身边', 's'), ('漂浮物', 'n'), ('固守', 'v'), ('待援', 'v'), ('不要', 'd'), ('盲目', 'ad'), ('逃生', 'v'), ('不要', 'd'), ('驾驶', 'v'), ('车辆', 'n'), ('慌乱', 'a'), ('出行', 'vn'), ('尽快', 'd'), ('离开', 'v'), ('公共', 'b'), ('交通', 'n'), ('设施', 'n'), ('撤离', 'v'), ('集体', 'n'), ('行动', 'vn'), ('紧手', 'n'), ('远离', 'v'), ('电闸', 'n'), ('配电箱', 'n'), ('桥梁', 'n'), ('远离', 'v'), ('低洼', 'a'), ('区域', 'n'), ('下坡', 'vn'), ('道路', 'n'), ('不要', 'd'), ('光脚', 'i'), ('拖鞋', 'n'), ('行动', 'vn'), ('装水', 'v'), ('煮熟', 'v'), ('自来水', 'n'), ('热量', 'n'), ('食物', 'n'), ('保存', 'v'), ('体力', 'n'), ('服从', 'v'), ('指挥', 'v'), ('相信', 'v'), ('国家', 'n'), ('政府', 'n'), ('暴雨', 'n')]</t>
+          <t>[('来不及', 'v'), ('转移', 'v'), ('高处', 'n'), ('寻找', 'v'), ('漂浮物', 'n'), ('固守', 'v'), ('待援', 'v'), ('盲目', 'ad'), ('逃生', 'v'), ('驾驶', 'v'), ('车辆', 'n'), ('慌乱', 'a'), ('出行', 'vn'), ('离开', 'v'), ('公共', 'b'), ('交通', 'n'), ('设施', 'n'), ('撤离', 'v'), ('集体', 'n'), ('行动', 'vn'), ('紧手', 'n'), ('远离', 'v'), ('电闸', 'n'), ('配电箱', 'n'), ('桥梁', 'n'), ('远离', 'v'), ('低洼', 'a'), ('区域', 'n'), ('下坡', 'vn'), ('道路', 'n'), ('光脚', 'i'), ('拖鞋', 'n'), ('行动', 'vn'), ('装水', 'v'), ('煮熟', 'v'), ('自来水', 'n'), ('热量', 'n'), ('食物', 'n'), ('保存', 'v'), ('体力', 'n'), ('服从', 'v'), ('指挥', 'v'), ('相信', 'v'), ('国家', 'n'), ('政府', 'n'), ('暴雨', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[('感谢', 'v'), ('郑州', 'ns'), ('武警', 'j'), ('协助', 'v'), ('被困', 'a'), ('群众', 'n'), ('脱险', 'n'), ('直到', 'v'), ('回家', 'n'), ('河南省', 'ns'), ('郑州市', 'ns'), ('康复', 'nr'), ('交通', 'n'), ('陇海路', 'ns'), ('一线', 'm'), ('被困', 'a'), ('群众', 'n'), ('武警', 'j'), ('总队', 'n'), ('机动', 'n'), ('支队', 'n'), ('特战', 'n'), ('大队', 'n'), ('出动', 'v'), ('兵力', 'n'), ('帮助', 'v'), ('受困', 'v'), ('群众', 'n'), ('脱离危险', 'i'), ('群众', 'n'), ('送到', 'v'), ('家里', 's'), ('暴雨', 'n'), ('暴雨', 'n'), ('互助', 'v'), ('放映厅', 'n'), ('央视网', 'nt'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('感谢', 'v'), ('武警', 'j'), ('协助', 'v'), ('被困', 'a'), ('群众', 'n'), ('脱险', 'n'), ('直到', 'v'), ('回家', 'n'), ('康复', 'nr'), ('交通', 'n'), ('被困', 'a'), ('群众', 'n'), ('武警', 'j'), ('总队', 'n'), ('机动', 'n'), ('支队', 'n'), ('特战', 'n'), ('大队', 'n'), ('出动', 'v'), ('兵力', 'n'), ('帮助', 'v'), ('受困', 'v'), ('群众', 'n'), ('脱离危险', 'i'), ('群众', 'n'), ('送到', 'v'), ('暴雨', 'n'), ('暴雨', 'n'), ('互助', 'v'), ('放映厅', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[('感谢', 'v'), ('郑州', 'ns'), ('武警', 'n'), ('协助', 'v'), ('被困', 'v'), ('群众', 'n'), ('脱险', 'v'), ('直到', 'v'), ('回家', 'v'), ('河南省', 'ns'), ('郑州市', 'ns'), ('康复街', 'ns'), ('交通路', 'n'), ('陇海路', 'ns'), ('一线', 'n'), ('被困', 'v'), ('群众', 'n'), ('余人', 'n'), ('武警', 'n'), ('总队', 'n'), ('机动', 'b'), ('支队', 'n'), ('特战', 'vn'), ('大队', 'n'), ('出动', 'v'), ('名兵力', 'n'), ('帮助', 'v'), ('受困', 'v'), ('群众', 'n'), ('脱离', 'v'), ('危险', 'an'), ('群众', 'n'), ('送到', 'v'), ('家里', 's'), ('暴雨', 'n'), ('暴雨', 'n'), ('互助', 'v'), ('微博', 'a'), ('放映', 'vn'), ('央视', 'j'), ('网快', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('感谢', 'v'), ('武警', 'n'), ('协助', 'v'), ('被困', 'v'), ('群众', 'n'), ('脱险', 'v'), ('直到', 'v'), ('回家', 'v'), ('交通路', 'n'), ('一线', 'n'), ('被困', 'v'), ('群众', 'n'), ('余人', 'n'), ('武警', 'n'), ('总队', 'n'), ('机动', 'b'), ('支队', 'n'), ('特战', 'vn'), ('大队', 'n'), ('出动', 'v'), ('名兵力', 'n'), ('帮助', 'v'), ('受困', 'v'), ('群众', 'n'), ('脱离', 'v'), ('危险', 'an'), ('群众', 'n'), ('送到', 'v'), ('暴雨', 'n'), ('暴雨', 'n'), ('互助', 'v'), ('微博', 'a'), ('放映', 'vn'), ('央视', 'j'), ('网快', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[('广州', 'ns'), ('下班', 'v'), ('天气', 'n'), ('广州市', 'ns'), ('气象台', 'n'), ('预测', 'vn'), ('目前', 't'), ('我市', 'r'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('阵雨', 'n'), ('增城', 'v'), ('雨势', 'n'), ('较大', 'a'), ('预计', 'vn'), ('今天', 't'), ('下班', 'v'), ('高峰期', 'n'), ('广州市区', 'ns'), ('多云到阴', 'l'), ('阵雨', 'n'), ('台风', 'ns'), ('外围', 'f'), ('环流', 'n'), ('影响', 'vn'), ('降水', 'n'), ('频繁', 'a'), ('路面', 'n'), ('湿滑', 'v'), ('出行', 'v'), ('注意', 'v'), ('交通安全', 'l'), ('今天', 't'), ('夜间', 't'), ('广州市区', 'ns'), ('有中', 'r'), ('雷雨', 'nr'), ('局部', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防御', 'v')]</t>
+          <t>[('下班', 'v'), ('天气', 'n'), ('气象台', 'n'), ('预测', 'vn'), ('目前', 't'), ('地区', 'n'), ('出现', 'v'), ('阵雨', 'n'), ('增城', 'v'), ('雨势', 'n'), ('较大', 'a'), ('预计', 'vn'), ('今天', 't'), ('下班', 'v'), ('高峰期', 'n'), ('多云到阴', 'l'), ('阵雨', 'n'), ('环流', 'n'), ('影响', 'vn'), ('降水', 'n'), ('频繁', 'a'), ('路面', 'n'), ('湿滑', 'v'), ('出行', 'v'), ('注意', 'v'), ('交通安全', 'l'), ('今天', 't'), ('夜间', 't'), ('雷雨', 'nr'), ('局部', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防御', 'v')]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[('广州', 'ns'), ('下班', 'v'), ('天气', 'n'), ('广州市', 'ns'), ('气象台', 'n'), ('预测', 'v'), ('目前', 't'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('阵雨', 'n'), ('从化', 'v'), ('增城', 'ns'), ('雨势', 'n'), ('预计', 'v'), ('今天', 't'), ('下班', 'v'), ('高峰期', 'n'), ('广州', 'ns'), ('市区', 's'), ('多云', 'n'), ('阴天', 'n'), ('阵雨', 'n'), ('台风', 'n'), ('外围', 'f'), ('环流', 'n'), ('影响', 'vn'), ('降水', 'n'), ('频繁', 'a'), ('路面', 'n'), ('湿滑', 'a'), ('出行', 'v'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('今天', 't'), ('夜间', 't'), ('广州', 'ns'), ('市区', 's'), ('雷雨', 'n'), ('局部', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防御', 'v')]</t>
+          <t>[('下班', 'v'), ('天气', 'n'), ('气象台', 'n'), ('预测', 'v'), ('目前', 't'), ('地区', 'n'), ('出现', 'v'), ('阵雨', 'n'), ('从化', 'v'), ('雨势', 'n'), ('预计', 'v'), ('今天', 't'), ('下班', 'v'), ('高峰期', 'n'), ('多云', 'n'), ('阴天', 'n'), ('阵雨', 'n'), ('台风', 'n'), ('环流', 'n'), ('影响', 'vn'), ('降水', 'n'), ('频繁', 'a'), ('路面', 'n'), ('湿滑', 'a'), ('出行', 'v'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('今天', 't'), ('夜间', 't'), ('雷雨', 'n'), ('局部', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防御', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2311,47 +2311,47 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>#抗洪抢险#【致敬！暴雨中的藏蓝身影】，强降雨突袭安州，辖区千佛、高川等地发生山体滑坡，道路中断。危难之际，迅速出动，奔赴抗洪抢险最前沿。劝返车辆、疏导交通、抢修道路……哪里有需要，哪里就有他们忙碌的身影。#我为群众办实事#@四川长安网@四川公安@平安绵阳平安安州-的微博视频</t>
+          <t>#抗洪抢险#【致敬！暴雨中的藏蓝身影】，强降雨突袭安州，辖区千佛、高川等地发生山体滑坡，道路中断。危难之际，</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['#', '抗洪抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，', '迅速', '出动', '，', '奔赴', '抗洪抢险', '最前沿', '。', '劝返', '车辆', '、', '疏导', '交通', '、', '抢修', '道路', '…', '…', '哪里', '有', '需要', '，', '哪里', '就', '有', '他们', '忙碌', '的', '身影', '。', '#', '我', '为', '群众', '办实事', '#', '@', '四川', '长安', '网', '@', '四川', '公安', '@', '平安', '绵阳', '平安', '安州', '-', '的', '微博', '视频']</t>
+          <t>['#', '抗洪抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['#', '抗洪', '抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强', '降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，', '迅速', '出动', '，', '奔赴', '抗洪', '抢险', '最前沿', '。', '劝返', '车辆', '、', '疏导', '交通', '、', '抢修', '道路', '……', '哪里', '有', '需要', '，', '哪里', '就', '有', '他们', '忙碌', '的', '身影', '。', '#', '我', '为', '群众', '办', '实事', '#', '@', '四川', '长安网', '@', '四川', '公安', '@', '平安', '绵阳', '平安', '安州', '-', '的', '微博', '视频']</t>
+          <t>['#', '抗洪', '抢险', '#', '【', '致敬', '！', '暴雨', '中', '的', '藏蓝', '身影', '】', '，', '强', '降雨', '突袭', '安州', '，', '辖区', '千佛', '、', '高川', '等', '地', '发生', '山体', '滑坡', '，', '道路', '中断', '。', '危难', '之际', '，']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['抗洪抢险', '致敬', '暴雨', '藏蓝', '身影', '强降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际', '迅速', '出动', '奔赴', '抗洪抢险', '最前沿', '劝返', '车辆', '疏导', '交通', '抢修', '道路', '需要', '忙碌', '身影', '群众', '办实事', '四川', '长安', '四川', '公安', '平安', '绵阳', '平安', '安州', '微博', '视频']</t>
+          <t>['抗洪抢险', '致敬', '暴雨', '藏蓝', '身影', '强降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['抗洪', '抢险', '致敬', '暴雨', '藏蓝', '身影', '降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际', '迅速', '出动', '奔赴', '抗洪', '抢险', '最前沿', '劝返', '车辆', '疏导', '交通', '抢修', '道路', '需要', '忙碌', '身影', '群众', '实事', '四川', '长安网', '四川', '公安', '平安', '绵阳', '平安', '安州', '微博', '视频']</t>
+          <t>['抗洪', '抢险', '致敬', '暴雨', '藏蓝', '身影', '降雨', '突袭', '安州', '辖区', '千佛', '高川', '发生', '山体', '滑坡', '道路', '中断', '危难', '之际']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('抗洪抢险', 'l'), ('#', 'x'), ('【', 'x'), ('致敬', 'v'), ('！', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('藏蓝', 'nz'), ('身影', 'n'), ('】', 'x'), ('，', 'x'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('，', 'x'), ('辖区', 'n'), ('千', 'm'), ('佛', 'n'), ('、', 'x'), ('高川', 'nr'), ('等', 'u'), ('地', 'uv'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('，', 'x'), ('道路', 'n'), ('中断', 'ns'), ('。', 'x'), ('危难', 'an'), ('之际', 'f'), ('，', 'x'), ('迅速', 'ad'), ('出动', 'v'), ('，', 'x'), ('奔赴', 'v'), ('抗洪抢险', 'l'), ('最前沿', 's'), ('。', 'x'), ('劝返', 'v'), ('车辆', 'n'), ('、', 'x'), ('疏导', 'v'), ('交通', 'n'), ('、', 'x'), ('抢修', 'v'), ('道路', 'n'), ('…', 'x'), ('…', 'x'), ('哪里', 'r'), ('有', 'v'), ('需要', 'v'), ('，', 'x'), ('哪里', 'r'), ('就', 'd'), ('有', 'v'), ('他们', 'r'), ('忙碌', 'a'), ('的', 'uj'), ('身影', 'n'), ('。', 'x'), ('#', 'x'), ('我', 'r'), ('为', 'p'), ('群众', 'n'), ('办实事', 'n'), ('#', 'x'), ('@', 'x'), ('四川', 'ns'), ('长安', 'ns'), ('网', 'n'), ('@', 'x'), ('四川', 'ns'), ('公安', 'n'), ('@', 'x'), ('平安', 'a'), ('绵阳', 'ns'), ('平安', 'a'), ('安州', 'ns'), ('-', 'x'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('抗洪抢险', 'l'), ('#', 'x'), ('【', 'x'), ('致敬', 'v'), ('！', 'x'), ('暴雨', 'n'), ('中', 'f'), ('的', 'uj'), ('藏蓝', 'nz'), ('身影', 'n'), ('】', 'x'), ('，', 'x'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('，', 'x'), ('辖区', 'n'), ('千', 'm'), ('佛', 'n'), ('、', 'x'), ('高川', 'nr'), ('等', 'u'), ('地', 'uv'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('，', 'x'), ('道路', 'n'), ('中断', 'ns'), ('。', 'x'), ('危难', 'an'), ('之际', 'f'), ('，', 'x')]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('#', 'v'), ('【', 'v'), ('致敬', 'v'), ('！', 'w'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('藏蓝', 'b'), ('身影', 'n'), ('】', 'v'), ('，', 'w'), ('强', 'a'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('，', 'w'), ('辖区', 'n'), ('千佛', 'n'), ('、', 'w'), ('高川', 'ns'), ('等', 'u'), ('地', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('，', 'w'), ('道路', 'n'), ('中断', 'v'), ('。', 'w'), ('危难', 'n'), ('之际', 'f'), ('，', 'w'), ('迅速', 'ad'), ('出动', 'v'), ('，', 'w'), ('奔赴', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('最前沿', 's'), ('。', 'w'), ('劝返', 'v'), ('车辆', 'n'), ('、', 'w'), ('疏导', 'v'), ('交通', 'n'), ('、', 'w'), ('抢修', 'vn'), ('道路', 'n'), ('……', 'w'), ('哪里', 'r'), ('有', 'v'), ('需要', 'n'), ('，', 'w'), ('哪里', 'r'), ('就', 'd'), ('有', 'v'), ('他们', 'r'), ('忙碌', 'a'), ('的', 'u'), ('身影', 'n'), ('。', 'w'), ('#', 'v'), ('我', 'r'), ('为', 'v'), ('群众', 'n'), ('办', 'v'), ('实事', 'n'), ('#', 'v'), ('@', 'v'), ('四川', 'ns'), ('长安网', 'n'), ('@', 'v'), ('四川', 'ns'), ('公安', 'n'), ('@', 'v'), ('平安', 'nz'), ('绵阳', 'ns'), ('平安', 'nz'), ('安州', 'ns'), ('-', 'v'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('#', 'v'), ('【', 'v'), ('致敬', 'v'), ('！', 'w'), ('暴雨', 'n'), ('中', 'f'), ('的', 'u'), ('藏蓝', 'b'), ('身影', 'n'), ('】', 'v'), ('，', 'w'), ('强', 'a'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('，', 'w'), ('辖区', 'n'), ('千佛', 'n'), ('、', 'w'), ('高川', 'ns'), ('等', 'u'), ('地', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('，', 'w'), ('道路', 'n'), ('中断', 'v'), ('。', 'w'), ('危难', 'n'), ('之际', 'f'), ('，', 'w')]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[('抗洪抢险', 'l'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'nz'), ('身影', 'n'), ('强降雨', 'nr'), ('突袭', 'vn'), ('安州', 'ns'), ('辖区', 'n'), ('高川', 'nr'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('道路', 'n'), ('中断', 'ns'), ('危难', 'an'), ('之际', 'f'), ('迅速', 'ad'), ('出动', 'v'), ('奔赴', 'v'), ('抗洪抢险', 'l'), ('最前沿', 's'), ('劝返', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('抢修', 'v'), ('道路', 'n'), ('需要', 'v'), ('忙碌', 'a'), ('身影', 'n'), ('群众', 'n'), ('办实事', 'n'), ('四川', 'ns'), ('长安', 'ns'), ('四川', 'ns'), ('公安', 'n'), ('平安', 'a'), ('绵阳', 'ns'), ('平安', 'a'), ('安州', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('抗洪抢险', 'l'), ('致敬', 'v'), ('暴雨', 'n'), ('身影', 'n'), ('强降雨', 'nr'), ('突袭', 'vn'), ('辖区', 'n'), ('高川', 'nr'), ('发生', 'v'), ('山体', 'n'), ('道路', 'n'), ('危难', 'an')]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[('抗洪', 'v'), ('抢险', 'v'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'b'), ('身影', 'n'), ('降雨', 'vn'), ('突袭', 'v'), ('安州', 'ns'), ('辖区', 'n'), ('千佛', 'n'), ('高川', 'ns'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('道路', 'n'), ('中断', 'v'), ('危难', 'n'), ('之际', 'f'), ('迅速', 'ad'), ('出动', 'v'), ('奔赴', 'v'), ('抗洪', 'v'), ('抢险', 'v'), ('最前沿', 's'), ('劝返', 'v'), ('车辆', 'n'), ('疏导', 'v'), ('交通', 'n'), ('抢修', 'vn'), ('道路', 'n'), ('需要', 'n'), ('忙碌', 'a'), ('身影', 'n'), ('群众', 'n'), ('实事', 'n'), ('四川', 'ns'), ('长安网', 'n'), ('四川', 'ns'), ('公安', 'n'), ('平安', 'nz'), ('绵阳', 'ns'), ('平安', 'nz'), ('安州', 'ns'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('抗洪', 'v'), ('抢险', 'v'), ('致敬', 'v'), ('暴雨', 'n'), ('藏蓝', 'b'), ('身影', 'n'), ('降雨', 'vn'), ('突袭', 'v'), ('辖区', 'n'), ('千佛', 'n'), ('发生', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('道路', 'n'), ('中断', 'v'), ('危难', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频频', 'd'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[('突如其来', 'i'), ('暴雨', 'n'), ('侵袭', 'v'), ('郑州', 'ns'), ('公共交通', 'nt'), ('至今', 'd'), ('尚未', 'd'), ('完全恢复', 'i'), ('车主', 'n'), ('志愿者', 'n'), ('发起', 'v'), ('丝带', 'n'), ('行动', 'vn'), ('即日起', 'l'), ('郑州', 'ns'), ('出行', 'v'), ('不便', 'c'), ('看到', 'v'), ('悬挂', 'v'), ('丝带', 'n'), ('车辆', 'n'), ('挥手', 'v'), ('示意', 'v'), ('一程', 'n'), ('微薄', 'a'), ('微光', 'n'), ('汇聚', 'v'), ('守望相助', 'i')]</t>
+          <t>[('突如其来', 'i'), ('暴雨', 'n'), ('侵袭', 'v'), ('完全恢复', 'i'), ('车主', 'n'), ('志愿者', 'n'), ('发起', 'v'), ('丝带', 'n'), ('行动', 'vn'), ('即日起', 'l'), ('出行', 'v'), ('看到', 'v'), ('悬挂', 'v'), ('丝带', 'n'), ('车辆', 'n'), ('挥手', 'v'), ('示意', 'v'), ('一程', 'n'), ('微薄', 'a'), ('微光', 'n'), ('汇聚', 'v'), ('守望相助', 'i')]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[('突如其来', 'i'), ('暴雨', 'n'), ('侵袭', 'vn'), ('郑州', 'ns'), ('公共', 'b'), ('交通', 'n'), ('至今', 'd'), ('尚未', 'd'), ('完全', 'ad'), ('恢复', 'v'), ('蔚来', 'b'), ('车主', 'n'), ('志愿者', 'n'), ('发起', 'v'), ('蓝丝带', 'n'), ('行动', 'vn'), ('即日', 't'), ('郑州', 'ns'), ('出行', 'v'), ('不便', 'a'), ('看到', 'v'), ('悬挂', 'v'), ('蓝丝带', 'n'), ('蔚来', 'b'), ('车辆', 'n'), ('挥手', 'v'), ('示意', 'v'), ('一程', 'i'), ('尽微', 'd'), ('薄之力', 'l'), ('微光', 'n'), ('汇聚', 'v'), ('守望', 'v'), ('相助', 'v')]</t>
+          <t>[('突如其来', 'i'), ('暴雨', 'n'), ('侵袭', 'vn'), ('公共', 'b'), ('交通', 'n'), ('完全', 'ad'), ('恢复', 'v'), ('蔚来', 'b'), ('车主', 'n'), ('志愿者', 'n'), ('发起', 'v'), ('蓝丝带', 'n'), ('行动', 'vn'), ('即日', 't'), ('出行', 'v'), ('不便', 'a'), ('看到', 'v'), ('悬挂', 'v'), ('蓝丝带', 'n'), ('蔚来', 'b'), ('车辆', 'n'), ('挥手', 'v'), ('示意', 'v'), ('一程', 'i'), ('薄之力', 'l'), ('微光', 'n'), ('汇聚', 'v'), ('守望', 'v'), ('相助', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2511,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('施工', 'vn'), ('高速', 'd'), ('新乡', 'ns'), ('东站', 'n'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('道路', 'n'), ('施工', 'vn'), ('焦桐', 'nr'), ('高速', 'd'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('道路', 'n'), ('积水', 'n'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'ns'), ('高速', 'd'), ('互通', 'n'), ('分流', 'n'), ('向东', 'nr'), ('方向', 'n'), ('车辆', 'n'), ('尉氏', 'nr'), ('北站', 'ns'), ('分流', 'n'), ('西方', 's'), ('车辆', 'n'), ('地方', 'n'), ('道路', 'n'), ('泄洪', 'v'), ('台辉', 'ns'), ('高速', 'd'), ('浚县', 'ns'), ('东站', 'n'), ('浚县', 'ns'), ('西站', 'ns'), ('禁止', 'v'), ('货车', 'n'), ('救援', 'vn'), ('物资', 'n'), ('除外', 'c'), ('路面', 'n'), ('塌方', 'n'), ('济洛', 'ns'), ('高速', 'd'), ('公里', 'q'), ('公里', 'q'), ('方向', 'n'), ('管制', 'vn'), ('禁止通行', 'n'), ('因济', 'n'), ('洛西', 'ns'), ('高速', 'd'), ('半幅', 'm'), ('抢险', 'v'), ('施工', 'vn'), ('孟津', 'ns'), ('收费站', 'n'), ('分流', 'n'), ('洛阳', 'ns'), ('济源', 'ns'), ('方向', 'n'), ('车辆', 'n'), ('济源', 'ns'), ('洛阳', 'ns'), ('方向', 'n'), ('通行', 'j'), ('正常', 'd'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('中原', 'ns'), ('高速', 'd'), ('交警', 'j')]</t>
+          <t>[('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('施工', 'vn'), ('东站', 'n'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('道路', 'n'), ('施工', 'vn'), ('焦桐', 'nr'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('道路', 'n'), ('积水', 'n'), ('商登', 'nr'), ('互通', 'n'), ('分流', 'n'), ('向东', 'nr'), ('方向', 'n'), ('车辆', 'n'), ('尉氏', 'nr'), ('分流', 'n'), ('车辆', 'n'), ('地方', 'n'), ('道路', 'n'), ('泄洪', 'v'), ('东站', 'n'), ('禁止', 'v'), ('货车', 'n'), ('救援', 'vn'), ('物资', 'n'), ('路面', 'n'), ('塌方', 'n'), ('方向', 'n'), ('管制', 'vn'), ('禁止通行', 'n'), ('因济', 'n'), ('抢险', 'v'), ('施工', 'vn'), ('收费站', 'n'), ('分流', 'n'), ('方向', 'n'), ('车辆', 'n'), ('方向', 'n'), ('通行', 'j'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('交警', 'j')]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('施工', 'v'), ('菏宝', 'ns'), ('高速', 'b'), ('新乡', 'ns'), ('东站', 'ns'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('道路', 'n'), ('施工', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('道路', 'n'), ('积水', 'n'), ('商登', 'nr'), ('高速', 'd'), ('安罗', 'nr'), ('高速', 'd'), ('互通', 'v'), ('处分', 'v'), ('流向东', 'ns'), ('方向', 'n'), ('车辆', 'n'), ('尉氏', 'nr'), ('北站', 'n'), ('分流', 'v'), ('西方', 's'), ('车辆', 'n'), ('地方', 'n'), ('道路', 'n'), ('泄洪', 'v'), ('台辉', 'nz'), ('高速', 'b'), ('浚县', 'ns'), ('东站', 'ns'), ('浚县', 'ns'), ('西站', 'ns'), ('禁止', 'v'), ('货车', 'n'), ('下站', 'n'), ('救援', 'vn'), ('物资车', 'n'), ('除外', 'v'), ('路面', 'n'), ('塌方', 'v'), ('济洛', 'ns'), ('高速', 'b'), ('公里', 'n'), ('公里', 'ns'), ('出省', 'v'), ('方向', 'n'), ('管制', 'v'), ('禁止', 'v'), ('通行', 'v'), ('济洛西', 'ns'), ('高速', 'b'), ('+东', 'ns'), ('半幅', 'n'), ('抢险', 'v'), ('施工', 'v'), ('孟津西', 'ns'), ('收费站', 'n'), ('分流', 'v'), ('洛阳', 'ns'), ('往济源', 'ns'), ('方向', 'n'), ('车辆', 'n'), ('济源', 'ns'), ('洛阳', 'ns'), ('方向', 'n'), ('通行', 'v'), ('正常', 'a'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('您行', 'r'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('道路', 'n'), ('施工', 'v'), ('高速', 'b'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('道路', 'n'), ('施工', 'v'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('道路', 'n'), ('积水', 'n'), ('商登', 'nr'), ('安罗', 'nr'), ('互通', 'v'), ('处分', 'v'), ('方向', 'n'), ('车辆', 'n'), ('尉氏', 'nr'), ('北站', 'n'), ('分流', 'v'), ('车辆', 'n'), ('地方', 'n'), ('道路', 'n'), ('泄洪', 'v'), ('高速', 'b'), ('禁止', 'v'), ('货车', 'n'), ('下站', 'n'), ('救援', 'vn'), ('物资车', 'n'), ('除外', 'v'), ('路面', 'n'), ('塌方', 'v'), ('高速', 'b'), ('公里', 'n'), ('出省', 'v'), ('方向', 'n'), ('管制', 'v'), ('禁止', 'v'), ('通行', 'v'), ('高速', 'b'), ('半幅', 'n'), ('抢险', 'v'), ('施工', 'v'), ('收费站', 'n'), ('分流', 'v'), ('方向', 'n'), ('车辆', 'n'), ('方向', 'n'), ('通行', 'v'), ('正常', 'a'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('高速', 'b'), ('交警', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[('风雨', 'n'), ('面前', 'f'), ('一起', 'm'), ('暴雨', 'n'), ('凌晨', 't'), ('郑州', 'ns'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'ns'), ('凌晨', 't'), ('郑州', 'ns'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('强降雨', 'nr'), ('导致', 'v'), ('严重', 'a'), ('内涝', 'n'), ('交通', 'n'), ('受阻', 'v'), ('街头', 's'), ('写字楼', 'n'), ('地铁口', 'n'), ('部分', 'n'), ('民众', 'n'), ('被困', 'a'), ('回家', 'n'), ('郑州', 'ns'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('避风港', 'ns'), ('暴雨', 'n'), ('无情', 'n'), ('有情', 'n'), ('郑州', 'ns'), ('多处', 'm'), ('商场', 'n'), ('沿街', 'f'), ('商户', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'ns'), ('市民', 'n'), ('表示', 'v'), ('此刻', 'r'), ('乱跑', 'v'), ('贡献', 'n'), ('希望', 'v'), ('大雨', 'n'), ('过后', 't'), ('郑州', 'ns'), ('无恙', 'z'), ('李超庆', 'nr'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('风雨', 'n'), ('暴雨', 'n'), ('凌晨', 't'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('凌晨', 't'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('强降雨', 'nr'), ('导致', 'v'), ('严重', 'a'), ('内涝', 'n'), ('交通', 'n'), ('受阻', 'v'), ('写字楼', 'n'), ('地铁口', 'n'), ('部分', 'n'), ('民众', 'n'), ('被困', 'a'), ('回家', 'n'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('暴雨', 'n'), ('无情', 'n'), ('有情', 'n'), ('商场', 'n'), ('商户', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('市民', 'n'), ('表示', 'v'), ('乱跑', 'v'), ('贡献', 'n'), ('希望', 'v'), ('大雨', 'n'), ('过后', 't'), ('无恙', 'z'), ('李超庆', 'nr'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[('风雨', 'n'), ('面前', 'f'), ('一起', 'd'), ('暴雨', 'n'), ('凌晨', 't'), ('郑州', 'ns'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'n'), ('凌晨', 't'), ('郑州', 'ns'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('降雨', 'vn'), ('导致', 'v'), ('严重', 'ad'), ('内涝', 'v'), ('交通', 'n'), ('受阻', 'v'), ('街头', 's'), ('写字楼', 'n'), ('地铁口', 'n'), ('部分', 'n'), ('民众', 'n'), ('被困', 'a'), ('回家', 'v'), ('郑州', 'ns'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('开避', 'v'), ('风港', 'n'), ('暴雨', 'n'), ('无情', 'a'), ('有情', 'i'), ('郑州', 'ns'), ('商场', 'n'), ('沿街', 'f'), ('商户', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'n'), ('市民', 'n'), ('表示', 'v'), ('此刻', 'r'), ('乱跑', 'v'), ('贡献', 'n'), ('希望', 'v'), ('大雨', 'n'), ('过后', 'v'), ('郑州', 'ns'), ('无恙', 'v'), ('李超庆', 'nr'), ('中新', 'j'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('风雨', 'n'), ('暴雨', 'n'), ('凌晨', 't'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'n'), ('凌晨', 't'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('降雨', 'vn'), ('导致', 'v'), ('严重', 'ad'), ('内涝', 'v'), ('交通', 'n'), ('受阻', 'v'), ('写字楼', 'n'), ('地铁口', 'n'), ('部分', 'n'), ('民众', 'n'), ('被困', 'a'), ('回家', 'v'), ('场所', 'n'), ('被困', 'a'), ('民众', 'n'), ('开避', 'v'), ('风港', 'n'), ('暴雨', 'n'), ('无情', 'a'), ('有情', 'i'), ('商场', 'n'), ('商户', 'n'), ('被困', 'a'), ('民众', 'n'), ('提供', 'v'), ('避风港', 'n'), ('市民', 'n'), ('表示', 'v'), ('乱跑', 'v'), ('贡献', 'n'), ('希望', 'v'), ('大雨', 'n'), ('过后', 'v'), ('无恙', 'v'), ('李超庆', 'nr'), ('中新', 'j'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[('临安', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('冷暖', 'an'), ('气流', 'n'), ('交汇', 'n'), ('影响', 'vn'), ('预计', 'vn'), ('今天', 't'), ('夜里', 't'), ('明天', 't'), ('大到暴雨', 'l'), ('注意', 'v'), ('防范', 'v'), ('强降水', 'n'), ('可能', 'v'), ('引发', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('泥石流', 'n'), ('流域', 'n'), ('山洪', 'nr'), ('次生', 'b'), ('灾害', 'n'), ('防御', 'v'), ('措施', 'n'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取相应', 'nr'), ('交通管制', 'n'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'n'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('室外', 's'), ('电源', 'n'), ('暂停', 'd'), ('空旷', 'nr'), ('地方', 'n'), ('户外', 's'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('城市', 'ns'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('必要', 'd'), ('排涝', 'v'), ('措施', 'n')]</t>
+          <t>[('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('冷暖', 'an'), ('气流', 'n'), ('交汇', 'n'), ('影响', 'vn'), ('预计', 'vn'), ('今天', 't'), ('夜里', 't'), ('明天', 't'), ('大到暴雨', 'l'), ('注意', 'v'), ('防范', 'v'), ('强降水', 'n'), ('可能', 'v'), ('引发', 'v'), ('山体', 'n'), ('泥石流', 'n'), ('流域', 'n'), ('山洪', 'nr'), ('次生', 'b'), ('灾害', 'n'), ('防御', 'v'), ('措施', 'n'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取相应', 'nr'), ('交通管制', 'n'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'n'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('电源', 'n'), ('空旷', 'nr'), ('地方', 'n'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('排涝', 'v'), ('措施', 'n')]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[('临安区', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('冷暖', 'n'), ('气流', 'n'), ('交汇', 'v'), ('影响', 'vn'), ('预计', 'v'), ('今天', 't'), ('夜里', 't'), ('明天', 't'), ('大到暴雨', 'l'), ('注意', 'v'), ('防范', 'v'), ('降水', 'n'), ('可能', 'v'), ('引发', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('泥石流', 'n'), ('流域', 'n'), ('山洪', 'n'), ('次生', 'b'), ('灾害', 'n'), ('防御', 'vn'), ('措施', 'n'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('做好', 'v'), ('防暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取', 'v'), ('相应', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('室外', 's'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('户外', 's'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
+          <t>[('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('冷暖', 'n'), ('气流', 'n'), ('交汇', 'v'), ('影响', 'vn'), ('预计', 'v'), ('今天', 't'), ('夜里', 't'), ('明天', 't'), ('大到暴雨', 'l'), ('注意', 'v'), ('防范', 'v'), ('降水', 'n'), ('可能', 'v'), ('引发', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('泥石流', 'n'), ('流域', 'n'), ('山洪', 'n'), ('次生', 'b'), ('灾害', 'n'), ('防御', 'vn'), ('措施', 'n'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('做好', 'v'), ('防暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取', 'v'), ('相应', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[('近日', 't'), ('暴雨', 'n'), ('大路', 'n'), ('预约', 'v'), ('面诊', 'v'), ('手术', 'n'), ('粉丝', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('北京', 'ns'), ('刘军', 'nr'), ('整形', 'b')]</t>
+          <t>[('近日', 't'), ('暴雨', 'n'), ('大路', 'n'), ('预约', 'v'), ('面诊', 'v'), ('手术', 'n'), ('粉丝', 'n'), ('注意', 'v'), ('交通安全', 'l'), ('刘军', 'nr'), ('整形', 'b')]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[('近日', 't'), ('暴雨', 'n'), ('路滑', 'n'), ('预约', 'v'), ('面诊', 'v'), ('手术', 'n'), ('粉丝', 'n'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('北京', 'ns'), ('刘军', 'nr'), ('整形', 'v')]</t>
+          <t>[('近日', 't'), ('暴雨', 'n'), ('路滑', 'n'), ('预约', 'v'), ('面诊', 'v'), ('手术', 'n'), ('粉丝', 'n'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('刘军', 'nr'), ('整形', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2696,47 +2696,47 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【遇事故司机倒在暴雨中，高速交警快速施救保平安】#交警正能量#早，济广高速安庆段。一男子驾车碰撞护栏，受伤后倒在暴雨中。高速交警巡逻发现，立即拼力将其扶到车上。#交警提醒#雨天路滑，务必谨慎驾车。@安庆公安交警在线@公安部交通管理局武汉交警的微博视频</t>
+          <t>【遇事故司机倒在暴雨中，高速交警快速施救保平安】#交警正能量#早，济广高速安庆段。一男子驾车碰撞护栏，受伤后倒在暴雨中。高速交警巡逻发现，立即拼力将其扶到车上。#交警提醒#雨天路滑，务必谨慎驾车。</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['【', '遇', '事故', '司机', '倒', '在', '暴雨', '中', '，', '高速', '交警', '快速', '施救', '保平安', '】', '#', '交警', '正', '能量', '#', '早', '，', '济广', '高速', '安庆', '段', '。', '一', '男子', '驾车', '碰撞', '护栏', '，', '受伤', '后', '倒', '在', '暴雨', '中', '。', '高速', '交警', '巡逻', '发现', '，', '立即', '拼力', '将', '其', '扶', '到', '车上', '。', '#', '交警', '提醒', '#', '雨天', '路滑', '，', '务必', '谨慎', '驾车', '。', '@', '安庆', '公安', '交警', '在线', '@', '公安部', '交通', '管理局', '武汉', '交警', '的', '微博', '视频']</t>
+          <t>['【', '遇', '事故', '司机', '倒', '在', '暴雨', '中', '，', '高速', '交警', '快速', '施救', '保平安', '】', '#', '交警', '正', '能量', '#', '早', '，', '济广', '高速', '安庆', '段', '。', '一', '男子', '驾车', '碰撞', '护栏', '，', '受伤', '后', '倒', '在', '暴雨', '中', '。', '高速', '交警', '巡逻', '发现', '，', '立即', '拼力', '将', '其', '扶', '到', '车上', '。', '#', '交警', '提醒', '#', '雨天', '路滑', '，', '务必', '谨慎', '驾车', '。']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['【', '遇', '事故', '司机', '倒在', '暴雨', '中', '，', '高速', '交警', '快速', '施救保', '平安', '】', '#', '交警', '正能量', '#', '早', '，', '济广', '高速', '安庆', '段', '。', '一', '男子', '驾车', '碰撞', '护栏', '，', '受伤', '后倒', '在', '暴雨', '中', '。', '高速', '交警', '巡逻', '发现', '，', '立即', '拼力', '将', '其', '扶到', '车上', '。', '#', '交警', '提醒', '#', '雨天', '路滑', '，', '务必', '谨慎', '驾车', '。', '@', '安庆', '公安', '交警', '在线', '@', '公安部', '交通', '管理局', '武汉', '交警', '的', '微博', '视频']</t>
+          <t>['【', '遇', '事故', '司机', '倒在', '暴雨', '中', '，', '高速', '交警', '快速', '施救保', '平安', '】', '#', '交警', '正能量', '#', '早', '，', '济广', '高速', '安庆', '段', '。', '一', '男子', '驾车', '碰撞', '护栏', '，', '受伤', '后倒', '在', '暴雨', '中', '。', '高速', '交警', '巡逻', '发现', '，', '立即', '拼力', '将', '其', '扶到', '车上', '。', '#', '交警', '提醒', '#', '雨天', '路滑', '，', '务必', '谨慎', '驾车', '。']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['事故', '司机', '暴雨', '高速', '交警', '快速', '施救', '保平安', '交警', '能量', '济广', '高速', '安庆', '男子', '驾车', '碰撞', '护栏', '受伤', '暴雨', '高速', '交警', '巡逻', '发现', '立即', '拼力', '车上', '交警', '提醒', '雨天', '路滑', '务必', '谨慎', '驾车', '安庆', '公安', '交警', '在线', '公安部', '交通', '管理局', '武汉', '交警', '微博', '视频']</t>
+          <t>['事故', '司机', '暴雨', '高速', '交警', '快速', '施救', '保平安', '交警', '能量', '济广', '高速', '安庆', '男子', '驾车', '碰撞', '护栏', '受伤', '暴雨', '高速', '交警', '巡逻', '发现', '立即', '拼力', '车上', '交警', '提醒', '雨天', '路滑', '务必', '谨慎', '驾车']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['事故', '司机', '倒在', '暴雨', '高速', '交警', '快速', '施救保', '平安', '交警', '正能量', '济广', '高速', '安庆', '男子', '驾车', '碰撞', '护栏', '受伤', '后倒', '暴雨', '高速', '交警', '巡逻', '发现', '立即', '拼力', '扶到', '车上', '交警', '提醒', '雨天', '路滑', '务必', '谨慎', '驾车', '安庆', '公安', '交警', '在线', '公安部', '交通', '管理局', '武汉', '交警', '微博', '视频']</t>
+          <t>['事故', '司机', '倒在', '暴雨', '高速', '交警', '快速', '施救保', '平安', '交警', '正能量', '济广', '高速', '安庆', '男子', '驾车', '碰撞', '护栏', '受伤', '后倒', '暴雨', '高速', '交警', '巡逻', '发现', '立即', '拼力', '扶到', '车上', '交警', '提醒', '雨天', '路滑', '务必', '谨慎', '驾车']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('遇', 'v'), ('事故', 'n'), ('司机', 'n'), ('倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('，', 'x'), ('高速', 'd'), ('交警', 'j'), ('快速', 'd'), ('施救', 'v'), ('保平安', 'ns'), ('】', 'x'), ('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('早', 't'), ('，', 'x'), ('济', 'j'), ('广', 'ns'), ('高速', 'd'), ('安庆', 'ns'), ('段', 'q'), ('。', 'x'), ('一', 'm'), ('男子', 'n'), ('驾车', 'n'), ('碰撞', 'v'), ('护栏', 'n'), ('，', 'x'), ('受伤', 'v'), ('后', 'f'), ('倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('。', 'x'), ('高速', 'd'), ('交警', 'j'), ('巡逻', 'v'), ('发现', 'v'), ('，', 'x'), ('立即', 'd'), ('拼力', 'd'), ('将', 'd'), ('其', 'r'), ('扶到', 'v'), ('车上', 's'), ('。', 'x'), ('#', 'x'), ('交警', 'j'), ('提醒', 'v'), ('#', 'x'), ('雨天', 't'), ('路', 'n'), ('滑', 'v'), ('，', 'x'), ('务必', 'd'), ('谨慎', 'a'), ('驾车', 'n'), ('。', 'x'), ('@', 'x'), ('安庆', 'ns'), ('公安', 'n'), ('交警', 'j'), ('在线', 'b'), ('@', 'x'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n'), ('武汉', 'ns'), ('交警', 'j'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'x'), ('遇', 'v'), ('事故', 'n'), ('司机', 'n'), ('倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('，', 'x'), ('高速', 'd'), ('交警', 'j'), ('快速', 'd'), ('施救', 'v'), ('保平安', 'ns'), ('】', 'x'), ('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('早', 't'), ('，', 'x'), ('济', 'j'), ('广', 'ns'), ('高速', 'd'), ('安庆', 'ns'), ('段', 'q'), ('。', 'x'), ('一', 'm'), ('男子', 'n'), ('驾车', 'n'), ('碰撞', 'v'), ('护栏', 'n'), ('，', 'x'), ('受伤', 'v'), ('后', 'f'), ('倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('。', 'x'), ('高速', 'd'), ('交警', 'j'), ('巡逻', 'v'), ('发现', 'v'), ('，', 'x'), ('立即', 'd'), ('拼力', 'd'), ('将', 'd'), ('其', 'r'), ('扶到', 'v'), ('车上', 's'), ('。', 'x'), ('#', 'x'), ('交警', 'j'), ('提醒', 'v'), ('#', 'x'), ('雨天', 't'), ('路', 'n'), ('滑', 'v'), ('，', 'x'), ('务必', 'd'), ('谨慎', 'a'), ('驾车', 'n'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[('【', 'n'), ('遇', 'v'), ('事故', 'n'), ('司机', 'n'), ('倒在', 'v'), ('暴雨', 'n'), ('中', 'f'), ('，', 'w'), ('高速', 'b'), ('交警', 'n'), ('快速', 'd'), ('施救保', 'v'), ('平安', 'ad'), ('】', 'v'), ('#', 'v'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('早', 'a'), ('，', 'w'), ('济广', 'v'), ('高速', 'b'), ('安庆', 'ns'), ('段', 'n'), ('。', 'w'), ('一', 'm'), ('男子', 'n'), ('驾车', 'v'), ('碰撞', 'v'), ('护栏', 'n'), ('，', 'w'), ('受伤', 'v'), ('后倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('。', 'w'), ('高速', 'b'), ('交警', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('，', 'w'), ('立即', 'd'), ('拼力', 'd'), ('将', 'p'), ('其', 'r'), ('扶到', 'v'), ('车上', 's'), ('。', 'w'), ('#', 'n'), ('交警', 'n'), ('提醒', 'v'), ('#', 'v'), ('雨天', 'n'), ('路滑', 'n'), ('，', 'w'), ('务必', 'd'), ('谨慎', 'ad'), ('驾车', 'v'), ('。', 'w'), ('@', 'v'), ('安庆', 'ns'), ('公安', 'n'), ('交警', 'n'), ('在线', 'v'), ('@', 'v'), ('公安部', 'nt'), ('交通', 'n'), ('管理局', 'n'), ('武汉', 'ns'), ('交警', 'n'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'n'), ('遇', 'v'), ('事故', 'n'), ('司机', 'n'), ('倒在', 'v'), ('暴雨', 'n'), ('中', 'f'), ('，', 'w'), ('高速', 'b'), ('交警', 'n'), ('快速', 'd'), ('施救保', 'v'), ('平安', 'ad'), ('】', 'v'), ('#', 'v'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('早', 'a'), ('，', 'w'), ('济广', 'v'), ('高速', 'b'), ('安庆', 'ns'), ('段', 'n'), ('。', 'w'), ('一', 'm'), ('男子', 'n'), ('驾车', 'v'), ('碰撞', 'v'), ('护栏', 'n'), ('，', 'w'), ('受伤', 'v'), ('后倒', 'v'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('。', 'w'), ('高速', 'b'), ('交警', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('，', 'w'), ('立即', 'd'), ('拼力', 'd'), ('将', 'p'), ('其', 'r'), ('扶到', 'v'), ('车上', 's'), ('。', 'w'), ('#', 'n'), ('交警', 'n'), ('提醒', 'v'), ('#', 'v'), ('雨天', 'n'), ('路滑', 'n'), ('，', 'w'), ('务必', 'd'), ('谨慎', 'ad'), ('驾车', 'v'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[('事故', 'n'), ('司机', 'n'), ('暴雨', 'n'), ('高速', 'd'), ('交警', 'j'), ('快速', 'd'), ('施救', 'v'), ('保平安', 'ns'), ('交警', 'j'), ('能量', 'n'), ('高速', 'd'), ('安庆', 'ns'), ('男子', 'n'), ('驾车', 'n'), ('碰撞', 'v'), ('护栏', 'n'), ('受伤', 'v'), ('暴雨', 'n'), ('高速', 'd'), ('交警', 'j'), ('巡逻', 'v'), ('发现', 'v'), ('立即', 'd'), ('拼力', 'd'), ('扶到', 'v'), ('车上', 's'), ('交警', 'j'), ('提醒', 'v'), ('雨天', 't'), ('务必', 'd'), ('谨慎', 'a'), ('驾车', 'n'), ('安庆', 'ns'), ('公安', 'n'), ('交警', 'j'), ('在线', 'b'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n'), ('武汉', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('事故', 'n'), ('司机', 'n'), ('暴雨', 'n'), ('交警', 'j'), ('施救', 'v'), ('交警', 'j'), ('能量', 'n'), ('男子', 'n'), ('驾车', 'n'), ('碰撞', 'v'), ('护栏', 'n'), ('受伤', 'v'), ('暴雨', 'n'), ('交警', 'j'), ('巡逻', 'v'), ('发现', 'v'), ('扶到', 'v'), ('交警', 'j'), ('提醒', 'v'), ('雨天', 't'), ('谨慎', 'a'), ('驾车', 'n')]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[('事故', 'n'), ('司机', 'n'), ('倒在', 'v'), ('暴雨', 'n'), ('高速', 'b'), ('交警', 'n'), ('快速', 'd'), ('施救保', 'v'), ('平安', 'ad'), ('交警', 'n'), ('正能量', 'n'), ('济广', 'v'), ('高速', 'b'), ('安庆', 'ns'), ('男子', 'n'), ('驾车', 'v'), ('碰撞', 'v'), ('护栏', 'n'), ('受伤', 'v'), ('后倒', 'v'), ('暴雨', 'n'), ('高速', 'b'), ('交警', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('立即', 'd'), ('拼力', 'd'), ('扶到', 'v'), ('车上', 's'), ('交警', 'n'), ('提醒', 'v'), ('雨天', 'n'), ('路滑', 'n'), ('务必', 'd'), ('谨慎', 'ad'), ('驾车', 'v'), ('安庆', 'ns'), ('公安', 'n'), ('交警', 'n'), ('在线', 'v'), ('公安部', 'nt'), ('交通', 'n'), ('管理局', 'n'), ('武汉', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('事故', 'n'), ('司机', 'n'), ('倒在', 'v'), ('暴雨', 'n'), ('高速', 'b'), ('交警', 'n'), ('施救保', 'v'), ('平安', 'ad'), ('交警', 'n'), ('正能量', 'n'), ('济广', 'v'), ('高速', 'b'), ('男子', 'n'), ('驾车', 'v'), ('碰撞', 'v'), ('护栏', 'n'), ('受伤', 'v'), ('后倒', 'v'), ('暴雨', 'n'), ('高速', 'b'), ('交警', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('扶到', 'v'), ('交警', 'n'), ('提醒', 'v'), ('雨天', 'n'), ('路滑', 'n'), ('谨慎', 'ad'), ('驾车', 'v')]</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[('航拍', 'n'), ('暴雨', 'n'), ('过后', 't'), ('郑州', 'ns'), ('大水', 'n'), ('退去', 'v'), ('交通', 'n'), ('正在', 't'), ('恢复', 'v'), ('中午', 't'), ('郑州市', 'ns'), ('降雨', 'n'), ('已经', 'd'), ('逐渐', 'd'), ('停止', 'v'), ('城市道路', 'n'), ('内涝', 'n'), ('正在', 't'), ('逐渐', 'd'), ('退去', 'v'), ('交通', 'n'), ('情况', 'n'), ('有所', 'n'), ('恢复', 'v'), ('目前', 't'), ('郑州市', 'ns'), ('电力', 'n'), ('供水', 'n'), ('没有', 'v'), ('完全恢复', 'i'), ('看看', 'v'), ('新闻记者', 'n'), ('召开', 'v'), ('郑州市', 'ns'), ('防汛', 'vn'), ('工作', 'vn'), ('调度会', 'nz'), ('获悉', 'v'), ('郑州', 'ns'), ('力争', 'nz'), ('完成', 'v'), ('水电', 'n'), ('保供', 'v'), ('中州', 'ns'), ('大道', 'n'), ('以西', 'f'), ('全部', 'n'), ('贯通', 'v'), ('看看', 'v'), ('新闻', 'n'), ('视频', 'n')]</t>
+          <t>[('航拍', 'n'), ('暴雨', 'n'), ('过后', 't'), ('大水', 'n'), ('退去', 'v'), ('交通', 'n'), ('正在', 't'), ('恢复', 'v'), ('中午', 't'), ('降雨', 'n'), ('停止', 'v'), ('城市道路', 'n'), ('内涝', 'n'), ('正在', 't'), ('退去', 'v'), ('交通', 'n'), ('情况', 'n'), ('有所', 'n'), ('恢复', 'v'), ('目前', 't'), ('电力', 'n'), ('供水', 'n'), ('没有', 'v'), ('完全恢复', 'i'), ('看看', 'v'), ('新闻记者', 'n'), ('召开', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('获悉', 'v'), ('完成', 'v'), ('水电', 'n'), ('保供', 'v'), ('大道', 'n'), ('全部', 'n'), ('贯通', 'v'), ('看看', 'v'), ('新闻', 'n'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[('航拍', 'n'), ('暴雨', 'n'), ('过后', 'a'), ('郑州', 'ns'), ('大水', 'n'), ('退去', 'v'), ('交通', 'n'), ('正在', 'd'), ('恢复', 'v'), ('中午', 't'), ('郑州市', 'ns'), ('降雨', 'vn'), ('已经', 'd'), ('逐渐', 'd'), ('停止', 'v'), ('城市', 'n'), ('道路', 'n'), ('内涝', 'n'), ('正在', 'd'), ('逐渐', 'd'), ('退去', 'v'), ('交通', 'n'), ('情况', 'n'), ('有所', 'v'), ('恢复', 'v'), ('目前', 't'), ('郑州', 'ns'), ('市区', 's'), ('电力', 'n'), ('供水', 'vn'), ('没有', 'd'), ('完全', 'ad'), ('恢复', 'v'), ('看看', 'v'), ('新闻', 'n'), ('记者', 'n'), ('召开', 'v'), ('郑州市', 'ns'), ('防汛', 'vn'), ('工作', 'vn'), ('调度会', 'n'), ('获悉', 'v'), ('郑州', 'ns'), ('力争', 'v'), ('完成', 'v'), ('水电气', 'n'), ('保供', 'v'), ('中州', 'ns'), ('大道', 'n'), ('以西', 'f'), ('全部', 'd'), ('贯通', 'v'), ('看看', 'v'), ('新闻', 'n'), ('秒拍', 'n'), ('视频', 'n')]</t>
+          <t>[('航拍', 'n'), ('暴雨', 'n'), ('过后', 'a'), ('大水', 'n'), ('退去', 'v'), ('交通', 'n'), ('恢复', 'v'), ('中午', 't'), ('降雨', 'vn'), ('停止', 'v'), ('城市', 'n'), ('道路', 'n'), ('内涝', 'n'), ('退去', 'v'), ('交通', 'n'), ('情况', 'n'), ('有所', 'v'), ('恢复', 'v'), ('目前', 't'), ('电力', 'n'), ('供水', 'vn'), ('完全', 'ad'), ('恢复', 'v'), ('看看', 'v'), ('新闻', 'n'), ('记者', 'n'), ('召开', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('调度会', 'n'), ('获悉', 'v'), ('力争', 'v'), ('完成', 'v'), ('水电气', 'n'), ('保供', 'v'), ('大道', 'n'), ('贯通', 'v'), ('看看', 'v'), ('新闻', 'n'), ('秒拍', 'n'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[('报道', 'v'), ('德国', 'ns'), ('西部', 'f'), ('洪水', 'nr'), ('侵袭', 'v'), ('严重', 'a'), ('地区', 'n'), ('目前', 't'), ('已经', 'd'), ('有人', 'r'), ('死亡', 'v'), ('当地', 's'), ('通讯', 'nz'), ('严重', 'a'), ('受阻', 'v'), ('约人', 'nrt'), ('失联', 'v'), ('莱茵', 'ns'), ('普法尔茨', 'nrt'), ('莱茵', 'ns'), ('威斯特法伦', 'nrt'), ('多栋', 'm'), ('建筑', 'n'), ('倒塌', 'v'), ('不少', 'd'), ('车辆', 'n'), ('冲走', 'v'), ('公共交通', 'nt'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('比利时', 'ns'), ('目前', 't'), ('暴雨', 'n'), ('洪水', 'nr'), ('已有', 'v'), ('至少', 'd'), ('死亡', 'v'), ('当地政府', 'n'), ('要求', 'v'), ('列日', 'nrt'), ('市中心', 'n'), ('居民', 'n'), ('疏散', 'v'), ('流经', 'n'), ('当地', 's'), ('默兹河', 'nr'), ('河水', 'ns'), ('已经', 'd'), ('溢出', 'v'), ('河岸', 's'), ('照片', 'n'), ('德国', 'ns'), ('感觉', 'n'), ('浙江', 'ns'), ('农村', 'n')]</t>
+          <t>[('报道', 'v'), ('洪水', 'nr'), ('侵袭', 'v'), ('严重', 'a'), ('地区', 'n'), ('目前', 't'), ('死亡', 'v'), ('严重', 'a'), ('受阻', 'v'), ('约人', 'nrt'), ('失联', 'v'), ('普法尔茨', 'nrt'), ('威斯特法伦', 'nrt'), ('建筑', 'n'), ('倒塌', 'v'), ('车辆', 'n'), ('冲走', 'v'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('目前', 't'), ('暴雨', 'n'), ('洪水', 'nr'), ('已有', 'v'), ('死亡', 'v'), ('当地政府', 'n'), ('要求', 'v'), ('列日', 'nrt'), ('市中心', 'n'), ('居民', 'n'), ('疏散', 'v'), ('流经', 'n'), ('默兹河', 'nr'), ('溢出', 'v'), ('照片', 'n'), ('感觉', 'n'), ('农村', 'n')]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[('报道', 'v'), ('德国', 'ns'), ('西部', 'f'), ('洪水', 'n'), ('侵袭', 'vn'), ('严重', 'a'), ('地区', 'n'), ('目前', 't'), ('已经', 'd'), ('有人', 'r'), ('死亡', 'v'), ('当地', 's'), ('通讯', 'n'), ('严重', 'ad'), ('受阻', 'v'), ('失联', 'v'), ('莱茵兰', 'ns'), ('普法尔茨州', 'ns'), ('北莱茵', 'ns'), ('威斯特法', 'n'), ('伦州', 'ns'), ('建筑', 'n'), ('倒塌', 'v'), ('不少', 'm'), ('车辆', 'n'), ('冲走', 'v'), ('公共', 'b'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('比利时', 'ns'), ('目前', 't'), ('暴雨', 'n'), ('洪水', 'n'), ('至少', 'd'), ('死亡', 'v'), ('当地', 's'), ('政府', 'n'), ('要求', 'v'), ('列日市', 'ns'), ('市中心', 's'), ('居民', 'n'), ('疏散', 'v'), ('流经', 'v'), ('当地', 's'), ('默兹', 'ns'), ('河河', 'ns'), ('已经', 'd'), ('溢出', 'v'), ('河岸', 'n'), ('照片', 'n'), ('德国', 'ns'), ('感觉', 'v'), ('浙江', 'ns'), ('农村', 'n')]</t>
+          <t>[('报道', 'v'), ('洪水', 'n'), ('侵袭', 'vn'), ('严重', 'a'), ('地区', 'n'), ('目前', 't'), ('死亡', 'v'), ('通讯', 'n'), ('严重', 'ad'), ('受阻', 'v'), ('失联', 'v'), ('威斯特法', 'n'), ('建筑', 'n'), ('倒塌', 'v'), ('车辆', 'n'), ('冲走', 'v'), ('公共', 'b'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('目前', 't'), ('暴雨', 'n'), ('洪水', 'n'), ('死亡', 'v'), ('政府', 'n'), ('要求', 'v'), ('居民', 'n'), ('疏散', 'v'), ('流经', 'v'), ('溢出', 'v'), ('河岸', 'n'), ('照片', 'n'), ('感觉', 'v'), ('农村', 'n')]</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('高速', 'd'), ('吉怀', 'nr'), ('怀化', 'v'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('至已', 'd'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('吉怀', 'nr'), ('怀化', 'v'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j')]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('高速', 'd'), ('吉怀', 'd'), ('段怀化', 'v'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('段怀化', 'v'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -2951,12 +2951,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('山西', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('山西', 'ns'), ('目前', 't'), ('道路交通', 'nz'), ('情况', 'n'), ('汇总', 'n'), ('公示', 'v'), ('出来', 'v'), ('支援', 'v'), ('组织', 'v'), ('了解', 'v'), ('一下', 'm'), ('路况', 'n'), ('确保安全', 'ns')]</t>
+          <t>[('暴雨', 'n'), ('互助', 'v'), ('暴雨', 'n'), ('互助', 'v'), ('目前', 't'), ('情况', 'n'), ('汇总', 'n'), ('公示', 'v'), ('出来', 'v'), ('支援', 'v'), ('组织', 'v'), ('了解', 'v'), ('路况', 'n')]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('山西', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('山西', 'ns'), ('目前', 't'), ('道路', 'n'), ('交通', 'n'), ('情况', 'n'), ('汇总', 'v'), ('公示', 'v'), ('出来', 'v'), ('支援', 'v'), ('组织', 'n'), ('了解', 'v'), ('一下', 'm'), ('路况', 'n'), ('确保', 'v'), ('安全', 'an')]</t>
+          <t>[('暴雨', 'n'), ('互助', 'v'), ('暴雨', 'n'), ('互助', 'v'), ('目前', 't'), ('道路', 'n'), ('交通', 'n'), ('情况', 'n'), ('汇总', 'v'), ('公示', 'v'), ('出来', 'v'), ('支援', 'v'), ('组织', 'n'), ('了解', 'v'), ('路况', 'n'), ('确保', 'v'), ('安全', 'an')]</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[('说真的', 'l'), ('有点', 'n'), ('在意', 'v'), ('气象部门', 'n'), ('暴雨', 'n'), ('预警', 'vn'), ('交通部门', 'n'), ('交通', 'n'), ('预警', 'vn'), ('其职', 'nz'), ('紧密', 'a'), ('沟通', 'v'), ('情况', 'n'), ('应该', 'v'), ('不至于', 'c'), ('多辆', 'm'), ('列车', 'n'), ('地铁', 'n'), ('隧道', 'n'), ('事情', 'n'), ('暴雨', 'n'), ('灌入', 'v'), ('地铁', 'n'), ('之前', 'f'), ('广州', 'ns'), ('预告', 'v'), ('毫米', 'q'), ('小时', 'n'), ('最大', 'a'), ('降雨量', 'n'), ('倒灌', 'v'), ('部门', 'n'), ('信息', 'n'), ('交流', 'n'), ('有待', 'v'), ('加强', 'v')]</t>
+          <t>[('说真的', 'l'), ('有点', 'n'), ('在意', 'v'), ('气象部门', 'n'), ('暴雨', 'n'), ('预警', 'vn'), ('交通部门', 'n'), ('交通', 'n'), ('预警', 'vn'), ('紧密', 'a'), ('沟通', 'v'), ('情况', 'n'), ('应该', 'v'), ('列车', 'n'), ('地铁', 'n'), ('隧道', 'n'), ('事情', 'n'), ('暴雨', 'n'), ('灌入', 'v'), ('地铁', 'n'), ('预告', 'v'), ('小时', 'n'), ('最大', 'a'), ('降雨量', 'n'), ('倒灌', 'v'), ('部门', 'n'), ('信息', 'n'), ('交流', 'n'), ('有待', 'v'), ('加强', 'v')]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[('说真的', 'l'), ('有点', 'd'), ('在意', 'v'), ('气象', 'n'), ('部门', 'n'), ('暴雨', 'n'), ('预警', 'vn'), ('交通', 'n'), ('部门', 'n'), ('交通', 'n'), ('预警', 'vn'), ('司尽', 'v'), ('其职', 'n'), ('紧密', 'ad'), ('沟通', 'v'), ('情况', 'n'), ('应该', 'v'), ('不至于', 'd'), ('列车', 'n'), ('地铁', 'n'), ('隧道', 'n'), ('事情', 'n'), ('暴雨', 'n'), ('灌入', 'v'), ('地铁', 'n'), ('之前', 'f'), ('广州', 'ns'), ('预告', 'v'), ('毫米', 'q'), ('小时', 'n'), ('降雨量', 'n'), ('倒灌', 'v'), ('部门', 'n'), ('信息', 'n'), ('交流', 'vn'), ('有待', 'v'), ('加强', 'v')]</t>
+          <t>[('说真的', 'l'), ('在意', 'v'), ('气象', 'n'), ('部门', 'n'), ('暴雨', 'n'), ('预警', 'vn'), ('交通', 'n'), ('部门', 'n'), ('交通', 'n'), ('预警', 'vn'), ('司尽', 'v'), ('其职', 'n'), ('紧密', 'ad'), ('沟通', 'v'), ('情况', 'n'), ('应该', 'v'), ('列车', 'n'), ('地铁', 'n'), ('隧道', 'n'), ('事情', 'n'), ('暴雨', 'n'), ('灌入', 'v'), ('地铁', 'n'), ('预告', 'v'), ('小时', 'n'), ('降雨量', 'n'), ('倒灌', 'v'), ('部门', 'n'), ('信息', 'n'), ('交流', 'vn'), ('有待', 'v'), ('加强', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[('新疆', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('路段', 'n'), ('小时', 'n'), ('临时', 'b'), ('交通管制', 'n'), ('公告', 'n'), ('气象部门', 'n'), ('发布', 'v'), ('气象', 'n'), ('信息', 'n'), ('玛纳斯县', 'ns'), ('呼图壁县', 'ns'), ('南部', 'f'), ('山区', 'ns'), ('强降雨', 'nr'), ('天气', 'n'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('地形', 'n'), ('复杂', 'a'), ('急弯', 'v'), ('陡坡', 'ns'), ('临水', 'ns'), ('临崖', 'ns'), ('路段', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('影响', 'vn'), ('导致', 'v'), ('山体', 'n'), ('极易', 'a'), ('发生', 'v'), ('滑坡', 'ns'), ('泥石流', 'n'), ('灾害', 'n'), ('保障', 'v'), ('广大', 'a'), ('人民', 'n'), ('群众', 'n'), ('生命财产', 'l'), ('安全', 'an'), ('防止', 'v'), ('意外事件', 'n'), ('发生', 'v'), ('在此期间', 'l'), ('玛纳斯', 'nr'), ('呼图壁县', 'ns'), ('公安局', 'nt'), ('交警大队', 'nt'), ('分别', 'd'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('路段', 'n'), ('全线', 'n'), ('实行', 'v'), ('小时', 'n'), ('临时', 'b'), ('交通管制', 'n'), ('时间', 'n'), ('零时', 'd'), ('选择', 'v'), ('路段', 'n'), ('出行', 'v'), ('车辆', 'n'), ('主动', 'b'), ('绕行', 'v'), ('带来', 'v'), ('不便', 'c'), ('敬请', 'v'), ('谅解', 'v')]</t>
+          <t>[('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('路段', 'n'), ('小时', 'n'), ('临时', 'b'), ('交通管制', 'n'), ('公告', 'n'), ('气象部门', 'n'), ('发布', 'v'), ('气象', 'n'), ('信息', 'n'), ('强降雨', 'nr'), ('天气', 'n'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('地形', 'n'), ('复杂', 'a'), ('急弯', 'v'), ('路段', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('影响', 'vn'), ('导致', 'v'), ('山体', 'n'), ('极易', 'a'), ('发生', 'v'), ('泥石流', 'n'), ('灾害', 'n'), ('保障', 'v'), ('广大', 'a'), ('人民', 'n'), ('群众', 'n'), ('生命财产', 'l'), ('安全', 'an'), ('防止', 'v'), ('意外事件', 'n'), ('发生', 'v'), ('在此期间', 'l'), ('玛纳斯', 'nr'), ('玛纳斯', 'nr'), ('呼图壁', 'nr'), ('路段', 'n'), ('全线', 'n'), ('实行', 'v'), ('小时', 'n'), ('临时', 'b'), ('交通管制', 'n'), ('时间', 'n'), ('选择', 'v'), ('路段', 'n'), ('出行', 'v'), ('车辆', 'n'), ('主动', 'b'), ('绕行', 'v'), ('带来', 'v'), ('敬请', 'v'), ('谅解', 'v')]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[('新疆', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('玛纳斯', 'ns'), ('呼图壁', 'ns'), ('路段', 'n'), ('小时', 'n'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('公告', 'n'), ('气象', 'n'), ('部门', 'n'), ('发布', 'v'), ('气象', 'n'), ('信息', 'n'), ('玛纳斯县', 'ns'), ('呼图壁县', 'ns'), ('南部', 'f'), ('山区', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('线玛纳斯', 'nr'), ('呼图', 'n'), ('壁段', 'n'), ('地形', 'n'), ('复杂', 'a'), ('急弯', 'z'), ('陡坡', 'n'), ('临水', 'ns'), ('临崖', 'ns'), ('路段', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('影响', 'vn'), ('导致', 'v'), ('山体', 'n'), ('发生', 'v'), ('滑坡', 'vn'), ('泥石流', 'n'), ('灾害', 'n'), ('保障', 'v'), ('广大', 'a'), ('人民', 'n'), ('群众', 'n'), ('生命', 'n'), ('财产', 'n'), ('安全', 'an'), ('防止', 'v'), ('意外', 'a'), ('事件', 'n'), ('发生', 'v'), ('期间', 'f'), ('玛纳斯', 'nr'), ('呼图壁县公安局', 'j'), ('交警', 'n'), ('大队', 'n'), ('分别', 'd'), ('玛纳斯', 'nr'), ('呼图壁', 'ns'), ('路段', 'n'), ('全线', 'n'), ('实行', 'v'), ('小时', 'n'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('时间', 'n'), ('零时', 't'), ('选择', 'v'), ('路段', 'n'), ('出行', 'v'), ('车辆', 'n'), ('主动', 'ad'), ('绕行', 'v'), ('带来', 'v'), ('不便', 'a'), ('敬请', 'v'), ('谅解', 'v')]</t>
+          <t>[('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('路段', 'n'), ('小时', 'n'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('公告', 'n'), ('气象', 'n'), ('部门', 'n'), ('发布', 'v'), ('气象', 'n'), ('信息', 'n'), ('山区', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('线玛纳斯', 'nr'), ('呼图', 'n'), ('壁段', 'n'), ('地形', 'n'), ('复杂', 'a'), ('急弯', 'z'), ('陡坡', 'n'), ('路段', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('影响', 'vn'), ('导致', 'v'), ('山体', 'n'), ('发生', 'v'), ('滑坡', 'vn'), ('泥石流', 'n'), ('灾害', 'n'), ('保障', 'v'), ('广大', 'a'), ('人民', 'n'), ('群众', 'n'), ('生命', 'n'), ('财产', 'n'), ('安全', 'an'), ('防止', 'v'), ('意外', 'a'), ('事件', 'n'), ('发生', 'v'), ('玛纳斯', 'nr'), ('呼图壁县公安局', 'j'), ('交警', 'n'), ('大队', 'n'), ('玛纳斯', 'nr'), ('路段', 'n'), ('全线', 'n'), ('实行', 'v'), ('小时', 'n'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('时间', 'n'), ('零时', 't'), ('选择', 'v'), ('路段', 'n'), ('出行', 'v'), ('车辆', 'n'), ('主动', 'ad'), ('绕行', 'v'), ('带来', 'v'), ('不便', 'a'), ('敬请', 'v'), ('谅解', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[('武汉', 'ns'), ('交警', 'j'), ('视角', 'n'), ('长江大桥', 'ns'), ('首义', 'n'), ('隧道', 'n'), ('大桥', 'ns'), ('武昌', 'ns'), ('汉阳', 'ns'), ('方向', 'n'), ('暴雨', 'n'), ('大风', 'n'), ('影响', 'vn'), ('影响', 'vn'), ('道路', 'n'), ('警情', 'n'), ('辖区', 'n'), ('民警', 'n'), ('迅速', 'ad'), ('该处', 'r'), ('采取', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('措施', 'n'), ('赶赴现场', 'i'), ('环卫工', 'n'), ('清理', 'a'), ('现场', 'n'), ('最快', 'd'), ('时间', 'n'), ('恢复', 'v'), ('道路', 'n'), ('通行', 'j'), ('武汉', 'ns'), ('暴雨', 'n'), ('武汉', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('视角', 'n'), ('首义', 'n'), ('隧道', 'n'), ('方向', 'n'), ('暴雨', 'n'), ('大风', 'n'), ('影响', 'vn'), ('影响', 'vn'), ('道路', 'n'), ('警情', 'n'), ('辖区', 'n'), ('民警', 'n'), ('迅速', 'ad'), ('采取', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('措施', 'n'), ('赶赴现场', 'i'), ('环卫工', 'n'), ('清理', 'a'), ('现场', 'n'), ('时间', 'n'), ('恢复', 'v'), ('道路', 'n'), ('通行', 'j'), ('暴雨', 'n'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[('武汉', 'ns'), ('交警', 'n'), ('微视角', 'n'), ('长江', 'ns'), ('大桥', 'ns'), ('首义', 'ns'), ('隧道', 'n'), ('大桥', 'n'), ('武昌', 'ns'), ('汉阳', 'ns'), ('方向', 'n'), ('暴雨', 'n'), ('大风', 'n'), ('影响', 'vn'), ('树倒', 'n'), ('影响', 'vn'), ('道路', 'n'), ('警情', 'n'), ('辖区', 'n'), ('民警', 'n'), ('迅速', 'ad'), ('采取', 'v'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('赶赴', 'v'), ('现场', 's'), ('环卫工', 'n'), ('清理', 'vn'), ('现场', 's'), ('时间', 'n'), ('恢复', 'v'), ('道路', 'n'), ('通行', 'v'), ('武汉', 'ns'), ('暴雨', 'n'), ('武汉', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'n'), ('微视角', 'n'), ('隧道', 'n'), ('大桥', 'n'), ('方向', 'n'), ('暴雨', 'n'), ('大风', 'n'), ('影响', 'vn'), ('树倒', 'n'), ('影响', 'vn'), ('道路', 'n'), ('警情', 'n'), ('辖区', 'n'), ('民警', 'n'), ('迅速', 'ad'), ('采取', 'v'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('赶赴', 'v'), ('环卫工', 'n'), ('清理', 'vn'), ('时间', 'n'), ('恢复', 'v'), ('道路', 'n'), ('通行', 'v'), ('暴雨', 'n'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[('凤凰', 'nr'), ('直击', 'v'), ('暴雨', 'n'), ('郑州', 'ns'), ('暴雨', 'n'), ('影响', 'vn'), ('铁路', 'n'), ('交通', 'n'), ('大批', 'm'), ('旅客', 'n'), ('滞留', 'v'), ('特大', 'a'), ('暴雨成灾', 'i'), ('郑州', 'ns'), ('铁路', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('大量', 'n'), ('列车', 'n'), ('停驶', 'v'), ('大批', 'm'), ('旅客', 'n'), ('滞留', 'v'), ('来看', 'u'), ('凤凰卫视', 'nz'), ('记者', 'n'), ('发自', 'v'), ('郑州', 'ns'), ('东站', 'n'), ('报道', 'v'), ('凤凰卫视', 'nz'), ('霍伟伟', 'nr'), ('叶柏健', 'nr'), ('郑州', 'ns'), ('报道', 'v'), ('凤凰卫视', 'nz'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('凤凰', 'nr'), ('直击', 'v'), ('暴雨', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('铁路', 'n'), ('交通', 'n'), ('旅客', 'n'), ('滞留', 'v'), ('特大', 'a'), ('暴雨成灾', 'i'), ('铁路', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('大量', 'n'), ('列车', 'n'), ('停驶', 'v'), ('旅客', 'n'), ('滞留', 'v'), ('来看', 'u'), ('记者', 'n'), ('发自', 'v'), ('东站', 'n'), ('报道', 'v'), ('霍伟伟', 'nr'), ('叶柏健', 'nr'), ('报道', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[('凤凰', 'n'), ('直击', 'v'), ('暴雨', 'n'), ('郑州', 'ns'), ('暴雨', 'n'), ('影响', 'v'), ('铁路', 'n'), ('交通', 'n'), ('大批', 'm'), ('旅客', 'n'), ('滞留', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('成灾', 'v'), ('郑州', 'ns'), ('铁路', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('大量', 'm'), ('列车', 'n'), ('停驶', 'v'), ('大批', 'm'), ('旅客', 'n'), ('滞留', 'v'), ('来看', 'u'), ('凤凰', 'n'), ('卫视', 'vn'), ('记者', 'n'), ('发自', 'v'), ('郑州', 'ns'), ('东站', 'ns'), ('报道', 'n'), ('凤凰', 'n'), ('卫视', 'v'), ('霍伟伟', 'nr'), ('叶柏健', 'nr'), ('郑州', 'ns'), ('报道', 'n'), ('凤凰', 'n'), ('卫视', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('凤凰', 'n'), ('直击', 'v'), ('暴雨', 'n'), ('暴雨', 'n'), ('影响', 'v'), ('铁路', 'n'), ('交通', 'n'), ('旅客', 'n'), ('滞留', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('成灾', 'v'), ('铁路', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('列车', 'n'), ('停驶', 'v'), ('旅客', 'n'), ('滞留', 'v'), ('来看', 'u'), ('凤凰', 'n'), ('卫视', 'vn'), ('记者', 'n'), ('发自', 'v'), ('报道', 'n'), ('凤凰', 'n'), ('卫视', 'v'), ('霍伟伟', 'nr'), ('叶柏健', 'nr'), ('报道', 'n'), ('凤凰', 'n'), ('卫视', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[('深圳', 'ns'), ('交警', 'j'), ('一线', 'm'), ('红绿灯', 'nr'), ('故障', 'n'), ('铁骑', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('近日', 't'), ('福田', 'ns'), ('交警', 'j'), ('红树林', 'nr'), ('中队', 'n'), ('铁骑', 'n'), ('接到', 'v'), ('指令', 'n'), ('暴雨', 'n'), ('原因', 'n'), ('新洲', 'ns'), ('福民', 'ns'), ('路口', 's'), ('红绿灯', 'nr'), ('出现', 'v'), ('故障', 'n'), ('路口', 's'), ('出现', 'v'), ('交通拥堵', 'i'), ('铁骑', 'n'), ('迅速', 'ad'), ('到达', 'v'), ('现场', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('直至', 'v'), ('红绿灯', 'nr'), ('修复', 'v'), ('恢复正常', 'b'), ('通行', 'j')]</t>
+          <t>[('交警', 'j'), ('红绿灯', 'nr'), ('故障', 'n'), ('铁骑', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('近日', 't'), ('交警', 'j'), ('红树林', 'nr'), ('中队', 'n'), ('铁骑', 'n'), ('接到', 'v'), ('指令', 'n'), ('暴雨', 'n'), ('原因', 'n'), ('红绿灯', 'nr'), ('出现', 'v'), ('故障', 'n'), ('出现', 'v'), ('交通拥堵', 'i'), ('铁骑', 'n'), ('迅速', 'ad'), ('到达', 'v'), ('现场', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('直至', 'v'), ('红绿灯', 'nr'), ('修复', 'v'), ('恢复正常', 'b'), ('通行', 'j')]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[('深圳', 'ns'), ('交警', 'n'), ('一线', 'n'), ('红绿灯', 'n'), ('故障', 'n'), ('铁骑', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('近日', 't'), ('福田', 'ns'), ('交警', 'n'), ('红树林', 'n'), ('中队', 'n'), ('铁骑', 'n'), ('接到', 'v'), ('指令', 'n'), ('暴雨', 'n'), ('原因', 'n'), ('新洲', 'ns'), ('福民', 'nz'), ('路口', 'n'), ('红绿灯', 'n'), ('出现', 'v'), ('故障', 'n'), ('路口', 'n'), ('出现', 'v'), ('交通', 'n'), ('拥堵', 'v'), ('铁骑', 'n'), ('迅速', 'ad'), ('到达', 'v'), ('现场', 's'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('直至', 'v'), ('红绿灯', 'n'), ('修复', 'v'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
+          <t>[('交警', 'n'), ('一线', 'n'), ('红绿灯', 'n'), ('故障', 'n'), ('铁骑', 'n'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('近日', 't'), ('交警', 'n'), ('红树林', 'n'), ('中队', 'n'), ('铁骑', 'n'), ('接到', 'v'), ('指令', 'n'), ('暴雨', 'n'), ('原因', 'n'), ('路口', 'n'), ('红绿灯', 'n'), ('出现', 'v'), ('故障', 'n'), ('路口', 'n'), ('出现', 'v'), ('交通', 'n'), ('拥堵', 'v'), ('铁骑', 'n'), ('迅速', 'ad'), ('到达', 'v'), ('冒雨', 'v'), ('指挥', 'v'), ('交通', 'n'), ('直至', 'v'), ('红绿灯', 'n'), ('修复', 'v'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -3246,47 +3246,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>交警长安大队#交警正能量#【暴雨突袭，爸爸在奋战，岁女儿在路边等了他个小时！】爸爸在奋战，岁女儿在路边等了他个小时！</t>
+          <t>交警长安大队#交警正能量#【暴雨突袭，爸爸在奋战，岁女儿在路边等了他个小时！】</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['交警', '长安', '大队', '#', '交警', '正', '能量', '#', '【', '暴雨', '突袭', '，', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！', '】', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！']</t>
+          <t>['交警', '长安', '大队', '#', '交警', '正', '能量', '#', '【', '暴雨', '突袭', '，', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！', '】']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['交警', '长安', '大队', '#', '交警', '正能量', '#', '【', '暴雨', '突袭', '，', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！', '】', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！']</t>
+          <t>['交警', '长安', '大队', '#', '交警', '正能量', '#', '【', '暴雨', '突袭', '，', '爸爸', '在', '奋战', '，', '岁', '女儿', '在', '路边', '等', '了', '他', '个', '小时', '！', '】']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['交警', '长安', '大队', '交警', '能量', '暴雨', '突袭', '爸爸', '奋战', '女儿', '路边', '小时', '爸爸', '奋战', '女儿', '路边', '小时']</t>
+          <t>['交警', '长安', '大队', '交警', '能量', '暴雨', '突袭', '爸爸', '奋战', '女儿', '路边', '小时']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['交警', '长安', '大队', '交警', '正能量', '暴雨', '突袭', '爸爸', '奋战', '女儿', '路边', '小时', '爸爸', '奋战', '女儿', '路边', '小时']</t>
+          <t>['交警', '长安', '大队', '交警', '正能量', '暴雨', '突袭', '爸爸', '奋战', '女儿', '路边', '小时']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('长安', 'ns'), ('大队', 'n'), ('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('突袭', 'vn'), ('，', 'x'), ('爸爸', 'n'), ('在', 'p'), ('奋战', 'v'), ('，', 'x'), ('岁', 'm'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'u'), ('了', 'ul'), ('他个', 'r'), ('小时', 'n'), ('！', 'x'), ('】', 'x'), ('爸爸', 'n'), ('在', 'p'), ('奋战', 'v'), ('，', 'x'), ('岁', 'm'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'u'), ('了', 'ul'), ('他个', 'r'), ('小时', 'n'), ('！', 'x')]</t>
+          <t>[('交警', 'j'), ('长安', 'ns'), ('大队', 'n'), ('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('突袭', 'vn'), ('，', 'x'), ('爸爸', 'n'), ('在', 'p'), ('奋战', 'v'), ('，', 'x'), ('岁', 'm'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'u'), ('了', 'ul'), ('他个', 'r'), ('小时', 'n'), ('！', 'x'), ('】', 'x')]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[('交警', 'n'), ('长安', 'ns'), ('大队', 'n'), ('#', 'n'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('突袭', 'v'), ('，', 'w'), ('爸爸', 'n'), ('在', 'd'), ('奋战', 'v'), ('，', 'w'), ('岁', 'q'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'v'), ('了', 'u'), ('他', 'r'), ('个', 'q'), ('小时', 'n'), ('！', 'w'), ('】', 'v'), ('爸爸', 'n'), ('在', 'd'), ('奋战', 'v'), ('，', 'w'), ('岁', 'q'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'v'), ('了', 'u'), ('他', 'r'), ('个', 'q'), ('小时', 'n'), ('！', 'w')]</t>
+          <t>[('交警', 'n'), ('长安', 'ns'), ('大队', 'n'), ('#', 'n'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('突袭', 'v'), ('，', 'w'), ('爸爸', 'n'), ('在', 'd'), ('奋战', 'v'), ('，', 'w'), ('岁', 'q'), ('女儿', 'n'), ('在', 'p'), ('路边', 's'), ('等', 'v'), ('了', 'u'), ('他', 'r'), ('个', 'q'), ('小时', 'n'), ('！', 'w'), ('】', 'nr')]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('长安', 'ns'), ('大队', 'n'), ('交警', 'j'), ('能量', 'n'), ('暴雨', 'n'), ('突袭', 'vn'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('路边', 's'), ('他个', 'r'), ('小时', 'n'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('路边', 's'), ('他个', 'r'), ('小时', 'n')]</t>
+          <t>[('交警', 'j'), ('大队', 'n'), ('交警', 'j'), ('能量', 'n'), ('暴雨', 'n'), ('突袭', 'vn'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('小时', 'n')]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[('交警', 'n'), ('长安', 'ns'), ('大队', 'n'), ('交警', 'n'), ('正能量', 'n'), ('暴雨', 'n'), ('突袭', 'v'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('路边', 's'), ('小时', 'n'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('路边', 's'), ('小时', 'n')]</t>
+          <t>[('交警', 'n'), ('大队', 'n'), ('交警', 'n'), ('正能量', 'n'), ('暴雨', 'n'), ('突袭', 'v'), ('爸爸', 'n'), ('奋战', 'v'), ('女儿', 'n'), ('小时', 'n')]</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[('预警', 'vn'), ('信号', 'n'), ('东丰县', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('黄河', 'ns'), ('降水量', 'n'), ('超过', 'v'), ('毫米', 'q'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('各乡镇', 'ns'), ('强降雨', 'nr'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'v'), ('单位', 'n'), ('广大', 'a'), ('城乡居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'v'), ('驾驶人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通堵塞', 'n'), ('确保安全', 'ns')]</t>
+          <t>[('预警', 'vn'), ('信号', 'n'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('降水量', 'n'), ('超过', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('强降雨', 'nr'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'v'), ('单位', 'n'), ('广大', 'a'), ('城乡居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'v'), ('驾驶人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通堵塞', 'n')]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[('预警', 'vn'), ('信号', 'n'), ('东丰县', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('黄河镇', 'ns'), ('降水量', 'n'), ('超过', 'v'), ('毫米', 'q'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('乡镇', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'vn'), ('单位', 'n'), ('广大', 'a'), ('城乡', 'n'), ('居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'vn'), ('驾驶', 'vn'), ('人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n'), ('堵塞', 'v'), ('确保', 'v'), ('安全', 'an')]</t>
+          <t>[('预警', 'vn'), ('信号', 'n'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('降水量', 'n'), ('超过', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('乡镇', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'vn'), ('单位', 'n'), ('广大', 'a'), ('城乡', 'n'), ('居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'vn'), ('驾驶', 'vn'), ('人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n'), ('堵塞', 'v'), ('确保', 'v'), ('安全', 'an')]</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[('双向', 'n'), ('感动', 'v'), ('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频繁', 'a'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('双向', 'n'), ('感动', 'v'), ('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频繁', 'a'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[('双向', 'd'), ('感动', 'v'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频繁', 'ad'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('感动', 'v'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频繁', 'ad'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('应急', 'vn'), ('科普', 'nrt'), ('图说', 'n'), ('暴雨', 'n'), ('交通', 'n'), ('出行', 'v'), ('防控', 'vn'), ('风险', 'n'), ('暴雨', 'n'), ('步行', 'n'), ('外出', 'v'), ('应该', 'v'), ('躲避', 'v'), ('危险', 'an'), ('地点', 'n'), ('驾车', 'n'), ('出行', 'v'), ('之前', 'f'), ('应该', 'v'), ('做好', 'v'), ('准备', 'v'), ('工作', 'vn'), ('这份', 'mq'), ('安全', 'an'), ('提示', 'v'), ('收下', 'v')]</t>
+          <t>[('暴雨', 'n'), ('应急', 'vn'), ('科普', 'nrt'), ('图说', 'n'), ('暴雨', 'n'), ('交通', 'n'), ('出行', 'v'), ('防控', 'vn'), ('风险', 'n'), ('暴雨', 'n'), ('步行', 'n'), ('外出', 'v'), ('应该', 'v'), ('躲避', 'v'), ('危险', 'an'), ('地点', 'n'), ('驾车', 'n'), ('出行', 'v'), ('应该', 'v'), ('做好', 'v'), ('准备', 'v'), ('工作', 'vn'), ('安全', 'an'), ('提示', 'v'), ('收下', 'v')]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('应急', 'v'), ('科普', 'b'), ('图说', 'v'), ('暴雨天', 'n'), ('交通', 'n'), ('出行', 'v'), ('防控', 'v'), ('风险', 'n'), ('暴雨天', 'n'), ('步行', 'v'), ('外出', 'v'), ('应该', 'v'), ('躲避', 'v'), ('危险', 'a'), ('地点', 'n'), ('驾车', 'v'), ('出行', 'v'), ('之前', 'f'), ('应该', 'v'), ('做好', 'v'), ('准备', 'vn'), ('工作', 'vn'), ('安全', 'an'), ('提示', 'v'), ('收下', 'v')]</t>
+          <t>[('暴雨', 'n'), ('应急', 'v'), ('科普', 'b'), ('图说', 'v'), ('暴雨天', 'n'), ('交通', 'n'), ('出行', 'v'), ('防控', 'v'), ('风险', 'n'), ('暴雨天', 'n'), ('步行', 'v'), ('外出', 'v'), ('应该', 'v'), ('躲避', 'v'), ('危险', 'a'), ('地点', 'n'), ('驾车', 'v'), ('出行', 'v'), ('应该', 'v'), ('做好', 'v'), ('准备', 'vn'), ('工作', 'vn'), ('安全', 'an'), ('提示', 'v'), ('收下', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[('邢台', 'ns'), ('二中', 'nrt'), ('华北地区', 'ns'), ('进入', 'v'), ('汛期', 't'), ('大家', 'n'), ('出行', 'v'), ('注意安全', 'nz'), ('家中', 's'), ('常备', 'n'), ('干净', 'a'), ('独立', 'v'), ('包装', 'v'), ('饮用水', 'n'), ('方便', 'a'), ('食品', 'n'), ('以防', 'v'), ('洪水', 'nr'), ('交通', 'n'), ('阻断', 'v'), ('夏季', 't'), ('出行', 'v'), ('安全', 'an'), ('指南', 'n'), ('暴雨', 'n'), ('区要', 'b'), ('天气预报', 'n'), ('不要', 'df'), ('轻易', 'a'), ('驾车', 'n'), ('车辆', 'n'), ('涉水', 'v'), ('被困', 'a'), ('情况', 'n'), ('尽早', 'd'), ('脱离', 'v'), ('远离', 'v'), ('电线杆', 'n'), ('路灯', 'n'), ('广告牌', 'n'), ('远离', 'v'), ('窨井盖', 'n'), ('不要', 'df'), ('主动', 'b'), ('选择', 'v'), ('涉水', 'v'), ('已经', 'd'), ('被困', 'a'), ('情况', 'n'), ('不要', 'df'), ('下水', 'v'), ('涉水', 'v'), ('撤离', 'v'), ('往树', 'n'), ('高处', 'd'), ('尽可能', 'd'), ('屋内', 's'), ('安全', 'an'), ('地方', 'n'), ('脱困', 'v'), ('首选', 'v'), ('电话', 'n'), ('报警', 'n'), ('参照物', 'n'), ('描述', 'v'), ('位置', 'v'), ('靠近', 'v'), ('高声', 'n'), ('呼喊', 'v'), ('夜间', 't'), ('使用', 'v'), ('手电', 'n'), ('手机', 'n'), ('灯光', 'n'), ('交替', 'v'), ('闪烁', 'v')]</t>
+          <t>[('二中', 'nrt'), ('进入', 'v'), ('汛期', 't'), ('大家', 'n'), ('出行', 'v'), ('常备', 'n'), ('干净', 'a'), ('独立', 'v'), ('包装', 'v'), ('饮用水', 'n'), ('方便', 'a'), ('食品', 'n'), ('以防', 'v'), ('洪水', 'nr'), ('交通', 'n'), ('阻断', 'v'), ('夏季', 't'), ('出行', 'v'), ('安全', 'an'), ('指南', 'n'), ('暴雨', 'n'), ('区要', 'b'), ('天气预报', 'n'), ('轻易', 'a'), ('驾车', 'n'), ('车辆', 'n'), ('涉水', 'v'), ('被困', 'a'), ('情况', 'n'), ('脱离', 'v'), ('远离', 'v'), ('电线杆', 'n'), ('路灯', 'n'), ('广告牌', 'n'), ('远离', 'v'), ('窨井盖', 'n'), ('主动', 'b'), ('选择', 'v'), ('涉水', 'v'), ('被困', 'a'), ('情况', 'n'), ('下水', 'v'), ('涉水', 'v'), ('撤离', 'v'), ('往树', 'n'), ('安全', 'an'), ('地方', 'n'), ('脱困', 'v'), ('首选', 'v'), ('电话', 'n'), ('报警', 'n'), ('参照物', 'n'), ('描述', 'v'), ('位置', 'v'), ('靠近', 'v'), ('高声', 'n'), ('呼喊', 'v'), ('夜间', 't'), ('使用', 'v'), ('手电', 'n'), ('手机', 'n'), ('灯光', 'n'), ('交替', 'v'), ('闪烁', 'v')]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[('邢台', 'ns'), ('二中华北', 'j'), ('地区', 'n'), ('进入', 'v'), ('主汛期', 'n'), ('大家', 'r'), ('出行', 'v'), ('注意', 'v'), ('安全', 'an'), ('家中', 's'), ('常备', 'd'), ('干净', 'a'), ('独立', 'a'), ('包装', 'vn'), ('饮用水', 'n'), ('方便', 'a'), ('食品', 'n'), ('以防', 'l'), ('洪水', 'n'), ('来袭', 'v'), ('交通', 'n'), ('阻断', 'v'), ('夏季', 't'), ('出行', 'v'), ('安全', 'a'), ('指南', 'n'), ('暴雨区', 'n'), ('天气', 'n'), ('预报', 'vn'), ('不要', 'd'), ('轻易', 'd'), ('驾车', 'v'), ('车辆', 'n'), ('涉水', 'vn'), ('被困', 'vn'), ('情况', 'n'), ('尽早', 'd'), ('脱离', 'v'), ('远离', 'v'), ('电线杆', 'n'), ('路灯', 'n'), ('广告牌', 'n'), ('远离', 'v'), ('窨井盖', 'n'), ('不要', 'd'), ('主动', 'ad'), ('选择', 'v'), ('涉水', 'v'), ('已经', 'd'), ('被困', 'a'), ('情况', 'n'), ('不要', 'd'), ('下水', 'v'), ('涉水', 'v'), ('撤离', 'v'), ('往树', 'n'), ('高处', 'n'), ('尽可能', 'd'), ('呆在', 'v'), ('屋内', 's'), ('安全', 'an'), ('地方', 'n'), ('脱困', 'v'), ('首选', 'vn'), ('电话', 'n'), ('报警', 'vn'), ('参照物', 'n'), ('描述', 'v'), ('位置', 'n'), ('靠近', 'v'), ('高声', 'n'), ('呼喊', 'v'), ('夜间', 't'), ('使用', 'v'), ('手电', 'n'), ('手机', 'n'), ('灯光', 'n'), ('交替', 'v'), ('闪烁', 'v')]</t>
+          <t>[('二中华北', 'j'), ('地区', 'n'), ('进入', 'v'), ('主汛期', 'n'), ('出行', 'v'), ('注意', 'v'), ('安全', 'an'), ('干净', 'a'), ('独立', 'a'), ('包装', 'vn'), ('饮用水', 'n'), ('方便', 'a'), ('食品', 'n'), ('以防', 'l'), ('洪水', 'n'), ('来袭', 'v'), ('交通', 'n'), ('阻断', 'v'), ('夏季', 't'), ('出行', 'v'), ('安全', 'a'), ('指南', 'n'), ('暴雨区', 'n'), ('天气', 'n'), ('预报', 'vn'), ('驾车', 'v'), ('车辆', 'n'), ('涉水', 'vn'), ('被困', 'vn'), ('情况', 'n'), ('脱离', 'v'), ('远离', 'v'), ('电线杆', 'n'), ('路灯', 'n'), ('广告牌', 'n'), ('远离', 'v'), ('窨井盖', 'n'), ('主动', 'ad'), ('选择', 'v'), ('涉水', 'v'), ('被困', 'a'), ('情况', 'n'), ('下水', 'v'), ('涉水', 'v'), ('撤离', 'v'), ('往树', 'n'), ('高处', 'n'), ('呆在', 'v'), ('安全', 'an'), ('地方', 'n'), ('脱困', 'v'), ('首选', 'vn'), ('电话', 'n'), ('报警', 'vn'), ('参照物', 'n'), ('描述', 'v'), ('位置', 'n'), ('靠近', 'v'), ('高声', 'n'), ('呼喊', 'v'), ('夜间', 't'), ('使用', 'v'), ('手电', 'n'), ('手机', 'n'), ('灯光', 'n'), ('交替', 'v'), ('闪烁', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[('提醒', 'v'), ('五一', 'm'), ('返程', 'n'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('尽量', 'd'), ('避开', 'v'), ('雨天', 't'), ('驾车', 'n'), ('出行', 'v'), ('五一', 'm'), ('疫情', 'n'), ('防控', 'vn'), ('超氧', 'n'), ('消毒', 'vn'), ('中央气象台', 'nt'), ('预报', 'vn'), ('夜间', 't'), ('冷暖空气', 'z'), ('共同', 'd'), ('影响', 'vn'), ('南方', 'f'), ('地区', 'n'), ('西向东', 'nr'), ('一次', 'm'), ('范围', 'n'), ('降水', 'n'), ('天气', 'n'), ('过程', 'n'), ('西南地区', 'ns'), ('东部', 'f'), ('江南', 'ns'), ('大到暴雨', 'l'), ('局地', 'n'), ('大暴雨', 'i'), ('返程', 'n'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('交通安全', 'l'), ('畅通', 'a'), ('带来', 'v'), ('较大', 'a'), ('挑战', 'vn'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n'), ('提醒', 'v'), ('大家', 'n'), ('即将', 'd'), ('返程', 'n'), ('关注', 'v'), ('天气', 'n'), ('路况', 'n'), ('合理安排', 'n'), ('出行', 'v'), ('时间', 'n'), ('路线', 'n'), ('尽可能', 'd'), ('避开', 'v'), ('雨天', 't'), ('驾车', 'n'), ('出行', 'v'), ('雨天', 't'), ('驾车', 'n'), ('切实', 'ad'), ('做到', 'v'), ('降速', 'n'), ('控距', 'v'), ('有序', 'n'), ('通行', 'j'), ('文明', 'nr'), ('礼让', 'v'), ('乘坐', 'v'), ('长途客车', 'l'), ('出行', 'v'), ('朋友', 'n'), ('选择', 'v'), ('乘坐', 'v'), ('正规', 'a'), ('营运', 'n'), ('车辆', 'n'), ('不要', 'df'), ('站外', 's'), ('上车', 'n'), ('包车', 'v'), ('客车', 'n'), ('全程', 'n'), ('自觉', 'd'), ('安全带', 'nr'), ('坚决', 'ad'), ('抵制', 'v'), ('超员', 'n'), ('客车', 'n'), ('五一', 'm'), ('人员', 'n'), ('流动', 'vn'), ('聚集', 'v'), ('注意', 'v'), ('疫情', 'n'), ('防护', 'v'), ('坚持', 'v'), ('口罩', 'n'), ('做好', 'v'), ('灭菌', 'v'), ('消毒', 'vn'), ('保护', 'v'), ('健康', 'a')]</t>
+          <t>[('提醒', 'v'), ('返程', 'n'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('避开', 'v'), ('雨天', 't'), ('驾车', 'n'), ('出行', 'v'), ('疫情', 'n'), ('防控', 'vn'), ('超氧', 'n'), ('消毒', 'vn'), ('预报', 'vn'), ('夜间', 't'), ('冷暖空气', 'z'), ('影响', 'vn'), ('地区', 'n'), ('西向东', 'nr'), ('范围', 'n'), ('降水', 'n'), ('天气', 'n'), ('过程', 'n'), ('大到暴雨', 'l'), ('局地', 'n'), ('大暴雨', 'i'), ('返程', 'n'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('交通安全', 'l'), ('畅通', 'a'), ('带来', 'v'), ('较大', 'a'), ('挑战', 'vn'), ('公安部', 'n'), ('交通', 'n'), ('管理局', 'n'), ('提醒', 'v'), ('大家', 'n'), ('返程', 'n'), ('关注', 'v'), ('天气', 'n'), ('路况', 'n'), ('合理安排', 'n'), ('出行', 'v'), ('时间', 'n'), ('路线', 'n'), ('避开', 'v'), ('雨天', 't'), ('驾车', 'n'), ('出行', 'v'), ('雨天', 't'), ('驾车', 'n'), ('切实', 'ad'), ('做到', 'v'), ('降速', 'n'), ('控距', 'v'), ('有序', 'n'), ('通行', 'j'), ('文明', 'nr'), ('礼让', 'v'), ('乘坐', 'v'), ('长途客车', 'l'), ('出行', 'v'), ('朋友', 'n'), ('选择', 'v'), ('乘坐', 'v'), ('正规', 'a'), ('营运', 'n'), ('车辆', 'n'), ('上车', 'n'), ('包车', 'v'), ('客车', 'n'), ('全程', 'n'), ('安全带', 'nr'), ('坚决', 'ad'), ('抵制', 'v'), ('超员', 'n'), ('客车', 'n'), ('人员', 'n'), ('流动', 'vn'), ('聚集', 'v'), ('注意', 'v'), ('疫情', 'n'), ('防护', 'v'), ('坚持', 'v'), ('口罩', 'n'), ('做好', 'v'), ('灭菌', 'v'), ('消毒', 'vn'), ('保护', 'v'), ('健康', 'a')]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[('提醒', 'v'), ('五一', 't'), ('返程', 'v'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('尽量', 'd'), ('避开', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('出行', 'v'), ('五一', 't'), ('疫情', 'n'), ('防控', 'vn'), ('超氧', 'v'), ('消毒', 'v'), ('中央', 'n'), ('气象台', 'n'), ('预报', 'v'), ('夜间', 't'), ('冷暖', 'n'), ('空气', 'n'), ('共同', 'b'), ('影响', 'vn'), ('南方', 'f'), ('地区', 'n'), ('自西', 'ns'), ('向东', 'ns'), ('范围', 'n'), ('降水', 'n'), ('天气', 'n'), ('过程', 'n'), ('西南', 's'), ('地区', 'n'), ('东部', 'f'), ('江南', 's'), ('大到暴雨', 'l'), ('局地', 'n'), ('大暴雨', 'i'), ('返程', 'v'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('交通', 'n'), ('安全', 'an'), ('畅通', 'an'), ('带来', 'v'), ('挑战', 'vn'), ('公安部', 'nt'), ('交通', 'n'), ('管理局', 'n'), ('提醒', 'v'), ('大家', 'r'), ('即将', 'd'), ('返程', 'v'), ('关注', 'v'), ('天气', 'n'), ('路况', 'n'), ('合理', 'ad'), ('安排', 'v'), ('出行', 'vn'), ('时间', 'n'), ('路线', 'n'), ('尽可能', 'd'), ('避开', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('出行', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('切实', 'ad'), ('做到', 'v'), ('降速', 'v'), ('控距', 'j'), ('亮尾', 'n'), ('有序', 'ad'), ('通行', 'v'), ('文明', 'ad'), ('礼让', 'v'), ('乘坐', 'v'), ('长途', 'b'), ('客车', 'n'), ('出行', 'v'), ('朋友', 'n'), ('选择', 'v'), ('乘坐', 'v'), ('正规', 'a'), ('营运', 'vn'), ('车辆', 'n'), ('不要', 'd'), ('站外', 'v'), ('上车', 'n'), ('黑包车', 'n'), ('黑客车', 'n'), ('全程', 'n'), ('自觉', 'ad'), ('系好', 'v'), ('安全带', 'n'), ('坚决', 'ad'), ('抵制', 'v'), ('超员', 'n'), ('客车', 'n'), ('五一', 't'), ('人员', 'n'), ('流动', 'vn'), ('聚集', 'v'), ('注意', 'v'), ('疫情', 'n'), ('防护', 'vn'), ('坚持', 'v'), ('口罩', 'n'), ('做好', 'v'), ('灭菌', 'v'), ('消毒', 'v'), ('保护', 'v'), ('健康', 'an')]</t>
+          <t>[('提醒', 'v'), ('五一', 't'), ('返程', 'v'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('避开', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('出行', 'v'), ('五一', 't'), ('疫情', 'n'), ('防控', 'vn'), ('超氧', 'v'), ('消毒', 'v'), ('中央', 'n'), ('气象台', 'n'), ('预报', 'v'), ('夜间', 't'), ('冷暖', 'n'), ('空气', 'n'), ('共同', 'b'), ('影响', 'vn'), ('地区', 'n'), ('范围', 'n'), ('降水', 'n'), ('天气', 'n'), ('过程', 'n'), ('地区', 'n'), ('大到暴雨', 'l'), ('局地', 'n'), ('大暴雨', 'i'), ('返程', 'v'), ('交通流', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('叠加', 'v'), ('交通', 'n'), ('安全', 'an'), ('畅通', 'an'), ('带来', 'v'), ('挑战', 'vn'), ('交通', 'n'), ('管理局', 'n'), ('提醒', 'v'), ('返程', 'v'), ('关注', 'v'), ('天气', 'n'), ('路况', 'n'), ('合理', 'ad'), ('安排', 'v'), ('出行', 'vn'), ('时间', 'n'), ('路线', 'n'), ('避开', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('出行', 'v'), ('雨天', 'n'), ('驾车', 'v'), ('切实', 'ad'), ('做到', 'v'), ('降速', 'v'), ('控距', 'j'), ('亮尾', 'n'), ('有序', 'ad'), ('通行', 'v'), ('文明', 'ad'), ('礼让', 'v'), ('乘坐', 'v'), ('长途', 'b'), ('客车', 'n'), ('出行', 'v'), ('朋友', 'n'), ('选择', 'v'), ('乘坐', 'v'), ('正规', 'a'), ('营运', 'vn'), ('车辆', 'n'), ('站外', 'v'), ('上车', 'n'), ('黑包车', 'n'), ('黑客车', 'n'), ('全程', 'n'), ('自觉', 'ad'), ('系好', 'v'), ('安全带', 'n'), ('坚决', 'ad'), ('抵制', 'v'), ('超员', 'n'), ('客车', 'n'), ('五一', 't'), ('人员', 'n'), ('流动', 'vn'), ('聚集', 'v'), ('注意', 'v'), ('疫情', 'n'), ('防护', 'vn'), ('坚持', 'v'), ('口罩', 'n'), ('做好', 'v'), ('灭菌', 'v'), ('消毒', 'v'), ('保护', 'v'), ('健康', 'an')]</t>
         </is>
       </c>
     </row>
@@ -3576,47 +3576,47 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>#两公布一提示#【古蔺县发布暴雨红色预警】将号暴雨橙色预警信号更新为暴雨红色预警信号：预计我县龙山、石屏、二郎、大村、东新小时降雨量将达毫米，请上述地区及周边乡镇注意防范。【交警提示】暴雨天气尽量减少外出，特别是山区易发生因暴雨引发的各类地质灾害，应避免在山涧、河谷、水库、临河、临崖路段逗留，行经山区道路请谨慎驾驶，注意观察，不明路段切勿冒险强行！@酒城交警@平安古蔺@泸州交通广播</t>
+          <t>#两公布一提示#【古蔺县发布暴雨红色预警】将号暴雨橙色预警信号更新为暴雨红色预警信号：预计我县龙山、石屏、二郎、大村、东新小时降雨量将达毫米，请上述地区及周边乡镇注意防范。【交警提示】暴雨天气尽量减少外出，特别是山区易发生因暴雨引发的各类地质灾害，应避免在山涧、河谷、水库、临河、临崖路段逗留，行经山区道路请谨慎驾驶，注意观察，不明路段切勿冒险强行！</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['#', '两', '公布', '一', '提示', '#', '【', '古蔺县', '发布', '暴雨', '红色', '预警', '】', '将', '号', '暴雨', '橙色', '预警', '信号', '更新', '为', '暴雨', '红色', '预警', '信号', '：', '预计', '我县', '龙山', '、', '石屏', '、', '二郎', '、', '大', '村', '、', '东新', '小时', '降雨量', '将', '达', '毫米', '，', '请', '上述', '地区', '及', '周边', '乡镇', '注意', '防范', '。', '【', '交警', '提示', '】', '暴雨', '天气', '尽量减少', '外出', '，', '特别', '是', '山区', '易', '发生', '因', '暴雨', '引发', '的', '各类', '地质灾害', '，', '应', '避免', '在', '山涧', '、', '河谷', '、', '水库', '、', '临河', '、', '临崖', '路段', '逗留', '，', '行经', '山区', '道路', '请', '谨慎', '驾驶', '，', '注意', '观察', '，', '不明', '路段', '切勿', '冒险', '强行', '！', '@', '酒', '城', '交警', '@', '平安', '古蔺', '@', '泸州', '交通广播']</t>
+          <t>['#', '两', '公布', '一', '提示', '#', '【', '古蔺县', '发布', '暴雨', '红色', '预警', '】', '将', '号', '暴雨', '橙色', '预警', '信号', '更新', '为', '暴雨', '红色', '预警', '信号', '：', '预计', '我县', '龙山', '、', '石屏', '、', '二郎', '、', '大', '村', '、', '东新', '小时', '降雨量', '将', '达', '毫米', '，', '请', '上述', '地区', '及', '周边', '乡镇', '注意', '防范', '。', '【', '交警', '提示', '】', '暴雨', '天气', '尽量减少', '外出', '，', '特别', '是', '山区', '易', '发生', '因', '暴雨', '引发', '的', '各类', '地质灾害', '，', '应', '避免', '在', '山涧', '、', '河谷', '、', '水库', '、', '临河', '、', '临崖', '路段', '逗留', '，', '行经', '山区', '道路', '请', '谨慎', '驾驶', '，', '注意', '观察', '，', '不明', '路段', '切勿', '冒险', '强行', '！']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['#', '两', '公布', '一', '提示', '#', '【', '古蔺县', '发布', '暴雨', '红色', '预警', '】', '将', '号', '暴雨', '橙色', '预警', '信号', '更新', '为', '暴雨', '红色', '预警', '信号', '：', '预计', '我', '县龙山', '、', '石屏', '、', '二郎', '、', '大村', '、', '东新', '小时', '降雨量', '将', '达', '毫米', '，', '请', '上述', '地区', '及', '周边', '乡镇', '注意', '防范', '。', '【', '交警', '提示', '】', '暴雨', '天气', '尽量', '减少', '外出', '，', '特别', '是', '山区', '易', '发生', '因', '暴雨', '引发', '的', '各类', '地质', '灾害', '，', '应', '避免', '在', '山涧', '、', '河谷', '、', '水库', '、', '临河', '、', '临崖', '路段', '逗留', '，', '行经', '山区', '道路', '请', '谨慎', '驾驶', '，', '注意', '观察', '，', '不明', '路段', '切勿', '冒险', '强行', '！', '@', '酒城', '交警', '@', '平安', '古蔺', '@', '泸州', '交通', '广播']</t>
+          <t>['#', '两', '公布', '一', '提示', '#', '【', '古蔺县', '发布', '暴雨', '红色', '预警', '】', '将', '号', '暴雨', '橙色', '预警', '信号', '更新', '为', '暴雨', '红色', '预警', '信号', '：', '预计', '我', '县龙山', '、', '石屏', '、', '二郎', '、', '大村', '、', '东新', '小时', '降雨量', '将', '达', '毫米', '，', '请', '上述', '地区', '及', '周边', '乡镇', '注意', '防范', '。', '【', '交警', '提示', '】', '暴雨', '天气', '尽量', '减少', '外出', '，', '特别', '是', '山区', '易', '发生', '因', '暴雨', '引发', '的', '各类', '地质', '灾害', '，', '应', '避免', '在', '山涧', '、', '河谷', '、', '水库', '、', '临河', '、', '临崖', '路段', '逗留', '，', '行经', '山区', '道路', '请', '谨慎', '驾驶', '，', '注意', '观察', '，', '不明', '路段', '切勿', '冒险', '强行', '！']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['公布', '提示', '古蔺县', '发布', '暴雨', '红色', '预警', '暴雨', '橙色', '预警', '信号', '更新', '暴雨', '红色', '预警', '信号', '预计', '我县', '龙山', '石屏', '二郎', '东新', '小时', '降雨量', '毫米', '上述', '地区', '周边', '乡镇', '注意', '防范', '交警', '提示', '暴雨', '天气', '尽量减少', '外出', '特别', '山区', '发生', '暴雨', '引发', '各类', '地质灾害', '避免', '山涧', '河谷', '水库', '临河', '临崖', '路段', '逗留', '行经', '山区', '道路', '谨慎', '驾驶', '注意', '观察', '不明', '路段', '切勿', '冒险', '强行', '交警', '平安', '古蔺', '泸州', '交通广播']</t>
+          <t>['公布', '提示', '古蔺县', '发布', '暴雨', '红色', '预警', '暴雨', '橙色', '预警', '信号', '更新', '暴雨', '红色', '预警', '信号', '预计', '我县', '龙山', '石屏', '二郎', '东新', '小时', '降雨量', '毫米', '上述', '地区', '周边', '乡镇', '注意', '防范', '交警', '提示', '暴雨', '天气', '尽量减少', '外出', '特别', '山区', '发生', '暴雨', '引发', '各类', '地质灾害', '避免', '山涧', '河谷', '水库', '临河', '临崖', '路段', '逗留', '行经', '山区', '道路', '谨慎', '驾驶', '注意', '观察', '不明', '路段', '切勿', '冒险', '强行']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['公布', '提示', '古蔺县', '发布', '暴雨', '红色', '预警', '暴雨', '橙色', '预警', '信号', '更新', '暴雨', '红色', '预警', '信号', '预计', '县龙山', '石屏', '二郎', '大村', '东新', '小时', '降雨量', '毫米', '上述', '地区', '周边', '乡镇', '注意', '防范', '交警', '提示', '暴雨', '天气', '尽量', '减少', '外出', '特别', '山区', '发生', '暴雨', '引发', '各类', '地质', '灾害', '避免', '山涧', '河谷', '水库', '临河', '临崖', '路段', '逗留', '行经', '山区', '道路', '谨慎', '驾驶', '注意', '观察', '不明', '路段', '切勿', '冒险', '强行', '酒城', '交警', '平安', '古蔺', '泸州', '交通', '广播']</t>
+          <t>['公布', '提示', '古蔺县', '发布', '暴雨', '红色', '预警', '暴雨', '橙色', '预警', '信号', '更新', '暴雨', '红色', '预警', '信号', '预计', '县龙山', '石屏', '二郎', '大村', '东新', '小时', '降雨量', '毫米', '上述', '地区', '周边', '乡镇', '注意', '防范', '交警', '提示', '暴雨', '天气', '尽量', '减少', '外出', '特别', '山区', '发生', '暴雨', '引发', '各类', '地质', '灾害', '避免', '山涧', '河谷', '水库', '临河', '临崖', '路段', '逗留', '行经', '山区', '道路', '谨慎', '驾驶', '注意', '观察', '不明', '路段', '切勿', '冒险', '强行']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('两', 'm'), ('公布', 'v'), ('一', 'm'), ('提示', 'v'), ('#', 'x'), ('【', 'x'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('】', 'x'), ('将号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'd'), ('为', 'p'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('：', 'x'), ('预计', 'vn'), ('我', 'r'), ('县', 'n'), ('龙山', 'ns'), ('、', 'x'), ('石屏', 'nr'), ('、', 'x'), ('二郎', 'nrt'), ('、', 'x'), ('大', 'a'), ('村', 'zg'), ('、', 'x'), ('东新', 'nr'), ('小时', 'n'), ('降雨量', 'n'), ('将', 'd'), ('达', 'v'), ('毫米', 'q'), ('，', 'x'), ('请', 'v'), ('上述', 'b'), ('地区', 'n'), ('及', 'c'), ('周边', 'f'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('。', 'x'), ('【', 'x'), ('交警', 'j'), ('提示', 'v'), ('】', 'x'), ('暴雨', 'n'), ('天气', 'n'), ('尽量减少', 'i'), ('外出', 'v'), ('，', 'x'), ('特别', 'd'), ('是', 'v'), ('山区', 'ns'), ('易', 'a'), ('发生', 'v'), ('因', 'p'), ('暴雨', 'n'), ('引发', 'v'), ('的', 'uj'), ('各类', 'r'), ('地质灾害', 'n'), ('，', 'x'), ('应', 'v'), ('避免', 'v'), ('在', 'p'), ('山涧', 'nr'), ('、', 'x'), ('河谷', 'ns'), ('、', 'x'), ('水库', 'n'), ('、', 'x'), ('临河', 'ns'), ('、', 'x'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('，', 'x'), ('行经', 'n'), ('山区', 'ns'), ('道路', 'n'), ('请', 'v'), ('谨慎', 'a'), ('驾驶', 'v'), ('，', 'x'), ('注意', 'v'), ('观察', 'v'), ('，', 'x'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'n'), ('强行', 'v'), ('！', 'x'), ('@', 'x'), ('酒', 'n'), ('城', 'n'), ('交警', 'j'), ('@', 'x'), ('平安', 'a'), ('古蔺', 'nr'), ('@', 'x'), ('泸州', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('#', 'x'), ('两', 'm'), ('公布', 'v'), ('一', 'm'), ('提示', 'v'), ('#', 'x'), ('【', 'x'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('】', 'x'), ('将号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'd'), ('为', 'p'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('：', 'x'), ('预计', 'vn'), ('我', 'r'), ('县', 'n'), ('龙山', 'ns'), ('、', 'x'), ('石屏', 'nr'), ('、', 'x'), ('二郎', 'nrt'), ('、', 'x'), ('大', 'a'), ('村', 'zg'), ('、', 'x'), ('东新', 'nr'), ('小时', 'n'), ('降雨量', 'n'), ('将', 'd'), ('达', 'v'), ('毫米', 'q'), ('，', 'x'), ('请', 'v'), ('上述', 'b'), ('地区', 'n'), ('及', 'c'), ('周边', 'f'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('。', 'x'), ('【', 'x'), ('交警', 'j'), ('提示', 'v'), ('】', 'x'), ('暴雨', 'n'), ('天气', 'n'), ('尽量减少', 'i'), ('外出', 'v'), ('，', 'x'), ('特别', 'd'), ('是', 'v'), ('山区', 'ns'), ('易', 'a'), ('发生', 'v'), ('因', 'p'), ('暴雨', 'n'), ('引发', 'v'), ('的', 'uj'), ('各类', 'r'), ('地质灾害', 'n'), ('，', 'x'), ('应', 'v'), ('避免', 'v'), ('在', 'p'), ('山涧', 'nr'), ('、', 'x'), ('河谷', 'ns'), ('、', 'x'), ('水库', 'n'), ('、', 'x'), ('临河', 'ns'), ('、', 'x'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('，', 'x'), ('行经', 'n'), ('山区', 'ns'), ('道路', 'n'), ('请', 'v'), ('谨慎', 'a'), ('驾驶', 'v'), ('，', 'x'), ('注意', 'v'), ('观察', 'v'), ('，', 'x'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'n'), ('强行', 'v'), ('！', 'x')]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[('#', 'n'), ('两', 'm'), ('公布', 'v'), ('一', 'm'), ('提示', 'vn'), ('#', 'n'), ('【', 'v'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('】', 'n'), ('将', 'p'), ('号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'v'), ('为', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('：', 'w'), ('预计', 'v'), ('我', 'r'), ('县龙山', 'n'), ('、', 'w'), ('石屏', 'nr'), ('、', 'w'), ('二郎', 'nr'), ('、', 'w'), ('大村', 'ns'), ('、', 'w'), ('东新', 'nz'), ('小时', 'n'), ('降雨量', 'n'), ('将', 'd'), ('达', 'v'), ('毫米', 'q'), ('，', 'w'), ('请', 'v'), ('上述', 'b'), ('地区', 'n'), ('及', 'c'), ('周边', 'n'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('。', 'w'), ('【', 'v'), ('交警', 'n'), ('提示', 'v'), ('】', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('尽量', 'd'), ('减少', 'v'), ('外出', 'vn'), ('，', 'w'), ('特别', 'd'), ('是', 'v'), ('山区', 'n'), ('易', 'ad'), ('发生', 'v'), ('因', 'p'), ('暴雨', 'n'), ('引发', 'v'), ('的', 'u'), ('各类', 'r'), ('地质', 'n'), ('灾害', 'n'), ('，', 'w'), ('应', 'v'), ('避免', 'v'), ('在', 'p'), ('山涧', 'n'), ('、', 'w'), ('河谷', 'n'), ('、', 'w'), ('水库', 'n'), ('、', 'w'), ('临河', 'ns'), ('、', 'w'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('，', 'w'), ('行经', 'v'), ('山区', 'n'), ('道路', 'n'), ('请', 'v'), ('谨慎', 'ad'), ('驾驶', 'v'), ('，', 'w'), ('注意', 'v'), ('观察', 'v'), ('，', 'w'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'v'), ('强行', 'd'), ('！', 'w'), ('@', 'v'), ('酒城', 'ns'), ('交警', 'n'), ('@', 'v'), ('平安', 'a'), ('古蔺', 'n'), ('@', 'v'), ('泸州', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('#', 'n'), ('两', 'm'), ('公布', 'v'), ('一', 'm'), ('提示', 'vn'), ('#', 'n'), ('【', 'v'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('】', 'n'), ('将', 'p'), ('号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'v'), ('为', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('：', 'w'), ('预计', 'v'), ('我', 'r'), ('县龙山', 'n'), ('、', 'w'), ('石屏', 'nr'), ('、', 'w'), ('二郎', 'nr'), ('、', 'w'), ('大村', 'ns'), ('、', 'w'), ('东新', 'nz'), ('小时', 'n'), ('降雨量', 'n'), ('将', 'd'), ('达', 'v'), ('毫米', 'q'), ('，', 'w'), ('请', 'v'), ('上述', 'b'), ('地区', 'n'), ('及', 'c'), ('周边', 'n'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('。', 'w'), ('【', 'v'), ('交警', 'n'), ('提示', 'v'), ('】', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('尽量', 'd'), ('减少', 'v'), ('外出', 'vn'), ('，', 'w'), ('特别', 'd'), ('是', 'v'), ('山区', 'n'), ('易', 'ad'), ('发生', 'v'), ('因', 'p'), ('暴雨', 'n'), ('引发', 'v'), ('的', 'u'), ('各类', 'r'), ('地质', 'n'), ('灾害', 'n'), ('，', 'w'), ('应', 'v'), ('避免', 'v'), ('在', 'p'), ('山涧', 'n'), ('、', 'w'), ('河谷', 'n'), ('、', 'w'), ('水库', 'n'), ('、', 'w'), ('临河', 'ns'), ('、', 'w'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('，', 'w'), ('行经', 'v'), ('山区', 'n'), ('道路', 'n'), ('请', 'v'), ('谨慎', 'ad'), ('驾驶', 'v'), ('，', 'w'), ('注意', 'v'), ('观察', 'v'), ('，', 'w'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'v'), ('强行', 'd'), ('！', 'w')]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[('公布', 'v'), ('提示', 'v'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('将号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'd'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('预计', 'vn'), ('龙山', 'ns'), ('石屏', 'nr'), ('二郎', 'nrt'), ('东新', 'nr'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('上述', 'b'), ('地区', 'n'), ('周边', 'f'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('交警', 'j'), ('提示', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('尽量减少', 'i'), ('外出', 'v'), ('特别', 'd'), ('山区', 'ns'), ('发生', 'v'), ('暴雨', 'n'), ('引发', 'v'), ('各类', 'r'), ('地质灾害', 'n'), ('避免', 'v'), ('山涧', 'nr'), ('河谷', 'ns'), ('水库', 'n'), ('临河', 'ns'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('行经', 'n'), ('山区', 'ns'), ('道路', 'n'), ('谨慎', 'a'), ('驾驶', 'v'), ('注意', 'v'), ('观察', 'v'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'n'), ('强行', 'v'), ('交警', 'j'), ('平安', 'a'), ('古蔺', 'nr'), ('泸州', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('公布', 'v'), ('提示', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('将号', 'n'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('预计', 'vn'), ('石屏', 'nr'), ('二郎', 'nrt'), ('东新', 'nr'), ('小时', 'n'), ('降雨量', 'n'), ('上述', 'b'), ('地区', 'n'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('交警', 'j'), ('提示', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('尽量减少', 'i'), ('外出', 'v'), ('发生', 'v'), ('暴雨', 'n'), ('引发', 'v'), ('地质灾害', 'n'), ('避免', 'v'), ('山涧', 'nr'), ('水库', 'n'), ('路段', 'n'), ('逗留', 'v'), ('行经', 'n'), ('道路', 'n'), ('谨慎', 'a'), ('驾驶', 'v'), ('注意', 'v'), ('观察', 'v'), ('不明', 'v'), ('路段', 'n'), ('冒险', 'n'), ('强行', 'v')]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[('公布', 'v'), ('提示', 'vn'), ('古蔺县', 'ns'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('预计', 'v'), ('县龙山', 'n'), ('石屏', 'nr'), ('二郎', 'nr'), ('大村', 'ns'), ('东新', 'nz'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('上述', 'b'), ('地区', 'n'), ('周边', 'n'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('交警', 'n'), ('提示', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('尽量', 'd'), ('减少', 'v'), ('外出', 'vn'), ('特别', 'd'), ('山区', 'n'), ('发生', 'v'), ('暴雨', 'n'), ('引发', 'v'), ('各类', 'r'), ('地质', 'n'), ('灾害', 'n'), ('避免', 'v'), ('山涧', 'n'), ('河谷', 'n'), ('水库', 'n'), ('临河', 'ns'), ('临崖', 'ns'), ('路段', 'n'), ('逗留', 'v'), ('行经', 'v'), ('山区', 'n'), ('道路', 'n'), ('谨慎', 'ad'), ('驾驶', 'v'), ('注意', 'v'), ('观察', 'v'), ('不明', 'v'), ('路段', 'n'), ('切勿', 'd'), ('冒险', 'v'), ('强行', 'd'), ('酒城', 'ns'), ('交警', 'n'), ('平安', 'a'), ('古蔺', 'n'), ('泸州', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('公布', 'v'), ('提示', 'vn'), ('发布', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('更新', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('预计', 'v'), ('县龙山', 'n'), ('石屏', 'nr'), ('二郎', 'nr'), ('小时', 'n'), ('降雨量', 'n'), ('上述', 'b'), ('地区', 'n'), ('周边', 'n'), ('乡镇', 'n'), ('注意', 'v'), ('防范', 'v'), ('交警', 'n'), ('提示', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('减少', 'v'), ('外出', 'vn'), ('山区', 'n'), ('发生', 'v'), ('暴雨', 'n'), ('引发', 'v'), ('地质', 'n'), ('灾害', 'n'), ('避免', 'v'), ('山涧', 'n'), ('河谷', 'n'), ('水库', 'n'), ('路段', 'n'), ('逗留', 'v'), ('行经', 'v'), ('山区', 'n'), ('道路', 'n'), ('谨慎', 'ad'), ('驾驶', 'v'), ('注意', 'v'), ('观察', 'v'), ('不明', 'v'), ('路段', 'n'), ('冒险', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[('迟早', 'd'), ('北京', 'ns'), ('混乱', 'a'), ('不堪', 'v'), ('交通', 'n'), ('动不动', 'l'), ('大暴雨', 'i'), ('天气', 'n'), ('气死', 'n')]</t>
+          <t>[('混乱', 'a'), ('不堪', 'v'), ('交通', 'n'), ('动不动', 'l'), ('大暴雨', 'i'), ('天气', 'n'), ('气死', 'n')]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[('迟早', 'd'), ('北京', 'ns'), ('混乱不堪', 'a'), ('交通', 'n'), ('和动', 'a'), ('大暴雨', 'i'), ('天气', 'n'), ('气死', 'a')]</t>
+          <t>[('混乱不堪', 'a'), ('交通', 'n'), ('和动', 'a'), ('大暴雨', 'i'), ('天气', 'n'), ('气死', 'a')]</t>
         </is>
       </c>
     </row>
@@ -3686,47 +3686,47 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>#交警正能量#雨中靓丽风景线，铿锵玫瑰令人敬。今早鞍山暴雨不停使得一些道路交通受堵，主要路口交警坚守值勤岗位冒雨疏导交通，女交警巾帼不让须眉，不惧风雨水泥溅满一身冲在交通指挥第一线，点赞，钢城有你们交通更畅通，致敬！#手机摄影讲座##带着微博去旅行##美丽鞍山##鞍山印象##图说鞍山#@鞍山发布@鞍钢郭明义@鞍山市人才办@鞍山公安@鞍山交通@鞍山人家@鞍山云摄影频道</t>
+          <t>#交警正能量#雨中靓丽风景线，铿锵玫瑰令人敬。今早鞍山暴雨不停使得一些道路交通受堵，主要路口交警坚守值勤岗位冒雨疏导交通，女交警巾帼不让须眉，不惧风雨水泥溅满一身冲在交通指挥第一线，点赞，钢城有你们交通更畅通，致敬！#手机摄影讲座##带着微博去旅行##美丽鞍山##鞍山印象##图说鞍山#</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['#', '交警', '正', '能量', '#', '雨中', '靓丽', '风景线', '，', '铿锵', '玫瑰', '令人', '敬', '。', '今早', '鞍山', '暴雨', '不停', '使得', '一些', '道路交通', '受堵', '，', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '，', '女交警', '巾帼不让须眉', '，', '不', '惧', '风雨', '水泥', '溅', '满', '一身', '冲', '在', '交通指挥', '第一线', '，', '点赞', '，', '钢城', '有', '你们', '交通', '更', '畅通', '，', '致敬', '！', '#', '手机', '摄影', '讲座', '##', '带', '着', '微博去', '旅行', '##', '美丽', '鞍山', '##', '鞍山', '印象', '##', '图说', '鞍山', '#', '@', '鞍山', '发布', '@', '鞍钢', '郭明义', '@', '鞍山市', '人才', '办', '@', '鞍山', '公安', '@', '鞍山', '交通', '@', '鞍山', '人家', '@', '鞍山', '云', '摄影', '频道']</t>
+          <t>['#', '交警', '正', '能量', '#', '雨中', '靓丽', '风景线', '，', '铿锵', '玫瑰', '令人', '敬', '。', '今早', '鞍山', '暴雨', '不停', '使得', '一些', '道路交通', '受堵', '，', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '，', '女交警', '巾帼不让须眉', '，', '不', '惧', '风雨', '水泥', '溅', '满', '一身', '冲', '在', '交通指挥', '第一线', '，', '点赞', '，', '钢城', '有', '你们', '交通', '更', '畅通', '，', '致敬', '！', '#', '手机', '摄影', '讲座', '##', '带', '着', '微博去', '旅行', '##', '美丽', '鞍山', '##', '鞍山', '印象', '##', '图说', '鞍山', '#']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['#', '交警', '正能量', '#', '雨', '中', '靓丽', '风景线', '，', '铿锵', '玫瑰', '令', '人敬', '。', '今早', '鞍山', '暴雨', '不停', '使得', '一些', '道路', '交通', '受堵', '，', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '，', '女', '交警', '巾帼', '不', '让', '须眉', '，', '不', '惧', '风雨', '水泥', '溅满', '一身', '冲', '在', '交通', '指挥', '第一线', '，', '点赞', '，', '钢城', '有', '你们', '交通', '更', '畅通', '，', '致敬', '！', '#', '手机', '摄影', '讲座', '#', '#', '带', '着', '微博', '去', '旅行', '#', '#', '美丽', '鞍山', '#', '#', '鞍山', '印象', '#', '#', '图说', '鞍山', '#', '@', '鞍山', '发布', '@', '鞍钢', '郭明义', '@', '鞍山市', '人才办', '@', '鞍山', '公安', '@', '鞍山', '交通', '@', '鞍山', '人家', '@', '鞍山云', '摄影', '频道']</t>
+          <t>['#', '交警', '正能量', '#', '雨', '中', '靓丽', '风景线', '，', '铿锵', '玫瑰', '令', '人敬', '。', '今早', '鞍山', '暴雨', '不停', '使得', '一些', '道路', '交通', '受堵', '，', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '，', '女', '交警', '巾帼', '不', '让', '须眉', '，', '不', '惧', '风雨', '水泥', '溅满', '一身', '冲', '在', '交通', '指挥', '第一线', '，', '点赞', '，', '钢城', '有', '你们', '交通', '更', '畅通', '，', '致敬', '！', '#', '手机', '摄影', '讲座', '#', '#', '带', '着', '微博', '去', '旅行', '#', '#', '美丽', '鞍山', '#', '#', '鞍山', '印象', '#', '#', '图说', '鞍山', '#']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['交警', '能量', '雨中', '靓丽', '风景线', '铿锵', '玫瑰', '令人', '今早', '鞍山', '暴雨', '不停', '道路交通', '受堵', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '女交警', '巾帼不让须眉', '风雨', '水泥', '一身', '交通指挥', '第一线', '点赞', '钢城', '交通', '畅通', '致敬', '手机', '摄影', '讲座', '微博去', '旅行', '美丽', '鞍山', '鞍山', '印象', '图说', '鞍山', '鞍山', '发布', '鞍钢', '郭明义', '鞍山市', '人才', '鞍山', '公安', '鞍山', '交通', '鞍山', '鞍山', '摄影', '频道']</t>
+          <t>['交警', '能量', '雨中', '靓丽', '风景线', '铿锵', '玫瑰', '令人', '今早', '鞍山', '暴雨', '不停', '道路交通', '受堵', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '女交警', '巾帼不让须眉', '风雨', '水泥', '一身', '交通指挥', '第一线', '点赞', '钢城', '交通', '畅通', '致敬', '手机', '摄影', '讲座', '微博去', '旅行', '美丽', '鞍山', '鞍山', '印象', '图说', '鞍山']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['交警', '正能量', '靓丽', '风景线', '铿锵', '玫瑰', '人敬', '今早', '鞍山', '暴雨', '不停', '道路', '交通', '受堵', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '交警', '巾帼', '须眉', '风雨', '水泥', '溅满', '一身', '交通', '指挥', '第一线', '点赞', '钢城', '交通', '畅通', '致敬', '手机', '摄影', '讲座', '微博', '旅行', '美丽', '鞍山', '鞍山', '印象', '图说', '鞍山', '鞍山', '发布', '鞍钢', '郭明义', '鞍山市', '人才办', '鞍山', '公安', '鞍山', '交通', '鞍山', '鞍山云', '摄影', '频道']</t>
+          <t>['交警', '正能量', '靓丽', '风景线', '铿锵', '玫瑰', '人敬', '今早', '鞍山', '暴雨', '不停', '道路', '交通', '受堵', '主要', '路口', '交警', '坚守', '值勤', '岗位', '冒雨', '疏导', '交通', '交警', '巾帼', '须眉', '风雨', '水泥', '溅满', '一身', '交通', '指挥', '第一线', '点赞', '钢城', '交通', '畅通', '致敬', '手机', '摄影', '讲座', '微博', '旅行', '美丽', '鞍山', '鞍山', '印象', '图说', '鞍山']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('雨', 'n'), ('中', 'f'), ('靓丽', 'a'), ('风景线', 'n'), ('，', 'x'), ('铿锵', 'o'), ('玫瑰', 'n'), ('令人', 'nrt'), ('敬', 'v'), ('。', 'x'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('使得', 'v'), ('一些', 'm'), ('道路交通', 'nz'), ('受堵', 'v'), ('，', 'x'), ('主要', 'b'), ('路口', 's'), ('交警', 'j'), ('坚守', 'v'), ('值勤', 'a'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('女交警', 'j'), ('巾帼不让须眉', 'l'), ('，', 'x'), ('不', 'd'), ('惧', 'v'), ('风雨', 'n'), ('水泥', 'n'), ('溅', 'v'), ('满', 'a'), ('一身', 'm'), ('冲', 'v'), ('在', 'p'), ('交通指挥', 'n'), ('第一线', 'm'), ('，', 'x'), ('点', 'm'), ('赞', 'v'), ('，', 'x'), ('钢城', 'n'), ('有', 'v'), ('你们', 'r'), ('交通', 'n'), ('更', 'd'), ('畅通', 'a'), ('，', 'x'), ('致敬', 'v'), ('！', 'x'), ('#', 'x'), ('手机', 'n'), ('摄影', 'n'), ('讲座', 'n'), ('##', 'x'), ('带', 'v'), ('着', 'uz'), ('微博', 'a'), ('去', 'v'), ('旅行', 'vn'), ('##', 'x'), ('美丽', 'ns'), ('鞍山', 'ns'), ('##', 'x'), ('鞍山', 'ns'), ('印象', 'n'), ('##', 'x'), ('图说', 'n'), ('鞍山', 'ns'), ('#', 'x'), ('@', 'x'), ('鞍山', 'ns'), ('发布', 'v'), ('@', 'x'), ('鞍钢', 'n'), ('郭明义', 'nr'), ('@', 'x'), ('鞍山市', 'ns'), ('人才', 'n'), ('办', 'v'), ('@', 'x'), ('鞍山', 'ns'), ('公安', 'n'), ('@', 'x'), ('鞍山', 'ns'), ('交通', 'n'), ('@', 'x'), ('鞍山', 'ns'), ('人家', 'n'), ('@', 'x'), ('鞍山', 'ns'), ('云', 'ns'), ('摄影', 'n'), ('频道', 'n')]</t>
+          <t>[('#', 'x'), ('交警', 'j'), ('正', 'd'), ('能量', 'n'), ('#', 'x'), ('雨', 'n'), ('中', 'f'), ('靓丽', 'a'), ('风景线', 'n'), ('，', 'x'), ('铿锵', 'o'), ('玫瑰', 'n'), ('令人', 'nrt'), ('敬', 'v'), ('。', 'x'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('使得', 'v'), ('一些', 'm'), ('道路交通', 'nz'), ('受堵', 'v'), ('，', 'x'), ('主要', 'b'), ('路口', 's'), ('交警', 'j'), ('坚守', 'v'), ('值勤', 'a'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('女交警', 'j'), ('巾帼不让须眉', 'l'), ('，', 'x'), ('不', 'd'), ('惧', 'v'), ('风雨', 'n'), ('水泥', 'n'), ('溅', 'v'), ('满', 'a'), ('一身', 'm'), ('冲', 'v'), ('在', 'p'), ('交通指挥', 'n'), ('第一线', 'm'), ('，', 'x'), ('点', 'm'), ('赞', 'v'), ('，', 'x'), ('钢城', 'n'), ('有', 'v'), ('你们', 'r'), ('交通', 'n'), ('更', 'd'), ('畅通', 'a'), ('，', 'x'), ('致敬', 'v'), ('！', 'x'), ('#', 'x'), ('手机', 'n'), ('摄影', 'n'), ('讲座', 'n'), ('##', 'x'), ('带', 'v'), ('着', 'uz'), ('微博', 'a'), ('去', 'v'), ('旅行', 'vn'), ('##', 'x'), ('美丽', 'ns'), ('鞍山', 'ns'), ('##', 'x'), ('鞍山', 'ns'), ('印象', 'n'), ('##', 'x'), ('图说', 'n'), ('鞍山', 'ns'), ('#', 'x')]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[('#', 'ns'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('雨', 'n'), ('中', 'f'), ('靓丽', 'a'), ('风景线', 'n'), ('，', 'w'), ('铿锵', 'v'), ('玫瑰', 'n'), ('令', 'v'), ('人敬', 'i'), ('。', 'w'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('使得', 'v'), ('一些', 'm'), ('道路', 'n'), ('交通', 'n'), ('受堵', 'v'), ('，', 'w'), ('主要', 'b'), ('路口', 'n'), ('交警', 'n'), ('坚守', 'v'), ('值勤', 'vn'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('女', 'b'), ('交警', 'n'), ('巾帼', 'n'), ('不', 'd'), ('让', 'v'), ('须眉', 'n'), ('，', 'w'), ('不', 'd'), ('惧', 'v'), ('风雨', 'n'), ('水泥', 'n'), ('溅满', 'v'), ('一身', 'n'), ('冲', 'v'), ('在', 'p'), ('交通', 'n'), ('指挥', 'vn'), ('第一线', 'n'), ('，', 'w'), ('点赞', 'v'), ('，', 'w'), ('钢城', 'n'), ('有', 'v'), ('你们', 'r'), ('交通', 'n'), ('更', 'd'), ('畅通', 'a'), ('，', 'w'), ('致敬', 'v'), ('！', 'w'), ('#', 'v'), ('手机', 'n'), ('摄影', 'vn'), ('讲座', 'n'), ('#', 'vn'), ('#', 'n'), ('带', 'v'), ('着', 'u'), ('微博', 'a'), ('去', 'v'), ('旅行', 'v'), ('#', 'n'), ('#', 'v'), ('美丽', 'a'), ('鞍山', 'ns'), ('#', 'n'), ('#', 'v'), ('鞍山', 'ns'), ('印象', 'n'), ('#', 'v'), ('#', 'v'), ('图说', 'v'), ('鞍山', 'ns'), ('#', 'n'), ('@', 'v'), ('鞍山', 'ns'), ('发布', 'v'), ('@', 'n'), ('鞍钢', 'n'), ('郭明义', 'nr'), ('@', 'v'), ('鞍山市', 'ns'), ('人才办', 'j'), ('@', 'v'), ('鞍山', 'ns'), ('公安', 'n'), ('@', 'v'), ('鞍山', 'ns'), ('交通', 'n'), ('@', 'n'), ('鞍山', 'ns'), ('人家', 'r'), ('@', 'v'), ('鞍山云', 'n'), ('摄影', 'vn'), ('频道', 'n')]</t>
+          <t>[('#', 'ns'), ('交警', 'n'), ('正能量', 'n'), ('#', 'v'), ('雨', 'n'), ('中', 'f'), ('靓丽', 'a'), ('风景线', 'n'), ('，', 'w'), ('铿锵', 'v'), ('玫瑰', 'n'), ('令', 'v'), ('人敬', 'i'), ('。', 'w'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('使得', 'v'), ('一些', 'm'), ('道路', 'n'), ('交通', 'n'), ('受堵', 'v'), ('，', 'w'), ('主要', 'b'), ('路口', 'n'), ('交警', 'n'), ('坚守', 'v'), ('值勤', 'vn'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('女', 'b'), ('交警', 'n'), ('巾帼', 'n'), ('不', 'd'), ('让', 'v'), ('须眉', 'n'), ('，', 'w'), ('不', 'd'), ('惧', 'v'), ('风雨', 'n'), ('水泥', 'n'), ('溅满', 'v'), ('一身', 'n'), ('冲', 'v'), ('在', 'p'), ('交通', 'n'), ('指挥', 'vn'), ('第一线', 'n'), ('，', 'w'), ('点赞', 'v'), ('，', 'w'), ('钢城', 'n'), ('有', 'v'), ('你们', 'r'), ('交通', 'n'), ('更', 'd'), ('畅通', 'a'), ('，', 'w'), ('致敬', 'v'), ('！', 'w'), ('#', 'v'), ('手机', 'n'), ('摄影', 'vn'), ('讲座', 'n'), ('#', 'vn'), ('#', 'n'), ('带', 'v'), ('着', 'u'), ('微博', 'a'), ('去', 'v'), ('旅行', 'v'), ('#', 'n'), ('#', 'v'), ('美丽', 'a'), ('鞍山', 'ns'), ('#', 'n'), ('#', 'v'), ('鞍山', 'ns'), ('印象', 'n'), ('#', 'v'), ('#', 'v'), ('图说', 'v'), ('鞍山', 'ns'), ('#', 'n')]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('能量', 'n'), ('靓丽', 'a'), ('风景线', 'n'), ('铿锵', 'o'), ('玫瑰', 'n'), ('令人', 'nrt'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('道路交通', 'nz'), ('受堵', 'v'), ('主要', 'b'), ('路口', 's'), ('交警', 'j'), ('坚守', 'v'), ('值勤', 'a'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('女交警', 'j'), ('巾帼不让须眉', 'l'), ('风雨', 'n'), ('水泥', 'n'), ('一身', 'm'), ('交通指挥', 'n'), ('第一线', 'm'), ('钢城', 'n'), ('交通', 'n'), ('畅通', 'a'), ('致敬', 'v'), ('手机', 'n'), ('摄影', 'n'), ('讲座', 'n'), ('微博', 'a'), ('旅行', 'vn'), ('美丽', 'ns'), ('鞍山', 'ns'), ('鞍山', 'ns'), ('印象', 'n'), ('图说', 'n'), ('鞍山', 'ns'), ('鞍山', 'ns'), ('发布', 'v'), ('鞍钢', 'n'), ('郭明义', 'nr'), ('鞍山市', 'ns'), ('人才', 'n'), ('鞍山', 'ns'), ('公安', 'n'), ('鞍山', 'ns'), ('交通', 'n'), ('鞍山', 'ns'), ('鞍山', 'ns'), ('摄影', 'n'), ('频道', 'n')]</t>
+          <t>[('交警', 'j'), ('能量', 'n'), ('靓丽', 'a'), ('风景线', 'n'), ('玫瑰', 'n'), ('令人', 'nrt'), ('今早', 't'), ('暴雨', 'n'), ('受堵', 'v'), ('主要', 'b'), ('交警', 'j'), ('坚守', 'v'), ('值勤', 'a'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('女交警', 'j'), ('巾帼不让须眉', 'l'), ('风雨', 'n'), ('水泥', 'n'), ('交通指挥', 'n'), ('钢城', 'n'), ('交通', 'n'), ('畅通', 'a'), ('致敬', 'v'), ('手机', 'n'), ('摄影', 'n'), ('讲座', 'n'), ('微博', 'a'), ('旅行', 'vn'), ('印象', 'n'), ('图说', 'n')]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[('交警', 'n'), ('正能量', 'n'), ('靓丽', 'a'), ('风景线', 'n'), ('铿锵', 'v'), ('玫瑰', 'n'), ('人敬', 'i'), ('今早', 't'), ('鞍山', 'ns'), ('暴雨', 'n'), ('不停', 'd'), ('道路', 'n'), ('交通', 'n'), ('受堵', 'v'), ('主要', 'b'), ('路口', 'n'), ('交警', 'n'), ('坚守', 'v'), ('值勤', 'vn'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'n'), ('巾帼', 'n'), ('须眉', 'n'), ('风雨', 'n'), ('水泥', 'n'), ('溅满', 'v'), ('一身', 'n'), ('交通', 'n'), ('指挥', 'vn'), ('第一线', 'n'), ('点赞', 'v'), ('钢城', 'n'), ('交通', 'n'), ('畅通', 'a'), ('致敬', 'v'), ('手机', 'n'), ('摄影', 'vn'), ('讲座', 'n'), ('微博', 'a'), ('旅行', 'v'), ('美丽', 'a'), ('鞍山', 'ns'), ('鞍山', 'ns'), ('印象', 'n'), ('图说', 'v'), ('鞍山', 'ns'), ('鞍山', 'ns'), ('发布', 'v'), ('鞍钢', 'n'), ('郭明义', 'nr'), ('鞍山市', 'ns'), ('人才办', 'j'), ('鞍山', 'ns'), ('公安', 'n'), ('鞍山', 'ns'), ('交通', 'n'), ('鞍山', 'ns'), ('鞍山云', 'n'), ('摄影', 'vn'), ('频道', 'n')]</t>
+          <t>[('交警', 'n'), ('正能量', 'n'), ('靓丽', 'a'), ('风景线', 'n'), ('铿锵', 'v'), ('玫瑰', 'n'), ('人敬', 'i'), ('今早', 't'), ('暴雨', 'n'), ('道路', 'n'), ('交通', 'n'), ('受堵', 'v'), ('主要', 'b'), ('路口', 'n'), ('交警', 'n'), ('坚守', 'v'), ('值勤', 'vn'), ('岗位', 'n'), ('冒雨', 'v'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'n'), ('巾帼', 'n'), ('须眉', 'n'), ('风雨', 'n'), ('水泥', 'n'), ('溅满', 'v'), ('一身', 'n'), ('交通', 'n'), ('指挥', 'vn'), ('第一线', 'n'), ('点赞', 'v'), ('钢城', 'n'), ('交通', 'n'), ('畅通', 'a'), ('致敬', 'v'), ('手机', 'n'), ('摄影', 'vn'), ('讲座', 'n'), ('微博', 'a'), ('旅行', 'v'), ('美丽', 'a'), ('印象', 'n'), ('图说', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('整整', 'vn'), ('四天', 'm'), ('导致', 'v'), ('山体', 'n'), ('滑坡', 'ns'), ('铁路', 'n'), ('高速', 'd'), ('多处', 'm'), ('交通', 'n'), ('中断', 'ns'), ('沉浸', 'v'), ('带来', 'v'), ('假期', 't'), ('作废', 'v'), ('不适中', 'i'), ('直到', 'v'), ('看到', 'v'), ('反应', 'vn'), ('过来', 't'), ('这场', 'mq'), ('危害', 'n'), ('远不止', 'l'), ('假期', 't'), ('作废', 'v'), ('灾难', 'n'), ('发生', 'v'), ('自渡', 'v'), ('现在', 't'), ('不是', 'c'), ('无人', 'n'), ('关晋', 'nr'), ('需要', 'v'), ('晋人关', 'ns'), ('力量', 'n'), ('大家', 'n'), ('意识', 'n'), ('正在', 't'), ('发生', 'v'), ('事情', 'n'), ('配合', 'v'), ('国家', 'n'), ('政府', 'n'), ('配合', 'v'), ('即将', 'd'), ('到来', 'd'), ('援助', 'vn')]</t>
+          <t>[('暴雨', 'n'), ('整整', 'vn'), ('导致', 'v'), ('山体', 'n'), ('铁路', 'n'), ('交通', 'n'), ('沉浸', 'v'), ('带来', 'v'), ('假期', 't'), ('作废', 'v'), ('不适中', 'i'), ('直到', 'v'), ('看到', 'v'), ('反应', 'vn'), ('过来', 't'), ('危害', 'n'), ('远不止', 'l'), ('假期', 't'), ('作废', 'v'), ('灾难', 'n'), ('发生', 'v'), ('自渡', 'v'), ('现在', 't'), ('无人', 'n'), ('关晋', 'nr'), ('需要', 'v'), ('力量', 'n'), ('大家', 'n'), ('意识', 'n'), ('正在', 't'), ('发生', 'v'), ('事情', 'n'), ('配合', 'v'), ('国家', 'n'), ('政府', 'n'), ('配合', 'v'), ('援助', 'vn')]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[('山西', 'ns'), ('暴雨', 'n'), ('整整', 'd'), ('导致', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('铁路', 'n'), ('高速', 'd'), ('交通', 'n'), ('中断', 'v'), ('沉浸', 'v'), ('带来', 'v'), ('假期', 't'), ('作废', 'v'), ('不适', 'a'), ('直到', 'v'), ('看到', 'v'), ('热搜', 'n'), ('反应', 'v'), ('过来', 'v'), ('场雨', 'n'), ('危害', 'vn'), ('不止', 'v'), ('假期', 't'), ('作废', 'v'), ('灾难', 'n'), ('发生', 'v'), ('自渡', 'v'), ('现在', 't'), ('不是', 'c'), ('关晋', 'v'), ('需要', 'v'), ('晋人', 'v'), ('关晋', 'v'), ('力量', 'n'), ('大家', 'r'), ('意识', 'v'), ('正在', 'd'), ('发生', 'v'), ('事情', 'n'), ('配合', 'v'), ('国家', 'n'), ('政府', 'n'), ('配合', 'v'), ('即将', 'd'), ('到来', 'v'), ('援助', 'vn')]</t>
+          <t>[('暴雨', 'n'), ('导致', 'v'), ('山体', 'n'), ('滑坡', 'v'), ('铁路', 'n'), ('交通', 'n'), ('中断', 'v'), ('沉浸', 'v'), ('带来', 'v'), ('假期', 't'), ('作废', 'v'), ('不适', 'a'), ('直到', 'v'), ('看到', 'v'), ('热搜', 'n'), ('反应', 'v'), ('过来', 'v'), ('场雨', 'n'), ('危害', 'vn'), ('不止', 'v'), ('假期', 't'), ('作废', 'v'), ('灾难', 'n'), ('发生', 'v'), ('自渡', 'v'), ('现在', 't'), ('关晋', 'v'), ('需要', 'v'), ('晋人', 'v'), ('关晋', 'v'), ('力量', 'n'), ('意识', 'v'), ('发生', 'v'), ('事情', 'n'), ('配合', 'v'), ('国家', 'n'), ('政府', 'n'), ('配合', 'v'), ('到来', 'v'), ('援助', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频频', 'd'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -3851,47 +3851,47 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>#交通状况发布#受暴雨天气影响，济广高速景鹰段鹰潭南入口封闭。~@江西交通广播</t>
+          <t>#交通状况发布#受暴雨天气影响，济广高速景鹰段鹰潭南入口封闭。~</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['#', '交通状况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '济广', '高速', '景鹰', '段', '鹰潭', '南', '入口', '封闭', '。', '~', '@', '江西', '交通广播']</t>
+          <t>['#', '交通状况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '济广', '高速', '景鹰', '段', '鹰潭', '南', '入口', '封闭', '。', '~']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['#', '交通', '状况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '济广', '高速', '景鹰', '段', '鹰潭', '南入口', '封闭', '。', '~', '@', '江西', '交通', '广播']</t>
+          <t>['#', '交通', '状况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '济广', '高速', '景鹰', '段', '鹰潭', '南入口', '封闭', '。', '~']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['交通状况', '发布', '暴雨', '天气', '影响', '济广', '高速', '景鹰', '鹰潭', '入口', '封闭', '江西', '交通广播']</t>
+          <t>['交通状况', '发布', '暴雨', '天气', '影响', '济广', '高速', '景鹰', '鹰潭', '入口', '封闭']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['交通', '状况', '发布', '暴雨', '天气', '影响', '济广', '高速', '景鹰', '鹰潭', '南入口', '封闭', '江西', '交通', '广播']</t>
+          <t>['交通', '状况', '发布', '暴雨', '天气', '影响', '济广', '高速', '景鹰', '鹰潭', '南入口', '封闭']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('交通状况', 'n'), ('发布', 'v'), ('#', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('济', 'j'), ('广', 'ns'), ('高速', 'd'), ('景鹰', 'nr'), ('段', 'q'), ('鹰潭', 'ns'), ('南', 'ns'), ('入口', 'ns'), ('封闭', 'v'), ('。', 'x'), ('~', 'x'), ('@', 'x'), ('江西', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('#', 'x'), ('交通状况', 'n'), ('发布', 'v'), ('#', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('济', 'j'), ('广', 'ns'), ('高速', 'd'), ('景鹰', 'nr'), ('段', 'q'), ('鹰潭', 'ns'), ('南', 'ns'), ('入口', 'ns'), ('封闭', 'v'), ('。', 'x'), ('~', 'x')]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('交通', 'n'), ('状况', 'n'), ('发布', 'v'), ('#', 'n'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('济广', 'v'), ('高速', 'b'), ('景鹰', 'n'), ('段', 'n'), ('鹰潭', 'ns'), ('南入口', 'ns'), ('封闭', 'v'), ('。', 'w'), ('~', 'nr'), ('@', 'v'), ('江西', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('#', 'v'), ('交通', 'n'), ('状况', 'n'), ('发布', 'v'), ('#', 'n'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('济广', 'v'), ('高速', 'b'), ('景鹰', 'n'), ('段', 'n'), ('鹰潭', 'ns'), ('南入口', 'ns'), ('封闭', 'v'), ('。', 'w'), ('~', 'nr')]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[('交通状况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('高速', 'd'), ('景鹰', 'nr'), ('鹰潭', 'ns'), ('入口', 'ns'), ('封闭', 'v'), ('江西', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('交通状况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('景鹰', 'nr'), ('封闭', 'v')]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[('交通', 'n'), ('状况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('济广', 'v'), ('高速', 'b'), ('景鹰', 'n'), ('鹰潭', 'ns'), ('南入口', 'ns'), ('封闭', 'v'), ('江西', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('交通', 'n'), ('状况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('济广', 'v'), ('高速', 'b'), ('景鹰', 'n'), ('封闭', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[('濮阳', 'ns'), ('身边', 's'), ('夜间', 't'), ('我市', 'r'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降水', 'n'), ('超过', 'v'), ('毫米', 'q'), ('暴雨', 'n'), ('气象部门', 'n'), ('预报', 'vn'), ('未来', 't'), ('我市', 'r'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('切实做好', 'l'), ('交通运输', 'j'), ('应急', 'vn'), ('保障', 'v'), ('工作', 'vn'), ('晚点', 'n'), ('濮阳市', 'ns'), ('交通运输', 'j'), ('迅速', 'ad'), ('召开', 'v'), ('紧急', 'a'), ('动员', 'n'), ('会议', 'n'), ('立刻', 'd'), ('各县', 'r'), ('交通运输', 'j'), ('安委会', 'nt'), ('成员', 'n'), ('单位', 'n'), ('高速', 'd'), ('管理处', 'n'), ('下发', 'v'), ('紧急通知', 'i'), ('要求', 'v'), ('立刻', 'd'), ('启动', 'vn'), ('防汛', 'vn'), ('应急', 'vn'), ('保障机制', 'n'), ('加强', 'v'), ('营运', 'n'), ('设施', 'n'), ('安全', 'an'), ('管控', 'vn'), ('迅速', 'ad'), ('组织', 'v'), ('交通运输', 'j'), ('设施', 'n'), ('排查', 'vn'), ('加强', 'v'), ('防汛', 'vn'), ('值守', 'v'), ('信息', 'n'), ('报送', 'v')]</t>
+          <t>[('夜间', 't'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降水', 'n'), ('超过', 'v'), ('暴雨', 'n'), ('气象部门', 'n'), ('预报', 'vn'), ('未来', 't'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('强降雨', 'nr'), ('切实做好', 'l'), ('交通运输', 'j'), ('应急', 'vn'), ('保障', 'v'), ('工作', 'vn'), ('晚点', 'n'), ('交通运输', 'j'), ('迅速', 'ad'), ('召开', 'v'), ('紧急', 'a'), ('动员', 'n'), ('会议', 'n'), ('交通运输', 'j'), ('成员', 'n'), ('单位', 'n'), ('管理处', 'n'), ('下发', 'v'), ('紧急通知', 'i'), ('要求', 'v'), ('启动', 'vn'), ('防汛', 'vn'), ('应急', 'vn'), ('保障机制', 'n'), ('加强', 'v'), ('营运', 'n'), ('设施', 'n'), ('安全', 'an'), ('管控', 'vn'), ('迅速', 'ad'), ('组织', 'v'), ('交通运输', 'j'), ('设施', 'n'), ('排查', 'vn'), ('加强', 'v'), ('防汛', 'vn'), ('值守', 'v'), ('信息', 'n'), ('报送', 'v')]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[('濮阳', 'ns'), ('身边', 's'), ('夜间', 't'), ('大部分', 'm'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降水', 'n'), ('超过', 'v'), ('毫米', 'q'), ('暴雨', 'n'), ('气象', 'n'), ('部门', 'n'), ('预报', 'v'), ('未来', 't'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('切实', 'ad'), ('做好', 'v'), ('交通', 'n'), ('运输', 'vn'), ('应急', 'vn'), ('保障', 'vn'), ('工作', 'vn'), ('晚点', 'n'), ('濮阳市', 'ns'), ('交通', 'n'), ('运输局', 'n'), ('迅速', 'ad'), ('召开', 'v'), ('紧急', 'a'), ('动员', 'vn'), ('会议', 'n'), ('立刻', 'd'), ('各县', 'r'), ('交通', 'n'), ('运输局', 'n'), ('安委会', 'j'), ('成员', 'n'), ('单位', 'n'), ('濮范', 'v'), ('高速', 'b'), ('管理处', 'n'), ('下发', 'v'), ('紧急', 'a'), ('通知', 'n'), ('要求', 'v'), ('立刻', 'd'), ('启动', 'v'), ('防汛', 'vn'), ('应急', 'vn'), ('保障', 'vn'), ('机制', 'n'), ('加强', 'v'), ('营运', 'vn'), ('设施', 'n'), ('安全', 'a'), ('管控', 'vn'), ('迅速', 'ad'), ('组织', 'v'), ('交通', 'n'), ('运输', 'vn'), ('设施', 'n'), ('排查', 'v'), ('加强', 'v'), ('防汛', 'v'), ('值守', 'v'), ('信息', 'n'), ('报送', 'v')]</t>
+          <t>[('夜间', 't'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降水', 'n'), ('超过', 'v'), ('暴雨', 'n'), ('气象', 'n'), ('部门', 'n'), ('预报', 'v'), ('未来', 't'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('降雨', 'vn'), ('切实', 'ad'), ('做好', 'v'), ('交通', 'n'), ('运输', 'vn'), ('应急', 'vn'), ('保障', 'vn'), ('工作', 'vn'), ('晚点', 'n'), ('交通', 'n'), ('运输局', 'n'), ('迅速', 'ad'), ('召开', 'v'), ('紧急', 'a'), ('动员', 'vn'), ('会议', 'n'), ('交通', 'n'), ('运输局', 'n'), ('安委会', 'j'), ('成员', 'n'), ('单位', 'n'), ('濮范', 'v'), ('高速', 'b'), ('管理处', 'n'), ('下发', 'v'), ('紧急', 'a'), ('通知', 'n'), ('要求', 'v'), ('启动', 'v'), ('防汛', 'vn'), ('应急', 'vn'), ('保障', 'vn'), ('机制', 'n'), ('加强', 'v'), ('营运', 'vn'), ('设施', 'n'), ('安全', 'a'), ('管控', 'vn'), ('迅速', 'ad'), ('组织', 'v'), ('交通', 'n'), ('运输', 'vn'), ('设施', 'n'), ('排查', 'v'), ('加强', 'v'), ('防汛', 'v'), ('值守', 'v'), ('信息', 'n'), ('报送', 'v')]</t>
         </is>
       </c>
     </row>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频频', 'd'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[('陕西', 'ns'), ('境内', 's'), ('多条', 'm'), ('公路', 'n'), ('暴雨', 'n'), ('中断', 'ns'), ('记者', 'n'), ('刘权锋', 'nr'), ('来源', 'n'), ('交通', 'n'), ('第一', 'm'), ('新闻', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('公路', 'n'), ('暴雨', 'n'), ('记者', 'n'), ('刘权锋', 'nr'), ('来源', 'n'), ('交通', 'n'), ('新闻', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[('陕西', 'ns'), ('境内', 's'), ('公路', 'n'), ('暴雨', 'n'), ('中断', 'v'), ('记者', 'n'), ('刘权锋', 'nr'), ('来源', 'n'), ('大秦', 't'), ('交通', 'n'), ('第一', 'm'), ('新闻', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('公路', 'n'), ('暴雨', 'n'), ('中断', 'v'), ('记者', 'n'), ('刘权锋', 'nr'), ('来源', 'n'), ('大秦', 't'), ('交通', 'n'), ('新闻', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('杭长', 'nr'), ('高速', 'd'), ('永段', 'n'), ('长沙', 'ns'), ('黄花', 'n'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('长沙', 'ns'), ('入口', 'ns'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j'), ('黄花', 'n'), ('入口', 'ns'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('杭长', 'nr'), ('永段', 'n'), ('黄花', 'n'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('解除', 'v'), ('交通管制', 'n'), ('恢复正常', 'b'), ('通行', 'j'), ('黄花', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('杭长', 'n'), ('高速', 'b'), ('长永', 'ns'), ('长沙', 'ns'), ('黄花', 'nr'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('长沙', 'ns'), ('入口', 'n'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn'), ('黄花', 'n'), ('入口', 'v'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('杭长', 'n'), ('高速', 'b'), ('黄花', 'nr'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('入口', 'n'), ('解除', 'v'), ('交通', 'n'), ('管制', 'vn'), ('恢复', 'v'), ('正常', 'a'), ('通行', 'vn'), ('黄花', 'n'), ('入口', 'v'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[('天津', 'ns'), ('应对', 'v'), ('极端', 'n'), ('降雨', 'n'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('天津市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'ns'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('第一', 'm'), ('时间', 'n'), ('升级', 'vn'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道交通', 'n'), ('项目', 'n'), ('安全', 'an'), ('度汛', 'n'), ('截至', 'v'), ('天津', 'ns'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('开行', 'v'), ('列车', 'n'), ('运行图', 'n'), ('兑现', 'v'), ('率为', 'v'), ('列车', 'n'), ('正点率', 'n'), ('全线', 'n'), ('客运量', 'n'), ('万人次', 'm'), ('天津', 'ns'), ('轨道交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防死守', 'i'), ('严格', 'ad'), ('落实', 'a'), ('责任', 'n'), ('地铁线', 'n'), ('利用', 'n'), ('控制中心', 'l'), ('智能化', 'nr'), ('信息', 'n'), ('平台', 'n'), ('进行', 'v'), ('防汛', 'vn'), ('联合', 'v'), ('指挥', 'v'), ('信息', 'n'), ('统计', 'v'), ('影像', 'vn'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'v'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('实时', 'd'), ('呈现出', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'v'), ('快速', 'd'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('快速', 'd'), ('响应', 'v'), ('增配', 'v'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'a'), ('乘客', 'n'), ('地铁', 'n'), ('全线', 'n'), ('配备', 'v'), ('余把', 'm'), ('爱心', 'n'), ('万个', 'm'), ('伞套', 'n'), ('乘客', 'n'), ('借用', 'v')]</t>
+          <t>[('应对', 'v'), ('极端', 'n'), ('降雨', 'n'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('轨道交通', 'n'), ('集团', 'n'), ('时间', 'n'), ('升级', 'vn'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道交通', 'n'), ('项目', 'n'), ('安全', 'an'), ('度汛', 'n'), ('截至', 'v'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('开行', 'v'), ('列车', 'n'), ('运行图', 'n'), ('兑现', 'v'), ('率为', 'v'), ('列车', 'n'), ('正点率', 'n'), ('全线', 'n'), ('客运量', 'n'), ('轨道交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防死守', 'i'), ('严格', 'ad'), ('落实', 'a'), ('责任', 'n'), ('地铁线', 'n'), ('利用', 'n'), ('控制中心', 'l'), ('智能化', 'nr'), ('信息', 'n'), ('平台', 'n'), ('进行', 'v'), ('防汛', 'vn'), ('联合', 'v'), ('指挥', 'v'), ('信息', 'n'), ('统计', 'v'), ('影像', 'vn'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'v'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('呈现出', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'v'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('响应', 'v'), ('增配', 'v'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'a'), ('乘客', 'n'), ('地铁', 'n'), ('全线', 'n'), ('配备', 'v'), ('爱心', 'n'), ('伞套', 'n'), ('乘客', 'n'), ('借用', 'v')]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[('天津', 'ns'), ('应对', 'v'), ('极端', 'ad'), ('降雨', 'v'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('天津市', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'n'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('第一', 'm'), ('时间', 'n'), ('升级', 'v'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道', 'n'), ('交通', 'n'), ('项目', 'n'), ('安全', 'ad'), ('度汛', 'v'), ('截至', 'v'), ('天津', 'ns'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('网共', 'j'), ('开行', 'v'), ('列车', 'n'), ('列次', 'n'), ('运行图', 'n'), ('兑现率', 'n'), ('为%', 'v'), ('列车', 'n'), ('正点', 'n'), ('率%', 'v'), ('全线网', 'n'), ('客运量', 'n'), ('人次', 'q'), ('天津', 'ns'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防', 'v'), ('死守', 'v'), ('严格', 'ad'), ('落实', 'v'), ('责任', 'n'), ('地铁', 'n'), ('线网', 'n'), ('利用', 'v'), ('控制', 'vn'), ('中心', 'n'), ('智能化', 'v'), ('信息', 'n'), ('平台', 'n'), ('进行', 'vx'), ('防汛', 'vn'), ('联合', 'vn'), ('指挥', 'vn'), ('信息', 'n'), ('统计', 'vn'), ('影像', 'n'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'vn'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('实时', 'd'), ('呈现', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'vn'), ('快速', 'b'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('快速', 'd'), ('响应', 'v'), ('增配', 'vn'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'v'), ('乘客', 'n'), ('地铁', 'n'), ('全线网', 'n'), ('配备', 'v'), ('了余', 'u'), ('爱心伞', 'n'), ('套供', 'v'), ('乘客', 'n'), ('借用', 'v')]</t>
+          <t>[('应对', 'v'), ('极端', 'ad'), ('降雨', 'v'), ('确保', 'v'), ('交通', 'n'), ('出行', 'v'), ('气象台', 'n'), ('发布', 'v'), ('台风', 'n'), ('暴雨', 'n'), ('蓝色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('时间', 'n'), ('升级', 'v'), ('完善', 'v'), ('防汛', 'vn'), ('工作', 'vn'), ('方案', 'n'), ('防控', 'vn'), ('措施', 'n'), ('确保', 'v'), ('轨道', 'n'), ('交通', 'n'), ('项目', 'n'), ('安全', 'ad'), ('度汛', 'v'), ('截至', 'v'), ('地铁', 'n'), ('当天', 't'), ('全线', 'n'), ('网共', 'j'), ('开行', 'v'), ('列车', 'n'), ('列次', 'n'), ('运行图', 'n'), ('兑现率', 'n'), ('为%', 'v'), ('列车', 'n'), ('正点', 'n'), ('率%', 'v'), ('全线网', 'n'), ('客运量', 'n'), ('轨道', 'n'), ('交通', 'n'), ('集团', 'n'), ('树牢', 'n'), ('底线', 'n'), ('思维', 'n'), ('严阵以待', 'i'), ('严防', 'v'), ('死守', 'v'), ('严格', 'ad'), ('落实', 'v'), ('责任', 'n'), ('地铁', 'n'), ('线网', 'n'), ('利用', 'v'), ('控制', 'vn'), ('中心', 'n'), ('智能化', 'v'), ('信息', 'n'), ('平台', 'n'), ('进行', 'vx'), ('防汛', 'vn'), ('联合', 'vn'), ('指挥', 'vn'), ('信息', 'n'), ('统计', 'vn'), ('影像', 'n'), ('辅助', 'vn'), ('信息', 'n'), ('传递', 'vn'), ('防汛', 'vn'), ('物资', 'n'), ('动态', 'n'), ('调配', 'vn'), ('工作', 'vn'), ('呈现', 'v'), ('汛情', 'n'), ('状态', 'n'), ('应急', 'vn'), ('资源', 'n'), ('分布', 'vn'), ('快速', 'b'), ('调配', 'vn'), ('人员', 'n'), ('物资', 'n'), ('实现', 'v'), ('汛情', 'n'), ('响应', 'v'), ('增配', 'vn'), ('车站', 'n'), ('雨具', 'n'), ('方便', 'v'), ('乘客', 'n'), ('地铁', 'n'), ('全线网', 'n'), ('配备', 'v'), ('了余', 'u'), ('爱心伞', 'n'), ('套供', 'v'), ('乘客', 'n'), ('借用', 'v')]</t>
         </is>
       </c>
     </row>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('泉南', 'ns'), ('高速', 'd'), ('永州', 'ns'), ('因下', 'c'), ('暴雨', 'n'), ('潘市', 'ns'), ('白水', 'nr'), ('大忠桥', 'nr'), ('收费站', 'n'), ('实行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('车辆', 'n'), ('出不进', 'v')]</t>
+          <t>[('路况', 'n'), ('暴雨', 'n'), ('白水', 'nr'), ('大忠桥', 'nr'), ('收费站', 'n'), ('实行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('车辆', 'n'), ('出不进', 'v')]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('泉南', 'ns'), ('高速', 'b'), ('永州', 'ns'), ('因下', 'i'), ('暴雨', 'n'), ('潘市', 'ns'), ('白水', 'ns'), ('大忠桥', 'ns'), ('收费站', 'n'), ('实行', 'v'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('车辆', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('高速', 'b'), ('因下', 'i'), ('暴雨', 'n'), ('收费站', 'n'), ('实行', 'v'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('车辆', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('频频', 'd'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('路口', 's'), ('严重', 'a'), ('拥堵', 'v'), ('一名', 'm'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('期间', 'f'), ('多名', 'm'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('心里', 's'), ('感觉', 'n'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('暴雨', 'n'), ('执勤', 'vn'), ('严重', 'a'), ('拥堵', 'v'), ('交警', 'j'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'n'), ('暴雨', 'n'), ('淋得', 'v'), ('湿透', 'v'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'j'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('感觉', 'n'), ('暖暖的', 'z'), ('交警', 'j'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('浙江', 'ns'), ('温州', 'ns'), ('泰顺县', 'ns'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('期间', 'f'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('一下', 'm'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('心里', 's'), ('感觉', 'v'), ('暖暖的', 'z'), ('温州', 'ns'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暖心', 'n'), ('交警', 'n'), ('暴雨', 'n'), ('执勤', 'v'), ('频频', 'z'), ('路人', 'n'), ('送伞', 'v'), ('一路口', 'i'), ('严重', 'ad'), ('拥堵', 'v'), ('交警', 'n'), ('疏导', 'v'), ('交通', 'n'), ('突遇', 'v'), ('暴雨', 'n'), ('湿透', 'z'), ('市民', 'n'), ('送来', 'v'), ('雨伞', 'n'), ('市民', 'n'), ('交警', 'n'), ('撑伞', 'v'), ('感冒', 'v'), ('执勤', 'v'), ('交警', 'n'), ('感觉', 'v'), ('暖暖的', 'z'), ('交警', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4291,47 +4291,47 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>#河南暴雨互助#救命🆘🆘🆘所有应急、消防，请救救河南交通广播的主持人小佩！采访途中被困号线隧道（海滩寺—沙口录路站），请扩散！车厢内的水到胸部了！她已经不会说话了，车厢里还有小孩！求救！@河南消防@央视新闻轻逝花落空已隔几朝梦的微博视频</t>
+          <t>#河南暴雨互助#救命🆘🆘🆘所有应急、消防，请救救河南交通广播的主持人小佩！采访途中被困号线隧道（海滩寺—沙口录路站），请扩散！车厢内的水到胸部了！她已经不会说话了，车厢里还有小孩！求救！</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['#', '河南', '暴雨', '互助', '#', '救命', '🆘', '🆘', '🆘', '所有', '应急', '、', '消防', '，', '请', '救救', '河南', '交通广播', '的', '主持人', '小佩', '！', '采访', '途中', '被困', '号线', '隧道', '（', '海滩', '寺', '—', '沙口', '录路', '站', '）', '，', '请', '扩散', '！', '车厢', '内', '的', '水到', '胸部', '了', '！', '她', '已经', '不会', '说话', '了', '，', '车厢', '里', '还有', '小孩', '！', '求救', '！', '@', '河南', '消防', '@', '央视', '新闻', '轻逝', '花', '落空', '已隔', '几朝', '梦', '的', '微博', '视频']</t>
+          <t>['#', '河南', '暴雨', '互助', '#', '救命', '🆘', '🆘', '🆘', '所有', '应急', '、', '消防', '，', '请', '救救', '河南', '交通广播', '的', '主持人', '小佩', '！', '采访', '途中', '被困', '号线', '隧道', '（', '海滩', '寺', '—', '沙口', '录路', '站', '）', '，', '请', '扩散', '！', '车厢', '内', '的', '水到', '胸部', '了', '！', '她', '已经', '不会', '说话', '了', '，', '车厢', '里', '还有', '小孩', '！', '求救', '！']</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['#', '河南', '暴雨', '互助', '#', '救命🆘', '🆘🆘', '所有', '应急', '、', '消防', '，', '请', '救救', '河南', '交通', '广播', '的', '主持人', '小佩', '！', '采访', '途中', '被', '困号线', '隧道', '（', '海滩', '寺—', '沙口', '录路', '站', '）', '，', '请', '扩散', '！', '车厢', '内', '的', '水到', '胸部', '了', '！', '她', '已经', '不', '会', '说话', '了', '，', '车厢', '里', '还有', '小孩', '！', '求救', '！', '@', '河南', '消防', '@', '央视', '新闻', '轻逝', '花', '落空', '已', '隔', '几', '朝', '梦', '的', '微博', '视频']</t>
+          <t>['#', '河南', '暴雨', '互助', '#', '救命🆘', '🆘🆘', '所有', '应急', '、', '消防', '，', '请', '救救', '河南', '交通', '广播', '的', '主持人', '小佩', '！', '采访', '途中', '被', '困号线', '隧道', '（', '海滩', '寺—', '沙口', '录路', '站', '）', '，', '请', '扩散', '！', '车厢', '内', '的', '水到', '胸部', '了', '！', '她', '已经', '不', '会', '说话', '了', '，', '车厢', '里', '还有', '小孩', '！', '求救', '！']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['暴雨', '互助', '救命', '所有', '应急', '消防', '救救', '交通广播', '主持人', '小佩', '采访', '途中', '被困', '号线', '隧道', '海滩', '沙口', '录路', '扩散', '车厢', '水到', '胸部', '已经', '不会', '说话', '车厢', '小孩', '求救', '消防', '央视', '新闻', '轻逝', '落空', '已隔', '几朝', '微博', '视频']</t>
+          <t>['暴雨', '互助', '救命', '所有', '应急', '消防', '救救', '交通广播', '主持人', '小佩', '采访', '途中', '被困', '号线', '隧道', '海滩', '沙口', '录路', '扩散', '车厢', '水到', '胸部', '已经', '不会', '说话', '车厢', '小孩', '求救']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['暴雨', '互助', '救命🆘', '🆘🆘', '所有', '应急', '消防', '救救', '交通', '广播', '主持人', '小佩', '采访', '途中', '困号线', '隧道', '海滩', '寺—', '沙口', '录路', '扩散', '车厢', '水到', '胸部', '已经', '说话', '车厢', '小孩', '求救', '消防', '央视', '新闻', '轻逝', '落空', '微博', '视频']</t>
+          <t>['暴雨', '互助', '救命🆘', '🆘🆘', '所有', '应急', '消防', '救救', '交通', '广播', '主持人', '小佩', '采访', '途中', '困号线', '隧道', '海滩', '寺—', '沙口', '录路', '扩散', '车厢', '水到', '胸部', '已经', '说话', '车厢', '小孩', '求救']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'x'), ('救命', 'vn'), ('🆘', 'x'), ('🆘', 'x'), ('🆘', 'x'), ('所有', 'b'), ('应急', 'vn'), ('、', 'x'), ('消防', 'n'), ('，', 'x'), ('请', 'v'), ('救救', 'v'), ('河南', 'ns'), ('交通广播', 'l'), ('的', 'uj'), ('主持人', 'n'), ('小佩', 'nr'), ('！', 'x'), ('采访', 'v'), ('途中', 's'), ('被困', 'a'), ('号线', 'n'), ('隧道', 'n'), ('（', 'x'), ('海滩', 'ns'), ('寺', 'ng'), ('—', 'x'), ('沙口', 'n'), ('录路', 'n'), ('站', 'v'), ('）', 'x'), ('，', 'x'), ('请', 'v'), ('扩散', 'v'), ('！', 'x'), ('车厢', 'n'), ('内', 'f'), ('的', 'uj'), ('水', 'n'), ('到', 'v'), ('胸部', 'n'), ('了', 'ul'), ('！', 'x'), ('她', 'r'), ('已经', 'd'), ('不会', 'v'), ('说话', 'v'), ('了', 'ul'), ('，', 'x'), ('车厢', 'n'), ('里', 'f'), ('还有', 'v'), ('小孩', 'n'), ('！', 'x'), ('求救', 'v'), ('！', 'x'), ('@', 'x'), ('河南', 'ns'), ('消防', 'n'), ('@', 'x'), ('央视', 'j'), ('新闻', 'n'), ('轻', 'a'), ('逝', 'vg'), ('花', 'v'), ('落空', 'n'), ('已', 'd'), ('隔', 'v'), ('几', 'm'), ('朝', 'p'), ('梦', 'n'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'x'), ('救命', 'vn'), ('🆘', 'x'), ('🆘', 'x'), ('🆘', 'x'), ('所有', 'b'), ('应急', 'vn'), ('、', 'x'), ('消防', 'n'), ('，', 'x'), ('请', 'v'), ('救救', 'v'), ('河南', 'ns'), ('交通广播', 'l'), ('的', 'uj'), ('主持人', 'n'), ('小佩', 'nr'), ('！', 'x'), ('采访', 'v'), ('途中', 's'), ('被困', 'a'), ('号线', 'n'), ('隧道', 'n'), ('（', 'x'), ('海滩', 'ns'), ('寺', 'ng'), ('—', 'x'), ('沙口', 'n'), ('录路', 'n'), ('站', 'v'), ('）', 'x'), ('，', 'x'), ('请', 'v'), ('扩散', 'v'), ('！', 'x'), ('车厢', 'n'), ('内', 'f'), ('的', 'uj'), ('水', 'n'), ('到', 'v'), ('胸部', 'n'), ('了', 'ul'), ('！', 'x'), ('她', 'r'), ('已经', 'd'), ('不会', 'v'), ('说话', 'v'), ('了', 'ul'), ('，', 'x'), ('车厢', 'n'), ('里', 'f'), ('还有', 'v'), ('小孩', 'n'), ('！', 'x'), ('求救', 'v'), ('！', 'x')]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'v'), ('救命🆘', 'v'), ('🆘🆘', 'v'), ('所有', 'b'), ('应急', 'vn'), ('、', 'w'), ('消防', 'n'), ('，', 'w'), ('请', 'v'), ('救救', 'v'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('的', 'u'), ('主持人', 'n'), ('小佩', 'nr'), ('！', 'w'), ('采访', 'vn'), ('途中', 's'), ('被', 'p'), ('困号线', 'n'), ('隧道', 'n'), ('（', 'w'), ('海滩', 'n'), ('寺—', 'w'), ('沙口', 'ns'), ('录路', 'ns'), ('站', 'n'), ('）', 'w'), ('，', 'w'), ('请', 'v'), ('扩散', 'v'), ('！', 'w'), ('车厢', 'n'), ('内', 'f'), ('的', 'u'), ('水到', 'n'), ('胸部', 'n'), ('了', 'y'), ('！', 'w'), ('她', 'r'), ('已经', 'd'), ('不', 'd'), ('会', 'v'), ('说话', 'v'), ('了', 'y'), ('，', 'w'), ('车厢', 'n'), ('里', 'f'), ('还有', 'v'), ('小孩', 'n'), ('！', 'w'), ('求救', 'v'), ('！', 'w'), ('@', 'v'), ('河南', 'ns'), ('消防', 'n'), ('@', 'n'), ('央视', 'v'), ('新闻', 'n'), ('轻逝', 'v'), ('花', 'n'), ('落空', 'v'), ('已', 'd'), ('隔', 'v'), ('几', 'm'), ('朝', 'j'), ('梦', 'n'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('互助', 'v'), ('#', 'v'), ('救命🆘', 'v'), ('🆘🆘', 'v'), ('所有', 'b'), ('应急', 'vn'), ('、', 'w'), ('消防', 'n'), ('，', 'w'), ('请', 'v'), ('救救', 'v'), ('河南', 'ns'), ('交通', 'n'), ('广播', 'vn'), ('的', 'u'), ('主持人', 'n'), ('小佩', 'nr'), ('！', 'w'), ('采访', 'vn'), ('途中', 's'), ('被', 'p'), ('困号线', 'n'), ('隧道', 'n'), ('（', 'w'), ('海滩', 'n'), ('寺—', 'w'), ('沙口', 'ns'), ('录路', 'ns'), ('站', 'n'), ('）', 'w'), ('，', 'w'), ('请', 'v'), ('扩散', 'v'), ('！', 'w'), ('车厢', 'n'), ('内', 'f'), ('的', 'u'), ('水到', 'n'), ('胸部', 'n'), ('了', 'y'), ('！', 'w'), ('她', 'r'), ('已经', 'd'), ('不', 'd'), ('会', 'v'), ('说话', 'v'), ('了', 'y'), ('，', 'w'), ('车厢', 'n'), ('里', 'f'), ('还有', 'v'), ('小孩', 'n'), ('！', 'w'), ('求救', 'v'), ('！', 'w')]</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[('暴雨', 'n'), ('互助', 'v'), ('救命', 'vn'), ('所有', 'b'), ('应急', 'vn'), ('消防', 'n'), ('救救', 'v'), ('交通广播', 'l'), ('主持人', 'n'), ('小佩', 'nr'), ('采访', 'v'), ('途中', 's'), ('被困', 'a'), ('号线', 'n'), ('隧道', 'n'), ('海滩', 'ns'), ('沙口', 'n'), ('录路', 'n'), ('扩散', 'v'), ('车厢', 'n'), ('胸部', 'n'), ('已经', 'd'), ('不会', 'v'), ('说话', 'v'), ('车厢', 'n'), ('小孩', 'n'), ('求救', 'v'), ('消防', 'n'), ('央视', 'j'), ('新闻', 'n'), ('落空', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('互助', 'v'), ('救命', 'vn'), ('所有', 'b'), ('应急', 'vn'), ('消防', 'n'), ('救救', 'v'), ('交通广播', 'l'), ('主持人', 'n'), ('小佩', 'nr'), ('采访', 'v'), ('被困', 'a'), ('号线', 'n'), ('隧道', 'n'), ('沙口', 'n'), ('录路', 'n'), ('扩散', 'v'), ('车厢', 'n'), ('胸部', 'n'), ('不会', 'v'), ('说话', 'v'), ('车厢', 'n'), ('小孩', 'n'), ('求救', 'v')]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[('暴雨', 'n'), ('互助', 'v'), ('救命🆘', 'v'), ('🆘🆘', 'v'), ('所有', 'b'), ('应急', 'vn'), ('消防', 'n'), ('救救', 'v'), ('交通', 'n'), ('广播', 'vn'), ('主持人', 'n'), ('小佩', 'nr'), ('采访', 'vn'), ('途中', 's'), ('困号线', 'n'), ('隧道', 'n'), ('海滩', 'n'), ('寺—', 'w'), ('沙口', 'ns'), ('录路', 'ns'), ('扩散', 'v'), ('车厢', 'n'), ('水到', 'n'), ('胸部', 'n'), ('已经', 'd'), ('说话', 'v'), ('车厢', 'n'), ('小孩', 'n'), ('求救', 'v'), ('消防', 'n'), ('央视', 'v'), ('新闻', 'n'), ('轻逝', 'v'), ('落空', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('互助', 'v'), ('救命🆘', 'v'), ('🆘🆘', 'v'), ('所有', 'b'), ('应急', 'vn'), ('消防', 'n'), ('救救', 'v'), ('交通', 'n'), ('广播', 'vn'), ('主持人', 'n'), ('小佩', 'nr'), ('采访', 'vn'), ('困号线', 'n'), ('隧道', 'n'), ('海滩', 'n'), ('寺—', 'w'), ('扩散', 'v'), ('车厢', 'n'), ('水到', 'n'), ('胸部', 'n'), ('说话', 'v'), ('车厢', 'n'), ('小孩', 'n'), ('求救', 'v')]</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[('现在', 't'), ('比较', 'd'), ('雷雨', 'nr'), ('从化', 'v'), ('各区', 'r'), ('减弱', 'v'), ('不是', 'c'), ('没有', 'v'), ('注意', 'v'), ('交通安全', 'l'), ('广州', 'ns'), ('暴雨', 'n'), ('广州', 'ns'), ('天气', 'n')]</t>
+          <t>[('现在', 't'), ('雷雨', 'nr'), ('从化', 'v'), ('减弱', 'v'), ('没有', 'v'), ('注意', 'v'), ('交通安全', 'l'), ('暴雨', 'n'), ('天气', 'n')]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[('现在', 't'), ('比较', 'd'), ('雷雨', 'n'), ('从化', 'v'), ('各区', 'r'), ('减弱', 'v'), ('并不', 'd'), ('没有', 'v'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('广州', 'ns'), ('暴雨', 'n'), ('广州', 'ns'), ('天气', 'n')]</t>
+          <t>[('现在', 't'), ('雷雨', 'n'), ('从化', 'v'), ('减弱', 'v'), ('没有', 'v'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an'), ('暴雨', 'n'), ('天气', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[('达州', 'ns'), ('暴雨', 'n'), ('影响', 'vn'), ('注意', 'v'), ('渠县', 'ns'), ('以下', 'f'), ('交通', 'n'), ('断道', 'v'), ('信息', 'n'), ('合理', 'vn'), ('绕行', 'v'), ('昨晚', 't'), ('渠县', 'ns'), ('持续', 'vd'), ('连降', 'v'), ('大到暴雨', 'l'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'i'), ('境内', 's'), ('国省', 'nt'), ('干线', 'n'), ('重要', 'a'), ('多处', 'm'), ('出现', 'v'), ('塌方', 'n'), ('路基', 'nrt'), ('悬空', 'n'), ('树木', 'n'), ('倒伏', 'v'), ('安全隐患', 'i'), ('保障', 'v'), ('群众', 'n'), ('出行', 'v'), ('安全', 'an'), ('截止', 'v'), ('渠县', 'ns'), ('以下', 'f'), ('路段', 'n'), ('无法', 'n'), ('正常', 'd'), ('通行', 'j'), ('出行', 'v'), ('人员', 'n'), ('注意', 'v'), ('绕行', 'v'), ('城南', 'ns'), ('路段', 'n'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('汇镇', 'n'), ('公路', 'n'), ('大桥', 'ns'), ('三类', 'm'), ('危桥', 'n'), ('确保', 'v'), ('防汛', 'vn'), ('抢险', 'v'), ('通道', 'v'), ('畅通', 'a'), ('实行', 'v'), ('交通管制', 'n'), ('防汛', 'vn'), ('抢险', 'v'), ('工作', 'vn'), ('车辆通行', 'n'), ('禁止', 'v'), ('社会', 'n'), ('车辆通行', 'n'), ('米新庙', 'nr'), ('路段', 'n'), ('洪水', 'nr'), ('漫过', 'v'), ('路面', 'n'), ('车辆', 'n'), ('禁止通行', 'n'), ('任家', 'r'), ('河桥', 'ns'), ('水漫', 'n'), ('路面', 'n'), ('车辆', 'n'), ('禁止通行', 'n'), ('渠县', 'ns'), ('土溪', 'ns'), ('路段', 'n'), ('出现', 'v'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('岩峰', 'n'), ('镇到', 'v'), ('水口', 'n'), ('燕窝', 'n'), ('公路', 'n'), ('路段', 'n'), ('塌陷', 'v'), ('车辆', 'n'), ('禁止通行', 'n'), ('文崇孔', 'nr'), ('溪口', 'n'), ('桥梁', 'n'), ('已经', 'd'), ('被淹', 'n'), ('水位', 'n'), ('上涨', 'v'), ('米左右', 'nr'), ('现在', 't'), ('缓慢', 'd'), ('上涨', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('土溪', 'ns'), ('老路', 'n'), ('出现', 'v'), ('大面积', 'n'), ('塌方', 'n'), ('垮塌', 'v'), ('车辆', 'n'), ('禁止通行', 'n'), ('三板', 'n'), ('马山', 'ns'), ('贵福镇', 'ns'), ('贵福桥', 'ns'), ('正在', 't'), ('抢险', 'v'), ('施工', 'vn'), ('车辆', 'n'), ('禁止通行', 'n'), ('渠县', 'ns'), ('交通运输', 'j'), ('温馨', 'nr'), ('提示', 'v'), ('本轮', 'r'), ('强降雨', 'nr'), ('预计', 'vn'), ('持续', 'vd'), ('上午', 't'), ('公路', 'n'), ('零星', 'n'), ('塌方', 'n'), ('出行', 'v'), ('人员', 'n'), ('特殊', 'a'), ('情况', 'n'), ('建议', 'n'), ('不要', 'df'), ('外出', 'v'), ('雨情', 'n'), ('平稳', 'a'), ('进行', 'v'), ('合理', 'vn'), ('规划', 'n'), ('出行', 'v'), ('路线', 'n'), ('四川', 'ns'), ('先锋网', 'n')]</t>
+          <t>[('暴雨', 'n'), ('影响', 'vn'), ('注意', 'v'), ('交通', 'n'), ('断道', 'v'), ('信息', 'n'), ('合理', 'vn'), ('绕行', 'v'), ('昨晚', 't'), ('持续', 'vd'), ('连降', 'v'), ('大到暴雨', 'l'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'i'), ('干线', 'n'), ('重要', 'a'), ('出现', 'v'), ('塌方', 'n'), ('路基', 'nrt'), ('悬空', 'n'), ('树木', 'n'), ('倒伏', 'v'), ('安全隐患', 'i'), ('保障', 'v'), ('群众', 'n'), ('出行', 'v'), ('安全', 'an'), ('截止', 'v'), ('路段', 'n'), ('无法', 'n'), ('通行', 'j'), ('出行', 'v'), ('人员', 'n'), ('注意', 'v'), ('绕行', 'v'), ('路段', 'n'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('汇镇', 'n'), ('公路', 'n'), ('危桥', 'n'), ('确保', 'v'), ('防汛', 'vn'), ('抢险', 'v'), ('通道', 'v'), ('畅通', 'a'), ('实行', 'v'), ('交通管制', 'n'), ('防汛', 'vn'), ('抢险', 'v'), ('工作', 'vn'), ('车辆通行', 'n'), ('禁止', 'v'), ('社会', 'n'), ('车辆通行', 'n'), ('米新庙', 'nr'), ('路段', 'n'), ('洪水', 'nr'), ('漫过', 'v'), ('路面', 'n'), ('车辆', 'n'), ('禁止通行', 'n'), ('水漫', 'n'), ('路面', 'n'), ('车辆', 'n'), ('禁止通行', 'n'), ('路段', 'n'), ('出现', 'v'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('岩峰', 'n'), ('镇到', 'v'), ('水口', 'n'), ('燕窝', 'n'), ('公路', 'n'), ('路段', 'n'), ('塌陷', 'v'), ('车辆', 'n'), ('禁止通行', 'n'), ('文崇孔', 'nr'), ('溪口', 'n'), ('桥梁', 'n'), ('被淹', 'n'), ('水位', 'n'), ('上涨', 'v'), ('米左右', 'nr'), ('现在', 't'), ('上涨', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'j'), ('老路', 'n'), ('出现', 'v'), ('大面积', 'n'), ('塌方', 'n'), ('垮塌', 'v'), ('车辆', 'n'), ('禁止通行', 'n'), ('三板', 'n'), ('正在', 't'), ('抢险', 'v'), ('施工', 'vn'), ('车辆', 'n'), ('禁止通行', 'n'), ('交通运输', 'j'), ('温馨', 'nr'), ('提示', 'v'), ('强降雨', 'nr'), ('预计', 'vn'), ('持续', 'vd'), ('上午', 't'), ('公路', 'n'), ('零星', 'n'), ('塌方', 'n'), ('出行', 'v'), ('人员', 'n'), ('特殊', 'a'), ('情况', 'n'), ('建议', 'n'), ('外出', 'v'), ('雨情', 'n'), ('平稳', 'a'), ('进行', 'v'), ('合理', 'vn'), ('规划', 'n'), ('出行', 'v'), ('路线', 'n'), ('先锋网', 'n')]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[('达州', 'ns'), ('说事', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('注意', 'v'), ('渠县', 'ns'), ('以下', 'f'), ('交通', 'n'), ('断道', 'n'), ('信息', 'n'), ('合理', 'ad'), ('绕行', 'v'), ('昨晚', 't'), ('渠县', 'ns'), ('持续', 'v'), ('降大', 'v'), ('暴雨', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'n'), ('境内', 's'), ('国省', 'ns'), ('干线', 'n'), ('重要', 'a'), ('县道', 'n'), ('出现', 'v'), ('塌方', 'v'), ('路基', 'n'), ('悬空', 'v'), ('树木', 'n'), ('倒伏', 'v'), ('安全', 'a'), ('隐患', 'n'), ('保障', 'v'), ('群众', 'n'), ('出行', 'v'), ('安全', 'an'), ('截止', 'v'), ('渠县', 'ns'), ('以下', 'f'), ('路段', 'n'), ('无法', 'v'), ('正常', 'ad'), ('通行', 'v'), ('出行', 'vn'), ('人员', 'n'), ('注意', 'v'), ('绕行', 'v'), ('线卷硐', 'n'), ('城南', 'ns'), ('路段', 'n'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('三汇镇', 'ns'), ('公路', 'n'), ('大桥', 'n'), ('三类', 'b'), ('危桥', 'n'), ('确保', 'v'), ('防汛', 'vn'), ('抢险', 'vn'), ('通道', 'n'), ('畅通', 'a'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('防汛', 'v'), ('抢险', 'vn'), ('工作', 'vn'), ('车辆', 'n'), ('通行', 'v'), ('禁止', 'v'), ('社会', 'n'), ('车辆', 'n'), ('通行', 'v'), ('线+米', 'n'), ('新庙', 'ns'), ('路段', 'n'), ('洪水', 'n'), ('漫过', 'v'), ('路面', 'n'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('线+米', 'n'), ('任家河桥', 'nr'), ('水漫', 'n'), ('路面', 'n'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('线渠县', 'ns'), ('土溪', 'ns'), ('路段', 'n'), ('出现', 'v'), ('局部', 'n'), ('面积', 'n'), ('塌方', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('岩峰镇', 'ns'), ('水口燕', 'n'), ('窝岩', 'ns'), ('公路', 'n'), ('路段', 'n'), ('塌陷', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('文崇', 'ns'), ('孔溪口', 'ns'), ('桥梁', 'n'), ('已经', 'd'), ('水位', 'n'), ('上涨', 'v'), ('左右', 'm'), ('现在', 't'), ('缓慢', 'ad'), ('上涨', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('土溪', 'ns'), ('原老路', 'n'), ('出现', 'v'), ('大面积', 'd'), ('塌方', 'v'), ('堡坎', 'n'), ('垮塌', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('三板镇', 'ns'), ('马山背', 'n'), ('贵福镇', 'ns'), ('贵福桥', 'n'), ('正在', 'd'), ('抢险', 'v'), ('施工', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('。渠县', 'ns'), ('交通', 'n'), ('运输局', 'n'), ('温馨', 'a'), ('提示', 'v'), ('本轮', 'r'), ('降雨', 'vn'), ('预计', 'v'), ('持续', 'v'), ('上午', 't'), ('公路', 'n'), ('零星', 'd'), ('塌方', 'v'), ('出行', 'vn'), ('人员', 'n'), ('特殊', 'a'), ('情况', 'n'), ('建议', 'n'), ('不要', 'd'), ('外出', 'v'), ('雨情', 'n'), ('平稳', 'a'), ('进行', 'vx'), ('合理', 'a'), ('规划', 'vn'), ('出行', 'vn'), ('路线', 'n'), ('四川', 'ns'), ('先锋网', 'n')]</t>
+          <t>[('说事', 'n'), ('暴雨', 'n'), ('影响', 'vn'), ('注意', 'v'), ('交通', 'n'), ('断道', 'n'), ('信息', 'n'), ('合理', 'ad'), ('绕行', 'v'), ('昨晚', 't'), ('持续', 'v'), ('降大', 'v'), ('暴雨', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'n'), ('干线', 'n'), ('重要', 'a'), ('县道', 'n'), ('出现', 'v'), ('塌方', 'v'), ('路基', 'n'), ('悬空', 'v'), ('树木', 'n'), ('倒伏', 'v'), ('安全', 'a'), ('隐患', 'n'), ('保障', 'v'), ('群众', 'n'), ('出行', 'v'), ('安全', 'an'), ('截止', 'v'), ('路段', 'n'), ('无法', 'v'), ('正常', 'ad'), ('通行', 'v'), ('出行', 'vn'), ('人员', 'n'), ('注意', 'v'), ('绕行', 'v'), ('线卷硐', 'n'), ('路段', 'n'), ('局部', 'n'), ('面积', 'n'), ('坍塌', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('公路', 'n'), ('大桥', 'n'), ('三类', 'b'), ('危桥', 'n'), ('确保', 'v'), ('防汛', 'vn'), ('抢险', 'vn'), ('通道', 'n'), ('畅通', 'a'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('防汛', 'v'), ('抢险', 'vn'), ('工作', 'vn'), ('车辆', 'n'), ('通行', 'v'), ('禁止', 'v'), ('社会', 'n'), ('车辆', 'n'), ('通行', 'v'), ('线+米', 'n'), ('路段', 'n'), ('洪水', 'n'), ('漫过', 'v'), ('路面', 'n'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('线+米', 'n'), ('任家河桥', 'nr'), ('水漫', 'n'), ('路面', 'n'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('路段', 'n'), ('出现', 'v'), ('局部', 'n'), ('面积', 'n'), ('塌方', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('水口燕', 'n'), ('公路', 'n'), ('路段', 'n'), ('塌陷', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('桥梁', 'n'), ('水位', 'n'), ('上涨', 'v'), ('现在', 't'), ('缓慢', 'ad'), ('上涨', 'v'), ('车辆', 'n'), ('观察', 'v'), ('通行', 'v'), ('原老路', 'n'), ('出现', 'v'), ('塌方', 'v'), ('堡坎', 'n'), ('垮塌', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('马山背', 'n'), ('贵福桥', 'n'), ('抢险', 'v'), ('施工', 'v'), ('车辆', 'n'), ('禁止', 'v'), ('通行', 'v'), ('交通', 'n'), ('运输局', 'n'), ('温馨', 'a'), ('提示', 'v'), ('降雨', 'vn'), ('预计', 'v'), ('持续', 'v'), ('上午', 't'), ('公路', 'n'), ('塌方', 'v'), ('出行', 'vn'), ('人员', 'n'), ('特殊', 'a'), ('情况', 'n'), ('建议', 'n'), ('外出', 'v'), ('雨情', 'n'), ('平稳', 'a'), ('进行', 'vx'), ('合理', 'a'), ('规划', 'vn'), ('出行', 'vn'), ('路线', 'n'), ('先锋网', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('截至', 'v'), ('抢修', 'v'), ('施工', 'vn'), ('高速', 'd'), ('新乡', 'ns'), ('东站', 'n'), ('北口', 'ns'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('省道', 'n'), ('收费站', 'n'), ('之间', 'f'), ('引线', 'n'), ('水毁', 'v'), ('施工', 'vn'), ('焦桐', 'nr'), ('高速', 'd'), ('禁止', 'v'), ('大客车', 'n'), ('货车', 'n'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速公路', 'n'), ('正常', 'd'), ('通行', 'j'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('中原', 'ns'), ('高速', 'd'), ('交警', 'j')]</t>
+          <t>[('路况', 'n'), ('截至', 'v'), ('抢修', 'v'), ('施工', 'vn'), ('东站', 'n'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('省道', 'n'), ('收费站', 'n'), ('引线', 'n'), ('水毁', 'v'), ('施工', 'vn'), ('焦桐', 'nr'), ('禁止', 'v'), ('大客车', 'n'), ('货车', 'n'), ('提前', 'v'), ('绕行', 'v'), ('高速公路', 'n'), ('通行', 'j'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('交警', 'j')]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('抢修', 'v'), ('施工', 'v'), ('菏宝', 'ns'), ('高速', 'b'), ('新乡', 'ns'), ('东站', 'ns'), ('北口', 'ns'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('省道', 'n'), ('涉村', 'ns'), ('收费站', 'n'), ('之间', 'f'), ('引线', 'n'), ('水毁', 'vn'), ('施工', 'vn'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('禁止', 'v'), ('大客车', 'n'), ('货车', 'n'), ('上下站', 'j'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('您行', 'r'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('抢修', 'v'), ('施工', 'v'), ('高速', 'b'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上下站', 'j'), ('省道', 'n'), ('收费站', 'n'), ('引线', 'n'), ('水毁', 'vn'), ('施工', 'vn'), ('焦桐', 'nr'), ('高速', 'b'), ('涉村', 'vn'), ('禁止', 'v'), ('大客车', 'n'), ('货车', 'n'), ('上下站', 'j'), ('提前', 'v'), ('绕行', 'v'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('高速', 'b'), ('交警', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4511,47 +4511,47 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>#中国路网##党史之路#【暴雨、冰雹、落石……#红色邮路#重走长征路到达腊子口】#寻迹红色邮政传承红色基因#甘肃第一站，记者在这里，红军突破了国民党重兵扼守的腊子口天险，打开了通往陕甘革命根据地的道路！从兰州前往腊子口的路上，又是冰雹、又是落石、又是陷进泥坑……重走长征路就这么开始了。(记者刘玢妤)@交通发布交通发布的微博视频</t>
+          <t>#中国路网##党史之路#【暴雨、冰雹、落石……#红色邮路#重走长征路到达腊子口】#寻迹红色邮政传承红色基因#甘肃第一站，记者</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['#', '中国', '路网', '##', '党史', '之路', '#', '【', '暴雨', '、', '冰雹', '、', '落石', '…', '…', '#', '红色', '邮路', '#', '重走', '长征路', '到达', '腊子口', '】', '#', '寻迹', '红色', '邮政', '传承', '红色', '基因', '#', '甘肃', '第一站', '，', '记者', '在', '这里', '，', '红军', '突破', '了', '国民党', '重兵', '扼守', '的', '腊子口', '天险', '，', '打开', '了', '通往', '陕甘', '革命', '根据地', '的', '道路', '！', '从', '兰州', '前往', '腊子口', '的', '路上', '，', '又', '是', '冰雹', '、', '又', '是', '落石', '、', '又', '是', '陷进', '泥坑', '…', '…', '重走', '长征路', '就', '这么', '开始', '了', '。', '(', '记者', '刘玢妤', ')', '@', '交通', '发布', '交通', '发布', '的', '微博', '视频']</t>
+          <t>['#', '中国', '路网', '##', '党史', '之路', '#', '【', '暴雨', '、', '冰雹', '、', '落石', '…', '…', '#', '红色', '邮路', '#', '重走', '长征路', '到达', '腊子口', '】', '#', '寻迹', '红色', '邮政', '传承', '红色', '基因', '#', '甘肃', '第一站', '，', '记者']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['#', '中国', '路网', '#', '#', '党史', '之', '路', '#', '【', '暴雨', '、', '冰雹', '、', '落石', '……', '#', '红色', '邮路', '#', '重走', '长征路', '到达', '腊子口', '】', '#', '寻迹', '红色', '邮政', '传承', '红色', '基因', '#', '甘肃', '第一', '站', '，', '记者', '在', '这里', '，', '红军', '突破', '了', '国民党', '重兵', '扼守', '的', '腊子口', '天险', '，', '打开', '了', '通往', '陕甘', '革命', '根据地', '的', '道路', '！', '从', '兰州', '前往', '腊子口', '的', '路上', '，', '又', '是', '冰雹', '、', '又', '是', '落石', '、', '又', '是', '陷进', '泥坑', '……', '重走', '长征路', '就', '这么', '开始', '了', '。', '(', '记者', '刘玢妤', ')', '@', '交通', '发布', '交通', '发布', '的', '微博', '视频']</t>
+          <t>['#', '中国', '路网', '#', '#', '党史', '之', '路', '#', '【', '暴雨', '、', '冰雹', '、', '落石', '……', '#', '红色', '邮路', '#', '重走', '长征路', '到达', '腊子口', '】', '#', '寻迹', '红色', '邮政', '传承', '红色', '基因', '#', '甘肃', '第一', '站', '，', '记者']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['中国', '路网', '党史', '之路', '暴雨', '冰雹', '落石', '红色', '邮路', '重走', '长征路', '到达', '腊子口', '寻迹', '红色', '邮政', '传承', '红色', '基因', '甘肃', '第一站', '记者', '红军', '突破', '国民党', '重兵', '扼守', '腊子口', '天险', '打开', '通往', '陕甘', '革命', '根据地', '道路', '兰州', '前往', '腊子口', '路上', '冰雹', '落石', '陷进', '泥坑', '重走', '长征路', '记者', '刘玢妤', '交通', '发布', '交通', '发布', '微博', '视频']</t>
+          <t>['中国', '路网', '党史', '之路', '暴雨', '冰雹', '落石', '红色', '邮路', '重走', '长征路', '到达', '腊子口', '寻迹', '红色', '邮政', '传承', '红色', '基因', '甘肃', '第一站', '记者']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['中国', '路网', '党史', '暴雨', '冰雹', '落石', '红色', '邮路', '重走', '长征路', '到达', '腊子口', '寻迹', '红色', '邮政', '传承', '红色', '基因', '甘肃', '第一', '记者', '红军', '突破', '国民党', '重兵', '扼守', '腊子口', '天险', '打开', '通往', '陕甘', '革命', '根据地', '道路', '兰州', '前往', '腊子口', '路上', '冰雹', '落石', '陷进', '泥坑', '重走', '长征路', '记者', '刘玢妤', '交通', '发布', '交通', '发布', '微博', '视频']</t>
+          <t>['中国', '路网', '党史', '暴雨', '冰雹', '落石', '红色', '邮路', '重走', '长征路', '到达', '腊子口', '寻迹', '红色', '邮政', '传承', '红色', '基因', '甘肃', '第一', '记者']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('中国', 'ns'), ('路网', 'n'), ('##', 'x'), ('党史', 'n'), ('之路', 'r'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('、', 'x'), ('冰雹', 'n'), ('、', 'x'), ('落石', 'n'), ('…', 'x'), ('…', 'x'), ('#', 'x'), ('红色', 'n'), ('邮路', 'n'), ('#', 'x'), ('重', 'a'), ('走', 'v'), ('长征路', 'n'), ('到达', 'v'), ('腊子口', 'n'), ('】', 'x'), ('#', 'x'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'v'), ('红色', 'n'), ('基因', 'n'), ('#', 'x'), ('甘肃', 'ns'), ('第一站', 'm'), ('，', 'x'), ('记者', 'n'), ('在', 'p'), ('这里', 'r'), ('，', 'x'), ('红军', 'n'), ('突破', 'vn'), ('了', 'ul'), ('国民党', 'nt'), ('重兵', 'n'), ('扼守', 'v'), ('的', 'uj'), ('腊子口', 'n'), ('天险', 'n'), ('，', 'x'), ('打开', 'v'), ('了', 'ul'), ('通往', 'd'), ('陕甘', 'j'), ('革命', 'vn'), ('根据地', 'n'), ('的', 'uj'), ('道路', 'n'), ('！', 'x'), ('从', 'p'), ('兰州', 'ns'), ('前往', 't'), ('腊子口', 'n'), ('的', 'uj'), ('路上', 's'), ('，', 'x'), ('又', 'd'), ('是', 'v'), ('冰雹', 'n'), ('、', 'x'), ('又', 'd'), ('是', 'v'), ('落石', 'n'), ('、', 'x'), ('又', 'd'), ('是', 'v'), ('陷进', 'v'), ('泥坑', 'n'), ('…', 'x'), ('…', 'x'), ('重', 'a'), ('走', 'v'), ('长征路', 'n'), ('就', 'd'), ('这么', 'r'), ('开始', 'v'), ('了', 'ul'), ('。', 'x'), ('(', 'x'), ('记者', 'n'), ('刘玢妤', 'nr'), (')', 'x'), ('@', 'x'), ('交通', 'n'), ('发布', 'v'), ('交通', 'n'), ('发布', 'v'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('中国', 'ns'), ('路网', 'n'), ('##', 'x'), ('党史', 'n'), ('之路', 'r'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('、', 'x'), ('冰雹', 'n'), ('、', 'x'), ('落石', 'n'), ('…', 'x'), ('…', 'x'), ('#', 'x'), ('红色', 'n'), ('邮路', 'n'), ('#', 'x'), ('重', 'a'), ('走', 'v'), ('长征路', 'n'), ('到达', 'v'), ('腊子口', 'n'), ('】', 'x'), ('#', 'x'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'v'), ('红色', 'n'), ('基因', 'n'), ('#', 'x'), ('甘肃', 'ns'), ('第一站', 'm'), ('，', 'x'), ('记者', 'n')]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('中国', 'ns'), ('路网', 'n'), ('#', 'n'), ('#', 'v'), ('党史', 'n'), ('之', 'u'), ('路', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('、', 'w'), ('冰雹', 'n'), ('、', 'w'), ('落石', 'n'), ('……', 'w'), ('#', 'v'), ('红色', 'n'), ('邮路', 'n'), ('#', 'v'), ('重走', 'v'), ('长征路', 'ns'), ('到达', 'v'), ('腊子口', 'ns'), ('】', 'n'), ('#', 'v'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'vn'), ('红色', 'n'), ('基因', 'n'), ('#', 'v'), ('甘肃', 'ns'), ('第一', 'm'), ('站', 'n'), ('，', 'w'), ('记者', 'n'), ('在', 'p'), ('这里', 'r'), ('，', 'w'), ('红军', 'n'), ('突破', 'v'), ('了', 'u'), ('国民党', 'n'), ('重兵', 'n'), ('扼守', 'v'), ('的', 'u'), ('腊子口', 'n'), ('天险', 'i'), ('，', 'w'), ('打开', 'v'), ('了', 'u'), ('通往', 'v'), ('陕甘', 'ns'), ('革命', 'vn'), ('根据地', 'n'), ('的', 'u'), ('道路', 'n'), ('！', 'w'), ('从', 'p'), ('兰州', 'ns'), ('前往', 'v'), ('腊子口', 'ns'), ('的', 'u'), ('路上', 's'), ('，', 'w'), ('又', 'd'), ('是', 'v'), ('冰雹', 'n'), ('、', 'w'), ('又', 'd'), ('是', 'v'), ('落石', 'n'), ('、', 'w'), ('又', 'd'), ('是', 'v'), ('陷进', 'v'), ('泥坑', 'n'), ('……', 'w'), ('重走', 'v'), ('长征路', 'n'), ('就', 'd'), ('这么', 'r'), ('开始', 'v'), ('了', 'y'), ('。', 'w'), ('(', 'n'), ('记者', 'n'), ('刘玢妤', 'nr'), (')', 'v'), ('@', 'n'), ('交通', 'n'), ('发布', 'v'), ('交通', 'n'), ('发布', 'v'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'v'), ('中国', 'ns'), ('路网', 'n'), ('#', 'n'), ('#', 'v'), ('党史', 'n'), ('之', 'u'), ('路', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('、', 'w'), ('冰雹', 'n'), ('、', 'w'), ('落石', 'n'), ('……', 'w'), ('#', 'v'), ('红色', 'n'), ('邮路', 'n'), ('#', 'v'), ('重走', 'v'), ('长征路', 'ns'), ('到达', 'v'), ('腊子口', 'ns'), ('】', 'n'), ('#', 'v'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'vn'), ('红色', 'n'), ('基因', 'n'), ('#', 'v'), ('甘肃', 'ns'), ('第一', 'm'), ('站', 'n'), ('，', 'w'), ('记者', 'n')]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[('中国', 'ns'), ('路网', 'n'), ('党史', 'n'), ('之路', 'r'), ('暴雨', 'n'), ('冰雹', 'n'), ('落石', 'n'), ('红色', 'n'), ('邮路', 'n'), ('长征路', 'n'), ('到达', 'v'), ('腊子口', 'n'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'v'), ('红色', 'n'), ('基因', 'n'), ('甘肃', 'ns'), ('第一站', 'm'), ('记者', 'n'), ('红军', 'n'), ('突破', 'vn'), ('国民党', 'nt'), ('重兵', 'n'), ('扼守', 'v'), ('腊子口', 'n'), ('天险', 'n'), ('打开', 'v'), ('通往', 'd'), ('陕甘', 'j'), ('革命', 'vn'), ('根据地', 'n'), ('道路', 'n'), ('兰州', 'ns'), ('前往', 't'), ('腊子口', 'n'), ('路上', 's'), ('冰雹', 'n'), ('落石', 'n'), ('陷进', 'v'), ('泥坑', 'n'), ('长征路', 'n'), ('记者', 'n'), ('刘玢妤', 'nr'), ('交通', 'n'), ('发布', 'v'), ('交通', 'n'), ('发布', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('路网', 'n'), ('党史', 'n'), ('暴雨', 'n'), ('冰雹', 'n'), ('落石', 'n'), ('红色', 'n'), ('邮路', 'n'), ('长征路', 'n'), ('到达', 'v'), ('腊子口', 'n'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'v'), ('红色', 'n'), ('基因', 'n'), ('记者', 'n')]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[('中国', 'ns'), ('路网', 'n'), ('党史', 'n'), ('暴雨', 'n'), ('冰雹', 'n'), ('落石', 'n'), ('红色', 'n'), ('邮路', 'n'), ('重走', 'v'), ('长征路', 'ns'), ('到达', 'v'), ('腊子口', 'ns'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'vn'), ('红色', 'n'), ('基因', 'n'), ('甘肃', 'ns'), ('第一', 'm'), ('记者', 'n'), ('红军', 'n'), ('突破', 'v'), ('国民党', 'n'), ('重兵', 'n'), ('扼守', 'v'), ('腊子口', 'n'), ('天险', 'i'), ('打开', 'v'), ('通往', 'v'), ('陕甘', 'ns'), ('革命', 'vn'), ('根据地', 'n'), ('道路', 'n'), ('兰州', 'ns'), ('前往', 'v'), ('腊子口', 'ns'), ('路上', 's'), ('冰雹', 'n'), ('落石', 'n'), ('陷进', 'v'), ('泥坑', 'n'), ('重走', 'v'), ('长征路', 'n'), ('记者', 'n'), ('刘玢妤', 'nr'), ('交通', 'n'), ('发布', 'v'), ('交通', 'n'), ('发布', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('路网', 'n'), ('党史', 'n'), ('暴雨', 'n'), ('冰雹', 'n'), ('落石', 'n'), ('红色', 'n'), ('邮路', 'n'), ('重走', 'v'), ('到达', 'v'), ('寻迹', 'v'), ('红色', 'n'), ('邮政', 'n'), ('传承', 'vn'), ('红色', 'n'), ('基因', 'n'), ('记者', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4566,47 +4566,47 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>#聊城交警顶风冒雨为市民出行保驾护航#【直击！急雨像泼水路面瞬间成河，聊城市医院路口这一幕幕太暖了】，国庆假期第三天，聊城城区突降短时强降雨，急雨拍打路面像是在泼水，还伴有阵阵大风，给路面交通造成不小的影响。在聊城城区街头，执勤交警顶风冒雨上路，为广大市民平安出行保驾护航，上演了一幕幕温暖的瞬间。#山东市有大雨到暴雨局部大暴雨#果然视频的微博视频.@果然视频</t>
+          <t>#聊城交警顶风冒雨为市民出行保驾护航#【直击！急雨像泼水路面瞬间成河，聊城市医院路口这一幕幕太暖了】，国庆假期第三天，聊城城区突降短时强降雨，急雨拍打路面像是在泼水，还伴有阵阵大风，给路面交通造成不小的影响。在聊城城区街头，执勤交警顶风冒雨上路，为广大市民平安出行保驾护航，上演了一幕幕温暖的瞬间。#山东市有大雨到暴雨局部大暴雨#果然视频的微博视频.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['#', '聊城', '交警', '顶风冒雨', '为', '市民', '出行', '保驾护航', '#', '【', '直击', '！', '急雨', '像', '泼水', '路面', '瞬间', '成河', '，', '聊城市', '医院', '路口', '这', '一幕幕', '太暖', '了', '】', '，', '国庆', '假期', '第三天', '，', '聊城', '城区', '突降', '短时', '强降雨', '，', '急雨', '拍打', '路面', '像是', '在', '泼水', '，', '还', '伴有', '阵阵', '大风', '，', '给', '路面', '交通', '造成', '不小', '的', '影响', '。', '在', '聊城', '城区', '街头', '，', '执勤', '交警', '顶风冒雨', '上路', '，', '为', '广大', '市民', '平安', '出行', '保驾护航', '，', '上演', '了', '一幕幕', '温暖', '的', '瞬间', '。', '#', '山东', '市有', '大雨', '到', '暴雨', '局部', '大暴雨', '#', '果然', '视频', '的', '微博', '视频', '.', '@', '果然', '视频']</t>
+          <t>['#', '聊城', '交警', '顶风冒雨', '为', '市民', '出行', '保驾护航', '#', '【', '直击', '！', '急雨', '像', '泼水', '路面', '瞬间', '成河', '，', '聊城市', '医院', '路口', '这', '一幕幕', '太暖', '了', '】', '，', '国庆', '假期', '第三天', '，', '聊城', '城区', '突降', '短时', '强降雨', '，', '急雨', '拍打', '路面', '像是', '在', '泼水', '，', '还', '伴有', '阵阵', '大风', '，', '给', '路面', '交通', '造成', '不小', '的', '影响', '。', '在', '聊城', '城区', '街头', '，', '执勤', '交警', '顶风冒雨', '上路', '，', '为', '广大', '市民', '平安', '出行', '保驾护航', '，', '上演', '了', '一幕幕', '温暖', '的', '瞬间', '。', '#', '山东', '市有', '大雨', '到', '暴雨', '局部', '大暴雨', '#', '果然', '视频', '的', '微博', '视频', '.']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['#', '聊城', '交警', '顶风', '冒雨', '为', '市民', '出行', '保驾', '护航', '#', '【', '直击', '！', '急雨', '像', '泼水', '路面', '瞬间', '成河', '，', '聊城市', '医院', '路口', '这', '一幕幕', '太', '暖', '了', '】', '，', '国庆', '假期', '第三', '天', '，', '聊城', '城区', '突降', '短时', '强降雨', '，', '急雨', '拍打', '路面', '像是', '在', '泼水', '，', '还', '伴有', '阵阵', '大风', '，', '给', '路面', '交通', '造成', '不小', '的', '影响', '。', '在', '聊城', '城区', '街头', '，', '执勤', '交警', '顶风', '冒雨', '上路', '，', '为', '广大', '市民', '平安', '出行', '保驾', '护航', '，', '上演', '了', '一幕幕', '温暖', '的', '瞬间', '。', '#', '山东市', '有', '大雨', '到', '暴雨', '局部', '大暴雨', '#', '果然', '视频', '的', '微博', '视频', '.', '@', '果然', '视频']</t>
+          <t>['#', '聊城', '交警', '顶风', '冒雨', '为', '市民', '出行', '保驾', '护航', '#', '【', '直击', '！', '急雨', '像', '泼水', '路面', '瞬间', '成河', '，', '聊城市', '医院', '路口', '这', '一幕幕', '太', '暖', '了', '】', '，', '国庆', '假期', '第三', '天', '，', '聊城', '城区', '突降', '短时', '强降雨', '，', '急雨', '拍打', '路面', '像是', '在', '泼水', '，', '还', '伴有', '阵阵', '大风', '，', '给', '路面', '交通', '造成', '不小', '的', '影响', '。', '在', '聊城', '城区', '街头', '，', '执勤', '交警', '顶风', '冒雨', '上路', '，', '为', '广大', '市民', '平安', '出行', '保驾', '护航', '，', '上演', '了', '一幕幕', '温暖', '的', '瞬间', '。', '#', '山东市', '有', '大雨', '到', '暴雨', '局部', '大暴雨', '#', '果然', '视频', '的', '微博', '视频', '.']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['聊城', '交警', '顶风冒雨', '市民', '出行', '保驾护航', '直击', '急雨', '泼水', '路面', '瞬间', '成河', '聊城市', '医院', '路口', '一幕幕', '太暖', '国庆', '假期', '第三天', '聊城', '城区', '突降', '短时', '强降雨', '急雨', '拍打', '路面', '像是', '泼水', '伴有', '阵阵', '大风', '路面', '交通', '造成', '不小', '影响', '聊城', '城区', '街头', '执勤', '交警', '顶风冒雨', '上路', '广大', '市民', '平安', '出行', '保驾护航', '上演', '一幕幕', '温暖', '瞬间', '山东', '市有', '大雨', '暴雨', '局部', '大暴雨', '视频', '微博', '视频', '视频']</t>
+          <t>['聊城', '交警', '顶风冒雨', '市民', '出行', '保驾护航', '直击', '急雨', '泼水', '路面', '瞬间', '成河', '聊城市', '医院', '路口', '一幕幕', '太暖', '国庆', '假期', '第三天', '聊城', '城区', '突降', '短时', '强降雨', '急雨', '拍打', '路面', '像是', '泼水', '伴有', '阵阵', '大风', '路面', '交通', '造成', '不小', '影响', '聊城', '城区', '街头', '执勤', '交警', '顶风冒雨', '上路', '广大', '市民', '平安', '出行', '保驾护航', '上演', '一幕幕', '温暖', '瞬间', '山东', '市有', '大雨', '暴雨', '局部', '大暴雨', '视频', '微博', '视频']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['聊城', '交警', '顶风', '冒雨', '市民', '出行', '保驾', '护航', '直击', '急雨', '泼水', '路面', '瞬间', '成河', '聊城市', '医院', '路口', '一幕幕', '国庆', '假期', '第三', '聊城', '城区', '突降', '短时', '强降雨', '急雨', '拍打', '路面', '像是', '泼水', '伴有', '阵阵', '大风', '路面', '交通', '造成', '不小', '影响', '聊城', '城区', '街头', '执勤', '交警', '顶风', '冒雨', '上路', '广大', '市民', '平安', '出行', '保驾', '护航', '上演', '一幕幕', '温暖', '瞬间', '山东市', '大雨', '暴雨', '局部', '大暴雨', '视频', '微博', '视频', '视频']</t>
+          <t>['聊城', '交警', '顶风', '冒雨', '市民', '出行', '保驾', '护航', '直击', '急雨', '泼水', '路面', '瞬间', '成河', '聊城市', '医院', '路口', '一幕幕', '国庆', '假期', '第三', '聊城', '城区', '突降', '短时', '强降雨', '急雨', '拍打', '路面', '像是', '泼水', '伴有', '阵阵', '大风', '路面', '交通', '造成', '不小', '影响', '聊城', '城区', '街头', '执勤', '交警', '顶风', '冒雨', '上路', '广大', '市民', '平安', '出行', '保驾', '护航', '上演', '一幕幕', '温暖', '瞬间', '山东市', '大雨', '暴雨', '局部', '大暴雨', '视频', '微博', '视频']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('聊城', 'ns'), ('交警', 'j'), ('顶风冒雨', 'i'), ('为', 'p'), ('市民', 'n'), ('出行', 'v'), ('保驾护航', 'nr'), ('#', 'x'), ('【', 'x'), ('直击', 'v'), ('！', 'x'), ('急', 'v'), ('雨', 'n'), ('像', 'v'), ('泼水', 'n'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('，', 'x'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 's'), ('这', 'r'), ('一幕幕', 'n'), ('太', 'd'), ('暖', 'a'), ('了', 'ul'), ('】', 'x'), ('，', 'x'), ('国庆', 't'), ('假期', 't'), ('第三天', 'm'), ('，', 'x'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'nr'), ('，', 'x'), ('急雨', 'n'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('在', 'p'), ('泼水', 'n'), ('，', 'x'), ('还', 'd'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('，', 'x'), ('给', 'p'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('的', 'uj'), ('影响', 'vn'), ('。', 'x'), ('在', 'p'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('，', 'x'), ('执勤', 'vn'), ('交警', 'j'), ('顶风冒雨', 'i'), ('上路', 'ns'), ('，', 'x'), ('为', 'p'), ('广大', 'a'), ('市民', 'n'), ('平安', 'a'), ('出行', 'v'), ('保驾护航', 'nr'), ('，', 'x'), ('上演', 'v'), ('了', 'ul'), ('一幕幕', 'n'), ('温暖', 'an'), ('的', 'uj'), ('瞬间', 't'), ('。', 'x'), ('#', 'x'), ('山东', 'ns'), ('市', 'n'), ('有', 'v'), ('大雨', 'n'), ('到', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('#', 'x'), ('果然', 'd'), ('视频', 'n'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n'), ('.', 'x'), ('@', 'x'), ('果然', 'd'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('聊城', 'ns'), ('交警', 'j'), ('顶风冒雨', 'i'), ('为', 'p'), ('市民', 'n'), ('出行', 'v'), ('保驾护航', 'nr'), ('#', 'x'), ('【', 'x'), ('直击', 'v'), ('！', 'x'), ('急', 'v'), ('雨', 'n'), ('像', 'v'), ('泼水', 'n'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('，', 'x'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 's'), ('这', 'r'), ('一幕幕', 'n'), ('太', 'd'), ('暖', 'a'), ('了', 'ul'), ('】', 'x'), ('，', 'x'), ('国庆', 't'), ('假期', 't'), ('第三天', 'm'), ('，', 'x'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'nr'), ('，', 'x'), ('急雨', 'n'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('在', 'p'), ('泼水', 'n'), ('，', 'x'), ('还', 'd'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('，', 'x'), ('给', 'p'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('的', 'uj'), ('影响', 'vn'), ('。', 'x'), ('在', 'p'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('，', 'x'), ('执勤', 'vn'), ('交警', 'j'), ('顶风冒雨', 'i'), ('上路', 'ns'), ('，', 'x'), ('为', 'p'), ('广大', 'a'), ('市民', 'n'), ('平安', 'a'), ('出行', 'v'), ('保驾护航', 'nr'), ('，', 'x'), ('上演', 'v'), ('了', 'ul'), ('一幕幕', 'n'), ('温暖', 'an'), ('的', 'uj'), ('瞬间', 't'), ('。', 'x'), ('#', 'x'), ('山东', 'ns'), ('市', 'n'), ('有', 'v'), ('大雨', 'n'), ('到', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('#', 'x'), ('果然', 'd'), ('视频', 'n'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n'), ('.', 'x')]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('聊城', 'ns'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('为', 'v'), ('市民', 'n'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('#', 'n'), ('【', 'v'), ('直击', 'v'), ('！', 'w'), ('急雨', 'n'), ('像', 'v'), ('泼水', 'v'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('，', 'w'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 'n'), ('这', 'r'), ('一幕幕', 'm'), ('太', 'd'), ('暖', 'a'), ('了', 'u'), ('】', 'n'), ('，', 'w'), ('国庆', 't'), ('假期', 't'), ('第三', 'm'), ('天', 'q'), ('，', 'w'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'n'), ('，', 'w'), ('急雨', 'i'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('在', 'p'), ('泼水', 'v'), ('，', 'w'), ('还', 'd'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('，', 'w'), ('给', 'p'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('的', 'u'), ('影响', 'vn'), ('。', 'w'), ('在', 'p'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('，', 'w'), ('执勤', 'v'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('上路', 'v'), ('，', 'w'), ('为', 'v'), ('广大', 'a'), ('市民', 'n'), ('平安', 'ad'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('，', 'w'), ('上演', 'v'), ('了', 'u'), ('一幕幕', 'm'), ('温暖', 'a'), ('的', 'u'), ('瞬间', 't'), ('。', 'w'), ('#', 'v'), ('山东市', 'ns'), ('有', 'v'), ('大雨', 'n'), ('到', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('#', 'v'), ('果然', 'd'), ('视频', 'i'), ('的', 'u'), ('微博', 'a'), ('视频', 'n'), ('.', 'v'), ('@', 'n'), ('果然', 'd'), ('视频', 'i')]</t>
+          <t>[('#', 'v'), ('聊城', 'ns'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('为', 'v'), ('市民', 'n'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('#', 'n'), ('【', 'v'), ('直击', 'v'), ('！', 'w'), ('急雨', 'n'), ('像', 'v'), ('泼水', 'v'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('，', 'w'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 'n'), ('这', 'r'), ('一幕幕', 'm'), ('太', 'd'), ('暖', 'a'), ('了', 'u'), ('】', 'n'), ('，', 'w'), ('国庆', 't'), ('假期', 't'), ('第三', 'm'), ('天', 'q'), ('，', 'w'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'n'), ('，', 'w'), ('急雨', 'i'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('在', 'p'), ('泼水', 'v'), ('，', 'w'), ('还', 'd'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('，', 'w'), ('给', 'p'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('的', 'u'), ('影响', 'vn'), ('。', 'w'), ('在', 'p'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('，', 'w'), ('执勤', 'v'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('上路', 'v'), ('，', 'w'), ('为', 'v'), ('广大', 'a'), ('市民', 'n'), ('平安', 'ad'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('，', 'w'), ('上演', 'v'), ('了', 'u'), ('一幕幕', 'm'), ('温暖', 'a'), ('的', 'u'), ('瞬间', 't'), ('。', 'w'), ('#', 'v'), ('山东市', 'ns'), ('有', 'v'), ('大雨', 'n'), ('到', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('#', 'v'), ('果然', 'd'), ('视频', 'i'), ('的', 'u'), ('微博', 'a'), ('视频', 'n'), ('.', 'n')]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[('聊城', 'ns'), ('交警', 'j'), ('顶风冒雨', 'i'), ('市民', 'n'), ('出行', 'v'), ('保驾护航', 'nr'), ('直击', 'v'), ('泼水', 'n'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 's'), ('一幕幕', 'n'), ('国庆', 't'), ('假期', 't'), ('第三天', 'm'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'nr'), ('急雨', 'n'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('泼水', 'n'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('影响', 'vn'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('执勤', 'vn'), ('交警', 'j'), ('顶风冒雨', 'i'), ('上路', 'ns'), ('广大', 'a'), ('市民', 'n'), ('平安', 'a'), ('出行', 'v'), ('保驾护航', 'nr'), ('上演', 'v'), ('一幕幕', 'n'), ('温暖', 'an'), ('瞬间', 't'), ('山东', 'ns'), ('大雨', 'n'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n'), ('视频', 'n')]</t>
+          <t>[('交警', 'j'), ('顶风冒雨', 'i'), ('市民', 'n'), ('出行', 'v'), ('保驾护航', 'nr'), ('直击', 'v'), ('泼水', 'n'), ('路面', 'n'), ('瞬间', 't'), ('医院', 'n'), ('一幕幕', 'n'), ('国庆', 't'), ('假期', 't'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'nr'), ('急雨', 'n'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('泼水', 'n'), ('伴有', 'v'), ('大风', 'n'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('影响', 'vn'), ('城区', 'n'), ('执勤', 'vn'), ('交警', 'j'), ('顶风冒雨', 'i'), ('广大', 'a'), ('市民', 'n'), ('平安', 'a'), ('出行', 'v'), ('保驾护航', 'nr'), ('上演', 'v'), ('一幕幕', 'n'), ('温暖', 'an'), ('瞬间', 't'), ('大雨', 'n'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('视频', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[('聊城', 'ns'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('市民', 'n'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('直击', 'v'), ('急雨', 'n'), ('泼水', 'v'), ('路面', 'n'), ('瞬间', 't'), ('成河', 'ns'), ('聊城市', 'ns'), ('医院', 'n'), ('路口', 'n'), ('一幕幕', 'm'), ('国庆', 't'), ('假期', 't'), ('第三', 'm'), ('聊城', 'ns'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'n'), ('急雨', 'i'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('泼水', 'v'), ('伴有', 'v'), ('阵阵', 'q'), ('大风', 'n'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('影响', 'vn'), ('聊城', 'ns'), ('城区', 'n'), ('街头', 's'), ('执勤', 'v'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('上路', 'v'), ('广大', 'a'), ('市民', 'n'), ('平安', 'ad'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('上演', 'v'), ('一幕幕', 'm'), ('温暖', 'a'), ('瞬间', 't'), ('山东市', 'ns'), ('大雨', 'n'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('视频', 'i'), ('微博', 'a'), ('视频', 'n'), ('视频', 'i')]</t>
+          <t>[('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('市民', 'n'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('直击', 'v'), ('急雨', 'n'), ('泼水', 'v'), ('路面', 'n'), ('瞬间', 't'), ('医院', 'n'), ('路口', 'n'), ('国庆', 't'), ('假期', 't'), ('城区', 'n'), ('突降', 'v'), ('短时', 'b'), ('强降雨', 'n'), ('急雨', 'i'), ('拍打', 'v'), ('路面', 'n'), ('像是', 'v'), ('泼水', 'v'), ('伴有', 'v'), ('大风', 'n'), ('路面', 'n'), ('交通', 'n'), ('造成', 'v'), ('不小', 'a'), ('影响', 'vn'), ('城区', 'n'), ('执勤', 'v'), ('交警', 'n'), ('顶风', 'v'), ('冒雨', 'v'), ('上路', 'v'), ('广大', 'a'), ('市民', 'n'), ('平安', 'ad'), ('出行', 'v'), ('保驾', 'v'), ('护航', 'v'), ('上演', 'v'), ('温暖', 'a'), ('瞬间', 't'), ('大雨', 'n'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('视频', 'i'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4656,12 +4656,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('高速', 'd'), ('吉怀', 'nr'), ('怀化', 'v'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('吉怀', 'nr'), ('怀化', 'v'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('高速', 'd'), ('吉怀', 'd'), ('段怀化', 'v'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('包茂', 'nr'), ('段怀化', 'v'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -4676,47 +4676,47 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【#重庆暴雨主干道交通短时瘫痪#民警冒雨水中推车】清晨，重庆多地遭遇暴雨，渝北区城市主干道大面积积水，造成车辆严重堵塞交通短时瘫痪，民警冒雨在水中推行被水淹熄火的车辆。#重庆暴雨##宝藏蓝激励计划#@沸点天际线沸点天际线的微博视频</t>
+          <t>【#重庆暴雨主干道交通短时瘫痪#民警冒雨水中推车】清晨，重庆多地遭遇暴雨，渝北区城市主干道大面积积水，造成车辆严重堵塞交通短时瘫痪，民警冒雨在水中推行被水淹熄火的车辆。#重庆暴雨##宝藏蓝激励计划#</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['【', '#', '重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '#', '民警', '冒雨', '水中', '推车', '】', '清晨', '，', '重庆', '多地', '遭遇', '暴雨', '，', '渝北区', '城市', '主干道', '大面积', '积水', '，', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '，', '民警', '冒雨', '在', '水中', '推行', '被', '水淹', '熄火', '的', '车辆', '。', '#', '重庆', '暴雨', '##', '宝藏', '蓝', '激励', '计划', '#', '@', '沸点', '天际线', '沸点', '天际线', '的', '微博', '视频']</t>
+          <t>['【', '#', '重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '#', '民警', '冒雨', '水中', '推车', '】', '清晨', '，', '重庆', '多地', '遭遇', '暴雨', '，', '渝北区', '城市', '主干道', '大面积', '积水', '，', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '，', '民警', '冒雨', '在', '水中', '推行', '被', '水淹', '熄火', '的', '车辆', '。', '#', '重庆', '暴雨', '##', '宝藏', '蓝', '激励', '计划', '#']</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['【', '#', '重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '#', '民警', '冒雨', '水', '中', '推车', '】', '清晨', '，', '重庆', '多', '地', '遭遇', '暴雨', '，', '渝北区', '城市', '主干道', '大面积', '积水', '，', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '，', '民警', '冒雨', '在', '水', '中', '推行', '被', '水淹', '熄火', '的', '车辆', '。', '#', '重庆', '暴雨', '#', '#', '宝藏', '蓝激励', '计划', '#', '@', '沸点', '天际线', '沸点', '天际线', '的', '微博', '视频']</t>
+          <t>['【', '#', '重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '#', '民警', '冒雨', '水', '中', '推车', '】', '清晨', '，', '重庆', '多', '地', '遭遇', '暴雨', '，', '渝北区', '城市', '主干道', '大面积', '积水', '，', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '，', '民警', '冒雨', '在', '水', '中', '推行', '被', '水淹', '熄火', '的', '车辆', '。', '#', '重庆', '暴雨', '#', '#', '宝藏', '蓝激励', '计划', '#']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '民警', '冒雨', '水中', '推车', '清晨', '重庆', '多地', '遭遇', '暴雨', '渝北区', '城市', '主干道', '大面积', '积水', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '民警', '冒雨', '水中', '推行', '水淹', '熄火', '车辆', '重庆', '暴雨', '宝藏', '激励', '计划', '沸点', '天际线', '沸点', '天际线', '微博', '视频']</t>
+          <t>['重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '民警', '冒雨', '水中', '推车', '清晨', '重庆', '多地', '遭遇', '暴雨', '渝北区', '城市', '主干道', '大面积', '积水', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '民警', '冒雨', '水中', '推行', '水淹', '熄火', '车辆', '重庆', '暴雨', '宝藏', '激励', '计划']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '民警', '冒雨', '推车', '清晨', '重庆', '遭遇', '暴雨', '渝北区', '城市', '主干道', '大面积', '积水', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '民警', '冒雨', '推行', '水淹', '熄火', '车辆', '重庆', '暴雨', '宝藏', '蓝激励', '计划', '沸点', '天际线', '沸点', '天际线', '微博', '视频']</t>
+          <t>['重庆', '暴雨', '主干道', '交通', '短时', '瘫痪', '民警', '冒雨', '推车', '清晨', '重庆', '遭遇', '暴雨', '渝北区', '城市', '主干道', '大面积', '积水', '造成', '车辆', '严重', '堵塞', '交通', '短时', '瘫痪', '民警', '冒雨', '推行', '水淹', '熄火', '车辆', '重庆', '暴雨', '宝藏', '蓝激励', '计划']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[('【', 'x'), ('#', 'x'), ('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('#', 'x'), ('民警', 'n'), ('冒雨', 'v'), ('水中', 's'), ('推车', 'v'), ('】', 'x'), ('清晨', 't'), ('，', 'x'), ('重庆', 'ns'), ('多', 'm'), ('地', 'n'), ('遭遇', 'n'), ('暴雨', 'n'), ('，', 'x'), ('渝北区', 'ns'), ('城市', 'ns'), ('主干道', 'n'), ('大面积', 'n'), ('积水', 'n'), ('，', 'x'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'a'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('，', 'x'), ('民警', 'n'), ('冒雨', 'v'), ('在', 'p'), ('水中', 's'), ('推行', 'v'), ('被', 'p'), ('水淹', 'nr'), ('熄火', 'v'), ('的', 'uj'), ('车辆', 'n'), ('。', 'x'), ('#', 'x'), ('重庆', 'ns'), ('暴雨', 'n'), ('##', 'x'), ('宝藏', 'nr'), ('蓝', 'nr'), ('激励', 'v'), ('计划', 'n'), ('#', 'x'), ('@', 'x'), ('沸点', 'n'), ('天际线', 'nz'), ('沸点', 'n'), ('天际线', 'nz'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'x'), ('#', 'x'), ('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('#', 'x'), ('民警', 'n'), ('冒雨', 'v'), ('水中', 's'), ('推车', 'v'), ('】', 'x'), ('清晨', 't'), ('，', 'x'), ('重庆', 'ns'), ('多', 'm'), ('地', 'n'), ('遭遇', 'n'), ('暴雨', 'n'), ('，', 'x'), ('渝北区', 'ns'), ('城市', 'ns'), ('主干道', 'n'), ('大面积', 'n'), ('积水', 'n'), ('，', 'x'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'a'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('，', 'x'), ('民警', 'n'), ('冒雨', 'v'), ('在', 'p'), ('水中', 's'), ('推行', 'v'), ('被', 'p'), ('水淹', 'nr'), ('熄火', 'v'), ('的', 'uj'), ('车辆', 'n'), ('。', 'x'), ('#', 'x'), ('重庆', 'ns'), ('暴雨', 'n'), ('##', 'x'), ('宝藏', 'nr'), ('蓝', 'nr'), ('激励', 'v'), ('计划', 'n'), ('#', 'x')]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[('【', 'nr'), ('#', 'v'), ('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('#', 'n'), ('民警', 'n'), ('冒雨', 'v'), ('水', 'n'), ('中', 'f'), ('推车', 'v'), ('】', 'v'), ('清晨', 't'), ('，', 'w'), ('重庆', 'ns'), ('多', 'a'), ('地', 'u'), ('遭遇', 'v'), ('暴雨', 'n'), ('，', 'w'), ('渝北区', 'ns'), ('城市', 'n'), ('主干道', 'n'), ('大面积', 'd'), ('积水', 'n'), ('，', 'w'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'ad'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('，', 'w'), ('民警', 'n'), ('冒雨', 'v'), ('在', 'p'), ('水', 'n'), ('中', 'f'), ('推行', 'v'), ('被', 'p'), ('水淹', 'n'), ('熄火', 'v'), ('的', 'u'), ('车辆', 'n'), ('。', 'w'), ('#', 'v'), ('重庆', 'ns'), ('暴雨', 'n'), ('#', 'vn'), ('#', 'n'), ('宝藏', 'n'), ('蓝激励', 'vn'), ('计划', 'n'), ('#', 'v'), ('@', 'v'), ('沸点', 'n'), ('天际线', 'n'), ('沸点', 'n'), ('天际线', 'n'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('【', 'nr'), ('#', 'v'), ('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('#', 'n'), ('民警', 'n'), ('冒雨', 'v'), ('水', 'n'), ('中', 'f'), ('推车', 'v'), ('】', 'v'), ('清晨', 't'), ('，', 'w'), ('重庆', 'ns'), ('多', 'a'), ('地', 'u'), ('遭遇', 'v'), ('暴雨', 'n'), ('，', 'w'), ('渝北区', 'ns'), ('城市', 'n'), ('主干道', 'n'), ('大面积', 'd'), ('积水', 'n'), ('，', 'w'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'ad'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('，', 'w'), ('民警', 'n'), ('冒雨', 'v'), ('在', 'p'), ('水', 'n'), ('中', 'f'), ('推行', 'v'), ('被', 'p'), ('水淹', 'n'), ('熄火', 'v'), ('的', 'u'), ('车辆', 'n'), ('。', 'w'), ('#', 'v'), ('重庆', 'ns'), ('暴雨', 'n'), ('#', 'vn'), ('#', 'n'), ('宝藏', 'n'), ('蓝激励', 'vn'), ('计划', 'n'), ('#', 'n')]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('水中', 's'), ('推车', 'v'), ('清晨', 't'), ('重庆', 'ns'), ('遭遇', 'n'), ('暴雨', 'n'), ('渝北区', 'ns'), ('城市', 'ns'), ('主干道', 'n'), ('大面积', 'n'), ('积水', 'n'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'a'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('水中', 's'), ('推行', 'v'), ('水淹', 'nr'), ('熄火', 'v'), ('车辆', 'n'), ('重庆', 'ns'), ('暴雨', 'n'), ('宝藏', 'nr'), ('激励', 'v'), ('计划', 'n'), ('沸点', 'n'), ('天际线', 'nz'), ('沸点', 'n'), ('天际线', 'nz'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推车', 'v'), ('清晨', 't'), ('遭遇', 'n'), ('暴雨', 'n'), ('主干道', 'n'), ('大面积', 'n'), ('积水', 'n'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'a'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'b'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推行', 'v'), ('水淹', 'nr'), ('熄火', 'v'), ('车辆', 'n'), ('暴雨', 'n'), ('宝藏', 'nr'), ('激励', 'v'), ('计划', 'n')]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[('重庆', 'ns'), ('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推车', 'v'), ('清晨', 't'), ('重庆', 'ns'), ('遭遇', 'v'), ('暴雨', 'n'), ('渝北区', 'ns'), ('城市', 'n'), ('主干道', 'n'), ('大面积', 'd'), ('积水', 'n'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'ad'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推行', 'v'), ('水淹', 'n'), ('熄火', 'v'), ('车辆', 'n'), ('重庆', 'ns'), ('暴雨', 'n'), ('宝藏', 'n'), ('蓝激励', 'vn'), ('计划', 'n'), ('沸点', 'n'), ('天际线', 'n'), ('沸点', 'n'), ('天际线', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('主干道', 'n'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推车', 'v'), ('清晨', 't'), ('遭遇', 'v'), ('暴雨', 'n'), ('城市', 'n'), ('主干道', 'n'), ('积水', 'n'), ('造成', 'v'), ('车辆', 'n'), ('严重', 'ad'), ('堵塞', 'v'), ('交通', 'n'), ('短时', 'n'), ('瘫痪', 'v'), ('民警', 'n'), ('冒雨', 'v'), ('推行', 'v'), ('水淹', 'n'), ('熄火', 'v'), ('车辆', 'n'), ('暴雨', 'n'), ('宝藏', 'n'), ('蓝激励', 'vn'), ('计划', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('雨城区', 'ns'), ('观音岩', 'n'), ('茶山', 'n'), ('山门', 'ns'), ('部分', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('上午', 't'), ('暴雨', 'n'), ('导致', 'v'), ('雨城区', 'ns'), ('境内', 's'), ('多处', 'm'), ('塌方', 'n'), ('交通', 'n'), ('中断', 'ns'), ('观音岩', 'n'), ('塌方', 'n'), ('立方米', 'q'), ('茶山', 'n'), ('山门', 'ns'), ('塌方', 'n'), ('立方米', 'q'), ('特色旅游', 'n'), ('商品', 'n'), ('市场', 'n'), ('背后', 'f'), ('塌方', 'n'), ('立方米', 'q'), ('目前', 't'), ('以上', 'f'), ('路段', 'n'), ('进行', 'v'), ('交通管制', 'n'), ('禁止通行', 'n'), ('雨城区', 'ns'), ('交通运输', 'j'), ('出动', 'v'), ('机械', 'n'), ('全力', 'n'), ('通保', 'j'), ('广大群众', 'nr'), ('合理安排', 'n'), ('出行', 'v'), ('路线', 'n'), ('注意安全', 'nz')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('观音岩', 'n'), ('茶山', 'n'), ('部分', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('上午', 't'), ('暴雨', 'n'), ('导致', 'v'), ('塌方', 'n'), ('交通', 'n'), ('观音岩', 'n'), ('塌方', 'n'), ('茶山', 'n'), ('塌方', 'n'), ('特色旅游', 'n'), ('商品', 'n'), ('市场', 'n'), ('塌方', 'n'), ('目前', 't'), ('路段', 'n'), ('进行', 'v'), ('交通管制', 'n'), ('禁止通行', 'n'), ('交通运输', 'j'), ('出动', 'v'), ('机械', 'n'), ('全力', 'n'), ('通保', 'j'), ('广大群众', 'nr'), ('合理安排', 'n'), ('出行', 'v'), ('路线', 'n')]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('雨城区', 'ns'), ('观音岩', 'ns'), ('藏茶山', 'ns'), ('山门', 'n'), ('部分', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('上午', 't'), ('暴雨', 'n'), ('导致', 'v'), ('雨城区', 'ns'), ('境内线', 'n'), ('塌方', 'v'), ('交通', 'n'), ('中断', 'v'), ('—+', 'nr'), ('观音岩', 'nr'), ('塌方', 'v'), ('立方米', 'q'), ('—+', 'n'), ('藏茶山', 'ns'), ('山门', 'n'), ('塌方', 'v'), ('立方米', 'q'), ('—+', 'n'), ('藏茶村', 'ns'), ('特色', 'n'), ('旅游', 'vn'), ('商品', 'n'), ('市场', 'n'), ('背后', 'f'), ('塌方', 'v'), ('立方米', 'q'), ('目前', 't'), ('以上', 'f'), ('路段', 'n'), ('进行', 'vx'), ('交通', 'n'), ('管制', 'vn'), ('禁止', 'v'), ('通行', 'v'), ('雨城区', 'ns'), ('交通', 'n'), ('运输局', 'n'), ('出动', 'v'), ('机械', 'n'), ('全力', 'd'), ('抢通', 'v'), ('保通', 'v'), ('广大', 'a'), ('群众', 'n'), ('合理', 'ad'), ('安排', 'v'), ('出行', 'a'), ('路线', 'n'), ('注意', 'v'), ('安全', 'an')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('山门', 'n'), ('部分', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('上午', 't'), ('暴雨', 'n'), ('导致', 'v'), ('境内线', 'n'), ('塌方', 'v'), ('交通', 'n'), ('中断', 'v'), ('—+', 'nr'), ('观音岩', 'nr'), ('塌方', 'v'), ('—+', 'n'), ('山门', 'n'), ('塌方', 'v'), ('—+', 'n'), ('特色', 'n'), ('旅游', 'vn'), ('商品', 'n'), ('市场', 'n'), ('塌方', 'v'), ('目前', 't'), ('路段', 'n'), ('进行', 'vx'), ('交通', 'n'), ('管制', 'vn'), ('禁止', 'v'), ('通行', 'v'), ('交通', 'n'), ('运输局', 'n'), ('出动', 'v'), ('机械', 'n'), ('抢通', 'v'), ('保通', 'v'), ('广大', 'a'), ('群众', 'n'), ('合理', 'ad'), ('安排', 'v'), ('出行', 'a'), ('路线', 'n'), ('注意', 'v'), ('安全', 'an')]</t>
         </is>
       </c>
     </row>
@@ -4821,12 +4821,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[('四川', 'ns'), ('高速', 'd'), ('路况', 'n'), ('关闭', 'v'), ('成渝', 'nr'), ('环线', 'n'), ('高速', 'd'), ('遂宁', 'ns'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('实行', 'v'), ('交通管制', 'n'), ('措施', 'n'), ('红江', 'ns'), ('射洪', 'vn'), ('玉太', 'nr'), ('收费站', 'n'), ('入口', 'ns'), ('关闭', 'v')]</t>
+          <t>[('路况', 'n'), ('关闭', 'v'), ('成渝', 'nr'), ('环线', 'n'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('实行', 'v'), ('交通管制', 'n'), ('措施', 'n'), ('射洪', 'vn'), ('玉太', 'nr'), ('收费站', 'n'), ('关闭', 'v')]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[('四川', 'ns'), ('高速', 'b'), ('路况', 'n'), ('站口', 'n'), ('关闭', 'v'), ('成渝', 'v'), ('环线', 'n'), ('绵遂', 'v'), ('高速', 'b'), ('遂宁', 'ns'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('红江', 'ns'), ('射洪', 'v'), ('玉太', 'nz'), ('收费站', 'n'), ('入口', 'v'), ('关闭', 'v')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('站口', 'n'), ('关闭', 'v'), ('成渝', 'v'), ('环线', 'n'), ('绵遂', 'v'), ('高速', 'b'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('射洪', 'v'), ('收费站', 'n'), ('入口', 'v'), ('关闭', 'v')]</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4876,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[('确保', 'v'), ('良好', 'a'), ('交通秩序', 'nz'), ('交警', 'j'), ('增设', 'v'), ('临时', 'b'), ('信号灯', 'n'), ('暴雨', 'n'), ('灾害', 'n'), ('发生', 'v'), ('以来', 'f'), ('市区', 'n'), ('部分', 'n'), ('信号灯', 'n'), ('交通', 'n'), ('隔离', 'v'), ('护栏', 'n'), ('交通', 'n'), ('指示牌', 'n'), ('道路', 'n'), ('监控', 'vn'), ('设施', 'n'), ('损坏', 'v'), ('郑州', 'ns'), ('交警', 'j'), ('组织', 'v'), ('人员', 'n'), ('进行', 'v'), ('不间断', 'l'), ('巡视', 'v'), ('尽快', 'd'), ('收集', 'v'), ('发现', 'v'), ('故障', 'n'), ('点位', 'n'), ('组织', 'v'), ('力量', 'n'), ('进行', 'v'), ('抢修', 'v'), ('截至', 'v'), ('零时', 'd'), ('四环', 'ns'), ('信号灯', 'n'), ('控制', 'v'), ('路口', 's'), ('共计', 'v'), ('排查', 'vn'), ('出处', 'v'), ('故障', 'n'), ('已经', 'd'), ('修复', 'v'), ('断电', 'n'), ('造成', 'v'), ('信号', 'n'), ('灯不亮', 'n'), ('恢复', 'v'), ('供电', 'vn'), ('抓紧', 'v'), ('进行', 'v'), ('排查', 'vn'), ('增设', 'v'), ('临时', 'b'), ('信号灯', 'n'), ('优化', 'vn'), ('调整', 'vn'), ('信号', 'n'), ('路口处', 'n'), ('智能', 'n'), ('监控', 'vn'), ('设施', 'n'), ('排查', 'vn'), ('及时', 'c'), ('修复', 'v'), ('助力', 'n'), ('交警', 'j'), ('借助', 'v'), ('监控', 'vn'), ('设备', 'vn'), ('进行', 'v'), ('应急', 'vn'), ('交通指挥', 'n'), ('确保', 'v'), ('全市', 'n'), ('良好', 'a'), ('出行', 'v'), ('环境', 'n')]</t>
+          <t>[('确保', 'v'), ('良好', 'a'), ('交警', 'j'), ('增设', 'v'), ('临时', 'b'), ('信号灯', 'n'), ('暴雨', 'n'), ('灾害', 'n'), ('发生', 'v'), ('市区', 'n'), ('部分', 'n'), ('信号灯', 'n'), ('交通', 'n'), ('隔离', 'v'), ('护栏', 'n'), ('交通', 'n'), ('指示牌', 'n'), ('道路', 'n'), ('监控', 'vn'), ('设施', 'n'), ('损坏', 'v'), ('交警', 'j'), ('组织', 'v'), ('人员', 'n'), ('进行', 'v'), ('不间断', 'l'), ('巡视', 'v'), ('收集', 'v'), ('发现', 'v'), ('故障', 'n'), ('点位', 'n'), ('组织', 'v'), ('力量', 'n'), ('进行', 'v'), ('抢修', 'v'), ('截至', 'v'), ('信号灯', 'n'), ('控制', 'v'), ('共计', 'v'), ('排查', 'vn'), ('出处', 'v'), ('故障', 'n'), ('修复', 'v'), ('断电', 'n'), ('造成', 'v'), ('信号', 'n'), ('灯不亮', 'n'), ('恢复', 'v'), ('供电', 'vn'), ('抓紧', 'v'), ('进行', 'v'), ('排查', 'vn'), ('增设', 'v'), ('临时', 'b'), ('信号灯', 'n'), ('优化', 'vn'), ('调整', 'vn'), ('信号', 'n'), ('路口处', 'n'), ('智能', 'n'), ('监控', 'vn'), ('设施', 'n'), ('排查', 'vn'), ('修复', 'v'), ('助力', 'n'), ('交警', 'j'), ('借助', 'v'), ('监控', 'vn'), ('设备', 'vn'), ('进行', 'v'), ('应急', 'vn'), ('交通指挥', 'n'), ('确保', 'v'), ('全市', 'n'), ('良好', 'a'), ('出行', 'v'), ('环境', 'n')]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[('确保', 'v'), ('良好', 'a'), ('交通', 'n'), ('秩序', 'n'), ('交警', 'n'), ('增设', 'v'), ('临时', 'b'), ('信号', 'n'), ('灯处', 'n'), ('暴雨', 'n'), ('灾害', 'n'), ('发生', 'v'), ('以来', 'f'), ('市区', 's'), ('部分', 'n'), ('信号灯', 'n'), ('交通', 'n'), ('隔离', 'v'), ('护栏', 'n'), ('交通', 'n'), ('指示牌', 'n'), ('道路', 'n'), ('监控', 'v'), ('设施', 'n'), ('损坏', 'v'), ('郑州', 'ns'), ('交警', 'n'), ('组织', 'n'), ('人员', 'n'), ('进行', 'vx'), ('间断', 'v'), ('巡视', 'v'), ('尽快', 'd'), ('收集', 'v'), ('发现', 'v'), ('故障', 'n'), ('点位', 'v'), ('组织', 'v'), ('力量', 'n'), ('进行', 'vx'), ('抢修', 'vn'), ('截至', 'v'), ('零时', 't'), ('四环', 'n'), ('信号灯', 'n'), ('控制', 'vn'), ('路口', 'n'), ('共计', 'v'), ('排查', 'v'), ('出处', 'n'), ('故障', 'n'), ('已经', 'd'), ('修复处', 'v'), ('断电', 'n'), ('造成', 'v'), ('信号灯', 'n'), ('恢复', 'v'), ('供电', 'vn'), ('抓紧', 'v'), ('进行', 'vx'), ('排查', 'vn'), ('增设', 'v'), ('临时', 'b'), ('信号', 'n'), ('灯处', 'n'), ('优化', 'v'), ('调整', 'vn'), ('信号', 'n'), ('配时', 'vn'), ('路口处', 'n'), ('智能', 'n'), ('监控', 'v'), ('设施', 'n'), ('排查', 'v'), ('及时', 'ad'), ('修复处', 'v'), ('助力', 'n'), ('交警', 'n'), ('借助', 'v'), ('监控', 'vn'), ('设备', 'n'), ('进行', 'vx'), ('应急', 'vn'), ('交通', 'n'), ('指挥', 'vn'), ('确保', 'v'), ('全市', 'n'), ('良好', 'a'), ('出行', 'vn'), ('环境', 'n')]</t>
+          <t>[('确保', 'v'), ('良好', 'a'), ('交通', 'n'), ('秩序', 'n'), ('交警', 'n'), ('增设', 'v'), ('临时', 'b'), ('信号', 'n'), ('灯处', 'n'), ('暴雨', 'n'), ('灾害', 'n'), ('发生', 'v'), ('部分', 'n'), ('信号灯', 'n'), ('交通', 'n'), ('隔离', 'v'), ('护栏', 'n'), ('交通', 'n'), ('指示牌', 'n'), ('道路', 'n'), ('监控', 'v'), ('设施', 'n'), ('损坏', 'v'), ('交警', 'n'), ('组织', 'n'), ('人员', 'n'), ('进行', 'vx'), ('间断', 'v'), ('巡视', 'v'), ('收集', 'v'), ('发现', 'v'), ('故障', 'n'), ('点位', 'v'), ('组织', 'v'), ('力量', 'n'), ('进行', 'vx'), ('抢修', 'vn'), ('截至', 'v'), ('零时', 't'), ('四环', 'n'), ('信号灯', 'n'), ('控制', 'vn'), ('路口', 'n'), ('共计', 'v'), ('排查', 'v'), ('出处', 'n'), ('故障', 'n'), ('修复处', 'v'), ('断电', 'n'), ('造成', 'v'), ('信号灯', 'n'), ('恢复', 'v'), ('供电', 'vn'), ('抓紧', 'v'), ('进行', 'vx'), ('排查', 'vn'), ('增设', 'v'), ('临时', 'b'), ('信号', 'n'), ('灯处', 'n'), ('优化', 'v'), ('调整', 'vn'), ('信号', 'n'), ('配时', 'vn'), ('路口处', 'n'), ('智能', 'n'), ('监控', 'v'), ('设施', 'n'), ('排查', 'v'), ('及时', 'ad'), ('修复处', 'v'), ('助力', 'n'), ('交警', 'n'), ('借助', 'v'), ('监控', 'vn'), ('设备', 'n'), ('进行', 'vx'), ('应急', 'vn'), ('交通', 'n'), ('指挥', 'vn'), ('确保', 'v'), ('全市', 'n'), ('良好', 'a'), ('出行', 'vn'), ('环境', 'n')]</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[('连南', 'ns'), ('早间', 'n'), ('天气', 'n'), ('预报', 'vn'), ('预计', 'v'), ('今天', 't'), ('白天', 't'), ('阴天', 'i'), ('中到大雨', 'l'), ('局部', 'n'), ('暴雨', 'n'), ('最低', 'n'), ('气温', 'n'), ('气温', 'n'), ('相对', 'd'), ('湿度%', 'z'), ('到%', 'v'), ('偏南', 'ns'), ('风到级', 'n'), ('今天', 't'), ('夜间', 't'), ('明天', 't'), ('白天', 't'), ('阴天', 'i'), ('大雨', 'n'), ('暴雨', 'n'), ('雨时', 'n'), ('路滑', 'n'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an')]</t>
+          <t>[('早间', 'n'), ('天气', 'n'), ('预报', 'vn'), ('预计', 'v'), ('今天', 't'), ('白天', 't'), ('阴天', 'i'), ('中到大雨', 'l'), ('局部', 'n'), ('暴雨', 'n'), ('最低', 'n'), ('气温', 'n'), ('气温', 'n'), ('湿度%', 'z'), ('到%', 'v'), ('风到级', 'n'), ('今天', 't'), ('夜间', 't'), ('明天', 't'), ('白天', 't'), ('阴天', 'i'), ('大雨', 'n'), ('暴雨', 'n'), ('雨时', 'n'), ('路滑', 'n'), ('注意', 'v'), ('交通', 'n'), ('安全', 'an')]</t>
         </is>
       </c>
     </row>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[('预警', 'vn'), ('发布', 'v'), ('江北区', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('对流云', 'l'), ('影响', 'vn'), ('局部地区', 'n'), ('出现', 'v'), ('短时', 'b'), ('暴雨', 'n'), ('预计', 'vn'), ('今天', 't'), ('夜里', 't'), ('阵雨', 'n'), ('雷雨', 'nr'), ('雨量', 'n'), ('部分', 'n'), ('地区', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防范', 'v'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取相应', 'nr'), ('交通管制', 'n'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'n'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('室外', 's'), ('电源', 'n'), ('暂停', 'd'), ('空旷', 'nr'), ('地方', 'n'), ('户外', 's'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('城市', 'ns'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('必要', 'd'), ('排涝', 'v'), ('措施', 'n')]</t>
+          <t>[('预警', 'vn'), ('发布', 'v'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('对流云', 'l'), ('影响', 'vn'), ('局部地区', 'n'), ('出现', 'v'), ('短时', 'b'), ('暴雨', 'n'), ('预计', 'vn'), ('今天', 't'), ('夜里', 't'), ('阵雨', 'n'), ('雷雨', 'nr'), ('雨量', 'n'), ('部分', 'n'), ('地区', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防范', 'v'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('做好', 'v'), ('暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取相应', 'nr'), ('交通管制', 'n'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'n'), ('切断', 'v'), ('低洼地', 'n'), ('带有', 'v'), ('危险', 'an'), ('电源', 'n'), ('空旷', 'nr'), ('地方', 'n'), ('作业', 'n'), ('转移', 'v'), ('危险', 'an'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'an'), ('场所', 'n'), ('避雨', 'v'), ('检查', 'vn'), ('农田', 'n'), ('鱼塘', 'n'), ('排水系统', 'l'), ('采取', 'v'), ('排涝', 'v'), ('措施', 'n')]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[('预警', 'v'), ('发布', 'v'), ('江北区', 'n'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('流云团', 'n'), ('影响', 'vn'), ('局部', 'n'), ('地区', 'n'), ('出现', 'v'), ('短时', 'b'), ('暴雨', 'n'), ('预计', 'v'), ('今天', 't'), ('夜里', 't'), ('阵雨', 'n'), ('雷雨', 'n'), ('雨量', 'n'), ('部分', 'n'), ('地区', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防范', 'v'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('做好', 'v'), ('防暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取', 'v'), ('相应', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('室外', 's'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('户外', 's'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
+          <t>[('预警', 'v'), ('发布', 'v'), ('江北区', 'n'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('流云团', 'n'), ('影响', 'vn'), ('局部', 'n'), ('地区', 'n'), ('出现', 'v'), ('短时', 'b'), ('暴雨', 'n'), ('预计', 'v'), ('今天', 't'), ('夜里', 't'), ('阵雨', 'n'), ('雷雨', 'n'), ('雨量', 'n'), ('部分', 'n'), ('地区', 'n'), ('暴雨', 'n'), ('注意', 'v'), ('防范', 'v'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('做好', 'v'), ('防暴雨', 'n'), ('工作', 'vn'), ('公安', 'n'), ('交警', 'n'), ('部门', 'n'), ('应当', 'v'), ('路况', 'n'), ('采取', 'v'), ('相应', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('措施', 'n'), ('严重', 'a'), ('积水', 'n'), ('路段', 'n'), ('实行', 'v'), ('交通', 'n'), ('引导', 'v'), ('分流', 'v'), ('切断', 'v'), ('低洼', 'a'), ('带有', 'v'), ('危险', 'a'), ('电源', 'n'), ('暂停', 'v'), ('空旷', 'n'), ('地方', 'n'), ('作业', 'v'), ('转移', 'v'), ('危险', 'a'), ('地带', 'n'), ('人员', 'n'), ('危房', 'n'), ('居民', 'n'), ('安全', 'a'), ('场所', 'n'), ('避雨', 'i'), ('检查', 'v'), ('城市', 'n'), ('农田', 'n'), ('鱼塘', 'n'), ('排水', 'vn'), ('系统', 'n'), ('采取', 'v'), ('必要', 'a'), ('排涝', 'vn'), ('措施', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[('交通', 'n'), ('路况', 'n'), ('四川', 'ns'), ('交通', 'n'), ('路况', 'n'), ('暴雨', 'n'), ('出行', 'v'), ('注意安全', 'nz'), ('国道', 'n'), ('陕西', 'ns'), ('四川', 'ns'), ('交界处', 'n'), ('欣煜', 'nrfg'), ('视频', 'n')]</t>
+          <t>[('交通', 'n'), ('路况', 'n'), ('交通', 'n'), ('路况', 'n'), ('暴雨', 'n'), ('出行', 'v'), ('国道', 'n'), ('交界处', 'n'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[('交通', 'n'), ('路况', 'n'), ('四川', 'ns'), ('交通', 'n'), ('路况', 'n'), ('暴雨', 'n'), ('来袭', 'v'), ('出行', 'v'), ('注意', 'v'), ('安全', 'ad'), ('国道', 'n'), ('陕西', 'ns'), ('四川', 'ns'), ('交界处', 'n'), ('欣煜', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('交通', 'n'), ('路况', 'n'), ('交通', 'n'), ('路况', 'n'), ('暴雨', 'n'), ('来袭', 'v'), ('出行', 'v'), ('注意', 'v'), ('安全', 'ad'), ('国道', 'n'), ('交界处', 'n'), ('欣煜', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('高速', 'd'), ('潭衡段', 'n'), ('湘潭', 'ns'), ('杨嘉桥', 'nr'), ('射埠', 'n'), ('龙桥', 'ns'), ('青山', 'ns'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('潭衡段', 'n'), ('杨嘉桥', 'nr'), ('射埠', 'n'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('高速', 'd'), ('潭衡', 'v'), ('湘潭西', 'ns'), ('杨嘉桥', 'nr'), ('射埠', 'ns'), ('回龙桥', 'n'), ('青山桥', 'ns'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('许广', 'nr'), ('潭衡', 'v'), ('杨嘉桥', 'nr'), ('回龙桥', 'n'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5151,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[('大雨滂沱', 'l'), ('逆行', 'v'), ('黄人', 'n'), ('群众', 'n'), ('办实事', 'n'), ('金华', 'nz'), ('市区', 'n'), ('迎来', 'v'), ('持续', 'vd'), ('强降雨', 'nr'), ('天气', 'n'), ('辖区', 'n'), ('路段', 'n'), ('出现', 'v'), ('严重', 'a'), ('积水', 'n'), ('造成', 'v'), ('电动车', 'n'), ('通行', 'j'), ('受阻', 'v'), ('金华', 'nz'), ('交警', 'j'), ('直属', 'n'), ('大队', 'n'), ('秋滨', 'nr'), ('中队', 'n'), ('警员', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('疏通', 'v'), ('面积', 'n'), ('大雨滂沱', 'l'), ('之时', 'c'), ('逆行', 'v'), ('黄人', 'n'), ('成为', 'v'), ('道路', 'n'), ('一道道', 'mq'), ('亮丽', 'a'), ('风景线', 'n'), ('出行', 'v'), ('人们', 'n'), ('撑起', 'v'), ('温暖', 'an'), ('安全', 'an'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a')]</t>
+          <t>[('大雨滂沱', 'l'), ('逆行', 'v'), ('黄人', 'n'), ('群众', 'n'), ('办实事', 'n'), ('市区', 'n'), ('迎来', 'v'), ('持续', 'vd'), ('强降雨', 'nr'), ('天气', 'n'), ('辖区', 'n'), ('路段', 'n'), ('出现', 'v'), ('严重', 'a'), ('积水', 'n'), ('造成', 'v'), ('电动车', 'n'), ('通行', 'j'), ('受阻', 'v'), ('交警', 'j'), ('直属', 'n'), ('大队', 'n'), ('秋滨', 'nr'), ('中队', 'n'), ('警员', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('疏通', 'v'), ('面积', 'n'), ('大雨滂沱', 'l'), ('逆行', 'v'), ('黄人', 'n'), ('成为', 'v'), ('道路', 'n'), ('亮丽', 'a'), ('风景线', 'n'), ('出行', 'v'), ('人们', 'n'), ('撑起', 'v'), ('温暖', 'an'), ('安全', 'an'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a')]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[('大雨', 'n'), ('滂沱', 'v'), ('逆行', 'v'), ('小黄人', 'n'), ('群众', 'n'), ('实事', 'n'), ('金华', 'ns'), ('市区', 's'), ('迎来', 'v'), ('持续', 'v'), ('降雨', 'vn'), ('天气', 'n'), ('辖区', 'n'), ('路段', 'n'), ('出现', 'v'), ('严重', 'a'), ('积水', 'n'), ('造成', 'v'), ('电动车', 'n'), ('通行', 'v'), ('受阻', 'v'), ('金华', 'ns'), ('交警', 'n'), ('直属', 'vn'), ('一大队', 'j'), ('秋滨', 'n'), ('中队', 'n'), ('警员', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('疏通', 'v'), ('路面', 'n'), ('积水', 'n'), ('大雨', 'n'), ('滂沱', 'v'), ('逆行', 'v'), ('小黄人', 'n'), ('”们', 'n'), ('成为', 'v'), ('道路', 'n'), ('一道道', 'm'), ('亮丽', 'a'), ('风景线', 'n'), ('出行', 'v'), ('人们', 'n'), ('撑起', 'v'), ('温暖', 'a'), ('安全伞', 'n'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a')]</t>
+          <t>[('大雨', 'n'), ('滂沱', 'v'), ('逆行', 'v'), ('小黄人', 'n'), ('群众', 'n'), ('实事', 'n'), ('迎来', 'v'), ('持续', 'v'), ('降雨', 'vn'), ('天气', 'n'), ('辖区', 'n'), ('路段', 'n'), ('出现', 'v'), ('严重', 'a'), ('积水', 'n'), ('造成', 'v'), ('电动车', 'n'), ('通行', 'v'), ('受阻', 'v'), ('交警', 'n'), ('直属', 'vn'), ('一大队', 'j'), ('秋滨', 'n'), ('中队', 'n'), ('警员', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('疏通', 'v'), ('路面', 'n'), ('积水', 'n'), ('大雨', 'n'), ('滂沱', 'v'), ('逆行', 'v'), ('小黄人', 'n'), ('”们', 'n'), ('成为', 'v'), ('道路', 'n'), ('亮丽', 'a'), ('风景线', 'n'), ('出行', 'v'), ('人们', 'n'), ('撑起', 'v'), ('温暖', 'a'), ('安全伞', 'n'), ('确保', 'v'), ('辖区', 'n'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a')]</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[('辽宁省', 'ns'), ('锦州市', 'ns'), ('黑山县', 'ns'), ('通武线', 'l'), ('羊肠', 'n'), ('河大桥', 'ns'), ('发生', 'v'), ('水毁', 'v'), ('确保安全', 'ns'), ('全桥', 'n'), ('封闭', 'v'), ('交通', 'n'), ('过往', 't'), ('车辆', 'n'), ('行人', 'n'), ('注意', 'v'), ('绕行', 'v'), ('辽宁', 'ns'), ('局地', 'n'), ('大暴雨', 'i'), ('锦州', 'ns')]</t>
+          <t>[('通武线', 'l'), ('羊肠', 'n'), ('发生', 'v'), ('水毁', 'v'), ('全桥', 'n'), ('封闭', 'v'), ('交通', 'n'), ('过往', 't'), ('车辆', 'n'), ('行人', 'n'), ('注意', 'v'), ('绕行', 'v'), ('局地', 'n'), ('大暴雨', 'i')]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[('辽宁省', 'ns'), ('锦州市', 'ns'), ('黑山县', 'ns'), ('通武线', 'n'), ('羊肠河', 'ns'), ('大桥', 'ns'), ('发生', 'v'), ('水毁', 'vn'), ('确保', 'v'), ('安全', 'an'), ('全桥', 'n'), ('封闭', 'v'), ('交通', 'n'), ('过往', 'vn'), ('车辆', 'n'), ('行人', 'n'), ('注意', 'v'), ('绕行', 'v'), ('辽宁局', 'j'), ('大暴雨', 'n'), ('锦州', 'ns')]</t>
+          <t>[('通武线', 'n'), ('发生', 'v'), ('水毁', 'vn'), ('确保', 'v'), ('安全', 'an'), ('全桥', 'n'), ('封闭', 'v'), ('交通', 'n'), ('过往', 'vn'), ('车辆', 'n'), ('行人', 'n'), ('注意', 'v'), ('绕行', 'v'), ('辽宁局', 'j'), ('大暴雨', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5226,47 +5226,47 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>#中国路网##公路气象#【#重大公路气象预警#】中央气象台继续发布暴雨橙色预警:预计至，浙江北部、上海、江苏、安徽等地有大到暴雨，其中，浙江北部、上海、江苏中东部、安徽中部和东南部等地的部分地区有大暴雨(~毫米)。另外，黑龙江北部、陕西南部、河北北部、北京北部、云南南部、四川盆地南部、西藏东南部等地的部分地区有大雨，局地暴雨。上述地区最大小时降雨量~毫米，局地可超过毫米，并伴有雷暴大风等强对流天气。预计京沪高速、沈海高速、沪陕高速、沪渝高速、沪昆高速、杭州湾环线、、、国道、、等部分路段可能会受到影响。重大公路气象预警@中国交通广播</t>
+          <t>#中国路网##公路气象#【#重大公路气象预警#】中央气象台继续发布暴雨橙色预警:预计至，浙江北部、上海、江苏、安徽等地有大到暴雨，其中，浙江北部、上海、江苏中东部、安徽中部和东南部等地的部分地区有大暴雨(~毫米)。另外，黑龙江北部、陕西南部、河北北部、北京北部、云南南部、四川盆地南部、西藏东南部等地的部分地区有大雨，局地暴雨。上述地区最大小时降雨量~毫米，局地可超过毫米，并伴有雷暴大风等强对流天气。预计京沪高速、沈海高速、沪陕高速、沪渝高速、沪昆高速、杭州湾环线、、、国道、、等部分路段可能会受到影响。重大公路气象预警</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['#', '中国', '路网', '##', '公路', '气象', '#', '【', '#', '重大', '公路', '气象', '预警', '#', '】', '中央气象台', '继续', '发布', '暴雨', '橙色', '预警', ':', '预计', '至', '，', '浙江', '北部', '、', '上海', '、', '江苏', '、', '安徽', '等', '地', '有', '大到暴雨', '，', '其中', '，', '浙江', '北部', '、', '上海', '、', '江苏', '中东部', '、', '安徽', '中部', '和', '东南部', '等', '地', '的', '部分', '地区', '有', '大暴雨', '(', '~', '毫米', ')', '。', '另外', '，', '黑龙江', '北部', '、', '陕西', '南部', '、', '河北', '北部', '、', '北京', '北部', '、', '云南', '南部', '、', '四川盆地', '南部', '、', '西藏', '东南部', '等', '地', '的', '部分', '地区', '有', '大雨', '，', '局地', '暴雨', '。', '上述', '地区', '最大', '小时', '降雨量', '~', '毫米', '，', '局地', '可', '超过', '毫米', '，', '并', '伴有', '雷暴', '大风', '等', '强对流', '天气', '。', '预计', '京沪', '高速', '、', '沈海', '高速', '、', '沪', '陕', '高速', '、', '沪', '渝', '高速', '、', '沪', '昆', '高速', '、', '杭州湾', '环线', '、', '、', '、', '国道', '、', '、', '等', '部分', '路段', '可能', '会', '受到', '影响', '。', '重大', '公路', '气象', '预警', '@', '中国', '交通广播']</t>
+          <t>['#', '中国', '路网', '##', '公路', '气象', '#', '【', '#', '重大', '公路', '气象', '预警', '#', '】', '中央气象台', '继续', '发布', '暴雨', '橙色', '预警', ':', '预计', '至', '，', '浙江', '北部', '、', '上海', '、', '江苏', '、', '安徽', '等', '地', '有', '大到暴雨', '，', '其中', '，', '浙江', '北部', '、', '上海', '、', '江苏', '中东部', '、', '安徽', '中部', '和', '东南部', '等', '地', '的', '部分', '地区', '有', '大暴雨', '(', '~', '毫米', ')', '。', '另外', '，', '黑龙江', '北部', '、', '陕西', '南部', '、', '河北', '北部', '、', '北京', '北部', '、', '云南', '南部', '、', '四川盆地', '南部', '、', '西藏', '东南部', '等', '地', '的', '部分', '地区', '有', '大雨', '，', '局地', '暴雨', '。', '上述', '地区', '最大', '小时', '降雨量', '~', '毫米', '，', '局地', '可', '超过', '毫米', '，', '并', '伴有', '雷暴', '大风', '等', '强对流', '天气', '。', '预计', '京沪', '高速', '、', '沈海', '高速', '、', '沪', '陕', '高速', '、', '沪', '渝', '高速', '、', '沪', '昆', '高速', '、', '杭州湾', '环线', '、', '、', '、', '国道', '、', '、', '等', '部分', '路段', '可能', '会', '受到', '影响', '。', '重大', '公路', '气象', '预警']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['#', '中国', '路网', '#', '#', '公路', '气象', '#', '【', '#', '重大', '公路', '气象', '预警', '#', '】', '中央', '气象台', '继续', '发布', '暴雨', '橙色', '预警', ':', '预计', '至', '，', '浙江', '北部', '、', '上海', '、', '江苏', '、', '安徽', '等', '地', '有', '大到暴雨', '，', '其中', '，', '浙江', '北部', '、', '上海', '、', '江苏', '中东部', '、', '安徽', '中部', '和', '东南部', '等', '地', '的', '部分', '地区', '有', '大暴雨', '(', '~', '毫米', ')', '。', '另外', '，', '黑龙江', '北部', '、', '陕西', '南部', '、', '河北', '北部', '、', '北京', '北部', '、', '云南', '南部', '、', '四川', '盆地', '南部', '、', '西藏', '东南部', '等', '地', '的', '部分', '地区', '有', '大雨', '，', '局地', '暴雨', '。', '上述', '地区', '最', '大', '小时', '降雨量', '~', '毫米', '，', '局地', '可', '超过', '毫米', '，', '并', '伴有', '雷暴', '大风', '等', '强对流', '天气', '。', '预计', '京沪', '高速', '、', '沈海', '高速', '、', '沪陕', '高速', '、', '沪渝', '高速', '、', '沪昆', '高速', '、', '杭州湾', '环线', '、', '、', '、', '国道', '、', '、', '等', '部分', '路段', '可能', '会', '受到', '影响', '。', '重大', '公路', '气象', '预警', '@', '中国', '交通', '广播']</t>
+          <t>['#', '中国', '路网', '#', '#', '公路', '气象', '#', '【', '#', '重大', '公路', '气象', '预警', '#', '】', '中央', '气象台', '继续', '发布', '暴雨', '橙色', '预警', ':', '预计', '至', '，', '浙江', '北部', '、', '上海', '、', '江苏', '、', '安徽', '等', '地', '有', '大到暴雨', '，', '其中', '，', '浙江', '北部', '、', '上海', '、', '江苏', '中东部', '、', '安徽', '中部', '和', '东南部', '等', '地', '的', '部分', '地区', '有', '大暴雨', '(', '~', '毫米', ')', '。', '另外', '，', '黑龙江', '北部', '、', '陕西', '南部', '、', '河北', '北部', '、', '北京', '北部', '、', '云南', '南部', '、', '四川', '盆地', '南部', '、', '西藏', '东南部', '等', '地', '的', '部分', '地区', '有', '大雨', '，', '局地', '暴雨', '。', '上述', '地区', '最', '大', '小时', '降雨量', '~', '毫米', '，', '局地', '可', '超过', '毫米', '，', '并', '伴有', '雷暴', '大风', '等', '强对流', '天气', '。', '预计', '京沪', '高速', '、', '沈海', '高速', '、', '沪陕', '高速', '、', '沪渝', '高速', '、', '沪昆', '高速', '、', '杭州湾', '环线', '、', '、', '、', '国道', '、', '、', '等', '部分', '路段', '可能', '会', '受到', '影响', '。', '重大', '公路', '气象', '预警']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['中国', '路网', '公路', '气象', '重大', '公路', '气象', '预警', '中央气象台', '继续', '发布', '暴雨', '橙色', '预警', '预计', '浙江', '北部', '上海', '江苏', '安徽', '大到暴雨', '浙江', '北部', '上海', '江苏', '中东部', '安徽', '中部', '东南部', '部分', '地区', '大暴雨', '毫米', '黑龙江', '北部', '陕西', '南部', '河北', '北部', '北京', '北部', '云南', '南部', '四川盆地', '南部', '西藏', '东南部', '部分', '地区', '大雨', '局地', '暴雨', '上述', '地区', '最大', '小时', '降雨量', '毫米', '局地', '超过', '毫米', '伴有', '雷暴', '大风', '强对流', '天气', '预计', '京沪', '高速', '沈海', '高速', '高速', '高速', '高速', '杭州湾', '环线', '国道', '部分', '路段', '可能', '受到', '影响', '重大', '公路', '气象', '预警', '中国', '交通广播']</t>
+          <t>['中国', '路网', '公路', '气象', '重大', '公路', '气象', '预警', '中央气象台', '继续', '发布', '暴雨', '橙色', '预警', '预计', '浙江', '北部', '上海', '江苏', '安徽', '大到暴雨', '浙江', '北部', '上海', '江苏', '中东部', '安徽', '中部', '东南部', '部分', '地区', '大暴雨', '毫米', '黑龙江', '北部', '陕西', '南部', '河北', '北部', '北京', '北部', '云南', '南部', '四川盆地', '南部', '西藏', '东南部', '部分', '地区', '大雨', '局地', '暴雨', '上述', '地区', '最大', '小时', '降雨量', '毫米', '局地', '超过', '毫米', '伴有', '雷暴', '大风', '强对流', '天气', '预计', '京沪', '高速', '沈海', '高速', '高速', '高速', '高速', '杭州湾', '环线', '国道', '部分', '路段', '可能', '受到', '影响', '重大', '公路', '气象', '预警']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['中国', '路网', '公路', '气象', '重大', '公路', '气象', '预警', '中央', '气象台', '继续', '发布', '暴雨', '橙色', '预警', '预计', '浙江', '北部', '上海', '江苏', '安徽', '大到暴雨', '浙江', '北部', '上海', '江苏', '中东部', '安徽', '中部', '东南部', '部分', '地区', '大暴雨', '毫米', '黑龙江', '北部', '陕西', '南部', '河北', '北部', '北京', '北部', '云南', '南部', '四川', '盆地', '南部', '西藏', '东南部', '部分', '地区', '大雨', '局地', '暴雨', '上述', '地区', '小时', '降雨量', '毫米', '局地', '超过', '毫米', '伴有', '雷暴', '大风', '强对流', '天气', '预计', '京沪', '高速', '沈海', '高速', '沪陕', '高速', '沪渝', '高速', '沪昆', '高速', '杭州湾', '环线', '国道', '部分', '路段', '可能', '受到', '影响', '重大', '公路', '气象', '预警', '中国', '交通', '广播']</t>
+          <t>['中国', '路网', '公路', '气象', '重大', '公路', '气象', '预警', '中央', '气象台', '继续', '发布', '暴雨', '橙色', '预警', '预计', '浙江', '北部', '上海', '江苏', '安徽', '大到暴雨', '浙江', '北部', '上海', '江苏', '中东部', '安徽', '中部', '东南部', '部分', '地区', '大暴雨', '毫米', '黑龙江', '北部', '陕西', '南部', '河北', '北部', '北京', '北部', '云南', '南部', '四川', '盆地', '南部', '西藏', '东南部', '部分', '地区', '大雨', '局地', '暴雨', '上述', '地区', '小时', '降雨量', '毫米', '局地', '超过', '毫米', '伴有', '雷暴', '大风', '强对流', '天气', '预计', '京沪', '高速', '沈海', '高速', '沪陕', '高速', '沪渝', '高速', '沪昆', '高速', '杭州湾', '环线', '国道', '部分', '路段', '可能', '受到', '影响', '重大', '公路', '气象', '预警']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('中国', 'ns'), ('路网', 'n'), ('##', 'x'), ('公路', 'n'), ('气象', 'n'), ('#', 'x'), ('【', 'x'), ('#', 'x'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('#', 'x'), ('】', 'x'), ('中央气象台', 'nt'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), (':', 'x'), ('预计', 'vn'), ('至', 'p'), ('，', 'x'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('上海', 'ns'), ('、', 'x'), ('江苏', 'ns'), ('、', 'x'), ('安徽', 'ns'), ('等', 'u'), ('地', 'uv'), ('有', 'v'), ('大到暴雨', 'l'), ('，', 'x'), ('其中', 'r'), ('，', 'x'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('上海', 'ns'), ('、', 'x'), ('江苏', 'ns'), ('中东部', 'nt'), ('、', 'x'), ('安徽', 'ns'), ('中部', 'f'), ('和', 'c'), ('东南部', 'f'), ('等', 'u'), ('地', 'uv'), ('的', 'uj'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大暴雨', 'i'), ('(', 'x'), ('~', 'x'), ('毫米', 'q'), (')', 'x'), ('。', 'x'), ('另外', 'c'), ('，', 'x'), ('黑龙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('陕西', 'ns'), ('南部', 'f'), ('、', 'x'), ('河北', 'ns'), ('北部', 'f'), ('、', 'x'), ('北京', 'ns'), ('北部', 'f'), ('、', 'x'), ('云南', 'ns'), ('南部', 'f'), ('、', 'x'), ('四川盆地', 'ns'), ('南部', 'f'), ('、', 'x'), ('西藏', 'ns'), ('东南部', 'f'), ('等', 'u'), ('地', 'uv'), ('的', 'uj'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大雨', 'n'), ('，', 'x'), ('局地', 'n'), ('暴雨', 'n'), ('。', 'x'), ('上述', 'b'), ('地区', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('~', 'x'), ('毫米', 'q'), ('，', 'x'), ('局地', 'n'), ('可', 'v'), ('超过', 'v'), ('毫米', 'q'), ('，', 'x'), ('并', 'c'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('等', 'u'), ('强对流', 'n'), ('天气', 'n'), ('。', 'x'), ('预计', 'vn'), ('京沪', 'j'), ('高速', 'd'), ('、', 'x'), ('沈海', 'ns'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('陕', 'j'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('渝', 'j'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('昆', 'j'), ('高速', 'd'), ('、', 'x'), ('杭州湾', 'ns'), ('环线', 'n'), ('、', 'x'), ('、', 'x'), ('、', 'x'), ('国道', 'n'), ('、', 'x'), ('、', 'x'), ('等', 'u'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('会', 'v'), ('受到', 'v'), ('影响', 'vn'), ('。', 'x'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('@', 'x'), ('中国', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('#', 'x'), ('中国', 'ns'), ('路网', 'n'), ('##', 'x'), ('公路', 'n'), ('气象', 'n'), ('#', 'x'), ('【', 'x'), ('#', 'x'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('#', 'x'), ('】', 'x'), ('中央气象台', 'nt'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), (':', 'x'), ('预计', 'vn'), ('至', 'p'), ('，', 'x'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('上海', 'ns'), ('、', 'x'), ('江苏', 'ns'), ('、', 'x'), ('安徽', 'ns'), ('等', 'u'), ('地', 'uv'), ('有', 'v'), ('大到暴雨', 'l'), ('，', 'x'), ('其中', 'r'), ('，', 'x'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('上海', 'ns'), ('、', 'x'), ('江苏', 'ns'), ('中东部', 'nt'), ('、', 'x'), ('安徽', 'ns'), ('中部', 'f'), ('和', 'c'), ('东南部', 'f'), ('等', 'u'), ('地', 'uv'), ('的', 'uj'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大暴雨', 'i'), ('(', 'x'), ('~', 'x'), ('毫米', 'q'), (')', 'x'), ('。', 'x'), ('另外', 'c'), ('，', 'x'), ('黑龙江', 'ns'), ('北部', 'f'), ('、', 'x'), ('陕西', 'ns'), ('南部', 'f'), ('、', 'x'), ('河北', 'ns'), ('北部', 'f'), ('、', 'x'), ('北京', 'ns'), ('北部', 'f'), ('、', 'x'), ('云南', 'ns'), ('南部', 'f'), ('、', 'x'), ('四川盆地', 'ns'), ('南部', 'f'), ('、', 'x'), ('西藏', 'ns'), ('东南部', 'f'), ('等', 'u'), ('地', 'uv'), ('的', 'uj'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大雨', 'n'), ('，', 'x'), ('局地', 'n'), ('暴雨', 'n'), ('。', 'x'), ('上述', 'b'), ('地区', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('~', 'x'), ('毫米', 'q'), ('，', 'x'), ('局地', 'n'), ('可', 'v'), ('超过', 'v'), ('毫米', 'q'), ('，', 'x'), ('并', 'c'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('等', 'u'), ('强对流', 'n'), ('天气', 'n'), ('。', 'x'), ('预计', 'vn'), ('京沪', 'j'), ('高速', 'd'), ('、', 'x'), ('沈海', 'ns'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('陕', 'j'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('渝', 'j'), ('高速', 'd'), ('、', 'x'), ('沪', 'j'), ('昆', 'j'), ('高速', 'd'), ('、', 'x'), ('杭州湾', 'ns'), ('环线', 'n'), ('、', 'x'), ('、', 'x'), ('、', 'x'), ('国道', 'n'), ('、', 'x'), ('、', 'x'), ('等', 'u'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('会', 'v'), ('受到', 'v'), ('影响', 'vn'), ('。', 'x'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn')]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('中国', 'ns'), ('路网', 'n'), ('#', 'j'), ('#', 'j'), ('公路', 'n'), ('气象', 'n'), ('#', 'n'), ('【', 'n'), ('#', 'v'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('#', 'n'), ('】', 'v'), ('中央', 'n'), ('气象台', 'n'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'v'), (':', 'n'), ('预计', 'v'), ('至', 'v'), ('，', 'w'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('上海', 'ns'), ('、', 'w'), ('江苏', 'ns'), ('、', 'w'), ('安徽', 'ns'), ('等', 'u'), ('地', 'n'), ('有', 'v'), ('大到暴雨', 'l'), ('，', 'w'), ('其中', 'r'), ('，', 'w'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('上海', 'ns'), ('、', 'w'), ('江苏', 'ns'), ('中东部', 'f'), ('、', 'w'), ('安徽', 'ns'), ('中部', 'f'), ('和', 'c'), ('东南部', 'f'), ('等', 'u'), ('地', 'n'), ('的', 'u'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大暴雨', 'n'), ('(', 'n'), ('~', 'v'), ('毫米', 'q'), (')', 'n'), ('。', 'w'), ('另外', 'c'), ('，', 'w'), ('黑龙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('陕西', 'ns'), ('南部', 'f'), ('、', 'w'), ('河北', 'ns'), ('北部', 'f'), ('、', 'w'), ('北京', 'ns'), ('北部', 'f'), ('、', 'w'), ('云南', 'ns'), ('南部', 'f'), ('、', 'w'), ('四川', 'ns'), ('盆地', 'n'), ('南部', 'f'), ('、', 'w'), ('西藏', 'ns'), ('东南部', 'f'), ('等', 'u'), ('地', 'n'), ('的', 'u'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大雨', 'n'), ('，', 'w'), ('局地', 'n'), ('暴雨', 'n'), ('。', 'w'), ('上述', 'b'), ('地区', 'n'), ('最', 'd'), ('大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('~', 'v'), ('毫米', 'q'), ('，', 'w'), ('局地', 'n'), ('可', 'v'), ('超过', 'v'), ('毫米', 'q'), ('，', 'w'), ('并', 'c'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('等', 'u'), ('强对流', 'n'), ('天气', 'n'), ('。', 'w'), ('预计', 'v'), ('京沪', 'j'), ('高速', 'b'), ('、', 'w'), ('沈海', 'nr'), ('高速', 'b'), ('、', 'w'), ('沪陕', 'j'), ('高速', 'b'), ('、', 'w'), ('沪渝', 'j'), ('高速', 'b'), ('、', 'w'), ('沪昆', 'j'), ('高速', 'b'), ('、', 'w'), ('杭州湾', 'ns'), ('环线', 'n'), ('、', 'w'), ('、', 'w'), ('、', 'w'), ('国道', 'n'), ('、', 'w'), ('、', 'w'), ('等', 'u'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('会', 'v'), ('受到', 'v'), ('影响', 'vn'), ('。', 'w'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('@', 'n'), ('中国', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('#', 'v'), ('中国', 'ns'), ('路网', 'n'), ('#', 'j'), ('#', 'j'), ('公路', 'n'), ('气象', 'n'), ('#', 'n'), ('【', 'n'), ('#', 'v'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('#', 'n'), ('】', 'v'), ('中央', 'n'), ('气象台', 'n'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'v'), (':', 'n'), ('预计', 'v'), ('至', 'v'), ('，', 'w'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('上海', 'ns'), ('、', 'w'), ('江苏', 'ns'), ('、', 'w'), ('安徽', 'ns'), ('等', 'u'), ('地', 'n'), ('有', 'v'), ('大到暴雨', 'l'), ('，', 'w'), ('其中', 'r'), ('，', 'w'), ('浙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('上海', 'ns'), ('、', 'w'), ('江苏', 'ns'), ('中东部', 'f'), ('、', 'w'), ('安徽', 'ns'), ('中部', 'f'), ('和', 'c'), ('东南部', 'f'), ('等', 'u'), ('地', 'n'), ('的', 'u'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大暴雨', 'n'), ('(', 'n'), ('~', 'v'), ('毫米', 'q'), (')', 'n'), ('。', 'w'), ('另外', 'c'), ('，', 'w'), ('黑龙江', 'ns'), ('北部', 'f'), ('、', 'w'), ('陕西', 'ns'), ('南部', 'f'), ('、', 'w'), ('河北', 'ns'), ('北部', 'f'), ('、', 'w'), ('北京', 'ns'), ('北部', 'f'), ('、', 'w'), ('云南', 'ns'), ('南部', 'f'), ('、', 'w'), ('四川', 'ns'), ('盆地', 'n'), ('南部', 'f'), ('、', 'w'), ('西藏', 'ns'), ('东南部', 'f'), ('等', 'u'), ('地', 'n'), ('的', 'u'), ('部分', 'n'), ('地区', 'n'), ('有', 'v'), ('大雨', 'n'), ('，', 'w'), ('局地', 'n'), ('暴雨', 'n'), ('。', 'w'), ('上述', 'b'), ('地区', 'n'), ('最', 'd'), ('大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('~', 'v'), ('毫米', 'q'), ('，', 'w'), ('局地', 'n'), ('可', 'v'), ('超过', 'v'), ('毫米', 'q'), ('，', 'w'), ('并', 'c'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('等', 'u'), ('强对流', 'n'), ('天气', 'n'), ('。', 'w'), ('预计', 'v'), ('京沪', 'j'), ('高速', 'b'), ('、', 'w'), ('沈海', 'nr'), ('高速', 'b'), ('、', 'w'), ('沪陕', 'j'), ('高速', 'b'), ('、', 'w'), ('沪渝', 'j'), ('高速', 'b'), ('、', 'w'), ('沪昆', 'j'), ('高速', 'b'), ('、', 'w'), ('杭州湾', 'ns'), ('环线', 'n'), ('、', 'w'), ('、', 'w'), ('、', 'w'), ('国道', 'n'), ('、', 'w'), ('、', 'w'), ('等', 'u'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('会', 'v'), ('受到', 'v'), ('影响', 'vn'), ('。', 'w'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn')]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>[('中国', 'ns'), ('路网', 'n'), ('公路', 'n'), ('气象', 'n'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('中央气象台', 'nt'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('预计', 'vn'), ('浙江', 'ns'), ('北部', 'f'), ('上海', 'ns'), ('江苏', 'ns'), ('安徽', 'ns'), ('大到暴雨', 'l'), ('浙江', 'ns'), ('北部', 'f'), ('上海', 'ns'), ('江苏', 'ns'), ('中东部', 'nt'), ('安徽', 'ns'), ('中部', 'f'), ('东南部', 'f'), ('部分', 'n'), ('地区', 'n'), ('大暴雨', 'i'), ('毫米', 'q'), ('黑龙江', 'ns'), ('北部', 'f'), ('陕西', 'ns'), ('南部', 'f'), ('河北', 'ns'), ('北部', 'f'), ('北京', 'ns'), ('北部', 'f'), ('云南', 'ns'), ('南部', 'f'), ('四川盆地', 'ns'), ('南部', 'f'), ('西藏', 'ns'), ('东南部', 'f'), ('部分', 'n'), ('地区', 'n'), ('大雨', 'n'), ('局地', 'n'), ('暴雨', 'n'), ('上述', 'b'), ('地区', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('局地', 'n'), ('超过', 'v'), ('毫米', 'q'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'vn'), ('京沪', 'j'), ('高速', 'd'), ('沈海', 'ns'), ('高速', 'd'), ('高速', 'd'), ('高速', 'd'), ('高速', 'd'), ('杭州湾', 'ns'), ('环线', 'n'), ('国道', 'n'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('受到', 'v'), ('影响', 'vn'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('中国', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('路网', 'n'), ('公路', 'n'), ('气象', 'n'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'vn'), ('预计', 'vn'), ('大到暴雨', 'l'), ('部分', 'n'), ('地区', 'n'), ('大暴雨', 'i'), ('部分', 'n'), ('地区', 'n'), ('大雨', 'n'), ('局地', 'n'), ('暴雨', 'n'), ('上述', 'b'), ('地区', 'n'), ('最大', 'a'), ('小时', 'n'), ('降雨量', 'n'), ('局地', 'n'), ('超过', 'v'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'vn'), ('京沪', 'j'), ('环线', 'n'), ('国道', 'n'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('受到', 'v'), ('影响', 'vn'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn')]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[('中国', 'ns'), ('路网', 'n'), ('公路', 'n'), ('气象', 'n'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('中央', 'n'), ('气象台', 'n'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'v'), ('预计', 'v'), ('浙江', 'ns'), ('北部', 'f'), ('上海', 'ns'), ('江苏', 'ns'), ('安徽', 'ns'), ('大到暴雨', 'l'), ('浙江', 'ns'), ('北部', 'f'), ('上海', 'ns'), ('江苏', 'ns'), ('中东部', 'f'), ('安徽', 'ns'), ('中部', 'f'), ('东南部', 'f'), ('部分', 'n'), ('地区', 'n'), ('大暴雨', 'n'), ('毫米', 'q'), ('黑龙江', 'ns'), ('北部', 'f'), ('陕西', 'ns'), ('南部', 'f'), ('河北', 'ns'), ('北部', 'f'), ('北京', 'ns'), ('北部', 'f'), ('云南', 'ns'), ('南部', 'f'), ('四川', 'ns'), ('盆地', 'n'), ('南部', 'f'), ('西藏', 'ns'), ('东南部', 'f'), ('部分', 'n'), ('地区', 'n'), ('大雨', 'n'), ('局地', 'n'), ('暴雨', 'n'), ('上述', 'b'), ('地区', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('毫米', 'q'), ('局地', 'n'), ('超过', 'v'), ('毫米', 'q'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'v'), ('京沪', 'j'), ('高速', 'b'), ('沈海', 'nr'), ('高速', 'b'), ('沪陕', 'j'), ('高速', 'b'), ('沪渝', 'j'), ('高速', 'b'), ('沪昆', 'j'), ('高速', 'b'), ('杭州湾', 'ns'), ('环线', 'n'), ('国道', 'n'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('受到', 'v'), ('影响', 'vn'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('中国', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('路网', 'n'), ('公路', 'n'), ('气象', 'n'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn'), ('中央', 'n'), ('气象台', 'n'), ('继续', 'v'), ('发布', 'v'), ('暴雨', 'n'), ('橙色', 'n'), ('预警', 'v'), ('预计', 'v'), ('大到暴雨', 'l'), ('部分', 'n'), ('地区', 'n'), ('大暴雨', 'n'), ('盆地', 'n'), ('部分', 'n'), ('地区', 'n'), ('大雨', 'n'), ('局地', 'n'), ('暴雨', 'n'), ('上述', 'b'), ('地区', 'n'), ('小时', 'n'), ('降雨量', 'n'), ('局地', 'n'), ('超过', 'v'), ('伴有', 'v'), ('雷暴', 'n'), ('大风', 'n'), ('强对流', 'n'), ('天气', 'n'), ('预计', 'v'), ('京沪', 'j'), ('高速', 'b'), ('沈海', 'nr'), ('高速', 'b'), ('沪陕', 'j'), ('高速', 'b'), ('沪渝', 'j'), ('高速', 'b'), ('沪昆', 'j'), ('高速', 'b'), ('环线', 'n'), ('国道', 'n'), ('部分', 'n'), ('路段', 'n'), ('可能', 'v'), ('受到', 'v'), ('影响', 'vn'), ('重大', 'a'), ('公路', 'n'), ('气象', 'n'), ('预警', 'vn')]</t>
         </is>
       </c>
     </row>
@@ -5281,47 +5281,47 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>#路况发布#受暴雨天气影响，昌栗高速东段九龙湖、高安东、高安、高安西入口禁止“两客一危”车辆上高速。--@江西交通广播</t>
+          <t>#路况发布#受暴雨天气影响，昌栗高速东段九龙湖、高安东、高安、高安西入口禁止“两客一危”车辆上高速。--</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['#', '路况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '昌栗', '高速', '东段', '九龙湖', '、', '高', '安东', '、', '高安', '、', '高', '安西', '入口', '禁止', '“', '两客', '一危', '”', '车辆', '上', '高速', '。', '--', '@', '江西', '交通广播']</t>
+          <t>['#', '路况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '昌栗', '高速', '东段', '九龙湖', '、', '高', '安东', '、', '高安', '、', '高', '安西', '入口', '禁止', '“', '两客', '一危', '”', '车辆', '上', '高速', '。', '--']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['#', '路况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '昌栗', '高速', '东段', '九龙湖', '、', '高安东', '、', '高安', '、', '高安西', '入口', '禁止', '“', '两', '客', '一', '危', '”', '车辆', '上', '高速', '。', '--', '@', '江西', '交通', '广播']</t>
+          <t>['#', '路况', '发布', '#', '受', '暴雨', '天气', '影响', '，', '昌栗', '高速', '东段', '九龙湖', '、', '高安东', '、', '高安', '、', '高安西', '入口', '禁止', '“', '两', '客', '一', '危', '”', '车辆', '上', '高速', '。', '--']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['路况', '发布', '暴雨', '天气', '影响', '昌栗', '高速', '东段', '九龙湖', '安东', '高安', '安西', '入口', '禁止', '两客', '一危', '车辆', '高速', '--', '江西', '交通广播']</t>
+          <t>['路况', '发布', '暴雨', '天气', '影响', '昌栗', '高速', '东段', '九龙湖', '安东', '高安', '安西', '入口', '禁止', '两客', '一危', '车辆', '高速', '--']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['路况', '发布', '暴雨', '天气', '影响', '昌栗', '高速', '东段', '九龙湖', '高安东', '高安', '高安西', '入口', '禁止', '车辆', '高速', '--', '江西', '交通', '广播']</t>
+          <t>['路况', '发布', '暴雨', '天气', '影响', '昌栗', '高速', '东段', '九龙湖', '高安东', '高安', '高安西', '入口', '禁止', '车辆', '高速', '--']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('路况', 'n'), ('发布', 'v'), ('#', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('昌栗', 'nr'), ('高速', 'd'), ('东段', 'n'), ('九龙湖', 'ns'), ('、', 'x'), ('高', 'a'), ('安东', 'ns'), ('、', 'x'), ('高安', 'nr'), ('、', 'x'), ('高', 'a'), ('安西', 'ns'), ('入口', 'ns'), ('禁止', 'v'), ('“', 'x'), ('两', 'm'), ('客', 'ng'), ('一', 'm'), ('危', 'n'), ('”', 'x'), ('车辆', 'n'), ('上', 'f'), ('高速', 'd'), ('。', 'x'), ('-', 'x'), ('-', 'x'), ('@', 'x'), ('江西', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('#', 'x'), ('路况', 'n'), ('发布', 'v'), ('#', 'x'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'x'), ('昌栗', 'nr'), ('高速', 'd'), ('东段', 'n'), ('九龙湖', 'ns'), ('、', 'x'), ('高', 'a'), ('安东', 'ns'), ('、', 'x'), ('高安', 'nr'), ('、', 'x'), ('高', 'a'), ('安西', 'ns'), ('入口', 'ns'), ('禁止', 'v'), ('“', 'x'), ('两', 'm'), ('客', 'ng'), ('一', 'm'), ('危', 'n'), ('”', 'x'), ('车辆', 'n'), ('上', 'f'), ('高速', 'd'), ('。', 'x'), ('-', 'x'), ('-', 'x')]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[('#', 'n'), ('路况', 'n'), ('发布', 'v'), ('#', 'n'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('昌栗', 'ns'), ('高速', 'b'), ('东段', 'n'), ('九龙湖', 'ns'), ('、', 'w'), ('高安东', 'nr'), ('、', 'w'), ('高安', 'nr'), ('、', 'w'), ('高安西', 'ns'), ('入口', 'n'), ('禁止', 'v'), ('“', 'w'), ('两', 'm'), ('客', 'n'), ('一', 'm'), ('危', 'n'), ('”', 'w'), ('车辆', 'n'), ('上', 'v'), ('高速', 'b'), ('。', 'w'), ('--', 'nr'), ('@', 'v'), ('江西', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('#', 'n'), ('路况', 'n'), ('发布', 'v'), ('#', 'n'), ('受', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('，', 'w'), ('昌栗', 'ns'), ('高速', 'b'), ('东段', 'n'), ('九龙湖', 'ns'), ('、', 'w'), ('高安东', 'nr'), ('、', 'w'), ('高安', 'nr'), ('、', 'w'), ('高安西', 'ns'), ('入口', 'n'), ('禁止', 'v'), ('“', 'w'), ('两', 'm'), ('客', 'n'), ('一', 'm'), ('危', 'n'), ('”', 'w'), ('车辆', 'n'), ('上', 'v'), ('高速', 'b'), ('。', 'w'), ('--', 'nr')]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('昌栗', 'nr'), ('高速', 'd'), ('东段', 'n'), ('九龙湖', 'ns'), ('安东', 'ns'), ('高安', 'nr'), ('安西', 'ns'), ('入口', 'ns'), ('禁止', 'v'), ('车辆', 'n'), ('高速', 'd'), ('江西', 'ns'), ('交通广播', 'l')]</t>
+          <t>[('路况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('昌栗', 'nr'), ('东段', 'n'), ('高安', 'nr'), ('禁止', 'v'), ('车辆', 'n')]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('昌栗', 'ns'), ('高速', 'b'), ('东段', 'n'), ('九龙湖', 'ns'), ('高安东', 'nr'), ('高安', 'nr'), ('高安西', 'ns'), ('入口', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('高速', 'b'), ('--', 'nr'), ('江西', 'ns'), ('交通', 'n'), ('广播', 'vn')]</t>
+          <t>[('路况', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('天气', 'n'), ('影响', 'vn'), ('高速', 'b'), ('东段', 'n'), ('高安东', 'nr'), ('高安', 'nr'), ('入口', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('高速', 'b'), ('--', 'nr')]</t>
         </is>
       </c>
     </row>
@@ -5336,47 +5336,47 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>#我为群众办实事##身边暖警#【暴雨中博罗最美的“警”色】近日，惠州博罗县辖区突发强对流雷雨天气，部分地区出现特大暴雨，全县迅速启动防汛级应急响应及暴雨红色预警信号。博罗交警迅速反应做好各项应急准备，开展路面巡查工作，确保暴雨中辖区的交通安全和出行秩序。石坝：以身测水暴雨中疏导交通上午，博罗交警石坝中队副中队长朱旭辉带队在国道石坝镇黎头咀路段巡逻。发现一辆小型轿车因暴雨导致意外熄火无法行驶。几名交警为尽快排除此交通隐患，不顾当时的狂风暴雨，一起蹚水到小车旁，徒手将小车从积水中推至安全地带。随后，朱旭辉一行人继续巡逻排查国道，将因暴雨导致的树枝折倒影响道路通行的情况进行紧急处理。并对一些存在交通隐患的路段进行临时交通管制。在暴雨中疏导交通，交警蜀黍的衣服、鞋帽全部都被雨水浸透，但他们仍坚持到道路安全畅通才离开。福田：大树横断大路迅速排除隐患下午许，福田中队副中队长黄康荣带队在辖区路段巡逻，排查路面积水路段。当巡逻至福田坳岭村南楼寺路段时，发现正前方有一棵被暴风雨折断的大树，横倒在道路中央挡住了一条车道，阻碍了过往车辆的正常通行，存在很大安全隐患。见此情况，黄康荣立即先将警车停在大树的后方，闪起警灯，随后下车查看。辅警梁景富在路面指挥车辆安全通过，黄康荣则和辅警徐智洪合力把树枝拖移到安全地方，同时立即联系该路段公路部门工作人员带上切割工具到现场进行清理。经过一个多小时的清理，消除了道路交通安全隐患。长宁：暴雨吹翻施工水马连夜清理路障晚许，长宁辖区的雨水终于歇下，为确保恶劣天气下道路交通的安全畅通，长宁中队副中队长邹满贵带队到辖区路段巡逻。当巡至罗浮大道处发现部分路段积水严重，用来围挡施工路段的水马都被狂风暴雨打得东倒西歪，严重影响车辆通行，存在安全隐患。邹满贵立即带领辅警廖远聪、王家明、朱震霖等人冒雨将水马一个个扶正捡起。迅速恢复了该路段的道路交通安全。惠州公安温馨提醒：雨天行车视线较差，广大群众要密切留意气象信息，在恶劣天气时尽量留在安全地方。如确需暴雨天出行的则一定要做好各种行车安全措施，行车途中如遇突发危急情况需注意紧急避险并请及时向警方求助。@广东公安@惠州发布</t>
+          <t>#我为群众办实事##身边暖警#【暴雨中博罗最美的“警”色】近日，惠州博罗县辖区突发强对流雷雨天气，部分地区出现特大暴雨，全县迅速启动防汛级应急响应及暴雨红色预警信号。博罗交警迅速反应做好各项应急准备，开展路面巡查工作，确保暴雨中辖区的交通安全和出行秩序。石坝：以身测水暴雨中疏导交通上午，博罗交警石坝中队副中队长朱旭辉带队在国道石坝镇黎头咀路段巡逻。发现一辆小型轿车因暴雨导致意外熄火无法行驶。几名交警为尽快排除此交通隐患，不顾当时的狂风暴雨，一起蹚水到小车旁，徒手将小车从积水中推至安全地带。随后，朱旭辉一行人继续巡逻排查国道，将因暴雨导致的树枝折倒影响道路通行的情况进行紧急处理。并对一些存在交通隐患的路段进行临时交通管制。在暴雨中疏导交通，交警蜀黍的衣服、鞋帽全部都被雨水浸透，但他们仍坚持到道路安全畅通才离开。福田：大树横断大路迅速排除隐患下午许，福田中队副中队长黄康荣带队在辖区路段巡逻，排查路面积水路段。当巡逻至福田坳岭村南楼寺路段时，发现正前方有一棵被暴风雨折断的大树，横倒在道路中央挡住了一条车道，阻碍了过往车辆的正常通行，存在很大安全隐患。见此情况，黄康荣立即先将警车停在大树的后方，闪起警灯，随后下车查看。辅警梁景富在路面指挥车辆安全通过，黄康荣则和辅警徐智洪合力把树枝拖移到安全地方，同时立即联系该路段公路部门工作人员带上切割工具到现场进行清理。经过一个多小时的清理，消除了道路交通安全隐患。长宁：暴雨吹翻施工水马连夜清理路障晚许，长宁辖区的雨水终于歇下，为确保恶劣天气下道路交通的安全畅通，长宁中队副中队长邹满贵带队到辖区路段巡逻。当巡至罗浮大道处发现部分路段积水严重，用来围挡施工路段的水马都被狂风暴雨打得东倒西歪，严重影响车辆通行，存在安全隐患。邹满贵立即带领辅警廖远聪、王家明、朱震霖等人冒雨将水马一个个扶正捡起。迅速恢复了该路段的道路交通安全。惠州公安温馨提醒：雨天行车视线较差，广大群众要密切留意气象信息，在恶劣天气时尽量留在安全地方。如确需暴雨天出行的则一定要做好各种行车安全措施，行车途中如遇突发危急情况需注意紧急避险并请及时向警方求助。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['#', '我', '为', '群众', '办实事', '##', '身边', '暖警', '#', '【', '暴雨', '中', '博罗', '最美', '的', '“', '警', '”', '色', '】', '近日', '，', '惠州', '博罗县', '辖区', '突发', '强对流', '雷雨', '天气', '，', '部分', '地区', '出现', '特', '大暴雨', '，', '全县', '迅速', '启动', '防汛', '级', '应急', '响应', '及', '暴雨', '红色', '预警', '信号', '。', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '，', '开展', '路面', '巡查', '工作', '，', '确保', '暴雨', '中', '辖区', '的', '交通安全', '和', '出行', '秩序', '。', '石坝', '：', '以身', '测水', '暴雨', '中', '疏导', '交通', '上午', '，', '博罗', '交警', '石坝', '中队', '副', '中队长', '朱旭辉', '带队', '在', '国道', '石坝', '镇黎头', '咀', '路段', '巡逻', '。', '发现', '一辆', '小型', '轿车', '因', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '。', '几名', '交警', '为', '尽快', '排除', '此', '交通', '隐患', '，', '不顾', '当时', '的', '狂风暴雨', '，', '一起', '蹚', '水到', '小车', '旁', '，', '徒手', '将', '小车', '从', '积水', '中', '推至', '安全', '地带', '。', '随后', '，', '朱旭辉', '一行', '人', '继续', '巡逻', '排查', '国道', '，', '将', '因', '暴雨', '导致', '的', '树枝', '折倒', '影响', '道路', '通行', '的', '情况', '进行', '紧急', '处理', '。', '并', '对', '一些', '存在', '交通', '隐患', '的', '路段', '进行', '临时', '交通管制', '。', '在', '暴雨', '中', '疏导', '交通', '，', '交警', '蜀黍', '的', '衣服', '、', '鞋帽', '全部', '都', '被', '雨水', '浸透', '，', '但', '他们', '仍', '坚持', '到', '道路', '安全', '畅通', '才', '离开', '。', '福田', '：', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '许', '，', '福田', '中队', '副', '中队长', '黄康荣', '带队', '在', '辖区', '路段', '巡逻', '，', '排查', '路', '面积', '水路', '段', '。', '当', '巡逻', '至', '福田', '坳', '岭', '村', '南楼', '寺', '路段', '时', '，', '发现', '正前方', '有', '一棵', '被', '暴风雨', '折断', '的', '大树', '，', '横倒', '在', '道路', '中央', '挡住', '了', '一条', '车道', '，', '阻碍', '了', '过往', '车辆', '的', '正常', '通行', '，', '存在', '很大', '安全隐患', '。', '见此', '情况', '，', '黄康荣', '立即', '先', '将', '警车', '停', '在', '大树', '的', '后方', '，', '闪起', '警灯', '，', '随后', '下车', '查看', '。', '辅警', '梁景富', '在', '路面', '指挥', '车辆', '安全', '通过', '，', '黄康荣', '则', '和', '辅警', '徐智洪', '合力', '把', '树枝', '拖移', '到', '安全', '地方', '，', '同时', '立即', '联系', '该', '路段', '公路', '部门', '工作人员', '带上', '切割', '工具', '到', '现场', '进行', '清理', '。', '经过', '一个多', '小时', '的', '清理', '，', '消除', '了', '道路交通', '安全隐患', '。', '长宁', '：', '暴雨', '吹', '翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '，', '长宁', '辖区', '的', '雨水', '终于', '歇', '下', '，', '为', '确保', '恶劣', '天气', '下', '道路交通', '的', '安全', '畅通', '，', '长宁', '中队', '副', '中队长', '邹满贵', '带队', '到', '辖区', '路段', '巡逻', '。', '当', '巡至', '罗浮', '大道', '处', '发现', '部分', '路段', '积水', '严重', '，', '用来', '围挡', '施工', '路段', '的', '水马', '都', '被', '狂风暴雨', '打', '得', '东倒西歪', '，', '严重', '影响', '车辆通行', '，', '存在', '安全隐患', '。', '邹满贵', '立即', '带领', '辅警', '廖远聪', '、', '王家', '明', '、', '朱震霖', '等', '人', '冒雨', '将', '水马', '一个个', '扶正', '捡起', '。', '迅速', '恢复', '了', '该', '路段', '的', '道路交通', '安全', '。', '惠州', '公安', '温馨', '提醒', '：', '雨天', '行车', '视线', '较差', '，', '广大群众', '要', '密切', '留意', '气象', '信息', '，', '在', '恶劣', '天气', '时', '尽量', '留在', '安全', '地方', '。', '如', '确需', '暴雨', '天', '出行', '的', '则', '一定', '要', '做好', '各种', '行车', '安全措施', '，', '行车', '途中', '如遇', '突发', '危急情况', '需注意', '紧急', '避险', '并', '请', '及时', '向', '警方', '求助', '。', '@', '广东', '公安', '@', '惠州', '发布']</t>
+          <t>['#', '我', '为', '群众', '办实事', '##', '身边', '暖警', '#', '【', '暴雨', '中', '博罗', '最美', '的', '“', '警', '”', '色', '】', '近日', '，', '惠州', '博罗县', '辖区', '突发', '强对流', '雷雨', '天气', '，', '部分', '地区', '出现', '特', '大暴雨', '，', '全县', '迅速', '启动', '防汛', '级', '应急', '响应', '及', '暴雨', '红色', '预警', '信号', '。', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '，', '开展', '路面', '巡查', '工作', '，', '确保', '暴雨', '中', '辖区', '的', '交通安全', '和', '出行', '秩序', '。', '石坝', '：', '以身', '测水', '暴雨', '中', '疏导', '交通', '上午', '，', '博罗', '交警', '石坝', '中队', '副', '中队长', '朱旭辉', '带队', '在', '国道', '石坝', '镇黎头', '咀', '路段', '巡逻', '。', '发现', '一辆', '小型', '轿车', '因', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '。', '几名', '交警', '为', '尽快', '排除', '此', '交通', '隐患', '，', '不顾', '当时', '的', '狂风暴雨', '，', '一起', '蹚', '水到', '小车', '旁', '，', '徒手', '将', '小车', '从', '积水', '中', '推至', '安全', '地带', '。', '随后', '，', '朱旭辉', '一行', '人', '继续', '巡逻', '排查', '国道', '，', '将', '因', '暴雨', '导致', '的', '树枝', '折倒', '影响', '道路', '通行', '的', '情况', '进行', '紧急', '处理', '。', '并', '对', '一些', '存在', '交通', '隐患', '的', '路段', '进行', '临时', '交通管制', '。', '在', '暴雨', '中', '疏导', '交通', '，', '交警', '蜀黍', '的', '衣服', '、', '鞋帽', '全部', '都', '被', '雨水', '浸透', '，', '但', '他们', '仍', '坚持', '到', '道路', '安全', '畅通', '才', '离开', '。', '福田', '：', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '许', '，', '福田', '中队', '副', '中队长', '黄康荣', '带队', '在', '辖区', '路段', '巡逻', '，', '排查', '路', '面积', '水路', '段', '。', '当', '巡逻', '至', '福田', '坳', '岭', '村', '南楼', '寺', '路段', '时', '，', '发现', '正前方', '有', '一棵', '被', '暴风雨', '折断', '的', '大树', '，', '横倒', '在', '道路', '中央', '挡住', '了', '一条', '车道', '，', '阻碍', '了', '过往', '车辆', '的', '正常', '通行', '，', '存在', '很大', '安全隐患', '。', '见此', '情况', '，', '黄康荣', '立即', '先', '将', '警车', '停', '在', '大树', '的', '后方', '，', '闪起', '警灯', '，', '随后', '下车', '查看', '。', '辅警', '梁景富', '在', '路面', '指挥', '车辆', '安全', '通过', '，', '黄康荣', '则', '和', '辅警', '徐智洪', '合力', '把', '树枝', '拖移', '到', '安全', '地方', '，', '同时', '立即', '联系', '该', '路段', '公路', '部门', '工作人员', '带上', '切割', '工具', '到', '现场', '进行', '清理', '。', '经过', '一个多', '小时', '的', '清理', '，', '消除', '了', '道路交通', '安全隐患', '。', '长宁', '：', '暴雨', '吹', '翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '，', '长宁', '辖区', '的', '雨水', '终于', '歇', '下', '，', '为', '确保', '恶劣', '天气', '下', '道路交通', '的', '安全', '畅通', '，', '长宁', '中队', '副', '中队长', '邹满贵', '带队', '到', '辖区', '路段', '巡逻', '。', '当', '巡至', '罗浮', '大道', '处', '发现', '部分', '路段', '积水', '严重', '，', '用来', '围挡', '施工', '路段', '的', '水马', '都', '被', '狂风暴雨', '打', '得', '东倒西歪', '，', '严重', '影响', '车辆通行', '，', '存在', '安全隐患', '。', '邹满贵', '立即', '带领', '辅警', '廖远聪', '、', '王家', '明', '、', '朱震霖', '等', '人', '冒雨', '将', '水马', '一个个', '扶正', '捡起', '。', '迅速', '恢复', '了', '该', '路段', '的', '道路交通', '安全', '。', '惠州', '公安', '温馨', '提醒', '：', '雨天', '行车', '视线', '较差', '，', '广大群众', '要', '密切', '留意', '气象', '信息', '，', '在', '恶劣', '天气', '时', '尽量', '留在', '安全', '地方', '。', '如', '确需', '暴雨', '天', '出行', '的', '则', '一定', '要', '做好', '各种', '行车', '安全措施', '，', '行车', '途中', '如遇', '突发', '危急情况', '需注意', '紧急', '避险', '并', '请', '及时', '向', '警方', '求助', '。']</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['#', '我', '为', '群众', '办', '实事', '#', '#', '身边', '暖警', '#', '【', '暴雨', '中', '博罗', '最', '美的', '“', '警', '”', '色', '】', '近日', '，', '惠州', '博罗县', '辖区', '突发', '强对', '流雷雨', '天气', '，', '部分', '地区', '出现', '特大', '暴雨', '，', '全县', '迅速', '启动', '防汛级', '应急', '响应', '及', '暴雨', '红色', '预警', '信号', '。', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '，', '开展', '路面', '巡查', '工作', '，', '确保', '暴雨', '中', '辖区', '的', '交通', '安全', '和', '出行', '秩序', '。', '石坝', '：', '以身', '测水', '暴雨', '中', '疏导', '交通', '上午', '，', '博罗', '交警', '石坝', '中队', '副', '中队长', '朱旭辉', '带队', '在', '国道', '石坝镇', '黎头咀', '路段', '巡逻', '。', '发现', '一', '辆', '小型', '轿车', '因', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '。', '几', '名', '交警', '为', '尽快', '排除', '此', '交通', '隐患', '，', '不顾', '当时', '的', '狂风', '暴雨', '，', '一起', '蹚水', '到', '小', '车旁', '，', '徒手', '将', '小车', '从', '积水', '中', '推至', '安全', '地带', '。', '随后', '，', '朱旭辉', '一行人', '继续', '巡逻', '排查', '国道', '，', '将', '因', '暴雨', '导致', '的', '树枝', '折倒', '影响', '道路', '通行', '的', '情况', '进行', '紧急', '处理', '。', '并', '对', '一些', '存在', '交通', '隐患', '的', '路段', '进行', '临时', '交通', '管制', '。', '在', '暴雨', '中', '疏导', '交通', '，', '交警', '蜀黍', '的', '衣服', '、', '鞋帽', '全部', '都', '被', '雨水', '浸透', '，', '但', '他们', '仍', '坚持', '到', '道路', '安全', '畅通', '才', '离开', '。', '福田', '：', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '许', '，', '福田', '中队', '副', '中队长', '黄康荣', '带队', '在', '辖区', '路段', '巡逻', '，', '排查', '路面', '积水', '路段', '。', '当', '巡逻', '至', '福田', '坳岭村', '南楼寺', '路段', '时', '，', '发现', '正前方', '有', '一', '棵', '被', '暴风雨折断', '的', '大树', '，', '横倒', '在', '道路', '中央', '挡住', '了', '一', '条', '车道', '，', '阻碍', '了', '过往', '车辆', '的', '正常', '通行', '，', '存在', '很', '大', '安全', '隐患', '。', '见', '此', '情况', '，', '黄康', '荣立', '即先', '将', '警车', '停', '在', '大树', '的', '后方', '，', '闪起', '警灯', '，', '随后', '下车', '查看', '。', '辅', '警梁', '景富', '在', '路面', '指挥', '车辆', '安全', '通过', '，', '黄康', '荣则', '和', '辅警', '徐智', '洪合力', '把', '树枝', '拖移', '到', '安全', '地方', '，', '同时', '立即', '联系', '该', '路段', '公路', '部门', '工作', '人员', '带上', '切割', '工具', '到', '现场', '进行', '清理', '。', '经过', '一个', '多', '小时', '的', '清理', '，', '消除', '了', '道路', '交通', '安全', '隐患', '。', '长宁', '：', '暴雨', '吹翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '，', '长宁', '辖区', '的', '雨水', '终于', '歇下', '，', '为', '确保', '恶劣', '天气', '下', '道路', '交通', '的', '安全', '畅通', '，', '长宁', '中队', '副', '中队长', '邹满', '贵带队', '到', '辖区', '路段', '巡逻', '。', '当巡', '至', '罗浮', '大道', '处', '发现', '部分', '路段', '积水', '严重', '，', '用来', '围挡', '施工', '路段', '的', '水马', '都', '被', '狂风', '暴雨', '打', '得', '东倒西歪', '，', '严重', '影响', '车辆', '通行', '，', '存在', '安全', '隐患', '。', '邹满', '贵', '立即', '带领', '辅警', '廖远聪', '、', '王家明', '、', '朱震霖', '等', '人', '冒雨', '将', '水马', '一个个', '扶正', '捡起', '。', '迅速', '恢复', '了', '该', '路段', '的', '道路', '交通', '安全', '。', '惠州', '公安', '温馨', '提醒', '：', '雨天', '行车', '视线', '较', '差', '，', '广大', '群众', '要', '密切', '留意', '气象', '信息', '，', '在', '恶劣', '天气', '时', '尽量', '留在', '安全', '地方', '。', '如确', '需', '暴雨天', '出行', '的', '则', '一定', '要', '做好', '各种', '行车', '安全', '措施', '，', '行车', '途中', '如遇', '突发', '危急', '情况', '需', '注意', '紧急', '避险', '并', '请', '及时', '向', '警方', '求助', '。', '@', '广东', '公安', '@', '惠州', '发布']</t>
+          <t>['#', '我', '为', '群众', '办', '实事', '#', '#', '身边', '暖警', '#', '【', '暴雨', '中', '博罗', '最', '美的', '“', '警', '”', '色', '】', '近日', '，', '惠州', '博罗县', '辖区', '突发', '强对', '流雷雨', '天气', '，', '部分', '地区', '出现', '特大', '暴雨', '，', '全县', '迅速', '启动', '防汛级', '应急', '响应', '及', '暴雨', '红色', '预警', '信号', '。', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '，', '开展', '路面', '巡查', '工作', '，', '确保', '暴雨', '中', '辖区', '的', '交通', '安全', '和', '出行', '秩序', '。', '石坝', '：', '以身', '测水', '暴雨', '中', '疏导', '交通', '上午', '，', '博罗', '交警', '石坝', '中队', '副', '中队长', '朱旭辉', '带队', '在', '国道', '石坝镇', '黎头咀', '路段', '巡逻', '。', '发现', '一', '辆', '小型', '轿车', '因', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '。', '几', '名', '交警', '为', '尽快', '排除', '此', '交通', '隐患', '，', '不顾', '当时', '的', '狂风', '暴雨', '，', '一起', '蹚水', '到', '小', '车旁', '，', '徒手', '将', '小车', '从', '积水', '中', '推至', '安全', '地带', '。', '随后', '，', '朱旭辉', '一行人', '继续', '巡逻', '排查', '国道', '，', '将', '因', '暴雨', '导致', '的', '树枝', '折倒', '影响', '道路', '通行', '的', '情况', '进行', '紧急', '处理', '。', '并', '对', '一些', '存在', '交通', '隐患', '的', '路段', '进行', '临时', '交通', '管制', '。', '在', '暴雨', '中', '疏导', '交通', '，', '交警', '蜀黍', '的', '衣服', '、', '鞋帽', '全部', '都', '被', '雨水', '浸透', '，', '但', '他们', '仍', '坚持', '到', '道路', '安全', '畅通', '才', '离开', '。', '福田', '：', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '许', '，', '福田', '中队', '副', '中队长', '黄康荣', '带队', '在', '辖区', '路段', '巡逻', '，', '排查', '路面', '积水', '路段', '。', '当', '巡逻', '至', '福田', '坳岭村', '南楼寺', '路段', '时', '，', '发现', '正前方', '有', '一', '棵', '被', '暴风雨折断', '的', '大树', '，', '横倒', '在', '道路', '中央', '挡住', '了', '一', '条', '车道', '，', '阻碍', '了', '过往', '车辆', '的', '正常', '通行', '，', '存在', '很', '大', '安全', '隐患', '。', '见', '此', '情况', '，', '黄康', '荣立', '即先', '将', '警车', '停', '在', '大树', '的', '后方', '，', '闪起', '警灯', '，', '随后', '下车', '查看', '。', '辅', '警梁', '景富', '在', '路面', '指挥', '车辆', '安全', '通过', '，', '黄康', '荣则', '和', '辅警', '徐智', '洪合力', '把', '树枝', '拖移', '到', '安全', '地方', '，', '同时', '立即', '联系', '该', '路段', '公路', '部门', '工作', '人员', '带上', '切割', '工具', '到', '现场', '进行', '清理', '。', '经过', '一个', '多', '小时', '的', '清理', '，', '消除', '了', '道路', '交通', '安全', '隐患', '。', '长宁', '：', '暴雨', '吹翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '，', '长宁', '辖区', '的', '雨水', '终于', '歇下', '，', '为', '确保', '恶劣', '天气', '下', '道路', '交通', '的', '安全', '畅通', '，', '长宁', '中队', '副', '中队长', '邹满', '贵带队', '到', '辖区', '路段', '巡逻', '。', '当巡', '至', '罗浮', '大道', '处', '发现', '部分', '路段', '积水', '严重', '，', '用来', '围挡', '施工', '路段', '的', '水马', '都', '被', '狂风', '暴雨', '打', '得', '东倒西歪', '，', '严重', '影响', '车辆', '通行', '，', '存在', '安全', '隐患', '。', '邹满', '贵', '立即', '带领', '辅警', '廖远聪', '、', '王家明', '、', '朱震霖', '等', '人', '冒雨', '将', '水马', '一个个', '扶正', '捡起', '。', '迅速', '恢复', '了', '该', '路段', '的', '道路', '交通', '安全', '。', '惠州', '公安', '温馨', '提醒', '：', '雨天', '行车', '视线', '较', '差', '，', '广大', '群众', '要', '密切', '留意', '气象', '信息', '，', '在', '恶劣', '天气', '时', '尽量', '留在', '安全', '地方', '。', '如确', '需', '暴雨天', '出行', '的', '则', '一定', '要', '做好', '各种', '行车', '安全', '措施', '，', '行车', '途中', '如遇', '突发', '危急', '情况', '需', '注意', '紧急', '避险', '并', '请', '及时', '向', '警方', '求助', '。']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['群众', '办实事', '身边', '暖警', '暴雨', '博罗', '最美', '近日', '惠州', '博罗县', '辖区', '突发', '强对流', '雷雨', '天气', '部分', '地区', '出现', '大暴雨', '全县', '迅速', '启动', '防汛', '应急', '响应', '暴雨', '红色', '预警', '信号', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '开展', '路面', '巡查', '工作', '确保', '暴雨', '辖区', '交通安全', '出行', '秩序', '石坝', '以身', '测水', '暴雨', '疏导', '交通', '上午', '博罗', '交警', '石坝', '中队', '中队长', '朱旭辉', '带队', '国道', '石坝', '镇黎头', '路段', '巡逻', '发现', '一辆', '小型', '轿车', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '几名', '交警', '尽快', '排除', '交通', '隐患', '不顾', '当时', '狂风暴雨', '一起', '水到', '小车', '徒手', '小车', '积水', '推至', '安全', '地带', '随后', '朱旭辉', '一行', '继续', '巡逻', '排查', '国道', '暴雨', '导致', '树枝', '折倒', '影响', '道路', '通行', '情况', '进行', '紧急', '处理', '存在', '交通', '隐患', '路段', '进行', '临时', '交通管制', '暴雨', '疏导', '交通', '交警', '蜀黍', '衣服', '鞋帽', '全部', '雨水', '浸透', '坚持', '道路', '安全', '畅通', '离开', '福田', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '福田', '中队', '中队长', '黄康荣', '带队', '辖区', '路段', '巡逻', '排查', '面积', '水路', '巡逻', '福田', '南楼', '路段', '发现', '正前方', '一棵', '暴风雨', '折断', '大树', '横倒', '道路', '中央', '挡住', '一条', '车道', '阻碍', '过往', '车辆', '正常', '通行', '存在', '很大', '安全隐患', '见此', '情况', '黄康荣', '立即', '警车', '大树', '后方', '闪起', '警灯', '随后', '下车', '查看', '辅警', '梁景富', '路面', '指挥', '车辆', '安全', '黄康荣', '辅警', '徐智洪', '合力', '树枝', '拖移', '安全', '地方', '立即', '联系', '路段', '公路', '部门', '工作人员', '带上', '切割', '工具', '现场', '进行', '清理', '一个多', '小时', '清理', '消除', '道路交通', '安全隐患', '长宁', '暴雨', '施工', '水马', '连夜', '清理', '路障', '晚许', '长宁', '辖区', '雨水', '终于', '确保', '恶劣', '天气', '道路交通', '安全', '畅通', '长宁', '中队', '中队长', '邹满贵', '带队', '辖区', '路段', '巡逻', '巡至', '罗浮', '大道', '发现', '部分', '路段', '积水', '严重', '用来', '围挡', '施工', '路段', '水马', '狂风暴雨', '东倒西歪', '严重', '影响', '车辆通行', '存在', '安全隐患', '邹满贵', '立即', '带领', '辅警', '廖远聪', '王家', '朱震霖', '冒雨', '水马', '一个个', '扶正', '捡起', '迅速', '恢复', '路段', '道路交通', '安全', '惠州', '公安', '温馨', '提醒', '雨天', '行车', '视线', '较差', '广大群众', '密切', '留意', '气象', '信息', '恶劣', '天气', '尽量', '留在', '安全', '地方', '确需', '暴雨', '出行', '一定', '做好', '行车', '安全措施', '行车', '途中', '如遇', '突发', '危急情况', '需注意', '紧急', '避险', '及时', '警方', '求助', '广东', '公安', '惠州', '发布']</t>
+          <t>['群众', '办实事', '身边', '暖警', '暴雨', '博罗', '最美', '近日', '惠州', '博罗县', '辖区', '突发', '强对流', '雷雨', '天气', '部分', '地区', '出现', '大暴雨', '全县', '迅速', '启动', '防汛', '应急', '响应', '暴雨', '红色', '预警', '信号', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '开展', '路面', '巡查', '工作', '确保', '暴雨', '辖区', '交通安全', '出行', '秩序', '石坝', '以身', '测水', '暴雨', '疏导', '交通', '上午', '博罗', '交警', '石坝', '中队', '中队长', '朱旭辉', '带队', '国道', '石坝', '镇黎头', '路段', '巡逻', '发现', '一辆', '小型', '轿车', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '几名', '交警', '尽快', '排除', '交通', '隐患', '不顾', '当时', '狂风暴雨', '一起', '水到', '小车', '徒手', '小车', '积水', '推至', '安全', '地带', '随后', '朱旭辉', '一行', '继续', '巡逻', '排查', '国道', '暴雨', '导致', '树枝', '折倒', '影响', '道路', '通行', '情况', '进行', '紧急', '处理', '存在', '交通', '隐患', '路段', '进行', '临时', '交通管制', '暴雨', '疏导', '交通', '交警', '蜀黍', '衣服', '鞋帽', '全部', '雨水', '浸透', '坚持', '道路', '安全', '畅通', '离开', '福田', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '福田', '中队', '中队长', '黄康荣', '带队', '辖区', '路段', '巡逻', '排查', '面积', '水路', '巡逻', '福田', '南楼', '路段', '发现', '正前方', '一棵', '暴风雨', '折断', '大树', '横倒', '道路', '中央', '挡住', '一条', '车道', '阻碍', '过往', '车辆', '正常', '通行', '存在', '很大', '安全隐患', '见此', '情况', '黄康荣', '立即', '警车', '大树', '后方', '闪起', '警灯', '随后', '下车', '查看', '辅警', '梁景富', '路面', '指挥', '车辆', '安全', '黄康荣', '辅警', '徐智洪', '合力', '树枝', '拖移', '安全', '地方', '立即', '联系', '路段', '公路', '部门', '工作人员', '带上', '切割', '工具', '现场', '进行', '清理', '一个多', '小时', '清理', '消除', '道路交通', '安全隐患', '长宁', '暴雨', '施工', '水马', '连夜', '清理', '路障', '晚许', '长宁', '辖区', '雨水', '终于', '确保', '恶劣', '天气', '道路交通', '安全', '畅通', '长宁', '中队', '中队长', '邹满贵', '带队', '辖区', '路段', '巡逻', '巡至', '罗浮', '大道', '发现', '部分', '路段', '积水', '严重', '用来', '围挡', '施工', '路段', '水马', '狂风暴雨', '东倒西歪', '严重', '影响', '车辆通行', '存在', '安全隐患', '邹满贵', '立即', '带领', '辅警', '廖远聪', '王家', '朱震霖', '冒雨', '水马', '一个个', '扶正', '捡起', '迅速', '恢复', '路段', '道路交通', '安全', '惠州', '公安', '温馨', '提醒', '雨天', '行车', '视线', '较差', '广大群众', '密切', '留意', '气象', '信息', '恶劣', '天气', '尽量', '留在', '安全', '地方', '确需', '暴雨', '出行', '一定', '做好', '行车', '安全措施', '行车', '途中', '如遇', '突发', '危急情况', '需注意', '紧急', '避险', '及时', '警方', '求助']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['群众', '实事', '身边', '暖警', '暴雨', '博罗', '美的', '近日', '惠州', '博罗县', '辖区', '突发', '强对', '流雷雨', '天气', '部分', '地区', '出现', '特大', '暴雨', '全县', '迅速', '启动', '防汛级', '应急', '响应', '暴雨', '红色', '预警', '信号', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '开展', '路面', '巡查', '工作', '确保', '暴雨', '辖区', '交通', '安全', '出行', '秩序', '石坝', '以身', '测水', '暴雨', '疏导', '交通', '上午', '博罗', '交警', '石坝', '中队', '中队长', '朱旭辉', '带队', '国道', '石坝镇', '黎头咀', '路段', '巡逻', '发现', '小型', '轿车', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '交警', '尽快', '排除', '交通', '隐患', '不顾', '当时', '狂风', '暴雨', '一起', '蹚水', '车旁', '徒手', '小车', '积水', '推至', '安全', '地带', '随后', '朱旭辉', '一行人', '继续', '巡逻', '排查', '国道', '暴雨', '导致', '树枝', '折倒', '影响', '道路', '通行', '情况', '进行', '紧急', '处理', '存在', '交通', '隐患', '路段', '进行', '临时', '交通', '管制', '暴雨', '疏导', '交通', '交警', '蜀黍', '衣服', '鞋帽', '全部', '雨水', '浸透', '坚持', '道路', '安全', '畅通', '离开', '福田', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '福田', '中队', '中队长', '黄康荣', '带队', '辖区', '路段', '巡逻', '排查', '路面', '积水', '路段', '巡逻', '福田', '坳岭村', '南楼寺', '路段', '发现', '正前方', '暴风雨折断', '大树', '横倒', '道路', '中央', '挡住', '车道', '阻碍', '过往', '车辆', '正常', '通行', '存在', '安全', '隐患', '情况', '黄康', '荣立', '即先', '警车', '大树', '后方', '闪起', '警灯', '随后', '下车', '查看', '警梁', '景富', '路面', '指挥', '车辆', '安全', '黄康', '荣则', '辅警', '徐智', '洪合力', '树枝', '拖移', '安全', '地方', '立即', '联系', '路段', '公路', '部门', '工作', '人员', '带上', '切割', '工具', '现场', '进行', '清理', '小时', '清理', '消除', '道路', '交通', '安全', '隐患', '长宁', '暴雨', '吹翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '长宁', '辖区', '雨水', '终于', '歇下', '确保', '恶劣', '天气', '道路', '交通', '安全', '畅通', '长宁', '中队', '中队长', '邹满', '贵带队', '辖区', '路段', '巡逻', '当巡', '罗浮', '大道', '发现', '部分', '路段', '积水', '严重', '用来', '围挡', '施工', '路段', '水马', '狂风', '暴雨', '东倒西歪', '严重', '影响', '车辆', '通行', '存在', '安全', '隐患', '邹满', '立即', '带领', '辅警', '廖远聪', '王家明', '朱震霖', '冒雨', '水马', '一个个', '扶正', '捡起', '迅速', '恢复', '路段', '道路', '交通', '安全', '惠州', '公安', '温馨', '提醒', '雨天', '行车', '视线', '广大', '群众', '密切', '留意', '气象', '信息', '恶劣', '天气', '尽量', '留在', '安全', '地方', '如确', '暴雨天', '出行', '一定', '做好', '行车', '安全', '措施', '行车', '途中', '如遇', '突发', '危急', '情况', '注意', '紧急', '避险', '及时', '警方', '求助', '广东', '公安', '惠州', '发布']</t>
+          <t>['群众', '实事', '身边', '暖警', '暴雨', '博罗', '美的', '近日', '惠州', '博罗县', '辖区', '突发', '强对', '流雷雨', '天气', '部分', '地区', '出现', '特大', '暴雨', '全县', '迅速', '启动', '防汛级', '应急', '响应', '暴雨', '红色', '预警', '信号', '博罗', '交警', '迅速', '反应', '做好', '各项', '应急', '准备', '开展', '路面', '巡查', '工作', '确保', '暴雨', '辖区', '交通', '安全', '出行', '秩序', '石坝', '以身', '测水', '暴雨', '疏导', '交通', '上午', '博罗', '交警', '石坝', '中队', '中队长', '朱旭辉', '带队', '国道', '石坝镇', '黎头咀', '路段', '巡逻', '发现', '小型', '轿车', '暴雨', '导致', '意外', '熄火', '无法', '行驶', '交警', '尽快', '排除', '交通', '隐患', '不顾', '当时', '狂风', '暴雨', '一起', '蹚水', '车旁', '徒手', '小车', '积水', '推至', '安全', '地带', '随后', '朱旭辉', '一行人', '继续', '巡逻', '排查', '国道', '暴雨', '导致', '树枝', '折倒', '影响', '道路', '通行', '情况', '进行', '紧急', '处理', '存在', '交通', '隐患', '路段', '进行', '临时', '交通', '管制', '暴雨', '疏导', '交通', '交警', '蜀黍', '衣服', '鞋帽', '全部', '雨水', '浸透', '坚持', '道路', '安全', '畅通', '离开', '福田', '大树', '横断', '大路', '迅速', '排除', '隐患', '下午', '福田', '中队', '中队长', '黄康荣', '带队', '辖区', '路段', '巡逻', '排查', '路面', '积水', '路段', '巡逻', '福田', '坳岭村', '南楼寺', '路段', '发现', '正前方', '暴风雨折断', '大树', '横倒', '道路', '中央', '挡住', '车道', '阻碍', '过往', '车辆', '正常', '通行', '存在', '安全', '隐患', '情况', '黄康', '荣立', '即先', '警车', '大树', '后方', '闪起', '警灯', '随后', '下车', '查看', '警梁', '景富', '路面', '指挥', '车辆', '安全', '黄康', '荣则', '辅警', '徐智', '洪合力', '树枝', '拖移', '安全', '地方', '立即', '联系', '路段', '公路', '部门', '工作', '人员', '带上', '切割', '工具', '现场', '进行', '清理', '小时', '清理', '消除', '道路', '交通', '安全', '隐患', '长宁', '暴雨', '吹翻', '施工', '水马', '连夜', '清理', '路障', '晚许', '长宁', '辖区', '雨水', '终于', '歇下', '确保', '恶劣', '天气', '道路', '交通', '安全', '畅通', '长宁', '中队', '中队长', '邹满', '贵带队', '辖区', '路段', '巡逻', '当巡', '罗浮', '大道', '发现', '部分', '路段', '积水', '严重', '用来', '围挡', '施工', '路段', '水马', '狂风', '暴雨', '东倒西歪', '严重', '影响', '车辆', '通行', '存在', '安全', '隐患', '邹满', '立即', '带领', '辅警', '廖远聪', '王家明', '朱震霖', '冒雨', '水马', '一个个', '扶正', '捡起', '迅速', '恢复', '路段', '道路', '交通', '安全', '惠州', '公安', '温馨', '提醒', '雨天', '行车', '视线', '广大', '群众', '密切', '留意', '气象', '信息', '恶劣', '天气', '尽量', '留在', '安全', '地方', '如确', '暴雨天', '出行', '一定', '做好', '行车', '安全', '措施', '行车', '途中', '如遇', '突发', '危急', '情况', '注意', '紧急', '避险', '及时', '警方', '求助']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('我', 'r'), ('为', 'p'), ('群众', 'n'), ('办实事', 'n'), ('##', 'x'), ('身边', 's'), ('暖', 'a'), ('警', 'n'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('中', 'f'), ('博罗', 'nr'), ('最美', 'a'), ('的', 'uj'), ('“', 'x'), ('警', 'n'), ('”', 'x'), ('色', 'ng'), ('】', 'x'), ('近日', 't'), ('，', 'x'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对流', 'n'), ('雷雨', 'nr'), ('天气', 'n'), ('，', 'x'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特', 'd'), ('大暴雨', 'i'), ('，', 'x'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'vn'), ('防汛', 'vn'), ('级', 'q'), ('应急', 'vn'), ('响应', 'v'), ('及', 'c'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('。', 'x'), ('博罗', 'nr'), ('交警', 'j'), ('迅速', 'ad'), ('反应', 'vn'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'v'), ('，', 'x'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('，', 'x'), ('确保', 'v'), ('暴雨', 'n'), ('中', 'f'), ('辖区', 'n'), ('的', 'uj'), ('交通安全', 'l'), ('和', 'c'), ('出行', 'v'), ('秩序', 'n'), ('。', 'x'), ('石坝', 'ns'), ('：', 'x'), ('以', 'p'), ('身测水', 'n'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('，', 'x'), ('博罗', 'nr'), ('交警', 'j'), ('石坝', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'n'), ('在', 'p'), ('国道', 'n'), ('石坝', 'ns'), ('镇黎', 'ns'), ('头', 'n'), ('咀', 'v'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'x'), ('发现', 'v'), ('一辆', 'm'), ('小型', 'b'), ('轿车', 'n'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'a'), ('熄火', 'v'), ('无法', 'n'), ('行驶', 'v'), ('。', 'x'), ('几名', 'm'), ('交警', 'j'), ('为', 'p'), ('尽快', 'd'), ('排除', 'v'), ('此', 'zg'), ('交通', 'n'), ('隐患', 'n'), ('，', 'x'), ('不顾', 'v'), ('当时', 't'), ('的', 'uj'), ('狂风暴雨', 'i'), ('，', 'x'), ('一起', 'm'), ('蹚', 'yg'), ('水', 'n'), ('到', 'v'), ('小车', 'n'), ('旁', 'f'), ('，', 'x'), ('徒手', 'n'), ('将', 'd'), ('小车', 'n'), ('从', 'p'), ('积水', 'n'), ('中', 'f'), ('推至', 'v'), ('安全', 'an'), ('地带', 'n'), ('。', 'x'), ('随后', 'd'), ('，', 'x'), ('朱旭辉', 'nr'), ('一行', 'm'), ('人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'vn'), ('国道', 'n'), ('，', 'x'), ('将', 'd'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('的', 'uj'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'j'), ('的', 'uj'), ('情况', 'n'), ('进行', 'v'), ('紧急', 'a'), ('处理', 'v'), ('。', 'x'), ('并', 'c'), ('对', 'p'), ('一些', 'm'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('的', 'uj'), ('路段', 'n'), ('进行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('。', 'x'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('交警', 'j'), ('蜀黍', 'n'), ('的', 'uj'), ('衣服', 'n'), ('、', 'x'), ('鞋帽', 'n'), ('全部', 'n'), ('都', 'd'), ('被', 'p'), ('雨水', 'n'), ('浸透', 'v'), ('，', 'x'), ('但', 'c'), ('他们', 'r'), ('仍', 'zg'), ('坚持', 'v'), ('到', 'v'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('才', 'd'), ('离开', 'v'), ('。', 'x'), ('福田', 'ns'), ('：', 'x'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('许', 'm'), ('，', 'x'), ('福田', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'n'), ('在', 'p'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('，', 'x'), ('排查', 'vn'), ('路', 'n'), ('面积', 'n'), ('水路', 'n'), ('段', 'q'), ('。', 'x'), ('当', 't'), ('巡逻', 'v'), ('至', 'p'), ('福田', 'ns'), ('坳', 'g'), ('岭', 'n'), ('村', 'n'), ('南楼', 'ns'), ('寺', 'ng'), ('路段', 'n'), ('时', 'n'), ('，', 'x'), ('发现', 'v'), ('正前方', 'f'), ('有', 'v'), ('一棵', 'm'), ('被', 'p'), ('暴风雨', 'nr'), ('折断', 'v'), ('的', 'uj'), ('大树', 'n'), ('，', 'x'), ('横倒', 'v'), ('在', 'p'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('了', 'ul'), ('一条', 'm'), ('车道', 'n'), ('，', 'x'), ('阻碍', 'v'), ('了', 'ul'), ('过往', 't'), ('车辆', 'n'), ('的', 'uj'), ('正常', 'd'), ('通行', 'j'), ('，', 'x'), ('存在', 'v'), ('很大', 'a'), ('安全隐患', 'i'), ('。', 'x'), ('见', 'v'), ('此', 'r'), ('情况', 'n'), ('，', 'x'), ('黄康荣', 'nr'), ('立即', 'd'), ('先', 'd'), ('将', 'd'), ('警车', 'n'), ('停', 'v'), ('在', 'p'), ('大树', 'n'), ('的', 'uj'), ('后方', 'f'), ('，', 'x'), ('闪起', 'v'), ('警灯', 'n'), ('，', 'x'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('。', 'x'), ('辅警', 'vn'), ('梁景富', 'nr'), ('在', 'p'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'an'), ('通过', 'p'), ('，', 'x'), ('黄康荣', 'nr'), ('则', 'd'), ('和', 'c'), ('辅警', 'vn'), ('徐智洪', 'nr'), ('合力', 'n'), ('把', 'p'), ('树枝', 'n'), ('拖移', 'v'), ('到', 'v'), ('安全', 'an'), ('地方', 'n'), ('，', 'x'), ('同时', 'c'), ('立即', 'd'), ('联系', 'n'), ('该', 'r'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作人员', 'n'), ('带上', 'v'), ('切割', 'v'), ('工具', 'n'), ('到', 'v'), ('现场', 'n'), ('进行', 'v'), ('清理', 'a'), ('。', 'x'), ('经过', 'p'), ('一个多', 'm'), ('小时', 'n'), ('的', 'uj'), ('清理', 'a'), ('，', 'x'), ('消除', 'v'), ('了', 'ul'), ('道路交通', 'nz'), ('安全隐患', 'i'), ('。', 'x'), ('长宁', 'ns'), ('：', 'x'), ('暴雨', 'n'), ('吹', 'v'), ('翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'a'), ('路障', 'n'), ('晚', 'tg'), ('许', 'm'), ('，', 'x'), ('长宁', 'ns'), ('辖区', 'n'), ('的', 'uj'), ('雨水', 'n'), ('终于', 'd'), ('歇', 'v'), ('下', 'f'), ('，', 'x'), ('为', 'p'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('道路交通', 'nz'), ('的', 'uj'), ('安全', 'an'), ('畅通', 'a'), ('，', 'x'), ('长宁', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('邹满贵', 'nr'), ('带队', 'n'), ('到', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'x'), ('当', 'p'), ('巡至', 'v'), ('罗浮', 'ns'), ('大道', 'n'), ('处', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('的', 'uj'), ('水马', 'n'), ('都', 'd'), ('被', 'p'), ('狂风暴雨', 'i'), ('打', 'v'), ('得', 'ud'), ('东倒西歪', 'i'), ('，', 'x'), ('严重', 'a'), ('影响', 'vn'), ('车辆通行', 'n'), ('，', 'x'), ('存在', 'v'), ('安全隐患', 'i'), ('。', 'x'), ('邹满贵', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'vn'), ('廖远聪', 'nr'), ('、', 'x'), ('王家', 'n'), ('明', 'a'), ('、', 'x'), ('朱震霖', 'nr'), ('等', 'u'), ('人', 'n'), ('冒雨', 'v'), ('将', 'd'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'nr'), ('捡起', 'v'), ('。', 'x'), ('迅速', 'ad'), ('恢复', 'v'), ('了', 'ul'), ('该', 'r'), ('路段', 'n'), ('的', 'uj'), ('道路交通', 'nz'), ('安全', 'an'), ('。', 'x'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'nr'), ('提醒', 'v'), ('：', 'x'), ('雨天', 't'), ('行车', 'n'), ('视线', 'n'), ('较差', 'a'), ('，', 'x'), ('广大群众', 'nr'), ('要', 'v'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('，', 'x'), ('在', 'p'), ('恶劣', 'a'), ('天气', 'n'), ('时', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'an'), ('地方', 'n'), ('。', 'x'), ('如', 'v'), ('确需', 'v'), ('暴雨', 'n'), ('天', 'q'), ('出行', 'v'), ('的', 'uj'), ('则', 'd'), ('一定', 'd'), ('要', 'v'), ('做好', 'v'), ('各种', 'r'), ('行车', 'n'), ('安全措施', 'nr'), ('，', 'x'), ('行车', 'n'), ('途中', 's'), ('如', 'v'), ('遇', 'v'), ('突发', 'v'), ('危急情况', 'n'), ('需注意', 'n'), ('紧急', 'a'), ('避险', 'v'), ('并', 'c'), ('请', 'v'), ('及时', 'c'), ('向', 'p'), ('警方', 'n'), ('求助', 'v'), ('。', 'x'), ('@', 'x'), ('广东', 'ns'), ('公安', 'n'), ('@', 'x'), ('惠州', 'ns'), ('发布', 'v')]</t>
+          <t>[('#', 'x'), ('我', 'r'), ('为', 'p'), ('群众', 'n'), ('办实事', 'n'), ('##', 'x'), ('身边', 's'), ('暖', 'a'), ('警', 'n'), ('#', 'x'), ('【', 'x'), ('暴雨', 'n'), ('中', 'f'), ('博罗', 'nr'), ('最美', 'a'), ('的', 'uj'), ('“', 'x'), ('警', 'n'), ('”', 'x'), ('色', 'ng'), ('】', 'x'), ('近日', 't'), ('，', 'x'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对流', 'n'), ('雷雨', 'nr'), ('天气', 'n'), ('，', 'x'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特', 'd'), ('大暴雨', 'i'), ('，', 'x'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'vn'), ('防汛', 'vn'), ('级', 'q'), ('应急', 'vn'), ('响应', 'v'), ('及', 'c'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('。', 'x'), ('博罗', 'nr'), ('交警', 'j'), ('迅速', 'ad'), ('反应', 'vn'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'v'), ('，', 'x'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('，', 'x'), ('确保', 'v'), ('暴雨', 'n'), ('中', 'f'), ('辖区', 'n'), ('的', 'uj'), ('交通安全', 'l'), ('和', 'c'), ('出行', 'v'), ('秩序', 'n'), ('。', 'x'), ('石坝', 'ns'), ('：', 'x'), ('以', 'p'), ('身测水', 'n'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('，', 'x'), ('博罗', 'nr'), ('交警', 'j'), ('石坝', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'n'), ('在', 'p'), ('国道', 'n'), ('石坝', 'ns'), ('镇黎', 'ns'), ('头', 'n'), ('咀', 'v'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'x'), ('发现', 'v'), ('一辆', 'm'), ('小型', 'b'), ('轿车', 'n'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'a'), ('熄火', 'v'), ('无法', 'n'), ('行驶', 'v'), ('。', 'x'), ('几名', 'm'), ('交警', 'j'), ('为', 'p'), ('尽快', 'd'), ('排除', 'v'), ('此', 'zg'), ('交通', 'n'), ('隐患', 'n'), ('，', 'x'), ('不顾', 'v'), ('当时', 't'), ('的', 'uj'), ('狂风暴雨', 'i'), ('，', 'x'), ('一起', 'm'), ('蹚', 'yg'), ('水', 'n'), ('到', 'v'), ('小车', 'n'), ('旁', 'f'), ('，', 'x'), ('徒手', 'n'), ('将', 'd'), ('小车', 'n'), ('从', 'p'), ('积水', 'n'), ('中', 'f'), ('推至', 'v'), ('安全', 'an'), ('地带', 'n'), ('。', 'x'), ('随后', 'd'), ('，', 'x'), ('朱旭辉', 'nr'), ('一行', 'm'), ('人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'vn'), ('国道', 'n'), ('，', 'x'), ('将', 'd'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('的', 'uj'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'j'), ('的', 'uj'), ('情况', 'n'), ('进行', 'v'), ('紧急', 'a'), ('处理', 'v'), ('。', 'x'), ('并', 'c'), ('对', 'p'), ('一些', 'm'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('的', 'uj'), ('路段', 'n'), ('进行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('。', 'x'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('，', 'x'), ('交警', 'j'), ('蜀黍', 'n'), ('的', 'uj'), ('衣服', 'n'), ('、', 'x'), ('鞋帽', 'n'), ('全部', 'n'), ('都', 'd'), ('被', 'p'), ('雨水', 'n'), ('浸透', 'v'), ('，', 'x'), ('但', 'c'), ('他们', 'r'), ('仍', 'zg'), ('坚持', 'v'), ('到', 'v'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('才', 'd'), ('离开', 'v'), ('。', 'x'), ('福田', 'ns'), ('：', 'x'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('许', 'm'), ('，', 'x'), ('福田', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'n'), ('在', 'p'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('，', 'x'), ('排查', 'vn'), ('路', 'n'), ('面积', 'n'), ('水路', 'n'), ('段', 'q'), ('。', 'x'), ('当', 't'), ('巡逻', 'v'), ('至', 'p'), ('福田', 'ns'), ('坳', 'g'), ('岭', 'n'), ('村', 'n'), ('南楼', 'ns'), ('寺', 'ng'), ('路段', 'n'), ('时', 'n'), ('，', 'x'), ('发现', 'v'), ('正前方', 'f'), ('有', 'v'), ('一棵', 'm'), ('被', 'p'), ('暴风雨', 'nr'), ('折断', 'v'), ('的', 'uj'), ('大树', 'n'), ('，', 'x'), ('横倒', 'v'), ('在', 'p'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('了', 'ul'), ('一条', 'm'), ('车道', 'n'), ('，', 'x'), ('阻碍', 'v'), ('了', 'ul'), ('过往', 't'), ('车辆', 'n'), ('的', 'uj'), ('正常', 'd'), ('通行', 'j'), ('，', 'x'), ('存在', 'v'), ('很大', 'a'), ('安全隐患', 'i'), ('。', 'x'), ('见', 'v'), ('此', 'r'), ('情况', 'n'), ('，', 'x'), ('黄康荣', 'nr'), ('立即', 'd'), ('先', 'd'), ('将', 'd'), ('警车', 'n'), ('停', 'v'), ('在', 'p'), ('大树', 'n'), ('的', 'uj'), ('后方', 'f'), ('，', 'x'), ('闪起', 'v'), ('警灯', 'n'), ('，', 'x'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('。', 'x'), ('辅警', 'vn'), ('梁景富', 'nr'), ('在', 'p'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'an'), ('通过', 'p'), ('，', 'x'), ('黄康荣', 'nr'), ('则', 'd'), ('和', 'c'), ('辅警', 'vn'), ('徐智洪', 'nr'), ('合力', 'n'), ('把', 'p'), ('树枝', 'n'), ('拖移', 'v'), ('到', 'v'), ('安全', 'an'), ('地方', 'n'), ('，', 'x'), ('同时', 'c'), ('立即', 'd'), ('联系', 'n'), ('该', 'r'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作人员', 'n'), ('带上', 'v'), ('切割', 'v'), ('工具', 'n'), ('到', 'v'), ('现场', 'n'), ('进行', 'v'), ('清理', 'a'), ('。', 'x'), ('经过', 'p'), ('一个多', 'm'), ('小时', 'n'), ('的', 'uj'), ('清理', 'a'), ('，', 'x'), ('消除', 'v'), ('了', 'ul'), ('道路交通', 'nz'), ('安全隐患', 'i'), ('。', 'x'), ('长宁', 'ns'), ('：', 'x'), ('暴雨', 'n'), ('吹', 'v'), ('翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'a'), ('路障', 'n'), ('晚', 'tg'), ('许', 'm'), ('，', 'x'), ('长宁', 'ns'), ('辖区', 'n'), ('的', 'uj'), ('雨水', 'n'), ('终于', 'd'), ('歇', 'v'), ('下', 'f'), ('，', 'x'), ('为', 'p'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('道路交通', 'nz'), ('的', 'uj'), ('安全', 'an'), ('畅通', 'a'), ('，', 'x'), ('长宁', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('邹满贵', 'nr'), ('带队', 'n'), ('到', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'x'), ('当', 'p'), ('巡至', 'v'), ('罗浮', 'ns'), ('大道', 'n'), ('处', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'x'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('的', 'uj'), ('水马', 'n'), ('都', 'd'), ('被', 'p'), ('狂风暴雨', 'i'), ('打', 'v'), ('得', 'ud'), ('东倒西歪', 'i'), ('，', 'x'), ('严重', 'a'), ('影响', 'vn'), ('车辆通行', 'n'), ('，', 'x'), ('存在', 'v'), ('安全隐患', 'i'), ('。', 'x'), ('邹满贵', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'vn'), ('廖远聪', 'nr'), ('、', 'x'), ('王家', 'n'), ('明', 'a'), ('、', 'x'), ('朱震霖', 'nr'), ('等', 'u'), ('人', 'n'), ('冒雨', 'v'), ('将', 'd'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'nr'), ('捡起', 'v'), ('。', 'x'), ('迅速', 'ad'), ('恢复', 'v'), ('了', 'ul'), ('该', 'r'), ('路段', 'n'), ('的', 'uj'), ('道路交通', 'nz'), ('安全', 'an'), ('。', 'x'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'nr'), ('提醒', 'v'), ('：', 'x'), ('雨天', 't'), ('行车', 'n'), ('视线', 'n'), ('较差', 'a'), ('，', 'x'), ('广大群众', 'nr'), ('要', 'v'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('，', 'x'), ('在', 'p'), ('恶劣', 'a'), ('天气', 'n'), ('时', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'an'), ('地方', 'n'), ('。', 'x'), ('如', 'v'), ('确需', 'v'), ('暴雨', 'n'), ('天', 'q'), ('出行', 'v'), ('的', 'uj'), ('则', 'd'), ('一定', 'd'), ('要', 'v'), ('做好', 'v'), ('各种', 'r'), ('行车', 'n'), ('安全措施', 'nr'), ('，', 'x'), ('行车', 'n'), ('途中', 's'), ('如', 'v'), ('遇', 'v'), ('突发', 'v'), ('危急情况', 'n'), ('需注意', 'n'), ('紧急', 'a'), ('避险', 'v'), ('并', 'c'), ('请', 'v'), ('及时', 'c'), ('向', 'p'), ('警方', 'n'), ('求助', 'v'), ('。', 'x')]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('我', 'r'), ('为', 'v'), ('群众', 'n'), ('办', 'v'), ('实事', 'n'), ('#', 'v'), ('#', 'v'), ('身边', 's'), ('暖警', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('中', 'f'), ('博罗', 'v'), ('最', 'd'), ('美的', 'a'), ('“', 'w'), ('警', 'n'), ('”', 'w'), ('色', 'n'), ('】', 'n'), ('近日', 't'), ('，', 'w'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对', 'v'), ('流雷雨', 'n'), ('天气', 'n'), ('，', 'w'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('，', 'w'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'v'), ('防汛级', 'b'), ('应急', 'vn'), ('响应', 'vn'), ('及', 'c'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('。', 'w'), ('博罗', 'ns'), ('交警', 'n'), ('迅速', 'ad'), ('反应', 'v'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'vn'), ('，', 'w'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('，', 'w'), ('确保', 'v'), ('暴雨', 'n'), ('中', 'f'), ('辖区', 'n'), ('的', 'u'), ('交通', 'n'), ('安全', 'an'), ('和', 'c'), ('出行', 'vn'), ('秩序', 'n'), ('。', 'w'), ('石坝', 'n'), ('：', 'w'), ('以身', 'i'), ('测水', 'v'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('，', 'w'), ('博罗', 'ns'), ('交警', 'n'), ('石坝', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'v'), ('在', 'p'), ('国道', 'n'), ('石坝镇', 'ns'), ('黎头咀', 'ns'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'w'), ('发现', 'v'), ('一', 'm'), ('辆', 'q'), ('小型', 'b'), ('轿车', 'n'), ('因', 'c'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'ad'), ('熄火', 'v'), ('无法', 'v'), ('行驶', 'v'), ('。', 'w'), ('几', 'm'), ('名', 'q'), ('交警', 'n'), ('为', 'v'), ('尽快', 'd'), ('排除', 'v'), ('此', 'r'), ('交通', 'n'), ('隐患', 'n'), ('，', 'w'), ('不顾', 'v'), ('当时', 't'), ('的', 'u'), ('狂风', 'n'), ('暴雨', 'n'), ('，', 'w'), ('一起', 'd'), ('蹚水', 'v'), ('到', 'v'), ('小', 'a'), ('车旁', 'n'), ('，', 'w'), ('徒手', 'v'), ('将', 'p'), ('小车', 'n'), ('从', 'p'), ('积水', 'n'), ('中', 'f'), ('推至', 'v'), ('安全', 'a'), ('地带', 'n'), ('。', 'w'), ('随后', 'd'), ('，', 'w'), ('朱旭辉', 'nr'), ('一行人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'v'), ('国道', 'n'), ('，', 'w'), ('将', 'd'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('的', 'u'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'v'), ('的', 'u'), ('情况', 'n'), ('进行', 'vx'), ('紧急', 'a'), ('处理', 'vn'), ('。', 'w'), ('并', 'c'), ('对', 'p'), ('一些', 'm'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('的', 'u'), ('路段', 'n'), ('进行', 'vx'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('。', 'w'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('交警', 'n'), ('蜀黍', 'l'), ('的', 'u'), ('衣服', 'n'), ('、', 'w'), ('鞋帽', 'n'), ('全部', 'd'), ('都', 'd'), ('被', 'p'), ('雨水', 'n'), ('浸透', 'v'), ('，', 'w'), ('但', 'c'), ('他们', 'r'), ('仍', 'd'), ('坚持', 'v'), ('到', 'v'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('才', 'd'), ('离开', 'v'), ('。', 'w'), ('福田', 'nr'), ('：', 'w'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('许', 'm'), ('，', 'w'), ('福田', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'v'), ('在', 'p'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('，', 'w'), ('排查', 'v'), ('路面', 'n'), ('积水', 'n'), ('路段', 'n'), ('。', 'w'), ('当', 'p'), ('巡逻', 'v'), ('至', 'v'), ('福田', 'ns'), ('坳岭村', 'ns'), ('南楼寺', 'ns'), ('路段', 'n'), ('时', 'n'), ('，', 'w'), ('发现', 'v'), ('正前方', 'f'), ('有', 'v'), ('一', 'm'), ('棵', 'q'), ('被', 'p'), ('暴风雨折断', 'i'), ('的', 'u'), ('大树', 'n'), ('，', 'w'), ('横倒', 'v'), ('在', 'p'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('了', 'u'), ('一', 'm'), ('条', 'q'), ('车道', 'n'), ('，', 'w'), ('阻碍', 'v'), ('了', 'u'), ('过往', 'vn'), ('车辆', 'n'), ('的', 'u'), ('正常', 'a'), ('通行', 'vn'), ('，', 'w'), ('存在', 'v'), ('很', 'd'), ('大', 'a'), ('安全', 'an'), ('隐患', 'n'), ('。', 'w'), ('见', 'v'), ('此', 'r'), ('情况', 'n'), ('，', 'w'), ('黄康', 'nr'), ('荣立', 'v'), ('即先', 'd'), ('将', 'p'), ('警车', 'n'), ('停', 'v'), ('在', 'p'), ('大树', 'n'), ('的', 'u'), ('后方', 's'), ('，', 'w'), ('闪起', 'v'), ('警灯', 'n'), ('，', 'w'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('。', 'w'), ('辅', 'v'), ('警梁', 'n'), ('景富', 'nr'), ('在', 'p'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'ad'), ('通过', 'v'), ('，', 'w'), ('黄康', 'nr'), ('荣则', 'n'), ('和', 'c'), ('辅警', 'n'), ('徐智', 'nr'), ('洪合力', 'n'), ('把', 'p'), ('树枝', 'n'), ('拖移', 'v'), ('到', 'v'), ('安全', 'a'), ('地方', 'n'), ('，', 'w'), ('同时', 'c'), ('立即', 'd'), ('联系', 'v'), ('该', 'r'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作', 'vn'), ('人员', 'n'), ('带上', 'v'), ('切割', 'vn'), ('工具', 'n'), ('到', 'v'), ('现场', 's'), ('进行', 'vx'), ('清理', 'vn'), ('。', 'w'), ('经过', 'v'), ('一个', 'm'), ('多', 'm'), ('小时', 'n'), ('的', 'u'), ('清理', 'vn'), ('，', 'w'), ('消除', 'v'), ('了', 'u'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('隐患', 'n'), ('。', 'w'), ('长宁', 'ns'), ('：', 'w'), ('暴雨', 'n'), ('吹翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'v'), ('路障', 'n'), ('晚许', 'v'), ('，', 'w'), ('长宁', 'ns'), ('辖区', 'n'), ('的', 'u'), ('雨水', 'n'), ('终于', 'd'), ('歇下', 'v'), ('，', 'w'), ('为', 'v'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('道路', 'n'), ('交通', 'n'), ('的', 'u'), ('安全', 'an'), ('畅通', 'a'), ('，', 'w'), ('长宁', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('邹满', 'nr'), ('贵带队', 'n'), ('到', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('。', 'w'), ('当巡', 'v'), ('至', 'p'), ('罗浮', 'ns'), ('大道', 'n'), ('处', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('的', 'u'), ('水马', 'n'), ('都', 'd'), ('被', 'p'), ('狂风', 'n'), ('暴雨', 'n'), ('打', 'v'), ('得', 'u'), ('东倒西歪', 'i'), ('，', 'w'), ('严重', 'ad'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('，', 'w'), ('存在', 'v'), ('安全', 'a'), ('隐患', 'n'), ('。', 'w'), ('邹满', 'nr'), ('贵', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'n'), ('廖远聪', 'nr'), ('、', 'w'), ('王家明', 'nr'), ('、', 'w'), ('朱震霖', 'nr'), ('等', 'u'), ('人', 'n'), ('冒雨', 'v'), ('将', 'p'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'v'), ('捡起', 'v'), ('。', 'w'), ('迅速', 'ad'), ('恢复', 'v'), ('了', 'u'), ('该', 'r'), ('路段', 'n'), ('的', 'u'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('。', 'w'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'a'), ('提醒', 'v'), ('：', 'w'), ('雨天', 'n'), ('行车', 'vn'), ('视线', 'n'), ('较', 'd'), ('差', 'a'), ('，', 'w'), ('广大', 'a'), ('群众', 'n'), ('要', 'v'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('，', 'w'), ('在', 'p'), ('恶劣', 'a'), ('天气', 'n'), ('时', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'a'), ('地方', 'n'), ('。', 'w'), ('如确', 'd'), ('需', 'v'), ('暴雨天', 'n'), ('出行', 'v'), ('的', 'u'), ('则', 'c'), ('一定', 'd'), ('要', 'v'), ('做好', 'v'), ('各种', 'r'), ('行车', 'vn'), ('安全', 'a'), ('措施', 'n'), ('，', 'w'), ('行车', 'vn'), ('途中', 's'), ('如遇', 'v'), ('突发', 'v'), ('危急', 'a'), ('情况', 'n'), ('需', 'v'), ('注意', 'v'), ('紧急', 'ad'), ('避险', 'v'), ('并', 'c'), ('请', 'v'), ('及时', 'ad'), ('向', 'p'), ('警方', 'n'), ('求助', 'v'), ('。', 'w'), ('@', 'v'), ('广东', 'ns'), ('公安', 'n'), ('@', 'n'), ('惠州', 'ns'), ('发布', 'v')]</t>
+          <t>[('#', 'v'), ('我', 'r'), ('为', 'v'), ('群众', 'n'), ('办', 'v'), ('实事', 'n'), ('#', 'v'), ('#', 'v'), ('身边', 's'), ('暖警', 'n'), ('#', 'v'), ('【', 'v'), ('暴雨', 'n'), ('中', 'f'), ('博罗', 'v'), ('最', 'd'), ('美的', 'a'), ('“', 'w'), ('警', 'n'), ('”', 'w'), ('色', 'n'), ('】', 'n'), ('近日', 't'), ('，', 'w'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对', 'v'), ('流雷雨', 'n'), ('天气', 'n'), ('，', 'w'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('，', 'w'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'v'), ('防汛级', 'b'), ('应急', 'vn'), ('响应', 'vn'), ('及', 'c'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('。', 'w'), ('博罗', 'ns'), ('交警', 'n'), ('迅速', 'ad'), ('反应', 'v'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'vn'), ('，', 'w'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('，', 'w'), ('确保', 'v'), ('暴雨', 'n'), ('中', 'f'), ('辖区', 'n'), ('的', 'u'), ('交通', 'n'), ('安全', 'an'), ('和', 'c'), ('出行', 'vn'), ('秩序', 'n'), ('。', 'w'), ('石坝', 'n'), ('：', 'w'), ('以身', 'i'), ('测水', 'v'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('，', 'w'), ('博罗', 'ns'), ('交警', 'n'), ('石坝', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'v'), ('在', 'p'), ('国道', 'n'), ('石坝镇', 'ns'), ('黎头咀', 'ns'), ('路段', 'n'), ('巡逻', 'v'), ('。', 'w'), ('发现', 'v'), ('一', 'm'), ('辆', 'q'), ('小型', 'b'), ('轿车', 'n'), ('因', 'c'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'ad'), ('熄火', 'v'), ('无法', 'v'), ('行驶', 'v'), ('。', 'w'), ('几', 'm'), ('名', 'q'), ('交警', 'n'), ('为', 'v'), ('尽快', 'd'), ('排除', 'v'), ('此', 'r'), ('交通', 'n'), ('隐患', 'n'), ('，', 'w'), ('不顾', 'v'), ('当时', 't'), ('的', 'u'), ('狂风', 'n'), ('暴雨', 'n'), ('，', 'w'), ('一起', 'd'), ('蹚水', 'v'), ('到', 'v'), ('小', 'a'), ('车旁', 'n'), ('，', 'w'), ('徒手', 'v'), ('将', 'p'), ('小车', 'n'), ('从', 'p'), ('积水', 'n'), ('中', 'f'), ('推至', 'v'), ('安全', 'a'), ('地带', 'n'), ('。', 'w'), ('随后', 'd'), ('，', 'w'), ('朱旭辉', 'nr'), ('一行人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'v'), ('国道', 'n'), ('，', 'w'), ('将', 'd'), ('因', 'p'), ('暴雨', 'n'), ('导致', 'v'), ('的', 'u'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'v'), ('的', 'u'), ('情况', 'n'), ('进行', 'vx'), ('紧急', 'a'), ('处理', 'vn'), ('。', 'w'), ('并', 'c'), ('对', 'p'), ('一些', 'm'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('的', 'u'), ('路段', 'n'), ('进行', 'vx'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('。', 'w'), ('在', 'p'), ('暴雨', 'n'), ('中', 'f'), ('疏导', 'v'), ('交通', 'n'), ('，', 'w'), ('交警', 'n'), ('蜀黍', 'l'), ('的', 'u'), ('衣服', 'n'), ('、', 'w'), ('鞋帽', 'n'), ('全部', 'd'), ('都', 'd'), ('被', 'p'), ('雨水', 'n'), ('浸透', 'v'), ('，', 'w'), ('但', 'c'), ('他们', 'r'), ('仍', 'd'), ('坚持', 'v'), ('到', 'v'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('才', 'd'), ('离开', 'v'), ('。', 'w'), ('福田', 'nr'), ('：', 'w'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('许', 'm'), ('，', 'w'), ('福田', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'v'), ('在', 'p'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('，', 'w'), ('排查', 'v'), ('路面', 'n'), ('积水', 'n'), ('路段', 'n'), ('。', 'w'), ('当', 'p'), ('巡逻', 'v'), ('至', 'v'), ('福田', 'ns'), ('坳岭村', 'ns'), ('南楼寺', 'ns'), ('路段', 'n'), ('时', 'n'), ('，', 'w'), ('发现', 'v'), ('正前方', 'f'), ('有', 'v'), ('一', 'm'), ('棵', 'q'), ('被', 'p'), ('暴风雨折断', 'i'), ('的', 'u'), ('大树', 'n'), ('，', 'w'), ('横倒', 'v'), ('在', 'p'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('了', 'u'), ('一', 'm'), ('条', 'q'), ('车道', 'n'), ('，', 'w'), ('阻碍', 'v'), ('了', 'u'), ('过往', 'vn'), ('车辆', 'n'), ('的', 'u'), ('正常', 'a'), ('通行', 'vn'), ('，', 'w'), ('存在', 'v'), ('很', 'd'), ('大', 'a'), ('安全', 'an'), ('隐患', 'n'), ('。', 'w'), ('见', 'v'), ('此', 'r'), ('情况', 'n'), ('，', 'w'), ('黄康', 'nr'), ('荣立', 'v'), ('即先', 'd'), ('将', 'p'), ('警车', 'n'), ('停', 'v'), ('在', 'p'), ('大树', 'n'), ('的', 'u'), ('后方', 's'), ('，', 'w'), ('闪起', 'v'), ('警灯', 'n'), ('，', 'w'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('。', 'w'), ('辅', 'v'), ('警梁', 'n'), ('景富', 'nr'), ('在', 'p'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'ad'), ('通过', 'v'), ('，', 'w'), ('黄康', 'nr'), ('荣则', 'n'), ('和', 'c'), ('辅警', 'n'), ('徐智', 'nr'), ('洪合力', 'n'), ('把', 'p'), ('树枝', 'n'), ('拖移', 'v'), ('到', 'v'), ('安全', 'a'), ('地方', 'n'), ('，', 'w'), ('同时', 'c'), ('立即', 'd'), ('联系', 'v'), ('该', 'r'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作', 'vn'), ('人员', 'n'), ('带上', 'v'), ('切割', 'vn'), ('工具', 'n'), ('到', 'v'), ('现场', 's'), ('进行', 'vx'), ('清理', 'vn'), ('。', 'w'), ('经过', 'v'), ('一个', 'm'), ('多', 'm'), ('小时', 'n'), ('的', 'u'), ('清理', 'vn'), ('，', 'w'), ('消除', 'v'), ('了', 'u'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('隐患', 'n'), ('。', 'w'), ('长宁', 'ns'), ('：', 'w'), ('暴雨', 'n'), ('吹翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'v'), ('路障', 'n'), ('晚许', 'v'), ('，', 'w'), ('长宁', 'ns'), ('辖区', 'n'), ('的', 'u'), ('雨水', 'n'), ('终于', 'd'), ('歇下', 'v'), ('，', 'w'), ('为', 'v'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('下', 'f'), ('道路', 'n'), ('交通', 'n'), ('的', 'u'), ('安全', 'an'), ('畅通', 'a'), ('，', 'w'), ('长宁', 'ns'), ('中队', 'n'), ('副', 'b'), ('中队长', 'n'), ('邹满', 'nr'), ('贵带队', 'n'), ('到', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('。', 'w'), ('当巡', 'v'), ('至', 'p'), ('罗浮', 'ns'), ('大道', 'n'), ('处', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('，', 'w'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('的', 'u'), ('水马', 'n'), ('都', 'd'), ('被', 'p'), ('狂风', 'n'), ('暴雨', 'n'), ('打', 'v'), ('得', 'u'), ('东倒西歪', 'i'), ('，', 'w'), ('严重', 'ad'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('，', 'w'), ('存在', 'v'), ('安全', 'a'), ('隐患', 'n'), ('。', 'w'), ('邹满', 'nr'), ('贵', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'n'), ('廖远聪', 'nr'), ('、', 'w'), ('王家明', 'nr'), ('、', 'w'), ('朱震霖', 'nr'), ('等', 'u'), ('人', 'n'), ('冒雨', 'v'), ('将', 'p'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'v'), ('捡起', 'v'), ('。', 'w'), ('迅速', 'ad'), ('恢复', 'v'), ('了', 'u'), ('该', 'r'), ('路段', 'n'), ('的', 'u'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('。', 'w'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'a'), ('提醒', 'v'), ('：', 'w'), ('雨天', 'n'), ('行车', 'vn'), ('视线', 'n'), ('较', 'd'), ('差', 'a'), ('，', 'w'), ('广大', 'a'), ('群众', 'n'), ('要', 'v'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('，', 'w'), ('在', 'p'), ('恶劣', 'a'), ('天气', 'n'), ('时', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'a'), ('地方', 'n'), ('。', 'w'), ('如确', 'd'), ('需', 'v'), ('暴雨天', 'n'), ('出行', 'v'), ('的', 'u'), ('则', 'c'), ('一定', 'd'), ('要', 'v'), ('做好', 'v'), ('各种', 'r'), ('行车', 'vn'), ('安全', 'a'), ('措施', 'n'), ('，', 'w'), ('行车', 'vn'), ('途中', 's'), ('如遇', 'v'), ('突发', 'v'), ('危急', 'a'), ('情况', 'n'), ('需', 'v'), ('注意', 'v'), ('紧急', 'ad'), ('避险', 'v'), ('并', 'c'), ('请', 'v'), ('及时', 'ad'), ('向', 'p'), ('警方', 'n'), ('求助', 'v'), ('。', 'w')]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[('群众', 'n'), ('办实事', 'n'), ('身边', 's'), ('暴雨', 'n'), ('博罗', 'nr'), ('最美', 'a'), ('近日', 't'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对流', 'n'), ('雷雨', 'nr'), ('天气', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'i'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'vn'), ('防汛', 'vn'), ('应急', 'vn'), ('响应', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('博罗', 'nr'), ('交警', 'j'), ('迅速', 'ad'), ('反应', 'vn'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'v'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('暴雨', 'n'), ('辖区', 'n'), ('交通安全', 'l'), ('出行', 'v'), ('秩序', 'n'), ('石坝', 'ns'), ('身测水', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('博罗', 'nr'), ('交警', 'j'), ('石坝', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'n'), ('国道', 'n'), ('石坝', 'ns'), ('镇黎', 'ns'), ('路段', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('一辆', 'm'), ('小型', 'b'), ('轿车', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'a'), ('熄火', 'v'), ('无法', 'n'), ('行驶', 'v'), ('几名', 'm'), ('交警', 'j'), ('尽快', 'd'), ('排除', 'v'), ('交通', 'n'), ('隐患', 'n'), ('不顾', 'v'), ('当时', 't'), ('狂风暴雨', 'i'), ('一起', 'm'), ('小车', 'n'), ('徒手', 'n'), ('小车', 'n'), ('积水', 'n'), ('推至', 'v'), ('安全', 'an'), ('地带', 'n'), ('随后', 'd'), ('朱旭辉', 'nr'), ('一行', 'm'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'vn'), ('国道', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'j'), ('情况', 'n'), ('进行', 'v'), ('紧急', 'a'), ('处理', 'v'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('路段', 'n'), ('进行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'j'), ('蜀黍', 'n'), ('衣服', 'n'), ('鞋帽', 'n'), ('全部', 'n'), ('雨水', 'n'), ('浸透', 'v'), ('坚持', 'v'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('离开', 'v'), ('福田', 'ns'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('福田', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('排查', 'vn'), ('面积', 'n'), ('水路', 'n'), ('巡逻', 'v'), ('福田', 'ns'), ('南楼', 'ns'), ('路段', 'n'), ('发现', 'v'), ('正前方', 'f'), ('一棵', 'm'), ('暴风雨', 'nr'), ('折断', 'v'), ('大树', 'n'), ('横倒', 'v'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('一条', 'm'), ('车道', 'n'), ('阻碍', 'v'), ('过往', 't'), ('车辆', 'n'), ('正常', 'd'), ('通行', 'j'), ('存在', 'v'), ('很大', 'a'), ('安全隐患', 'i'), ('情况', 'n'), ('黄康荣', 'nr'), ('立即', 'd'), ('警车', 'n'), ('大树', 'n'), ('后方', 'f'), ('闪起', 'v'), ('警灯', 'n'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('辅警', 'vn'), ('梁景富', 'nr'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'an'), ('黄康荣', 'nr'), ('辅警', 'vn'), ('徐智洪', 'nr'), ('合力', 'n'), ('树枝', 'n'), ('拖移', 'v'), ('安全', 'an'), ('地方', 'n'), ('立即', 'd'), ('联系', 'n'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作人员', 'n'), ('带上', 'v'), ('切割', 'v'), ('工具', 'n'), ('现场', 'n'), ('进行', 'v'), ('清理', 'a'), ('一个多', 'm'), ('小时', 'n'), ('清理', 'a'), ('消除', 'v'), ('道路交通', 'nz'), ('安全隐患', 'i'), ('长宁', 'ns'), ('暴雨', 'n'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'a'), ('路障', 'n'), ('长宁', 'ns'), ('辖区', 'n'), ('雨水', 'n'), ('终于', 'd'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('道路交通', 'nz'), ('安全', 'an'), ('畅通', 'a'), ('长宁', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('邹满贵', 'nr'), ('带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('巡至', 'v'), ('罗浮', 'ns'), ('大道', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('水马', 'n'), ('狂风暴雨', 'i'), ('东倒西歪', 'i'), ('严重', 'a'), ('影响', 'vn'), ('车辆通行', 'n'), ('存在', 'v'), ('安全隐患', 'i'), ('邹满贵', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'vn'), ('廖远聪', 'nr'), ('王家', 'n'), ('朱震霖', 'nr'), ('冒雨', 'v'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'nr'), ('捡起', 'v'), ('迅速', 'ad'), ('恢复', 'v'), ('路段', 'n'), ('道路交通', 'nz'), ('安全', 'an'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'nr'), ('提醒', 'v'), ('雨天', 't'), ('行车', 'n'), ('视线', 'n'), ('较差', 'a'), ('广大群众', 'nr'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'an'), ('地方', 'n'), ('确需', 'v'), ('暴雨', 'n'), ('出行', 'v'), ('一定', 'd'), ('做好', 'v'), ('行车', 'n'), ('安全措施', 'nr'), ('行车', 'n'), ('途中', 's'), ('突发', 'v'), ('危急情况', 'n'), ('需注意', 'n'), ('紧急', 'a'), ('避险', 'v'), ('及时', 'c'), ('警方', 'n'), ('求助', 'v'), ('广东', 'ns'), ('公安', 'n'), ('惠州', 'ns'), ('发布', 'v')]</t>
+          <t>[('群众', 'n'), ('办实事', 'n'), ('暴雨', 'n'), ('博罗', 'nr'), ('最美', 'a'), ('近日', 't'), ('辖区', 'n'), ('突发', 'v'), ('强对流', 'n'), ('雷雨', 'nr'), ('天气', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('大暴雨', 'i'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'vn'), ('防汛', 'vn'), ('应急', 'vn'), ('响应', 'v'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('博罗', 'nr'), ('交警', 'j'), ('迅速', 'ad'), ('反应', 'vn'), ('做好', 'v'), ('应急', 'vn'), ('准备', 'v'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('暴雨', 'n'), ('辖区', 'n'), ('交通安全', 'l'), ('出行', 'v'), ('秩序', 'n'), ('身测水', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('博罗', 'nr'), ('交警', 'j'), ('中队', 'n'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'n'), ('国道', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('小型', 'b'), ('轿车', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'a'), ('熄火', 'v'), ('无法', 'n'), ('行驶', 'v'), ('交警', 'j'), ('排除', 'v'), ('交通', 'n'), ('隐患', 'n'), ('不顾', 'v'), ('当时', 't'), ('狂风暴雨', 'i'), ('小车', 'n'), ('徒手', 'n'), ('小车', 'n'), ('积水', 'n'), ('推至', 'v'), ('安全', 'an'), ('地带', 'n'), ('朱旭辉', 'nr'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'vn'), ('国道', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'j'), ('情况', 'n'), ('进行', 'v'), ('紧急', 'a'), ('处理', 'v'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('路段', 'n'), ('进行', 'v'), ('临时', 'b'), ('交通管制', 'n'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'j'), ('蜀黍', 'n'), ('衣服', 'n'), ('鞋帽', 'n'), ('全部', 'n'), ('雨水', 'n'), ('浸透', 'v'), ('坚持', 'v'), ('道路', 'n'), ('安全', 'an'), ('畅通', 'a'), ('离开', 'v'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('中队', 'n'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('排查', 'vn'), ('面积', 'n'), ('水路', 'n'), ('巡逻', 'v'), ('路段', 'n'), ('发现', 'v'), ('暴风雨', 'nr'), ('折断', 'v'), ('大树', 'n'), ('横倒', 'v'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('车道', 'n'), ('阻碍', 'v'), ('过往', 't'), ('车辆', 'n'), ('通行', 'j'), ('存在', 'v'), ('很大', 'a'), ('安全隐患', 'i'), ('情况', 'n'), ('黄康荣', 'nr'), ('警车', 'n'), ('大树', 'n'), ('闪起', 'v'), ('警灯', 'n'), ('下车', 'v'), ('查看', 'v'), ('辅警', 'vn'), ('梁景富', 'nr'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'an'), ('黄康荣', 'nr'), ('辅警', 'vn'), ('徐智洪', 'nr'), ('合力', 'n'), ('树枝', 'n'), ('拖移', 'v'), ('安全', 'an'), ('地方', 'n'), ('联系', 'n'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作人员', 'n'), ('带上', 'v'), ('切割', 'v'), ('工具', 'n'), ('现场', 'n'), ('进行', 'v'), ('清理', 'a'), ('小时', 'n'), ('清理', 'a'), ('消除', 'v'), ('安全隐患', 'i'), ('暴雨', 'n'), ('施工', 'vn'), ('水马', 'n'), ('清理', 'a'), ('路障', 'n'), ('辖区', 'n'), ('雨水', 'n'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('安全', 'an'), ('畅通', 'a'), ('中队', 'n'), ('中队长', 'n'), ('邹满贵', 'nr'), ('带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('巡至', 'v'), ('大道', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('水马', 'n'), ('狂风暴雨', 'i'), ('东倒西歪', 'i'), ('严重', 'a'), ('影响', 'vn'), ('车辆通行', 'n'), ('存在', 'v'), ('安全隐患', 'i'), ('邹满贵', 'nr'), ('带领', 'v'), ('辅警', 'vn'), ('廖远聪', 'nr'), ('王家', 'n'), ('朱震霖', 'nr'), ('冒雨', 'v'), ('水马', 'n'), ('扶正', 'nr'), ('捡起', 'v'), ('迅速', 'ad'), ('恢复', 'v'), ('路段', 'n'), ('安全', 'an'), ('公安', 'n'), ('温馨', 'nr'), ('提醒', 'v'), ('雨天', 't'), ('行车', 'n'), ('视线', 'n'), ('较差', 'a'), ('广大群众', 'nr'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('留在', 'v'), ('安全', 'an'), ('地方', 'n'), ('确需', 'v'), ('暴雨', 'n'), ('出行', 'v'), ('做好', 'v'), ('行车', 'n'), ('安全措施', 'nr'), ('行车', 'n'), ('突发', 'v'), ('危急情况', 'n'), ('需注意', 'n'), ('紧急', 'a'), ('避险', 'v'), ('警方', 'n'), ('求助', 'v')]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[('群众', 'n'), ('实事', 'n'), ('身边', 's'), ('暖警', 'n'), ('暴雨', 'n'), ('博罗', 'v'), ('美的', 'a'), ('近日', 't'), ('惠州', 'ns'), ('博罗县', 'ns'), ('辖区', 'n'), ('突发', 'v'), ('强对', 'v'), ('流雷雨', 'n'), ('天气', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'v'), ('防汛级', 'b'), ('应急', 'vn'), ('响应', 'vn'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('博罗', 'ns'), ('交警', 'n'), ('迅速', 'ad'), ('反应', 'v'), ('做好', 'v'), ('各项', 'r'), ('应急', 'vn'), ('准备', 'vn'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('暴雨', 'n'), ('辖区', 'n'), ('交通', 'n'), ('安全', 'an'), ('出行', 'vn'), ('秩序', 'n'), ('石坝', 'n'), ('以身', 'i'), ('测水', 'v'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('博罗', 'ns'), ('交警', 'n'), ('石坝', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'v'), ('国道', 'n'), ('石坝镇', 'ns'), ('黎头咀', 'ns'), ('路段', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('小型', 'b'), ('轿车', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'ad'), ('熄火', 'v'), ('无法', 'v'), ('行驶', 'v'), ('交警', 'n'), ('尽快', 'd'), ('排除', 'v'), ('交通', 'n'), ('隐患', 'n'), ('不顾', 'v'), ('当时', 't'), ('狂风', 'n'), ('暴雨', 'n'), ('一起', 'd'), ('蹚水', 'v'), ('车旁', 'n'), ('徒手', 'v'), ('小车', 'n'), ('积水', 'n'), ('推至', 'v'), ('安全', 'a'), ('地带', 'n'), ('随后', 'd'), ('朱旭辉', 'nr'), ('一行人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'v'), ('国道', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'v'), ('情况', 'n'), ('进行', 'vx'), ('紧急', 'a'), ('处理', 'vn'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('路段', 'n'), ('进行', 'vx'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'n'), ('蜀黍', 'l'), ('衣服', 'n'), ('鞋帽', 'n'), ('全部', 'd'), ('雨水', 'n'), ('浸透', 'v'), ('坚持', 'v'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('离开', 'v'), ('福田', 'nr'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('福田', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('排查', 'v'), ('路面', 'n'), ('积水', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('福田', 'ns'), ('坳岭村', 'ns'), ('南楼寺', 'ns'), ('路段', 'n'), ('发现', 'v'), ('正前方', 'f'), ('暴风雨折断', 'i'), ('大树', 'n'), ('横倒', 'v'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('车道', 'n'), ('阻碍', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('正常', 'a'), ('通行', 'vn'), ('存在', 'v'), ('安全', 'an'), ('隐患', 'n'), ('情况', 'n'), ('黄康', 'nr'), ('荣立', 'v'), ('即先', 'd'), ('警车', 'n'), ('大树', 'n'), ('后方', 's'), ('闪起', 'v'), ('警灯', 'n'), ('随后', 'd'), ('下车', 'v'), ('查看', 'v'), ('警梁', 'n'), ('景富', 'nr'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'ad'), ('黄康', 'nr'), ('荣则', 'n'), ('辅警', 'n'), ('徐智', 'nr'), ('洪合力', 'n'), ('树枝', 'n'), ('拖移', 'v'), ('安全', 'a'), ('地方', 'n'), ('立即', 'd'), ('联系', 'v'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作', 'vn'), ('人员', 'n'), ('带上', 'v'), ('切割', 'vn'), ('工具', 'n'), ('现场', 's'), ('进行', 'vx'), ('清理', 'vn'), ('小时', 'n'), ('清理', 'vn'), ('消除', 'v'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('隐患', 'n'), ('长宁', 'ns'), ('暴雨', 'n'), ('吹翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('连夜', 'd'), ('清理', 'v'), ('路障', 'n'), ('晚许', 'v'), ('长宁', 'ns'), ('辖区', 'n'), ('雨水', 'n'), ('终于', 'd'), ('歇下', 'v'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('畅通', 'a'), ('长宁', 'ns'), ('中队', 'n'), ('中队长', 'n'), ('邹满', 'nr'), ('贵带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('当巡', 'v'), ('罗浮', 'ns'), ('大道', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('水马', 'n'), ('狂风', 'n'), ('暴雨', 'n'), ('东倒西歪', 'i'), ('严重', 'ad'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('存在', 'v'), ('安全', 'a'), ('隐患', 'n'), ('邹满', 'nr'), ('立即', 'd'), ('带领', 'v'), ('辅警', 'n'), ('廖远聪', 'nr'), ('王家明', 'nr'), ('朱震霖', 'nr'), ('冒雨', 'v'), ('水马', 'n'), ('一个个', 'm'), ('扶正', 'v'), ('捡起', 'v'), ('迅速', 'ad'), ('恢复', 'v'), ('路段', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('惠州', 'ns'), ('公安', 'n'), ('温馨', 'a'), ('提醒', 'v'), ('雨天', 'n'), ('行车', 'vn'), ('视线', 'n'), ('广大', 'a'), ('群众', 'n'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('尽量', 'd'), ('留在', 'v'), ('安全', 'a'), ('地方', 'n'), ('如确', 'd'), ('暴雨天', 'n'), ('出行', 'v'), ('一定', 'd'), ('做好', 'v'), ('行车', 'vn'), ('安全', 'a'), ('措施', 'n'), ('行车', 'vn'), ('途中', 's'), ('如遇', 'v'), ('突发', 'v'), ('危急', 'a'), ('情况', 'n'), ('注意', 'v'), ('紧急', 'ad'), ('避险', 'v'), ('及时', 'ad'), ('警方', 'n'), ('求助', 'v'), ('广东', 'ns'), ('公安', 'n'), ('惠州', 'ns'), ('发布', 'v')]</t>
+          <t>[('群众', 'n'), ('实事', 'n'), ('暖警', 'n'), ('暴雨', 'n'), ('博罗', 'v'), ('美的', 'a'), ('近日', 't'), ('辖区', 'n'), ('突发', 'v'), ('强对', 'v'), ('流雷雨', 'n'), ('天气', 'n'), ('部分', 'n'), ('地区', 'n'), ('出现', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('全县', 'n'), ('迅速', 'ad'), ('启动', 'v'), ('防汛级', 'b'), ('应急', 'vn'), ('响应', 'vn'), ('暴雨', 'n'), ('红色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('交警', 'n'), ('迅速', 'ad'), ('反应', 'v'), ('做好', 'v'), ('应急', 'vn'), ('准备', 'vn'), ('开展', 'v'), ('路面', 'n'), ('巡查', 'vn'), ('工作', 'vn'), ('确保', 'v'), ('暴雨', 'n'), ('辖区', 'n'), ('交通', 'n'), ('安全', 'an'), ('出行', 'vn'), ('秩序', 'n'), ('石坝', 'n'), ('以身', 'i'), ('测水', 'v'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('上午', 't'), ('交警', 'n'), ('中队', 'n'), ('中队长', 'n'), ('朱旭辉', 'nr'), ('带队', 'v'), ('国道', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('发现', 'v'), ('小型', 'b'), ('轿车', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('意外', 'ad'), ('熄火', 'v'), ('无法', 'v'), ('行驶', 'v'), ('交警', 'n'), ('排除', 'v'), ('交通', 'n'), ('隐患', 'n'), ('不顾', 'v'), ('当时', 't'), ('狂风', 'n'), ('暴雨', 'n'), ('蹚水', 'v'), ('车旁', 'n'), ('徒手', 'v'), ('小车', 'n'), ('积水', 'n'), ('推至', 'v'), ('安全', 'a'), ('地带', 'n'), ('朱旭辉', 'nr'), ('一行人', 'n'), ('继续', 'v'), ('巡逻', 'v'), ('排查', 'v'), ('国道', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('树枝', 'n'), ('折倒', 'v'), ('影响', 'vn'), ('道路', 'n'), ('通行', 'v'), ('情况', 'n'), ('进行', 'vx'), ('紧急', 'a'), ('处理', 'vn'), ('存在', 'v'), ('交通', 'n'), ('隐患', 'n'), ('路段', 'n'), ('进行', 'vx'), ('临时', 'b'), ('交通', 'n'), ('管制', 'vn'), ('暴雨', 'n'), ('疏导', 'v'), ('交通', 'n'), ('交警', 'n'), ('蜀黍', 'l'), ('衣服', 'n'), ('鞋帽', 'n'), ('雨水', 'n'), ('浸透', 'v'), ('坚持', 'v'), ('道路', 'n'), ('安全', 'a'), ('畅通', 'a'), ('离开', 'v'), ('福田', 'nr'), ('大树', 'n'), ('横断', 'v'), ('大路', 'n'), ('迅速', 'ad'), ('排除', 'v'), ('隐患', 'n'), ('下午', 't'), ('中队', 'n'), ('中队长', 'n'), ('黄康荣', 'nr'), ('带队', 'v'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('排查', 'v'), ('路面', 'n'), ('积水', 'n'), ('路段', 'n'), ('巡逻', 'v'), ('路段', 'n'), ('发现', 'v'), ('暴风雨折断', 'i'), ('大树', 'n'), ('横倒', 'v'), ('道路', 'n'), ('中央', 'n'), ('挡住', 'v'), ('车道', 'n'), ('阻碍', 'v'), ('过往', 'vn'), ('车辆', 'n'), ('正常', 'a'), ('通行', 'vn'), ('存在', 'v'), ('安全', 'an'), ('隐患', 'n'), ('情况', 'n'), ('黄康', 'nr'), ('荣立', 'v'), ('警车', 'n'), ('大树', 'n'), ('闪起', 'v'), ('警灯', 'n'), ('下车', 'v'), ('查看', 'v'), ('警梁', 'n'), ('景富', 'nr'), ('路面', 'n'), ('指挥', 'v'), ('车辆', 'n'), ('安全', 'ad'), ('黄康', 'nr'), ('荣则', 'n'), ('辅警', 'n'), ('徐智', 'nr'), ('洪合力', 'n'), ('树枝', 'n'), ('拖移', 'v'), ('安全', 'a'), ('地方', 'n'), ('联系', 'v'), ('路段', 'n'), ('公路', 'n'), ('部门', 'n'), ('工作', 'vn'), ('人员', 'n'), ('带上', 'v'), ('切割', 'vn'), ('工具', 'n'), ('进行', 'vx'), ('清理', 'vn'), ('小时', 'n'), ('清理', 'vn'), ('消除', 'v'), ('道路', 'n'), ('交通', 'n'), ('安全', 'a'), ('隐患', 'n'), ('暴雨', 'n'), ('吹翻', 'v'), ('施工', 'vn'), ('水马', 'n'), ('清理', 'v'), ('路障', 'n'), ('晚许', 'v'), ('辖区', 'n'), ('雨水', 'n'), ('歇下', 'v'), ('确保', 'v'), ('恶劣', 'a'), ('天气', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('畅通', 'a'), ('中队', 'n'), ('中队长', 'n'), ('邹满', 'nr'), ('贵带队', 'n'), ('辖区', 'n'), ('路段', 'n'), ('巡逻', 'vn'), ('当巡', 'v'), ('大道', 'n'), ('发现', 'v'), ('部分', 'n'), ('路段', 'n'), ('积水', 'n'), ('严重', 'a'), ('用来', 'v'), ('围挡', 'v'), ('施工', 'vn'), ('路段', 'n'), ('水马', 'n'), ('狂风', 'n'), ('暴雨', 'n'), ('东倒西歪', 'i'), ('严重', 'ad'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('存在', 'v'), ('安全', 'a'), ('隐患', 'n'), ('邹满', 'nr'), ('带领', 'v'), ('辅警', 'n'), ('廖远聪', 'nr'), ('王家明', 'nr'), ('朱震霖', 'nr'), ('冒雨', 'v'), ('水马', 'n'), ('扶正', 'v'), ('捡起', 'v'), ('迅速', 'ad'), ('恢复', 'v'), ('路段', 'n'), ('道路', 'n'), ('交通', 'n'), ('安全', 'an'), ('公安', 'n'), ('温馨', 'a'), ('提醒', 'v'), ('雨天', 'n'), ('行车', 'vn'), ('视线', 'n'), ('广大', 'a'), ('群众', 'n'), ('密切', 'ad'), ('留意', 'v'), ('气象', 'n'), ('信息', 'n'), ('恶劣', 'a'), ('天气', 'n'), ('留在', 'v'), ('安全', 'a'), ('地方', 'n'), ('暴雨天', 'n'), ('出行', 'v'), ('做好', 'v'), ('行车', 'vn'), ('安全', 'a'), ('措施', 'n'), ('行车', 'vn'), ('如遇', 'v'), ('突发', 'v'), ('危急', 'a'), ('情况', 'n'), ('注意', 'v'), ('紧急', 'ad'), ('避险', 'v'), ('及时', 'ad'), ('警方', 'n'), ('求助', 'v')]</t>
         </is>
       </c>
     </row>
@@ -5426,12 +5426,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('加油', 'v'), ('河南省', 'ns'), ('出现', 'v'), ('罕见', 'a'), ('持续', 'vd'), ('强降水', 'n'), ('此次', 'r'), ('大暴雨', 'i'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('多处', 'm'), ('地铁', 'n'), ('商场', 'n'), ('被淹', 'n'), ('此次', 'r'), ('暴雨', 'n'), ('带来', 'v'), ('居民', 'n'), ('生命', 'vn'), ('经济', 'n'), ('影响', 'vn'), ('巨大', 'a'), ('郑州', 'ns'), ('地处', 's'), ('中原', 'ns'), ('万亿', 'm'), ('白酒', 'n'), ('销售', 'vn'), ('核心', 'n'), ('地带', 'n'), ('暴雨', 'n'), ('不少', 'd'), ('白酒', 'n'), ('经销商', 'n'), ('货物', 'n'), ('不少', 'd'), ('经销商', 'n'), ('货物', 'n'), ('存储', 'j'), ('地下室', 'n'), ('确保', 'v'), ('白酒', 'n'), ('不会', 'v'), ('变质', 'n'), ('大暴雨', 'i'), ('多位', 'm'), ('经销商', 'n'), ('表示', 'v'), ('猝不及防', 'i'), ('情况', 'n'), ('几百', 'm'), ('箱酒', 'n'), ('人员', 'n'), ('紧急', 'a'), ('转移', 'v'), ('没有', 'v'), ('办法', 'n'), ('转移', 'v'), ('货物', 'n'), ('不仅如此', 'l'), ('暴雨', 'n'), ('导致', 'v'), ('交通堵塞', 'n'), ('车辆', 'n'), ('运输', 'vn'), ('业务', 'n'), ('出行', 'v'), ('客户', 'n'), ('进货', 'v'), ('动销', 'n'), ('方面', 'n'), ('影响', 'vn'), ('停滞', 'v'), ('导致', 'v'), ('供应链', 'n'), ('工作', 'vn'), ('节奏', 'n'), ('被打乱', 'l'), ('此次', 'r'), ('暴雨', 'n'), ('牵动人心', 'i'), ('全国', 'n'), ('人民', 'n'), ('施以援', 'nr'), ('捐钱', 'v'), ('捐钱', 'v'), ('捐人', 'n'), ('自然灾害', 'l'), ('面前', 'f'), ('体现', 'v'), ('中华', 'nz'), ('名族', 'n'), ('特有', 'b'), ('团结', 'a'), ('精神', 'n'), ('加油', 'v'), ('胡辣汤', 'nr'), ('加油', 'v')]</t>
+          <t>[('加油', 'v'), ('出现', 'v'), ('罕见', 'a'), ('持续', 'vd'), ('强降水', 'n'), ('大暴雨', 'i'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('地铁', 'n'), ('商场', 'n'), ('被淹', 'n'), ('暴雨', 'n'), ('带来', 'v'), ('居民', 'n'), ('生命', 'vn'), ('经济', 'n'), ('影响', 'vn'), ('巨大', 'a'), ('白酒', 'n'), ('销售', 'vn'), ('核心', 'n'), ('地带', 'n'), ('暴雨', 'n'), ('白酒', 'n'), ('经销商', 'n'), ('货物', 'n'), ('经销商', 'n'), ('货物', 'n'), ('存储', 'j'), ('地下室', 'n'), ('确保', 'v'), ('白酒', 'n'), ('不会', 'v'), ('变质', 'n'), ('大暴雨', 'i'), ('经销商', 'n'), ('表示', 'v'), ('猝不及防', 'i'), ('情况', 'n'), ('箱酒', 'n'), ('人员', 'n'), ('紧急', 'a'), ('转移', 'v'), ('没有', 'v'), ('办法', 'n'), ('转移', 'v'), ('货物', 'n'), ('不仅如此', 'l'), ('暴雨', 'n'), ('导致', 'v'), ('交通堵塞', 'n'), ('车辆', 'n'), ('运输', 'vn'), ('业务', 'n'), ('出行', 'v'), ('客户', 'n'), ('进货', 'v'), ('动销', 'n'), ('方面', 'n'), ('影响', 'vn'), ('停滞', 'v'), ('导致', 'v'), ('供应链', 'n'), ('工作', 'vn'), ('节奏', 'n'), ('被打乱', 'l'), ('暴雨', 'n'), ('牵动人心', 'i'), ('全国', 'n'), ('人民', 'n'), ('施以援', 'nr'), ('捐钱', 'v'), ('捐钱', 'v'), ('捐人', 'n'), ('自然灾害', 'l'), ('体现', 'v'), ('名族', 'n'), ('特有', 'b'), ('团结', 'a'), ('精神', 'n'), ('加油', 'v'), ('胡辣汤', 'nr'), ('加油', 'v')]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[('郑州', 'ns'), ('加油', 'v'), ('河南省', 'ns'), ('出现', 'v'), ('罕见', 'a'), ('持续', 'v'), ('降水', 'n'), ('此次', 'r'), ('特大', 'b'), ('暴雨', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('地铁', 'n'), ('商场', 'n'), ('此次', 'r'), ('暴雨', 'n'), ('带来', 'v'), ('居民', 'n'), ('生命', 'n'), ('经济', 'n'), ('影响', 'v'), ('巨大', 'a'), ('郑州', 'ns'), ('地处', 'v'), ('中原', 'ns'), ('万亿', 'm'), ('白酒', 'n'), ('销售', 'vn'), ('核心', 'n'), ('地带', 'n'), ('暴雨', 'n'), ('不少', 'm'), ('白酒', 'n'), ('经销商', 'n'), ('货物', 'n'), ('不少', 'm'), ('经销商', 'n'), ('货物', 'n'), ('存储', 'v'), ('地下室', 'n'), ('确保', 'v'), ('白酒', 'n'), ('变质', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('来袭', 'v'), ('经销商', 'n'), ('表示', 'v'), ('猝不及防', 'v'), ('情况', 'n'), ('几百箱', 'n'), ('人员', 'n'), ('紧急', 'ad'), ('转移', 'v'), ('没有', 'v'), ('办法', 'n'), ('转移', 'v'), ('货物', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('交通', 'n'), ('堵塞', 'vn'), ('车辆', 'n'), ('运输', 'vn'), ('业务', 'n'), ('出行', 'vn'), ('客户', 'n'), ('进货', 'v'), ('动销', 'v'), ('方面', 'n'), ('影响', 'vn'), ('停滞', 'vn'), ('导致', 'v'), ('供应链', 'n'), ('工作', 'vn'), ('节奏', 'n'), ('打乱', 'v'), ('此次', 'r'), ('暴雨', 'n'), ('牵动人心', 'i'), ('全国', 'n'), ('人民', 'n'), ('施以', 'v'), ('援手', 'n'), ('捐钱', 'v'), ('捐钱', 'n'), ('捐人', 'v'), ('捐人', 'n'), ('自然', 'n'), ('灾害', 'n'), ('面前', 'f'), ('体现', 'v'), ('中华', 'nz'), ('名族', 'n'), ('特有', 'b'), ('团结', 'vn'), ('精神', 'n'), ('加油', 'v'), ('胡辣汤', 'd'), ('加油', 'v')]</t>
+          <t>[('加油', 'v'), ('出现', 'v'), ('罕见', 'a'), ('持续', 'v'), ('降水', 'n'), ('特大', 'b'), ('暴雨', 'n'), ('交通', 'n'), ('受到', 'v'), ('严重', 'a'), ('影响', 'vn'), ('地铁', 'n'), ('商场', 'n'), ('暴雨', 'n'), ('带来', 'v'), ('居民', 'n'), ('生命', 'n'), ('经济', 'n'), ('影响', 'v'), ('巨大', 'a'), ('地处', 'v'), ('白酒', 'n'), ('销售', 'vn'), ('核心', 'n'), ('地带', 'n'), ('暴雨', 'n'), ('白酒', 'n'), ('经销商', 'n'), ('货物', 'n'), ('经销商', 'n'), ('货物', 'n'), ('存储', 'v'), ('地下室', 'n'), ('确保', 'v'), ('白酒', 'n'), ('变质', 'v'), ('特大', 'b'), ('暴雨', 'n'), ('来袭', 'v'), ('经销商', 'n'), ('表示', 'v'), ('猝不及防', 'v'), ('情况', 'n'), ('几百箱', 'n'), ('人员', 'n'), ('紧急', 'ad'), ('转移', 'v'), ('没有', 'v'), ('办法', 'n'), ('转移', 'v'), ('货物', 'n'), ('暴雨', 'n'), ('导致', 'v'), ('交通', 'n'), ('堵塞', 'vn'), ('车辆', 'n'), ('运输', 'vn'), ('业务', 'n'), ('出行', 'vn'), ('客户', 'n'), ('进货', 'v'), ('动销', 'v'), ('方面', 'n'), ('影响', 'vn'), ('停滞', 'vn'), ('导致', 'v'), ('供应链', 'n'), ('工作', 'vn'), ('节奏', 'n'), ('打乱', 'v'), ('暴雨', 'n'), ('牵动人心', 'i'), ('全国', 'n'), ('人民', 'n'), ('施以', 'v'), ('援手', 'n'), ('捐钱', 'v'), ('捐钱', 'n'), ('捐人', 'v'), ('捐人', 'n'), ('自然', 'n'), ('灾害', 'n'), ('体现', 'v'), ('名族', 'n'), ('特有', 'b'), ('团结', 'vn'), ('精神', 'n'), ('加油', 'v'), ('加油', 'v')]</t>
         </is>
       </c>
     </row>
@@ -5481,12 +5481,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[('暴雨', 'n'), ('高架', 'n'), ('停车场', 'n'), ('郑州', 'ns'), ('处罚', 'v'), ('车辆', 'n'), ('避雨', 'v'), ('高架', 'n'), ('行为', 'v'), ('洛阳', 'ns'), ('迎来', 'v'), ('新一轮', 'nz'), ('强降雨', 'nr'), ('市民', 'n'), ('未雨绸缪', 'i'), ('纷纷', 'd'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('地势', 'n'), ('较高', 'a'), ('地方', 'n'), ('涧西区', 'ns'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('高架', 'n'), ('停车场', 'n'), ('私家车', 'n'), ('百米', 'm'), ('长龙', 'ns'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'v'), ('车辆', 'n'), ('影响', 'vn'), ('城市交通', 'nt'), ('不予', 'v'), ('处罚', 'v'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('高架', 'n'), ('停车场', 'n'), ('处罚', 'v'), ('车辆', 'n'), ('避雨', 'v'), ('高架', 'n'), ('行为', 'v'), ('迎来', 'v'), ('强降雨', 'nr'), ('市民', 'n'), ('未雨绸缪', 'i'), ('开出', 'v'), ('车库', 'n'), ('地势', 'n'), ('较高', 'a'), ('地方', 'n'), ('高架', 'n'), ('停满', 'v'), ('高架', 'n'), ('停车场', 'n'), ('私家车', 'n'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'v'), ('车辆', 'n'), ('影响', 'vn'), ('不予', 'v'), ('处罚', 'v'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[('暴雨', 'n'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('郑州', 'ns'), ('处罚', 'v'), ('车辆', 'n'), ('避雨', 'n'), ('高架', 'n'), ('行为', 'n'), ('洛阳', 'ns'), ('迎来', 'v'), ('降雨', 'vn'), ('市民', 'n'), ('未雨绸缪', 'i'), ('纷纷', 'd'), ('开出', 'v'), ('地下', 's'), ('车库', 'n'), ('停到', 'v'), ('地势', 'n'), ('地方', 'n'), ('涧西区', 'n'), ('高架', 'n'), ('两侧', 'f'), ('停满', 'v'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('私家车', 'n'), ('排起', 'v'), ('长龙', 'n'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'vn'), ('车辆', 'n'), ('影响', 'v'), ('城市', 'n'), ('交通', 'n'), ('可不', 'd'), ('处罚', 'vn'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('处罚', 'v'), ('车辆', 'n'), ('避雨', 'n'), ('高架', 'n'), ('行为', 'n'), ('迎来', 'v'), ('降雨', 'vn'), ('市民', 'n'), ('未雨绸缪', 'i'), ('开出', 'v'), ('车库', 'n'), ('停到', 'v'), ('地势', 'n'), ('地方', 'n'), ('涧西区', 'n'), ('高架', 'n'), ('停满', 'v'), ('高架', 'n'), ('秒变', 'v'), ('停车场', 'n'), ('私家车', 'n'), ('排起', 'v'), ('长龙', 'n'), ('据悉', 'v'), ('路面', 'n'), ('违停', 'vn'), ('车辆', 'n'), ('影响', 'v'), ('城市', 'n'), ('交通', 'n'), ('处罚', 'vn'), ('沸点', 'n'), ('拍客', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[('东丰县', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('黄河', 'ns'), ('降水量', 'n'), ('超过', 'v'), ('毫米', 'q'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('各乡镇', 'ns'), ('强降雨', 'nr'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'v'), ('单位', 'n'), ('广大', 'a'), ('城乡居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'v'), ('驾驶人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n')]</t>
+          <t>[('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('降水量', 'n'), ('超过', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'vn'), ('未来', 't'), ('小时', 'n'), ('强降雨', 'nr'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'v'), ('单位', 'n'), ('广大', 'a'), ('城乡居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'v'), ('驾驶人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n')]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[('东丰县', 'ns'), ('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('黄河镇', 'ns'), ('降水量', 'n'), ('超过', 'v'), ('毫米', 'q'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('乡镇', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'vn'), ('单位', 'n'), ('广大', 'a'), ('城乡', 'n'), ('居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'vn'), ('驾驶', 'vn'), ('人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n')]</t>
+          <t>[('气象台', 'n'), ('发布', 'v'), ('暴雨', 'n'), ('黄色', 'n'), ('预警', 'vn'), ('信号', 'n'), ('目前', 't'), ('降水量', 'n'), ('超过', 'v'), ('出现', 'v'), ('暴雨', 'n'), ('预计', 'v'), ('未来', 't'), ('小时', 'n'), ('乡镇', 'n'), ('降雨', 'vn'), ('天气', 'n'), ('过程', 'n'), ('应急', 'vn'), ('管理局', 'n'), ('气象局', 'n'), ('联合', 'v'), ('提醒', 'v'), ('相关', 'vn'), ('单位', 'n'), ('广大', 'a'), ('城乡', 'n'), ('居民', 'n'), ('做好', 'v'), ('防范', 'v'), ('暴雨', 'n'), ('准备', 'vn'), ('驾驶', 'vn'), ('人员', 'n'), ('应当', 'v'), ('注意', 'v'), ('道路', 'n'), ('积水', 'n'), ('交通', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5591,12 +5591,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('高速', 'd'), ('东常段', 'n'), ('津市', 'ns'), ('工业区', 'n'), ('临澧', 'ns'), ('双桥', 'n'), ('收费站', 'n'), ('入口', 'ns'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('东常段', 'n'), ('工业区', 'n'), ('双桥', 'n'), ('收费站', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通管制', 'n'), ('交通管制', 'n'), ('解除', 'v'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[('路况', 'n'), ('信息', 'n'), ('二广', 'j'), ('高速', 'b'), ('东常', 'ns'), ('段津市', 'ns'), ('工业区', 'n'), ('临澧', 'v'), ('双桥坪', 'ns'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
+          <t>[('路况', 'n'), ('信息', 'n'), ('二广', 'j'), ('高速', 'b'), ('工业区', 'n'), ('临澧', 'v'), ('收费站', 'n'), ('入口', 'n'), ('暴雨', 'n'), ('实行', 'v'), ('交通', 'n'), ('管制', 'vn'), ('交通', 'n'), ('管制', 'vn'), ('解除', 'vn'), ('时间', 'n'), ('待定', 'v')]</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[('最新', 'd'), ('滨州', 'ns'), ('路段', 'n'), ('因易', 'n'), ('积水', 'n'), ('封闭', 'v'), ('注意', 'v'), ('绕行', 'v'), ('预计', 'vn'), ('台风', 'ns'), ('烟花', 'n'), ('进入', 'v'), ('滨州市', 'ns'), ('一次', 'm'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('强降雨', 'nr'), ('过程', 'n'), ('强降雨', 'nr'), ('期间', 'f'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('滨州', 'ns'), ('交警', 'j'), ('以下', 'f'), ('交通', 'n'), ('行为', 'v'), ('不予', 'v'), ('处罚', 'v'), ('从严', 'd'), ('处罚', 'v'), ('不予', 'v'), ('处罚', 'v'), ('紧急情况', 'l'), ('违反规定', 'l'), ('停车', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('期间', 'f'), ('机动车辆', 'n'), ('就近', 'd'), ('停放', 'v'), ('道路', 'n'), ('两侧', 'f'), ('台阶', 'n'), ('以上', 'f'), ('地势', 'n'), ('较高', 'a'), ('非机动车', 'l'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('所有', 'b'), ('道路', 'n'), ('两侧', 'f'), ('停放', 'v'), ('车辆', 'n'), ('必须', 'd'), ('车窗', 'n'), ('显要位置', 'n'), ('放置', 'v'), ('联系', 'n'), ('电话号码', 'n'), ('接到', 'v'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('挪车', 'ns'), ('通知', 'v'), ('通知', 'v'), ('指示', 'v'), ('尽快', 'd'), ('车辆', 'n'), ('挪移', 'v'), ('违法', 'vn'), ('停车', 'v'), ('录入', 'v'), ('交通', 'n'), ('违法', 'vn'), ('紧急情况', 'l'), ('按规定', 'l'), ('车道', 'n'), ('行驶', 'v'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('无法', 'n'), ('规定', 'n'), ('车道', 'n'), ('通行', 'j'), ('保证', 'v'), ('安全', 'an'), ('情况', 'n'), ('借用', 'v'), ('车道', 'n'), ('行驶', 'v'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('紧急情况', 'l'), ('短距离', 'n'), ('逆行', 'v'), ('低洼', 'a'), ('道路', 'n'), ('桥梁', 'n'), ('涵洞', 'n'), ('严重', 'a'), ('积水', 'n'), ('前方', 'f'), ('道路', 'n'), ('无法', 'n'), ('通行', 'j'), ('确保安全', 'ns'), ('情况', 'n'), ('短距离', 'n'), ('逆行', 'v'), ('第一个', 'm'), ('开口', 'n'), ('返回', 'v'), ('正常', 'd'), ('车道', 'n'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('紧急', 'a'), ('避让', 'v'), ('救援', 'vn'), ('特种', 'n'), ('车辆', 'n'), ('机动车', 'n'), ('驾驶员', 'n'), ('主动', 'b'), ('避让', 'v'), ('救险', 'n'), ('救灾', 'vn'), ('医疗', 'n'), ('救护', 'v'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'n'), ('车辆', 'n'), ('造成', 'v'), ('交通', 'n'), ('违法行为', 'l'), ('予以', 'v'), ('处罚', 'v'), ('从严', 'd'), ('处罚', 'v'), ('强降雨', 'nr'), ('天气', 'n'), ('期间', 'f'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('滨州', 'ns'), ('交警', 'j'), ('以下', 'f'), ('交通', 'n'), ('行为', 'v'), ('予以', 'v'), ('从严', 'd'), ('处罚', 'v'), ('服从', 'v'), ('交警', 'j'), ('指挥', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('积水', 'n'), ('严重', 'a'), ('路段', 'n'), ('通行', 'j'), ('车辆', 'n'), ('服从', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('现场', 'n'), ('指挥', 'v'), ('从严', 'd'), ('处罚', 'v'), ('积极', 'ad'), ('避让', 'v'), ('抢险救灾', 'l'), ('车辆', 'n'), ('积极', 'ad'), ('避让', 'v'), ('医疗', 'n'), ('救护', 'v'), ('抢险', 'v'), ('救援', 'vn'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'n'), ('车辆', 'n'), ('从严', 'd'), ('处罚', 'v'), ('堵塞', 'v'), ('抢险', 'v'), ('救援', 'vn'), ('通道', 'v'), ('紧急情况', 'l'), ('急救站', 'n'), ('加油站', 'nt'), ('消防栓', 'n'), ('消防队', 'n'), ('门前', 's'), ('距离', 'n'), ('上述', 'b'), ('地点', 'n'), ('以内', 'f'), ('路段', 'n'), ('交叉路口', 'n'), ('铁路', 'n'), ('道口', 'n'), ('弯路', 'n'), ('宽度', 'n'), ('不足', 'a'), ('窄路', 'n'), ('桥梁', 'n'), ('陡坡', 'ns'), ('隧道', 'n'), ('距离', 'n'), ('上述', 'b'), ('地点', 'n'), ('以内', 'f'), ('路段', 'n'), ('长时间', 'l'), ('停放', 'v'), ('车辆', 'n'), ('从严', 'd'), ('处罚', 'v'), ('野蛮', 'a'), ('驾驶', 'v'), ('机动车', 'n'), ('积水', 'n'), ('路段', 'n'), ('降低', 'v'), ('车速', 'n'), ('造成', 'v'), ('行人', 'n'), ('非机动车', 'l'), ('严重', 'a'), ('溅水', 'v'), ('从严', 'd'), ('处罚', 'v')]</t>
+          <t>[('路段', 'n'), ('因易', 'n'), ('积水', 'n'), ('封闭', 'v'), ('注意', 'v'), ('绕行', 'v'), ('预计', 'vn'), ('烟花', 'n'), ('进入', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'i'), ('强降雨', 'nr'), ('过程', 'n'), ('强降雨', 'nr'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('交警', 'j'), ('交通', 'n'), ('行为', 'v'), ('不予', 'v'), ('处罚', 'v'), ('处罚', 'v'), ('不予', 'v'), ('处罚', 'v'), ('紧急情况', 'l'), ('违反规定', 'l'), ('停车', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('机动车辆', 'n'), ('停放', 'v'), ('道路', 'n'), ('台阶', 'n'), ('地势', 'n'), ('较高', 'a'), ('非机动车', 'l'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('所有', 'b'), ('道路', 'n'), ('停放', 'v'), ('车辆', 'n'), ('车窗', 'n'), ('显要位置', 'n'), ('放置', 'v'), ('联系', 'n'), ('电话号码', 'n'), ('接到', 'v'), ('政府', 'n'), ('相关', 'v'), ('部门', 'n'), ('通知', 'v'), ('通知', 'v'), ('指示', 'v'), ('车辆', 'n'), ('挪移', 'v'), ('违法', 'vn'), ('停车', 'v'), ('录入', 'v'), ('交通', 'n'), ('违法', 'vn'), ('紧急情况', 'l'), ('按规定', 'l'), ('车道', 'n'), ('行驶', 'v'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('无法', 'n'), ('规定', 'n'), ('车道', 'n'), ('通行', 'j'), ('保证', 'v'), ('安全', 'an'), ('情况', 'n'), ('借用', 'v'), ('车道', 'n'), ('行驶', 'v'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('紧急情况', 'l'), ('短距离', 'n'), ('逆行', 'v'), ('低洼', 'a'), ('道路', 'n'), ('桥梁', 'n'), ('涵洞', 'n'), ('严重', 'a'), ('积水', 'n'), ('道路', 'n'), ('无法', 'n'), ('通行', 'j'), ('情况', 'n'), ('短距离', 'n'), ('逆行', 'v'), ('开口', 'n'), ('返回', 'v'), ('车道', 'n'), ('影响', 'vn'), ('车辆通行', 'n'), ('引发', 'v'), ('交通事故', 'n'), ('予以', 'v'), ('处罚', 'v'), ('紧急', 'a'), ('避让', 'v'), ('救援', 'vn'), ('特种', 'n'), ('车辆', 'n'), ('机动车', 'n'), ('驾驶员', 'n'), ('主动', 'b'), ('避让', 'v'), ('救险', 'n'), ('救灾', 'vn'), ('医疗', 'n'), ('救护', 'v'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'n'), ('车辆', 'n'), ('造成', 'v'), ('交通', 'n'), ('违法行为', 'l'), ('予以', 'v'), ('处罚', 'v'), ('处罚', 'v'), ('强降雨', 'nr'), ('天气', 'n'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('交警', 'j'), ('交通', 'n'), ('行为', 'v'), ('予以', 'v'), ('处罚', 'v'), ('服从', 'v'), ('交警', 'j'), ('指挥', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('严重', 'a'), ('路段', 'n'), ('通行', 'j'), ('车辆', 'n'), ('服从', 'v'), ('执勤', 'vn'), ('交警', 'j'), ('现场', 'n'), ('指挥', 'v'), ('处罚', 'v'), ('积极', 'ad'), ('避让', 'v'), ('抢险救灾', 'l'), ('车辆', 'n'), ('积极', 'ad'), ('避让', 'v'), ('医疗', 'n'), ('救护', 'v'), ('抢险', 'v'), ('救援', 'vn'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'n'), ('车辆', 'n'), ('处罚', 'v'), ('堵塞', 'v'), ('抢险', 'v'), ('救援', 'vn'), ('通道', 'v'), ('紧急情况', 'l'), ('急救站', 'n'), ('消防栓', 'n'), ('消防队', 'n'), ('距离', 'n'), ('上述', 'b'), ('地点', 'n'), ('路段', 'n'), ('交叉路口', 'n'), ('铁路', 'n'), ('道口', 'n'), ('弯路', 'n'), ('宽度', 'n'), ('不足', 'a'), ('窄路', 'n'), ('桥梁', 'n'), ('隧道', 'n'), ('距离', 'n'), ('上述', 'b'), ('地点', 'n'), ('路段', 'n'), ('长时间', 'l'), ('停放', 'v'), ('车辆', 'n'), ('处罚', 'v'), ('野蛮', 'a'), ('驾驶', 'v'), ('机动车', 'n'), ('积水', 'n'), ('路段', 'n'), ('降低', 'v'), ('车速', 'n'), ('造成', 'v'), ('行人', 'n'), ('非机动车', 'l'), ('严重', 'a'), ('溅水', 'v'), ('处罚', 'v')]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[('滨州', 'ns'), ('路段', 'n'), ('积水', 'n'), ('封闭', 'v'), ('注意', 'v'), ('绕行', 'v'), ('预计', 'v'), ('台风', 'n'), ('烟花', 'n'), ('进入', 'v'), ('滨州市', 'ns'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('降雨', 'vn'), ('过程', 'n'), ('降雨', 'vn'), ('期间', 'f'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('滨州', 'ns'), ('交警', 'n'), ('以下', 'f'), ('交通', 'n'), ('行为', 'n'), ('不予', 'v'), ('处罚', 'v'), ('从严', 'vd'), ('处罚', 'v'), ('不予', 'v'), ('处罚', 'v'), ('紧急', 'a'), ('情况', 'n'), ('违反', 'v'), ('规定', 'n'), ('停车', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('期间', 'f'), ('机动', 'b'), ('车辆', 'n'), ('就近', 'd'), ('停放', 'v'), ('道路', 'n'), ('两侧', 'f'), ('台阶', 'n'), ('以上', 'f'), ('地势', 'n'), ('非机动车道', 'n'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('所有', 'b'), ('道路', 'n'), ('两侧', 'f'), ('停放', 'v'), ('车辆', 'n'), ('必须', 'd'), ('前车', 'n'), ('窗显', 'v'), ('位置', 'n'), ('放置', 'v'), ('联系', 'vn'), ('电话', 'n'), ('号码', 'n'), ('接到', 'v'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('挪车', 'v'), ('通知', 'n'), ('通知', 'n'), ('指示', 'n'), ('尽快', 'd'), ('车辆', 'n'), ('挪移', 'v'), ('违法', 'v'), ('停车', 'v'), ('录入', 'v'), ('交通', 'n'), ('违法', 'vn'), ('紧急', 'a'), ('情况', 'n'), ('规定', 'n'), ('车道', 'n'), ('行驶', 'v'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('无法', 'v'), ('规定', 'n'), ('车道', 'n'), ('通行', 'v'), ('保证', 'v'), ('安全', 'an'), ('情况', 'n'), ('借用', 'v'), ('车道', 'n'), ('行驶', 'v'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('紧急', 'a'), ('情况', 'n'), ('距离', 'n'), ('逆行', 'v'), ('低洼', 'a'), ('道路', 'n'), ('桥梁', 'n'), ('涵洞', 'n'), ('严重', 'a'), ('积水', 'n'), ('前方', 's'), ('道路', 'n'), ('无法', 'v'), ('通行', 'v'), ('确保', 'v'), ('安全', 'an'), ('情况', 'n'), ('距离', 'n'), ('逆行', 'v'), ('第一', 'm'), ('开口', 'v'), ('返回', 'v'), ('正常', 'a'), ('车道', 'n'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('紧急', 'ad'), ('避让', 'v'), ('救援', 'vn'), ('特种', 'b'), ('车辆', 'n'), ('机动车', 'n'), ('驾驶员', 'n'), ('主动', 'ad'), ('避让', 'v'), ('救险', 'v'), ('救灾', 'vn'), ('医疗', 'vn'), ('救护', 'vn'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'b'), ('车辆', 'n'), ('造成', 'v'), ('交通', 'n'), ('违法', 'vn'), ('行为', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('从严', 'vd'), ('处罚', 'v'), ('强降雨', 'v'), ('天气', 'n'), ('期间', 'f'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('滨州', 'ns'), ('交警', 'n'), ('以下', 'f'), ('交通', 'n'), ('行为', 'n'), ('予以', 'vx'), ('从严', 'vd'), ('处罚', 'v'), ('服从', 'v'), ('交警', 'n'), ('指挥', 'v'), ('暴雨', 'n'), ('期间', 'f'), ('积水', 'n'), ('严重', 'a'), ('路段', 'n'), ('通行', 'v'), ('车辆', 'n'), ('服从', 'v'), ('执勤', 'vn'), ('交警', 'n'), ('现场', 's'), ('指挥', 'v'), ('从严', 'vd'), ('处罚', 'v'), ('积极', 'a'), ('避让', 'vn'), ('抢险', 'vn'), ('救灾', 'vn'), ('车辆', 'n'), ('积极', 'a'), ('避让', 'vn'), ('医疗', 'vn'), ('救护', 'vn'), ('抢险', 'v'), ('救援', 'v'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'b'), ('车辆', 'n'), ('从严', 'vd'), ('处罚', 'v'), ('堵塞', 'v'), ('抢险', 'vn'), ('救援', 'vn'), ('通道', 'n'), ('紧急', 'a'), ('情况', 'n'), ('急救站', 'n'), ('加油站', 'n'), ('消防栓', 'n'), ('消防队', 'n'), ('门前', 's'), ('距离', 'p'), ('上述', 'b'), ('点米', 'q'), ('以内', 'f'), ('路段', 'n'), ('交叉路口', 'n'), ('铁路', 'n'), ('道口', 'n'), ('急弯路', 'n'), ('宽度', 'n'), ('足米', 'a'), ('窄路', 'n'), ('桥梁', 'n'), ('陡坡', 'n'), ('隧道', 'n'), ('距离', 'p'), ('上述', 'b'), ('点米', 'q'), ('以内', 'f'), ('路段', 'n'), ('长时间', 'n'), ('停放', 'v'), ('车辆', 'n'), ('从严', 'vd'), ('处罚', 'v'), ('野蛮', 'nr'), ('驾驶', 'v'), ('机动车', 'n'), ('积水', 'n'), ('路段', 'n'), ('降低', 'v'), ('车速', 'n'), ('造成', 'v'), ('行人', 'n'), ('非机动车', 'n'), ('严重', 'ad'), ('溅水', 'v'), ('从严', 'vd'), ('处罚', 'v')]</t>
+          <t>[('路段', 'n'), ('积水', 'n'), ('封闭', 'v'), ('注意', 'v'), ('绕行', 'v'), ('预计', 'v'), ('台风', 'n'), ('烟花', 'n'), ('进入', 'v'), ('暴雨', 'n'), ('局部', 'n'), ('大暴雨', 'n'), ('降雨', 'vn'), ('过程', 'n'), ('降雨', 'vn'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('交警', 'n'), ('交通', 'n'), ('行为', 'n'), ('不予', 'v'), ('处罚', 'v'), ('从严', 'vd'), ('处罚', 'v'), ('不予', 'v'), ('处罚', 'v'), ('紧急', 'a'), ('情况', 'n'), ('违反', 'v'), ('规定', 'n'), ('停车', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('机动', 'b'), ('车辆', 'n'), ('停放', 'v'), ('道路', 'n'), ('台阶', 'n'), ('地势', 'n'), ('非机动车道', 'n'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('所有', 'b'), ('道路', 'n'), ('停放', 'v'), ('车辆', 'n'), ('前车', 'n'), ('窗显', 'v'), ('位置', 'n'), ('放置', 'v'), ('联系', 'vn'), ('电话', 'n'), ('号码', 'n'), ('接到', 'v'), ('政府', 'n'), ('相关', 'vn'), ('部门', 'n'), ('挪车', 'v'), ('通知', 'n'), ('通知', 'n'), ('指示', 'n'), ('车辆', 'n'), ('挪移', 'v'), ('违法', 'v'), ('停车', 'v'), ('录入', 'v'), ('交通', 'n'), ('违法', 'vn'), ('紧急', 'a'), ('情况', 'n'), ('规定', 'n'), ('车道', 'n'), ('行驶', 'v'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('无法', 'v'), ('规定', 'n'), ('车道', 'n'), ('通行', 'v'), ('保证', 'v'), ('安全', 'an'), ('情况', 'n'), ('借用', 'v'), ('车道', 'n'), ('行驶', 'v'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('紧急', 'a'), ('情况', 'n'), ('距离', 'n'), ('逆行', 'v'), ('低洼', 'a'), ('道路', 'n'), ('桥梁', 'n'), ('涵洞', 'n'), ('严重', 'a'), ('积水', 'n'), ('道路', 'n'), ('无法', 'v'), ('通行', 'v'), ('确保', 'v'), ('安全', 'an'), ('情况', 'n'), ('距离', 'n'), ('逆行', 'v'), ('开口', 'v'), ('返回', 'v'), ('正常', 'a'), ('车道', 'n'), ('影响', 'v'), ('车辆', 'n'), ('通行', 'v'), ('引发', 'v'), ('交通', 'n'), ('事故', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('紧急', 'ad'), ('避让', 'v'), ('救援', 'vn'), ('特种', 'b'), ('车辆', 'n'), ('机动车', 'n'), ('驾驶员', 'n'), ('主动', 'ad'), ('避让', 'v'), ('救险', 'v'), ('救灾', 'vn'), ('医疗', 'vn'), ('救护', 'vn'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'b'), ('车辆', 'n'), ('造成', 'v'), ('交通', 'n'), ('违法', 'vn'), ('行为', 'n'), ('予以', 'vx'), ('处罚', 'vn'), ('从严', 'vd'), ('处罚', 'v'), ('强降雨', 'v'), ('天气', 'n'), ('道路', 'n'), ('严重', 'a'), ('积水', 'n'), ('消退', 'v'), ('交警', 'n'), ('交通', 'n'), ('行为', 'n'), ('予以', 'vx'), ('从严', 'vd'), ('处罚', 'v'), ('服从', 'v'), ('交警', 'n'), ('指挥', 'v'), ('暴雨', 'n'), ('积水', 'n'), ('严重', 'a'), ('路段', 'n'), ('通行', 'v'), ('车辆', 'n'), ('服从', 'v'), ('执勤', 'vn'), ('交警', 'n'), ('指挥', 'v'), ('从严', 'vd'), ('处罚', 'v'), ('积极', 'a'), ('避让', 'vn'), ('抢险', 'vn'), ('救灾', 'vn'), ('车辆', 'n'), ('积极', 'a'), ('避让', 'vn'), ('医疗', 'vn'), ('救护', 'vn'), ('抢险', 'v'), ('救援', 'v'), ('紧急', 'a'), ('警情', 'n'), ('特种', 'b'), ('车辆', 'n'), ('从严', 'vd'), ('处罚', 'v'), ('堵塞', 'v'), ('抢险', 'vn'), ('救援', 'vn'), ('通道', 'n'), ('紧急', 'a'), ('情况', 'n'), ('急救站', 'n'), ('加油站', 'n'), ('消防栓', 'n'), ('消防队', 'n'), ('上述', 'b'), ('路段', 'n'), ('交叉路口', 'n'), ('铁路', 'n'), ('道口', 'n'), ('急弯路', 'n'), ('宽度', 'n'), ('足米', 'a'), ('窄路', 'n'), ('桥梁', 'n'), ('陡坡', 'n'), ('隧道', 'n'), ('上述', 'b'), ('路段', 'n'), ('长时间', 'n'), ('停放', 'v'), ('车辆', 'n'), ('从严', 'vd'), ('处罚', 'v'), ('野蛮', 'nr'), ('驾驶', 'v'), ('机动车', 'n'), ('积水', 'n'), ('路段', 'n'), ('降低', 'v'), ('车速', 'n'), ('造成', 'v'), ('行人', 'n'), ('非机动车', 'n'), ('严重', 'ad'), ('溅水', 'v'), ('从严', 'vd'), ('处罚', 'v')]</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>[('经历', 'n'), ('暴雨', 'n'), ('郑州', 'ns'), ('道路', 'n'), ('积水', 'n'), ('退去', 'v'), ('交通', 'n'), ('逐步', 'd'), ('恢复正常', 'b')]</t>
+          <t>[('经历', 'n'), ('暴雨', 'n'), ('道路', 'n'), ('积水', 'n'), ('退去', 'v'), ('交通', 'n'), ('恢复正常', 'b')]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[('经历', 'v'), ('暴雨', 'n'), ('郑州', 'ns'), ('道路', 'n'), ('积水', 'n'), ('退去', 'v'), ('交通', 'n'), ('逐步', 'd'), ('恢复', 'v'), ('正常', 'a')]</t>
+          <t>[('经历', 'v'), ('暴雨', 'n'), ('道路', 'n'), ('积水', 'n'), ('退去', 'v'), ('交通', 'n'), ('恢复', 'v'), ('正常', 'a')]</t>
         </is>
       </c>
     </row>
@@ -5756,12 +5756,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[('重庆', 'ns'), ('暴雨', 'n'), ('致敬', 'v'), ('暴雨', 'n'), ('行者', 'n'), ('清晨', 't'), ('重庆', 'ns'), ('主城', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('两江', 'ns'), ('新区', 'ns'), ('部分', 'n'), ('低洼', 'a'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('保障', 'v'), ('上班', 'v'), ('高峰', 'nr'), ('期间', 'f'), ('群众', 'n'), ('平安', 'a'), ('出行', 'v'), ('两江', 'ns'), ('新区', 'ns'), ('交巡警', 'j'), ('闻警而动', 'l'), ('快速反应', 'n'), ('全力', 'n'), ('投入', 'v'), ('辖区', 'n'), ('道路交通', 'nz'), ('保畅', 'a'), ('工作', 'vn'), ('保障', 'v'), ('人民', 'n'), ('群众', 'n'), ('安全', 'an'), ('出行', 'v'), ('截至', 'v'), ('上午', 't'), ('辖区', 'n'), ('道路交通', 'nz'), ('基本', 'n'), ('恢复', 'v'), ('风里雨', 'n'), ('暴雨', 'n'), ('逆行', 'v'), ('身影', 'n'), ('重庆', 'ns'), ('商报', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('致敬', 'v'), ('暴雨', 'n'), ('行者', 'n'), ('清晨', 't'), ('主城', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('部分', 'n'), ('低洼', 'a'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('保障', 'v'), ('上班', 'v'), ('高峰', 'nr'), ('群众', 'n'), ('平安', 'a'), ('出行', 'v'), ('交巡警', 'j'), ('闻警而动', 'l'), ('快速反应', 'n'), ('全力', 'n'), ('投入', 'v'), ('辖区', 'n'), ('保畅', 'a'), ('工作', 'vn'), ('保障', 'v'), ('人民', 'n'), ('群众', 'n'), ('安全', 'an'), ('出行', 'v'), ('截至', 'v'), ('上午', 't'), ('辖区', 'n'), ('基本', 'n'), ('恢复', 'v'), ('风里雨', 'n'), ('暴雨', 'n'), ('逆行', 'v'), ('身影', 'n'), ('商报', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[('重庆', 'ns'), ('暴雨', 'n'), ('致敬', 'v'), ('暴雨', 'n'), ('逆行者', 'n'), ('清晨', 't'), ('重庆', 'ns'), ('主城', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('两江', 'ns'), ('新区', 'n'), ('部分', 'n'), ('低洼', 'a'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('保障', 'v'), ('上班', 'v'), ('早高峰', 'n'), ('期间', 'f'), ('群众', 'n'), ('平安', 'ad'), ('出行', 'v'), ('两江', 'ns'), ('新区', 'n'), ('交巡警', 'v'), ('闻警', 'v'), ('而动', 'v'), ('快速', 'd'), ('反应', 'v'), ('全力', 'd'), ('投入', 'v'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('保畅', 'a'), ('工作', 'vn'), ('保障', 'v'), ('人民', 'n'), ('群众', 'n'), ('安全', 'ad'), ('出行', 'v'), ('截至', 'v'), ('上午', 't'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('基本', 'ad'), ('恢复', 'v'), ('风里', 'n'), ('暴雨', 'n'), ('逆行', 'v'), ('身影', 'n'), ('重庆', 'ns'), ('商报', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴雨', 'n'), ('致敬', 'v'), ('暴雨', 'n'), ('逆行者', 'n'), ('清晨', 't'), ('主城', 'n'), ('突降', 'v'), ('暴雨', 'n'), ('新区', 'n'), ('部分', 'n'), ('低洼', 'a'), ('路段', 'n'), ('出现', 'v'), ('积水', 'n'), ('保障', 'v'), ('上班', 'v'), ('早高峰', 'n'), ('群众', 'n'), ('平安', 'ad'), ('出行', 'v'), ('新区', 'n'), ('交巡警', 'v'), ('闻警', 'v'), ('而动', 'v'), ('反应', 'v'), ('投入', 'v'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('保畅', 'a'), ('工作', 'vn'), ('保障', 'v'), ('人民', 'n'), ('群众', 'n'), ('安全', 'ad'), ('出行', 'v'), ('截至', 'v'), ('上午', 't'), ('辖区', 'n'), ('道路', 'n'), ('交通', 'n'), ('基本', 'ad'), ('恢复', 'v'), ('风里', 'n'), ('暴雨', 'n'), ('逆行', 'v'), ('身影', 'n'), ('商报', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5776,47 +5776,47 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>#河南高速路况#截至:，目前省内高速通行情况：.因降雨，除信阳、南阳、商丘、许昌、驻马店、周口外，全省高速公路禁止货车上站。.因降雨，禁止七座（含七座）以上客车上站的路段有：济洛高速：小浪底北站。商南高速：独山站-小史店站、四通站-商水站濮商高速：全线.因降雨，禁止所有车辆上站的路段有：京港澳高速：临颍站-漯河南站、新乡站-安阳北站盐洛高速：君召站-宣化站日兰高速：全线兰南高速：二郎庙站—尉氏站商登高速：古城县衙站-园博园站、岗李站-杞县南站安罗高速：官渡站-鄢陵彭店站郑民高速：郑庵站-杞县站菏宝高速：全线大广高速：南乐站—通许东站郑云高速：全线许广高速：襄城站-舞钢南站；连霍高速：新安西站-荥阳站、开封东站—兰考站豫灵站-义马站（向东方向）郑焦晋高速：武陟站-焦作站焦桐高速：焦作西南站-汝州东站；台辉高速：全线德上高速：范县东站南林高速：全线兰南高速：平顶山站—旧县站郑栾高速：侯寨站-新郑西站、郏县站-栾川二广高速：寄料站—下汤西站商南高速：杨庄站-尹集站安阳西北绕城：全线宁洛高速：温泉站—叶县北站西南绕城：全线郑少高速：全线.因降雨，禁止危险品车辆上站的路段有：沪陕高速：西坪站—唐河东站、桐柏毛集站—西九华山站内邓高速：全线二广高速：南召站—构林站兰南高速：方城站—双铺站许广高速：桐柏朱庄站—桐柏东站渠口高速：彭桥站京港澳高速：长葛站-许昌东区站郑栾高速：长葛西站—禹州南站盐洛高速：苌庄站—鄢陵南站.山西隧道积水，济阳高速禁止车辆出省进省.因雾禁止车辆上站的路段有：菏宝高速邵原站-济源南站连霍高速：观音堂站—义马站济洛高速：孟津西站，请提前绕行，省内其他高速公路正常通行。【河南高速交警提示】在河南高速公路上遇到紧急情况，请拨打河南高速交警报警电话-或高速服务电话求助。#河南暴雨救援##文明交通·安全伴您行##平安中原·高速交警#@平安濮阳@河南高速公安</t>
+          <t>#河南高速路况#截至:，目前省内高速通行情况：.因降雨，除信阳、南阳、商丘、许昌、驻马店、周口外，全省高速公路禁止货车上站。.因降雨，禁止七座（含七座）以上客车上站的路段有：济洛高速：小浪底北站。商南高速：独山站-小史店站、四通站-商水站濮商高速：全线.因降雨，禁止所有车辆上站的路段有：京港澳高速：临颍站-漯河南站、新乡站-安阳北站盐洛高速：君召站-宣化站日兰高速：全线兰南高速：二郎庙站—尉氏站商登高速：古城县衙站-园博园站、岗李站-杞县南站安罗高速：官渡站-鄢陵彭店站郑民高速：郑庵站-杞县站菏宝高速：全线大广高速：南乐站—通许东站郑云高速：全线许广高速：襄城站-舞钢南站；连霍高速：新安西站-荥阳站、开封东站—兰考站豫灵站-义马站（向东方向）郑焦晋高速：武陟站-焦作站焦桐高速：焦作西南站-汝州东站；台辉高速：全线德上高速：范县东站南林高速：全线兰南高速：平顶山站—旧县站郑栾高速：侯寨站-新郑西站、郏县站-栾川二广高速：寄料站—下汤西站商南高速：杨庄站-尹集站安阳西北绕城：全线宁洛高速：温泉站—叶县北站西南绕城：全线郑少高速：全线.因降雨，禁止危险品车辆上站的路段有：沪陕高速：西坪站—唐河东站、桐柏毛集站—西九华山站内邓高速：全线二广高速：南召站—构林站兰南高速：方城站—双铺站许广高速：桐柏朱庄站—桐柏东站渠口高速：彭桥站京港澳高速：长葛站-许昌东区站郑栾高速：长葛西站—禹州南站盐洛高速：苌庄站—鄢陵南站.山西隧道积水，济阳高速禁止车辆出省进省.因雾禁止车辆上站的路段有：菏宝高速邵原站-济源南站连霍高速：观音堂站—义马站济洛高速：孟津西站，请提前绕行，省内其他高速公路正常通行。【河南高速交警提示】在河南高速公路上遇到紧急情况，请拨打河南高速交警报警电话-或高速服务电话求助。#河南暴雨救援##文明交通·安全伴您行##平安中原·高速交警#</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['#', '河南', '高速', '路况', '#', '截至', ':', '，', '目前', '省内', '高速', '通行', '情况', '：', '.', '因', '降雨', '，', '除', '信阳', '、', '南阳', '、', '商丘', '、', '许昌', '、', '驻马店', '、', '周口', '外', '，', '全省', '高速公路', '禁止', '货车', '上', '站', '。', '.', '因', '降雨', '，', '禁止', '七座', '（', '含', '七座', '）', '以上', '客车', '上', '站', '的', '路段', '有', '：', '济洛', '高速', '：', '小浪底', '北站', '。', '商南', '高速', '：', '独山', '站', '-', '小史', '店站', '、', '四通', '站', '-', '商水', '站', '濮商', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '所有', '车辆', '上', '站', '的', '路段', '有', '：', '京', '港澳', '高速', '：', '临颍', '站', '-', '漯河', '南站', '、', '新乡', '站', '-', '安阳', '北站', '盐洛', '高速', '：', '君召站', '-', '宣化', '站', '日兰', '高速', '：', '全线', '兰南', '高速', '：', '二郎庙', '站', '—', '尉氏', '站', '商登', '高速', '：', '古城', '县衙', '站', '-', '园', '博园', '站', '、', '岗', '李站', '-', '杞县', '南站', '安罗', '高速', '：', '官渡', '站', '-', '鄢陵', '彭店', '站', '郑民', '高速', '：', '郑庵', '站', '-', '杞县', '站', '菏宝', '高速', '：', '全线', '大广', '高速', '：', '南乐', '站', '—', '通许', '东站', '郑云', '高速', '：', '全线', '许广', '高速', '：', '襄城', '站', '-', '舞钢', '南站', '；', '连霍', '高速', '：', '新安', '西站', '-', '荥阳', '站', '、', '开封', '东站', '—', '兰考', '站豫灵', '站', '-', '义马', '站', '（', '向东', '方向', '）', '郑焦晋', '高速', '：', '武陟', '站', '-', '焦作', '站', '焦桐', '高速', '：', '焦作', '西南', '站', '-', '汝州', '东站', '；', '台辉', '高速', '：', '全线', '德上', '高速', '：', '范县', '东站', '南林', '高速', '：', '全线', '兰南', '高速', '：', '平顶山', '站', '—', '旧县', '站', '郑栾', '高速', '：', '侯寨', '站', '-', '新郑', '西站', '、', '郏县', '站', '-', '栾川', '二广', '高速', '：', '寄料', '站', '—', '下', '汤', '西站', '商南', '高速', '：', '杨庄', '站', '-', '尹集', '站', '安阳', '西北', '绕城', '：', '全线', '宁洛', '高速', '：', '温泉', '站', '—', '叶县', '北站', '西南', '绕城', '：', '全线', '郑少', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '危险品', '车辆', '上', '站', '的', '路段', '有', '：', '沪', '陕', '高速', '：', '西坪', '站', '—', '唐河', '东站', '、', '桐柏', '毛集', '站', '—', '西', '九华山', '站', '内', '邓', '高速', '：', '全线', '二广', '高速', '：', '南召', '站', '—', '构林', '站兰南', '高速', '：', '方城', '站', '—', '双铺', '站', '许广', '高速', '：', '桐柏', '朱庄', '站', '—', '桐柏', '东站', '渠口', '高速', '：', '彭桥', '站京', '港澳', '高速', '：', '长葛', '站', '-', '许昌', '东区', '站', '郑栾', '高速', '：', '长葛', '西站', '—', '禹州', '南站', '盐洛', '高速', '：', '苌', '庄站', '—', '鄢陵', '南站', '.', '山西', '隧道', '积水', '，', '济阳', '高速', '禁止', '车辆', '出省', '进省', '.', '因雾', '禁止', '车辆', '上', '站', '的', '路段', '有', '：', '菏宝', '高速', '邵原', '站', '-', '济源', '南站', '连霍', '高速', '：', '观音堂', '站', '—', '义马', '站济洛', '高速', '：', '孟津', '西站', '，', '请', '提前', '绕行', '，', '省内', '其他', '高速公路', '正常', '通行', '。', '【', '河南', '高速', '交警', '提示', '】', '在', '河南', '高速公路', '上', '遇到', '紧急情况', '，', '请', '拨打', '河南', '高速', '交警', '报警', '电话', '-', '或', '高速', '服务', '电话', '求助', '。', '#', '河南', '暴雨', '救援', '##', '文明', '交通', '·', '安全', '伴', '您', '行', '##', '平安', '中原', '·', '高速', '交警', '#', '@', '平安', '濮阳', '@', '河南', '高速', '公安']</t>
+          <t>['#', '河南', '高速', '路况', '#', '截至', ':', '，', '目前', '省内', '高速', '通行', '情况', '：', '.', '因', '降雨', '，', '除', '信阳', '、', '南阳', '、', '商丘', '、', '许昌', '、', '驻马店', '、', '周口', '外', '，', '全省', '高速公路', '禁止', '货车', '上', '站', '。', '.', '因', '降雨', '，', '禁止', '七座', '（', '含', '七座', '）', '以上', '客车', '上', '站', '的', '路段', '有', '：', '济洛', '高速', '：', '小浪底', '北站', '。', '商南', '高速', '：', '独山', '站', '-', '小史', '店站', '、', '四通', '站', '-', '商水', '站', '濮商', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '所有', '车辆', '上', '站', '的', '路段', '有', '：', '京', '港澳', '高速', '：', '临颍', '站', '-', '漯河', '南站', '、', '新乡', '站', '-', '安阳', '北站', '盐洛', '高速', '：', '君召站', '-', '宣化', '站', '日兰', '高速', '：', '全线', '兰南', '高速', '：', '二郎庙', '站', '—', '尉氏', '站', '商登', '高速', '：', '古城', '县衙', '站', '-', '园', '博园', '站', '、', '岗', '李站', '-', '杞县', '南站', '安罗', '高速', '：', '官渡', '站', '-', '鄢陵', '彭店', '站', '郑民', '高速', '：', '郑庵', '站', '-', '杞县', '站', '菏宝', '高速', '：', '全线', '大广', '高速', '：', '南乐', '站', '—', '通许', '东站', '郑云', '高速', '：', '全线', '许广', '高速', '：', '襄城', '站', '-', '舞钢', '南站', '；', '连霍', '高速', '：', '新安', '西站', '-', '荥阳', '站', '、', '开封', '东站', '—', '兰考', '站豫灵', '站', '-', '义马', '站', '（', '向东', '方向', '）', '郑焦晋', '高速', '：', '武陟', '站', '-', '焦作', '站', '焦桐', '高速', '：', '焦作', '西南', '站', '-', '汝州', '东站', '；', '台辉', '高速', '：', '全线', '德上', '高速', '：', '范县', '东站', '南林', '高速', '：', '全线', '兰南', '高速', '：', '平顶山', '站', '—', '旧县', '站', '郑栾', '高速', '：', '侯寨', '站', '-', '新郑', '西站', '、', '郏县', '站', '-', '栾川', '二广', '高速', '：', '寄料', '站', '—', '下', '汤', '西站', '商南', '高速', '：', '杨庄', '站', '-', '尹集', '站', '安阳', '西北', '绕城', '：', '全线', '宁洛', '高速', '：', '温泉', '站', '—', '叶县', '北站', '西南', '绕城', '：', '全线', '郑少', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '危险品', '车辆', '上', '站', '的', '路段', '有', '：', '沪', '陕', '高速', '：', '西坪', '站', '—', '唐河', '东站', '、', '桐柏', '毛集', '站', '—', '西', '九华山', '站', '内', '邓', '高速', '：', '全线', '二广', '高速', '：', '南召', '站', '—', '构林', '站兰南', '高速', '：', '方城', '站', '—', '双铺', '站', '许广', '高速', '：', '桐柏', '朱庄', '站', '—', '桐柏', '东站', '渠口', '高速', '：', '彭桥', '站京', '港澳', '高速', '：', '长葛', '站', '-', '许昌', '东区', '站', '郑栾', '高速', '：', '长葛', '西站', '—', '禹州', '南站', '盐洛', '高速', '：', '苌', '庄站', '—', '鄢陵', '南站', '.', '山西', '隧道', '积水', '，', '济阳', '高速', '禁止', '车辆', '出省', '进省', '.', '因雾', '禁止', '车辆', '上', '站', '的', '路段', '有', '：', '菏宝', '高速', '邵原', '站', '-', '济源', '南站', '连霍', '高速', '：', '观音堂', '站', '—', '义马', '站济洛', '高速', '：', '孟津', '西站', '，', '请', '提前', '绕行', '，', '省内', '其他', '高速公路', '正常', '通行', '。', '【', '河南', '高速', '交警', '提示', '】', '在', '河南', '高速公路', '上', '遇到', '紧急情况', '，', '请', '拨打', '河南', '高速', '交警', '报警', '电话', '-', '或', '高速', '服务', '电话', '求助', '。', '#', '河南', '暴雨', '救援', '##', '文明', '交通', '·', '安全', '伴', '您', '行', '##', '平安', '中原', '·', '高速', '交警', '#']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['#', '河南', '高速', '路况', '#', '截至', ':', '，', '目前', '省内', '高速', '通行', '情况', '：', '.', '因', '降雨', '，', '除', '信阳', '、', '南阳', '、', '商丘', '、', '许昌', '、', '驻马店', '、', '周口', '外', '，', '全省', '高速', '公路', '禁止', '货车', '上', '站', '。', '.', '因', '降雨', '，', '禁止', '七', '座', '（', '含', '七', '座', '）', '以上', '客车', '上', '站', '的', '路段', '有', '：', '济洛', '高速', '：', '小浪底', '北站', '。', '商南', '高速', '：', '独山站', '-', '小史店站', '、', '四通站', '-', '商水站', '濮商', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '所有', '车辆', '上站', '的', '路段', '有', '：', '京港', '澳', '高速', '：', '临颍站', '-', '漯河南站', '、', '新乡站', '-', '安阳', '北站', '盐洛', '高速', '：', '君召站', '-', '宣化', '站日兰', '高速', '：', '全线', '兰南', '高速', '：', '二郎庙站', '—', '尉氏站', '商登', '高速', '：', '古城县', '衙站', '-', '园博园站', '、', '岗李站', '-', '杞县', '南站', '安罗', '高速', '：', '官渡站', '-', '鄢陵', '彭店站', '郑民', '高速', '：', '郑庵站', '-', '杞县', '站菏宝', '高速', '：', '全线', '大广高速', '：', '南乐站', '—', '通许', '东站', '郑云', '高速', '：', '全线', '许广', '高速', '：', '襄城站', '-', '舞钢', '南站', '；', '连霍', '高速', '：', '新安', '西站', '-', '荥阳站', '、', '开封', '东站', '—兰', '考站', '豫灵站', '-', '义马站', '（', '向', '东方向', '）', '郑', '焦晋', '高速', '：', '武陟站', '-', '焦作站', '焦桐', '高速', '：', '焦作', '西南站', '-', '汝州', '东站', '；', '台辉', '高速', '：', '全线', '德上', '高速', '：', '范县', '东站', '南林', '高速', '：', '全线', '兰南', '高速', '：', '平顶山', '站—', '旧县站', '郑栾', '高速', '：', '侯寨站', '-', '新', '郑西站', '、', '郏县站', '-', '栾川', '二广', '高速', '：', '寄料站', '—下', '汤西站', '商南', '高速', '：', '杨庄站', '-', '尹集站', '安阳', '西北', '绕城', '：', '全线', '宁洛', '高速', '：', '温泉站', '—叶县', '北站', '西南', '绕城', '：', '全线', '郑少', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '危险品', '车辆', '上站', '的', '路段', '有', '：', '沪陕', '高速', '：', '西坪站', '—', '唐河东站', '、', '桐柏', '毛集站', '—', '西九华', '山站', '内邓', '高速', '：', '全线', '二广', '高速', '：', '南召站', '—构', '林站', '兰南', '高速', '：', '方城站', '—', '双铺站', '许广', '高速', '：', '桐柏', '朱庄站', '—', '桐柏', '东站', '渠口', '高速', '：', '彭桥站', '京港', '澳', '高速', '：', '长葛站', '-', '许昌', '东区站', '郑栾', '高速', '：', '长', '葛西站', '—', '禹州', '南站', '盐洛', '高速', '：', '苌庄站', '—', '鄢陵', '南站', '.', '山西', '隧道', '积水', '，', '济阳', '高速', '禁止', '车辆', '出省', '进省', '.', '因', '雾', '禁止', '车辆', '上站', '的', '路段', '有', '：', '菏宝', '高速', '邵原站', '-', '济源', '南站', '连霍', '高速', '：', '观音', '堂站', '—义', '马站', '济洛', '高速', '：', '孟津西站', '，', '请', '提前', '绕行', '，', '省内', '其他', '高速', '公路', '正常', '通行', '。', '【', '河南', '高速', '交警', '提示', '】', '在', '河南', '高速', '公路', '上', '遇到', '紧急', '情况', '，', '请', '拨打', '河南', '高速', '交警', '报警', '电话', '-', '或', '高速', '服务', '电话', '求助', '。', '#', '河南', '暴雨', '救援', '#', '#', '文明', '交通', '·', '安全', '伴', '您行', '#', '#', '平安', '中原·', '高速', '交警', '#', '@', '平安', '濮阳', '@', '河南', '高速', '公安']</t>
+          <t>['#', '河南', '高速', '路况', '#', '截至', ':', '，', '目前', '省内', '高速', '通行', '情况', '：', '.', '因', '降雨', '，', '除', '信阳', '、', '南阳', '、', '商丘', '、', '许昌', '、', '驻马店', '、', '周口', '外', '，', '全省', '高速', '公路', '禁止', '货车', '上', '站', '。', '.', '因', '降雨', '，', '禁止', '七', '座', '（', '含', '七', '座', '）', '以上', '客车', '上', '站', '的', '路段', '有', '：', '济洛', '高速', '：', '小浪底', '北站', '。', '商南', '高速', '：', '独山站', '-', '小史店站', '、', '四通站', '-', '商水站', '濮商', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '所有', '车辆', '上站', '的', '路段', '有', '：', '京港', '澳', '高速', '：', '临颍站', '-', '漯河南站', '、', '新乡站', '-', '安阳', '北站', '盐洛', '高速', '：', '君召站', '-', '宣化', '站日兰', '高速', '：', '全线', '兰南', '高速', '：', '二郎庙站', '—', '尉氏站', '商登', '高速', '：', '古城县', '衙站', '-', '园博园站', '、', '岗李站', '-', '杞县', '南站', '安罗', '高速', '：', '官渡站', '-', '鄢陵', '彭店站', '郑民', '高速', '：', '郑庵站', '-', '杞县', '站菏宝', '高速', '：', '全线', '大广高速', '：', '南乐站', '—', '通许', '东站', '郑云', '高速', '：', '全线', '许广', '高速', '：', '襄城站', '-', '舞钢', '南站', '；', '连霍', '高速', '：', '新安', '西站', '-', '荥阳站', '、', '开封', '东站', '—兰', '考站', '豫灵站', '-', '义马站', '（', '向', '东方向', '）', '郑', '焦晋', '高速', '：', '武陟站', '-', '焦作站', '焦桐', '高速', '：', '焦作', '西南站', '-', '汝州', '东站', '；', '台辉', '高速', '：', '全线', '德上', '高速', '：', '范县', '东站', '南林', '高速', '：', '全线', '兰南', '高速', '：', '平顶山', '站—', '旧县站', '郑栾', '高速', '：', '侯寨站', '-', '新', '郑西站', '、', '郏县站', '-', '栾川', '二广', '高速', '：', '寄料站', '—下', '汤西站', '商南', '高速', '：', '杨庄站', '-', '尹集站', '安阳', '西北', '绕城', '：', '全线', '宁洛', '高速', '：', '温泉站', '—叶县', '北站', '西南', '绕城', '：', '全线', '郑少', '高速', '：', '全线', '.', '因', '降雨', '，', '禁止', '危险品', '车辆', '上站', '的', '路段', '有', '：', '沪陕', '高速', '：', '西坪站', '—', '唐河东站', '、', '桐柏', '毛集站', '—', '西九华', '山站', '内邓', '高速', '：', '全线', '二广', '高速', '：', '南召站', '—构', '林站', '兰南', '高速', '：', '方城站', '—', '双铺站', '许广', '高速', '：', '桐柏', '朱庄站', '—', '桐柏', '东站', '渠口', '高速', '：', '彭桥站', '京港', '澳', '高速', '：', '长葛站', '-', '许昌', '东区站', '郑栾', '高速', '：', '长', '葛西站', '—', '禹州', '南站', '盐洛', '高速', '：', '苌庄站', '—', '鄢陵', '南站', '.', '山西', '隧道', '积水', '，', '济阳', '高速', '禁止', '车辆', '出省', '进省', '.', '因', '雾', '禁止', '车辆', '上站', '的', '路段', '有', '：', '菏宝', '高速', '邵原站', '-', '济源', '南站', '连霍', '高速', '：', '观音', '堂站', '—义', '马站', '济洛', '高速', '：', '孟津西站', '，', '请', '提前', '绕行', '，', '省内', '其他', '高速', '公路', '正常', '通行', '。', '【', '河南', '高速', '交警', '提示', '】', '在', '河南', '高速', '公路', '上', '遇到', '紧急', '情况', '，', '请', '拨打', '河南', '高速', '交警', '报警', '电话', '-', '或', '高速', '服务', '电话', '求助', '。', '#', '河南', '暴雨', '救援', '#', '#', '文明', '交通', '·', '安全', '伴', '您行', '#', '#', '平安', '中原·', '高速', '交警', '#']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['高速', '路况', '截至', '目前', '省内', '高速', '通行', '情况', '降雨', '信阳', '南阳', '商丘', '许昌', '驻马店', '周口', '全省', '高速公路', '禁止', '货车', '降雨', '禁止', '七座', '七座', '以上', '客车', '路段', '济洛', '高速', '小浪底', '北站', '商南', '高速', '独山', '小史', '店站', '四通', '商水', '濮商', '高速', '全线', '降雨', '禁止', '所有', '车辆', '路段', '港澳', '高速', '临颍', '漯河', '南站', '新乡', '安阳', '北站', '盐洛', '高速', '君召站', '宣化', '日兰', '高速', '全线', '兰南', '高速', '二郎庙', '尉氏', '商登', '高速', '古城', '县衙', '博园', '李站', '杞县', '南站', '安罗', '高速', '官渡', '鄢陵', '彭店', '郑民', '高速', '郑庵', '杞县', '菏宝', '高速', '全线', '大广', '高速', '南乐', '通许', '东站', '郑云', '高速', '全线', '许广', '高速', '襄城', '舞钢', '南站', '连霍', '高速', '新安', '西站', '荥阳', '开封', '东站', '兰考', '站豫灵', '义马', '向东', '方向', '郑焦晋', '高速', '武陟', '焦作', '焦桐', '高速', '焦作', '西南', '汝州', '东站', '台辉', '高速', '全线', '德上', '高速', '范县', '东站', '南林', '高速', '全线', '兰南', '高速', '平顶山', '旧县', '郑栾', '高速', '侯寨', '新郑', '西站', '郏县', '栾川', '二广', '高速', '寄料', '西站', '商南', '高速', '杨庄', '尹集', '安阳', '西北', '绕城', '全线', '宁洛', '高速', '温泉', '叶县', '北站', '西南', '绕城', '全线', '郑少', '高速', '全线', '降雨', '禁止', '危险品', '车辆', '路段', '高速', '西坪', '唐河', '东站', '桐柏', '毛集', '九华山', '高速', '全线', '二广', '高速', '南召', '构林', '站兰南', '高速', '方城', '双铺', '许广', '高速', '桐柏', '朱庄', '桐柏', '东站', '渠口', '高速', '彭桥', '站京', '港澳', '高速', '长葛', '许昌', '东区', '郑栾', '高速', '长葛', '西站', '禹州', '南站', '盐洛', '高速', '庄站', '鄢陵', '南站', '山西', '隧道', '积水', '济阳', '高速', '禁止', '车辆', '出省', '进省', '因雾', '禁止', '车辆', '路段', '菏宝', '高速', '邵原', '济源', '南站', '连霍', '高速', '观音堂', '义马', '站济洛', '高速', '孟津', '西站', '提前', '绕行', '省内', '高速公路', '正常', '通行', '高速', '交警', '提示', '高速公路', '遇到', '紧急情况', '拨打', '高速', '交警', '报警', '电话', '高速', '服务', '电话', '求助', '暴雨', '救援', '文明', '交通', '安全', '平安', '中原', '高速', '交警', '平安', '濮阳', '高速', '公安']</t>
+          <t>['高速', '路况', '截至', '目前', '省内', '高速', '通行', '情况', '降雨', '信阳', '南阳', '商丘', '许昌', '驻马店', '周口', '全省', '高速公路', '禁止', '货车', '降雨', '禁止', '七座', '七座', '以上', '客车', '路段', '济洛', '高速', '小浪底', '北站', '商南', '高速', '独山', '小史', '店站', '四通', '商水', '濮商', '高速', '全线', '降雨', '禁止', '所有', '车辆', '路段', '港澳', '高速', '临颍', '漯河', '南站', '新乡', '安阳', '北站', '盐洛', '高速', '君召站', '宣化', '日兰', '高速', '全线', '兰南', '高速', '二郎庙', '尉氏', '商登', '高速', '古城', '县衙', '博园', '李站', '杞县', '南站', '安罗', '高速', '官渡', '鄢陵', '彭店', '郑民', '高速', '郑庵', '杞县', '菏宝', '高速', '全线', '大广', '高速', '南乐', '通许', '东站', '郑云', '高速', '全线', '许广', '高速', '襄城', '舞钢', '南站', '连霍', '高速', '新安', '西站', '荥阳', '开封', '东站', '兰考', '站豫灵', '义马', '向东', '方向', '郑焦晋', '高速', '武陟', '焦作', '焦桐', '高速', '焦作', '西南', '汝州', '东站', '台辉', '高速', '全线', '德上', '高速', '范县', '东站', '南林', '高速', '全线', '兰南', '高速', '平顶山', '旧县', '郑栾', '高速', '侯寨', '新郑', '西站', '郏县', '栾川', '二广', '高速', '寄料', '西站', '商南', '高速', '杨庄', '尹集', '安阳', '西北', '绕城', '全线', '宁洛', '高速', '温泉', '叶县', '北站', '西南', '绕城', '全线', '郑少', '高速', '全线', '降雨', '禁止', '危险品', '车辆', '路段', '高速', '西坪', '唐河', '东站', '桐柏', '毛集', '九华山', '高速', '全线', '二广', '高速', '南召', '构林', '站兰南', '高速', '方城', '双铺', '许广', '高速', '桐柏', '朱庄', '桐柏', '东站', '渠口', '高速', '彭桥', '站京', '港澳', '高速', '长葛', '许昌', '东区', '郑栾', '高速', '长葛', '西站', '禹州', '南站', '盐洛', '高速', '庄站', '鄢陵', '南站', '山西', '隧道', '积水', '济阳', '高速', '禁止', '车辆', '出省', '进省', '因雾', '禁止', '车辆', '路段', '菏宝', '高速', '邵原', '济源', '南站', '连霍', '高速', '观音堂', '义马', '站济洛', '高速', '孟津', '西站', '提前', '绕行', '省内', '高速公路', '正常', '通行', '高速', '交警', '提示', '高速公路', '遇到', '紧急情况', '拨打', '高速', '交警', '报警', '电话', '高速', '服务', '电话', '求助', '暴雨', '救援', '文明', '交通', '安全', '平安', '中原', '高速', '交警']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['高速', '路况', '截至', '目前', '省内', '高速', '通行', '情况', '降雨', '信阳', '南阳', '商丘', '许昌', '驻马店', '周口', '全省', '高速', '公路', '禁止', '货车', '降雨', '禁止', '以上', '客车', '路段', '济洛', '高速', '小浪底', '北站', '商南', '高速', '独山站', '小史店站', '四通站', '商水站', '濮商', '高速', '全线', '降雨', '禁止', '所有', '车辆', '上站', '路段', '京港', '高速', '临颍站', '漯河南站', '新乡站', '安阳', '北站', '盐洛', '高速', '君召站', '宣化', '站日兰', '高速', '全线', '兰南', '高速', '二郎庙站', '尉氏站', '商登', '高速', '古城县', '衙站', '园博园站', '岗李站', '杞县', '南站', '安罗', '高速', '官渡站', '鄢陵', '彭店站', '郑民', '高速', '郑庵站', '杞县', '站菏宝', '高速', '全线', '大广高速', '南乐站', '通许', '东站', '郑云', '高速', '全线', '许广', '高速', '襄城站', '舞钢', '南站', '连霍', '高速', '新安', '西站', '荥阳站', '开封', '东站', '—兰', '考站', '豫灵站', '义马站', '东方向', '焦晋', '高速', '武陟站', '焦作站', '焦桐', '高速', '焦作', '西南站', '汝州', '东站', '台辉', '高速', '全线', '德上', '高速', '范县', '东站', '南林', '高速', '全线', '兰南', '高速', '平顶山', '站—', '旧县站', '郑栾', '高速', '侯寨站', '郑西站', '郏县站', '栾川', '二广', '高速', '寄料站', '—下', '汤西站', '商南', '高速', '杨庄站', '尹集站', '安阳', '西北', '绕城', '全线', '宁洛', '高速', '温泉站', '—叶县', '北站', '西南', '绕城', '全线', '郑少', '高速', '全线', '降雨', '禁止', '危险品', '车辆', '上站', '路段', '沪陕', '高速', '西坪站', '唐河东站', '桐柏', '毛集站', '西九华', '山站', '内邓', '高速', '全线', '二广', '高速', '南召站', '—构', '林站', '兰南', '高速', '方城站', '双铺站', '许广', '高速', '桐柏', '朱庄站', '桐柏', '东站', '渠口', '高速', '彭桥站', '京港', '高速', '长葛站', '许昌', '东区站', '郑栾', '高速', '葛西站', '禹州', '南站', '盐洛', '高速', '苌庄站', '鄢陵', '南站', '山西', '隧道', '积水', '济阳', '高速', '禁止', '车辆', '出省', '进省', '禁止', '车辆', '上站', '路段', '菏宝', '高速', '邵原站', '济源', '南站', '连霍', '高速', '观音', '堂站', '—义', '马站', '济洛', '高速', '孟津西站', '提前', '绕行', '省内', '高速', '公路', '正常', '通行', '高速', '交警', '提示', '高速', '公路', '遇到', '紧急', '情况', '拨打', '高速', '交警', '报警', '电话', '高速', '服务', '电话', '求助', '暴雨', '救援', '文明', '交通', '安全', '您行', '平安', '中原·', '高速', '交警', '平安', '濮阳', '高速', '公安']</t>
+          <t>['高速', '路况', '截至', '目前', '省内', '高速', '通行', '情况', '降雨', '信阳', '南阳', '商丘', '许昌', '驻马店', '周口', '全省', '高速', '公路', '禁止', '货车', '降雨', '禁止', '以上', '客车', '路段', '济洛', '高速', '小浪底', '北站', '商南', '高速', '独山站', '小史店站', '四通站', '商水站', '濮商', '高速', '全线', '降雨', '禁止', '所有', '车辆', '上站', '路段', '京港', '高速', '临颍站', '漯河南站', '新乡站', '安阳', '北站', '盐洛', '高速', '君召站', '宣化', '站日兰', '高速', '全线', '兰南', '高速', '二郎庙站', '尉氏站', '商登', '高速', '古城县', '衙站', '园博园站', '岗李站', '杞县', '南站', '安罗', '高速', '官渡站', '鄢陵', '彭店站', '郑民', '高速', '郑庵站', '杞县', '站菏宝', '高速', '全线', '大广高速', '南乐站', '通许', '东站', '郑云', '高速', '全线', '许广', '高速', '襄城站', '舞钢', '南站', '连霍', '高速', '新安', '西站', '荥阳站', '开封', '东站', '—兰', '考站', '豫灵站', '义马站', '东方向', '焦晋', '高速', '武陟站', '焦作站', '焦桐', '高速', '焦作', '西南站', '汝州', '东站', '台辉', '高速', '全线', '德上', '高速', '范县', '东站', '南林', '高速', '全线', '兰南', '高速', '平顶山', '站—', '旧县站', '郑栾', '高速', '侯寨站', '郑西站', '郏县站', '栾川', '二广', '高速', '寄料站', '—下', '汤西站', '商南', '高速', '杨庄站', '尹集站', '安阳', '西北', '绕城', '全线', '宁洛', '高速', '温泉站', '—叶县', '北站', '西南', '绕城', '全线', '郑少', '高速', '全线', '降雨', '禁止', '危险品', '车辆', '上站', '路段', '沪陕', '高速', '西坪站', '唐河东站', '桐柏', '毛集站', '西九华', '山站', '内邓', '高速', '全线', '二广', '高速', '南召站', '—构', '林站', '兰南', '高速', '方城站', '双铺站', '许广', '高速', '桐柏', '朱庄站', '桐柏', '东站', '渠口', '高速', '彭桥站', '京港', '高速', '长葛站', '许昌', '东区站', '郑栾', '高速', '葛西站', '禹州', '南站', '盐洛', '高速', '苌庄站', '鄢陵', '南站', '山西', '隧道', '积水', '济阳', '高速', '禁止', '车辆', '出省', '进省', '禁止', '车辆', '上站', '路段', '菏宝', '高速', '邵原站', '济源', '南站', '连霍', '高速', '观音', '堂站', '—义', '马站', '济洛', '高速', '孟津西站', '提前', '绕行', '省内', '高速', '公路', '正常', '通行', '高速', '交警', '提示', '高速', '公路', '遇到', '紧急', '情况', '拨打', '高速', '交警', '报警', '电话', '高速', '服务', '电话', '求助', '暴雨', '救援', '文明', '交通', '安全', '您行', '平安', '中原·', '高速', '交警']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('河南', 'ns'), ('高速', 'd'), ('路况', 'n'), ('#', 'x'), ('截至', 'v'), (':', 'x'), ('，', 'x'), ('目前', 't'), ('省内', 's'), ('高速', 'd'), ('通行', 'j'), ('情况', 'n'), ('：', 'x'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('除', 'p'), ('信阳', 'n'), ('、', 'x'), ('南阳', 'ns'), ('、', 'x'), ('商丘', 'n'), ('、', 'x'), ('许昌', 'nr'), ('、', 'x'), ('驻马店', 'ns'), ('、', 'x'), ('周口', 'n'), ('外', 'f'), ('，', 'x'), ('全省', 'n'), ('高速公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('上', 'f'), ('站', 'v'), ('。', 'x'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('七座', 'm'), ('（', 'x'), ('含', 'v'), ('七座', 'm'), ('）', 'x'), ('以上', 'f'), ('客车', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('济洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('小浪底', 'n'), ('北站', 'ns'), ('。', 'x'), ('商南', 'ns'), ('高速', 'd'), ('：', 'x'), ('独山', 'ns'), ('站', 'v'), ('-', 'x'), ('小史', 'n'), ('店站', 'n'), ('、', 'x'), ('四通', 'nz'), ('站', 'v'), ('-', 'x'), ('商水', 'n'), ('站', 'v'), ('濮', 'nr'), ('商', 'n'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('京', 'ns'), ('港澳', 'j'), ('高速', 'd'), ('：', 'x'), ('临颍', 'nrt'), ('站', 'v'), ('-', 'x'), ('漯河', 'ns'), ('南站', 'ns'), ('、', 'x'), ('新乡', 'ns'), ('站', 'v'), ('-', 'x'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('君', 'n'), ('召', 'nr'), ('站', 'v'), ('-', 'x'), ('宣化', 'vn'), ('站', 'v'), ('日兰', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('二郎庙', 'ns'), ('站', 'v'), ('—', 'x'), ('尉氏', 'nr'), ('站商', 'n'), ('登', 'v'), ('高速', 'd'), ('：', 'x'), ('古城', 'ns'), ('县衙', 'n'), ('站', 'v'), ('-', 'x'), ('园', 'zg'), ('博园', 'n'), ('站', 'v'), ('、', 'x'), ('岗', 'n'), ('李', 'nr'), ('站', 'v'), ('-', 'x'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'd'), ('：', 'x'), ('官渡', 'nr'), ('站', 'v'), ('-', 'x'), ('鄢陵', 'nr'), ('彭', 'nr'), ('店', 'n'), ('站', 'v'), ('郑民', 'ns'), ('高速', 'd'), ('：', 'x'), ('郑庵', 'nr'), ('站', 'v'), ('-', 'x'), ('杞县', 'ns'), ('站', 'v'), ('菏', 'j'), ('宝', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('大广', 'nz'), ('高速', 'd'), ('：', 'x'), ('南乐', 'ns'), ('站', 'v'), ('—', 'x'), ('通许', 'd'), ('东站', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('：', 'x'), ('襄城', 'ns'), ('站', 'v'), ('-', 'x'), ('舞钢', 'n'), ('南站', 'ns'), ('；', 'x'), ('连霍', 'nr'), ('高速', 'd'), ('：', 'x'), ('新安', 'ns'), ('西站', 'ns'), ('-', 'x'), ('荥阳', 'ns'), ('站', 'v'), ('、', 'x'), ('开封', 'v'), ('东站', 'n'), ('—', 'x'), ('兰考', 'nr'), ('站', 'v'), ('豫', 'j'), ('灵站', 'n'), ('-', 'x'), ('义马', 'n'), ('站', 'v'), ('（', 'x'), ('向东', 'nr'), ('方向', 'n'), ('）', 'x'), ('郑焦晋', 'nr'), ('高速', 'd'), ('：', 'x'), ('武陟', 'nr'), ('站', 'v'), ('-', 'x'), ('焦作', 'n'), ('站', 'v'), ('焦桐', 'n'), ('高速', 'd'), ('：', 'x'), ('焦作', 'n'), ('西南', 'ns'), ('站', 'v'), ('-', 'x'), ('汝州', 'ns'), ('东站', 'n'), ('；', 'x'), ('台辉', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('德', 'j'), ('上', 'f'), ('高速', 'd'), ('：', 'x'), ('范县', 'nr'), ('东站', 'n'), ('南林', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('平顶山', 'ns'), ('站', 'v'), ('—', 'x'), ('旧县', 'ns'), ('站', 'v'), ('郑栾', 'nr'), ('高速', 'd'), ('：', 'x'), ('侯寨', 'nr'), ('站', 'v'), ('-', 'x'), ('新郑', 'ns'), ('西站', 'ns'), ('、', 'x'), ('郏县', 'ns'), ('站', 'v'), ('-', 'x'), ('栾川', 'nr'), ('二', 'm'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('寄料', 'n'), ('站', 'v'), ('—', 'x'), ('下', 'f'), ('汤', 'n'), ('西站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('：', 'x'), ('杨庄', 'nr'), ('站', 'v'), ('-', 'x'), ('尹', 'nr'), ('集站', 'n'), ('安阳', 'ns'), ('西北', 'ns'), ('绕城', 'ns'), ('：', 'x'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('：', 'x'), ('温泉', 'nr'), ('站', 'v'), ('—', 'x'), ('叶县', 'ns'), ('北站', 'ns'), ('西南', 'ns'), ('绕城', 'ns'), ('：', 'x'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('沪', 'j'), ('陕', 'j'), ('高速', 'd'), ('：', 'x'), ('西坪', 'ns'), ('站', 'v'), ('—', 'x'), ('唐河', 'nr'), ('东站', 'n'), ('、', 'x'), ('桐柏', 'ns'), ('毛', 'nr'), ('集站', 'n'), ('—', 'x'), ('西', 'f'), ('九华山', 'ns'), ('站内', 's'), ('邓', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('二', 'm'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('南召', 'ns'), ('站', 'v'), ('—', 'x'), ('构林', 'n'), ('站', 'v'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('方城', 'n'), ('站', 'v'), ('—', 'x'), ('双铺', 'n'), ('站许', 'v'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('桐柏', 'ns'), ('朱庄', 'nr'), ('站', 'v'), ('—', 'x'), ('桐柏', 'ns'), ('东站', 'n'), ('渠口', 'n'), ('高速', 'd'), ('：', 'x'), ('彭桥', 'nr'), ('站', 'v'), ('京', 'j'), ('港澳', 'j'), ('高速', 'd'), ('：', 'x'), ('长葛', 'ns'), ('站', 'v'), ('-', 'x'), ('许昌', 'nr'), ('东区', 'ns'), ('站', 'v'), ('郑栾', 'nr'), ('高速', 'd'), ('：', 'x'), ('长葛', 'ns'), ('西站', 'ns'), ('—', 'x'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('苌', 'nr'), ('庄', 'nr'), ('站', 'v'), ('—', 'x'), ('鄢陵', 'nr'), ('南站', 'ns'), ('.', 'x'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('，', 'x'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('出', 'v'), ('省', 'n'), ('进', 'v'), ('省', 'n'), ('.', 'm'), ('因雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('菏', 'j'), ('宝', 'nr'), ('高速', 'd'), ('邵原', 'nr'), ('站', 'v'), ('-', 'x'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'nr'), ('高速', 'd'), ('：', 'x'), ('观音堂', 'n'), ('站', 'v'), ('—', 'x'), ('义马', 'n'), ('站济', 'n'), ('洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('孟津', 'ns'), ('西站', 'ns'), ('，', 'x'), ('请', 'v'), ('提前', 'v'), ('绕行', 'v'), ('，', 'x'), ('省内', 's'), ('其他', 'r'), ('高速公路', 'n'), ('正常', 'd'), ('通行', 'j'), ('。', 'x'), ('【', 'x'), ('河南', 'ns'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('】', 'x'), ('在', 'p'), ('河南', 'ns'), ('高速公路', 'n'), ('上', 'f'), ('遇到', 'v'), ('紧急情况', 'l'), ('，', 'x'), ('请', 'v'), ('拨打', 'v'), ('河南', 'ns'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('-', 'x'), ('或', 'c'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('。', 'x'), ('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('救援', 'vn'), ('##', 'x'), ('文明', 'nr'), ('交通', 'n'), ('·', 'x'), ('安全', 'an'), ('伴', 'v'), ('您', 'r'), ('行', 'v'), ('##', 'x'), ('平安', 'a'), ('中原', 'ns'), ('·', 'x'), ('高速', 'd'), ('交警', 'j'), ('#', 'x'), ('@', 'x'), ('平安', 'a'), ('濮阳', 'ns'), ('@', 'x'), ('河南', 'ns'), ('高速', 'd'), ('公安', 'n')]</t>
+          <t>[('#', 'x'), ('河南', 'ns'), ('高速', 'd'), ('路况', 'n'), ('#', 'x'), ('截至', 'v'), (':', 'x'), ('，', 'x'), ('目前', 't'), ('省内', 's'), ('高速', 'd'), ('通行', 'j'), ('情况', 'n'), ('：', 'x'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('除', 'p'), ('信阳', 'n'), ('、', 'x'), ('南阳', 'ns'), ('、', 'x'), ('商丘', 'n'), ('、', 'x'), ('许昌', 'nr'), ('、', 'x'), ('驻马店', 'ns'), ('、', 'x'), ('周口', 'n'), ('外', 'f'), ('，', 'x'), ('全省', 'n'), ('高速公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('上', 'f'), ('站', 'v'), ('。', 'x'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('七座', 'm'), ('（', 'x'), ('含', 'v'), ('七座', 'm'), ('）', 'x'), ('以上', 'f'), ('客车', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('济洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('小浪底', 'n'), ('北站', 'ns'), ('。', 'x'), ('商南', 'ns'), ('高速', 'd'), ('：', 'x'), ('独山', 'ns'), ('站', 'v'), ('-', 'x'), ('小史', 'n'), ('店站', 'n'), ('、', 'x'), ('四通', 'nz'), ('站', 'v'), ('-', 'x'), ('商水', 'n'), ('站', 'v'), ('濮', 'nr'), ('商', 'n'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('京', 'ns'), ('港澳', 'j'), ('高速', 'd'), ('：', 'x'), ('临颍', 'nrt'), ('站', 'v'), ('-', 'x'), ('漯河', 'ns'), ('南站', 'ns'), ('、', 'x'), ('新乡', 'ns'), ('站', 'v'), ('-', 'x'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('君', 'n'), ('召', 'nr'), ('站', 'v'), ('-', 'x'), ('宣化', 'vn'), ('站', 'v'), ('日兰', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('二郎庙', 'ns'), ('站', 'v'), ('—', 'x'), ('尉氏', 'nr'), ('站商', 'n'), ('登', 'v'), ('高速', 'd'), ('：', 'x'), ('古城', 'ns'), ('县衙', 'n'), ('站', 'v'), ('-', 'x'), ('园', 'zg'), ('博园', 'n'), ('站', 'v'), ('、', 'x'), ('岗', 'n'), ('李', 'nr'), ('站', 'v'), ('-', 'x'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'd'), ('：', 'x'), ('官渡', 'nr'), ('站', 'v'), ('-', 'x'), ('鄢陵', 'nr'), ('彭', 'nr'), ('店', 'n'), ('站', 'v'), ('郑民', 'ns'), ('高速', 'd'), ('：', 'x'), ('郑庵', 'nr'), ('站', 'v'), ('-', 'x'), ('杞县', 'ns'), ('站', 'v'), ('菏', 'j'), ('宝', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('大广', 'nz'), ('高速', 'd'), ('：', 'x'), ('南乐', 'ns'), ('站', 'v'), ('—', 'x'), ('通许', 'd'), ('东站', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('：', 'x'), ('襄城', 'ns'), ('站', 'v'), ('-', 'x'), ('舞钢', 'n'), ('南站', 'ns'), ('；', 'x'), ('连霍', 'nr'), ('高速', 'd'), ('：', 'x'), ('新安', 'ns'), ('西站', 'ns'), ('-', 'x'), ('荥阳', 'ns'), ('站', 'v'), ('、', 'x'), ('开封', 'v'), ('东站', 'n'), ('—', 'x'), ('兰考', 'nr'), ('站', 'v'), ('豫', 'j'), ('灵站', 'n'), ('-', 'x'), ('义马', 'n'), ('站', 'v'), ('（', 'x'), ('向东', 'nr'), ('方向', 'n'), ('）', 'x'), ('郑焦晋', 'nr'), ('高速', 'd'), ('：', 'x'), ('武陟', 'nr'), ('站', 'v'), ('-', 'x'), ('焦作', 'n'), ('站', 'v'), ('焦桐', 'n'), ('高速', 'd'), ('：', 'x'), ('焦作', 'n'), ('西南', 'ns'), ('站', 'v'), ('-', 'x'), ('汝州', 'ns'), ('东站', 'n'), ('；', 'x'), ('台辉', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('德', 'j'), ('上', 'f'), ('高速', 'd'), ('：', 'x'), ('范县', 'nr'), ('东站', 'n'), ('南林', 'ns'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('平顶山', 'ns'), ('站', 'v'), ('—', 'x'), ('旧县', 'ns'), ('站', 'v'), ('郑栾', 'nr'), ('高速', 'd'), ('：', 'x'), ('侯寨', 'nr'), ('站', 'v'), ('-', 'x'), ('新郑', 'ns'), ('西站', 'ns'), ('、', 'x'), ('郏县', 'ns'), ('站', 'v'), ('-', 'x'), ('栾川', 'nr'), ('二', 'm'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('寄料', 'n'), ('站', 'v'), ('—', 'x'), ('下', 'f'), ('汤', 'n'), ('西站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('：', 'x'), ('杨庄', 'nr'), ('站', 'v'), ('-', 'x'), ('尹', 'nr'), ('集站', 'n'), ('安阳', 'ns'), ('西北', 'ns'), ('绕城', 'ns'), ('：', 'x'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('：', 'x'), ('温泉', 'nr'), ('站', 'v'), ('—', 'x'), ('叶县', 'ns'), ('北站', 'ns'), ('西南', 'ns'), ('绕城', 'ns'), ('：', 'x'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('.', 'm'), ('因', 'c'), ('降雨', 'n'), ('，', 'x'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('沪', 'j'), ('陕', 'j'), ('高速', 'd'), ('：', 'x'), ('西坪', 'ns'), ('站', 'v'), ('—', 'x'), ('唐河', 'nr'), ('东站', 'n'), ('、', 'x'), ('桐柏', 'ns'), ('毛', 'nr'), ('集站', 'n'), ('—', 'x'), ('西', 'f'), ('九华山', 'ns'), ('站内', 's'), ('邓', 'nr'), ('高速', 'd'), ('：', 'x'), ('全线', 'n'), ('二', 'm'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('南召', 'ns'), ('站', 'v'), ('—', 'x'), ('构林', 'n'), ('站', 'v'), ('兰南', 'ns'), ('高速', 'd'), ('：', 'x'), ('方城', 'n'), ('站', 'v'), ('—', 'x'), ('双铺', 'n'), ('站许', 'v'), ('广', 'ns'), ('高速', 'd'), ('：', 'x'), ('桐柏', 'ns'), ('朱庄', 'nr'), ('站', 'v'), ('—', 'x'), ('桐柏', 'ns'), ('东站', 'n'), ('渠口', 'n'), ('高速', 'd'), ('：', 'x'), ('彭桥', 'nr'), ('站', 'v'), ('京', 'j'), ('港澳', 'j'), ('高速', 'd'), ('：', 'x'), ('长葛', 'ns'), ('站', 'v'), ('-', 'x'), ('许昌', 'nr'), ('东区', 'ns'), ('站', 'v'), ('郑栾', 'nr'), ('高速', 'd'), ('：', 'x'), ('长葛', 'ns'), ('西站', 'ns'), ('—', 'x'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('苌', 'nr'), ('庄', 'nr'), ('站', 'v'), ('—', 'x'), ('鄢陵', 'nr'), ('南站', 'ns'), ('.', 'x'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('，', 'x'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('出', 'v'), ('省', 'n'), ('进', 'v'), ('省', 'n'), ('.', 'm'), ('因雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('的', 'uj'), ('路段', 'n'), ('有', 'v'), ('：', 'x'), ('菏', 'j'), ('宝', 'nr'), ('高速', 'd'), ('邵原', 'nr'), ('站', 'v'), ('-', 'x'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'nr'), ('高速', 'd'), ('：', 'x'), ('观音堂', 'n'), ('站', 'v'), ('—', 'x'), ('义马', 'n'), ('站济', 'n'), ('洛', 'ns'), ('高速', 'd'), ('：', 'x'), ('孟津', 'ns'), ('西站', 'ns'), ('，', 'x'), ('请', 'v'), ('提前', 'v'), ('绕行', 'v'), ('，', 'x'), ('省内', 's'), ('其他', 'r'), ('高速公路', 'n'), ('正常', 'd'), ('通行', 'j'), ('。', 'x'), ('【', 'x'), ('河南', 'ns'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('】', 'x'), ('在', 'p'), ('河南', 'ns'), ('高速公路', 'n'), ('上', 'f'), ('遇到', 'v'), ('紧急情况', 'l'), ('，', 'x'), ('请', 'v'), ('拨打', 'v'), ('河南', 'ns'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('-', 'x'), ('或', 'c'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('。', 'x'), ('#', 'x'), ('河南', 'ns'), ('暴雨', 'n'), ('救援', 'vn'), ('##', 'x'), ('文明', 'nr'), ('交通', 'n'), ('·', 'x'), ('安全', 'an'), ('伴', 'v'), ('您', 'r'), ('行', 'v'), ('##', 'x'), ('平安', 'a'), ('中原', 'ns'), ('·', 'x'), ('高速', 'd'), ('交警', 'j'), ('#', 'x')]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('河南', 'ns'), ('高速', 'b'), ('路况', 'n'), ('#', 'v'), ('截至', 'v'), (':', 'n'), ('，', 'w'), ('目前', 't'), ('省内', 's'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('：', 'w'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('除', 'p'), ('信阳', 'ns'), ('、', 'w'), ('南阳', 'ns'), ('、', 'w'), ('商丘', 'n'), ('、', 'w'), ('许昌', 'nr'), ('、', 'w'), ('驻马店', 'ns'), ('、', 'w'), ('周口', 'ns'), ('外', 'f'), ('，', 'w'), ('全省', 'n'), ('高速', 'b'), ('公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('上', 'v'), ('站', 'n'), ('。', 'w'), ('.', 'nr'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('七', 'm'), ('座', 'q'), ('（', 'w'), ('含', 'v'), ('七', 'm'), ('座', 'q'), ('）', 'w'), ('以上', 'f'), ('客车', 'n'), ('上', 'v'), ('站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('济洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('小浪底', 'ns'), ('北站', 'ns'), ('。', 'w'), ('商南', 'ns'), ('高速', 'b'), ('：', 'w'), ('独山站', 'n'), ('-', 'v'), ('小史店站', 'n'), ('、', 'w'), ('四通站', 'j'), ('-', 'n'), ('商水站', 'n'), ('濮商', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('京港', 'ns'), ('澳', 'j'), ('高速', 'b'), ('：', 'w'), ('临颍站', 'ns'), ('-', 'n'), ('漯河南站', 'n'), ('、', 'w'), ('新乡站', 'ns'), ('-', 'v'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('君召站', 'ns'), ('-', 'n'), ('宣化', 'v'), ('站日兰', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('二郎庙站', 'ns'), ('—', 'w'), ('尉氏站', 'ns'), ('商登', 'ns'), ('高速', 'b'), ('：', 'w'), ('古城县', 'ns'), ('衙站', 'n'), ('-', 'v'), ('园博园站', 'n'), ('、', 'w'), ('岗李站', 'n'), ('-', 'v'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'b'), ('：', 'w'), ('官渡站', 'n'), ('-', 'v'), ('鄢陵', 'ns'), ('彭店站', 'ns'), ('郑民', 'nr'), ('高速', 'b'), ('：', 'w'), ('郑庵站', 'nr'), ('-', 'v'), ('杞县', 'ns'), ('站菏宝', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('大广高速', 'n'), ('：', 'w'), ('南乐站', 'ns'), ('—', 'w'), ('通许', 'v'), ('东站', 'ns'), ('郑云', 'nr'), ('高速', 'd'), ('：', 'w'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('：', 'w'), ('襄城站', 'ns'), ('-', 'n'), ('舞钢', 'n'), ('南站', 'n'), ('；', 'w'), ('连霍', 'v'), ('高速', 'b'), ('：', 'w'), ('新安', 'ns'), ('西站', 'ns'), ('-', 'n'), ('荥阳站', 'n'), ('、', 'w'), ('开封', 'ns'), ('东站', 'ns'), ('—兰', 'ns'), ('考站', 'j'), ('豫灵站', 'j'), ('-', 'j'), ('义马站', 'n'), ('（', 'w'), ('向', 'p'), ('东方向', 'n'), ('）', 'w'), ('郑', 'nr'), ('焦晋', 'nr'), ('高速', 'b'), ('：', 'w'), ('武陟站', 'ns'), ('-', 'n'), ('焦作站', 'n'), ('焦桐', 'nr'), ('高速', 'b'), ('：', 'w'), ('焦作', 'ns'), ('西南站', 'ns'), ('-', 'ns'), ('汝州', 'ns'), ('东站', 'n'), ('；', 'w'), ('台辉', 'nz'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('德上', 's'), ('高速', 'b'), ('：', 'w'), ('范县', 'ns'), ('东站', 'ns'), ('南林', 'ns'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('平顶山', 'ns'), ('站—', 'v'), ('旧县站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('：', 'w'), ('侯寨站', 'ns'), ('-', 'v'), ('新', 'a'), ('郑西站', 'j'), ('、', 'w'), ('郏县站', 'n'), ('-', 'v'), ('栾川', 'ns'), ('二广', 'j'), ('高速', 'b'), ('：', 'w'), ('寄料站', 'n'), ('—下', 'w'), ('汤西站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('：', 'w'), ('杨庄站', 'ns'), ('-', 'ns'), ('尹集站', 'ns'), ('安阳', 'ns'), ('西北', 's'), ('绕城', 'n'), ('：', 'w'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('：', 'w'), ('温泉站', 'ns'), ('—叶县', 'ns'), ('北站', 'ns'), ('西南', 'f'), ('绕城', 'ns'), ('：', 'w'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('：', 'w'), ('全线', 'n'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('沪陕', 'j'), ('高速', 'b'), ('：', 'w'), ('西坪站', 'ns'), ('—', 'w'), ('唐河东站', 'ns'), ('、', 'w'), ('桐柏', 'n'), ('毛集站', 'n'), ('—', 'w'), ('西九华', 'ns'), ('山站', 'n'), ('内邓', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('二广', 'b'), ('高速', 'b'), ('：', 'w'), ('南召站', 'ns'), ('—构', 'n'), ('林站', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('方城站', 'ns'), ('—', 'w'), ('双铺站', 'j'), ('许广', 'nr'), ('高速', 'b'), ('：', 'w'), ('桐柏', 'ns'), ('朱庄站', 'ns'), ('—', 'w'), ('桐柏', 'ns'), ('东站', 'ns'), ('渠口', 'ns'), ('高速', 'b'), ('：', 'w'), ('彭桥站', 'ns'), ('京港', 'ns'), ('澳', 'j'), ('高速', 'b'), ('：', 'w'), ('长葛站', 'ns'), ('-', 'ns'), ('许昌', 'ns'), ('东区站', 'ns'), ('郑栾', 'nr'), ('高速', 'b'), ('：', 'w'), ('长', 'v'), ('葛西站', 'ns'), ('—', 'w'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('苌庄站', 'ns'), ('—', 'w'), ('鄢陵', 'ns'), ('南站', 'ns'), ('.', 'v'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('，', 'w'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('出省', 'v'), ('进省', 'v'), ('.', 'n'), ('因', 'c'), ('雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('菏宝', 'ns'), ('高速', 'b'), ('邵原站', 'n'), ('-', 'v'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'd'), ('高速', 'd'), ('：', 'w'), ('观音', 'n'), ('堂站', 'n'), ('—义', 'w'), ('马站', 'ns'), ('济洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('孟津西站', 'ns'), ('，', 'w'), ('请', 'v'), ('提前', 'v'), ('绕行', 'v'), ('，', 'w'), ('省内', 's'), ('其他', 'r'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('。', 'w'), ('【', 'v'), ('河南', 'ns'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('】', 'v'), ('在', 'p'), ('河南', 'ns'), ('高速', 'b'), ('公路', 'n'), ('上', 'v'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('，', 'w'), ('请', 'v'), ('拨打', 'v'), ('河南', 'ns'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('-', 'vn'), ('或', 'c'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('。', 'w'), ('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('救援', 'vn'), ('#', 'n'), ('#', 'v'), ('文明', 'a'), ('交通', 'n'), ('·', 'w'), ('安全', 'ad'), ('伴', 'v'), ('您行', 'r'), ('#', 'v'), ('#', 'v'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n'), ('#', 'v'), ('@', 'v'), ('平安', 'a'), ('濮阳', 'ns'), ('@', 'v'), ('河南', 'ns'), ('高速', 'b'), ('公安', 'n')]</t>
+          <t>[('#', 'v'), ('河南', 'ns'), ('高速', 'b'), ('路况', 'n'), ('#', 'v'), ('截至', 'v'), (':', 'n'), ('，', 'w'), ('目前', 't'), ('省内', 's'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('：', 'w'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('除', 'p'), ('信阳', 'ns'), ('、', 'w'), ('南阳', 'ns'), ('、', 'w'), ('商丘', 'n'), ('、', 'w'), ('许昌', 'nr'), ('、', 'w'), ('驻马店', 'ns'), ('、', 'w'), ('周口', 'ns'), ('外', 'f'), ('，', 'w'), ('全省', 'n'), ('高速', 'b'), ('公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('上', 'v'), ('站', 'n'), ('。', 'w'), ('.', 'nr'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('七', 'm'), ('座', 'q'), ('（', 'w'), ('含', 'v'), ('七', 'm'), ('座', 'q'), ('）', 'w'), ('以上', 'f'), ('客车', 'n'), ('上', 'v'), ('站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('济洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('小浪底', 'ns'), ('北站', 'ns'), ('。', 'w'), ('商南', 'ns'), ('高速', 'b'), ('：', 'w'), ('独山站', 'n'), ('-', 'v'), ('小史店站', 'n'), ('、', 'w'), ('四通站', 'j'), ('-', 'n'), ('商水站', 'n'), ('濮商', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('京港', 'ns'), ('澳', 'j'), ('高速', 'b'), ('：', 'w'), ('临颍站', 'ns'), ('-', 'n'), ('漯河南站', 'n'), ('、', 'w'), ('新乡站', 'ns'), ('-', 'v'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('君召站', 'ns'), ('-', 'n'), ('宣化', 'v'), ('站日兰', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('二郎庙站', 'ns'), ('—', 'w'), ('尉氏站', 'ns'), ('商登', 'ns'), ('高速', 'b'), ('：', 'w'), ('古城县', 'ns'), ('衙站', 'n'), ('-', 'v'), ('园博园站', 'n'), ('、', 'w'), ('岗李站', 'n'), ('-', 'v'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'b'), ('：', 'w'), ('官渡站', 'n'), ('-', 'v'), ('鄢陵', 'ns'), ('彭店站', 'ns'), ('郑民', 'nr'), ('高速', 'b'), ('：', 'w'), ('郑庵站', 'nr'), ('-', 'v'), ('杞县', 'ns'), ('站菏宝', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('大广高速', 'n'), ('：', 'w'), ('南乐站', 'ns'), ('—', 'w'), ('通许', 'v'), ('东站', 'ns'), ('郑云', 'nr'), ('高速', 'd'), ('：', 'w'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('：', 'w'), ('襄城站', 'ns'), ('-', 'n'), ('舞钢', 'n'), ('南站', 'n'), ('；', 'w'), ('连霍', 'v'), ('高速', 'b'), ('：', 'w'), ('新安', 'ns'), ('西站', 'ns'), ('-', 'n'), ('荥阳站', 'n'), ('、', 'w'), ('开封', 'ns'), ('东站', 'ns'), ('—兰', 'ns'), ('考站', 'j'), ('豫灵站', 'j'), ('-', 'j'), ('义马站', 'n'), ('（', 'w'), ('向', 'p'), ('东方向', 'n'), ('）', 'w'), ('郑', 'nr'), ('焦晋', 'nr'), ('高速', 'b'), ('：', 'w'), ('武陟站', 'ns'), ('-', 'n'), ('焦作站', 'n'), ('焦桐', 'nr'), ('高速', 'b'), ('：', 'w'), ('焦作', 'ns'), ('西南站', 'ns'), ('-', 'ns'), ('汝州', 'ns'), ('东站', 'n'), ('；', 'w'), ('台辉', 'nz'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('德上', 's'), ('高速', 'b'), ('：', 'w'), ('范县', 'ns'), ('东站', 'ns'), ('南林', 'ns'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('平顶山', 'ns'), ('站—', 'v'), ('旧县站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('：', 'w'), ('侯寨站', 'ns'), ('-', 'v'), ('新', 'a'), ('郑西站', 'j'), ('、', 'w'), ('郏县站', 'n'), ('-', 'v'), ('栾川', 'ns'), ('二广', 'j'), ('高速', 'b'), ('：', 'w'), ('寄料站', 'n'), ('—下', 'w'), ('汤西站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('：', 'w'), ('杨庄站', 'ns'), ('-', 'ns'), ('尹集站', 'ns'), ('安阳', 'ns'), ('西北', 's'), ('绕城', 'n'), ('：', 'w'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('：', 'w'), ('温泉站', 'ns'), ('—叶县', 'ns'), ('北站', 'ns'), ('西南', 'f'), ('绕城', 'ns'), ('：', 'w'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('：', 'w'), ('全线', 'n'), ('.', 'v'), ('因', 'c'), ('降雨', 'v'), ('，', 'w'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('沪陕', 'j'), ('高速', 'b'), ('：', 'w'), ('西坪站', 'ns'), ('—', 'w'), ('唐河东站', 'ns'), ('、', 'w'), ('桐柏', 'n'), ('毛集站', 'n'), ('—', 'w'), ('西九华', 'ns'), ('山站', 'n'), ('内邓', 'n'), ('高速', 'b'), ('：', 'w'), ('全线', 'n'), ('二广', 'b'), ('高速', 'b'), ('：', 'w'), ('南召站', 'ns'), ('—构', 'n'), ('林站', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('：', 'w'), ('方城站', 'ns'), ('—', 'w'), ('双铺站', 'j'), ('许广', 'nr'), ('高速', 'b'), ('：', 'w'), ('桐柏', 'ns'), ('朱庄站', 'ns'), ('—', 'w'), ('桐柏', 'ns'), ('东站', 'ns'), ('渠口', 'ns'), ('高速', 'b'), ('：', 'w'), ('彭桥站', 'ns'), ('京港', 'ns'), ('澳', 'j'), ('高速', 'b'), ('：', 'w'), ('长葛站', 'ns'), ('-', 'ns'), ('许昌', 'ns'), ('东区站', 'ns'), ('郑栾', 'nr'), ('高速', 'b'), ('：', 'w'), ('长', 'v'), ('葛西站', 'ns'), ('—', 'w'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('苌庄站', 'ns'), ('—', 'w'), ('鄢陵', 'ns'), ('南站', 'ns'), ('.', 'v'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('，', 'w'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('出省', 'v'), ('进省', 'v'), ('.', 'n'), ('因', 'c'), ('雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('的', 'u'), ('路段', 'n'), ('有', 'v'), ('：', 'w'), ('菏宝', 'ns'), ('高速', 'b'), ('邵原站', 'n'), ('-', 'v'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'd'), ('高速', 'd'), ('：', 'w'), ('观音', 'n'), ('堂站', 'n'), ('—义', 'w'), ('马站', 'ns'), ('济洛', 'ns'), ('高速', 'b'), ('：', 'w'), ('孟津西站', 'ns'), ('，', 'w'), ('请', 'v'), ('提前', 'v'), ('绕行', 'v'), ('，', 'w'), ('省内', 's'), ('其他', 'r'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('。', 'w'), ('【', 'v'), ('河南', 'ns'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('】', 'v'), ('在', 'p'), ('河南', 'ns'), ('高速', 'b'), ('公路', 'n'), ('上', 'v'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('，', 'w'), ('请', 'v'), ('拨打', 'v'), ('河南', 'ns'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('-', 'vn'), ('或', 'c'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('。', 'w'), ('#', 'v'), ('河南', 'ns'), ('暴雨', 'n'), ('救援', 'vn'), ('#', 'n'), ('#', 'v'), ('文明', 'a'), ('交通', 'n'), ('·', 'w'), ('安全', 'ad'), ('伴', 'v'), ('您行', 'r'), ('#', 'v'), ('#', 'v'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n'), ('#', 'v')]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>[('高速', 'd'), ('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('省内', 's'), ('高速', 'd'), ('通行', 'j'), ('情况', 'n'), ('降雨', 'n'), ('信阳', 'n'), ('南阳', 'ns'), ('商丘', 'n'), ('许昌', 'nr'), ('驻马店', 'ns'), ('周口', 'n'), ('全省', 'n'), ('高速公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('七座', 'm'), ('七座', 'm'), ('以上', 'f'), ('客车', 'n'), ('上站', 'n'), ('路段', 'n'), ('济洛', 'ns'), ('高速', 'd'), ('小浪底', 'n'), ('北站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('独山', 'ns'), ('小史', 'n'), ('店站', 'n'), ('四通', 'nz'), ('商水', 'n'), ('高速', 'd'), ('全线', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('港澳', 'j'), ('高速', 'd'), ('临颍', 'nrt'), ('漯河', 'ns'), ('南站', 'ns'), ('新乡', 'ns'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('宣化', 'vn'), ('日兰', 'ns'), ('高速', 'd'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('二郎庙', 'ns'), ('尉氏', 'nr'), ('站商', 'n'), ('高速', 'd'), ('古城', 'ns'), ('县衙', 'n'), ('博园', 'n'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'd'), ('官渡', 'nr'), ('鄢陵', 'nr'), ('郑民', 'ns'), ('高速', 'd'), ('郑庵', 'nr'), ('杞县', 'ns'), ('高速', 'd'), ('全线', 'n'), ('大广', 'nz'), ('高速', 'd'), ('南乐', 'ns'), ('通许', 'd'), ('东站', 'n'), ('郑云', 'nr'), ('高速', 'd'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('襄城', 'ns'), ('舞钢', 'n'), ('南站', 'ns'), ('连霍', 'nr'), ('高速', 'd'), ('新安', 'ns'), ('西站', 'ns'), ('荥阳', 'ns'), ('开封', 'v'), ('东站', 'n'), ('兰考', 'nr'), ('灵站', 'n'), ('义马', 'n'), ('向东', 'nr'), ('方向', 'n'), ('郑焦晋', 'nr'), ('高速', 'd'), ('武陟', 'nr'), ('焦作', 'n'), ('焦桐', 'n'), ('高速', 'd'), ('焦作', 'n'), ('西南', 'ns'), ('汝州', 'ns'), ('东站', 'n'), ('台辉', 'ns'), ('高速', 'd'), ('全线', 'n'), ('高速', 'd'), ('范县', 'nr'), ('东站', 'n'), ('南林', 'ns'), ('高速', 'd'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('平顶山', 'ns'), ('旧县', 'ns'), ('郑栾', 'nr'), ('高速', 'd'), ('侯寨', 'nr'), ('新郑', 'ns'), ('西站', 'ns'), ('郏县', 'ns'), ('栾川', 'nr'), ('高速', 'd'), ('寄料', 'n'), ('西站', 'ns'), ('商南', 'ns'), ('高速', 'd'), ('杨庄', 'nr'), ('集站', 'n'), ('安阳', 'ns'), ('西北', 'ns'), ('绕城', 'ns'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('温泉', 'nr'), ('叶县', 'ns'), ('北站', 'ns'), ('西南', 'ns'), ('绕城', 'ns'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('全线', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('高速', 'd'), ('西坪', 'ns'), ('唐河', 'nr'), ('东站', 'n'), ('桐柏', 'ns'), ('集站', 'n'), ('九华山', 'ns'), ('站内', 's'), ('高速', 'd'), ('全线', 'n'), ('高速', 'd'), ('南召', 'ns'), ('构林', 'n'), ('兰南', 'ns'), ('高速', 'd'), ('方城', 'n'), ('双铺', 'n'), ('站许', 'v'), ('高速', 'd'), ('桐柏', 'ns'), ('朱庄', 'nr'), ('桐柏', 'ns'), ('东站', 'n'), ('渠口', 'n'), ('高速', 'd'), ('彭桥', 'nr'), ('港澳', 'j'), ('高速', 'd'), ('长葛', 'ns'), ('许昌', 'nr'), ('东区', 'ns'), ('郑栾', 'nr'), ('高速', 'd'), ('长葛', 'ns'), ('西站', 'ns'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'd'), ('鄢陵', 'nr'), ('南站', 'ns'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('因雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('高速', 'd'), ('邵原', 'nr'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'nr'), ('高速', 'd'), ('观音堂', 'n'), ('义马', 'n'), ('站济', 'n'), ('高速', 'd'), ('孟津', 'ns'), ('西站', 'ns'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速公路', 'n'), ('正常', 'd'), ('通行', 'j'), ('高速', 'd'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('高速', 'd'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('高速', 'd'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('中原', 'ns'), ('高速', 'd'), ('交警', 'j'), ('平安', 'a'), ('濮阳', 'ns'), ('高速', 'd'), ('公安', 'n')]</t>
+          <t>[('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('通行', 'j'), ('情况', 'n'), ('降雨', 'n'), ('信阳', 'n'), ('商丘', 'n'), ('许昌', 'nr'), ('周口', 'n'), ('全省', 'n'), ('高速公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('客车', 'n'), ('上站', 'n'), ('路段', 'n'), ('小浪底', 'n'), ('小史', 'n'), ('店站', 'n'), ('商水', 'n'), ('全线', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('港澳', 'j'), ('临颍', 'nrt'), ('宣化', 'vn'), ('全线', 'n'), ('尉氏', 'nr'), ('站商', 'n'), ('县衙', 'n'), ('博园', 'n'), ('官渡', 'nr'), ('鄢陵', 'nr'), ('郑庵', 'nr'), ('全线', 'n'), ('东站', 'n'), ('郑云', 'nr'), ('全线', 'n'), ('许广', 'nr'), ('舞钢', 'n'), ('连霍', 'nr'), ('开封', 'v'), ('东站', 'n'), ('兰考', 'nr'), ('灵站', 'n'), ('义马', 'n'), ('向东', 'nr'), ('方向', 'n'), ('郑焦晋', 'nr'), ('武陟', 'nr'), ('焦作', 'n'), ('焦桐', 'n'), ('焦作', 'n'), ('东站', 'n'), ('全线', 'n'), ('范县', 'nr'), ('东站', 'n'), ('全线', 'n'), ('郑栾', 'nr'), ('侯寨', 'nr'), ('栾川', 'nr'), ('寄料', 'n'), ('杨庄', 'nr'), ('集站', 'n'), ('全线', 'n'), ('宁洛', 'nr'), ('温泉', 'nr'), ('全线', 'n'), ('郑少', 'nr'), ('全线', 'n'), ('降雨', 'n'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('唐河', 'nr'), ('东站', 'n'), ('集站', 'n'), ('全线', 'n'), ('构林', 'n'), ('方城', 'n'), ('双铺', 'n'), ('站许', 'v'), ('朱庄', 'nr'), ('东站', 'n'), ('渠口', 'n'), ('彭桥', 'nr'), ('港澳', 'j'), ('许昌', 'nr'), ('郑栾', 'nr'), ('鄢陵', 'nr'), ('隧道', 'n'), ('积水', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('因雾', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('邵原', 'nr'), ('连霍', 'nr'), ('观音堂', 'n'), ('义马', 'n'), ('站济', 'n'), ('提前', 'v'), ('绕行', 'v'), ('高速公路', 'n'), ('通行', 'j'), ('交警', 'j'), ('提示', 'v'), ('高速公路', 'n'), ('遇到', 'v'), ('紧急情况', 'l'), ('拨打', 'v'), ('交警', 'j'), ('报警', 'n'), ('电话', 'n'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'v'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'nr'), ('交通', 'n'), ('安全', 'an'), ('平安', 'a'), ('交警', 'j')]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('省内', 's'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('降雨', 'v'), ('信阳', 'ns'), ('南阳', 'ns'), ('商丘', 'n'), ('许昌', 'nr'), ('驻马店', 'ns'), ('周口', 'ns'), ('全省', 'n'), ('高速', 'b'), ('公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('以上', 'f'), ('客车', 'n'), ('路段', 'n'), ('济洛', 'ns'), ('高速', 'b'), ('小浪底', 'ns'), ('北站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('独山站', 'n'), ('小史店站', 'n'), ('四通站', 'j'), ('商水站', 'n'), ('濮商', 'n'), ('高速', 'b'), ('全线', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('京港', 'ns'), ('高速', 'b'), ('临颍站', 'ns'), ('漯河南站', 'n'), ('新乡站', 'ns'), ('安阳', 'ns'), ('北站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('君召站', 'ns'), ('宣化', 'v'), ('站日兰', 'n'), ('高速', 'b'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('二郎庙站', 'ns'), ('尉氏站', 'ns'), ('商登', 'ns'), ('高速', 'b'), ('古城县', 'ns'), ('衙站', 'n'), ('园博园站', 'n'), ('岗李站', 'n'), ('杞县', 'ns'), ('南站', 'ns'), ('安罗', 'ns'), ('高速', 'b'), ('官渡站', 'n'), ('鄢陵', 'ns'), ('彭店站', 'ns'), ('郑民', 'nr'), ('高速', 'b'), ('郑庵站', 'nr'), ('杞县', 'ns'), ('站菏宝', 'n'), ('高速', 'b'), ('全线', 'n'), ('大广高速', 'n'), ('南乐站', 'ns'), ('通许', 'v'), ('东站', 'ns'), ('郑云', 'nr'), ('高速', 'd'), ('全线', 'n'), ('许广', 'nr'), ('高速', 'd'), ('襄城站', 'ns'), ('舞钢', 'n'), ('南站', 'n'), ('连霍', 'v'), ('高速', 'b'), ('新安', 'ns'), ('西站', 'ns'), ('荥阳站', 'n'), ('开封', 'ns'), ('东站', 'ns'), ('—兰', 'ns'), ('考站', 'j'), ('豫灵站', 'j'), ('义马站', 'n'), ('东方向', 'n'), ('焦晋', 'nr'), ('高速', 'b'), ('武陟站', 'ns'), ('焦作站', 'n'), ('焦桐', 'nr'), ('高速', 'b'), ('焦作', 'ns'), ('西南站', 'ns'), ('汝州', 'ns'), ('东站', 'n'), ('台辉', 'nz'), ('高速', 'b'), ('全线', 'n'), ('德上', 's'), ('高速', 'b'), ('范县', 'ns'), ('东站', 'ns'), ('南林', 'ns'), ('高速', 'b'), ('全线', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('平顶山', 'ns'), ('站—', 'v'), ('旧县站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('侯寨站', 'ns'), ('郑西站', 'j'), ('郏县站', 'n'), ('栾川', 'ns'), ('二广', 'j'), ('高速', 'b'), ('寄料站', 'n'), ('—下', 'w'), ('汤西站', 'ns'), ('商南', 'ns'), ('高速', 'b'), ('杨庄站', 'ns'), ('尹集站', 'ns'), ('安阳', 'ns'), ('西北', 's'), ('绕城', 'n'), ('全线', 'n'), ('宁洛', 'nr'), ('高速', 'd'), ('温泉站', 'ns'), ('—叶县', 'ns'), ('北站', 'ns'), ('西南', 'f'), ('绕城', 'ns'), ('全线', 'n'), ('郑少', 'nr'), ('高速', 'd'), ('全线', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('沪陕', 'j'), ('高速', 'b'), ('西坪站', 'ns'), ('唐河东站', 'ns'), ('桐柏', 'n'), ('毛集站', 'n'), ('西九华', 'ns'), ('山站', 'n'), ('内邓', 'n'), ('高速', 'b'), ('全线', 'n'), ('二广', 'b'), ('高速', 'b'), ('南召站', 'ns'), ('—构', 'n'), ('林站', 'n'), ('兰南', 'ns'), ('高速', 'b'), ('方城站', 'ns'), ('双铺站', 'j'), ('许广', 'nr'), ('高速', 'b'), ('桐柏', 'ns'), ('朱庄站', 'ns'), ('桐柏', 'ns'), ('东站', 'ns'), ('渠口', 'ns'), ('高速', 'b'), ('彭桥站', 'ns'), ('京港', 'ns'), ('高速', 'b'), ('长葛站', 'ns'), ('许昌', 'ns'), ('东区站', 'ns'), ('郑栾', 'nr'), ('高速', 'b'), ('葛西站', 'ns'), ('禹州', 'ns'), ('南站', 'ns'), ('盐洛', 'ns'), ('高速', 'b'), ('苌庄站', 'ns'), ('鄢陵', 'ns'), ('南站', 'ns'), ('山西', 'ns'), ('隧道', 'n'), ('积水', 'n'), ('济阳', 'ns'), ('高速', 'd'), ('禁止', 'v'), ('车辆', 'n'), ('出省', 'v'), ('进省', 'v'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('菏宝', 'ns'), ('高速', 'b'), ('邵原站', 'n'), ('济源', 'ns'), ('南站', 'ns'), ('连霍', 'd'), ('高速', 'd'), ('观音', 'n'), ('堂站', 'n'), ('—义', 'w'), ('马站', 'ns'), ('济洛', 'ns'), ('高速', 'b'), ('孟津西站', 'ns'), ('提前', 'v'), ('绕行', 'v'), ('省内', 's'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('您行', 'r'), ('平安', 'nz'), ('中原·', 'nz'), ('高速', 'b'), ('交警', 'n'), ('平安', 'a'), ('濮阳', 'ns'), ('高速', 'b'), ('公安', 'n')]</t>
+          <t>[('高速', 'b'), ('路况', 'n'), ('截至', 'v'), ('目前', 't'), ('高速', 'b'), ('通行', 'vn'), ('情况', 'n'), ('降雨', 'v'), ('商丘', 'n'), ('许昌', 'nr'), ('全省', 'n'), ('高速', 'b'), ('公路', 'n'), ('禁止', 'v'), ('货车', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('客车', 'n'), ('路段', 'n'), ('高速', 'b'), ('高速', 'b'), ('独山站', 'n'), ('小史店站', 'n'), ('四通站', 'j'), ('商水站', 'n'), ('濮商', 'n'), ('高速', 'b'), ('全线', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('所有', 'b'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('高速', 'b'), ('漯河南站', 'n'), ('高速', 'b'), ('宣化', 'v'), ('站日兰', 'n'), ('高速', 'b'), ('全线', 'n'), ('高速', 'b'), ('高速', 'b'), ('衙站', 'n'), ('园博园站', 'n'), ('岗李站', 'n'), ('高速', 'b'), ('官渡站', 'n'), ('郑民', 'nr'), ('高速', 'b'), ('郑庵站', 'nr'), ('站菏宝', 'n'), ('高速', 'b'), ('全线', 'n'), ('大广高速', 'n'), ('通许', 'v'), ('郑云', 'nr'), ('全线', 'n'), ('许广', 'nr'), ('舞钢', 'n'), ('南站', 'n'), ('连霍', 'v'), ('高速', 'b'), ('荥阳站', 'n'), ('考站', 'j'), ('豫灵站', 'j'), ('义马站', 'n'), ('东方向', 'n'), ('焦晋', 'nr'), ('高速', 'b'), ('焦作站', 'n'), ('焦桐', 'nr'), ('高速', 'b'), ('东站', 'n'), ('高速', 'b'), ('全线', 'n'), ('高速', 'b'), ('高速', 'b'), ('全线', 'n'), ('高速', 'b'), ('站—', 'v'), ('旧县站', 'n'), ('郑栾', 'nr'), ('高速', 'b'), ('郑西站', 'j'), ('郏县站', 'n'), ('二广', 'j'), ('高速', 'b'), ('寄料站', 'n'), ('—下', 'w'), ('高速', 'b'), ('绕城', 'n'), ('全线', 'n'), ('宁洛', 'nr'), ('全线', 'n'), ('郑少', 'nr'), ('全线', 'n'), ('降雨', 'v'), ('禁止', 'v'), ('危险品', 'n'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('沪陕', 'j'), ('高速', 'b'), ('桐柏', 'n'), ('毛集站', 'n'), ('山站', 'n'), ('内邓', 'n'), ('高速', 'b'), ('全线', 'n'), ('二广', 'b'), ('高速', 'b'), ('—构', 'n'), ('林站', 'n'), ('高速', 'b'), ('双铺站', 'j'), ('许广', 'nr'), ('高速', 'b'), ('高速', 'b'), ('高速', 'b'), ('郑栾', 'nr'), ('高速', 'b'), ('高速', 'b'), ('隧道', 'n'), ('积水', 'n'), ('禁止', 'v'), ('车辆', 'n'), ('出省', 'v'), ('进省', 'v'), ('禁止', 'v'), ('车辆', 'n'), ('上站', 'n'), ('路段', 'n'), ('高速', 'b'), ('邵原站', 'n'), ('观音', 'n'), ('堂站', 'n'), ('—义', 'w'), ('高速', 'b'), ('提前', 'v'), ('绕行', 'v'), ('高速', 'b'), ('公路', 'n'), ('正常', 'ad'), ('通行', 'v'), ('高速', 'b'), ('交警', 'n'), ('提示', 'v'), ('高速', 'b'), ('公路', 'n'), ('遇到', 'v'), ('紧急', 'a'), ('情况', 'n'), ('拨打', 'v'), ('高速', 'b'), ('交警', 'n'), ('报警', 'vn'), ('电话', 'n'), ('高速', 'b'), ('服务', 'vn'), ('电话', 'n'), ('求助', 'vn'), ('暴雨', 'n'), ('救援', 'vn'), ('文明', 'a'), ('交通', 'n'), ('安全', 'ad'), ('高速', 'b'), ('交警', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[('少年', 'm'), ('滞留', 'v'), ('郑州', 'ns'), ('消防员', 'n'), ('大哭', 'v'), ('少年', 'm'), ('滞留', 'v'), ('郑州', 'ns'), ('见到', 'v'), ('安徽', 'ns'), ('消防员', 'n'), ('破防', 'v'), ('暴雨', 'n'), ('感人', 'n'), ('现场', 'n'), ('上午', 't'), ('左右', 'm'), ('郑州', 'ns'), ('一名', 'm'), ('少年', 'm'), ('见到', 'v'), ('正在', 't'), ('展开', 'v'), ('救援', 'vn'), ('安徽', 'ns'), ('消防员', 'n'), ('消防员', 'n'), ('大哭', 'v'), ('少年', 'm'), ('甘肃', 'ns'), ('江苏', 'ns'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('已经', 'd'), ('郑州', 'ns'), ('中原', 'ns'), ('科技', 'n'), ('学院', 'n'), ('学生', 'n'), ('收留', 'v'), ('宿舍', 'n'), ('现在', 't'), ('打算', 'v'), ('西安', 'ns'), ('消防员', 'n'), ('少年', 'm'), ('提供', 'v'), ('鞋子', 'n'), ('食品', 'n'), ('少年', 'm'), ('搭乘', 'v'), ('车辆', 'n'), ('离开', 'v'), ('上车', 'n'), ('少年', 'm'), ('送给', 'v'), ('需要', 'v'), ('传递', 'v'), ('下去', 't'), ('赞逆', 'v'), ('行者', 'n'), ('暴雨', 'n'), ('消防', 'n'), ('救援', 'vn'), ('胡辣汤', 'nr'), ('挺住', 'v'), ('安徽', 'ns'), ('板面', 'n'), ('安徽', 'ns'), ('消防', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('滞留', 'v'), ('消防员', 'n'), ('大哭', 'v'), ('滞留', 'v'), ('见到', 'v'), ('消防员', 'n'), ('破防', 'v'), ('暴雨', 'n'), ('感人', 'n'), ('现场', 'n'), ('上午', 't'), ('见到', 'v'), ('正在', 't'), ('展开', 'v'), ('救援', 'vn'), ('消防员', 'n'), ('消防员', 'n'), ('大哭', 'v'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('科技', 'n'), ('学院', 'n'), ('学生', 'n'), ('收留', 'v'), ('宿舍', 'n'), ('现在', 't'), ('打算', 'v'), ('消防员', 'n'), ('提供', 'v'), ('鞋子', 'n'), ('食品', 'n'), ('搭乘', 'v'), ('车辆', 'n'), ('离开', 'v'), ('上车', 'n'), ('送给', 'v'), ('需要', 'v'), ('传递', 'v'), ('下去', 't'), ('赞逆', 'v'), ('行者', 'n'), ('暴雨', 'n'), ('消防', 'n'), ('救援', 'vn'), ('胡辣汤', 'nr'), ('挺住', 'v'), ('板面', 'n'), ('消防', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[('少年', 'n'), ('滞留', 'v'), ('郑州', 'ns'), ('天抱', 'v'), ('消防员', 'n'), ('大哭', 'd'), ('少年', 'n'), ('滞留', 'v'), ('郑州', 'ns'), ('见到', 'v'), ('安徽', 'ns'), ('消防员', 'n'), ('秒破', 'v'), ('防#', 'v'), ('暴雨', 'n'), ('感人', 'a'), ('现场', 's'), ('午点', 'n'), ('左右', 'm'), ('郑州', 'ns'), ('少年', 'n'), ('见到', 'v'), ('正在', 'd'), ('展开', 'v'), ('救援', 'vn'), ('安徽', 'ns'), ('消防员', 'n'), ('消防员', 'n'), ('大哭', 'i'), ('少年', 'n'), ('甘肃人', 'n'), ('江苏', 'ns'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('已经', 'd'), ('郑州', 'ns'), ('中原', 'ns'), ('科技', 'n'), ('学院', 'n'), ('学生', 'n'), ('收留', 'v'), ('宿舍', 'n'), ('现在', 't'), ('打算', 'v'), ('西安', 'ns'), ('消防员', 'n'), ('少年', 'n'), ('提供', 'v'), ('鞋子', 'n'), ('食品', 'n'), ('少年', 'n'), ('搭乘', 'v'), ('车辆', 'n'), ('离开', 'v'), ('上车', 'v'), ('少年', 'n'), ('伞送', 'v'), ('需要', 'v'), ('传递', 'v'), ('下去', 'v'), ('点赞', 'v'), ('逆行者', 'n'), ('暴雨', 'n'), ('消防', 'n'), ('急救援', 'vn'), ('胡辣汤', 'd'), ('挺住', 'v'), ('安徽', 'ns'), ('板面', 'n'), ('安徽', 'ns'), ('消防', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('少年', 'n'), ('滞留', 'v'), ('天抱', 'v'), ('消防员', 'n'), ('少年', 'n'), ('滞留', 'v'), ('见到', 'v'), ('消防员', 'n'), ('秒破', 'v'), ('防#', 'v'), ('暴雨', 'n'), ('感人', 'a'), ('午点', 'n'), ('少年', 'n'), ('见到', 'v'), ('展开', 'v'), ('救援', 'vn'), ('消防员', 'n'), ('消防员', 'n'), ('大哭', 'i'), ('少年', 'n'), ('甘肃人', 'n'), ('暴雨', 'n'), ('交通', 'n'), ('延误', 'v'), ('科技', 'n'), ('学院', 'n'), ('学生', 'n'), ('收留', 'v'), ('宿舍', 'n'), ('现在', 't'), ('打算', 'v'), ('消防员', 'n'), ('少年', 'n'), ('提供', 'v'), ('鞋子', 'n'), ('食品', 'n'), ('少年', 'n'), ('搭乘', 'v'), ('车辆', 'n'), ('离开', 'v'), ('上车', 'v'), ('少年', 'n'), ('伞送', 'v'), ('需要', 'v'), ('传递', 'v'), ('下去', 'v'), ('点赞', 'v'), ('逆行者', 'n'), ('暴雨', 'n'), ('消防', 'n'), ('急救援', 'vn'), ('挺住', 'v'), ('板面', 'n'), ('消防', 'n'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5886,47 +5886,47 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>#暴风雨中的河南力量#【二十四小时作业，只为道路尽快贯通】，为全面恢复郑州极值暴雨过后路面交通，郑州市公安局交警支队组织全体铁骑民警，集中协调全市道路清障车和平板拖车，连夜对暴雨中滞留高架桥和路面的受损车辆进行拖移，有效确保市区主要路面交通全部贯通。郑州发布的微博视频</t>
+          <t>#暴风雨中的河南力量#【</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['#', '暴风雨', '中', '的', '河南', '力量', '#', '【', '二十四', '小时', '作业', '，', '只', '为', '道路', '尽快', '贯通', '】', '，', '为', '全面', '恢复', '郑州', '极值', '暴雨', '过后', '路面', '交通', '，', '郑州市', '公安局', '交警支队', '组织', '全体', '铁骑', '民警', '，', '集中', '协调', '全市', '道路', '清障车', '和', '平板', '拖车', '，', '连夜', '对', '暴雨', '中', '滞留', '高架桥', '和', '路面', '的', '受损', '车辆', '进行', '拖移', '，', '有效', '确保', '市区', '主要', '路面', '交通', '全部', '贯通', '。', '郑州', '发布', '的', '微博', '视频']</t>
+          <t>['#', '暴风雨', '中', '的', '河南', '力量', '#', '【']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['#', '暴风雨', '中', '的', '河南', '力量', '#', '【', '二十四', '小时', '作业', '，', '只', '为', '道路', '尽快', '贯通', '】', '，', '为', '全面', '恢复', '郑州', '极值', '暴雨', '过后', '路面', '交通', '，', '郑州市', '公安局', '交警', '支队', '组织', '全体', '铁骑', '民警', '，', '集中', '协调', '全市', '道路', '清障车', '和', '平板', '拖车', '，', '连夜', '对', '暴雨', '中', '滞留', '高架桥', '和', '路面', '的', '受损', '车辆', '进行', '拖移', '，', '有效', '确保', '市区', '主要', '路面', '交通', '全部', '贯通', '。', '郑州', '发布', '的', '微博', '视频']</t>
+          <t>['#', '暴风雨', '中', '的', '河南', '力量', '#', '【']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['暴风雨', '力量', '二十四', '小时', '作业', '道路', '尽快', '贯通', '全面', '恢复', '郑州', '极值', '暴雨', '过后', '路面', '交通', '郑州市', '公安局', '交警支队', '组织', '全体', '铁骑', '民警', '集中', '协调', '全市', '道路', '清障车', '平板', '拖车', '连夜', '暴雨', '滞留', '高架桥', '路面', '受损', '车辆', '进行', '拖移', '有效', '确保', '市区', '主要', '路面', '交通', '全部', '贯通', '郑州', '发布', '微博', '视频']</t>
+          <t>['暴风雨', '力量']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['暴风雨', '力量', '二十四', '小时', '作业', '道路', '尽快', '贯通', '全面', '恢复', '郑州', '极值', '暴雨', '过后', '路面', '交通', '郑州市', '公安局', '交警', '支队', '组织', '全体', '铁骑', '民警', '集中', '协调', '全市', '道路', '清障车', '平板', '拖车', '连夜', '暴雨', '滞留', '高架桥', '路面', '受损', '车辆', '进行', '拖移', '有效', '确保', '市区', '主要', '路面', '交通', '全部', '贯通', '郑州', '发布', '微博', '视频']</t>
+          <t>['暴风雨', '力量']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[('#', 'x'), ('暴风雨', 'nr'), ('中', 'f'), ('的', 'uj'), ('河南', 'ns'), ('力量', 'n'), ('#', 'x'), ('【', 'x'), ('二十四', 'm'), ('小时', 'n'), ('作业', 'n'), ('，', 'x'), ('只', 'd'), ('为', 'p'), ('道路', 'n'), ('尽快', 'd'), ('贯通', 'v'), ('】', 'x'), ('，', 'x'), ('为', 'p'), ('全面', 'n'), ('恢复', 'v'), ('郑州', 'ns'), ('极值', 'n'), ('暴雨', 'n'), ('过后', 't'), ('路面', 'n'), ('交通', 'n'), ('，', 'x'), ('郑州市', 'ns'), ('公安局', 'nt'), ('交警支队', 'n'), ('组织', 'v'), ('全体', 'n'), ('铁骑', 'n'), ('民警', 'n'), ('，', 'x'), ('集中', 'v'), ('协调', 'v'), ('全市', 'n'), ('道路', 'n'), ('清障车', 'n'), ('和', 'c'), ('平板', 'n'), ('拖车', 'n'), ('，', 'x'), ('连夜', 'd'), ('对', 'p'), ('暴雨', 'n'), ('中', 'f'), ('滞留', 'v'), ('高架桥', 'ns'), ('和', 'c'), ('路面', 'n'), ('的', 'uj'), ('受损', 'v'), ('车辆', 'n'), ('进行', 'v'), ('拖移', 'v'), ('，', 'x'), ('有效', 'a'), ('确保', 'v'), ('市区', 'n'), ('主要', 'b'), ('路面', 'n'), ('交通', 'n'), ('全部', 'n'), ('贯通', 'v'), ('。', 'x'), ('郑州', 'ns'), ('发布', 'v'), ('的', 'uj'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'x'), ('暴风雨', 'nr'), ('中', 'f'), ('的', 'uj'), ('河南', 'ns'), ('力量', 'n'), ('#', 'x'), ('【', 'x')]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[('#', 'v'), ('暴风雨', 'n'), ('中', 'f'), ('的', 'u'), ('河南', 'ns'), ('力量', 'n'), ('#', 'v'), ('【', 'v'), ('二十四', 'm'), ('小时', 'n'), ('作业', 'v'), ('，', 'w'), ('只', 'd'), ('为', 'v'), ('道路', 'n'), ('尽快', 'd'), ('贯通', 'v'), ('】', 'n'), ('，', 'w'), ('为', 'v'), ('全面', 'ad'), ('恢复', 'v'), ('郑州', 'ns'), ('极值', 'n'), ('暴雨', 'n'), ('过后', 'v'), ('路面', 'n'), ('交通', 'n'), ('，', 'w'), ('郑州市', 'ns'), ('公安局', 'n'), ('交警', 'n'), ('支队', 'n'), ('组织', 'v'), ('全体', 'n'), ('铁骑', 'n'), ('民警', 'n'), ('，', 'w'), ('集中', 'ad'), ('协调', 'v'), ('全市', 'n'), ('道路', 'n'), ('清障车', 'n'), ('和', 'c'), ('平板', 'n'), ('拖车', 'n'), ('，', 'w'), ('连夜', 'd'), ('对', 'p'), ('暴雨', 'n'), ('中', 'f'), ('滞留', 'v'), ('高架桥', 'n'), ('和', 'c'), ('路面', 'n'), ('的', 'u'), ('受损', 'vn'), ('车辆', 'n'), ('进行', 'vx'), ('拖移', 'vn'), ('，', 'w'), ('有效', 'ad'), ('确保', 'v'), ('市区', 's'), ('主要', 'b'), ('路面', 'n'), ('交通', 'n'), ('全部', 'd'), ('贯通', 'v'), ('。', 'w'), ('郑州', 'ns'), ('发布', 'v'), ('的', 'u'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('#', 'v'), ('暴风雨', 'n'), ('中', 'f'), ('的', 'u'), ('河南', 'ns'), ('力量', 'n'), ('#', 'v'), ('【', 'n')]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>[('暴风雨', 'nr'), ('力量', 'n'), ('二十四', 'm'), ('小时', 'n'), ('作业', 'n'), ('道路', 'n'), ('尽快', 'd'), ('贯通', 'v'), ('全面', 'n'), ('恢复', 'v'), ('郑州', 'ns'), ('极值', 'n'), ('暴雨', 'n'), ('过后', 't'), ('路面', 'n'), ('交通', 'n'), ('郑州市', 'ns'), ('公安局', 'nt'), ('交警支队', 'n'), ('组织', 'v'), ('全体', 'n'), ('铁骑', 'n'), ('民警', 'n'), ('集中', 'v'), ('协调', 'v'), ('全市', 'n'), ('道路', 'n'), ('清障车', 'n'), ('平板', 'n'), ('拖车', 'n'), ('连夜', 'd'), ('暴雨', 'n'), ('滞留', 'v'), ('高架桥', 'ns'), ('路面', 'n'), ('受损', 'v'), ('车辆', 'n'), ('进行', 'v'), ('拖移', 'v'), ('有效', 'a'), ('确保', 'v'), ('市区', 'n'), ('主要', 'b'), ('路面', 'n'), ('交通', 'n'), ('全部', 'n'), ('贯通', 'v'), ('郑州', 'ns'), ('发布', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴风雨', 'nr'), ('力量', 'n')]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[('暴风雨', 'n'), ('力量', 'n'), ('二十四', 'm'), ('小时', 'n'), ('作业', 'v'), ('道路', 'n'), ('尽快', 'd'), ('贯通', 'v'), ('全面', 'ad'), ('恢复', 'v'), ('郑州', 'ns'), ('极值', 'n'), ('暴雨', 'n'), ('过后', 'v'), ('路面', 'n'), ('交通', 'n'), ('郑州市', 'ns'), ('公安局', 'n'), ('交警', 'n'), ('支队', 'n'), ('组织', 'v'), ('全体', 'n'), ('铁骑', 'n'), ('民警', 'n'), ('集中', 'ad'), ('协调', 'v'), ('全市', 'n'), ('道路', 'n'), ('清障车', 'n'), ('平板', 'n'), ('拖车', 'n'), ('连夜', 'd'), ('暴雨', 'n'), ('滞留', 'v'), ('高架桥', 'n'), ('路面', 'n'), ('受损', 'vn'), ('车辆', 'n'), ('进行', 'vx'), ('拖移', 'vn'), ('有效', 'ad'), ('确保', 'v'), ('市区', 's'), ('主要', 'b'), ('路面', 'n'), ('交通', 'n'), ('全部', 'd'), ('贯通', 'v'), ('郑州', 'ns'), ('发布', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('暴风雨', 'n'), ('力量', 'n')]</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[('的哥', 'n'), ('冒雨', 'v'), ('清理', 'a'), ('积水', 'n'), ('路面', 'n'), ('巴中', 'ns'), ('普降', 'v'), ('大到暴雨', 'l'), ('造成', 'v'), ('多处', 'm'), ('道路交通', 'nz'), ('中断', 'ns'), ('部分', 'n'), ('乡镇', 'n'), ('受灾', 'v'), ('暴雨', 'n'), ('出现', 'v'), ('一幕', 'm'), ('插曲', 'n'), ('南江县', 'ns'), ('城区', 'n'), ('黄金', 'n'), ('大道', 'n'), ('路面', 'n'), ('排水口', 'n'), ('堵塞', 'v'), ('面积', 'n'), ('水齐', 'nr'), ('行人', 'n'), ('车辆', 'n'), ('出行', 'v'), ('困难', 'an'), ('出租车', 'n'), ('司机', 'n'), ('彭泽', 'nr'), ('开车', 'v'), ('路段', 'n'), ('立即', 'd'), ('车辆', 'n'), ('弯腰', 'v'), ('木棍', 'n'), ('第一', 'm'), ('时间', 'n'), ('冒雨', 'v'), ('清理', 'a'), ('积水', 'n'), ('路面', 'n'), ('小时', 'n'), ('疏通', 'v'), ('积水', 'n'), ('慢慢', 'd'), ('退去', 'v'), ('道路', 'n'), ('逐渐', 'd'), ('恢复', 'v'), ('通行', 'j'), ('四川', 'ns'), ('观察', 'v'), ('四川', 'ns'), ('观察', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('的哥', 'n'), ('冒雨', 'v'), ('清理', 'a'), ('积水', 'n'), ('路面', 'n'), ('普降', 'v'), ('大到暴雨', 'l'), ('造成', 'v'), ('部分', 'n'), ('乡镇', 'n'), ('受灾', 'v'), ('暴雨', 'n'), ('出现', 'v'), ('插曲', 'n'), ('城区', 'n'), ('黄金', 'n'), ('大道', 'n'), ('路面', 'n'), ('排水口', 'n'), ('堵塞', 'v'), ('面积', 'n'), ('水齐', 'nr'), ('行人', 'n'), ('车辆', 'n'), ('出行', 'v'), ('困难', 'an'), ('出租车', 'n'), ('司机', 'n'), ('彭泽', 'nr'), ('开车', 'v'), ('路段', 'n'), ('车辆', 'n'), ('弯腰', 'v'), ('木棍', 'n'), ('时间', 'n'), ('冒雨', 'v'), ('清理', 'a'), ('积水', 'n'), ('路面', 'n'), ('小时', 'n'), ('疏通', 'v'), ('积水', 'n'), ('退去', 'v'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'j'), ('观察', 'v'), ('观察', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[('点赞', 'v'), ('哥冒雨', 'n'), ('清理', 'v'), ('积水', 'n'), ('路面', 'n'), ('巴中普', 'nr'), ('降大', 'v'), ('暴雨', 'n'), ('造成', 'v'), ('道路', 'n'), ('交通', 'n'), ('中断', 'v'), ('部分', 'n'), ('乡镇', 'n'), ('受灾', 'v'), ('暴雨', 'n'), ('出现', 'v'), ('暖心', 'n'), ('插曲', 'n'), ('南江', 'ns'), ('县城区', 'n'), ('黄金', 'n'), ('大道', 'n'), ('路面', 'n'), ('排水口', 'n'), ('堵塞', 'v'), ('路面', 'n'), ('积水', 'n'), ('齐膝', 'v'), ('行人', 'n'), ('车辆', 'n'), ('出行', 'v'), ('困难', 'an'), ('出租车', 'n'), ('司机', 'n'), ('彭泽', 'nr'), ('开车', 'v'), ('路段', 'n'), ('立即', 'd'), ('车辆', 'n'), ('停好', 'v'), ('弯腰', 'v'), ('木棍', 'n'), ('第一时间', 'n'), ('冒雨', 'v'), ('清理', 'v'), ('积水', 'n'), ('路面', 'n'), ('小时', 'n'), ('疏通', 'vn'), ('积水', 'n'), ('慢慢', 'd'), ('退去', 'v'), ('道路', 'n'), ('逐渐', 'd'), ('恢复', 'v'), ('通行', 'v'), ('四川', 'ns'), ('观察', 'v'), ('四川', 'ns'), ('观察', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
+          <t>[('点赞', 'v'), ('哥冒雨', 'n'), ('清理', 'v'), ('积水', 'n'), ('路面', 'n'), ('巴中普', 'nr'), ('降大', 'v'), ('暴雨', 'n'), ('造成', 'v'), ('道路', 'n'), ('交通', 'n'), ('中断', 'v'), ('部分', 'n'), ('乡镇', 'n'), ('受灾', 'v'), ('暴雨', 'n'), ('出现', 'v'), ('暖心', 'n'), ('插曲', 'n'), ('县城区', 'n'), ('黄金', 'n'), ('大道', 'n'), ('路面', 'n'), ('排水口', 'n'), ('堵塞', 'v'), ('路面', 'n'), ('积水', 'n'), ('齐膝', 'v'), ('行人', 'n'), ('车辆', 'n'), ('出行', 'v'), ('困难', 'an'), ('出租车', 'n'), ('司机', 'n'), ('彭泽', 'nr'), ('开车', 'v'), ('路段', 'n'), ('车辆', 'n'), ('停好', 'v'), ('弯腰', 'v'), ('木棍', 'n'), ('第一时间', 'n'), ('冒雨', 'v'), ('清理', 'v'), ('积水', 'n'), ('路面', 'n'), ('小时', 'n'), ('疏通', 'vn'), ('积水', 'n'), ('退去', 'v'), ('道路', 'n'), ('恢复', 'v'), ('通行', 'v'), ('观察', 'v'), ('观察', 'v'), ('微博', 'a'), ('视频', 'n')]</t>
         </is>
       </c>
     </row>
